--- a/Web-Tools/MB Video-Base/MB Video-Base.xlsx
+++ b/Web-Tools/MB Video-Base/MB Video-Base.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mario/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mario/Documents/GitHub/homepage/Web-Tools/MB Video-Base/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2E3CDCF9-9DCD-9641-97C1-53F0ADDF93D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C7CAD28-0619-AD46-B90F-EE1800E6315C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1000" yWindow="920" windowWidth="28240" windowHeight="17100" xr2:uid="{6AEA2D50-42AE-224B-8400-6BD6B3C7B91A}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Hulk</t>
   </si>
@@ -48,6 +48,15 @@
   </si>
   <si>
     <t>South-Park Beschreibung</t>
+  </si>
+  <si>
+    <t>School Of Rock</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>khhvgcfcgvhvjvjhvg ugjhvgcdrchg zfzuftcg zgfftdzcjhv fztdztdchgcvjh</t>
   </si>
 </sst>
 </file>
@@ -421,7 +430,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D51DD517-BD67-9F45-A4CA-2F65B8CF2913}">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F3" sqref="F3"/>
@@ -475,6 +484,26 @@
         <v>3</v>
       </c>
     </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
+        <v>3</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="1">
+        <v>2003</v>
+      </c>
+      <c r="D3" s="1">
+        <v>108</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Web-Tools/MB Video-Base/MB Video-Base.xlsx
+++ b/Web-Tools/MB Video-Base/MB Video-Base.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mario/Documents/GitHub/homepage/Web-Tools/MB Video-Base/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C7CAD28-0619-AD46-B90F-EE1800E6315C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B92A1419-3C30-DA4D-ABEA-C4E8D068D37E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1000" yWindow="920" windowWidth="28240" windowHeight="17100" xr2:uid="{6AEA2D50-42AE-224B-8400-6BD6B3C7B91A}"/>
   </bookViews>

--- a/Web-Tools/MB Video-Base/MB Video-Base.xlsx
+++ b/Web-Tools/MB Video-Base/MB Video-Base.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mario/Documents/GitHub/homepage/Web-Tools/MB Video-Base/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B92A1419-3C30-DA4D-ABEA-C4E8D068D37E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D464350D-F140-3845-8E69-4A6C3FD382C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1000" yWindow="920" windowWidth="28240" windowHeight="17100" xr2:uid="{6AEA2D50-42AE-224B-8400-6BD6B3C7B91A}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Hulk</t>
   </si>
@@ -53,10 +53,25 @@
     <t>School Of Rock</t>
   </si>
   <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>khhvgcfcgvhvjvjhvg ugjhvgcdrchg zfzuftcg zgfftdzcjhv fztdztdchgcvjh</t>
+    <t>Jahr</t>
+  </si>
+  <si>
+    <t>#</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Laufzeit</t>
+  </si>
+  <si>
+    <t>FSK</t>
+  </si>
+  <si>
+    <t>Inhalt</t>
+  </si>
+  <si>
+    <t>Jack Black Schule</t>
   </si>
 </sst>
 </file>
@@ -430,10 +445,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D51DD517-BD67-9F45-A4CA-2F65B8CF2913}">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -445,63 +460,83 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="1">
-        <v>1</v>
+      <c r="A1" s="1" t="s">
+        <v>6</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1">
-        <v>2003</v>
-      </c>
-      <c r="D1" s="1">
-        <v>140</v>
-      </c>
-      <c r="E1" s="1">
-        <v>16</v>
+        <v>7</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C2" s="1">
-        <v>2000</v>
+        <v>2003</v>
       </c>
       <c r="D2" s="1">
-        <v>81</v>
+        <v>140</v>
       </c>
       <c r="E2" s="1">
         <v>16</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="1">
+        <v>2000</v>
+      </c>
+      <c r="D3" s="1">
+        <v>81</v>
+      </c>
+      <c r="E3" s="1">
+        <v>16</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="1">
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="1">
         <v>2003</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D4" s="1">
         <v>108</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>6</v>
+      <c r="E4" s="1">
+        <v>12</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/Web-Tools/MB Video-Base/MB Video-Base.xlsx
+++ b/Web-Tools/MB Video-Base/MB Video-Base.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mario/Documents/GitHub/homepage/Web-Tools/MB Video-Base/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D464350D-F140-3845-8E69-4A6C3FD382C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81E12520-BEBA-E84E-8695-FF4C05FF98B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1000" yWindow="920" windowWidth="28240" windowHeight="17100" xr2:uid="{6AEA2D50-42AE-224B-8400-6BD6B3C7B91A}"/>
   </bookViews>
@@ -78,6 +78,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="170" formatCode="0000"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -107,10 +110,21 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -448,94 +462,94 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" style="1"/>
-    <col min="2" max="2" width="18" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="5" width="10.83203125" style="1"/>
-    <col min="6" max="6" width="10.83203125" style="2"/>
+    <col min="1" max="1" width="10.83203125" style="3"/>
+    <col min="2" max="2" width="18" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="10.83203125" style="4"/>
+    <col min="6" max="6" width="21.6640625" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="5" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="1">
+      <c r="A2" s="3">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C2" s="4">
         <v>2003</v>
       </c>
-      <c r="D2" s="1">
+      <c r="D2" s="4">
         <v>140</v>
       </c>
-      <c r="E2" s="1">
+      <c r="E2" s="4">
         <v>16</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="1">
+      <c r="A3" s="3">
         <v>2</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3" s="4">
         <v>2000</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3" s="4">
         <v>81</v>
       </c>
-      <c r="E3" s="1">
+      <c r="E3" s="4">
         <v>16</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F3" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="1">
+      <c r="A4" s="3">
         <v>3</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4" s="4">
         <v>2003</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4" s="4">
         <v>108</v>
       </c>
-      <c r="E4" s="1">
+      <c r="E4" s="4">
         <v>12</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="F4" s="1" t="s">
         <v>11</v>
       </c>
     </row>

--- a/Web-Tools/MB Video-Base/MB Video-Base.xlsx
+++ b/Web-Tools/MB Video-Base/MB Video-Base.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mario/Documents/GitHub/homepage/Web-Tools/MB Video-Base/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81E12520-BEBA-E84E-8695-FF4C05FF98B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BBDF4DE-7DB1-B74A-9478-C6FE98289BEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1000" yWindow="920" windowWidth="28240" windowHeight="17100" xr2:uid="{6AEA2D50-42AE-224B-8400-6BD6B3C7B91A}"/>
   </bookViews>
@@ -41,9 +41,6 @@
     <t>Hulk</t>
   </si>
   <si>
-    <t>Hier die Beschreibung</t>
-  </si>
-  <si>
     <t>South Park - Der Film</t>
   </si>
   <si>
@@ -72,6 +69,9 @@
   </si>
   <si>
     <t>Jack Black Schule</t>
+  </si>
+  <si>
+    <t>Der Forscher Dr. Bruce Banner mutiert als Folge eines fehlgeschlagenen Experiments zum zerstörerischen grünen Muskelberg, sobald er wütend wird. Während Kollegin Betty, mit der ihn mehr als nur die Arbeit verbindet, zu dem vermeintlichen Monster hält, hat der Hulk auch viele Feinde. Beispielsweise den fiesen Wissenschaftler Glenn Talbot, der die "Kampfmaschine" militärisch "nützen" will, General Ross, der sie "ausschalten" möchte, und natürlich Vater David, der Schuld daran trägt, dass Bruce zum Ungetüm wurde.</t>
   </si>
 </sst>
 </file>
@@ -81,12 +81,17 @@
   <numFmts count="1">
     <numFmt numFmtId="170" formatCode="0000"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Aptos Narrow"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -110,7 +115,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -125,6 +130,7 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -465,7 +471,7 @@
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="10.83203125" style="3"/>
     <col min="2" max="2" width="18" style="1" bestFit="1" customWidth="1"/>
@@ -473,27 +479,27 @@
     <col min="6" max="6" width="21.6640625" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" s="1" customFormat="1">
       <c r="A1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="5" t="s">
-        <v>10</v>
-      </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -509,16 +515,16 @@
       <c r="E2" s="4">
         <v>16</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>1</v>
+      <c r="F2" s="6" t="s">
+        <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6">
       <c r="A3" s="3">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C3" s="4">
         <v>2000</v>
@@ -530,15 +536,15 @@
         <v>16</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6">
       <c r="A4" s="3">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C4" s="4">
         <v>2003</v>
@@ -550,7 +556,7 @@
         <v>12</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/Web-Tools/MB Video-Base/MB Video-Base.xlsx
+++ b/Web-Tools/MB Video-Base/MB Video-Base.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mario/Documents/GitHub/homepage/Web-Tools/MB Video-Base/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BBDF4DE-7DB1-B74A-9478-C6FE98289BEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC2D732A-8C8D-C348-A933-E8FE3AB1D48E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1000" yWindow="920" windowWidth="28240" windowHeight="17100" xr2:uid="{6AEA2D50-42AE-224B-8400-6BD6B3C7B91A}"/>
   </bookViews>
@@ -44,9 +44,6 @@
     <t>South Park - Der Film</t>
   </si>
   <si>
-    <t>South-Park Beschreibung</t>
-  </si>
-  <si>
     <t>School Of Rock</t>
   </si>
   <si>
@@ -68,10 +65,13 @@
     <t>Inhalt</t>
   </si>
   <si>
-    <t>Jack Black Schule</t>
-  </si>
-  <si>
     <t>Der Forscher Dr. Bruce Banner mutiert als Folge eines fehlgeschlagenen Experiments zum zerstörerischen grünen Muskelberg, sobald er wütend wird. Während Kollegin Betty, mit der ihn mehr als nur die Arbeit verbindet, zu dem vermeintlichen Monster hält, hat der Hulk auch viele Feinde. Beispielsweise den fiesen Wissenschaftler Glenn Talbot, der die "Kampfmaschine" militärisch "nützen" will, General Ross, der sie "ausschalten" möchte, und natürlich Vater David, der Schuld daran trägt, dass Bruce zum Ungetüm wurde.</t>
+  </si>
+  <si>
+    <t>Kenny, Cartman, Kyle und Stan schleichen sich in den kanadischen Kinofilm Feurige Ärsche - und das Chaos in South Park nimmt seinen Lauf. Die Vier kommen völlig versaut aus dem Kino und die Eltern sind außer sich: Sie gründen eine militante Bürgerinitiative und fordern die Hinrichtung der beiden Hauptdarsteller Terrance und Phillip. Die Sache eskaliert und führt die USA geradewegs in den Krieg gegen Kanada. Und ehe die Jungs sich versehen, riskieren sie ihr Leben für Frieden und Freiheit...</t>
+  </si>
+  <si>
+    <t>Dewey Finn steckt in der Klemme: Zuerst feuern ihn seine Bandmitglieder, dann droht ihm auch noch Mitbewohner Ned mit Rausschmiss, falls er seine Miete nicht bezahlt. Also gibt sich Dewey kurzerhand für Ned aus und springt als Aushilfslehrer an einer Elitegrundschule ein – ungläubig beäugt von der ultrakorrekten Schulleiterin Rosalie Mullins. Und weil Rocken das einzige ist, bei dem sich Dewey wirklich auskennt, steht für die gedrillten Musterschüler von nun an Headbangen, Rockgeschichte und Bühnenperformance auf dem Stundenplan.</t>
   </si>
 </sst>
 </file>
@@ -468,7 +468,7 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -481,22 +481,22 @@
   <sheetData>
     <row r="1" spans="1:6" s="1" customFormat="1">
       <c r="A1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="5" t="s">
         <v>8</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -516,7 +516,7 @@
         <v>16</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -536,7 +536,7 @@
         <v>16</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -544,7 +544,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C4" s="4">
         <v>2003</v>
@@ -556,7 +556,7 @@
         <v>12</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/Web-Tools/MB Video-Base/MB Video-Base.xlsx
+++ b/Web-Tools/MB Video-Base/MB Video-Base.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mario/Documents/GitHub/homepage/Web-Tools/MB Video-Base/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC2D732A-8C8D-C348-A933-E8FE3AB1D48E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC797B73-BAF4-BD4C-8D63-D8599A4DB16B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1000" yWindow="920" windowWidth="28240" windowHeight="17100" xr2:uid="{6AEA2D50-42AE-224B-8400-6BD6B3C7B91A}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>Hulk</t>
   </si>
@@ -72,15 +72,21 @@
   </si>
   <si>
     <t>Dewey Finn steckt in der Klemme: Zuerst feuern ihn seine Bandmitglieder, dann droht ihm auch noch Mitbewohner Ned mit Rausschmiss, falls er seine Miete nicht bezahlt. Also gibt sich Dewey kurzerhand für Ned aus und springt als Aushilfslehrer an einer Elitegrundschule ein – ungläubig beäugt von der ultrakorrekten Schulleiterin Rosalie Mullins. Und weil Rocken das einzige ist, bei dem sich Dewey wirklich auskennt, steht für die gedrillten Musterschüler von nun an Headbangen, Rockgeschichte und Bühnenperformance auf dem Stundenplan.</t>
+  </si>
+  <si>
+    <t>0001</t>
+  </si>
+  <si>
+    <t>0002</t>
+  </si>
+  <si>
+    <t>0003</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="170" formatCode="0000"/>
-  </numFmts>
   <fonts count="2">
     <font>
       <sz val="12"/>
@@ -121,7 +127,7 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -500,8 +506,8 @@
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="3">
-        <v>1</v>
+      <c r="A2" s="3" t="s">
+        <v>12</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>0</v>
@@ -520,8 +526,8 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="3">
-        <v>2</v>
+      <c r="A3" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>1</v>
@@ -540,8 +546,8 @@
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="3">
-        <v>3</v>
+      <c r="A4" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>2</v>

--- a/Web-Tools/MB Video-Base/MB Video-Base.xlsx
+++ b/Web-Tools/MB Video-Base/MB Video-Base.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mario/Documents/GitHub/homepage/Web-Tools/MB Video-Base/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC797B73-BAF4-BD4C-8D63-D8599A4DB16B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D28AFAE-2B61-5442-BE97-34C821618C30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1000" yWindow="920" windowWidth="28240" windowHeight="17100" xr2:uid="{6AEA2D50-42AE-224B-8400-6BD6B3C7B91A}"/>
   </bookViews>
@@ -474,7 +474,7 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>

--- a/Web-Tools/MB Video-Base/MB Video-Base.xlsx
+++ b/Web-Tools/MB Video-Base/MB Video-Base.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mario/Documents/GitHub/homepage/Web-Tools/MB Video-Base/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D28AFAE-2B61-5442-BE97-34C821618C30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{281E280C-7676-E542-9FD7-11DD233F2BB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1000" yWindow="920" windowWidth="28240" windowHeight="17100" xr2:uid="{6AEA2D50-42AE-224B-8400-6BD6B3C7B91A}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="30240" windowHeight="18900" xr2:uid="{6AEA2D50-42AE-224B-8400-6BD6B3C7B91A}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="63">
   <si>
     <t>Hulk</t>
   </si>
@@ -81,13 +81,157 @@
   </si>
   <si>
     <t>0003</t>
+  </si>
+  <si>
+    <t>0004</t>
+  </si>
+  <si>
+    <t>0005</t>
+  </si>
+  <si>
+    <t>0006</t>
+  </si>
+  <si>
+    <t>0007</t>
+  </si>
+  <si>
+    <t>0008</t>
+  </si>
+  <si>
+    <t>0009</t>
+  </si>
+  <si>
+    <t>0010</t>
+  </si>
+  <si>
+    <t>0011</t>
+  </si>
+  <si>
+    <t>0012</t>
+  </si>
+  <si>
+    <t>0013</t>
+  </si>
+  <si>
+    <t>0014</t>
+  </si>
+  <si>
+    <t>0015</t>
+  </si>
+  <si>
+    <t>0016</t>
+  </si>
+  <si>
+    <t>0017</t>
+  </si>
+  <si>
+    <t>0018</t>
+  </si>
+  <si>
+    <t>0019</t>
+  </si>
+  <si>
+    <t>Superman 1 - Der Film</t>
+  </si>
+  <si>
+    <t>Kurz vor der Zerstörung seines Heimatplaneten Krypton wird der kleine Kal-El von seinen Eltern in einer Raumkapsel Richtung Erde geschickt. Dort findet ihn das Farmerehepaar Kent, das ihm den Namen Clark gibt. Schon früh stellt sich heraus, dass ihr Ziehsohn außergewöhnliche Fähigkeiten besitzt. Erwachsen geworden, arbeitet Clark als unscheinbarer Reporter beim Daily Planet, wo er sich in seine Kollegin Lois Lane verliebt. Die hat jedoch nur Augen für Superman, nicht ahnend, dass der Held und Clark Kent ein und dieselbe Person sind.</t>
+  </si>
+  <si>
+    <t>Constantine</t>
+  </si>
+  <si>
+    <t>Er ist durch die Hölle gegangen – und das ist keine Metapher! John Constantine ist Detektiv in Los Angeles, allerdings für die ganz speziellen Fälle. Denn Constantine weiß, dass es parallel zu unserer Realität auch noch eine von Dämonen bevölkerte Höllendimension gibt und dass sich die Welten bisweilen überschneiden, ohne dass die Menschheit etwas davon ahnt. Da kontaktiert ihn eines Tages Angela Dodson, der er bei der Klärung des Todes ihrer Zwillingsschwester Isabel helfen soll, die sich vom Dach der Nervenheilanstalt stürzte, in der sie einsaß. Angela glaubt, hinter ihrem Tod stecke mehr; was sie nicht glaubt, sind Constantines Ansichten über die Dämonenwelt. Zwangsläufig wird sie jedoch eines Besseren belehrt, denn die Kräfte der Unheimlichen brechen zunehmend in unsere Realität durch.</t>
+  </si>
+  <si>
+    <t>Superman 2 - Allein Gegen Alle</t>
+  </si>
+  <si>
+    <t>Terroristen besetzen den Eiffelturm und drohen, eine Wasserstoffbombe zu zünden. Superman schafft es, die Bombe im Weltall zu entsorgen. Die Explosion befreit General Zod, Ursa und Non, die in der Phantomzone gefangen waren. Clark Kent, der inzwischen für Lois Lane seine Superkräfte aufgegeben hat, nimmt den Kampf gegen die Verbrecher auf.</t>
+  </si>
+  <si>
+    <t>Dinner For One</t>
+  </si>
+  <si>
+    <t>Zu Ehren ihres Geburtstages wird alljährlich für Miss Sophie eine Feier veranstaltet, um genau zu sein: Ein Dinner. Doch die geladenen Gäste, vier Herren mit Namen Sir Toby, Admiral von Schneider, Mr. Pommeroy und Mr. Winterbottom, sind schon vor Jahren verstorben, und so muss auch zu ihrem heutigen 90. Geburtstag ihr Butler James nicht nur seinen Mann stehen, sondern gleich vier weitere. Da zu jedem Menü passend Alkohol serviert wird und James im Namen jedes einzelnen Gastes Miss Sophie einen Toast aussprechen muss, ist es nur eine Frage der Zeit bis die Kombination Sherry, Weißwein, Champagner und Portwein ihre Wirkung zeigt...</t>
+  </si>
+  <si>
+    <t>Ein Königreich Für Ein Lama 1</t>
+  </si>
+  <si>
+    <t>Kuzco ist ein junger Inkaherrscher und dementsprechend eingebildet. Er will nicht nur das Haus des Hirten Pacha für ein Sommerschwimmbad abreißen, er entlässt auch noch seine Beraterin Yzma. Die sinnt auf Rache und versucht nicht nur, ihn zu vergiften sondern auch den Thron an sich zu reißen. Doch ihr dämlicher Gehilfe Kronk macht einen Fehler und Kuzco wird nur in ein Lama verwandelt. Auf Umwegen gelangt er zufällig wieder an Pacha, der ihm helfen will Yzma und Kronk zu stoppen. Jetzt ist Chaos angesagt...</t>
+  </si>
+  <si>
+    <t>Spongebob Schwammkopf - Der Film</t>
+  </si>
+  <si>
+    <t>Hektik in Bikini Bottom, dem Wohnort des gelben Schwamms Spongebob Schwammkopf. Irgendjemand hat die Krone von König Neptun gestohlen und der Verdacht fällt sofort auf Spongbobs Chef Mr. Krabs. Nur Spongebob und sein bester Freund, der Seestern Patrick, glauben an Mr. Krabs und machen sich auf, um dessen Unschuld zu beweisen. Dafür müssen sie Bikini Bottom verlassen und sich nach Shell City durchschlagen. Doch auf dem Weg dorthin kommen sie in allerlei schwierige Situation, die überstanden werden wollen, um Mr. Krabs zu retten.</t>
+  </si>
+  <si>
+    <t>Rat Race</t>
+  </si>
+  <si>
+    <t>Donald Sinclair ist exzentrischer Multimilliardär und Besitzer des größten und extravagantesten Spielkasinos in Las Vegas. Um einige seiner wohlhabendsten Gönner angemessen zu unterhalten, lässt er sich ein Spiel der etwas anderen Art einfallen: Sechs zufällig ausgewählte Personen werden auf den in einem Schließfach in New Mexico deponierten Gewinn in Höhe von Zwei Millionen Dollar angesetzt. Was die Teilnehmer des Spieles “ohne Regeln” aber nicht wissen, ist, dass der Tycoon und seine reichen Freunde eine Wette auf den Ausgang des Rennens abgeschlossen haben und jede ihrer Bewegungen verfolgen, gerade so, als seien sie Laborratten in einer Versuchsanordnung. Getrieben von Gier, Hast und einer Menge Böswilligkeiten, sind die Teilnehmer zu allem bereit, was sie dem verlockenden Cash-Gewinn näher bringen kann. Es ist jedoch nur eine Frage der Zeit, bis sie realisieren, dass sie lediglich Teil jener elitären Wette sind und den Spieß umdrehen.</t>
+  </si>
+  <si>
+    <t>Alien 2179 - Die Rückkehr</t>
+  </si>
+  <si>
+    <t>Nach der ersten Begegnung Ripleys mit dem Alien sind 57 Jahre vergangen. Ziellos treibt sie sich immer noch im Kälteschlaf befindlich durchs All. Zufällig wird sie entdeckt und wieder zurück zur Erde gebracht. Ihren Berichten über die Ereignisse mit dem Alien wird zunächst wenig Glauben geschenkt, doch als der Kontakt zu dem mittlerweile bevölkerten, aus dem ersten Teil bekannten Planeten abbricht, wird Ripley gebeten zusammen mit einem Trupp Space-Marines nach dem Rechten zu sehen. Sie kommen zu spät - die komplette Kolonie wurde von den Aliens überrannt und das Einsatzteam muss es mit der Übermacht aufnehmen...</t>
+  </si>
+  <si>
+    <t>Alien 2180 - Alien³</t>
+  </si>
+  <si>
+    <t>Nachdem Ellen Ripley, die kleine Newt, Soldat Hicks und der Android Bishop von LV 426 entkommen sind und sich mit dem Raumschiff USS Sulaco auf dem Rückweg zur Erde befinden, bricht wegen des säurehaltigen Blutes eines Facehuggers ("Gesichtsumklammerer") auf einem Zwischendeck ein Feuer aus. Eine Rettungskapsel wird abgesprengt und macht auf dem Planeten Fiorina "Fury" 161, auf dem sich nur eine Strafkolonie befindet, eine Bruchlandung. Corporal Hicks und Newt sterben bei dem Aufprall bzw. durch Ertrinken, der Android Bishop ist nicht mehr funktionsfähig. Neben Ripley überlebt die Landung nur ein Facehugger, der sich in einem Rottweiler schnell einen neuen Wirt sucht. Das kurz darauf neugeborene Alien beginnt bald die Strafgefangenen zu dezimieren.</t>
+  </si>
+  <si>
+    <t>Matrix 2 - Reloaded</t>
+  </si>
+  <si>
+    <t>Die Wächter schwärmen aus. Smith klont sich. Neo fliegt… aber vielleicht kann selbst der Auserwählte mit seinen atemberaubenden neuen Fähigkeiten den Angriff der Maschinen nicht mehr aufhalten. Neo. Morpheus. Trinity. Zurück im spannenden zweiten Kapitel der Matrix-Trilogie treffen sie auf außergewöhnliche Verbündete: Gemeinsam bekämpfen sie ihre Gegner, die sich klonen, durch Upgrades immer stärker werden und die letzte Festung der Menschheit belagern.</t>
+  </si>
+  <si>
+    <t>Matrix 3 - Revolutions</t>
+  </si>
+  <si>
+    <t>Die letzte Schlacht gegen die Maschinen kämpfen Neo, der Auserwählte, Rebellionsführer Morpheus und ihre Verbündeten – ein Krieg, der in den Ruinen der realen Welt geführt wird, der das Schicksal der Menschheit besiegelt und dessen Sieg in den Händen von Neo liegt, der seinerseits eine Reihe von Überraschungen zu erwarten hat.</t>
+  </si>
+  <si>
+    <t>Meet The Feebles</t>
+  </si>
+  <si>
+    <t>Trevor, die Ratte, Drogenhändler, Pornofilmer und Zyniker. Wynyard, der Frosch, aufgrund seiner Vietnam-Erfahrung drogenabhängig und Trevors bester Kunde. Sid, der Elefant, manisch-depressiv und außerdem noch mit einer Vaterschaftsklage eines Huhnes gestraft. Sebastian, der Fuchs, homosexueller Päderast, ist auch gleichzeitig Regisseur der Show. Harry, das Karnickel, vögelt sich durch das ganze Ballett, und da er dabei nicht der einzige ist, zieht er sich schon bald gewisse Krankheiten zu. Heidi, das 400 Pfund schwere Nilpferd, wird von ihrem Mann betrogen und nutzt daraufhin aus, dass er großkalibrige Waffen schmuggelt. Und dann wäre da noch Robert, der Igel, Held dieses Films und unsterblich in die Robbe Lucille verknallt. Trotz allem versuchen diese Charaktere eine Varieté-Show auf die Bühne zu stellen. Doch bei Sex, Drugs und Rock ’n’ Roll hinter, auf und unter der Bühne kann doch jeder Versuch nur zum Scheitern verurteilt sein, oder…?</t>
+  </si>
+  <si>
+    <t>Die Wutprobe</t>
+  </si>
+  <si>
+    <t>Per Gerichtsbeschluss verdonnert man den sanftmütigen Marketing-Angestellten Dave Buznik dazu, bei dem offensichtlich geistesgestörten Therapeuten Buddy Rydell vier Wochen Anti-Aggressionstraining zu absolvieren. Der mutterfixierte Seelenklempner erweist sich nicht nur selbst als cholerischer Psychopath, sondern schafft es zusammen mit Buzniks Mit-Patienten - darunter der gemeingefährliche Chuck - innerhalb kürzester Zeit, dessen Leben sowie die vormals wunderbare Beziehung zu Linda in einen Trümmerhaufen zu verwandeln.</t>
+  </si>
+  <si>
+    <t>50 Erste Dates</t>
+  </si>
+  <si>
+    <t>Der auf Hawaii lebende Tierarzt Henry Roth gilt als Frauenheld, der langfristigen Beziehungen lieber aus dem Weg geht. Als er die nette Lucy Whitmore kennen und lieben lernt, ändert sich seine Meinung. Er muss jedoch bald feststellen, dass Lucy seit einem Autounfall an einer speziellen Form der Amnesie leidet, bei der sie nach jeder Nacht den vorhergegangenen Tag wieder vergessen hat. Durch geschickte Vorkehrungen ihrer Familie weiß Lucy bis dato gar nichts von ihrer Krankheit. Henry wirbt somit jeden Tag aufs Neue um Lucys Liebe, die sich jedoch partout nicht an ihn erinnern kann.</t>
+  </si>
+  <si>
+    <t>Bruce Allmächtig</t>
+  </si>
+  <si>
+    <t>Weil man ihn bei der Beförderung übergangen hat, rastet der TV-Journalist Bruce Nolan dermaßen aus, dass man ihm den Stuhl vor die Tür stellt. Was folgt, ist unter anderem eine Wuttirade auf den lieben Gott. Der zufälligerweise zuhört - und seinem erzürnten Schäfchen kurzerhand für eine Woche die göttliche Allmacht überträgt. Bruce ist begeistert. Freundin Grace wird mit einer imposanteren Oberweite ausgestattet, die Gassi-Probleme des Hundes werden endgültig gelöst und seinem "Reporterglück" ordentlich nachgeholfen.</t>
+  </si>
+  <si>
+    <t>Königreich Der Himmel</t>
+  </si>
+  <si>
+    <t>Ende des 12. Jahrhunderts zur Zeit der Kreuzzüge: Der junge Schmied Balian tritt widerwillig eine gefährliche Reise an und folgt seinem Vater und geachteten Kreuzritter Godfrey in das Heilige Land, um dort in seine Fußstapfen zu treten und dessen Vision von Frieden in die Tat umzusetzen. Als Diener des von Intriganten umgebenen Königs Baldwin IV findet er sich mitten im Strudel des Krieges und einer unglücklichen Liebe zu Prinzessin Sybilla wieder. Zum Ritter geschlagen wird er dank seines Mutes zu einem ehrbaren Verfechter des Friedens zwischen den unterschiedlichen Religionen.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -96,9 +240,15 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="8"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="12"/>
-      <name val="Aptos Narrow"/>
-      <scheme val="minor"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -121,22 +271,23 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -471,101 +622,422 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D51DD517-BD67-9F45-A4CA-2F65B8CF2913}">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" style="3"/>
-    <col min="2" max="2" width="18" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="5" width="10.83203125" style="4"/>
-    <col min="6" max="6" width="21.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.83203125" style="6"/>
+    <col min="2" max="2" width="30.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="10.83203125" style="7"/>
+    <col min="6" max="6" width="255.83203125" style="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="4">
+      <c r="C2" s="7">
         <v>2003</v>
       </c>
-      <c r="D2" s="4">
+      <c r="D2" s="7">
         <v>140</v>
       </c>
-      <c r="E2" s="4">
+      <c r="E2" s="7">
         <v>16</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="3" t="s">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C3" s="7">
         <v>2000</v>
       </c>
-      <c r="D3" s="4">
+      <c r="D3" s="7">
         <v>81</v>
       </c>
-      <c r="E3" s="4">
+      <c r="E3" s="7">
         <v>16</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F3" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="3" t="s">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="7">
         <v>2003</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D4" s="7">
         <v>108</v>
       </c>
-      <c r="E4" s="4">
+      <c r="E4" s="7">
         <v>12</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="F4" s="4" t="s">
         <v>11</v>
       </c>
     </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" s="7">
+        <v>1978</v>
+      </c>
+      <c r="D5" s="7">
+        <v>145</v>
+      </c>
+      <c r="E5" s="7">
+        <v>12</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6" s="7">
+        <v>2005</v>
+      </c>
+      <c r="D6" s="7">
+        <v>121</v>
+      </c>
+      <c r="E6" s="7">
+        <v>16</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C7" s="7">
+        <v>1980</v>
+      </c>
+      <c r="D7" s="7">
+        <v>127</v>
+      </c>
+      <c r="E7" s="7">
+        <v>12</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C8" s="7">
+        <v>1963</v>
+      </c>
+      <c r="D8" s="7">
+        <v>18</v>
+      </c>
+      <c r="E8" s="7">
+        <v>0</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C9" s="7">
+        <v>2000</v>
+      </c>
+      <c r="D9" s="7">
+        <v>78</v>
+      </c>
+      <c r="E9" s="7">
+        <v>6</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C10" s="7">
+        <v>2004</v>
+      </c>
+      <c r="D10" s="7">
+        <v>82</v>
+      </c>
+      <c r="E10" s="7">
+        <v>6</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C11" s="7">
+        <v>2001</v>
+      </c>
+      <c r="D11" s="7">
+        <v>112</v>
+      </c>
+      <c r="E11" s="7">
+        <v>12</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C12" s="7">
+        <v>1986</v>
+      </c>
+      <c r="D12" s="7">
+        <v>137</v>
+      </c>
+      <c r="E12" s="7">
+        <v>18</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C13" s="7">
+        <v>1992</v>
+      </c>
+      <c r="D13" s="7">
+        <v>115</v>
+      </c>
+      <c r="E13" s="7">
+        <v>18</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C14" s="7">
+        <v>2003</v>
+      </c>
+      <c r="D14" s="7">
+        <v>136</v>
+      </c>
+      <c r="E14" s="7">
+        <v>16</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C15" s="7">
+        <v>2003</v>
+      </c>
+      <c r="D15" s="7">
+        <v>129</v>
+      </c>
+      <c r="E15" s="7">
+        <v>16</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C16" s="7">
+        <v>1989</v>
+      </c>
+      <c r="D16" s="7">
+        <v>93</v>
+      </c>
+      <c r="E16" s="7">
+        <v>18</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C17" s="7">
+        <v>2003</v>
+      </c>
+      <c r="D17" s="7">
+        <v>100</v>
+      </c>
+      <c r="E17" s="7">
+        <v>12</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C18" s="7">
+        <v>2004</v>
+      </c>
+      <c r="D18" s="7">
+        <v>95</v>
+      </c>
+      <c r="E18" s="7">
+        <v>0</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C19" s="7">
+        <v>2003</v>
+      </c>
+      <c r="D19" s="7">
+        <v>101</v>
+      </c>
+      <c r="E19" s="7">
+        <v>6</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C20" s="7">
+        <v>2005</v>
+      </c>
+      <c r="D20" s="7">
+        <v>138</v>
+      </c>
+      <c r="E20" s="7">
+        <v>12</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Web-Tools/MB Video-Base/MB Video-Base.xlsx
+++ b/Web-Tools/MB Video-Base/MB Video-Base.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10810"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10817"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mario/Documents/GitHub/homepage/Web-Tools/MB Video-Base/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{281E280C-7676-E542-9FD7-11DD233F2BB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1747BF25-9EEE-3C4E-8C0B-7C6EE750300C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="30240" windowHeight="18900" xr2:uid="{6AEA2D50-42AE-224B-8400-6BD6B3C7B91A}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17300" xr2:uid="{6AEA2D50-42AE-224B-8400-6BD6B3C7B91A}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="66">
   <si>
     <t>Hulk</t>
   </si>
@@ -225,6 +225,15 @@
   </si>
   <si>
     <t>Ende des 12. Jahrhunderts zur Zeit der Kreuzzüge: Der junge Schmied Balian tritt widerwillig eine gefährliche Reise an und folgt seinem Vater und geachteten Kreuzritter Godfrey in das Heilige Land, um dort in seine Fußstapfen zu treten und dessen Vision von Frieden in die Tat umzusetzen. Als Diener des von Intriganten umgebenen Königs Baldwin IV findet er sich mitten im Strudel des Krieges und einer unglücklichen Liebe zu Prinzessin Sybilla wieder. Zum Ritter geschlagen wird er dank seines Mutes zu einem ehrbaren Verfechter des Friedens zwischen den unterschiedlichen Religionen.</t>
+  </si>
+  <si>
+    <t>0020</t>
+  </si>
+  <si>
+    <t>Shanghai Knights</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Auf der Suche nach dem Mörder von Wangs Vater, verschlägt es die ungleichen Freunde Chon Wang und Roy O’Bannon nach London. Auch Wangs Schwester Lin will den Mord an ihrem Vater rächen und folgt dem Verbrecher nach England. Bei ihren Nachforschungen stoßen die drei auf eine großangelegte Verschwörung rund um die königliche Familie. Da ihnen niemand Glauben schenken will, nehmen sie die Sache selbst in ihre schlagkräftigen Hände. Um die Staatsoberhäupter zu retten und den Mörder seines Vaters zur Strecke zu bringen, muss Wang erst einmal einigen Leuten kräftig in den steifen britischen Hintern treten. Allerdings hat er auch noch alle Hände voll damit zu tun, den liebeskranken Roy von seiner kleinen Schwester fernzuhalten. </t>
   </si>
 </sst>
 </file>
@@ -622,10 +631,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D51DD517-BD67-9F45-A4CA-2F65B8CF2913}">
-  <dimension ref="A1:F20"/>
+  <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1036,6 +1045,26 @@
         <v>62</v>
       </c>
     </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A21" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C21" s="7">
+        <v>2003</v>
+      </c>
+      <c r="D21" s="7">
+        <v>110</v>
+      </c>
+      <c r="E21" s="7">
+        <v>12</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>65</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>

--- a/Web-Tools/MB Video-Base/MB Video-Base.xlsx
+++ b/Web-Tools/MB Video-Base/MB Video-Base.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mario/Documents/GitHub/homepage/Web-Tools/MB Video-Base/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7117D163-6778-8D49-BBC5-C870D75B7D9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3ACC2A72-2B3E-4445-9A2F-936E45B15F6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="740" windowWidth="30240" windowHeight="18900" xr2:uid="{6AEA2D50-42AE-224B-8400-6BD6B3C7B91A}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="244">
   <si>
     <t>Hulk</t>
   </si>
@@ -374,6 +374,57 @@
     <t>0062</t>
   </si>
   <si>
+    <t>0063</t>
+  </si>
+  <si>
+    <t>0064</t>
+  </si>
+  <si>
+    <t>0065</t>
+  </si>
+  <si>
+    <t>0066</t>
+  </si>
+  <si>
+    <t>0067</t>
+  </si>
+  <si>
+    <t>0068</t>
+  </si>
+  <si>
+    <t>0069</t>
+  </si>
+  <si>
+    <t>0070</t>
+  </si>
+  <si>
+    <t>0071</t>
+  </si>
+  <si>
+    <t>0072</t>
+  </si>
+  <si>
+    <t>0073</t>
+  </si>
+  <si>
+    <t>0074</t>
+  </si>
+  <si>
+    <t>0075</t>
+  </si>
+  <si>
+    <t>0076</t>
+  </si>
+  <si>
+    <t>0077</t>
+  </si>
+  <si>
+    <t>0078</t>
+  </si>
+  <si>
+    <t>0079</t>
+  </si>
+  <si>
     <t>Nicht Auflegen</t>
   </si>
   <si>
@@ -615,6 +666,108 @@
   </si>
   <si>
     <t xml:space="preserve">Saurons Heer will Minas Tirith angreifen, die in Felsen errichtete Hauptstadt von Gondor. Angesichts der Bedrohlichkeit des feindlichen Heeres wiegt es umso schwerer, dass Gondors König fehlt und nur der schwächliche Truchsess Denethor über das einst mächtige Königreich wacht. Wird Aragorn die Kraft aufbringen, jene Aufgabe zu übernehmen, für die sein Schicksal ihn bestimmt hat? Während Gandalf verzweifelt versucht, die mutlosen Kämpfer von Gondor zu motivieren, sammelt Théoden die Krieger von Rohan, um am Kampf teilzunehmen. Aber obwohl sie tapfer und leidenschaftlich Widerstand leisten, haben die Streitkräfte der Menschen dem überwältigenden Ansturm der feindlichen Legionen gegen das Königreich kaum etwas entgegenzusetzen. Jeder Sieg fordert große Opfer. Trotz der starken Verluste stellen sich die Gefährten der größten Schlacht ihres Lebens - vereint durch ein einziges Ziel: Sauron muss so lange abgelenkt werden, bis Frodo den Ring vernichtet hat... </t>
+  </si>
+  <si>
+    <t>Die Hochzeitscrasher</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Die Scheidungsanwälte John Beckwith und Jeremy Grey haben ein seltsames Hobby: Sie kreuzen als uneingeladene Gäste bei Hochzeitsfeiern auf und schleppen dort Single-Frauen ab, um sie später ins Bett zu bekommen. Dies funktioniert äußerst erfolgreich und so landen die beiden Schwerenöter schließlich sogar auf der Verehelichung einer der Töchter des US-Finanzministers William Cleary . Dort bezirzen sie Claire und Gloria, welche sich beide ebenfalls als Töchter Clearys entpuppen. Nachdem Jeremy mit Gloria am Strand seinen Spaß hatte und auch John Claire immer näher kommt, werden die Schürzenjäger sogar zur Privatfeier eingeladen, auf der ihr Täuschungsmanöver jedoch durch Claires Verlobten auffliegt. Monate später haben John und Jeremy ihre Bekanntschaften immer noch nicht vergessen und versuchen ihr Leben in solide Bahnen zu lenken. </t>
+  </si>
+  <si>
+    <t>American Pie 5 - Nackte Tatsachen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Der junge Erik Stifler hat schwer an seinem Erbe zu knabbern. Die Männer seiner Familie sind bekannt dafür, legendäre Partys zu feiern und jedes Mädchen ins Bett zu bekommen, das sie wollen - doch Erik ist im letzten Jahr der Highschool angelangt und immer noch jungfräulich. Bereits seit zwei Jahren geht er mit der süßen Tracy, die ihn aber nicht ranlässt, weil sie sich noch nicht bereit dazu fühlt. Nach einem kolossal missglückten Versuch der gegenseitigen Entjungferung stellt die verzweifelte Tracy ihrem Erik für ein Wochenende einen "Schuld-Freipass" aus. Egal, was passiert, es soll für ihre Beziehung keine Rolle spielen. Erik jubiliert. Gemeinsam mit seinen besten Freunden Ryan und Mike macht er sich auf nach Michigan, wo jährlich die "Nackte Meile" gelaufen wird. Bei diesem Partygroßereignis treffen sich Studenten zu einem Spaßlauf. Es gilt, splitterfasernackt über den Campus zu rennen... </t>
+  </si>
+  <si>
+    <t>Das Leben Des Brian</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brian Cohen ist ein durchschnittlicher junger Jude, doch durch eine Reihe lächerlicher Ereignisse erlangt er den Ruf, der Messias zu sein. Wenn er nicht gerade seinen Anhängern ausweicht oder von seiner schrillen Mutter gescholten wird, muss sich der unglückliche Brian mit dem aufgeblasenen Pontius Pilatus und den von Akronymen besessenen Mitgliedern einer separatistischen Bewegung herumschlagen. </t>
+  </si>
+  <si>
+    <t>Equilibrium</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Keine Bücher, keine Bilder, keine Musik... Jegliches Vergnügen ist den Menschen verboten. In Libria werden alle Gefühle der Bürger unterdrückt. Zu diesem Zweck muss jeder täglich eine von der Regierung verordnete Dosis Librium schlucken. Das Verweigern der bitteren Pille bedeutet unweigerlich den Tod. Librias Volk vegetiert im permanenten Dämmerzustand und Elite-Offizier John Preston überwacht den verordneten Volksrausch. Bis er eines Tages seine eigene Dosis Librium vergisst. Als einstiger Verfolger sämtlicher librischer Gesetze wird er nun auf einmal selbst zum Verfolgten. Doch mit nun neuen menschlichen Regungen könnte Preston der Einzige sein, der das totalitäre System zu Fall bringen kann. Wären da nicht seine Gegner, die sich bereits auf seine Fährte gesetzt haben. </t>
+  </si>
+  <si>
+    <t>Scream 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ein Killer geht um in einer kleinen amerikanischen Provinzgemeinde. Die Schülerin Casey, die einfach nur daheim vor dem Fernseher sitzt, wird sein erstes Opfer. Ihre Eltern finden sie aufgehängt im Garten, massakriert von einem Unbekannten. Die unheimliche Anschlagsserie setzt sich fort. Die junge Sidney, die auf dieselbe Schule wie Casey geht, wird ebenfalls bedroht. Aber kann das eine 17-jährige Amerikanerin davon abhalten, sich nachts in einer einsamen Villa mit Klassenkameraden bei Bier und Popcorn Horrorvideos reinzuziehen? </t>
+  </si>
+  <si>
+    <t>Sin City 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Basin City, genannt Sin City, ist ein düsteres Metropolis, in dem nichts und niemand wirklich sicher ist, in dem die Gewalt allgegenwärtig ist und die Schicksale sich kreuzen. Drei Geschichten aus den dunklen Winkeln der Stadt werden hier erzählt: da ist der muskulöse Schläger Marv, der sich auf einen beispiellosen Rachefeldzug begibt, als die einzige von ihm geliebte Frau Goldie nach einer gemeinsamen Nacht von einem Killer getötet wird. Dwight, der aus Gefühlsgründen für die nicht ganz so wehrlosen Prostituierten und Tänzerinnen eintritt, als ein brutaler Cop sie bedroht und damit selbst in immer gewalttätigere Schwierigkeiten gerät und schließlich und endlich die Story des ehrlichen Cops Hartigan, der allmählich seines Jobs müde geworden ist, aber noch einmal zur Tat schreiten muss... </t>
+  </si>
+  <si>
+    <t>Per Anhalter Durch Die Galaxis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wenige Sekunden bevor die Erde von einem außerirdischen Bautrupp zerstört werden soll, wird Arthur Dent von seinem Freund Ford Prefect, einem Forscher, der an einer Neuauflage des "Per Anhalter durch die Galaxis" arbeitet, vom Planeten geholt. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eigentlich träumt Happy Gilmore davon, professioneller Eishockey-Spieler zu werden. Bis er feststellt, daß sein Schlag den Puck erstaunliche 400 Yards weit feuert. Als seine Großmutter ihr Heim verliert, beschließt Happy sein Talent bei einem professionellen Golfturnier einzusetzen, um mit dem Preis-Geld das Haus zurückzukaufen. Seine gewaltige Schlagkraft, sein außergewöhnliches Temperament und seine irren Showeinlagen machen ihn im Handumdrehen zum Medien-Star. Wo immer Happy erscheint sind die Massen begeistert und die Fernsehkameras nicht weit. Sehr zum Ärger des Turnier-Favoriten , der deshalb seine eigenen Pläne für den Golf-Chaoten Happy schmiedet. So kommt, was kommen muss: ein wilder, urkomischer Schlagabtausch auf dem Golfplatz. </t>
+  </si>
+  <si>
+    <t>Happy Gilmore 1</t>
+  </si>
+  <si>
+    <t>Ich Beide &amp; Sie</t>
+  </si>
+  <si>
+    <t>Charlie, der gutmütige Polizist, denkt von allen Menschen, die er kennt, nur Gutes. Arglos und mit einer bestechenden Naivität geht er durch die Welt, ist zu jedem freundlich und ein ungemein geselliger Zeitgenosse. Auch gegenüber seiner Ehefrau, die schwarze Drillinge zur Welt bringt, hegt er keinen besonderen Verdacht. Hank hingegen ist der andere Typ Mann. Ein fluchender und aggressiver Draufgänger, der keine Provokation auslässt und jede Situation garantiert zur Eskalation bringt. Doch die beiden grundverschiedenen Kerle haben eins gemeinsam: Beide lieben die schöne Irene. Doch damit enden die Gemeinsamkeiten nicht, denn beide verbindet noch etwas: Sie haben denselben Körper Seit einem Nervenzusammenbruch, den der liebenswürdige und harmlose Charlie infolge des Ehebruchs seiner Frau erlitten hat, gibt es den resolut-robusten Gegenpart Hank in ihm. Dass diese Konstellation nicht gerade hilfreich beim Kampf um die Liebe Irenes ist, versteht sich von selbst...</t>
+  </si>
+  <si>
+    <t>Der Sturm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Die Gefahr von Sturm und Wellen auf hoher See ist ihr Alltag, für einen erfolgreichen Fischzug geben sie alles – die Schwertfischer von Gloucester riskieren täglich ihr Leben und sind stolz darauf Aber als Captain Tyne und seine Crew dieses Mal auslaufen, um den letzten Fang der Saison einzuholen, ahnen sie nicht, welcher Macht sie sich stellen müssen. </t>
+  </si>
+  <si>
+    <t>Ab-Normal Beauty</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hongkong-Horrorfilm aus dem Jahr 2004 von Oxide Pang Chun über eine junge Kunststudentin, die von Killervisionen geplagt und angezogen wird. Ihre Freundin macht sich große Sorgen um sie, vor allem, als sie plötzlich ein Snuffvideo zugespielt bekommen. Woher stammen die Horrorvisionen? </t>
+  </si>
+  <si>
+    <t>Die Unglaublichen 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Einmal den Falschen gerettet und schon ist’s passiert Zum Glück ist seine Frau Helen flexibel. Mit ihrem außergewöhnlichen Nachwuchs, dem kleinen Flitzer Flash und der scheinbar unscheinbaren Violetta, macht sie sich auf, mal eben die Welt zu retten... </t>
+  </si>
+  <si>
+    <t>Alien 2122</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Die Besatzung des Weltraumfrachters Nostromo - darunter der dritte Offizier Ellen Ripley - befindet sich im künstlichen Tiefschlaf. Plötzlich empfängt ihr Schiff ein SOS-Signal. Der Bordcomputer weckt daraufhin die Mannschaft, die der Hilferuf wenig später auf einen unwirtlichen Planten führt. Dabei entdeckt die Crew das Wrack eines außerirdischen Raumschiffs. Ein Crewmitglied wird dabei von einem Alien angegriffen, das sich auf seinem Gesicht festsaugt. Dem Schiffsarzt Ash gelingt zwar die Entfernung des fremden Organismus, doch das außerirdische Wesen ist damit längst nicht besiegt. In der Enge des Raumfrachters beginnt ein Kampf ums Überleben, bei der Feind nahezu unsichtbar, heimtückisch und äußerst tödlich ist... </t>
+  </si>
+  <si>
+    <t>Gangs Of New York</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1846, New York, das Viertel Five Points: immer wieder kommt es zu blutigen Unruhen zwischen den „Gangs“ des Viertels, zwischen irisch-katholischen Immigranten und den übrigen protestantischen Einwohnern. In einem mörderischen Zweikampf ermordet „Bill The Butcher“ Cutting seinen Gegenüber Vallon. Sein Sohn Amsterdam taucht unter, um 1862 wieder im Viertel zu erscheinen, das inzwischen unter Bills Kontrolle steht. Cutting beginnt ein Vater-Sohn-Verhältnis mit Amsterdam, der Rache für seinen Vater will. Doch in Bills Nähe findet er auch eine ganz besondere Frau, Jenny Everdeane... </t>
+  </si>
+  <si>
+    <t>Alien 2379 - Die Wiedergeburt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">200 Jahre nach ihrem Tod wird Ellen Ripley von skrupellosen Militär-Wissenschaftlern an Bord des terranischen Raumkreuzers U.S.M. Auriga wieder zum Leben erweckt: In einer Testreihe werden die Gene ihrer Überreste so oft geklont, bis es gelingt, sie und die Alien-Königin in ihrem Körper lebensfähig zu halten. Wider Erwarten überlebt sie den Eingriff, bei dem die Königin operativ aus dem Körper entfernt wird. Die Wissenschaftler wollen die xenomorphen Aliens für den militärischen Einsatz weiterzüchten. Zu diesem Zweck benötigen sie Wirtskörper, die ihnen von Weltraumpiraten in Form von entführten Kolonisten geliefert werden. Bald schon schlüpfen die ersten Aliens, die in vermeintlich ausbruchsicheren Käfigen untergebracht werden. </t>
+  </si>
+  <si>
+    <t>Fantastic Four 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Es sollte eigentlich keine große Angelegenheit werden. Die vier Wissenschaftler, Reed Richards, Susan Storm, Johnny Storm und Ben Grimm, sollten nur ins All fliegen, um eine Theorie ihres Vorgesetzten Victor von Doom zu testen. Doch alles geht schief, das Raumschiff explodiert und die vier werden einer Strahlung ausgesetzt, durch die sie fortan mit Superkräften ausgestattet sind. Mr Fantastic Reed, ist ab jetzt besonders elastisch, Invisible Girl Susan, kann sich unsichtbar machen und Kraftfelder erzeugen, Human Torch Johnny, kontrolliert von nun an das Feuer und Thing Ben, verwandelt sich in ein riesiges Steinmonster. Noch nicht recht wissend was sie mit ihren neuen Fähigkeiten anstellen sollen, wartet auf der Erde auch schon der erste Verbrecher, der nur von den "Fantastic Four" aufgehalten werden kann. Ihr ehemaliger Chef hat nämlich auch Superkräfte und bedroht die gesamte Welt. </t>
+  </si>
+  <si>
+    <t>Haus Der 1000 Leichen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zwei junge Paare auf der Suche nach dem ultimativen Kick reisen durch das amerikanische Hinterland, um der Legende vom Serienkiller Dr. Satan auf die Spur zu kommen. In einer gottverlassenen Kleinstadt treffen sie auf den geheimnisvollen Captain Spaulding, der den Teenagern auf einer Geisterbahnfahrt durch sein bizarres Kuriositätenkabinett der Grausamkeiten allerhand über Dr. Satan erzählt. Wegen einer Autopanne auf ihrer Weiterfahrt suchen sie Hilfe in einem nahegelegenen Haus. Dort treffen sie auf eine Familie, die sich noch während des gemeinsamen Halloween-Mitternachtsgelages als ein mordlustiger Psychopathenclan entpuppt. </t>
   </si>
 </sst>
 </file>
@@ -1027,10 +1180,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D51DD517-BD67-9F45-A4CA-2F65B8CF2913}">
-  <dimension ref="A1:G63"/>
+  <dimension ref="A1:G80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="A64" sqref="A64"/>
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="A81" sqref="A81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1506,7 +1659,7 @@
         <v>72</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>112</v>
+        <v>129</v>
       </c>
       <c r="C24" s="9">
         <v>2002</v>
@@ -1518,7 +1671,7 @@
         <v>16</v>
       </c>
       <c r="F24" s="6" t="s">
-        <v>113</v>
+        <v>130</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
@@ -1526,7 +1679,7 @@
         <v>73</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>114</v>
+        <v>131</v>
       </c>
       <c r="C25" s="9">
         <v>2004</v>
@@ -1538,7 +1691,7 @@
         <v>12</v>
       </c>
       <c r="F25" s="6" t="s">
-        <v>115</v>
+        <v>132</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
@@ -1546,7 +1699,7 @@
         <v>74</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>116</v>
+        <v>133</v>
       </c>
       <c r="C26" s="9">
         <v>2006</v>
@@ -1558,7 +1711,7 @@
         <v>12</v>
       </c>
       <c r="F26" s="6" t="s">
-        <v>117</v>
+        <v>134</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
@@ -1566,7 +1719,7 @@
         <v>75</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>118</v>
+        <v>135</v>
       </c>
       <c r="C27" s="9">
         <v>1993</v>
@@ -1578,7 +1731,7 @@
         <v>6</v>
       </c>
       <c r="F27" s="6" t="s">
-        <v>119</v>
+        <v>136</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
@@ -1586,7 +1739,7 @@
         <v>76</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>120</v>
+        <v>137</v>
       </c>
       <c r="C28" s="9">
         <v>1990</v>
@@ -1598,7 +1751,7 @@
         <v>16</v>
       </c>
       <c r="F28" s="6" t="s">
-        <v>121</v>
+        <v>138</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
@@ -1606,7 +1759,7 @@
         <v>77</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>122</v>
+        <v>139</v>
       </c>
       <c r="C29" s="9">
         <v>1999</v>
@@ -1618,7 +1771,7 @@
         <v>16</v>
       </c>
       <c r="F29" s="6" t="s">
-        <v>123</v>
+        <v>140</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
@@ -1626,7 +1779,7 @@
         <v>78</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>124</v>
+        <v>141</v>
       </c>
       <c r="C30" s="9">
         <v>1994</v>
@@ -1638,7 +1791,7 @@
         <v>12</v>
       </c>
       <c r="F30" s="6" t="s">
-        <v>125</v>
+        <v>142</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
@@ -1646,7 +1799,7 @@
         <v>79</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>126</v>
+        <v>143</v>
       </c>
       <c r="C31" s="9">
         <v>2003</v>
@@ -1658,7 +1811,7 @@
         <v>16</v>
       </c>
       <c r="F31" s="5" t="s">
-        <v>127</v>
+        <v>144</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
@@ -1666,7 +1819,7 @@
         <v>80</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>128</v>
+        <v>145</v>
       </c>
       <c r="C32" s="9">
         <v>1971</v>
@@ -1678,7 +1831,7 @@
         <v>18</v>
       </c>
       <c r="F32" s="5" t="s">
-        <v>129</v>
+        <v>146</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
@@ -1686,7 +1839,7 @@
         <v>81</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>130</v>
+        <v>147</v>
       </c>
       <c r="C33" s="9">
         <v>2003</v>
@@ -1698,7 +1851,7 @@
         <v>6</v>
       </c>
       <c r="F33" s="5" t="s">
-        <v>131</v>
+        <v>148</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.2">
@@ -1706,7 +1859,7 @@
         <v>82</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>132</v>
+        <v>149</v>
       </c>
       <c r="C34" s="9">
         <v>2001</v>
@@ -1718,10 +1871,10 @@
         <v>12</v>
       </c>
       <c r="F34" s="5" t="s">
-        <v>133</v>
+        <v>150</v>
       </c>
       <c r="G34" t="s">
-        <v>134</v>
+        <v>151</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.2">
@@ -1729,7 +1882,7 @@
         <v>83</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>135</v>
+        <v>152</v>
       </c>
       <c r="C35" s="9">
         <v>2003</v>
@@ -1741,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="F35" s="5" t="s">
-        <v>136</v>
+        <v>153</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
@@ -1749,7 +1902,7 @@
         <v>84</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>137</v>
+        <v>154</v>
       </c>
       <c r="C36" s="9">
         <v>2003</v>
@@ -1761,7 +1914,7 @@
         <v>12</v>
       </c>
       <c r="F36" s="5" t="s">
-        <v>138</v>
+        <v>155</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.2">
@@ -1769,7 +1922,7 @@
         <v>85</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>139</v>
+        <v>156</v>
       </c>
       <c r="C37" s="9">
         <v>2005</v>
@@ -1781,7 +1934,7 @@
         <v>12</v>
       </c>
       <c r="F37" s="5" t="s">
-        <v>140</v>
+        <v>157</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.2">
@@ -1789,7 +1942,7 @@
         <v>86</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>141</v>
+        <v>158</v>
       </c>
       <c r="C38" s="9">
         <v>2001</v>
@@ -1801,7 +1954,7 @@
         <v>0</v>
       </c>
       <c r="F38" s="5" t="s">
-        <v>142</v>
+        <v>159</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.2">
@@ -1809,7 +1962,7 @@
         <v>87</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>143</v>
+        <v>160</v>
       </c>
       <c r="C39" s="9">
         <v>2005</v>
@@ -1821,7 +1974,7 @@
         <v>12</v>
       </c>
       <c r="F39" s="5" t="s">
-        <v>144</v>
+        <v>161</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.2">
@@ -1829,7 +1982,7 @@
         <v>88</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>145</v>
+        <v>162</v>
       </c>
       <c r="C40" s="9">
         <v>2006</v>
@@ -1841,7 +1994,7 @@
         <v>6</v>
       </c>
       <c r="F40" s="5" t="s">
-        <v>146</v>
+        <v>163</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.2">
@@ -1849,7 +2002,7 @@
         <v>89</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>147</v>
+        <v>164</v>
       </c>
       <c r="C41" s="9">
         <v>2004</v>
@@ -1861,7 +2014,7 @@
         <v>6</v>
       </c>
       <c r="F41" s="5" t="s">
-        <v>148</v>
+        <v>165</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.2">
@@ -1869,7 +2022,7 @@
         <v>90</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>149</v>
+        <v>166</v>
       </c>
       <c r="C42" s="9">
         <v>1996</v>
@@ -1881,7 +2034,7 @@
         <v>16</v>
       </c>
       <c r="F42" s="5" t="s">
-        <v>150</v>
+        <v>167</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.2">
@@ -1889,7 +2042,7 @@
         <v>91</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>151</v>
+        <v>168</v>
       </c>
       <c r="C43" s="9">
         <v>1992</v>
@@ -1901,7 +2054,7 @@
         <v>18</v>
       </c>
       <c r="F43" s="5" t="s">
-        <v>152</v>
+        <v>169</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.2">
@@ -1909,7 +2062,7 @@
         <v>92</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>153</v>
+        <v>170</v>
       </c>
       <c r="C44" s="9">
         <v>2005</v>
@@ -1921,7 +2074,7 @@
         <v>0</v>
       </c>
       <c r="F44" s="5" t="s">
-        <v>154</v>
+        <v>171</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.2">
@@ -1929,7 +2082,7 @@
         <v>93</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>155</v>
+        <v>172</v>
       </c>
       <c r="C45" s="9">
         <v>2004</v>
@@ -1941,7 +2094,7 @@
         <v>16</v>
       </c>
       <c r="F45" s="5" t="s">
-        <v>156</v>
+        <v>173</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.2">
@@ -1949,7 +2102,7 @@
         <v>94</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>157</v>
+        <v>174</v>
       </c>
       <c r="C46" s="9">
         <v>2003</v>
@@ -1961,7 +2114,7 @@
         <v>16</v>
       </c>
       <c r="F46" s="5" t="s">
-        <v>158</v>
+        <v>175</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.2">
@@ -1969,7 +2122,7 @@
         <v>95</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>159</v>
+        <v>176</v>
       </c>
       <c r="C47" s="9">
         <v>2003</v>
@@ -1981,7 +2134,7 @@
         <v>6</v>
       </c>
       <c r="F47" s="5" t="s">
-        <v>160</v>
+        <v>177</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.2">
@@ -1989,7 +2142,7 @@
         <v>96</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>161</v>
+        <v>178</v>
       </c>
       <c r="C48" s="9">
         <v>1993</v>
@@ -2001,7 +2154,7 @@
         <v>12</v>
       </c>
       <c r="F48" s="5" t="s">
-        <v>162</v>
+        <v>179</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.2">
@@ -2009,7 +2162,7 @@
         <v>97</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>163</v>
+        <v>180</v>
       </c>
       <c r="C49" s="9">
         <v>2002</v>
@@ -2021,7 +2174,7 @@
         <v>0</v>
       </c>
       <c r="F49" s="5" t="s">
-        <v>164</v>
+        <v>181</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.2">
@@ -2029,7 +2182,7 @@
         <v>98</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>165</v>
+        <v>182</v>
       </c>
       <c r="C50" s="9">
         <v>1998</v>
@@ -2041,7 +2194,7 @@
         <v>16</v>
       </c>
       <c r="F50" s="5" t="s">
-        <v>166</v>
+        <v>183</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.2">
@@ -2049,7 +2202,7 @@
         <v>99</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>167</v>
+        <v>184</v>
       </c>
       <c r="C51" s="9">
         <v>1999</v>
@@ -2061,7 +2214,7 @@
         <v>12</v>
       </c>
       <c r="F51" s="5" t="s">
-        <v>168</v>
+        <v>185</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.2">
@@ -2069,7 +2222,7 @@
         <v>100</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>169</v>
+        <v>186</v>
       </c>
       <c r="C52" s="9">
         <v>2002</v>
@@ -2081,7 +2234,7 @@
         <v>12</v>
       </c>
       <c r="F52" s="5" t="s">
-        <v>170</v>
+        <v>187</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.2">
@@ -2089,7 +2242,7 @@
         <v>101</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>171</v>
+        <v>188</v>
       </c>
       <c r="C53" s="9">
         <v>1994</v>
@@ -2101,7 +2254,7 @@
         <v>12</v>
       </c>
       <c r="F53" s="5" t="s">
-        <v>172</v>
+        <v>189</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.2">
@@ -2109,7 +2262,7 @@
         <v>102</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>173</v>
+        <v>190</v>
       </c>
       <c r="C54" s="9">
         <v>2004</v>
@@ -2121,7 +2274,7 @@
         <v>0</v>
       </c>
       <c r="F54" s="5" t="s">
-        <v>174</v>
+        <v>191</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.2">
@@ -2129,7 +2282,7 @@
         <v>103</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>175</v>
+        <v>192</v>
       </c>
       <c r="C55" s="9">
         <v>2002</v>
@@ -2141,7 +2294,7 @@
         <v>18</v>
       </c>
       <c r="F55" s="5" t="s">
-        <v>176</v>
+        <v>193</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.2">
@@ -2149,7 +2302,7 @@
         <v>104</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>177</v>
+        <v>194</v>
       </c>
       <c r="C56" s="9">
         <v>2004</v>
@@ -2161,7 +2314,7 @@
         <v>12</v>
       </c>
       <c r="F56" s="5" t="s">
-        <v>178</v>
+        <v>195</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.2">
@@ -2169,7 +2322,7 @@
         <v>105</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>179</v>
+        <v>196</v>
       </c>
       <c r="C57" s="9">
         <v>1996</v>
@@ -2181,7 +2334,7 @@
         <v>12</v>
       </c>
       <c r="F57" s="5" t="s">
-        <v>180</v>
+        <v>197</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.2">
@@ -2189,7 +2342,7 @@
         <v>106</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>181</v>
+        <v>198</v>
       </c>
       <c r="C58" s="9">
         <v>2006</v>
@@ -2201,7 +2354,7 @@
         <v>12</v>
       </c>
       <c r="F58" s="5" t="s">
-        <v>182</v>
+        <v>199</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.2">
@@ -2209,7 +2362,7 @@
         <v>107</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>183</v>
+        <v>200</v>
       </c>
       <c r="C59" s="9">
         <v>1997</v>
@@ -2221,7 +2374,7 @@
         <v>16</v>
       </c>
       <c r="F59" s="5" t="s">
-        <v>184</v>
+        <v>201</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.2">
@@ -2229,7 +2382,7 @@
         <v>108</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="C60" s="9">
         <v>2009</v>
@@ -2241,7 +2394,7 @@
         <v>16</v>
       </c>
       <c r="F60" s="5" t="s">
-        <v>186</v>
+        <v>203</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.2">
@@ -2249,7 +2402,7 @@
         <v>109</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>187</v>
+        <v>204</v>
       </c>
       <c r="C61" s="9">
         <v>2001</v>
@@ -2261,7 +2414,7 @@
         <v>16</v>
       </c>
       <c r="F61" s="5" t="s">
-        <v>188</v>
+        <v>205</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.2">
@@ -2269,7 +2422,7 @@
         <v>110</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>189</v>
+        <v>206</v>
       </c>
       <c r="C62" s="9">
         <v>2002</v>
@@ -2281,7 +2434,7 @@
         <v>12</v>
       </c>
       <c r="F62" s="5" t="s">
-        <v>190</v>
+        <v>207</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.2">
@@ -2289,7 +2442,7 @@
         <v>111</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>191</v>
+        <v>208</v>
       </c>
       <c r="C63" s="9">
         <v>2003</v>
@@ -2301,7 +2454,347 @@
         <v>12</v>
       </c>
       <c r="F63" s="5" t="s">
-        <v>192</v>
+        <v>209</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A64" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="B64" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="C64" s="9">
+        <v>2005</v>
+      </c>
+      <c r="D64" s="9">
+        <v>119</v>
+      </c>
+      <c r="E64" s="9">
+        <v>12</v>
+      </c>
+      <c r="F64" s="5" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A65" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="B65" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="C65" s="9">
+        <v>2006</v>
+      </c>
+      <c r="D65" s="9">
+        <v>98</v>
+      </c>
+      <c r="E65" s="9">
+        <v>16</v>
+      </c>
+      <c r="F65" s="5" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A66" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="B66" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="C66" s="9">
+        <v>1979</v>
+      </c>
+      <c r="D66" s="9">
+        <v>94</v>
+      </c>
+      <c r="E66" s="9">
+        <v>12</v>
+      </c>
+      <c r="F66" s="5" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A67" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="B67" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="C67" s="9">
+        <v>2002</v>
+      </c>
+      <c r="D67" s="9">
+        <v>102</v>
+      </c>
+      <c r="E67" s="9">
+        <v>16</v>
+      </c>
+      <c r="F67" s="5" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A68" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="B68" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="C68" s="9">
+        <v>1996</v>
+      </c>
+      <c r="D68" s="9">
+        <v>111</v>
+      </c>
+      <c r="E68" s="9">
+        <v>16</v>
+      </c>
+      <c r="F68" s="5" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A69" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="B69" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="C69" s="9">
+        <v>2005</v>
+      </c>
+      <c r="D69" s="9">
+        <v>119</v>
+      </c>
+      <c r="E69" s="9">
+        <v>18</v>
+      </c>
+      <c r="F69" s="5" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A70" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="B70" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="C70" s="9">
+        <v>2005</v>
+      </c>
+      <c r="D70" s="9">
+        <v>110</v>
+      </c>
+      <c r="E70" s="9">
+        <v>6</v>
+      </c>
+      <c r="F70" s="5" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A71" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="B71" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="C71" s="9">
+        <v>1996</v>
+      </c>
+      <c r="D71" s="9">
+        <v>88</v>
+      </c>
+      <c r="E71" s="9">
+        <v>6</v>
+      </c>
+      <c r="F71" s="5" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A72" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="B72" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="C72" s="9">
+        <v>2000</v>
+      </c>
+      <c r="D72" s="9">
+        <v>112</v>
+      </c>
+      <c r="E72" s="9">
+        <v>16</v>
+      </c>
+      <c r="F72" s="5" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A73" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="B73" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="C73" s="9">
+        <v>2000</v>
+      </c>
+      <c r="D73" s="9">
+        <v>130</v>
+      </c>
+      <c r="E73" s="9">
+        <v>12</v>
+      </c>
+      <c r="F73" s="5" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A74" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="B74" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="C74" s="9">
+        <v>2004</v>
+      </c>
+      <c r="D74" s="9">
+        <v>94</v>
+      </c>
+      <c r="E74" s="9">
+        <v>18</v>
+      </c>
+      <c r="F74" s="5" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A75" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="B75" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="C75" s="9">
+        <v>2004</v>
+      </c>
+      <c r="D75" s="9">
+        <v>111</v>
+      </c>
+      <c r="E75" s="9">
+        <v>6</v>
+      </c>
+      <c r="F75" s="5" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A76" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="B76" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="C76" s="9">
+        <v>1979</v>
+      </c>
+      <c r="D76" s="9">
+        <v>117</v>
+      </c>
+      <c r="E76" s="9">
+        <v>16</v>
+      </c>
+      <c r="F76" s="5" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A77" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="B77" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="C77" s="9">
+        <v>2003</v>
+      </c>
+      <c r="D77" s="9">
+        <v>160</v>
+      </c>
+      <c r="E77" s="9">
+        <v>16</v>
+      </c>
+      <c r="F77" s="5" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A78" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="B78" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="C78" s="9">
+        <v>1997</v>
+      </c>
+      <c r="D78" s="9">
+        <v>111</v>
+      </c>
+      <c r="E78" s="9">
+        <v>16</v>
+      </c>
+      <c r="F78" s="5" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A79" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="B79" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="C79" s="9">
+        <v>2005</v>
+      </c>
+      <c r="D79" s="9">
+        <v>102</v>
+      </c>
+      <c r="E79" s="9">
+        <v>12</v>
+      </c>
+      <c r="F79" s="5" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A80" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="B80" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="C80" s="9">
+        <v>2003</v>
+      </c>
+      <c r="D80" s="9">
+        <v>88</v>
+      </c>
+      <c r="E80" s="9">
+        <v>18</v>
+      </c>
+      <c r="F80" s="5" t="s">
+        <v>243</v>
       </c>
     </row>
   </sheetData>

--- a/Web-Tools/MB Video-Base/MB Video-Base.xlsx
+++ b/Web-Tools/MB Video-Base/MB Video-Base.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mario/Documents/GitHub/homepage/Web-Tools/MB Video-Base/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3ACC2A72-2B3E-4445-9A2F-936E45B15F6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D59D924-EF89-D74B-9809-84D785E83B3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="740" windowWidth="30240" windowHeight="18900" xr2:uid="{6AEA2D50-42AE-224B-8400-6BD6B3C7B91A}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="244">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="304">
   <si>
     <t>Hulk</t>
   </si>
@@ -425,6 +425,66 @@
     <t>0079</t>
   </si>
   <si>
+    <t>0080</t>
+  </si>
+  <si>
+    <t>0081</t>
+  </si>
+  <si>
+    <t>0082</t>
+  </si>
+  <si>
+    <t>0083</t>
+  </si>
+  <si>
+    <t>0084</t>
+  </si>
+  <si>
+    <t>0085</t>
+  </si>
+  <si>
+    <t>0086</t>
+  </si>
+  <si>
+    <t>0087</t>
+  </si>
+  <si>
+    <t>0088</t>
+  </si>
+  <si>
+    <t>0089</t>
+  </si>
+  <si>
+    <t>0090</t>
+  </si>
+  <si>
+    <t>0091</t>
+  </si>
+  <si>
+    <t>0092</t>
+  </si>
+  <si>
+    <t>0093</t>
+  </si>
+  <si>
+    <t>0094</t>
+  </si>
+  <si>
+    <t>0095</t>
+  </si>
+  <si>
+    <t>0096</t>
+  </si>
+  <si>
+    <t>0097</t>
+  </si>
+  <si>
+    <t>0098</t>
+  </si>
+  <si>
+    <t>0099</t>
+  </si>
+  <si>
     <t>Nicht Auflegen</t>
   </si>
   <si>
@@ -768,6 +828,126 @@
   </si>
   <si>
     <t xml:space="preserve">Zwei junge Paare auf der Suche nach dem ultimativen Kick reisen durch das amerikanische Hinterland, um der Legende vom Serienkiller Dr. Satan auf die Spur zu kommen. In einer gottverlassenen Kleinstadt treffen sie auf den geheimnisvollen Captain Spaulding, der den Teenagern auf einer Geisterbahnfahrt durch sein bizarres Kuriositätenkabinett der Grausamkeiten allerhand über Dr. Satan erzählt. Wegen einer Autopanne auf ihrer Weiterfahrt suchen sie Hilfe in einem nahegelegenen Haus. Dort treffen sie auf eine Familie, die sich noch während des gemeinsamen Halloween-Mitternachtsgelages als ein mordlustiger Psychopathenclan entpuppt. </t>
+  </si>
+  <si>
+    <t>Alien Vs. Predator 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In dieser Fortsetzung von “Alien Vs. Predator” wird der Kampf der Ausserirdischen mitten in einer amerikanischen Kleinstadt ausgetragen. In den Hügeln von Colorado stürzt das Erkundungsschiff eines Predators ab, wobei Alien-Facehugger freigesetzt werden. Doch auch eine noch gefährlichere Kreatur tritt in Erscheinung: Ein Hybrid aus einem Alien und einem Predator. Selbst die herbeigerufene Nationalgarde sieht nur noch einen Ausweg: Die Auslöschung der Stadt mit einer nuklearen Bombe Die unbedarften Bürger müssen sich gegen die übermächtigen Gegner verbünden, um wenigstens eine kleine Überlebenschance zu haben. </t>
+  </si>
+  <si>
+    <t>Ghost Ship</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Seit dem 21. Mai 1962 wird der italienische Luxusdampfer Antonia Graza vor der Küste von Labrador vermisst: Er verschwand einfach von der Bildfläche - ohne Notruf, ohne Funkkontakt. 40 Jahre später entdeckt Air-Force-Pilot Jack Ferriman die Antonia Graza im Beringmeer treibend vor der Küste Alaskas. Allein die Bergungsrechte sind ein Vermögen wert, denn wer ein herrenloses Schiff in internationalen Gewässern findet, darf es in Besitz nehmen. Deswegen engagiert Ferriman Captain Sean Murphy und sein Bergungsteam unter Leitung von Maureen Epps mit ihrem Spezialboot Arctic Warrior können sie jedes Schiff aufspüren, seetüchtig machen und an Land schleppen. Aber sie verlangen einen hohen Preis. Doch an Bord des gespenstischen, verrotteten Ozeanriesen entdeckt die Crew der Arctic Warrior, dass das Schiff durchaus nicht herrenlos ist. </t>
+  </si>
+  <si>
+    <t>Alien Vs. Predator 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eine Gruppe von Archäologen und Wissenschaftlern angeführt vom Millionär Charles Weyland begibt sich in die Antarktis. Sie vermuten im Eis ein antike Tempelanlage, die noch älter ist als die Pyramiden von Ägypten. In den Ruinen vorgedrungen, entdeckt das Team menschliche Skelette und versteinerte Überreste von Aliens. Es stellt sich schnell heraus, dass der Ort nicht nur als Brutstätte für Alien-Eier dient, sondern auch als Arena für junge Predators... </t>
+  </si>
+  <si>
+    <t>Harold &amp; Kumar</t>
+  </si>
+  <si>
+    <t>Sie teilen sich die Wohnung, sehen zusammen fern und dröhnen sich auch mal zu: der Banker Harold und der indische Medizinstudent Kumar. Doch eines Nachts, im schönsten Rausch, bekommen beide Hunger. Fest entschlossen, gemäß einer TV-Reklame den besten Burger des Staates New Jersey zu verspeisen, machen sich die beiden auf den Weg. Eine irrwitzige Reise durch die Nacht beginnt, eine Odysse quer durch den Staat mit vielen durchgeknallten Begnungen...</t>
+  </si>
+  <si>
+    <t>I Spy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sie können sich absolut nicht leiden, doch sie müssen zusammenarbeiten, um die Welt vor einer Katastrophe zu retten: Der leicht trottelige CIA-Agent Alex Scott und der großmäulige Boxchampion Kelly Robinson sind die Einzigen, die dem ungarischen Supergangster Gundars das Handwerk legen können. Der eiskalte Gundars hat aus einer streng geheimen Waffenschmiede der USA den Prototyp eines völlig neuartigen Spionageflugzeugs gestohlen. In wenigen Tagen will der Schurke den Superflieger meistbietend unter den Terroristen und Diktatoren dieser Welt versteigern. Das muss unbedingt verhindert werden Und so schleust Kelly, der vom boxbegeisterten Gundars auf eine Party in seiner Budapester Stadtvilla eingeladen wurde, den CIA-Mann Alex undercover bei Gundars ein. Doch bevor Alex den Aufenthaltsort des Flugzeugs herausfinden kann, fliegt seine Tarnung auf - woran der chaotische Kelly nicht ganz unschuldig ist. </t>
+  </si>
+  <si>
+    <t>Troja</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Paris, der schwer verliebte Prinz von Troja, verschleppt die spartanische Königsgemahlin Helena in seine Heimat. Der spartanische König Menelaos kann diese Beleidigung nicht hinnehmen. Unter der Leitung seines Bruders Agamemnon, dem mächtigen König von Mykene, schließen sich weitere griechische Könige zusammen, um Troja zu vernichten, darunter auch der berühmteste Krieger Achilles. Das Hauptmotiv von Agamemnon ist nicht die Ehre seines Bruders wiederherzustellen, sondern seine Habgier: der Fall von Troja würde für ihn einen großen Sieg bedeuten und die Vorherrschaft seines bereits riesigen Reiches sichern. Unter der Führung des gewaltigen Prinz Hektor halten aber Trojas Mauern besser stand als von den Griechen geplant... </t>
+  </si>
+  <si>
+    <t>The Line</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ein Leben ist billig in Mexiko. Selbst das Oberhaupt des Drogenkartels der Salazars muss diese Erfahrung machen. Javier Salazar wird eiskalt abserviert von dem unberechenbaren Psycho Pelon, der sofort Nägel mit Köpfen macht: Ihm sind die Einnahmen aus den Geschäften mit Koks nicht genug, weshalb er sich künftig von den Terroristen der Taliban mit erstklassigem Heroin aus Afghanistan beliefern lassen will. Eine Entwicklung, die die CIA unruhig werden lässt: Der fragile Frieden mit dem Kartel steht auf dem Spiel. Sie schicken ihre besten Männer nach Mexiko, wo sie auf die Killer von Javier Salazars Sohn Diablo treffen. Alle haben es auf Pelon abgesehen. Und dann taucht auch noch der mysteriöse Hitman Mark Shields auf, der seine inneren Dämonen mit neuen Aufträgen bekämpft. Fragt sich nur, wer als erster La Linea kreuzt. </t>
+  </si>
+  <si>
+    <t>Super Troopers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fünf unterbeschäftigten State Troopers in Vermont, die die meiste Zeit damit vergeuden, harmlose Verkehrssünder zu jagen oder Karten zu spielen, sollen aus Kostengründen die Jobs gestrichen werden. Da naht unerwartete Rettung, als die chaotischen "Super Troopers" durch Zufall auf einen Schmugglerring stoßen... </t>
+  </si>
+  <si>
+    <t>The Equalizer 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Robert McCall plagt das eigene Gewissen. Als Auftragsmörder für die eigene Regierung hat er in der Vergangenheit viele Dinge tun müssen, die er nun nicht mehr mit seinen Wertevorstellungen übereinbringen kann. Im Killer-Ruhestand versuchte er deshalb immer wieder die Waage damit auszugleichen, Gerechtigkeit für die Unterdrückten zu schaffen. Doch auch das scheint mittlerweile hinter McCall zu liegen, als er aus den USA auswandert und ein neues Leben im malerischen Süditalien beginnt. Doch schnell wird ihm klar, dass auch dort finstere Mächte das Sagen haben und aus dem Verborgenen heraus selbst die Strippen seiner neuen Freunde ziehen. Sein Geduldsfaden reißt endgültig, als es plötzlich mehrere Tote gibt. Um seine Freunde vor dem gleichen Schicksal zu bewahren, muss er noch einmal aufmunitionieren und auf altbekannte Methoden zurückgreifen. Denn hinter alledem steckt die Mafia. </t>
+  </si>
+  <si>
+    <t>Heavenly Creatures</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Neuseeland, 1954. Bürgerlicher Mief, Engstirnigkeit und Langeweile bestimmen den Alltag. Die beiden Teenager Pauline und Juliet versuchen der Tristesse zu entkommen, indem sie sich in ein mittelalterliches Phantasiereich träumen. Von der Umwelt werden sie verachtet, von den Eltern mißverstanden und latent der Homosexualität bezichtigt. Es wird alles daran gesetzt, die Freundschaft der beiden Mädchen zu zerstören. Als Juliet zu Verwandten nach Südafrika abgeschoben werden soll, will das Duo dies mit einem Mord verhindern. </t>
+  </si>
+  <si>
+    <t>Batman 8 - The Batman</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zwei Jahre lang jagte Bruce Wayne als Batman Verbrecher auf der Straße und geriet immer tiefer in die Schattenwelt Gothams. Im korrupten Netzwerk der Beamten und VIPs konnte er nur auf wenige Vertraute zählen, daher verkörperte er bald als Einziger die Rache der Bürger. Als ein Killer es mit einer Vielzahl an sadistischen Machenschaften auf die Elite Gothams abgesehen hat, führt eine Spur aus mysteriösen Hinweisen den weltbesten Detective in die Unterwelt, wo er auf Selina Kyle a.k.a. Catwoman, Oswald Cobblepot a.k.a. der Pinguin, Carmine Falcone und Edward Nashton a.k.a. der Riddler stößt. Mit der Zeit wird das wahre Ausmaß des verbrecherischen Plans klar und die Beweise deuten immer mehr auf einen Kriminellen im näheren Umfeld Batmans hin. Nun muss Batman neue Kontakte knüpfen, den Verbrecher entlarven und den Machtmissbrauch und die Korruption, die Gotham schon lange im Griff haben, gnadenlos niederschlagen. </t>
+  </si>
+  <si>
+    <t>Indiana Jones 2 - Der Tempel Des Todes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Indiana Jones kehrt zurück Nachdem er bei der Erringung eines Diamanten in einem Nachtclub in Shanghai beinahe vergiftet, erdolcht und erschossen wurde, flieht er mit einer halbhysterischen Clubsängerin und seinem jungen asiatischen Freund Short Round mit einem Flugzeug. Doch über Indien wird auch hier ein Mordversuch gegen sie ausgeführt und alle drei müssen abspringen. Sie gelangen in ein Dorf, aus dem heilige Steine und sämtliche Kinder entführt wurden. Die Spur führt zu einem Fürstenpalast im Dschungel, wo sie einem machtgierigen Jungfürsten auf die Spur kommen, der die Kinder in den Minen arbeiten läßt. Doch hinter ihm steht ein noch machtvollerer Sektenführer... </t>
+  </si>
+  <si>
+    <t>Indiana Jones 3 - Der Letzte Kreuzzug</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wir schreiben das Jahr 1938: Doktor Jones wird vom Mäzen eines Museums beauftragt, den Heiligen Gral und somit die wichtigste Reliquie der Christenheit zu finden. Jones' Einwand, es würde der falsche Jones gefragt werden, denn der eigentliche Experte sei sein Vater Henry, fördert nur die Erkenntnis zu Tage, dass Jones senior bereits die Spur aufgenommen hatte, mittlerweile aber verschwunden ist. Nun ist des Doktors Jagdinstinkt geweckt. Besorgt um das Wohlergehen des Vaters und mit dem Museumskurator Marcus Brody im Gepäck tritt Jones eine Reise in die alte Welt an, um das zustande zu bringen, was die mittelalterlichen Kreuzzüge nicht geschafft hatten: den Kelch zu finden, der beim letzten Abendmahl gereicht worden war und das Blut Jesu am Kreuz aufgefangen hatte. Erwartungsgemäß ist aber nicht nur der Doktor auf der Suche - auch die Schergen Hitlers wollen sich die Sagen umwobenen Kräfte des Kelches sichern, verheißt er doch das ewige Leben... </t>
+  </si>
+  <si>
+    <t>Der Super Mario Bros. Film</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bei unterirdischen Reparaturarbeiten werden die Klempner Mario und Luigi durch eine geheimnisvolle Röhre in eine magische neue Welt gesaugt. Als die Brüder dort getrennt werden, begibt Mario sich auf eine gigantische Reise, um Luigi zu finden. Mit der Unterstützung des Pilzkönigreichbewohners Toad und dank eines Trainings von Princess Peach, der willensstarken Herrscherin des Pilzkönigreiches, entdeckt Mario dabei ungeahnte Kräfte in sich. </t>
+  </si>
+  <si>
+    <t>Interview Mit Einem Vampir</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Der Vampir Louis erzählt in der Jetztzeit dem Journalisten Malloy die Geschichte seiner Existenz: Als Plantagenbesitzer wird er, nachdem er im Anschluß an den Tod seiner Frau jeden Lebensmut verloren hat, im Jahre 1791 von dem Vampir Lestat auf eigenen Wunsch gebissen und selbst zu einem Vampir gemacht. Doch Louis fängt schon bald an, seine Existenz zu hassen und will schon bald keine Menschen mehr töten. Damit Louis wie in einer Familie leben kann, macht Lestat auch ein kleines Mädchen zu einem Vampir. Doch Konflikte sind vorprogrammiert, während die Zeit vergeht und Louis und Lestat werden zu Feinden. </t>
+  </si>
+  <si>
+    <t>Die Nacht Der Lebenden Loser</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sie gehören nicht gerade zu den Coolen und Gefragten an ihrer Schule: Philip "Wurst" und Konrad . Als sie eines Tages aus Neugier an einem Voodoo-Ritual teilnehmen, kommen sie nach einen Autounfall als lebende Tote wieder. Der erste Schreck ist schnell überwunden, denn das Zombie-Dasein bringt doch jede Menge Vorteile mit sich: die drei Jungs sind viel stärker, schlauer und schmerzunempfindlicher als je zuvor. Endlich gelingt es ihnen sich gegen ihre arroganten und megacoolen Mitschüler durchzusetzen... </t>
+  </si>
+  <si>
+    <t>Johnny English</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Johnny English ist britischer Agent beim MI7. Zwar ist er nicht mehr der allerjüngste und auch nicht der allerhellste Geheimdienstler im Service Ihrer Majestät, aber seine kleinen Schwächen macht er durch extremen Enthusiasmus wett. Und als Britannien vor seiner größten Krise steht, stolpert Johnny mittenhinein: Der finstere Franzose Pascal Sauvage hat die Kronjuwelen der englischen Königin in seinen Besitz gebracht und es außerdem auf den britischen Thron abgesehen. Die nationale Katastrophe beschert dem bisher eher bedeutungslosen Johnny plötzlich schnelle Autos, die neuesten Hi-Tech Gadgets und Geheiminformationen allererster Güte. Angespornt auch durch das Zusammentreffen mit der schönen Doppelagentin Lorna ist er wild entschlossen, dem hinterlistigen Sauvage den Garaus zu machen. Denn was kann einem auch besseres passieren, als sich zu verlieben und dabei noch ganz nebenbei die Nation zu retten? </t>
+  </si>
+  <si>
+    <t>Fluch Der Karibik 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Im 17. Jahrhundert sucht der Pirat Jack Sparrow nach einem sagenumwobenen Schatz in der Karibik, als ihn das Schicksal mit dem jungen Will Turner zusammenführt, der aus anderen Gründen auf derselben Fährte ist: nämlich den berüchtigten Captain Barbossa und seine Crew abzufangen, die Wills große Liebe Elizabeth, die Tochter des britischen Gouverneurs entführt haben. Doch Barbossa umhüllt selbst ein düsteres Geheimnis: er und seine Männer sind verflucht und das Licht des Mondes bringt ihre Existenz zum Vorschein: sie sind wie lebende Skelette, monströs und tödlich. Um den Fluch zu brechen, brauchen sie Elizabeth als Opfer. Ein Wettrennen zur Insel des Todes beginnt... </t>
+  </si>
+  <si>
+    <t>Fear</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Die 16 Jahre alte Nicole aus Seattle lernt auf einer Party David kennen, mit dem sie bald ein Paar ist. Doch mit der Zeit wird ihr die Sache unheimlich: David ist besitzergreifend, will immer wissen, wo sie sich befindet, außerdem ist er grundlos eifersüchtig. Als Nicole den Stress nicht mehr aushält, trennt sie sich von ihm. Er versucht alles um sie zurück zu gewinnen, doch für sie ist die Trennung endgültig. Für David ist das letzte Wort aber noch nicht gesprochen </t>
+  </si>
+  <si>
+    <t>Superman 4 - Die Welt Am Abgrund</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lex Luther, Supermans ständiger Gegner, hat einen neuen Anschlag auf Superman vor: Er stiehlt ihm ein Haar und benutzt es, um mit seiner Hilfe den “Nuclear-Man” herzustellen, der seine Energie aus der Sonne bezieht. Dieser soll Superman töten, damit Lex seine finsteren Pläne in die Tat umsetzen kann. </t>
   </si>
 </sst>
 </file>
@@ -1180,10 +1360,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D51DD517-BD67-9F45-A4CA-2F65B8CF2913}">
-  <dimension ref="A1:G80"/>
+  <dimension ref="A1:G100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="A81" sqref="A81"/>
+    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
+      <selection activeCell="A101" sqref="A101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1659,7 +1839,7 @@
         <v>72</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>129</v>
+        <v>149</v>
       </c>
       <c r="C24" s="9">
         <v>2002</v>
@@ -1671,7 +1851,7 @@
         <v>16</v>
       </c>
       <c r="F24" s="6" t="s">
-        <v>130</v>
+        <v>150</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
@@ -1679,7 +1859,7 @@
         <v>73</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>131</v>
+        <v>151</v>
       </c>
       <c r="C25" s="9">
         <v>2004</v>
@@ -1691,7 +1871,7 @@
         <v>12</v>
       </c>
       <c r="F25" s="6" t="s">
-        <v>132</v>
+        <v>152</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
@@ -1699,7 +1879,7 @@
         <v>74</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>133</v>
+        <v>153</v>
       </c>
       <c r="C26" s="9">
         <v>2006</v>
@@ -1711,7 +1891,7 @@
         <v>12</v>
       </c>
       <c r="F26" s="6" t="s">
-        <v>134</v>
+        <v>154</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
@@ -1719,7 +1899,7 @@
         <v>75</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>135</v>
+        <v>155</v>
       </c>
       <c r="C27" s="9">
         <v>1993</v>
@@ -1731,7 +1911,7 @@
         <v>6</v>
       </c>
       <c r="F27" s="6" t="s">
-        <v>136</v>
+        <v>156</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
@@ -1739,7 +1919,7 @@
         <v>76</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>137</v>
+        <v>157</v>
       </c>
       <c r="C28" s="9">
         <v>1990</v>
@@ -1751,7 +1931,7 @@
         <v>16</v>
       </c>
       <c r="F28" s="6" t="s">
-        <v>138</v>
+        <v>158</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
@@ -1759,7 +1939,7 @@
         <v>77</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>139</v>
+        <v>159</v>
       </c>
       <c r="C29" s="9">
         <v>1999</v>
@@ -1771,7 +1951,7 @@
         <v>16</v>
       </c>
       <c r="F29" s="6" t="s">
-        <v>140</v>
+        <v>160</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
@@ -1779,7 +1959,7 @@
         <v>78</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>141</v>
+        <v>161</v>
       </c>
       <c r="C30" s="9">
         <v>1994</v>
@@ -1791,7 +1971,7 @@
         <v>12</v>
       </c>
       <c r="F30" s="6" t="s">
-        <v>142</v>
+        <v>162</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
@@ -1799,7 +1979,7 @@
         <v>79</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>143</v>
+        <v>163</v>
       </c>
       <c r="C31" s="9">
         <v>2003</v>
@@ -1811,7 +1991,7 @@
         <v>16</v>
       </c>
       <c r="F31" s="5" t="s">
-        <v>144</v>
+        <v>164</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
@@ -1819,7 +1999,7 @@
         <v>80</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>145</v>
+        <v>165</v>
       </c>
       <c r="C32" s="9">
         <v>1971</v>
@@ -1831,7 +2011,7 @@
         <v>18</v>
       </c>
       <c r="F32" s="5" t="s">
-        <v>146</v>
+        <v>166</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
@@ -1839,7 +2019,7 @@
         <v>81</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>147</v>
+        <v>167</v>
       </c>
       <c r="C33" s="9">
         <v>2003</v>
@@ -1851,7 +2031,7 @@
         <v>6</v>
       </c>
       <c r="F33" s="5" t="s">
-        <v>148</v>
+        <v>168</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.2">
@@ -1859,7 +2039,7 @@
         <v>82</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>149</v>
+        <v>169</v>
       </c>
       <c r="C34" s="9">
         <v>2001</v>
@@ -1871,10 +2051,10 @@
         <v>12</v>
       </c>
       <c r="F34" s="5" t="s">
-        <v>150</v>
+        <v>170</v>
       </c>
       <c r="G34" t="s">
-        <v>151</v>
+        <v>171</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.2">
@@ -1882,7 +2062,7 @@
         <v>83</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>152</v>
+        <v>172</v>
       </c>
       <c r="C35" s="9">
         <v>2003</v>
@@ -1894,7 +2074,7 @@
         <v>0</v>
       </c>
       <c r="F35" s="5" t="s">
-        <v>153</v>
+        <v>173</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
@@ -1902,7 +2082,7 @@
         <v>84</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>154</v>
+        <v>174</v>
       </c>
       <c r="C36" s="9">
         <v>2003</v>
@@ -1914,7 +2094,7 @@
         <v>12</v>
       </c>
       <c r="F36" s="5" t="s">
-        <v>155</v>
+        <v>175</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.2">
@@ -1922,7 +2102,7 @@
         <v>85</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>156</v>
+        <v>176</v>
       </c>
       <c r="C37" s="9">
         <v>2005</v>
@@ -1934,7 +2114,7 @@
         <v>12</v>
       </c>
       <c r="F37" s="5" t="s">
-        <v>157</v>
+        <v>177</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.2">
@@ -1942,7 +2122,7 @@
         <v>86</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>158</v>
+        <v>178</v>
       </c>
       <c r="C38" s="9">
         <v>2001</v>
@@ -1954,7 +2134,7 @@
         <v>0</v>
       </c>
       <c r="F38" s="5" t="s">
-        <v>159</v>
+        <v>179</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.2">
@@ -1962,7 +2142,7 @@
         <v>87</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>160</v>
+        <v>180</v>
       </c>
       <c r="C39" s="9">
         <v>2005</v>
@@ -1974,7 +2154,7 @@
         <v>12</v>
       </c>
       <c r="F39" s="5" t="s">
-        <v>161</v>
+        <v>181</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.2">
@@ -1982,7 +2162,7 @@
         <v>88</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>162</v>
+        <v>182</v>
       </c>
       <c r="C40" s="9">
         <v>2006</v>
@@ -1994,7 +2174,7 @@
         <v>6</v>
       </c>
       <c r="F40" s="5" t="s">
-        <v>163</v>
+        <v>183</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.2">
@@ -2002,7 +2182,7 @@
         <v>89</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>164</v>
+        <v>184</v>
       </c>
       <c r="C41" s="9">
         <v>2004</v>
@@ -2014,7 +2194,7 @@
         <v>6</v>
       </c>
       <c r="F41" s="5" t="s">
-        <v>165</v>
+        <v>185</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.2">
@@ -2022,7 +2202,7 @@
         <v>90</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>166</v>
+        <v>186</v>
       </c>
       <c r="C42" s="9">
         <v>1996</v>
@@ -2034,7 +2214,7 @@
         <v>16</v>
       </c>
       <c r="F42" s="5" t="s">
-        <v>167</v>
+        <v>187</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.2">
@@ -2042,7 +2222,7 @@
         <v>91</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>168</v>
+        <v>188</v>
       </c>
       <c r="C43" s="9">
         <v>1992</v>
@@ -2054,7 +2234,7 @@
         <v>18</v>
       </c>
       <c r="F43" s="5" t="s">
-        <v>169</v>
+        <v>189</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.2">
@@ -2062,7 +2242,7 @@
         <v>92</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>170</v>
+        <v>190</v>
       </c>
       <c r="C44" s="9">
         <v>2005</v>
@@ -2074,7 +2254,7 @@
         <v>0</v>
       </c>
       <c r="F44" s="5" t="s">
-        <v>171</v>
+        <v>191</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.2">
@@ -2082,7 +2262,7 @@
         <v>93</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>172</v>
+        <v>192</v>
       </c>
       <c r="C45" s="9">
         <v>2004</v>
@@ -2094,7 +2274,7 @@
         <v>16</v>
       </c>
       <c r="F45" s="5" t="s">
-        <v>173</v>
+        <v>193</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.2">
@@ -2102,7 +2282,7 @@
         <v>94</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>174</v>
+        <v>194</v>
       </c>
       <c r="C46" s="9">
         <v>2003</v>
@@ -2114,7 +2294,7 @@
         <v>16</v>
       </c>
       <c r="F46" s="5" t="s">
-        <v>175</v>
+        <v>195</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.2">
@@ -2122,7 +2302,7 @@
         <v>95</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>176</v>
+        <v>196</v>
       </c>
       <c r="C47" s="9">
         <v>2003</v>
@@ -2134,7 +2314,7 @@
         <v>6</v>
       </c>
       <c r="F47" s="5" t="s">
-        <v>177</v>
+        <v>197</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.2">
@@ -2142,7 +2322,7 @@
         <v>96</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>178</v>
+        <v>198</v>
       </c>
       <c r="C48" s="9">
         <v>1993</v>
@@ -2154,7 +2334,7 @@
         <v>12</v>
       </c>
       <c r="F48" s="5" t="s">
-        <v>179</v>
+        <v>199</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.2">
@@ -2162,7 +2342,7 @@
         <v>97</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>180</v>
+        <v>200</v>
       </c>
       <c r="C49" s="9">
         <v>2002</v>
@@ -2174,7 +2354,7 @@
         <v>0</v>
       </c>
       <c r="F49" s="5" t="s">
-        <v>181</v>
+        <v>201</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.2">
@@ -2182,7 +2362,7 @@
         <v>98</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>182</v>
+        <v>202</v>
       </c>
       <c r="C50" s="9">
         <v>1998</v>
@@ -2194,7 +2374,7 @@
         <v>16</v>
       </c>
       <c r="F50" s="5" t="s">
-        <v>183</v>
+        <v>203</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.2">
@@ -2202,7 +2382,7 @@
         <v>99</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>184</v>
+        <v>204</v>
       </c>
       <c r="C51" s="9">
         <v>1999</v>
@@ -2214,7 +2394,7 @@
         <v>12</v>
       </c>
       <c r="F51" s="5" t="s">
-        <v>185</v>
+        <v>205</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.2">
@@ -2222,7 +2402,7 @@
         <v>100</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>186</v>
+        <v>206</v>
       </c>
       <c r="C52" s="9">
         <v>2002</v>
@@ -2234,7 +2414,7 @@
         <v>12</v>
       </c>
       <c r="F52" s="5" t="s">
-        <v>187</v>
+        <v>207</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.2">
@@ -2242,7 +2422,7 @@
         <v>101</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>188</v>
+        <v>208</v>
       </c>
       <c r="C53" s="9">
         <v>1994</v>
@@ -2254,7 +2434,7 @@
         <v>12</v>
       </c>
       <c r="F53" s="5" t="s">
-        <v>189</v>
+        <v>209</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.2">
@@ -2262,7 +2442,7 @@
         <v>102</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>190</v>
+        <v>210</v>
       </c>
       <c r="C54" s="9">
         <v>2004</v>
@@ -2274,7 +2454,7 @@
         <v>0</v>
       </c>
       <c r="F54" s="5" t="s">
-        <v>191</v>
+        <v>211</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.2">
@@ -2282,7 +2462,7 @@
         <v>103</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>192</v>
+        <v>212</v>
       </c>
       <c r="C55" s="9">
         <v>2002</v>
@@ -2294,7 +2474,7 @@
         <v>18</v>
       </c>
       <c r="F55" s="5" t="s">
-        <v>193</v>
+        <v>213</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.2">
@@ -2302,7 +2482,7 @@
         <v>104</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>194</v>
+        <v>214</v>
       </c>
       <c r="C56" s="9">
         <v>2004</v>
@@ -2314,7 +2494,7 @@
         <v>12</v>
       </c>
       <c r="F56" s="5" t="s">
-        <v>195</v>
+        <v>215</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.2">
@@ -2322,7 +2502,7 @@
         <v>105</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>196</v>
+        <v>216</v>
       </c>
       <c r="C57" s="9">
         <v>1996</v>
@@ -2334,7 +2514,7 @@
         <v>12</v>
       </c>
       <c r="F57" s="5" t="s">
-        <v>197</v>
+        <v>217</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.2">
@@ -2342,7 +2522,7 @@
         <v>106</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>198</v>
+        <v>218</v>
       </c>
       <c r="C58" s="9">
         <v>2006</v>
@@ -2354,7 +2534,7 @@
         <v>12</v>
       </c>
       <c r="F58" s="5" t="s">
-        <v>199</v>
+        <v>219</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.2">
@@ -2362,7 +2542,7 @@
         <v>107</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>200</v>
+        <v>220</v>
       </c>
       <c r="C59" s="9">
         <v>1997</v>
@@ -2374,7 +2554,7 @@
         <v>16</v>
       </c>
       <c r="F59" s="5" t="s">
-        <v>201</v>
+        <v>221</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.2">
@@ -2382,7 +2562,7 @@
         <v>108</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>202</v>
+        <v>222</v>
       </c>
       <c r="C60" s="9">
         <v>2009</v>
@@ -2394,7 +2574,7 @@
         <v>16</v>
       </c>
       <c r="F60" s="5" t="s">
-        <v>203</v>
+        <v>223</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.2">
@@ -2402,7 +2582,7 @@
         <v>109</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>204</v>
+        <v>224</v>
       </c>
       <c r="C61" s="9">
         <v>2001</v>
@@ -2414,7 +2594,7 @@
         <v>16</v>
       </c>
       <c r="F61" s="5" t="s">
-        <v>205</v>
+        <v>225</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.2">
@@ -2422,7 +2602,7 @@
         <v>110</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>206</v>
+        <v>226</v>
       </c>
       <c r="C62" s="9">
         <v>2002</v>
@@ -2434,7 +2614,7 @@
         <v>12</v>
       </c>
       <c r="F62" s="5" t="s">
-        <v>207</v>
+        <v>227</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.2">
@@ -2442,7 +2622,7 @@
         <v>111</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>208</v>
+        <v>228</v>
       </c>
       <c r="C63" s="9">
         <v>2003</v>
@@ -2454,7 +2634,7 @@
         <v>12</v>
       </c>
       <c r="F63" s="5" t="s">
-        <v>209</v>
+        <v>229</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.2">
@@ -2462,7 +2642,7 @@
         <v>112</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>210</v>
+        <v>230</v>
       </c>
       <c r="C64" s="9">
         <v>2005</v>
@@ -2474,7 +2654,7 @@
         <v>12</v>
       </c>
       <c r="F64" s="5" t="s">
-        <v>211</v>
+        <v>231</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.2">
@@ -2482,7 +2662,7 @@
         <v>113</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>212</v>
+        <v>232</v>
       </c>
       <c r="C65" s="9">
         <v>2006</v>
@@ -2494,7 +2674,7 @@
         <v>16</v>
       </c>
       <c r="F65" s="5" t="s">
-        <v>213</v>
+        <v>233</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.2">
@@ -2502,7 +2682,7 @@
         <v>114</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>214</v>
+        <v>234</v>
       </c>
       <c r="C66" s="9">
         <v>1979</v>
@@ -2514,7 +2694,7 @@
         <v>12</v>
       </c>
       <c r="F66" s="5" t="s">
-        <v>215</v>
+        <v>235</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.2">
@@ -2522,7 +2702,7 @@
         <v>115</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>216</v>
+        <v>236</v>
       </c>
       <c r="C67" s="9">
         <v>2002</v>
@@ -2534,7 +2714,7 @@
         <v>16</v>
       </c>
       <c r="F67" s="5" t="s">
-        <v>217</v>
+        <v>237</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.2">
@@ -2542,7 +2722,7 @@
         <v>116</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>218</v>
+        <v>238</v>
       </c>
       <c r="C68" s="9">
         <v>1996</v>
@@ -2554,7 +2734,7 @@
         <v>16</v>
       </c>
       <c r="F68" s="5" t="s">
-        <v>219</v>
+        <v>239</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.2">
@@ -2562,7 +2742,7 @@
         <v>117</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>220</v>
+        <v>240</v>
       </c>
       <c r="C69" s="9">
         <v>2005</v>
@@ -2574,7 +2754,7 @@
         <v>18</v>
       </c>
       <c r="F69" s="5" t="s">
-        <v>221</v>
+        <v>241</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.2">
@@ -2582,7 +2762,7 @@
         <v>118</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>222</v>
+        <v>242</v>
       </c>
       <c r="C70" s="9">
         <v>2005</v>
@@ -2594,7 +2774,7 @@
         <v>6</v>
       </c>
       <c r="F70" s="5" t="s">
-        <v>223</v>
+        <v>243</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.2">
@@ -2602,7 +2782,7 @@
         <v>119</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>225</v>
+        <v>245</v>
       </c>
       <c r="C71" s="9">
         <v>1996</v>
@@ -2614,7 +2794,7 @@
         <v>6</v>
       </c>
       <c r="F71" s="5" t="s">
-        <v>224</v>
+        <v>244</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.2">
@@ -2622,7 +2802,7 @@
         <v>120</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>226</v>
+        <v>246</v>
       </c>
       <c r="C72" s="9">
         <v>2000</v>
@@ -2634,7 +2814,7 @@
         <v>16</v>
       </c>
       <c r="F72" s="5" t="s">
-        <v>227</v>
+        <v>247</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.2">
@@ -2642,7 +2822,7 @@
         <v>121</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>228</v>
+        <v>248</v>
       </c>
       <c r="C73" s="9">
         <v>2000</v>
@@ -2654,7 +2834,7 @@
         <v>12</v>
       </c>
       <c r="F73" s="5" t="s">
-        <v>229</v>
+        <v>249</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.2">
@@ -2662,7 +2842,7 @@
         <v>122</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>230</v>
+        <v>250</v>
       </c>
       <c r="C74" s="9">
         <v>2004</v>
@@ -2674,7 +2854,7 @@
         <v>18</v>
       </c>
       <c r="F74" s="5" t="s">
-        <v>231</v>
+        <v>251</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.2">
@@ -2682,7 +2862,7 @@
         <v>123</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>232</v>
+        <v>252</v>
       </c>
       <c r="C75" s="9">
         <v>2004</v>
@@ -2694,7 +2874,7 @@
         <v>6</v>
       </c>
       <c r="F75" s="5" t="s">
-        <v>233</v>
+        <v>253</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.2">
@@ -2702,7 +2882,7 @@
         <v>124</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>234</v>
+        <v>254</v>
       </c>
       <c r="C76" s="9">
         <v>1979</v>
@@ -2714,7 +2894,7 @@
         <v>16</v>
       </c>
       <c r="F76" s="5" t="s">
-        <v>235</v>
+        <v>255</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.2">
@@ -2722,7 +2902,7 @@
         <v>125</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>236</v>
+        <v>256</v>
       </c>
       <c r="C77" s="9">
         <v>2003</v>
@@ -2734,7 +2914,7 @@
         <v>16</v>
       </c>
       <c r="F77" s="5" t="s">
-        <v>237</v>
+        <v>257</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.2">
@@ -2742,7 +2922,7 @@
         <v>126</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>238</v>
+        <v>258</v>
       </c>
       <c r="C78" s="9">
         <v>1997</v>
@@ -2754,7 +2934,7 @@
         <v>16</v>
       </c>
       <c r="F78" s="5" t="s">
-        <v>239</v>
+        <v>259</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.2">
@@ -2762,7 +2942,7 @@
         <v>127</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>240</v>
+        <v>260</v>
       </c>
       <c r="C79" s="9">
         <v>2005</v>
@@ -2774,7 +2954,7 @@
         <v>12</v>
       </c>
       <c r="F79" s="5" t="s">
-        <v>241</v>
+        <v>261</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.2">
@@ -2782,7 +2962,7 @@
         <v>128</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>242</v>
+        <v>262</v>
       </c>
       <c r="C80" s="9">
         <v>2003</v>
@@ -2794,7 +2974,407 @@
         <v>18</v>
       </c>
       <c r="F80" s="5" t="s">
-        <v>243</v>
+        <v>263</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A81" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="B81" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="C81" s="9">
+        <v>2007</v>
+      </c>
+      <c r="D81" s="9">
+        <v>90</v>
+      </c>
+      <c r="E81" s="9">
+        <v>16</v>
+      </c>
+      <c r="F81" s="5" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A82" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="B82" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="C82" s="9">
+        <v>2002</v>
+      </c>
+      <c r="D82" s="9">
+        <v>88</v>
+      </c>
+      <c r="E82" s="9">
+        <v>18</v>
+      </c>
+      <c r="F82" s="5" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A83" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="B83" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="C83" s="9">
+        <v>2004</v>
+      </c>
+      <c r="D83" s="9">
+        <v>98</v>
+      </c>
+      <c r="E83" s="9">
+        <v>16</v>
+      </c>
+      <c r="F83" s="5" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A84" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="B84" s="4" t="s">
+        <v>270</v>
+      </c>
+      <c r="C84" s="9">
+        <v>2004</v>
+      </c>
+      <c r="D84" s="9">
+        <v>87</v>
+      </c>
+      <c r="E84" s="9">
+        <v>12</v>
+      </c>
+      <c r="F84" s="5" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A85" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="B85" s="4" t="s">
+        <v>272</v>
+      </c>
+      <c r="C85" s="9">
+        <v>2002</v>
+      </c>
+      <c r="D85" s="9">
+        <v>96</v>
+      </c>
+      <c r="E85" s="9">
+        <v>12</v>
+      </c>
+      <c r="F85" s="5" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A86" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="B86" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="C86" s="9">
+        <v>2004</v>
+      </c>
+      <c r="D86" s="9">
+        <v>198</v>
+      </c>
+      <c r="E86" s="9">
+        <v>16</v>
+      </c>
+      <c r="F86" s="5" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A87" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="B87" s="4" t="s">
+        <v>276</v>
+      </c>
+      <c r="C87" s="9">
+        <v>2009</v>
+      </c>
+      <c r="D87" s="9">
+        <v>91</v>
+      </c>
+      <c r="E87" s="9">
+        <v>16</v>
+      </c>
+      <c r="F87" s="5" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A88" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="B88" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="C88" s="9">
+        <v>2001</v>
+      </c>
+      <c r="D88" s="9">
+        <v>96</v>
+      </c>
+      <c r="E88" s="9">
+        <v>12</v>
+      </c>
+      <c r="F88" s="5" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A89" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="B89" s="4" t="s">
+        <v>280</v>
+      </c>
+      <c r="C89" s="9">
+        <v>2023</v>
+      </c>
+      <c r="D89" s="9">
+        <v>110</v>
+      </c>
+      <c r="E89" s="9">
+        <v>16</v>
+      </c>
+      <c r="F89" s="5" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A90" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="B90" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="C90" s="9">
+        <v>1994</v>
+      </c>
+      <c r="D90" s="9">
+        <v>108</v>
+      </c>
+      <c r="E90" s="9">
+        <v>16</v>
+      </c>
+      <c r="F90" s="5" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A91" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="B91" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="C91" s="9">
+        <v>2022</v>
+      </c>
+      <c r="D91" s="9">
+        <v>177</v>
+      </c>
+      <c r="E91" s="9">
+        <v>12</v>
+      </c>
+      <c r="F91" s="5" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A92" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="B92" s="4" t="s">
+        <v>286</v>
+      </c>
+      <c r="C92" s="9">
+        <v>1984</v>
+      </c>
+      <c r="D92" s="9">
+        <v>114</v>
+      </c>
+      <c r="E92" s="9">
+        <v>16</v>
+      </c>
+      <c r="F92" s="5" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A93" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="B93" s="4" t="s">
+        <v>288</v>
+      </c>
+      <c r="C93" s="9">
+        <v>1989</v>
+      </c>
+      <c r="D93" s="9">
+        <v>122</v>
+      </c>
+      <c r="E93" s="9">
+        <v>12</v>
+      </c>
+      <c r="F93" s="5" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A94" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="B94" s="4" t="s">
+        <v>290</v>
+      </c>
+      <c r="C94" s="9">
+        <v>2023</v>
+      </c>
+      <c r="D94" s="9">
+        <v>92</v>
+      </c>
+      <c r="E94" s="9">
+        <v>6</v>
+      </c>
+      <c r="F94" s="5" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A95" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="B95" s="4" t="s">
+        <v>292</v>
+      </c>
+      <c r="C95" s="9">
+        <v>1994</v>
+      </c>
+      <c r="D95" s="9">
+        <v>123</v>
+      </c>
+      <c r="E95" s="9">
+        <v>16</v>
+      </c>
+      <c r="F95" s="5" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A96" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="B96" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="C96" s="9">
+        <v>2004</v>
+      </c>
+      <c r="D96" s="9">
+        <v>87</v>
+      </c>
+      <c r="E96" s="9">
+        <v>12</v>
+      </c>
+      <c r="F96" s="5" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A97" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="B97" s="4" t="s">
+        <v>296</v>
+      </c>
+      <c r="C97" s="9">
+        <v>2003</v>
+      </c>
+      <c r="D97" s="9">
+        <v>87</v>
+      </c>
+      <c r="E97" s="9">
+        <v>6</v>
+      </c>
+      <c r="F97" s="5" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A98" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="B98" s="4" t="s">
+        <v>298</v>
+      </c>
+      <c r="C98" s="9">
+        <v>2003</v>
+      </c>
+      <c r="D98" s="9">
+        <v>143</v>
+      </c>
+      <c r="E98" s="9">
+        <v>12</v>
+      </c>
+      <c r="F98" s="5" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A99" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="B99" s="4" t="s">
+        <v>300</v>
+      </c>
+      <c r="C99" s="9">
+        <v>1996</v>
+      </c>
+      <c r="D99" s="9">
+        <v>97</v>
+      </c>
+      <c r="E99" s="9">
+        <v>18</v>
+      </c>
+      <c r="F99" s="5" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A100" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="B100" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="C100" s="9">
+        <v>1987</v>
+      </c>
+      <c r="D100" s="9">
+        <v>86</v>
+      </c>
+      <c r="E100" s="9">
+        <v>6</v>
+      </c>
+      <c r="F100" s="5" t="s">
+        <v>303</v>
       </c>
     </row>
   </sheetData>

--- a/Web-Tools/MB Video-Base/MB Video-Base.xlsx
+++ b/Web-Tools/MB Video-Base/MB Video-Base.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mario/Documents/GitHub/homepage/Web-Tools/MB Video-Base/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D59D924-EF89-D74B-9809-84D785E83B3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A8D97D2-8091-054E-A6D8-A19CAA437B99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="740" windowWidth="30240" windowHeight="18900" xr2:uid="{6AEA2D50-42AE-224B-8400-6BD6B3C7B91A}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="304">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="514" uniqueCount="514">
   <si>
     <t>Hulk</t>
   </si>
@@ -485,6 +485,216 @@
     <t>0099</t>
   </si>
   <si>
+    <t>0100</t>
+  </si>
+  <si>
+    <t>0101</t>
+  </si>
+  <si>
+    <t>0102</t>
+  </si>
+  <si>
+    <t>0103</t>
+  </si>
+  <si>
+    <t>0104</t>
+  </si>
+  <si>
+    <t>0105</t>
+  </si>
+  <si>
+    <t>0106</t>
+  </si>
+  <si>
+    <t>0107</t>
+  </si>
+  <si>
+    <t>0108</t>
+  </si>
+  <si>
+    <t>0109</t>
+  </si>
+  <si>
+    <t>0110</t>
+  </si>
+  <si>
+    <t>0111</t>
+  </si>
+  <si>
+    <t>0112</t>
+  </si>
+  <si>
+    <t>0113</t>
+  </si>
+  <si>
+    <t>0114</t>
+  </si>
+  <si>
+    <t>0115</t>
+  </si>
+  <si>
+    <t>0116</t>
+  </si>
+  <si>
+    <t>0117</t>
+  </si>
+  <si>
+    <t>0118</t>
+  </si>
+  <si>
+    <t>0119</t>
+  </si>
+  <si>
+    <t>0120</t>
+  </si>
+  <si>
+    <t>0121</t>
+  </si>
+  <si>
+    <t>0122</t>
+  </si>
+  <si>
+    <t>0123</t>
+  </si>
+  <si>
+    <t>0124</t>
+  </si>
+  <si>
+    <t>0125</t>
+  </si>
+  <si>
+    <t>0126</t>
+  </si>
+  <si>
+    <t>0127</t>
+  </si>
+  <si>
+    <t>0128</t>
+  </si>
+  <si>
+    <t>0129</t>
+  </si>
+  <si>
+    <t>0130</t>
+  </si>
+  <si>
+    <t>0131</t>
+  </si>
+  <si>
+    <t>0132</t>
+  </si>
+  <si>
+    <t>0133</t>
+  </si>
+  <si>
+    <t>0134</t>
+  </si>
+  <si>
+    <t>0135</t>
+  </si>
+  <si>
+    <t>0136</t>
+  </si>
+  <si>
+    <t>0137</t>
+  </si>
+  <si>
+    <t>0138</t>
+  </si>
+  <si>
+    <t>0139</t>
+  </si>
+  <si>
+    <t>0140</t>
+  </si>
+  <si>
+    <t>0141</t>
+  </si>
+  <si>
+    <t>0142</t>
+  </si>
+  <si>
+    <t>0143</t>
+  </si>
+  <si>
+    <t>0144</t>
+  </si>
+  <si>
+    <t>0145</t>
+  </si>
+  <si>
+    <t>0146</t>
+  </si>
+  <si>
+    <t>0147</t>
+  </si>
+  <si>
+    <t>0148</t>
+  </si>
+  <si>
+    <t>0149</t>
+  </si>
+  <si>
+    <t>0150</t>
+  </si>
+  <si>
+    <t>0151</t>
+  </si>
+  <si>
+    <t>0152</t>
+  </si>
+  <si>
+    <t>0153</t>
+  </si>
+  <si>
+    <t>0154</t>
+  </si>
+  <si>
+    <t>0155</t>
+  </si>
+  <si>
+    <t>0156</t>
+  </si>
+  <si>
+    <t>0157</t>
+  </si>
+  <si>
+    <t>0158</t>
+  </si>
+  <si>
+    <t>0159</t>
+  </si>
+  <si>
+    <t>0160</t>
+  </si>
+  <si>
+    <t>0161</t>
+  </si>
+  <si>
+    <t>0162</t>
+  </si>
+  <si>
+    <t>0163</t>
+  </si>
+  <si>
+    <t>0164</t>
+  </si>
+  <si>
+    <t>0165</t>
+  </si>
+  <si>
+    <t>0166</t>
+  </si>
+  <si>
+    <t>0167</t>
+  </si>
+  <si>
+    <t>0168</t>
+  </si>
+  <si>
+    <t>0169</t>
+  </si>
+  <si>
     <t>Nicht Auflegen</t>
   </si>
   <si>
@@ -948,6 +1158,426 @@
   </si>
   <si>
     <t xml:space="preserve">Lex Luther, Supermans ständiger Gegner, hat einen neuen Anschlag auf Superman vor: Er stiehlt ihm ein Haar und benutzt es, um mit seiner Hilfe den “Nuclear-Man” herzustellen, der seine Energie aus der Sonne bezieht. Dieser soll Superman töten, damit Lex seine finsteren Pläne in die Tat umsetzen kann. </t>
+  </si>
+  <si>
+    <t>Kung Pow</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Steve Oedekerk spielt den Auserwählten. Er ist mit dem Zeichen des Auserwählten gebrandmarkt: seine Zunge führt ein Eigenleben, hat ein eigenes Gesicht, inklusive einer kleinen Zunge. Von Zeit zu Zeit stößt sie spitze Schreie aus und wird vom Auserwählten Zünglein genannt. Als der Auserwählte noch ein Baby war, entsandte das mysteriöse Konzil des Bösen Meister Pain der sich im Verlauf des Films in Betty umbenennen wird, um seine Familie und ihn zu ermorden. Doch Meister Pain scheitert bei dem Versuch den Auserwählten zu töten, da dieser bereits als Baby über erstaunliche Kampfkunst verfügt und sich zu verteidigen weiß. Viele Jahre später beschließt der Auserwählte, den Mörder seiner Eltern zu finden, um sich zu rächen. Dazu absolviert er ein Training in der Schule von Meister Tang. Hier lernt er auch die schöne Ling kennen und erfährt mehr über das geheimnisvolle Konzil des Bösen. </t>
+  </si>
+  <si>
+    <t>Der Babynator</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Der Navy-SEAL Shane Wolfe hat einen Einsatz verbockt, bei dem ein Wissenschaftler ums Leben kam. Zur Strafe muss der Nahkampfspezialist nun dessen Kinder hüten, während ihre Mutter in der Schweiz mit einem US-Beamten ein Schließfach inspiziert, das brisante Geheimnisse enthalten soll. Also befehligt er statt knallharter Soldaten nun fünf rebellische Kids nebst renitentem Kindermädchen. Schnell wünscht sich Wolfe in seinen "normalen" Job zurück, wo Projektile fliegen, Bomben explodieren und das Leben am seidenen Faden hängt. </t>
+  </si>
+  <si>
+    <t>Lord Of The Weed - Sinnlos In Mittelerde</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lord Of The Weed ist - Sinnlos In Mittelerde ist eine zwanzigminütige, parodistische Neusynchronisation der Anfangsminuten des ersten Teils der Herr der Ringe-Filmtrilogie. Der Titel ist nicht nur an den englischen Originaltitel des Spielfilms von Peter Jackson angelehnt, sondern bezieht sich auch auf die Star-Trek-Parodie Sinnlos Im Weltraum... </t>
+  </si>
+  <si>
+    <t>Street Fighter - Assassin's Fist</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unter der weisen Ägide ihres mit allen Wassern gewaschenen Meisters Göken nähern sich die Ausnahmekampfsportler Ryu und Ken der höchsten Vollendung ihrer Kunst, der Technik des Hado. Doch während Ryu dafür den üblichen Weg wählt, zieht Ken neuerdings Register einer verbotenen Lehre, von der er aus geheimen Aufzeichnungen seines Meisters erfuhr. Göken ist darüber alles andere als erfreut und erinnert sich daran, wie diese fatale Lehre einst seinen Bruder auf die Seite des Bösen zog und ihm für immer entfremdete. Spinoff eines populären Videospiels der Gattung Beat 'Em Up in Form einer Webserie. Zwei Fighter und ihr Trainer bestreiten die abendfüllende Handlung, eine komplizierte Exzellenz-Ausbildung und ihre mannigfachen Fallstricke stehen im Mittelpunkt der Handlung, in Rückblenden erfahren wir mehr über den Hintergrund des Meisters und seine von existenziellen Konflikten gesäumten Familiengeschichte. Überzeugende Kampfszenen, gute Typen und hübsche Kulissen für Fans vom Fach. </t>
+  </si>
+  <si>
+    <t>Shaun Of The Dead</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shaun treibt seine Freundin Liz fast in den Wahnsinn, denn ihm scheinen seine Kumpels Ed und Pete wesentlich wichtiger zu sein, als das Mädchen, das er liebt. Jeden Tag in den selben öden Job, jeden Tag in den selben Pub mit den selben Leuten. Shaun scheint vom Leben außerhalb seines Alltags kaum etwas mitzubekommen. So verschläft er auch beinahe die Zombieapokalypse. Erst sein geliebter Pub von Zombies überrannt wird, erkennt Shaun, dass er zur Tat schreiten muss. Er muss neben Liz zurückerobern auch noch seine Mutter retten... </t>
+  </si>
+  <si>
+    <t>Robots</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Der kleine Roboterjunge Rodney Copperbottom ist eigentlich ein ganz normaler Junge aus der Nachbarschaft. Doch er hat zur Verblüffung seiner Eltern einen ungewöhnlichen Traum. Er möchte sein großes Idol Big Weld treffen und wie dieser ein genialer Erfinder werden. Auf den Spuren dieses Wunsches begibt er sich in die wilde Metropole Robot City, wo ein ganz anderer Wind weht, als Rodney es bislang gewohnt war. Hier hat der aalglatte Ratchet die Macht von Big Weld Industries an sich gerissen und vom eigentlichen Firmenchef Big Weld - Rodneys Idol - fehlt jede Spur. Um Big Weld zu finden und zu retten hat Rodney zahlreiche Abenteuer zu bestehen. Dafür braucht er nicht nur viel Mut und Erfindungsreichtum, sondern vor allem gute Freunde... </t>
+  </si>
+  <si>
+    <t>Düstere Legenden 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Samantha und zwei ihrer Freundinnen sind durch einen Zeitungsartikel, den sie für die Studentenzeitung verfasst haben, bei den Burschen des Football-Teams ihrer Uni in Misskredit geraten. Statt Partys zu feiern, sitzen die drei nun bei Sam und erzählen sich legendäre Schauergeschichten. Als sie dabei den Geist der in jungen Jahren gewaltsam ums Leben gekommenen ‚Bloody Mary‘ erwecken, treten sie eine mysteriöse Mordserie los. </t>
+  </si>
+  <si>
+    <t>Solo Box - Episode 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Der halblustige Clown... </t>
+  </si>
+  <si>
+    <t>Signs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eine Familie, die auf einem Bauernhof lebt, findet auf ihren Feldern mysteriöse Kornkreise, die auf etwas noch Beängstigenderes hindeuten... </t>
+  </si>
+  <si>
+    <t>Sommersturm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eine junge Rudergruppe nutzt ein Ruderturnier, um zusammen zu zelten. Mit dabei sind nicht nur die unzertrennlichen Freunde Tobi und Achim, sondern auch Anke und Sandra. Sandra ist Achims Freundin und Anke ist in Tobi verliebt, doch dieser interessiert sich mehr für seinen besten Freund Achim. An ihrem Urlaubsziel treffen die Teams auch auf das Team "Queerschlag". Als sie rausfinden, dass "Queerschlag" ausschließlich aus homosexuellen Jungen besteht, geraten Tobis Gefühle völlig durcheinander. Er traut sich weder Achim seine Gefühle zu gestehen, noch zu offenbaren, dass er homosexuell ist und auch Anke kann er nicht sagen, dass er sie nicht liebt. Bald macht er erste intime Erfahrungen. </t>
+  </si>
+  <si>
+    <t>Das Schweigen Der Lämmer 0 - Roter Drache</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bei der Festnahme des gefährlichen Psychopathen und Massenmörders Hannibal Lecter entgeht FBI-Agent Will Graham nur knapp dem Tod. Grund genug für ihn, den Dienst zu quittieren. Doch schon nach kurzer Zeit ist das FBI erneut auf seine Hilfe angewiesen. Ein Serienmörder, der in Vollmondnächten schlafende Familien heimsucht, hinterlässt eine grauenhafte Spur des Schreckens. Graham nimmt den Auftrag an und versucht sich in die Psyche des Killers, der nur die "Zahnfee" genannt wird, hineinzuversetzen. Dabei ist er auf die Hilfe eines ähnlich genialen und gestörten Geistes in Form von Dr. Hannibal Lecter angewiesen. Doch dieser verfolgt seine eigenen Pläne. </t>
+  </si>
+  <si>
+    <t>Rose Red - Haus Der Verdammnis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unheimliche Geschichten kursieren um das finstere Anwesen "Rose Red". In seinen Mauern soll der Leibhaftige wohnen. Unter Leitung von Professor Joyce Reardon sollen sechs Außenseiter, die über verschiedene übersinnliche Begabungen verfügen, die verborgenen Kräfte des Hauses erforschen. Doch dabei entfesseln sie eine Macht, die niemals in diese Welt gelangen durfte... </t>
+  </si>
+  <si>
+    <t>Scary Movie 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Die Fernseh-Moderatorin Cindy Campbell untersucht mysteriöse Zeichen in Kornfeldern, die auf eine Landung von Aliens hindeuten. Ihre Freundin Brenda bekommt derweil ein Videoband in die Hände, das sieben Tage nach dem Ansehen tödliche Nachwirkungen haben soll. Tatsächlich erhält sie nur wenige Augenblicke nach dem Angucken einen Anruf, der ihr ein vorzeitiges Ende prophezeit. Der junge weißen Rapper George möchte sich in einem großen Battle beweisen und zu einem Star des Hip-Hop-Universums aufsteigen, gewinnt aber zunächst die Liebe von Cindy. Gemeinsam versuchen sie, den Geheimnissen der Außerirdischen und des Videobandes auf die Spur zu kommen... </t>
+  </si>
+  <si>
+    <t>Scary Movie 4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Die liebenswerte, aber reichlich naive Cindy Campell findet einen Job als Altenpflegerin bei einer geheimnisvollen alten Frau, in deren Haus Geister ihr Unwesen treiben. Dort lernt sie auch ihren gutaussehenden Nachbarn Tom Ryan kennen. Gemeinsam mit ihm und seinen Kindern flieht Cindy alsbald vor Außerirdischen, die die Weltherrschaft übernehmen wollen. Dabei werden sie unter anderem mit schrecklichen Flugzeugabstürzen, Dorfidioten, Körperöffnungen von Aliens und schließlich sogar Oprah Winfrey konfrontiert. </t>
+  </si>
+  <si>
+    <t>The One</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Das Multiverse Bureau of Investigation sorgt für Einklang zwischen den vielen Paralleluniversen unserer Welt. Agent Yulaw macht sich auf den Weg, alle seine Alter Egos zu töten, um deren Lebensenergie zu bekommen. Bei 123 Parallelexistenzen hat er das bereits geschafft. Nun ist nur noch der LAPD-Polizist Gabe Law übrig, dessen Leben fortan in großer Gefahr ist. Sein Häscher muss sich gleichzeitig dem Zugriff durch die beiden Multiversum-Agenten Roedecker und Funsch entziehen, die ihn in eine der Parallelwelten in eine Strafkolonie verbannen wollen. Alle Beteiligten wechseln die Parallelwelten durch Beamen: sie lösen sich auf, rasen durch kosmische Tunnels, und setzen sich "auf der anderen Seite" wieder zusammen. Alles läuft auf das Duell zwischen den zwei verbliebenen Parallelexistenzen hinaus... </t>
+  </si>
+  <si>
+    <t>The Twins Effect</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vampirjäger Reeve hat es nicht einfach: Er muss sich nicht nur darum kümmern, dass die Welt von den Geschöpfen der Nacht verschont bleibt, sondern sein Erzfeind Duke ist auch noch auf dem besten Weg, ein neues Zeitalter der Dunkelheit einzuläuten. Duke ist auf der Jagd nach dem Vampirprinzen Kazaf oder besser gesagt dessen Blut. Denn nur damit kann er das heilige Buch der Vampire öffnen, mit dem ihm und seiner Armee von Untoten Tageslicht nichts mehr anhaben kann. Reeve macht sich gemeinsam mit seiner Partnerin Gypsy und seiner Schwester Helen bereit für den ultimativen Showdown. Dabei bekommt er unerwartete Hilfe von einem schlagfertigen Ambulanz-Fahrer: Jackie Chan - dem Meister der Martial-Arts-Künste </t>
+  </si>
+  <si>
+    <t>Trouble Ohne Paddel 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Billy Newwood, Jerry Conlaine, Tom Marshall und Dan Mott waren in ihrer Kindheit beste Freunde. Doch mit der Zeit haben sie sich auseinander gelebt. Eines Tages verstirbt Billy unerwarteter Weise und die anderen Drei treffen sich auf der Beerdigung wieder. Sie entdecken eine von Billy hinterlassene Schatzkarte. Dabei handelt es sich um die Beute von einem Raubüberfall, die Billy versteckt hat. Daher machen sie sich auf nach Oregon und geraten in so manche Schwierigkeiten. So müssen sich gegen Bären erwehren und zwei neugierige Hinterwäldler vom Hals halten. Später entdecken sie eine Marihuanaplantage und werden von den bewaffneten Drogenhändlern unter Beschuss genommen. Eigentlich wollen sie schon aufgeben, doch nun wissen sie auch nicht mehr, wie sie nach Hause kommen sollen. </t>
+  </si>
+  <si>
+    <t>Spaceballs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wir befinden uns weit, weit, weit weg in einer Galaxie, in der es ein kleines Völkchen gibt, das sich Spaceballs nennt. Angeführt durch Lord Helmchen und Colonel Sandfurz versuchen sie, die Luft des Planeten Druidia zu entsaugen, denn ihr Heimatplanet leidet unter Luftverschmutzung. Kurzerhand wird Prinzessin Vespa entführt und der Weltraumcowboy Lone Star muss sie aus den Fängen der Schurken retten. Unterstützt wird er bei dieser Mission von Waldi, dem Möter, er ist halb Mensch, halb Köter. </t>
+  </si>
+  <si>
+    <t>Dodgeball</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Average’s Joe ist eine altmodische Muckibude, geleitet von Peter Le Fleur. Bank-Anwältin Kate Veatch erklärt Peter, dass dem Fitnessclub die Übernahme durch die Groß-Kette "Globo Gym" droht, wenn nicht innerhalb eines Monats 50.000 Dollar zusammenkommen. Konzernboss White Goodman ist schon ganz heiß drauf, die Kaschemme seines ungeliebten Konkurrenten zu schlucken. Außerdem buhlen die beiden Männer um die Gunst der attraktiven Kate, die sich aber schnell auf die Seite der Underdogs schlägt und den affektierten Goodman abblitzen lässt. Um das Geld doch noch aufzutreiben, haben Le Fleur und seine Freunde eine Idee: Sie wollen bei den World Dodgeball Championships in Las Vegas teilnehmen. Der Sieger des Turniers erhält 50.000 Dollar. Nachdem das Team von "Average Joe’s" mit viel Glück die regionale Vorausscheidung überstanden hat, läuft alles auf den großen Showdown hinaus. Denn Goodman ist ebenfalls mit seinem "Globo Gym"-Team am Start, und das hat sportliches Weltklasse-Niveau... </t>
+  </si>
+  <si>
+    <t>The Others</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jersey, England. 1945. Grace, deren Ehemann nach dem Ende des Zweiten Weltkriegs noch immer nicht von der Front zurückgekehrt ist, lebt mit ihren beiden Kindern Anne und Nicholas und einigen Bediensteten in einem unheimlichen viktorianischen Anwesen. Anne und Nicholas leiden an einer seltenen Krankheit durch die sie allergisch auf direktes Sonnenlicht reagieren. Das Haus muss daher stets in Dunkelheit gehüllt sein, um die Gesundheit der beiden nicht zu gefährden. </t>
+  </si>
+  <si>
+    <t>Saw 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ohne die leiseste Ahnung, wie sie in diesen Albtraum geraten sind, erwachen zwei Männer angekettet an gegenüberliegenden Wänden in einem Kellerverlies. Hinterlassen hat ihr Entführer lediglich eine ausgeblutete Leiche und ein Tonband, auf dem er den Gefangenen einen Ausweg anbietet. Wenn sie beweisen, dass sie bereit sind, wirklich alles für ihr überleben zu tun, haben sie die Chance, aus ihrem Verlies zu entkommen. Doch die Spielregeln des Sadisten sind gnadenlos. Wer die Freiheit will, muss sich selbst verstümmeln oder zum Mörder werden... </t>
+  </si>
+  <si>
+    <t>X-Men 1</t>
+  </si>
+  <si>
+    <t>Die Ausreißerin Rogue, die aufgrund ihrer wachsenden Mutantenkräfte, nämlich die Fähigkeit, durch Berührung die Persönlichkeiten, Erinnerungen und Kräfte anderer Menschen kurzzeitig zu absorbieren, von zu Hause weggelaufen ist, trifft bei ihrer Flucht in Kanada auf den Einzelgänger Logan, der geschärfte Sinne und die Fähigkeit besitzt, eigene Verletzungen in Sekunden zu heilen. Dazu ist sein Skelett vollständig mit einem schier unzerstörbarem Metall (Adamantium) überzogen und mit sechs ausfahrbaren Klauen bewaffnet</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Logan kann sich aber nicht erinnern, wann und wo sein Skelett derart behandelt worden ist, noch hat er irgendeine Erinnerung an seine eigene Vergangenheit. </t>
+  </si>
+  <si>
+    <t>X-Men 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sie sind das nächste Glied in der Evolutionskette. Jeder von ihnen kam mit einer einzigartigen genetischen Mutation auf die Welt, jeder mit einer anderen außergewöhnlichen Fähigkeit, die sich erstmals in der Jugend zeigt. In einer zunehmend von Vorurteilen und Hass beherrschten Welt interessieren sie jedoch nur als wissenschaftliche Kuriositäten... als Launen der Natur... als Ausgestoßene, gefürchtet und verachtet, weil Andersartigkeit nicht akzeptiert wird. Trotz der weit verbreiteten Ignoranz der Gesellschaft schaffen es die X-Men, und mit ihnen weltweit Tausende anderer Mutanten zu überleben. Unter den Fittichen des mächtigsten Telepathen der Welt, Professor Charles Xavier, lernen diese "begabten" Studenten, ihre Kräfte zu kontrollieren und sie zum Vorteil der Menschheit einzusetzen. Sie kämpfen für den Schutz einer Welt, die sie fürchtet. </t>
+  </si>
+  <si>
+    <t>The Running Man</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Im Jahr 2011 trägt die populärste Fernsehshow den Namen 'Running Man'. Straffällig gewordene Männer und Frauen müssen ihren Preis gegenüber der Gesellschaft mit dem Tod bezahlen. Dieser Tod tritt allerdings erst nach einem brutalen, aussichtslosen Kampf gegen die Gladiatoren von 'Running Man' ein. Jetzt allerdings befindet sich Ben Richards in der Todeszone und der Moderator der Show, Damon Killian sollte niemals Richards letzte Worte vergessen: Ich komme wieder. </t>
+  </si>
+  <si>
+    <t>Stigmata</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Die lebenslustige Frankie bekommt eines Tages von ihrer Mutter einen Rosenkranz geschenkt - ein Präsent, das ihr Leben für immer verändern wird. Denn plötzlich wird Frankie Opfer übernatürlicher Mächte, wird von Krämpfen geschüttelt und beginnt, aus Wunden an den Handgelenken zu bluten. Der Vatikan beauftragt den Priester und Wissenschaftler Andrew Kiernan damit, das Phänomen zu untersuchen. Dieser erkennt schon bald, dass sich Frankie in Lebensgefahr befindet. Doch da entbindet der Vatikan Kiernan wieder von seinem Auftrag... </t>
+  </si>
+  <si>
+    <t>Blade 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Der Daywalker Blade, halb Mensch, halb Vampir, wird nur von einem Ziel getrieben: Rache für den Fluch, der von Geburt an auf ihm lastet – und die Rettung der Menschheit vor einem blutigen Weltuntergang. In seinem neuen Action-Abenteuer muss Blade sich mit einem Team mächtiger Vampire verbünden, denn sie stehen einem Gegner gegenüber, der in seiner Boshaftigkeit alles Dagewesene in den Schatten stellt: ein neuer Super-Vampir, der sich vorgenommen hat, sowohl die Menschen als auch die Vampire vom Erdboden zu vertilgen... </t>
+  </si>
+  <si>
+    <t>Blade 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In Blade: Trinity bekommt es der Daywalker zum ersten Mal mit dem Vampir aller Vampire Drake alias Dracula zu tun. Dieser, gespielt von Prison Break – Star Dominic Purcell, wird von einer Gruppe Vampire aus seinem Grab befreit, mit dem Ziel sie alle zu Daywalkern zu transformieren. Nach Whistlers Tod muss Blade mit der Untergrundorganisation Nightstalker zusammen arbeiten, die auch in den Kampf gegen Vampire geht. Zu dieser gehört neben Whistlers Tochter Abigail auch der Draufgänger Hanibal King. Ziel der Gruppe ist es, mit dem von ihnen entwickelten Virus Day Star alle Vampire zu vernichten. Dafür brauchen sie jedoch als letztes Element einen Tropfen von Drakes Blut, der das Virus erst wirkungsvoll genug macht. Die Schlacht zwischen den Nightstalkern rund um Blade und den Vampiren beginnt. </t>
+  </si>
+  <si>
+    <t>Wie Werde Ich Ihn Los - In 10 Tagen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Seltsame Voraussetzungen für eine Beziehung: die Journalistin Andie will Ben in zehn Tagen loswerden, weil sie einen Artikel darüber schreiben will, er hingegen hat gewettet, dass sie sich in zehn Tagen in ihn verliebt, und sollte er es schaffen, winkt dem Werbefachmann ein attraktiver Auftrag. </t>
+  </si>
+  <si>
+    <t>Und Dann Kam Polly</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jede siebte Erdnuss in einer Bar weist Spuren von Urin auf. Salsatanzen birgt ein 50-prozentiges Verletzungsrisiko. Und beim Konsum von Alkohol muss mit Trunkenheit gerechnet werden. Das Leben ist extrem gefährlich Doch als er seine frisch angetraute Ehefrau in den Armen des gut gebauten Tauchlehrers erwischt, kommt er ins Stolpern und taumelt auf direktem Wege in die Arme einer alten Schulfreundin - Polly. Mit ihrer unkonventioneller Art krempelt sie schon bald Feffers gut durchgeplantes Leben völlig um und bringt ihn dazu, dem Risiko eine Chance zu geben. </t>
+  </si>
+  <si>
+    <t>Undead</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In dem beschaulichen australischen Fischerdorf Berkeley verursachen die Fragmente eines Kometen eine Katastrophe: der Großteil der Einwohner verwandelt sich durch kosmische Strahlung zu blutrünstigen Zombies. Eine Gruppe von sechs Leuten versucht verzweifelt ihr eigenes Leben zu retten. Ausgerechnet der verschrobene Sonderling und Waffennarr Marion soll ihr Retter sein und seine dreiläufige Schrotflinte sorgt tatsächlich für massive Verluste in den Reihen der Untoten. Zwischen all dem Blut und Chaos gibt es nur einen Ausweg für die Überlebenden: Raus aus Berkeley. Doch es erwarten Sie noch einige böse Überraschungen. Die australischen Brüder Peter und Michael Spierig drehten mit Nightbreakers - The Undead ihre Version eines unterhaltsamen Zombiefilms. </t>
+  </si>
+  <si>
+    <t>Underworld 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Seit Jahrhunderten herrscht Krieg zwischen den Vampiren und den Werwölfen, Lycans genannt. Gegen den Willen des Vampir-Anführer Kraven findet die schöne Selene heraus, dass es die Werwölfe auf den unscheinbaren Menschen Michael abgesehen haben. Denn dieser trägt den ewigen Konflikt der beiden Parteien in sich. Als sich Michael nach dem Biss von Chef-Lycan Lucian allmählich in einen Werwolf verwandelt, ist das Liebespaar auf sich allein gestellt. Verzweifelt wendet sich Selene an Vampirgott Viktor. Ein fataler Fehler. </t>
+  </si>
+  <si>
+    <t>Underworld 2 - Evolution</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nachdem Selene den Vampir-Ältesten Viktor getötet hat, schwebt sie selbst in Lebensgefahr. Auch bei Vampir-König Marcus findet die Blutsaugerin keinen Schutz, und so begibt sie sich gemeinsam mit dem Hybriden Michael, halb Werwolf, halb Vampir, auf die Flucht. Zu zweit versuchen sie schließlich, hinter die Geheimnisse der Fehde und ihrer jeweiligen Blutlinien zu kommen. Da ahnt Selene noch nicht, dass ausgerechnet Michael die Antwort auf all diese Fragen bei sich trägt, und sie selbst die einzige ist, die den ewigen Krieg beenden kann. </t>
+  </si>
+  <si>
+    <t>Ein Duke Kommt Selten Allein</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jeden Tag, wenn in Hazzard County die Sonne aufgeht, versucht Boss Hoggdie Dukes und all die anderen erneut über´s Ohr zu hauen. Im Augenblick heckt er einen Plan aus, um allen ihr Land abzuluchsen. Also kann man sich an den Fingern abzählen, wann er und die guten alten Kumpel Bo und Luke Duke wieder aufeinander losgehen wie Kater, die man in eine Tonne gesperrt hat. Der General Lee ist schon aufgetankt und zu jeder felgensprengenden Bruchlandung bereit: Die urkomische Kinoversion der langlebigen TV-Serie garantiert mehr Gags als ein Hund Flöhe hat. In dieser 300-PS-Komödie sorgen Stars, Schenkelklopfer und Spannung für Stimmung im Stoßverkehr - denn ein Duke kommt eben selten allein </t>
+  </si>
+  <si>
+    <t>Doom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Funkstille. Der Kontakt mit der Mars-Station ist abgebrochen. Seit Tagen kein Lebenszeichen. In der letzten übermittelten Nachricht war von einer Quarantäne der Stufe 5 die Rede. Ein missglücktes Experiment? Eine bis an die Zähne bewaffnete Spezialeinheit unter dem Kommando des draufgängerischen Sarge wird in die unterirdischen Tunnel geschickt, um mit automatischen Waffen und Explosivgeschossen Licht ins Dunkel zu bringen. Doch in den ausgestorbenen Korridoren lauert eine Legion blutrünstiger Mutanten, deren erbarmungslose Brutalität die jeder bekannten Lebensform übertrifft... </t>
+  </si>
+  <si>
+    <t>Dracula - Tot Aber Glücklich</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nachdem Graf Dracula in dem Engländer Renfield einen neuen Assistenten gefunden hat, verlässt er im Jahre 1893 Transsylvanien und reist nach London. Während Renfield kurz darauf in die Nervenklinik von Dr. Seward landet, versucht Dracula, seinen Durst bei Sewards Tochter Mina und deren Freundin Lucy zu stillen. Doch der Blutsauger hat nicht mit der Hartnäckigkeit des ausgewiesenen Vampirjägers Van Helsing gerechnet. Der gewiefte Professor versteht es, Dracula einen äußerst fatalen Stolperstein zu stellen... </t>
+  </si>
+  <si>
+    <t>Das Wandelnde Schloss</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Die junge Hutmacherin Sophie lebt in einer Kleinstadt im Lande Ingary, einer Welt voller Magie und Fabelwesen, die aber auch schon erste Flugzeuge und Dampfmaschinen kennt. Eines Tages lernt Sophie durch Zufall den jungen Magier Hauro kennen und verliebt sich in ihn - doch eine eifersüchtige Hexe verwandelt sie in eine alte Frau. Sophie verlässt ihre Heimatstadt, um nach einem Mittel gegen den Fluch zu suchen, und gelangt schließlich zu Hauros wandelndem Schloss. Hier findet sie eine Anstellung als Putzfrau und gewinnt durch ihre freundliche und zuvorkommende Art schnell die Herzen der übrigen Bewohner. Nur Hauro bleibt ihr gegenüber kalt und abweisend. Als der König von Hauro verlangt, für ihn in den Krieg zu ziehen, begreift Sophie allmählich, welche geheimnisvolle Verbindung zwischen dem Magier und Calcifer besteht, dem Dämon, dessen Kraft das wandelnde Schloss antreibt - und dass nur die alles verwandelnde Kraft der Liebe sie, Hauro und die übrigen Bewohner erlösen kann. </t>
+  </si>
+  <si>
+    <t>Desperado 2 - Desperado</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hätten die Bewohner des zwielichtigen mexikanischen Grenzstädtchens gewusst, was da in der flirrenden Hitze des Sommertages in Gestalt eines schwarzgekleideten Desperados über sie kommt, sie hätten die Fensterläden geschlossen und keinen Fuß mehr vor die Tür gesetzt. Denn der mysteriöse Fremde ist auf einem blutigen Rachefeldzug - der Drogenbaron Bucho erschoss seine Geliebte. Seitdem hat der dunkle Mariachi-Sänger die Gitarre in seinem Koffer gegen ein Arsenal großkalibrige Waffen getauscht. Nichts kann ihn aufhalten und jeder, der sich ihm in den Weg stellt, endet blutend im Straßenstaub. </t>
+  </si>
+  <si>
+    <t>Desperado 3 - Irgendwann In Mexico</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Drogenbaron Barillo träumt vom finalen Coup: In einem Staatsstreich möchte er die mexikanische Regierung stürzen und der nächste Präsident werden. Der korrupte CIA-Agent Sands hat etwas dagegen und schließt sich mit dem Profikiller und Barillo-Intimfeind Mariachi zusammen. Vor dem Hintergrund diverser revolutionärer Wirren und überschattet von diversen Geheimdienstintrigen nutzt der Mariachi die Gunst der Stunde zum fulminanten Rachefeldzug. </t>
+  </si>
+  <si>
+    <t>Die Liga Der Aussergewöhnlichen Gentlemen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1899: Um einen Weltkrieg zu verhindern, engagiert die britische Regierung eine Gruppe von außergewöhnlichen Menschen mit speziellen Fähigkeiten. Der Abenteurer Allan Quatermain, Captain Nemo, die Vampirin Mina Harker, der unsichtbare Rodney Skinner, der unsterbliche Dorian Gray, der US-Agent Tom Sawyer und Dr. Henry Jekyll aka Mr. Edward Hyde machen sich auf die Jagd, um das "Phantom" davon abzuhalten diesen Krieg auszulösen. Doch das erweist sich als schwerer als erwartet, denn dieser hat seine Spione überall. </t>
+  </si>
+  <si>
+    <t>Uhrwerk Orange</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Die Handlung spielt im London einer nicht allzu weit entfernten Zukunft und kreist um den jungen Alex. Der liebt Beethoven und ist Anführer der Droogs, einer Jugendgang. Die Gruppe selbst fällt mit nur durch den Akt an sich motivierten Gewalttaten und Vergewaltigungen Wehrloser auf. Nachdem die Jungs wieder mal einen Einbruch nebst Mord begangen haben, wird Alex von einem rebellierenden Gangmitglied niedergeschlagen und der Polizei überlassen. Der ehemalige Anführer kommt ins Gefängnis. Zwei Jahre später muss er als Versuchsobjekt an einer neuartigen, von der Regierung initiierten Aversionstherapie teilnehmen. Die Therapie dauert 14 Tage lang und konfrontiert Alex immer wieder mit Filmszenen stärkster Brutalität. Anschließend kommt er frei, ist nun allerdings nichts weiter als eine willenlose Hülle. </t>
+  </si>
+  <si>
+    <t>Der Wixxer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In die Wälder von Blackwhite Castle haben sich Doris und Dieter Dubinsky aus Ostdeutschland verirrt. Statt London müssen sie sich nun einen Mord ansehen, denn direkt vor ihren Augen wird der „Mönch mit der Peitsche“ überfahren. Chief Inspector Even Longer und sein neuer Kollege Very Long von Scotland Yard treffen bald darauf am Tatort ein und vermuten, dass hier der schon lange gesuchte Wixxer wieder zugeschlagen hat. Der hat nicht nur Even Longers Kollegen Rather Short auf dem Gewissen, sondern auch einige Gangster aus der Unterwelt, denn sein Ziel ist es, Herr derselben zu werden. Die Spur führt direkt nach Blackwhite Castle selbst, wo der Earl of Cockwood residiert. </t>
+  </si>
+  <si>
+    <t>Die Gebrüder Grimm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Deutschland im 19. Jahrhundert: die Brüder Jake und Will Grimm sammeln auf ihren Reisen durch das Land nicht nur phantastische lokale Märchen und Geschichten, sondern betätigen sich noch nebenbei, in dem sie böse Geister vertreiben, Flüche brechen oder dunkle Mächte exorzieren. Natürlich ist das alles ein Schwindel, sorgt aber für ein Auskommen. Bis sie eines Tages auffliegen, wofür der mysteriöse Delatombe sorgt, der sie zwingt, in einem abgelegenen Dorf ihrem angeblichen Handwerk nachzugehen. Tatsächlich verschwinden dort immer wieder Kinder und junge Mädchen. Notgedrungen machen sich die beiden ans Werk und in die Wälder und sind sich bald nicht mehr sicher, ob Magie, Geister und böse Mächte nicht vielleicht doch existieren... </t>
+  </si>
+  <si>
+    <t>Dirty Dancing</t>
+  </si>
+  <si>
+    <t>Dawn Of The Dead</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eine mysteriöse Seuche, die die Toten auferstehen lässt, welche dann Jagd auf die Lebenden machen, überrollt die USA. Das System bricht zusammen, so dass die Überlebenden auf Selbsthilfe angewiesen sind. Eine Gruppe Überlebender, darunter die Krankenschwester Anna und der Polizist Kenneth, schließt sich zusammen und sucht Zuflucht in einem Einkaufszentrum, das Unterkunft und Nahrung bietet. Doch das „Rest-Erinnerungsvermögen“ der lebenden Toten führt diese zurück an die Orte ihres Lebens und bald ist auch dieser Ort nicht mehr sicher. Notgedrungen starten die Überlebenden den Versuch, vom Festland auf eine Insel zu flüchten, wozu sie sich den Weg natürlich freikämpfen müssen... </t>
+  </si>
+  <si>
+    <t>Shazam 2 - Fury Of The Gods</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Billy Batson ist ein Teenager der etwas besonderen Art. Wenn er das Zauberwort „Shazam“ sagt, verwandelt er sich in den Superhelden Shazam und wird zu seinem erwachsenen Alter-Ego. Doch nicht nur er hat ungewöhnliche Superkräfte, auch seine Pflegefamilie-Geschwister Freddy, Mary, Pedro, Eugene und Darla, von denen jeder andere Kräfte mitbringt, sind mit von der Partie. Als sie im Laufe der Zeit lernen, mit diesen Kräften umzugehen, folgt eine unheilvolle Konfrontation mit den Titanen-Töchtern Hespera, Kalypso und deren jüngerer Schwester, die im Auftrag des Titans Atlas der Erde einen Besuch abstatten und nichts Gutes verheißen. Billy wird sich fortan wappnen müssen, obwohl er gleichzeitig inmitten einer Sinnkrise steckt und von dem Glauben geplagt wird, den Superheldenstatus nicht zu verdienen. </t>
+  </si>
+  <si>
+    <t>Dare Devil</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Anwalt Matt Murdock hatte keine einfache Kindheit: Zuerst verlor er sein Augenlicht bei einem Unfall mit radioaktiven Chemikalien und später wurde sein Vater von einem Unbekannten ermordet. Doch bei dem Unfall wurden Matts verbleibende Sinne auf übermenschliche Weise geschärft. Nun tritt er für die Gerechtigkeit ein: Tagsüber als Anwalt und nachts als kostümierter Rächer Daredevil, der freigesprochene Kriminelle heimsucht. Sein größer Gegenspieler ist der Gangsterboss Kingpin und Matt kann nicht verhindern, dass seine große Liebe Elektra Natchios in diesen Privatkrieg hineingezogen wird... </t>
+  </si>
+  <si>
+    <t>Final Destination 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Auf dem Weg zum Schüleraustausch nach Europa hat Alex Browning im wartenden Flugzeug plötzlich eine Vision, dass der Flieger abstürzen wird. Er bekommt einen hysterischen Anfall, woraufhin er des Flugzeugs verwiesen wird. Einige seiner Freunde und eine Lehrerin folgen. Tatsächlich explodiert die Maschine nach dem Start und macht Alex plötzlich zum Hauptverdächtigen. Viel schlimmer ist allerdings der Nebeneffekt, dass sein schicksalswidriges Verhalten den Tod offensichtlich nötigt, nachzuarbeiten, so dass die Überlebenden einer nach dem anderen eines plötzlichen Todes sterben. Alex ahnt den Plan, der dahinter steckt und macht sich so noch verdächtiger, entwickelt aber schnell einen Plan, den Tod auch bei der nächsten Runde auszutricksen... </t>
+  </si>
+  <si>
+    <t>Final Destination 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ein Jahr, nachdem eine Gruppe Teenager dem Tod auf ebenso rätselhafte Weise enteilte, wie sie später von jenem wieder eingeholt wurde, droht sich das Geschehen zu wiederholen: nach einer Vorahnung verhindert die junge Kimberly, dass sie selbst, ihre Freunde sowie ein paar weitere Autofahrer auf dem Highway von einem Baumtransport aus dem Leben gerissen werden. Als schon wenige Tage darauf der erste Glückspilz einem seltsamen Unfall erliegt, wird Kimberly mulmig. Sie sucht Hilfe bei der letzten Überlebenden vom Vorjahr. </t>
+  </si>
+  <si>
+    <t>Final Destination 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wendy feiert ihren Highschool-Abschluss mit Freunden im Freizeitpark. Kurz bevor eine Achterbahn-Fahrt beginnen soll, hat sie die Vorahnung eines schrecklichen Unfalls. Während sie und einige Freunde aussteigen, wird der Unfall Realität - alle Fahrgäste finden den Tod. Doch das ist erst der Anfang. Ihr und ihren Freunden war der Tod vorbestimmt. Wendy entdeckt nach der Tragödie, dass Fotos aus dem Freizeitpark Hinweise enthalten, auf welche Art der Tod die Überlebenden heimsuchen wird. Während sie versucht die Hinweise zu deuten, stirbt einer nach dem anderen auf grausame Weise, bis auch ihre Zeit gekommen scheint. </t>
+  </si>
+  <si>
+    <t>Die Mumie 3 - Das Grabmal Des Drachenkaisers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Einige Jahre sind vergangen, der zweite Weltkrieg ist gerade vorüber und eine letzte Mission für die britische Regierung führt das Archäologen-Ehepaar Rick und Evelyn O’Connell nach Shanghai und mitten hinein in eine politische Verschwörung, während zur gleichen Zeit ihr mittlerweile erwachsener Sohn Alex bei Ausgrabungen ebenfalls in China auf das Grab des Drachkaisers stößt. Der Legende nach wurden der Furcht erregende Herrscher und seine Armee vor über 2000 Jahren von einer Zauberin mit einem Fluch belegt und in Terrakotta verwandelt. Um China zurückzuerobern, sollen sie offenbar wiedererweckt werden, und nur die O’Connells und ihr alter Freund Jonathan stehen zwischen dem Drachenkaiser und einem neuen Zeitalter des Schreckens. </t>
+  </si>
+  <si>
+    <t>Das Geheime Fenster</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Der Schriftsteller Mort Rainey hatte auch schon einmal bessere Zeiten. Erst erwischt er seine Frau Amy beim Seitensprung, dann taucht der mysteriöse Shooter auf und bezichtigt Mort des Plagiats. Shooter behauptet, dass Mort seinen Roman „Das geheime Fenster“ abgeschrieben hat. Was Mort zunächst für einen Witz hält, den er schnell aufklären kann, wird nach und nach durch unheimliche Ereignisse zur Realität. Denn so sehr Mort auch versucht, eine Kopie seines Buches zu beschaffen, welches seine Unschuld beweisen könnte, es misslingt ihm ständig. Und Shooter hat ihm ein Ultimatum von drei Tagen gestellt. </t>
+  </si>
+  <si>
+    <t>Der Flug Des Phoenix</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pilot Frank Towns soll die Mannschaft einer entlegenen und unprofitablen Ölbohr-Station ausfliegen. Die Maschine wird eilig beladen, mit verschiedenem Material und unterschiedlichsten Menschen. Dann startet der metallene Vogel auch schon wieder, nur um wenige Minuten später abzustürzen. Jetzt sitzen sie fest, in den endlosen Sanddünen der Wüste Gobi, mit Proviant, der gerade mal für 30 Tage reicht. Die Zeit drängt, die Menschen streiten, und mittendrin bastelt Technikfreak Elliott an einem neuen Flugzeug. </t>
+  </si>
+  <si>
+    <t>Fight Club</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ein Yuppie findet beim charismatischen Tyler Durden Unterschlupf, nachdem seine Wohnung in die Luft gejagt wird. Ein Gerangel zwischen den beiden entwickelt sich zu einer Schlägerei, die mit der Erkenntnis endet, dass man sich nach einer ordentlichen Portion Prügel einfach besser fühlt. Der "Fight Club" ist geboren. Immer mehr Männer versammeln sich, um sich zu schlagen - und gestärkt in den Alltag zu gehen. Wie ein Virus greift das Konzept um sich, doch für Tyler ist der Kampfverein nur die erste Stufe, um die USA in die Knie zu zwingen. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nach dem Mord an der verrückten Mrs. Voorhees, die den Tod ihres Sohnes Jason rächte, kann Alice wieder ruhig schlafen. Aber da gibt es noch ein kleines Problem: Jason ist gar nicht im Crystal Lake ertrunken, sondern lebt die ganze Zeit in den Wäldern in der Umgebung. Und er hat beobachtet, wie Alice seine Mutter tötete. Seine Rache nimmt ihren blutigen Lauf. </t>
+  </si>
+  <si>
+    <t>Freitag Der 13. - Teil 2</t>
+  </si>
+  <si>
+    <t>Falling Down</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Der Angestellte William Foster, der nur über sein Nummernschild "D-Fens" identifiziert wird, will an einem heißen Tag zur Geburtstagsparty seiner Tochter fahren. Doch es ist ein schlechter Tag: er sitzt im Stau, die Leute sind wütend, er ist geschieden und darf seine Tochter eigentlich gar nicht sehen. Da steigt D-Fens einfach aus seinem stehenden Auto aus und macht sich zu Fuß auf den Weg, eine Odyssee, die ihn an all dem vorbeiführt, was er hasst und was ihn aufregt. Als erstes muss ein ausländischer Ladenbesitzer dran glauben, der ihm kein Kleingeld geben will. D-Fens zertrümmert den Laden und setzt seinen Weg fort. Bald schon erhält er bei einem illegalen Waffenhändler ausreichend Gelegenheit, sich schwer zu bewaffnen und bahnt sich den Weg durch die Großstadt. Die willkürliche Anhäufung von unterschiedlichen Gewalttaten fällt ausgerechnet dem Polizisten Prendergast auf, der seinen letzten Diensttag feiert... </t>
+  </si>
+  <si>
+    <t>Graf Dracula</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Liebe ist unendlich - sie ist stärker als der Tod... 1897: Der Londoner Immobilienmakler Jonathen Harker reist nach Transsylvanien, zum Schloss des Grafen Dracula. Der geheimnisvolle Kunde sucht einen Sitz in England, doch Harker ahnt nicht, weshalb. Der Grund liegt über 400 Jahre zurück, als der grausame Walachenprinz Vlad Tepes von einem Feldzug heimkehrte und durch ein tragisches Schicksal seine über alles geliebte Braut verlor. </t>
+  </si>
+  <si>
+    <t>Die Eiskalte Clique</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nach Jahren in einer psychiatrischen Klinik wird die bildhübsche Adrien Williams endlich entlassen. Sie findet einen angenehmen Job in einem versnobten Country-Club. Adrien freundet sich mit Brittany Foster an, der charismatischen Frontfrau einer Clique reicher College-Studenten. Sie führt Adrien in die Welt der „Schönen und Reichen“ ein. Und als dann auch noch ihr heimlicher Schwarm Matt Interesse an ihr signalisiert, scheint Adriens Glück perfekt. Doch die Aufnahme in die Clique hat ihren Preis, denn die Gruppe verbirgt ein düsteres Geheimnis. Es dauert nicht lange, da zeigt vor allem Brittany mehr und mehr ihr wahres Gesicht. </t>
+  </si>
+  <si>
+    <t>Hochzeit Mit Einer Leiche</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Im viktorianischen Zeitalter des 19. Jahrhunderts steht der schüchterne Victor Van Dort kurz vor der Vermählung mit der reichen und anmutigen Victoria Everglot. Als er jedoch durch Zufall eine geheimnisvolle Leichenbraut zum Leben erweckt und diese sich prompt in ihn verliebt, steht Victor vor einer schweren Wahl. Entweder ein Leben in der grauen und tristen Welt der Lebenden oder ein Dasein voller Spaß und Frohsinn im unerwartet bunten Totenreich. Hin- und hergerissen zwischen der Liebe zu Victoria und seiner Treue zur modrigen Leichenbraut Emily, muss Victor letztendlich eine Entscheidung treffen... </t>
+  </si>
+  <si>
+    <t>Intermission</t>
+  </si>
+  <si>
+    <t xml:space="preserve">John macht Schluss mit Deirdre, Deirdre macht rum mit Sam... Dies ist der Auftakt zu einer herrlich verrückten und unheimlich schnellen urbanen Love </t>
+  </si>
+  <si>
+    <t>Heartbreakers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Schön, sexy, charmant - Max ist eine Frau, die jeden Mann um den Verstand bringt. Sie heiratet regelmäßig stinkreiche Herren, die sich sofort danach unfreiwillig in sehr peinlichen Situationen wieder finden. Daraufhin reicht Max die Scheidung ein und macht sich mit einer fetten Abfindung aus dem Staub. Ihre nicht weniger sexy Komplizin heißt Page und ist ihre Tochter. Schon 14-mal hat die eiskalte Tour geklappt. Der Lohn für die lästige Heiraterei ist ein Leben in Luxus. Gefährlich wird's allerdings, wenn die Steuerbehörde plötzlich in der Tür steht. Und noch gefährlicher wird's, wenn geschieht was auf keinen Fall geschehen darf: Eine der Damen verliebt sich ernsthaft... </t>
+  </si>
+  <si>
+    <t>Jungfrau 40 Männlich Sucht</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40 Jahre - Andy Stitzer hat die besten Jahre seines Lebens hinter sich und lebt glücklich und bescheiden in den Tag hinein. Er arbeitet in einem Elektrofachhandel, hat eine kleine Wohnung und eine Vorliebe für Actionfiguren. Allerdings hat er keine Freundin. Schlimmer noch: er hatte noch nie in seinem Leben Sex. Als seine Freunde auf der Arbeit davon erfahren, wollen sie ihm helfen. Mit allen Mitteln wird versucht, Andy mit einer Frau zu verkuppeln, doch das gestaltet sich schwieriger als zunächst gedacht. Auch nach etlichen Versuchen hat sich an Andy's Jungfräulichkeit nichts geändert. Dann tritt Trish in sein Leben, Mutter von drei Kindern. Seine Freunde feiern schon den Erfolg, als Andy ihnen erzählt, dass sie ohne Sex auskommen... </t>
+  </si>
+  <si>
+    <t>Jeepers Creepers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Die Geschwister Trish und Darry befinden sich auf der Heimfahrt vom College in die Sommerferien zu ihren Eltern. Plötzlich werden sie auf einer abgelegenen, einsamen Landstraße mitten im Niemandsland von einem alten, verdreckten Truck von der Straße gedrängt. Schockiert setzen sie ihre Fahrt fort und sehen kurze Zeit später den besagten Truck an einer alten Kirche stehen. Im Vorbeifahren beobachten sie, wie eine massige Gestalt ein menschengroßes, in ein Laken gehülltes Bündel, von der Ladefläche hebt und in einem Erdschacht verschwinden lässt. Die große Angst vor dem Fremden wird schließlich von Darrys Neugier besiegt und die beiden kehren wider jegliche Vernunft um und machen eine grauenvolle Entdeckung. Sie untersuchen die Erdröhre, dabei verliert Darry den Halt und stürzt in die dunkle Tiefe. </t>
+  </si>
+  <si>
+    <t>Kill Bill - Volume 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Es sollte der Aufbruch in ein neues Leben werden, doch es endete mit dem Tod: Die Killer O-Ren Ishii, Vernita Green, Budd und Elle Driver haben die Hochzeit ihrer Ex-Kollegin – im Film nur „die Braut“ genannt – in ein Massaker verwandelt. Wider Erwarten überlebt die geschändete Frau jedoch und will von nun an nichts weiter als Rache. Rache an dem Todeskommando, das sie liquidieren sollte und Rache an dem Mann, der den Auftrag dazu gegeben hatte: Gangster-Boss Bill. Ihr Weg führt die Braut bis ins ferne Okinawa, wo sie sich vom legendären Waffenschmied Hattori Hanzo ein Schwert anfertigen lässt, das fortan zu ihrem wichtigsten Begleiter wird... </t>
+  </si>
+  <si>
+    <t>Legende</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Um die Welt in seine Gewalt zu bringen, will der Herr der Finsternis alle lebenden Einhörner umbringen. Denn erst, wenn das strahlende, positive Licht, das von den Einhörnern in die Welt gebracht wird, erlischt, kann die Dunkelheit um sich greifen und ihre Herrschaft beginnen. Um dies zu erreichen, sendet der Herr der Finsternis zahlreiche Kobolde in den magischen Wald, in dem die letzten Einhörner beheimatet sind. Durch eine List gelingt es ihnen, die arglose junge Prinzessin Lily in ihre Pläne einzubinden und eines der magischen Wesen zu töten. Das letzte lebende Einhorn und die Prinzessin selbst werden von den Kobolden gefangen genommen und zu ihrem Herren verschleppt. Als der Geliebte der Prinzessin, der Waldläufer Jack, davon erfährt, macht er sich auf den Weg seine Liebe und das Licht der Welt vor dem Bösen zu bewahren... </t>
+  </si>
+  <si>
+    <t>Minority Report</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Im Washington, D.C., des Jahres 2054 gibt es keine Morde mehr. Die Zukunft ist bekannt und Mörder werden gefasst, bevor sie ihr Verbrechen begehen können. Dafür sorgt Pre-Crime, eine Elite-Einheit der Polizei, die die Visionen der Pre-Cogs, drei Wesen mit hellseherischen Fähigkeiten, auswertet und zur Tat schreitet. Das System ist perfekt. Und John Anderton ist sein perfekter Chef: Seit einem tragischen Verlust sechs Jahre zuvor widmet er sein Leben mit vollkommener Leidenschaft der Verbrecherjagd. Es gibt keinen Grund für ihn, am System zu zweifeln bis er in einer Vision selbst als Mörder zu sehen ist. 36 Stunden bleiben ihm bis zu dem Verbrechen. 36 Stunden, um zu beweisen, dass er unschuldig ist und das perfekte System fehlbar. Die Flucht kann beginnen. </t>
+  </si>
+  <si>
+    <t>Paycheck</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ein doppelt riskanter Job: drei Jahre lang erledigt der hochbegabte Computerspezialist Michael Jennings Geheimaufträge für die Rethrick-Corporation. Er weiß genau, auf was er sich dabei einlässt. Denn die Bezahlung ist hoch alle Erinnerungen werden nach Beendigung der Projekte aus dem Gedächtnis gelöscht. Doch statt des Geldes erwartet ihn nur ein Umschlag mit zwanzig scheinbar wertlosen Dingen. An der Seite Rachels beginnt ein lebensgefährliches Verwirrspiel zwischen Vergangenheit, Gegenwart und Zukunft. </t>
+  </si>
+  <si>
+    <t>Pearl Harbor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">New Jersey 1941. Rafe McCawley und Danny Walker sind seit ihren Kindertagen beste Freunde. Wie Brüder sind sie aufgewachsen und das Fliegen war schon immer ihre große Leidenschaft. Inzwischen sind sie waghalsige junge Piloten im U.S. Army Air Corps. Bis eine eigenmächtige Entscheidung Rafes ihre Freundschaft auf die Probe stellt: Er hat sich als Freiwilliger zum "Eagle Squadron" gemeldet, einer Gruppe amerikanischer Soldaten, die auf Seiten der Engländer kämpft. Rafe lässt nicht nur seinen besten Freund zurück, sondern auch seine große Liebe Evelyn. Sie ist eine mutige junge Frau, die Rafe im Militärkrankenhaus kennenlernte, in dem sie als Krankenschwester arbeitet. Während Rafe in England sein Leben aufs Spiel setzt, werden Evelyn und Danny nach Pearl Harbor auf Hawaii versetzt... </t>
+  </si>
+  <si>
+    <t>Das Phantom Der Oper</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1870: Das Opernpalais Opera Populaire hat seine Glanzzeit. Andre und Firmin, die neuen Besitzer, stellen sich und ihren jungen Förderer Raoul dem Ensemble vor. Das Chormädchen Christine erkennt in Raoul ihre Jugendliebe wieder, die sie nach dem Tod ihrer Eltern nicht gesehen hat. Doch die Proben stehen unter keinem guten Stern, denn das mysteriöse Phantom betrachtet die Opera Populaire als sein Theater und nimmt unter Androhung von "Unfällen" Einfluss darauf, wie die Stücke in Zukunft aufgeführt werden sollen... </t>
+  </si>
+  <si>
+    <t>Riddick 1 - Pitch Black</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eine Gruppe von Weltallreisenden landet nach einer Raumschiffpanne auf einem Planeten abseits aller bekannten Routen. Unter den Gestrandeten befindet sich auch der verurteilte Serienmörder Riddick, der nun die Gelegenheit nutzt, den Ketten Ade zu sagen und seine Bewacher bzw. sämtliche Mitreisende zu einer Partie Schnitzeljagd einzuladen. Doch damit nicht genug der Probleme: In den Überresten einer menschlichen Expeditionsstation findet man Hinweise auf eine aggressive Alienpopulation, die immer dann in Aktion tritt, wenn Dunkelheit auf den Planeten fällt... </t>
+  </si>
+  <si>
+    <t>Little Nicky</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Little Nicky ist der Spross des Teufels und bekommt von seinem Vater die Leitung des „Familienbetriebs“ übertragen. Der will sich nämlich zur Ruhe setzen, doch keiner seiner anderen beiden Söhne - Cassius und Adrian - scheint ihm geeignet für den Job. Das Problem ist nur, dass Nicky einfach nicht böse genug ist. Er hat eine Woche Zeit, um seinen Vater abzulösen und ihm damit das Leben zu retten. </t>
   </si>
 </sst>
 </file>
@@ -1360,16 +1990,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D51DD517-BD67-9F45-A4CA-2F65B8CF2913}">
-  <dimension ref="A1:G100"/>
+  <dimension ref="A1:G170"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
-      <selection activeCell="A101" sqref="A101"/>
+    <sheetView tabSelected="1" topLeftCell="A142" workbookViewId="0">
+      <selection activeCell="A171" sqref="A171"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10.83203125" style="3"/>
-    <col min="2" max="2" width="47.83203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="41.1640625" style="4" bestFit="1" customWidth="1"/>
     <col min="3" max="5" width="10.83203125" style="9"/>
     <col min="6" max="6" width="255.83203125" style="5" bestFit="1" customWidth="1"/>
   </cols>
@@ -1839,7 +2469,7 @@
         <v>72</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>149</v>
+        <v>219</v>
       </c>
       <c r="C24" s="9">
         <v>2002</v>
@@ -1851,7 +2481,7 @@
         <v>16</v>
       </c>
       <c r="F24" s="6" t="s">
-        <v>150</v>
+        <v>220</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
@@ -1859,7 +2489,7 @@
         <v>73</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>151</v>
+        <v>221</v>
       </c>
       <c r="C25" s="9">
         <v>2004</v>
@@ -1871,7 +2501,7 @@
         <v>12</v>
       </c>
       <c r="F25" s="6" t="s">
-        <v>152</v>
+        <v>222</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
@@ -1879,7 +2509,7 @@
         <v>74</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>153</v>
+        <v>223</v>
       </c>
       <c r="C26" s="9">
         <v>2006</v>
@@ -1891,7 +2521,7 @@
         <v>12</v>
       </c>
       <c r="F26" s="6" t="s">
-        <v>154</v>
+        <v>224</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
@@ -1899,7 +2529,7 @@
         <v>75</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>155</v>
+        <v>225</v>
       </c>
       <c r="C27" s="9">
         <v>1993</v>
@@ -1911,7 +2541,7 @@
         <v>6</v>
       </c>
       <c r="F27" s="6" t="s">
-        <v>156</v>
+        <v>226</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
@@ -1919,7 +2549,7 @@
         <v>76</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>157</v>
+        <v>227</v>
       </c>
       <c r="C28" s="9">
         <v>1990</v>
@@ -1931,7 +2561,7 @@
         <v>16</v>
       </c>
       <c r="F28" s="6" t="s">
-        <v>158</v>
+        <v>228</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
@@ -1939,7 +2569,7 @@
         <v>77</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>159</v>
+        <v>229</v>
       </c>
       <c r="C29" s="9">
         <v>1999</v>
@@ -1951,7 +2581,7 @@
         <v>16</v>
       </c>
       <c r="F29" s="6" t="s">
-        <v>160</v>
+        <v>230</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
@@ -1959,7 +2589,7 @@
         <v>78</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>161</v>
+        <v>231</v>
       </c>
       <c r="C30" s="9">
         <v>1994</v>
@@ -1971,7 +2601,7 @@
         <v>12</v>
       </c>
       <c r="F30" s="6" t="s">
-        <v>162</v>
+        <v>232</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
@@ -1979,7 +2609,7 @@
         <v>79</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>163</v>
+        <v>233</v>
       </c>
       <c r="C31" s="9">
         <v>2003</v>
@@ -1991,7 +2621,7 @@
         <v>16</v>
       </c>
       <c r="F31" s="5" t="s">
-        <v>164</v>
+        <v>234</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
@@ -1999,7 +2629,7 @@
         <v>80</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>165</v>
+        <v>235</v>
       </c>
       <c r="C32" s="9">
         <v>1971</v>
@@ -2011,7 +2641,7 @@
         <v>18</v>
       </c>
       <c r="F32" s="5" t="s">
-        <v>166</v>
+        <v>236</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
@@ -2019,7 +2649,7 @@
         <v>81</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>167</v>
+        <v>237</v>
       </c>
       <c r="C33" s="9">
         <v>2003</v>
@@ -2031,7 +2661,7 @@
         <v>6</v>
       </c>
       <c r="F33" s="5" t="s">
-        <v>168</v>
+        <v>238</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.2">
@@ -2039,7 +2669,7 @@
         <v>82</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>169</v>
+        <v>239</v>
       </c>
       <c r="C34" s="9">
         <v>2001</v>
@@ -2051,10 +2681,10 @@
         <v>12</v>
       </c>
       <c r="F34" s="5" t="s">
-        <v>170</v>
+        <v>240</v>
       </c>
       <c r="G34" t="s">
-        <v>171</v>
+        <v>241</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.2">
@@ -2062,7 +2692,7 @@
         <v>83</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>172</v>
+        <v>242</v>
       </c>
       <c r="C35" s="9">
         <v>2003</v>
@@ -2074,7 +2704,7 @@
         <v>0</v>
       </c>
       <c r="F35" s="5" t="s">
-        <v>173</v>
+        <v>243</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
@@ -2082,7 +2712,7 @@
         <v>84</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>174</v>
+        <v>244</v>
       </c>
       <c r="C36" s="9">
         <v>2003</v>
@@ -2094,7 +2724,7 @@
         <v>12</v>
       </c>
       <c r="F36" s="5" t="s">
-        <v>175</v>
+        <v>245</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.2">
@@ -2102,7 +2732,7 @@
         <v>85</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>176</v>
+        <v>246</v>
       </c>
       <c r="C37" s="9">
         <v>2005</v>
@@ -2114,7 +2744,7 @@
         <v>12</v>
       </c>
       <c r="F37" s="5" t="s">
-        <v>177</v>
+        <v>247</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.2">
@@ -2122,7 +2752,7 @@
         <v>86</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>178</v>
+        <v>248</v>
       </c>
       <c r="C38" s="9">
         <v>2001</v>
@@ -2134,7 +2764,7 @@
         <v>0</v>
       </c>
       <c r="F38" s="5" t="s">
-        <v>179</v>
+        <v>249</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.2">
@@ -2142,7 +2772,7 @@
         <v>87</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>180</v>
+        <v>250</v>
       </c>
       <c r="C39" s="9">
         <v>2005</v>
@@ -2154,7 +2784,7 @@
         <v>12</v>
       </c>
       <c r="F39" s="5" t="s">
-        <v>181</v>
+        <v>251</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.2">
@@ -2162,7 +2792,7 @@
         <v>88</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>182</v>
+        <v>252</v>
       </c>
       <c r="C40" s="9">
         <v>2006</v>
@@ -2174,7 +2804,7 @@
         <v>6</v>
       </c>
       <c r="F40" s="5" t="s">
-        <v>183</v>
+        <v>253</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.2">
@@ -2182,7 +2812,7 @@
         <v>89</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>184</v>
+        <v>254</v>
       </c>
       <c r="C41" s="9">
         <v>2004</v>
@@ -2194,7 +2824,7 @@
         <v>6</v>
       </c>
       <c r="F41" s="5" t="s">
-        <v>185</v>
+        <v>255</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.2">
@@ -2202,7 +2832,7 @@
         <v>90</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>186</v>
+        <v>256</v>
       </c>
       <c r="C42" s="9">
         <v>1996</v>
@@ -2214,7 +2844,7 @@
         <v>16</v>
       </c>
       <c r="F42" s="5" t="s">
-        <v>187</v>
+        <v>257</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.2">
@@ -2222,7 +2852,7 @@
         <v>91</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>188</v>
+        <v>258</v>
       </c>
       <c r="C43" s="9">
         <v>1992</v>
@@ -2234,7 +2864,7 @@
         <v>18</v>
       </c>
       <c r="F43" s="5" t="s">
-        <v>189</v>
+        <v>259</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.2">
@@ -2242,7 +2872,7 @@
         <v>92</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>190</v>
+        <v>260</v>
       </c>
       <c r="C44" s="9">
         <v>2005</v>
@@ -2254,7 +2884,7 @@
         <v>0</v>
       </c>
       <c r="F44" s="5" t="s">
-        <v>191</v>
+        <v>261</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.2">
@@ -2262,7 +2892,7 @@
         <v>93</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>192</v>
+        <v>262</v>
       </c>
       <c r="C45" s="9">
         <v>2004</v>
@@ -2274,7 +2904,7 @@
         <v>16</v>
       </c>
       <c r="F45" s="5" t="s">
-        <v>193</v>
+        <v>263</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.2">
@@ -2282,7 +2912,7 @@
         <v>94</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>194</v>
+        <v>264</v>
       </c>
       <c r="C46" s="9">
         <v>2003</v>
@@ -2294,7 +2924,7 @@
         <v>16</v>
       </c>
       <c r="F46" s="5" t="s">
-        <v>195</v>
+        <v>265</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.2">
@@ -2302,7 +2932,7 @@
         <v>95</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>196</v>
+        <v>266</v>
       </c>
       <c r="C47" s="9">
         <v>2003</v>
@@ -2314,7 +2944,7 @@
         <v>6</v>
       </c>
       <c r="F47" s="5" t="s">
-        <v>197</v>
+        <v>267</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.2">
@@ -2322,7 +2952,7 @@
         <v>96</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>198</v>
+        <v>268</v>
       </c>
       <c r="C48" s="9">
         <v>1993</v>
@@ -2334,7 +2964,7 @@
         <v>12</v>
       </c>
       <c r="F48" s="5" t="s">
-        <v>199</v>
+        <v>269</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.2">
@@ -2342,7 +2972,7 @@
         <v>97</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>200</v>
+        <v>270</v>
       </c>
       <c r="C49" s="9">
         <v>2002</v>
@@ -2354,7 +2984,7 @@
         <v>0</v>
       </c>
       <c r="F49" s="5" t="s">
-        <v>201</v>
+        <v>271</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.2">
@@ -2362,7 +2992,7 @@
         <v>98</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>202</v>
+        <v>272</v>
       </c>
       <c r="C50" s="9">
         <v>1998</v>
@@ -2374,7 +3004,7 @@
         <v>16</v>
       </c>
       <c r="F50" s="5" t="s">
-        <v>203</v>
+        <v>273</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.2">
@@ -2382,7 +3012,7 @@
         <v>99</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>204</v>
+        <v>274</v>
       </c>
       <c r="C51" s="9">
         <v>1999</v>
@@ -2394,7 +3024,7 @@
         <v>12</v>
       </c>
       <c r="F51" s="5" t="s">
-        <v>205</v>
+        <v>275</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.2">
@@ -2402,7 +3032,7 @@
         <v>100</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>206</v>
+        <v>276</v>
       </c>
       <c r="C52" s="9">
         <v>2002</v>
@@ -2414,7 +3044,7 @@
         <v>12</v>
       </c>
       <c r="F52" s="5" t="s">
-        <v>207</v>
+        <v>277</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.2">
@@ -2422,7 +3052,7 @@
         <v>101</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>208</v>
+        <v>278</v>
       </c>
       <c r="C53" s="9">
         <v>1994</v>
@@ -2434,7 +3064,7 @@
         <v>12</v>
       </c>
       <c r="F53" s="5" t="s">
-        <v>209</v>
+        <v>279</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.2">
@@ -2442,7 +3072,7 @@
         <v>102</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>210</v>
+        <v>280</v>
       </c>
       <c r="C54" s="9">
         <v>2004</v>
@@ -2454,7 +3084,7 @@
         <v>0</v>
       </c>
       <c r="F54" s="5" t="s">
-        <v>211</v>
+        <v>281</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.2">
@@ -2462,7 +3092,7 @@
         <v>103</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>212</v>
+        <v>282</v>
       </c>
       <c r="C55" s="9">
         <v>2002</v>
@@ -2474,7 +3104,7 @@
         <v>18</v>
       </c>
       <c r="F55" s="5" t="s">
-        <v>213</v>
+        <v>283</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.2">
@@ -2482,7 +3112,7 @@
         <v>104</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>214</v>
+        <v>284</v>
       </c>
       <c r="C56" s="9">
         <v>2004</v>
@@ -2494,7 +3124,7 @@
         <v>12</v>
       </c>
       <c r="F56" s="5" t="s">
-        <v>215</v>
+        <v>285</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.2">
@@ -2502,7 +3132,7 @@
         <v>105</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>216</v>
+        <v>286</v>
       </c>
       <c r="C57" s="9">
         <v>1996</v>
@@ -2514,7 +3144,7 @@
         <v>12</v>
       </c>
       <c r="F57" s="5" t="s">
-        <v>217</v>
+        <v>287</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.2">
@@ -2522,7 +3152,7 @@
         <v>106</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>218</v>
+        <v>288</v>
       </c>
       <c r="C58" s="9">
         <v>2006</v>
@@ -2534,7 +3164,7 @@
         <v>12</v>
       </c>
       <c r="F58" s="5" t="s">
-        <v>219</v>
+        <v>289</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.2">
@@ -2542,7 +3172,7 @@
         <v>107</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>220</v>
+        <v>290</v>
       </c>
       <c r="C59" s="9">
         <v>1997</v>
@@ -2554,7 +3184,7 @@
         <v>16</v>
       </c>
       <c r="F59" s="5" t="s">
-        <v>221</v>
+        <v>291</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.2">
@@ -2562,7 +3192,7 @@
         <v>108</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>222</v>
+        <v>292</v>
       </c>
       <c r="C60" s="9">
         <v>2009</v>
@@ -2574,7 +3204,7 @@
         <v>16</v>
       </c>
       <c r="F60" s="5" t="s">
-        <v>223</v>
+        <v>293</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.2">
@@ -2582,7 +3212,7 @@
         <v>109</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>224</v>
+        <v>294</v>
       </c>
       <c r="C61" s="9">
         <v>2001</v>
@@ -2594,7 +3224,7 @@
         <v>16</v>
       </c>
       <c r="F61" s="5" t="s">
-        <v>225</v>
+        <v>295</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.2">
@@ -2602,7 +3232,7 @@
         <v>110</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>226</v>
+        <v>296</v>
       </c>
       <c r="C62" s="9">
         <v>2002</v>
@@ -2614,7 +3244,7 @@
         <v>12</v>
       </c>
       <c r="F62" s="5" t="s">
-        <v>227</v>
+        <v>297</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.2">
@@ -2622,7 +3252,7 @@
         <v>111</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>228</v>
+        <v>298</v>
       </c>
       <c r="C63" s="9">
         <v>2003</v>
@@ -2634,7 +3264,7 @@
         <v>12</v>
       </c>
       <c r="F63" s="5" t="s">
-        <v>229</v>
+        <v>299</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.2">
@@ -2642,7 +3272,7 @@
         <v>112</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>230</v>
+        <v>300</v>
       </c>
       <c r="C64" s="9">
         <v>2005</v>
@@ -2654,7 +3284,7 @@
         <v>12</v>
       </c>
       <c r="F64" s="5" t="s">
-        <v>231</v>
+        <v>301</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.2">
@@ -2662,7 +3292,7 @@
         <v>113</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>232</v>
+        <v>302</v>
       </c>
       <c r="C65" s="9">
         <v>2006</v>
@@ -2674,7 +3304,7 @@
         <v>16</v>
       </c>
       <c r="F65" s="5" t="s">
-        <v>233</v>
+        <v>303</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.2">
@@ -2682,7 +3312,7 @@
         <v>114</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>234</v>
+        <v>304</v>
       </c>
       <c r="C66" s="9">
         <v>1979</v>
@@ -2694,7 +3324,7 @@
         <v>12</v>
       </c>
       <c r="F66" s="5" t="s">
-        <v>235</v>
+        <v>305</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.2">
@@ -2702,7 +3332,7 @@
         <v>115</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>236</v>
+        <v>306</v>
       </c>
       <c r="C67" s="9">
         <v>2002</v>
@@ -2714,7 +3344,7 @@
         <v>16</v>
       </c>
       <c r="F67" s="5" t="s">
-        <v>237</v>
+        <v>307</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.2">
@@ -2722,7 +3352,7 @@
         <v>116</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>238</v>
+        <v>308</v>
       </c>
       <c r="C68" s="9">
         <v>1996</v>
@@ -2734,7 +3364,7 @@
         <v>16</v>
       </c>
       <c r="F68" s="5" t="s">
-        <v>239</v>
+        <v>309</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.2">
@@ -2742,7 +3372,7 @@
         <v>117</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>240</v>
+        <v>310</v>
       </c>
       <c r="C69" s="9">
         <v>2005</v>
@@ -2754,7 +3384,7 @@
         <v>18</v>
       </c>
       <c r="F69" s="5" t="s">
-        <v>241</v>
+        <v>311</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.2">
@@ -2762,7 +3392,7 @@
         <v>118</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>242</v>
+        <v>312</v>
       </c>
       <c r="C70" s="9">
         <v>2005</v>
@@ -2774,7 +3404,7 @@
         <v>6</v>
       </c>
       <c r="F70" s="5" t="s">
-        <v>243</v>
+        <v>313</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.2">
@@ -2782,7 +3412,7 @@
         <v>119</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>245</v>
+        <v>315</v>
       </c>
       <c r="C71" s="9">
         <v>1996</v>
@@ -2794,7 +3424,7 @@
         <v>6</v>
       </c>
       <c r="F71" s="5" t="s">
-        <v>244</v>
+        <v>314</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.2">
@@ -2802,7 +3432,7 @@
         <v>120</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>246</v>
+        <v>316</v>
       </c>
       <c r="C72" s="9">
         <v>2000</v>
@@ -2814,7 +3444,7 @@
         <v>16</v>
       </c>
       <c r="F72" s="5" t="s">
-        <v>247</v>
+        <v>317</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.2">
@@ -2822,7 +3452,7 @@
         <v>121</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>248</v>
+        <v>318</v>
       </c>
       <c r="C73" s="9">
         <v>2000</v>
@@ -2834,7 +3464,7 @@
         <v>12</v>
       </c>
       <c r="F73" s="5" t="s">
-        <v>249</v>
+        <v>319</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.2">
@@ -2842,7 +3472,7 @@
         <v>122</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>250</v>
+        <v>320</v>
       </c>
       <c r="C74" s="9">
         <v>2004</v>
@@ -2854,7 +3484,7 @@
         <v>18</v>
       </c>
       <c r="F74" s="5" t="s">
-        <v>251</v>
+        <v>321</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.2">
@@ -2862,7 +3492,7 @@
         <v>123</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>252</v>
+        <v>322</v>
       </c>
       <c r="C75" s="9">
         <v>2004</v>
@@ -2874,7 +3504,7 @@
         <v>6</v>
       </c>
       <c r="F75" s="5" t="s">
-        <v>253</v>
+        <v>323</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.2">
@@ -2882,7 +3512,7 @@
         <v>124</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>254</v>
+        <v>324</v>
       </c>
       <c r="C76" s="9">
         <v>1979</v>
@@ -2894,7 +3524,7 @@
         <v>16</v>
       </c>
       <c r="F76" s="5" t="s">
-        <v>255</v>
+        <v>325</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.2">
@@ -2902,7 +3532,7 @@
         <v>125</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>256</v>
+        <v>326</v>
       </c>
       <c r="C77" s="9">
         <v>2003</v>
@@ -2914,7 +3544,7 @@
         <v>16</v>
       </c>
       <c r="F77" s="5" t="s">
-        <v>257</v>
+        <v>327</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.2">
@@ -2922,7 +3552,7 @@
         <v>126</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>258</v>
+        <v>328</v>
       </c>
       <c r="C78" s="9">
         <v>1997</v>
@@ -2934,7 +3564,7 @@
         <v>16</v>
       </c>
       <c r="F78" s="5" t="s">
-        <v>259</v>
+        <v>329</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.2">
@@ -2942,7 +3572,7 @@
         <v>127</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>260</v>
+        <v>330</v>
       </c>
       <c r="C79" s="9">
         <v>2005</v>
@@ -2954,7 +3584,7 @@
         <v>12</v>
       </c>
       <c r="F79" s="5" t="s">
-        <v>261</v>
+        <v>331</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.2">
@@ -2962,7 +3592,7 @@
         <v>128</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>262</v>
+        <v>332</v>
       </c>
       <c r="C80" s="9">
         <v>2003</v>
@@ -2974,7 +3604,7 @@
         <v>18</v>
       </c>
       <c r="F80" s="5" t="s">
-        <v>263</v>
+        <v>333</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.2">
@@ -2982,7 +3612,7 @@
         <v>129</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>264</v>
+        <v>334</v>
       </c>
       <c r="C81" s="9">
         <v>2007</v>
@@ -2994,7 +3624,7 @@
         <v>16</v>
       </c>
       <c r="F81" s="5" t="s">
-        <v>265</v>
+        <v>335</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.2">
@@ -3002,7 +3632,7 @@
         <v>130</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>266</v>
+        <v>336</v>
       </c>
       <c r="C82" s="9">
         <v>2002</v>
@@ -3014,7 +3644,7 @@
         <v>18</v>
       </c>
       <c r="F82" s="5" t="s">
-        <v>267</v>
+        <v>337</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.2">
@@ -3022,7 +3652,7 @@
         <v>131</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>268</v>
+        <v>338</v>
       </c>
       <c r="C83" s="9">
         <v>2004</v>
@@ -3034,7 +3664,7 @@
         <v>16</v>
       </c>
       <c r="F83" s="5" t="s">
-        <v>269</v>
+        <v>339</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.2">
@@ -3042,7 +3672,7 @@
         <v>132</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>270</v>
+        <v>340</v>
       </c>
       <c r="C84" s="9">
         <v>2004</v>
@@ -3054,7 +3684,7 @@
         <v>12</v>
       </c>
       <c r="F84" s="5" t="s">
-        <v>271</v>
+        <v>341</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.2">
@@ -3062,7 +3692,7 @@
         <v>133</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>272</v>
+        <v>342</v>
       </c>
       <c r="C85" s="9">
         <v>2002</v>
@@ -3074,7 +3704,7 @@
         <v>12</v>
       </c>
       <c r="F85" s="5" t="s">
-        <v>273</v>
+        <v>343</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.2">
@@ -3082,7 +3712,7 @@
         <v>134</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>274</v>
+        <v>344</v>
       </c>
       <c r="C86" s="9">
         <v>2004</v>
@@ -3094,7 +3724,7 @@
         <v>16</v>
       </c>
       <c r="F86" s="5" t="s">
-        <v>275</v>
+        <v>345</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.2">
@@ -3102,7 +3732,7 @@
         <v>135</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>276</v>
+        <v>346</v>
       </c>
       <c r="C87" s="9">
         <v>2009</v>
@@ -3114,7 +3744,7 @@
         <v>16</v>
       </c>
       <c r="F87" s="5" t="s">
-        <v>277</v>
+        <v>347</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.2">
@@ -3122,7 +3752,7 @@
         <v>136</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>278</v>
+        <v>348</v>
       </c>
       <c r="C88" s="9">
         <v>2001</v>
@@ -3134,7 +3764,7 @@
         <v>12</v>
       </c>
       <c r="F88" s="5" t="s">
-        <v>279</v>
+        <v>349</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.2">
@@ -3142,7 +3772,7 @@
         <v>137</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>280</v>
+        <v>350</v>
       </c>
       <c r="C89" s="9">
         <v>2023</v>
@@ -3154,7 +3784,7 @@
         <v>16</v>
       </c>
       <c r="F89" s="5" t="s">
-        <v>281</v>
+        <v>351</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.2">
@@ -3162,7 +3792,7 @@
         <v>138</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>282</v>
+        <v>352</v>
       </c>
       <c r="C90" s="9">
         <v>1994</v>
@@ -3174,7 +3804,7 @@
         <v>16</v>
       </c>
       <c r="F90" s="5" t="s">
-        <v>283</v>
+        <v>353</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.2">
@@ -3182,7 +3812,7 @@
         <v>139</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>284</v>
+        <v>354</v>
       </c>
       <c r="C91" s="9">
         <v>2022</v>
@@ -3194,7 +3824,7 @@
         <v>12</v>
       </c>
       <c r="F91" s="5" t="s">
-        <v>285</v>
+        <v>355</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.2">
@@ -3202,7 +3832,7 @@
         <v>140</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>286</v>
+        <v>356</v>
       </c>
       <c r="C92" s="9">
         <v>1984</v>
@@ -3214,7 +3844,7 @@
         <v>16</v>
       </c>
       <c r="F92" s="5" t="s">
-        <v>287</v>
+        <v>357</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.2">
@@ -3222,7 +3852,7 @@
         <v>141</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>288</v>
+        <v>358</v>
       </c>
       <c r="C93" s="9">
         <v>1989</v>
@@ -3234,7 +3864,7 @@
         <v>12</v>
       </c>
       <c r="F93" s="5" t="s">
-        <v>289</v>
+        <v>359</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.2">
@@ -3242,7 +3872,7 @@
         <v>142</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>290</v>
+        <v>360</v>
       </c>
       <c r="C94" s="9">
         <v>2023</v>
@@ -3254,7 +3884,7 @@
         <v>6</v>
       </c>
       <c r="F94" s="5" t="s">
-        <v>291</v>
+        <v>361</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.2">
@@ -3262,7 +3892,7 @@
         <v>143</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>292</v>
+        <v>362</v>
       </c>
       <c r="C95" s="9">
         <v>1994</v>
@@ -3274,7 +3904,7 @@
         <v>16</v>
       </c>
       <c r="F95" s="5" t="s">
-        <v>293</v>
+        <v>363</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.2">
@@ -3282,7 +3912,7 @@
         <v>144</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>294</v>
+        <v>364</v>
       </c>
       <c r="C96" s="9">
         <v>2004</v>
@@ -3294,7 +3924,7 @@
         <v>12</v>
       </c>
       <c r="F96" s="5" t="s">
-        <v>295</v>
+        <v>365</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.2">
@@ -3302,7 +3932,7 @@
         <v>145</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>296</v>
+        <v>366</v>
       </c>
       <c r="C97" s="9">
         <v>2003</v>
@@ -3314,7 +3944,7 @@
         <v>6</v>
       </c>
       <c r="F97" s="5" t="s">
-        <v>297</v>
+        <v>367</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.2">
@@ -3322,7 +3952,7 @@
         <v>146</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>298</v>
+        <v>368</v>
       </c>
       <c r="C98" s="9">
         <v>2003</v>
@@ -3334,7 +3964,7 @@
         <v>12</v>
       </c>
       <c r="F98" s="5" t="s">
-        <v>299</v>
+        <v>369</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.2">
@@ -3342,7 +3972,7 @@
         <v>147</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>300</v>
+        <v>370</v>
       </c>
       <c r="C99" s="9">
         <v>1996</v>
@@ -3354,7 +3984,7 @@
         <v>18</v>
       </c>
       <c r="F99" s="5" t="s">
-        <v>301</v>
+        <v>371</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.2">
@@ -3362,7 +3992,7 @@
         <v>148</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>302</v>
+        <v>372</v>
       </c>
       <c r="C100" s="9">
         <v>1987</v>
@@ -3374,7 +4004,1407 @@
         <v>6</v>
       </c>
       <c r="F100" s="5" t="s">
-        <v>303</v>
+        <v>373</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A101" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="B101" s="4" t="s">
+        <v>374</v>
+      </c>
+      <c r="C101" s="9">
+        <v>2002</v>
+      </c>
+      <c r="D101" s="9">
+        <v>78</v>
+      </c>
+      <c r="E101" s="9">
+        <v>16</v>
+      </c>
+      <c r="F101" s="5" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A102" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="B102" s="4" t="s">
+        <v>376</v>
+      </c>
+      <c r="C102" s="9">
+        <v>2005</v>
+      </c>
+      <c r="D102" s="9">
+        <v>95</v>
+      </c>
+      <c r="E102" s="9">
+        <v>6</v>
+      </c>
+      <c r="F102" s="5" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A103" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="B103" s="4" t="s">
+        <v>378</v>
+      </c>
+      <c r="C103" s="9">
+        <v>2003</v>
+      </c>
+      <c r="D103" s="9">
+        <v>20</v>
+      </c>
+      <c r="E103" s="9">
+        <v>12</v>
+      </c>
+      <c r="F103" s="5" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A104" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="B104" s="4" t="s">
+        <v>380</v>
+      </c>
+      <c r="C104" s="9">
+        <v>2014</v>
+      </c>
+      <c r="D104" s="9">
+        <v>146</v>
+      </c>
+      <c r="E104" s="9">
+        <v>16</v>
+      </c>
+      <c r="F104" s="5" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A105" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="B105" s="4" t="s">
+        <v>382</v>
+      </c>
+      <c r="C105" s="9">
+        <v>2004</v>
+      </c>
+      <c r="D105" s="9">
+        <v>95</v>
+      </c>
+      <c r="E105" s="9">
+        <v>16</v>
+      </c>
+      <c r="F105" s="5" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A106" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="B106" s="4" t="s">
+        <v>384</v>
+      </c>
+      <c r="C106" s="9">
+        <v>2005</v>
+      </c>
+      <c r="D106" s="9">
+        <v>91</v>
+      </c>
+      <c r="E106" s="9">
+        <v>0</v>
+      </c>
+      <c r="F106" s="5" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A107" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="B107" s="4" t="s">
+        <v>386</v>
+      </c>
+      <c r="C107" s="9">
+        <v>2005</v>
+      </c>
+      <c r="D107" s="9">
+        <v>89</v>
+      </c>
+      <c r="E107" s="9">
+        <v>16</v>
+      </c>
+      <c r="F107" s="5" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A108" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="B108" s="4" t="s">
+        <v>388</v>
+      </c>
+      <c r="C108" s="9">
+        <v>2004</v>
+      </c>
+      <c r="D108" s="9">
+        <v>20</v>
+      </c>
+      <c r="E108" s="9">
+        <v>0</v>
+      </c>
+      <c r="F108" s="5" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A109" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="B109" s="4" t="s">
+        <v>390</v>
+      </c>
+      <c r="C109" s="9">
+        <v>2002</v>
+      </c>
+      <c r="D109" s="9">
+        <v>102</v>
+      </c>
+      <c r="E109" s="9">
+        <v>12</v>
+      </c>
+      <c r="F109" s="5" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A110" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="B110" s="4" t="s">
+        <v>392</v>
+      </c>
+      <c r="C110" s="9">
+        <v>2004</v>
+      </c>
+      <c r="D110" s="9">
+        <v>98</v>
+      </c>
+      <c r="E110" s="9">
+        <v>12</v>
+      </c>
+      <c r="F110" s="5" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A111" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="B111" s="4" t="s">
+        <v>394</v>
+      </c>
+      <c r="C111" s="9">
+        <v>2002</v>
+      </c>
+      <c r="D111" s="9">
+        <v>124</v>
+      </c>
+      <c r="E111" s="9">
+        <v>16</v>
+      </c>
+      <c r="F111" s="5" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A112" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="B112" s="4" t="s">
+        <v>396</v>
+      </c>
+      <c r="C112" s="9">
+        <v>2002</v>
+      </c>
+      <c r="D112" s="9">
+        <v>245</v>
+      </c>
+      <c r="E112" s="9">
+        <v>12</v>
+      </c>
+      <c r="F112" s="5" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A113" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="B113" s="4" t="s">
+        <v>398</v>
+      </c>
+      <c r="C113" s="9">
+        <v>2003</v>
+      </c>
+      <c r="D113" s="9">
+        <v>88</v>
+      </c>
+      <c r="E113" s="9">
+        <v>12</v>
+      </c>
+      <c r="F113" s="5" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A114" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="B114" s="4" t="s">
+        <v>400</v>
+      </c>
+      <c r="C114" s="9">
+        <v>2006</v>
+      </c>
+      <c r="D114" s="9">
+        <v>88</v>
+      </c>
+      <c r="E114" s="9">
+        <v>12</v>
+      </c>
+      <c r="F114" s="5" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A115" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="B115" s="4" t="s">
+        <v>402</v>
+      </c>
+      <c r="C115" s="9">
+        <v>2001</v>
+      </c>
+      <c r="D115" s="9">
+        <v>87</v>
+      </c>
+      <c r="E115" s="9">
+        <v>18</v>
+      </c>
+      <c r="F115" s="5" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A116" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="B116" s="4" t="s">
+        <v>404</v>
+      </c>
+      <c r="C116" s="9">
+        <v>2004</v>
+      </c>
+      <c r="D116" s="9">
+        <v>103</v>
+      </c>
+      <c r="E116" s="9">
+        <v>12</v>
+      </c>
+      <c r="F116" s="5" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A117" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="B117" s="4" t="s">
+        <v>406</v>
+      </c>
+      <c r="C117" s="9">
+        <v>2004</v>
+      </c>
+      <c r="D117" s="9">
+        <v>99</v>
+      </c>
+      <c r="E117" s="9">
+        <v>12</v>
+      </c>
+      <c r="F117" s="5" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A118" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="B118" s="4" t="s">
+        <v>408</v>
+      </c>
+      <c r="C118" s="9">
+        <v>1987</v>
+      </c>
+      <c r="D118" s="9">
+        <v>96</v>
+      </c>
+      <c r="E118" s="9">
+        <v>12</v>
+      </c>
+      <c r="F118" s="5" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A119" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="B119" s="4" t="s">
+        <v>410</v>
+      </c>
+      <c r="C119" s="9">
+        <v>2004</v>
+      </c>
+      <c r="D119" s="9">
+        <v>92</v>
+      </c>
+      <c r="E119" s="9">
+        <v>6</v>
+      </c>
+      <c r="F119" s="5" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A120" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="B120" s="4" t="s">
+        <v>412</v>
+      </c>
+      <c r="C120" s="9">
+        <v>2001</v>
+      </c>
+      <c r="D120" s="9">
+        <v>101</v>
+      </c>
+      <c r="E120" s="9">
+        <v>12</v>
+      </c>
+      <c r="F120" s="5" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A121" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="B121" s="4" t="s">
+        <v>414</v>
+      </c>
+      <c r="C121" s="9">
+        <v>2004</v>
+      </c>
+      <c r="D121" s="9">
+        <v>107</v>
+      </c>
+      <c r="E121" s="9">
+        <v>18</v>
+      </c>
+      <c r="F121" s="5" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A122" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="B122" s="4" t="s">
+        <v>416</v>
+      </c>
+      <c r="C122" s="9">
+        <v>2000</v>
+      </c>
+      <c r="D122" s="9">
+        <v>100</v>
+      </c>
+      <c r="E122" s="9">
+        <v>12</v>
+      </c>
+      <c r="F122" s="5" t="s">
+        <v>417</v>
+      </c>
+      <c r="G122" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A123" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="B123" s="4" t="s">
+        <v>419</v>
+      </c>
+      <c r="C123" s="9">
+        <v>2003</v>
+      </c>
+      <c r="D123" s="9">
+        <v>128</v>
+      </c>
+      <c r="E123" s="9">
+        <v>12</v>
+      </c>
+      <c r="F123" s="5" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A124" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="B124" s="4" t="s">
+        <v>421</v>
+      </c>
+      <c r="C124" s="9">
+        <v>1987</v>
+      </c>
+      <c r="D124" s="9">
+        <v>96</v>
+      </c>
+      <c r="E124" s="9">
+        <v>16</v>
+      </c>
+      <c r="F124" s="5" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A125" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="B125" s="4" t="s">
+        <v>423</v>
+      </c>
+      <c r="C125" s="9">
+        <v>1999</v>
+      </c>
+      <c r="D125" s="9">
+        <v>103</v>
+      </c>
+      <c r="E125" s="9">
+        <v>16</v>
+      </c>
+      <c r="F125" s="5" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A126" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="B126" s="4" t="s">
+        <v>425</v>
+      </c>
+      <c r="C126" s="9">
+        <v>2002</v>
+      </c>
+      <c r="D126" s="9">
+        <v>112</v>
+      </c>
+      <c r="E126" s="9">
+        <v>18</v>
+      </c>
+      <c r="F126" s="5" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A127" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="B127" s="4" t="s">
+        <v>427</v>
+      </c>
+      <c r="C127" s="9">
+        <v>2004</v>
+      </c>
+      <c r="D127" s="9">
+        <v>108</v>
+      </c>
+      <c r="E127" s="9">
+        <v>18</v>
+      </c>
+      <c r="F127" s="5" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A128" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="B128" s="4" t="s">
+        <v>429</v>
+      </c>
+      <c r="C128" s="9">
+        <v>2003</v>
+      </c>
+      <c r="D128" s="9">
+        <v>111</v>
+      </c>
+      <c r="E128" s="9">
+        <v>0</v>
+      </c>
+      <c r="F128" s="5" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A129" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="B129" s="4" t="s">
+        <v>431</v>
+      </c>
+      <c r="C129" s="9">
+        <v>2004</v>
+      </c>
+      <c r="D129" s="9">
+        <v>86</v>
+      </c>
+      <c r="E129" s="9">
+        <v>0</v>
+      </c>
+      <c r="F129" s="5" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A130" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="B130" s="4" t="s">
+        <v>433</v>
+      </c>
+      <c r="C130" s="9">
+        <v>2003</v>
+      </c>
+      <c r="D130" s="9">
+        <v>100</v>
+      </c>
+      <c r="E130" s="9">
+        <v>16</v>
+      </c>
+      <c r="F130" s="5" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A131" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="B131" s="4" t="s">
+        <v>435</v>
+      </c>
+      <c r="C131" s="9">
+        <v>2003</v>
+      </c>
+      <c r="D131" s="9">
+        <v>128</v>
+      </c>
+      <c r="E131" s="9">
+        <v>18</v>
+      </c>
+      <c r="F131" s="5" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A132" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="B132" s="4" t="s">
+        <v>437</v>
+      </c>
+      <c r="C132" s="9">
+        <v>2006</v>
+      </c>
+      <c r="D132" s="9">
+        <v>102</v>
+      </c>
+      <c r="E132" s="9">
+        <v>16</v>
+      </c>
+      <c r="F132" s="5" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A133" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="B133" s="4" t="s">
+        <v>439</v>
+      </c>
+      <c r="C133" s="9">
+        <v>2005</v>
+      </c>
+      <c r="D133" s="9">
+        <v>104</v>
+      </c>
+      <c r="E133" s="9">
+        <v>12</v>
+      </c>
+      <c r="F133" s="5" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A134" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="B134" s="4" t="s">
+        <v>441</v>
+      </c>
+      <c r="C134" s="9">
+        <v>2005</v>
+      </c>
+      <c r="D134" s="9">
+        <v>108</v>
+      </c>
+      <c r="E134" s="9">
+        <v>18</v>
+      </c>
+      <c r="F134" s="5" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A135" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="B135" s="4" t="s">
+        <v>443</v>
+      </c>
+      <c r="C135" s="9">
+        <v>1995</v>
+      </c>
+      <c r="D135" s="9">
+        <v>88</v>
+      </c>
+      <c r="E135" s="9">
+        <v>12</v>
+      </c>
+      <c r="F135" s="5" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A136" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="B136" s="4" t="s">
+        <v>445</v>
+      </c>
+      <c r="C136" s="9">
+        <v>2004</v>
+      </c>
+      <c r="D136" s="9">
+        <v>119</v>
+      </c>
+      <c r="E136" s="9">
+        <v>6</v>
+      </c>
+      <c r="F136" s="5" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A137" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="B137" s="4" t="s">
+        <v>447</v>
+      </c>
+      <c r="C137" s="9">
+        <v>1995</v>
+      </c>
+      <c r="D137" s="9">
+        <v>100</v>
+      </c>
+      <c r="E137" s="9">
+        <v>18</v>
+      </c>
+      <c r="F137" s="5" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A138" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="B138" s="4" t="s">
+        <v>449</v>
+      </c>
+      <c r="C138" s="9">
+        <v>2003</v>
+      </c>
+      <c r="D138" s="9">
+        <v>102</v>
+      </c>
+      <c r="E138" s="9">
+        <v>18</v>
+      </c>
+      <c r="F138" s="5" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A139" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="B139" s="4" t="s">
+        <v>451</v>
+      </c>
+      <c r="C139" s="9">
+        <v>2003</v>
+      </c>
+      <c r="D139" s="9">
+        <v>106</v>
+      </c>
+      <c r="E139" s="9">
+        <v>12</v>
+      </c>
+      <c r="F139" s="5" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A140" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="B140" s="4" t="s">
+        <v>453</v>
+      </c>
+      <c r="C140" s="9">
+        <v>1971</v>
+      </c>
+      <c r="D140" s="9">
+        <v>131</v>
+      </c>
+      <c r="E140" s="9">
+        <v>16</v>
+      </c>
+      <c r="F140" s="5" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A141" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="B141" s="4" t="s">
+        <v>455</v>
+      </c>
+      <c r="C141" s="9">
+        <v>2004</v>
+      </c>
+      <c r="D141" s="9">
+        <v>82</v>
+      </c>
+      <c r="E141" s="9">
+        <v>12</v>
+      </c>
+      <c r="F141" s="5" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A142" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="B142" s="4" t="s">
+        <v>457</v>
+      </c>
+      <c r="C142" s="9">
+        <v>2005</v>
+      </c>
+      <c r="D142" s="9">
+        <v>119</v>
+      </c>
+      <c r="E142" s="9">
+        <v>12</v>
+      </c>
+      <c r="F142" s="5" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A143" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="B143" s="4" t="s">
+        <v>459</v>
+      </c>
+      <c r="C143" s="9">
+        <v>1987</v>
+      </c>
+      <c r="D143" s="9">
+        <v>96</v>
+      </c>
+      <c r="E143" s="9">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A144" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="B144" s="4" t="s">
+        <v>460</v>
+      </c>
+      <c r="C144" s="9">
+        <v>2004</v>
+      </c>
+      <c r="D144" s="9">
+        <v>105</v>
+      </c>
+      <c r="E144" s="9">
+        <v>18</v>
+      </c>
+      <c r="F144" s="5" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A145" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="B145" s="4" t="s">
+        <v>462</v>
+      </c>
+      <c r="C145" s="9">
+        <v>2023</v>
+      </c>
+      <c r="D145" s="9">
+        <v>130</v>
+      </c>
+      <c r="E145" s="9">
+        <v>12</v>
+      </c>
+      <c r="F145" s="5" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A146" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="B146" s="4" t="s">
+        <v>464</v>
+      </c>
+      <c r="C146" s="9">
+        <v>2003</v>
+      </c>
+      <c r="D146" s="9">
+        <v>99</v>
+      </c>
+      <c r="E146" s="9">
+        <v>16</v>
+      </c>
+      <c r="F146" s="5" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A147" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="B147" s="4" t="s">
+        <v>466</v>
+      </c>
+      <c r="C147" s="9">
+        <v>2000</v>
+      </c>
+      <c r="D147" s="9">
+        <v>94</v>
+      </c>
+      <c r="E147" s="9">
+        <v>16</v>
+      </c>
+      <c r="F147" s="5" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A148" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="B148" s="4" t="s">
+        <v>468</v>
+      </c>
+      <c r="C148" s="9">
+        <v>2003</v>
+      </c>
+      <c r="D148" s="9">
+        <v>87</v>
+      </c>
+      <c r="E148" s="9">
+        <v>16</v>
+      </c>
+      <c r="F148" s="5" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A149" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="B149" s="4" t="s">
+        <v>470</v>
+      </c>
+      <c r="C149" s="9">
+        <v>2006</v>
+      </c>
+      <c r="D149" s="9">
+        <v>89</v>
+      </c>
+      <c r="E149" s="9">
+        <v>18</v>
+      </c>
+      <c r="F149" s="5" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A150" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="B150" s="4" t="s">
+        <v>472</v>
+      </c>
+      <c r="C150" s="9">
+        <v>2008</v>
+      </c>
+      <c r="D150" s="9">
+        <v>112</v>
+      </c>
+      <c r="E150" s="9">
+        <v>12</v>
+      </c>
+      <c r="F150" s="5" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A151" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="B151" s="4" t="s">
+        <v>474</v>
+      </c>
+      <c r="C151" s="9">
+        <v>2004</v>
+      </c>
+      <c r="D151" s="9">
+        <v>92</v>
+      </c>
+      <c r="E151" s="9">
+        <v>16</v>
+      </c>
+      <c r="F151" s="5" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A152" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="B152" s="4" t="s">
+        <v>476</v>
+      </c>
+      <c r="C152" s="9">
+        <v>2004</v>
+      </c>
+      <c r="D152" s="9">
+        <v>108</v>
+      </c>
+      <c r="E152" s="9">
+        <v>12</v>
+      </c>
+      <c r="F152" s="5" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A153" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="B153" s="4" t="s">
+        <v>478</v>
+      </c>
+      <c r="C153" s="9">
+        <v>1999</v>
+      </c>
+      <c r="D153" s="9">
+        <v>139</v>
+      </c>
+      <c r="E153" s="9">
+        <v>18</v>
+      </c>
+      <c r="F153" s="5" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A154" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="B154" s="4" t="s">
+        <v>481</v>
+      </c>
+      <c r="C154" s="9">
+        <v>1981</v>
+      </c>
+      <c r="D154" s="9">
+        <v>83</v>
+      </c>
+      <c r="E154" s="9">
+        <v>16</v>
+      </c>
+      <c r="F154" s="5" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A155" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="B155" s="4" t="s">
+        <v>482</v>
+      </c>
+      <c r="C155" s="9">
+        <v>1993</v>
+      </c>
+      <c r="D155" s="9">
+        <v>107</v>
+      </c>
+      <c r="E155" s="9">
+        <v>16</v>
+      </c>
+      <c r="F155" s="5" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A156" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="B156" s="4" t="s">
+        <v>484</v>
+      </c>
+      <c r="C156" s="9">
+        <v>1973</v>
+      </c>
+      <c r="D156" s="9">
+        <v>150</v>
+      </c>
+      <c r="E156" s="9">
+        <v>12</v>
+      </c>
+      <c r="F156" s="5" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A157" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="B157" s="4" t="s">
+        <v>486</v>
+      </c>
+      <c r="C157" s="9">
+        <v>2000</v>
+      </c>
+      <c r="D157" s="9">
+        <v>102</v>
+      </c>
+      <c r="E157" s="9">
+        <v>12</v>
+      </c>
+      <c r="F157" s="5" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A158" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="B158" s="4" t="s">
+        <v>488</v>
+      </c>
+      <c r="C158" s="9">
+        <v>2005</v>
+      </c>
+      <c r="D158" s="9">
+        <v>76</v>
+      </c>
+      <c r="E158" s="9">
+        <v>6</v>
+      </c>
+      <c r="F158" s="5" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A159" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="B159" s="4" t="s">
+        <v>490</v>
+      </c>
+      <c r="C159" s="9">
+        <v>2003</v>
+      </c>
+      <c r="D159" s="9">
+        <v>106</v>
+      </c>
+      <c r="E159" s="9">
+        <v>12</v>
+      </c>
+      <c r="F159" s="5" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A160" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="B160" s="4" t="s">
+        <v>492</v>
+      </c>
+      <c r="C160" s="9">
+        <v>2001</v>
+      </c>
+      <c r="D160" s="9">
+        <v>119</v>
+      </c>
+      <c r="E160" s="9">
+        <v>12</v>
+      </c>
+      <c r="F160" s="5" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A161" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="B161" s="4" t="s">
+        <v>494</v>
+      </c>
+      <c r="C161" s="9">
+        <v>2005</v>
+      </c>
+      <c r="D161" s="9">
+        <v>116</v>
+      </c>
+      <c r="E161" s="9">
+        <v>12</v>
+      </c>
+      <c r="F161" s="5" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A162" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="B162" s="4" t="s">
+        <v>496</v>
+      </c>
+      <c r="C162" s="9">
+        <v>2001</v>
+      </c>
+      <c r="D162" s="9">
+        <v>89</v>
+      </c>
+      <c r="E162" s="9">
+        <v>16</v>
+      </c>
+      <c r="F162" s="5" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A163" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="B163" s="4" t="s">
+        <v>498</v>
+      </c>
+      <c r="C163" s="9">
+        <v>2003</v>
+      </c>
+      <c r="D163" s="9">
+        <v>111</v>
+      </c>
+      <c r="E163" s="9">
+        <v>18</v>
+      </c>
+      <c r="F163" s="5" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A164" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="B164" s="4" t="s">
+        <v>500</v>
+      </c>
+      <c r="C164" s="9">
+        <v>1985</v>
+      </c>
+      <c r="D164" s="9">
+        <v>94</v>
+      </c>
+      <c r="E164" s="9">
+        <v>12</v>
+      </c>
+      <c r="F164" s="5" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A165" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="B165" s="4" t="s">
+        <v>502</v>
+      </c>
+      <c r="C165" s="9">
+        <v>2002</v>
+      </c>
+      <c r="D165" s="9">
+        <v>145</v>
+      </c>
+      <c r="E165" s="9">
+        <v>12</v>
+      </c>
+      <c r="F165" s="5" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A166" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="B166" s="4" t="s">
+        <v>504</v>
+      </c>
+      <c r="C166" s="9">
+        <v>2003</v>
+      </c>
+      <c r="D166" s="9">
+        <v>114</v>
+      </c>
+      <c r="E166" s="9">
+        <v>12</v>
+      </c>
+      <c r="F166" s="5" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A167" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="B167" s="4" t="s">
+        <v>506</v>
+      </c>
+      <c r="C167" s="9">
+        <v>2001</v>
+      </c>
+      <c r="D167" s="9">
+        <v>177</v>
+      </c>
+      <c r="E167" s="9">
+        <v>12</v>
+      </c>
+      <c r="F167" s="5" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A168" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="B168" s="4" t="s">
+        <v>508</v>
+      </c>
+      <c r="C168" s="9">
+        <v>2004</v>
+      </c>
+      <c r="D168" s="9">
+        <v>143</v>
+      </c>
+      <c r="E168" s="9">
+        <v>6</v>
+      </c>
+      <c r="F168" s="5" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A169" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="B169" s="4" t="s">
+        <v>510</v>
+      </c>
+      <c r="C169" s="9">
+        <v>2000</v>
+      </c>
+      <c r="D169" s="9">
+        <v>108</v>
+      </c>
+      <c r="E169" s="9">
+        <v>16</v>
+      </c>
+      <c r="F169" s="5" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A170" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="B170" s="4" t="s">
+        <v>512</v>
+      </c>
+      <c r="C170" s="9">
+        <v>2000</v>
+      </c>
+      <c r="D170" s="9">
+        <v>87</v>
+      </c>
+      <c r="E170" s="9">
+        <v>12</v>
+      </c>
+      <c r="F170" s="5" t="s">
+        <v>513</v>
       </c>
     </row>
   </sheetData>

--- a/Web-Tools/MB Video-Base/MB Video-Base.xlsx
+++ b/Web-Tools/MB Video-Base/MB Video-Base.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mario/Documents/GitHub/homepage/Web-Tools/MB Video-Base/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A8D97D2-8091-054E-A6D8-A19CAA437B99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D91E158-1DCE-6348-9AEC-CDCAF58328C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="740" windowWidth="30240" windowHeight="18900" xr2:uid="{6AEA2D50-42AE-224B-8400-6BD6B3C7B91A}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="514" uniqueCount="514">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="554" uniqueCount="554">
   <si>
     <t>Hulk</t>
   </si>
@@ -695,6 +695,45 @@
     <t>0169</t>
   </si>
   <si>
+    <t>0170</t>
+  </si>
+  <si>
+    <t>0171</t>
+  </si>
+  <si>
+    <t>0172</t>
+  </si>
+  <si>
+    <t>0173</t>
+  </si>
+  <si>
+    <t>0174</t>
+  </si>
+  <si>
+    <t>0175</t>
+  </si>
+  <si>
+    <t>0176</t>
+  </si>
+  <si>
+    <t>0177</t>
+  </si>
+  <si>
+    <t>0178</t>
+  </si>
+  <si>
+    <t>0179</t>
+  </si>
+  <si>
+    <t>0180</t>
+  </si>
+  <si>
+    <t>0181</t>
+  </si>
+  <si>
+    <t>0182</t>
+  </si>
+  <si>
     <t>Nicht Auflegen</t>
   </si>
   <si>
@@ -1578,13 +1617,94 @@
   </si>
   <si>
     <t xml:space="preserve">Little Nicky ist der Spross des Teufels und bekommt von seinem Vater die Leitung des „Familienbetriebs“ übertragen. Der will sich nämlich zur Ruhe setzen, doch keiner seiner anderen beiden Söhne - Cassius und Adrian - scheint ihm geeignet für den Job. Das Problem ist nur, dass Nicky einfach nicht böse genug ist. Er hat eine Woche Zeit, um seinen Vater abzulösen und ihm damit das Leben zu retten. </t>
+  </si>
+  <si>
+    <t>Garfield 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tapetenwechsel für Garfield, den faulsten und fettesten Kater der ganzen weiten Welt. Herrchen Jon eilt der Angebeteten Liz nach London hinterher, wo man sein monströses Haustier prompt mit einem einheimischen Kater und frisch gebackenen Schlosserben verwechselt. Garfield hätte nichts gegen etwas royalen Komfort einzuwenden, rechnet jedoch nicht mit Neider Dargis und dessen schärfster Waffe, dem Kampfhund Rommel. </t>
+  </si>
+  <si>
+    <t>Evolution</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mitten in der Wüste Arizonas landet ein Meteorit, der es in sich hat. Auf ihm tummeln sich außerirdische Einzeller, die ihren Entdeckern Ira Kane und Harry Block - zwei Kleinstadt-Lehrern - den Nobelpreis einbringen sollen. Doch da mutieren die extraterrestrischen Lebewesen in atemberaubender Geschwindigkeit zu menschenmordenden Ungeheuern. Nun müssen Ira und Harry die Bedrohung schnellstens stoppen. Unterstützt werden sie dabei von einer ungeschickten Alienforscherin und einem tölpelhaften Feuerwehr-Anwärter. </t>
+  </si>
+  <si>
+    <t>Elizabethtown</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Drew Baylor hat das, wovon Männer träumen: Einen gut bezahlten Job und eine Affäre. Als er beides verliert, ist sein Leben ein Trümmerhaufen. Kurz bevor er seinem Leben ein Ende setzen möchte stirbt sein Vater. Um ihm seinen letzten Willen zu erfüllen, bucht er kurzerhand einen Flug in die Vergangenheit. Jedoch gestaltet sich die Reise nach Elizabethtown als Flug in die Zukunft. Denn Hals über Kopf verliebt er sich in die Flugbegleiterin Claire Colburn, und als er sie wieder trifft, erkennt er endlich, wie sich Glück anfühlt... </t>
+  </si>
+  <si>
+    <t>So Was Wie Liebe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Auf einem Flug nach New York lernt der wohlerzogene Oliver eine Frau kennen, die das absolute Gegenteil von ihm darstellt. Emily ist das "bad girl": frech und unkonventionell. Nach einem gemeinsamen Tag in New York beschließen sie, sich in sieben Jahren wieder zu treffen. An dem vereinbarten Treffen merken beide, dass sie eigentlich schon seit Beginn zusammen gehören. Liebe auf den ersten Blick </t>
+  </si>
+  <si>
+    <t>So High</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Für Silas und Jamal besteht der Sinn des Lebens einzig und allein darin, high zu werden und möglichst viele Mädchen flachzulegen. Das Leben ist schön, bis sie plötzlich einen Uni-Test absolvieren müssen, doch zum Glück hat Silas in seiner ganz persönlichen Homegrown-Plantage eine ganz neue Pflanze hochgezogen. Von diesem Gras werden die beiden nicht nur unglaublich high, sondern sie bekommen auch erstklassige Noten und die Elite-Uni lädt die „Genies“ zum Studium ein. Hier rauchen sie sich munter durch das Semester, bis. ja bis das Gras verbraucht ist. Als sie plötzlich ihren Verstand einsetzen müssen scheint die Party vorbei zu sein. </t>
+  </si>
+  <si>
+    <t>The Girl Next Door</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Er mag der beste Schüler seiner Schule sein, aber was wirklich Aufregendes hat Matthew Kidman bis kurz vor seinem Abschluss noch nicht erlebt. In Sachen Uncoolness machen ihm allerhöchstens seine beiden besten Freunden Eli und Klitz Konkurrenz. In einigen Tagen steht der wichtigste Tag seines Lebens an. Matthew bewirbt sich um ein Stipendium für das renommierte Georgetown-College. Von seinem Bewerbungsvortrag hängt seine weitere Karriere ab. Doch plötzlich ändert sich sein Leben von Grund auf, als nebenan die bildhübsche Danielle einige Wochen das Haus ihrer Verwandtschaft hüten soll. Matthew verliebt sich auf der Stelle in die scheinbar Unerreichbare. Zu seinem Erstaunen macht er sogar Eindruck bei ihr und sie verabreden sich zu einem Date. Er ahnt, dass etwas faul ist und bekommt auch bald heraus, was. Sein Kumpel Eli deckt auf, dass Danielle als Pornodarstellerin arbeitet... </t>
+  </si>
+  <si>
+    <t>Der Schuh Des Manitu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Der Apachenhäuptling Abahachi hat vom Geschäftsmann Santa Maria ein Lokal gekauft, damit sein Stamm endlich auch über ein „Stammlokal“ verfügen kann. Für den Kauf hat Abahachi bei den Schoschonen einen Kredit in Form eines Sackes mit Goldstücken aufgenommen. Als Abahachi und sein Blutsbruder Ranger bei der Übergabe des Lokals feststellen, dass sie vom Geschäftsmann Santa Maria hereingelegt wurden, kommt es zu einem Eklat: Santa Maria erschießt den anwesenden Sohn des Häuptlings der Schoschonen, der den Sack mit den Goldstücken überbracht hatte. Santa Maria und seine Männer flüchten mit dem Gold. </t>
+  </si>
+  <si>
+    <t>Wehrlos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Paul Brenner ist Warrant Officer der Criminal Investigation Division der US Army und untersucht Waffendiebstähle, die auf einem Stützpunkt im Süden der USA begangen wurden. Bei einer Reifenpanne lernt er zufällig den weiblichen Captain Elisabeth Campbell aus der Abteilung für psychologische Kriegsführung kennen. Eines Nachts wird Elisabeth Campbells Körper auf dem Militärgelände tot aufgefunden: Sie liegt nackt auf einem Übungsgelände, an Armen und Beinen gefesselt und durch Zelt-Heringe am Boden fixiert. Die Szene lässt eine Vergewaltigung vermuten. Brenner übernimmt die Untersuchung des Falls und erfährt, dass es sich bei ihr um die Tochter des Kommandeurs des Stützpunktes, Lieutenant General Joseph Campbell, handelte. Am Tatort stößt Kollegin Sara Sunhill dazu, die ihm bei den Ermittlungen unterstützen soll. Sunhill war früher einmal Brenners Geliebte. </t>
+  </si>
+  <si>
+    <t>Tötet Mrs. Tingle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Leigh Ann ist eine gute und erfolgreiche Schülerin, die immer anständig und zielstrebig gewesen ist. Einem Stipendium, das an den besten Absolventen ihrer High School überreicht wird, dürfte eigentlich Nichts im Wege stehen. Nichts? Doch. Die strenge Geschichtslehrerin Mrs. Tingle hat Leannes Freunde beim Pfuschen erwischt und ihnen gedroht, sie von der Schule zu schicken. Als sie jedoch Mrs. Tingle besuchen, um die Angelegenheit zu klären, geraten die Ereignisse außer Kontrolle und die Lehrerin sitzt gefesselt und geknebelt in ihrem Bett... </t>
+  </si>
+  <si>
+    <t>Königin Der Verdammten</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Der legendäre Vampir Lestat erwacht nach jahrzehntelangem Schlaf durch die Klänge einer Amateur-Rockband. Er schließt sich den Musikern an und wird selbst Rockstar. Seine Musik wiederum erweckt Akasha, die Mutter aller Vampire. </t>
+  </si>
+  <si>
+    <t>Natürlich Blond 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Elle ist entsetzt: Die Mama von Brutus, ihrem geliebten Chihuahua, wird in einer Tierversuchsanstalt gefangen gehalten Da müssen ihre Karriere als Anwältin und ihre Hochzeitspläne erst einmal warten. Wird sie es schaffen, Brutus Mom zu retten, dem hässlichen Gesicht der Politik eine Schönheitskur zu verpassen - und obendrein pünktlich vorm Altar zu erscheinen? </t>
+  </si>
+  <si>
+    <t>King Kong</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Amerika in den 30er Jahren: Für seinen neuen Film will der Regisseur Carl Denham eine ganz besondere Kulisse haben. Diese hat er auch schon in einer abgelegenen Insel, "Skull Island", im Gegensatz zu der weiblichen Hauptrolle gefunden. Erst kurz vor der Abreise findet sie sich in der schönen Ann Darrow, die sofort auf das Angebot einsteigt und mitreist. Keiner des Filmteams, nicht mal Denham, war bisher auf der Insel und schnell müssen sie dort feststellen, dass es ein Fehler war, sie dafür auszuwählen. Denn auf ihr lebt ein Eingeborenenstamm, der einen riesigen Gorilla, "King Kong", anbetet und ihm von Zeit zu Zeit Menschen opfert. Die Eingeborenen sind so von Ann beeindruckt, dass sie das nächste Opfer sein soll... </t>
+  </si>
+  <si>
+    <t>Rätselhafte Ereignisse</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Erzähler Lemony Snicket erzählt, was geschah: Als die Baudelaire-Kinder Violet, Klaus und Sunny ihre wohlhabenden Eltern bei einem Brand verlieren, übernimmt der skurrile Graf Olaf ein entfernter und den Kindern völlig unbekannter Verwandter, ihre Vormundschaft. Er nimmt die Kinder in seine verwahrloste Villa auf, in der den Kindern von überall her ein rätselhaftes Auge entgegenstarrt. Anstatt ihnen ein neues Zuhause zu geben, dürfen sich die Boudelaires an der schmutzigen Hausarbeit beteiligen. Während dessen entpuppt sich Graf Olaf als unheimlicher Verwandlungskünstler und Anführer einer fürchterlichen Schauspieltruppe, die nur ein Ziel hat: Das stattliche Vermögen der drei Waisen ihren Erfindungsreichtum Doch es kommt schlimmer, als sie es erahnen können. </t>
+  </si>
+  <si>
+    <t>Francis „Baby“ Houseman ist ein Mädchen aus reichem Hause. Sie und ihre Familie verbringen die Sommerferien 1963 in Max Kellermans Hotel, wo Baby dem feschen Tanzlehrer Johnny Castle begegnet - seine Show lässt auch in ihr die Lust steigen, zu tanzen. Doch der Mambogott hat nichts übrig für verwöhnte Mädels aus der Oberschicht. Dann aber fällt seine Tanzpartnerin Penny wegen einer ungewollten Schwangerschaft aus und Baby bietet ihre Hilfe an. Nun soll sie im Schnelldurchgang die komplizierten Figuren des Mambos lernen. Das Paar kommt sich auch emotional schnell näher, muss auf seinem Weg aber diversen Problemen trotzen: eine Reihe von Diebstählen und die goldene Hotelregel, dass Personal und Gäste durch eine unsichtbare Linie voneinander getrennt bleiben müssen, machen Baby und Johnny zu schaffen...</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1609,6 +1729,12 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1630,7 +1756,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -1655,6 +1781,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1990,10 +2119,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D51DD517-BD67-9F45-A4CA-2F65B8CF2913}">
-  <dimension ref="A1:G170"/>
+  <dimension ref="A1:G183"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A142" workbookViewId="0">
-      <selection activeCell="A171" sqref="A171"/>
+    <sheetView tabSelected="1" topLeftCell="A158" workbookViewId="0">
+      <selection activeCell="A184" sqref="A184"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2469,7 +2598,7 @@
         <v>72</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>219</v>
+        <v>232</v>
       </c>
       <c r="C24" s="9">
         <v>2002</v>
@@ -2481,7 +2610,7 @@
         <v>16</v>
       </c>
       <c r="F24" s="6" t="s">
-        <v>220</v>
+        <v>233</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
@@ -2489,7 +2618,7 @@
         <v>73</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>221</v>
+        <v>234</v>
       </c>
       <c r="C25" s="9">
         <v>2004</v>
@@ -2501,7 +2630,7 @@
         <v>12</v>
       </c>
       <c r="F25" s="6" t="s">
-        <v>222</v>
+        <v>235</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
@@ -2509,7 +2638,7 @@
         <v>74</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>223</v>
+        <v>236</v>
       </c>
       <c r="C26" s="9">
         <v>2006</v>
@@ -2521,7 +2650,7 @@
         <v>12</v>
       </c>
       <c r="F26" s="6" t="s">
-        <v>224</v>
+        <v>237</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
@@ -2529,7 +2658,7 @@
         <v>75</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>225</v>
+        <v>238</v>
       </c>
       <c r="C27" s="9">
         <v>1993</v>
@@ -2541,7 +2670,7 @@
         <v>6</v>
       </c>
       <c r="F27" s="6" t="s">
-        <v>226</v>
+        <v>239</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
@@ -2549,7 +2678,7 @@
         <v>76</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>227</v>
+        <v>240</v>
       </c>
       <c r="C28" s="9">
         <v>1990</v>
@@ -2561,7 +2690,7 @@
         <v>16</v>
       </c>
       <c r="F28" s="6" t="s">
-        <v>228</v>
+        <v>241</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
@@ -2569,7 +2698,7 @@
         <v>77</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>229</v>
+        <v>242</v>
       </c>
       <c r="C29" s="9">
         <v>1999</v>
@@ -2581,7 +2710,7 @@
         <v>16</v>
       </c>
       <c r="F29" s="6" t="s">
-        <v>230</v>
+        <v>243</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
@@ -2589,7 +2718,7 @@
         <v>78</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>231</v>
+        <v>244</v>
       </c>
       <c r="C30" s="9">
         <v>1994</v>
@@ -2601,7 +2730,7 @@
         <v>12</v>
       </c>
       <c r="F30" s="6" t="s">
-        <v>232</v>
+        <v>245</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
@@ -2609,7 +2738,7 @@
         <v>79</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>233</v>
+        <v>246</v>
       </c>
       <c r="C31" s="9">
         <v>2003</v>
@@ -2621,7 +2750,7 @@
         <v>16</v>
       </c>
       <c r="F31" s="5" t="s">
-        <v>234</v>
+        <v>247</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
@@ -2629,7 +2758,7 @@
         <v>80</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>235</v>
+        <v>248</v>
       </c>
       <c r="C32" s="9">
         <v>1971</v>
@@ -2641,7 +2770,7 @@
         <v>18</v>
       </c>
       <c r="F32" s="5" t="s">
-        <v>236</v>
+        <v>249</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
@@ -2649,7 +2778,7 @@
         <v>81</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>237</v>
+        <v>250</v>
       </c>
       <c r="C33" s="9">
         <v>2003</v>
@@ -2661,7 +2790,7 @@
         <v>6</v>
       </c>
       <c r="F33" s="5" t="s">
-        <v>238</v>
+        <v>251</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.2">
@@ -2669,7 +2798,7 @@
         <v>82</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>239</v>
+        <v>252</v>
       </c>
       <c r="C34" s="9">
         <v>2001</v>
@@ -2681,10 +2810,10 @@
         <v>12</v>
       </c>
       <c r="F34" s="5" t="s">
-        <v>240</v>
+        <v>253</v>
       </c>
       <c r="G34" t="s">
-        <v>241</v>
+        <v>254</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.2">
@@ -2692,7 +2821,7 @@
         <v>83</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>242</v>
+        <v>255</v>
       </c>
       <c r="C35" s="9">
         <v>2003</v>
@@ -2704,7 +2833,7 @@
         <v>0</v>
       </c>
       <c r="F35" s="5" t="s">
-        <v>243</v>
+        <v>256</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
@@ -2712,7 +2841,7 @@
         <v>84</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>244</v>
+        <v>257</v>
       </c>
       <c r="C36" s="9">
         <v>2003</v>
@@ -2724,7 +2853,7 @@
         <v>12</v>
       </c>
       <c r="F36" s="5" t="s">
-        <v>245</v>
+        <v>258</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.2">
@@ -2732,7 +2861,7 @@
         <v>85</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>246</v>
+        <v>259</v>
       </c>
       <c r="C37" s="9">
         <v>2005</v>
@@ -2744,7 +2873,7 @@
         <v>12</v>
       </c>
       <c r="F37" s="5" t="s">
-        <v>247</v>
+        <v>260</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.2">
@@ -2752,7 +2881,7 @@
         <v>86</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>248</v>
+        <v>261</v>
       </c>
       <c r="C38" s="9">
         <v>2001</v>
@@ -2764,7 +2893,7 @@
         <v>0</v>
       </c>
       <c r="F38" s="5" t="s">
-        <v>249</v>
+        <v>262</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.2">
@@ -2772,7 +2901,7 @@
         <v>87</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>250</v>
+        <v>263</v>
       </c>
       <c r="C39" s="9">
         <v>2005</v>
@@ -2784,7 +2913,7 @@
         <v>12</v>
       </c>
       <c r="F39" s="5" t="s">
-        <v>251</v>
+        <v>264</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.2">
@@ -2792,7 +2921,7 @@
         <v>88</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>252</v>
+        <v>265</v>
       </c>
       <c r="C40" s="9">
         <v>2006</v>
@@ -2804,7 +2933,7 @@
         <v>6</v>
       </c>
       <c r="F40" s="5" t="s">
-        <v>253</v>
+        <v>266</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.2">
@@ -2812,7 +2941,7 @@
         <v>89</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>254</v>
+        <v>267</v>
       </c>
       <c r="C41" s="9">
         <v>2004</v>
@@ -2824,7 +2953,7 @@
         <v>6</v>
       </c>
       <c r="F41" s="5" t="s">
-        <v>255</v>
+        <v>268</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.2">
@@ -2832,7 +2961,7 @@
         <v>90</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>256</v>
+        <v>269</v>
       </c>
       <c r="C42" s="9">
         <v>1996</v>
@@ -2844,7 +2973,7 @@
         <v>16</v>
       </c>
       <c r="F42" s="5" t="s">
-        <v>257</v>
+        <v>270</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.2">
@@ -2852,7 +2981,7 @@
         <v>91</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>258</v>
+        <v>271</v>
       </c>
       <c r="C43" s="9">
         <v>1992</v>
@@ -2864,7 +2993,7 @@
         <v>18</v>
       </c>
       <c r="F43" s="5" t="s">
-        <v>259</v>
+        <v>272</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.2">
@@ -2872,7 +3001,7 @@
         <v>92</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>260</v>
+        <v>273</v>
       </c>
       <c r="C44" s="9">
         <v>2005</v>
@@ -2884,7 +3013,7 @@
         <v>0</v>
       </c>
       <c r="F44" s="5" t="s">
-        <v>261</v>
+        <v>274</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.2">
@@ -2892,7 +3021,7 @@
         <v>93</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>262</v>
+        <v>275</v>
       </c>
       <c r="C45" s="9">
         <v>2004</v>
@@ -2904,7 +3033,7 @@
         <v>16</v>
       </c>
       <c r="F45" s="5" t="s">
-        <v>263</v>
+        <v>276</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.2">
@@ -2912,7 +3041,7 @@
         <v>94</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>264</v>
+        <v>277</v>
       </c>
       <c r="C46" s="9">
         <v>2003</v>
@@ -2924,7 +3053,7 @@
         <v>16</v>
       </c>
       <c r="F46" s="5" t="s">
-        <v>265</v>
+        <v>278</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.2">
@@ -2932,7 +3061,7 @@
         <v>95</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>266</v>
+        <v>279</v>
       </c>
       <c r="C47" s="9">
         <v>2003</v>
@@ -2944,7 +3073,7 @@
         <v>6</v>
       </c>
       <c r="F47" s="5" t="s">
-        <v>267</v>
+        <v>280</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.2">
@@ -2952,7 +3081,7 @@
         <v>96</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>268</v>
+        <v>281</v>
       </c>
       <c r="C48" s="9">
         <v>1993</v>
@@ -2964,7 +3093,7 @@
         <v>12</v>
       </c>
       <c r="F48" s="5" t="s">
-        <v>269</v>
+        <v>282</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.2">
@@ -2972,7 +3101,7 @@
         <v>97</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>270</v>
+        <v>283</v>
       </c>
       <c r="C49" s="9">
         <v>2002</v>
@@ -2984,7 +3113,7 @@
         <v>0</v>
       </c>
       <c r="F49" s="5" t="s">
-        <v>271</v>
+        <v>284</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.2">
@@ -2992,7 +3121,7 @@
         <v>98</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>272</v>
+        <v>285</v>
       </c>
       <c r="C50" s="9">
         <v>1998</v>
@@ -3004,7 +3133,7 @@
         <v>16</v>
       </c>
       <c r="F50" s="5" t="s">
-        <v>273</v>
+        <v>286</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.2">
@@ -3012,7 +3141,7 @@
         <v>99</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>274</v>
+        <v>287</v>
       </c>
       <c r="C51" s="9">
         <v>1999</v>
@@ -3024,7 +3153,7 @@
         <v>12</v>
       </c>
       <c r="F51" s="5" t="s">
-        <v>275</v>
+        <v>288</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.2">
@@ -3032,7 +3161,7 @@
         <v>100</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>276</v>
+        <v>289</v>
       </c>
       <c r="C52" s="9">
         <v>2002</v>
@@ -3044,7 +3173,7 @@
         <v>12</v>
       </c>
       <c r="F52" s="5" t="s">
-        <v>277</v>
+        <v>290</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.2">
@@ -3052,7 +3181,7 @@
         <v>101</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>278</v>
+        <v>291</v>
       </c>
       <c r="C53" s="9">
         <v>1994</v>
@@ -3064,7 +3193,7 @@
         <v>12</v>
       </c>
       <c r="F53" s="5" t="s">
-        <v>279</v>
+        <v>292</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.2">
@@ -3072,7 +3201,7 @@
         <v>102</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>280</v>
+        <v>293</v>
       </c>
       <c r="C54" s="9">
         <v>2004</v>
@@ -3084,7 +3213,7 @@
         <v>0</v>
       </c>
       <c r="F54" s="5" t="s">
-        <v>281</v>
+        <v>294</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.2">
@@ -3092,7 +3221,7 @@
         <v>103</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>282</v>
+        <v>295</v>
       </c>
       <c r="C55" s="9">
         <v>2002</v>
@@ -3104,7 +3233,7 @@
         <v>18</v>
       </c>
       <c r="F55" s="5" t="s">
-        <v>283</v>
+        <v>296</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.2">
@@ -3112,7 +3241,7 @@
         <v>104</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>284</v>
+        <v>297</v>
       </c>
       <c r="C56" s="9">
         <v>2004</v>
@@ -3124,7 +3253,7 @@
         <v>12</v>
       </c>
       <c r="F56" s="5" t="s">
-        <v>285</v>
+        <v>298</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.2">
@@ -3132,7 +3261,7 @@
         <v>105</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>286</v>
+        <v>299</v>
       </c>
       <c r="C57" s="9">
         <v>1996</v>
@@ -3144,7 +3273,7 @@
         <v>12</v>
       </c>
       <c r="F57" s="5" t="s">
-        <v>287</v>
+        <v>300</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.2">
@@ -3152,7 +3281,7 @@
         <v>106</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>288</v>
+        <v>301</v>
       </c>
       <c r="C58" s="9">
         <v>2006</v>
@@ -3164,7 +3293,7 @@
         <v>12</v>
       </c>
       <c r="F58" s="5" t="s">
-        <v>289</v>
+        <v>302</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.2">
@@ -3172,7 +3301,7 @@
         <v>107</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>290</v>
+        <v>303</v>
       </c>
       <c r="C59" s="9">
         <v>1997</v>
@@ -3184,7 +3313,7 @@
         <v>16</v>
       </c>
       <c r="F59" s="5" t="s">
-        <v>291</v>
+        <v>304</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.2">
@@ -3192,7 +3321,7 @@
         <v>108</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>292</v>
+        <v>305</v>
       </c>
       <c r="C60" s="9">
         <v>2009</v>
@@ -3204,7 +3333,7 @@
         <v>16</v>
       </c>
       <c r="F60" s="5" t="s">
-        <v>293</v>
+        <v>306</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.2">
@@ -3212,7 +3341,7 @@
         <v>109</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>294</v>
+        <v>307</v>
       </c>
       <c r="C61" s="9">
         <v>2001</v>
@@ -3224,7 +3353,7 @@
         <v>16</v>
       </c>
       <c r="F61" s="5" t="s">
-        <v>295</v>
+        <v>308</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.2">
@@ -3232,7 +3361,7 @@
         <v>110</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>296</v>
+        <v>309</v>
       </c>
       <c r="C62" s="9">
         <v>2002</v>
@@ -3244,7 +3373,7 @@
         <v>12</v>
       </c>
       <c r="F62" s="5" t="s">
-        <v>297</v>
+        <v>310</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.2">
@@ -3252,7 +3381,7 @@
         <v>111</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>298</v>
+        <v>311</v>
       </c>
       <c r="C63" s="9">
         <v>2003</v>
@@ -3264,7 +3393,7 @@
         <v>12</v>
       </c>
       <c r="F63" s="5" t="s">
-        <v>299</v>
+        <v>312</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.2">
@@ -3272,7 +3401,7 @@
         <v>112</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>300</v>
+        <v>313</v>
       </c>
       <c r="C64" s="9">
         <v>2005</v>
@@ -3284,7 +3413,7 @@
         <v>12</v>
       </c>
       <c r="F64" s="5" t="s">
-        <v>301</v>
+        <v>314</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.2">
@@ -3292,7 +3421,7 @@
         <v>113</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>302</v>
+        <v>315</v>
       </c>
       <c r="C65" s="9">
         <v>2006</v>
@@ -3304,7 +3433,7 @@
         <v>16</v>
       </c>
       <c r="F65" s="5" t="s">
-        <v>303</v>
+        <v>316</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.2">
@@ -3312,7 +3441,7 @@
         <v>114</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>304</v>
+        <v>317</v>
       </c>
       <c r="C66" s="9">
         <v>1979</v>
@@ -3324,7 +3453,7 @@
         <v>12</v>
       </c>
       <c r="F66" s="5" t="s">
-        <v>305</v>
+        <v>318</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.2">
@@ -3332,7 +3461,7 @@
         <v>115</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>306</v>
+        <v>319</v>
       </c>
       <c r="C67" s="9">
         <v>2002</v>
@@ -3344,7 +3473,7 @@
         <v>16</v>
       </c>
       <c r="F67" s="5" t="s">
-        <v>307</v>
+        <v>320</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.2">
@@ -3352,7 +3481,7 @@
         <v>116</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>308</v>
+        <v>321</v>
       </c>
       <c r="C68" s="9">
         <v>1996</v>
@@ -3364,7 +3493,7 @@
         <v>16</v>
       </c>
       <c r="F68" s="5" t="s">
-        <v>309</v>
+        <v>322</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.2">
@@ -3372,7 +3501,7 @@
         <v>117</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>310</v>
+        <v>323</v>
       </c>
       <c r="C69" s="9">
         <v>2005</v>
@@ -3384,7 +3513,7 @@
         <v>18</v>
       </c>
       <c r="F69" s="5" t="s">
-        <v>311</v>
+        <v>324</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.2">
@@ -3392,7 +3521,7 @@
         <v>118</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>312</v>
+        <v>325</v>
       </c>
       <c r="C70" s="9">
         <v>2005</v>
@@ -3404,7 +3533,7 @@
         <v>6</v>
       </c>
       <c r="F70" s="5" t="s">
-        <v>313</v>
+        <v>326</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.2">
@@ -3412,7 +3541,7 @@
         <v>119</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>315</v>
+        <v>328</v>
       </c>
       <c r="C71" s="9">
         <v>1996</v>
@@ -3424,7 +3553,7 @@
         <v>6</v>
       </c>
       <c r="F71" s="5" t="s">
-        <v>314</v>
+        <v>327</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.2">
@@ -3432,7 +3561,7 @@
         <v>120</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>316</v>
+        <v>329</v>
       </c>
       <c r="C72" s="9">
         <v>2000</v>
@@ -3444,7 +3573,7 @@
         <v>16</v>
       </c>
       <c r="F72" s="5" t="s">
-        <v>317</v>
+        <v>330</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.2">
@@ -3452,7 +3581,7 @@
         <v>121</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>318</v>
+        <v>331</v>
       </c>
       <c r="C73" s="9">
         <v>2000</v>
@@ -3464,7 +3593,7 @@
         <v>12</v>
       </c>
       <c r="F73" s="5" t="s">
-        <v>319</v>
+        <v>332</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.2">
@@ -3472,7 +3601,7 @@
         <v>122</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>320</v>
+        <v>333</v>
       </c>
       <c r="C74" s="9">
         <v>2004</v>
@@ -3484,7 +3613,7 @@
         <v>18</v>
       </c>
       <c r="F74" s="5" t="s">
-        <v>321</v>
+        <v>334</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.2">
@@ -3492,7 +3621,7 @@
         <v>123</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>322</v>
+        <v>335</v>
       </c>
       <c r="C75" s="9">
         <v>2004</v>
@@ -3504,7 +3633,7 @@
         <v>6</v>
       </c>
       <c r="F75" s="5" t="s">
-        <v>323</v>
+        <v>336</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.2">
@@ -3512,7 +3641,7 @@
         <v>124</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>324</v>
+        <v>337</v>
       </c>
       <c r="C76" s="9">
         <v>1979</v>
@@ -3524,7 +3653,7 @@
         <v>16</v>
       </c>
       <c r="F76" s="5" t="s">
-        <v>325</v>
+        <v>338</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.2">
@@ -3532,7 +3661,7 @@
         <v>125</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>326</v>
+        <v>339</v>
       </c>
       <c r="C77" s="9">
         <v>2003</v>
@@ -3544,7 +3673,7 @@
         <v>16</v>
       </c>
       <c r="F77" s="5" t="s">
-        <v>327</v>
+        <v>340</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.2">
@@ -3552,7 +3681,7 @@
         <v>126</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>328</v>
+        <v>341</v>
       </c>
       <c r="C78" s="9">
         <v>1997</v>
@@ -3564,7 +3693,7 @@
         <v>16</v>
       </c>
       <c r="F78" s="5" t="s">
-        <v>329</v>
+        <v>342</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.2">
@@ -3572,7 +3701,7 @@
         <v>127</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>330</v>
+        <v>343</v>
       </c>
       <c r="C79" s="9">
         <v>2005</v>
@@ -3584,7 +3713,7 @@
         <v>12</v>
       </c>
       <c r="F79" s="5" t="s">
-        <v>331</v>
+        <v>344</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.2">
@@ -3592,7 +3721,7 @@
         <v>128</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>332</v>
+        <v>345</v>
       </c>
       <c r="C80" s="9">
         <v>2003</v>
@@ -3604,7 +3733,7 @@
         <v>18</v>
       </c>
       <c r="F80" s="5" t="s">
-        <v>333</v>
+        <v>346</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.2">
@@ -3612,7 +3741,7 @@
         <v>129</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>334</v>
+        <v>347</v>
       </c>
       <c r="C81" s="9">
         <v>2007</v>
@@ -3624,7 +3753,7 @@
         <v>16</v>
       </c>
       <c r="F81" s="5" t="s">
-        <v>335</v>
+        <v>348</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.2">
@@ -3632,7 +3761,7 @@
         <v>130</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>336</v>
+        <v>349</v>
       </c>
       <c r="C82" s="9">
         <v>2002</v>
@@ -3644,7 +3773,7 @@
         <v>18</v>
       </c>
       <c r="F82" s="5" t="s">
-        <v>337</v>
+        <v>350</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.2">
@@ -3652,7 +3781,7 @@
         <v>131</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>338</v>
+        <v>351</v>
       </c>
       <c r="C83" s="9">
         <v>2004</v>
@@ -3664,7 +3793,7 @@
         <v>16</v>
       </c>
       <c r="F83" s="5" t="s">
-        <v>339</v>
+        <v>352</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.2">
@@ -3672,7 +3801,7 @@
         <v>132</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>340</v>
+        <v>353</v>
       </c>
       <c r="C84" s="9">
         <v>2004</v>
@@ -3684,7 +3813,7 @@
         <v>12</v>
       </c>
       <c r="F84" s="5" t="s">
-        <v>341</v>
+        <v>354</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.2">
@@ -3692,7 +3821,7 @@
         <v>133</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>342</v>
+        <v>355</v>
       </c>
       <c r="C85" s="9">
         <v>2002</v>
@@ -3704,7 +3833,7 @@
         <v>12</v>
       </c>
       <c r="F85" s="5" t="s">
-        <v>343</v>
+        <v>356</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.2">
@@ -3712,7 +3841,7 @@
         <v>134</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>344</v>
+        <v>357</v>
       </c>
       <c r="C86" s="9">
         <v>2004</v>
@@ -3724,7 +3853,7 @@
         <v>16</v>
       </c>
       <c r="F86" s="5" t="s">
-        <v>345</v>
+        <v>358</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.2">
@@ -3732,7 +3861,7 @@
         <v>135</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>346</v>
+        <v>359</v>
       </c>
       <c r="C87" s="9">
         <v>2009</v>
@@ -3744,7 +3873,7 @@
         <v>16</v>
       </c>
       <c r="F87" s="5" t="s">
-        <v>347</v>
+        <v>360</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.2">
@@ -3752,7 +3881,7 @@
         <v>136</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>348</v>
+        <v>361</v>
       </c>
       <c r="C88" s="9">
         <v>2001</v>
@@ -3764,7 +3893,7 @@
         <v>12</v>
       </c>
       <c r="F88" s="5" t="s">
-        <v>349</v>
+        <v>362</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.2">
@@ -3772,7 +3901,7 @@
         <v>137</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>350</v>
+        <v>363</v>
       </c>
       <c r="C89" s="9">
         <v>2023</v>
@@ -3784,7 +3913,7 @@
         <v>16</v>
       </c>
       <c r="F89" s="5" t="s">
-        <v>351</v>
+        <v>364</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.2">
@@ -3792,7 +3921,7 @@
         <v>138</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>352</v>
+        <v>365</v>
       </c>
       <c r="C90" s="9">
         <v>1994</v>
@@ -3804,7 +3933,7 @@
         <v>16</v>
       </c>
       <c r="F90" s="5" t="s">
-        <v>353</v>
+        <v>366</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.2">
@@ -3812,7 +3941,7 @@
         <v>139</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>354</v>
+        <v>367</v>
       </c>
       <c r="C91" s="9">
         <v>2022</v>
@@ -3824,7 +3953,7 @@
         <v>12</v>
       </c>
       <c r="F91" s="5" t="s">
-        <v>355</v>
+        <v>368</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.2">
@@ -3832,7 +3961,7 @@
         <v>140</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>356</v>
+        <v>369</v>
       </c>
       <c r="C92" s="9">
         <v>1984</v>
@@ -3844,7 +3973,7 @@
         <v>16</v>
       </c>
       <c r="F92" s="5" t="s">
-        <v>357</v>
+        <v>370</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.2">
@@ -3852,7 +3981,7 @@
         <v>141</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>358</v>
+        <v>371</v>
       </c>
       <c r="C93" s="9">
         <v>1989</v>
@@ -3864,7 +3993,7 @@
         <v>12</v>
       </c>
       <c r="F93" s="5" t="s">
-        <v>359</v>
+        <v>372</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.2">
@@ -3872,7 +4001,7 @@
         <v>142</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>360</v>
+        <v>373</v>
       </c>
       <c r="C94" s="9">
         <v>2023</v>
@@ -3884,7 +4013,7 @@
         <v>6</v>
       </c>
       <c r="F94" s="5" t="s">
-        <v>361</v>
+        <v>374</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.2">
@@ -3892,7 +4021,7 @@
         <v>143</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>362</v>
+        <v>375</v>
       </c>
       <c r="C95" s="9">
         <v>1994</v>
@@ -3904,7 +4033,7 @@
         <v>16</v>
       </c>
       <c r="F95" s="5" t="s">
-        <v>363</v>
+        <v>376</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.2">
@@ -3912,7 +4041,7 @@
         <v>144</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>364</v>
+        <v>377</v>
       </c>
       <c r="C96" s="9">
         <v>2004</v>
@@ -3924,7 +4053,7 @@
         <v>12</v>
       </c>
       <c r="F96" s="5" t="s">
-        <v>365</v>
+        <v>378</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.2">
@@ -3932,7 +4061,7 @@
         <v>145</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>366</v>
+        <v>379</v>
       </c>
       <c r="C97" s="9">
         <v>2003</v>
@@ -3944,7 +4073,7 @@
         <v>6</v>
       </c>
       <c r="F97" s="5" t="s">
-        <v>367</v>
+        <v>380</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.2">
@@ -3952,7 +4081,7 @@
         <v>146</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>368</v>
+        <v>381</v>
       </c>
       <c r="C98" s="9">
         <v>2003</v>
@@ -3964,7 +4093,7 @@
         <v>12</v>
       </c>
       <c r="F98" s="5" t="s">
-        <v>369</v>
+        <v>382</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.2">
@@ -3972,7 +4101,7 @@
         <v>147</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>370</v>
+        <v>383</v>
       </c>
       <c r="C99" s="9">
         <v>1996</v>
@@ -3984,7 +4113,7 @@
         <v>18</v>
       </c>
       <c r="F99" s="5" t="s">
-        <v>371</v>
+        <v>384</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.2">
@@ -3992,7 +4121,7 @@
         <v>148</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>372</v>
+        <v>385</v>
       </c>
       <c r="C100" s="9">
         <v>1987</v>
@@ -4004,7 +4133,7 @@
         <v>6</v>
       </c>
       <c r="F100" s="5" t="s">
-        <v>373</v>
+        <v>386</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.2">
@@ -4012,7 +4141,7 @@
         <v>149</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>374</v>
+        <v>387</v>
       </c>
       <c r="C101" s="9">
         <v>2002</v>
@@ -4024,7 +4153,7 @@
         <v>16</v>
       </c>
       <c r="F101" s="5" t="s">
-        <v>375</v>
+        <v>388</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.2">
@@ -4032,7 +4161,7 @@
         <v>150</v>
       </c>
       <c r="B102" s="4" t="s">
-        <v>376</v>
+        <v>389</v>
       </c>
       <c r="C102" s="9">
         <v>2005</v>
@@ -4044,7 +4173,7 @@
         <v>6</v>
       </c>
       <c r="F102" s="5" t="s">
-        <v>377</v>
+        <v>390</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.2">
@@ -4052,7 +4181,7 @@
         <v>151</v>
       </c>
       <c r="B103" s="4" t="s">
-        <v>378</v>
+        <v>391</v>
       </c>
       <c r="C103" s="9">
         <v>2003</v>
@@ -4064,7 +4193,7 @@
         <v>12</v>
       </c>
       <c r="F103" s="5" t="s">
-        <v>379</v>
+        <v>392</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.2">
@@ -4072,7 +4201,7 @@
         <v>152</v>
       </c>
       <c r="B104" s="4" t="s">
-        <v>380</v>
+        <v>393</v>
       </c>
       <c r="C104" s="9">
         <v>2014</v>
@@ -4084,7 +4213,7 @@
         <v>16</v>
       </c>
       <c r="F104" s="5" t="s">
-        <v>381</v>
+        <v>394</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.2">
@@ -4092,7 +4221,7 @@
         <v>153</v>
       </c>
       <c r="B105" s="4" t="s">
-        <v>382</v>
+        <v>395</v>
       </c>
       <c r="C105" s="9">
         <v>2004</v>
@@ -4104,7 +4233,7 @@
         <v>16</v>
       </c>
       <c r="F105" s="5" t="s">
-        <v>383</v>
+        <v>396</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.2">
@@ -4112,7 +4241,7 @@
         <v>154</v>
       </c>
       <c r="B106" s="4" t="s">
-        <v>384</v>
+        <v>397</v>
       </c>
       <c r="C106" s="9">
         <v>2005</v>
@@ -4124,7 +4253,7 @@
         <v>0</v>
       </c>
       <c r="F106" s="5" t="s">
-        <v>385</v>
+        <v>398</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.2">
@@ -4132,7 +4261,7 @@
         <v>155</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>386</v>
+        <v>399</v>
       </c>
       <c r="C107" s="9">
         <v>2005</v>
@@ -4144,7 +4273,7 @@
         <v>16</v>
       </c>
       <c r="F107" s="5" t="s">
-        <v>387</v>
+        <v>400</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.2">
@@ -4152,7 +4281,7 @@
         <v>156</v>
       </c>
       <c r="B108" s="4" t="s">
-        <v>388</v>
+        <v>401</v>
       </c>
       <c r="C108" s="9">
         <v>2004</v>
@@ -4164,7 +4293,7 @@
         <v>0</v>
       </c>
       <c r="F108" s="5" t="s">
-        <v>389</v>
+        <v>402</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.2">
@@ -4172,7 +4301,7 @@
         <v>157</v>
       </c>
       <c r="B109" s="4" t="s">
-        <v>390</v>
+        <v>403</v>
       </c>
       <c r="C109" s="9">
         <v>2002</v>
@@ -4184,7 +4313,7 @@
         <v>12</v>
       </c>
       <c r="F109" s="5" t="s">
-        <v>391</v>
+        <v>404</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.2">
@@ -4192,7 +4321,7 @@
         <v>158</v>
       </c>
       <c r="B110" s="4" t="s">
-        <v>392</v>
+        <v>405</v>
       </c>
       <c r="C110" s="9">
         <v>2004</v>
@@ -4204,7 +4333,7 @@
         <v>12</v>
       </c>
       <c r="F110" s="5" t="s">
-        <v>393</v>
+        <v>406</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.2">
@@ -4212,7 +4341,7 @@
         <v>159</v>
       </c>
       <c r="B111" s="4" t="s">
-        <v>394</v>
+        <v>407</v>
       </c>
       <c r="C111" s="9">
         <v>2002</v>
@@ -4224,7 +4353,7 @@
         <v>16</v>
       </c>
       <c r="F111" s="5" t="s">
-        <v>395</v>
+        <v>408</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.2">
@@ -4232,7 +4361,7 @@
         <v>160</v>
       </c>
       <c r="B112" s="4" t="s">
-        <v>396</v>
+        <v>409</v>
       </c>
       <c r="C112" s="9">
         <v>2002</v>
@@ -4244,7 +4373,7 @@
         <v>12</v>
       </c>
       <c r="F112" s="5" t="s">
-        <v>397</v>
+        <v>410</v>
       </c>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.2">
@@ -4252,7 +4381,7 @@
         <v>161</v>
       </c>
       <c r="B113" s="4" t="s">
-        <v>398</v>
+        <v>411</v>
       </c>
       <c r="C113" s="9">
         <v>2003</v>
@@ -4264,7 +4393,7 @@
         <v>12</v>
       </c>
       <c r="F113" s="5" t="s">
-        <v>399</v>
+        <v>412</v>
       </c>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.2">
@@ -4272,7 +4401,7 @@
         <v>162</v>
       </c>
       <c r="B114" s="4" t="s">
-        <v>400</v>
+        <v>413</v>
       </c>
       <c r="C114" s="9">
         <v>2006</v>
@@ -4284,7 +4413,7 @@
         <v>12</v>
       </c>
       <c r="F114" s="5" t="s">
-        <v>401</v>
+        <v>414</v>
       </c>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.2">
@@ -4292,7 +4421,7 @@
         <v>163</v>
       </c>
       <c r="B115" s="4" t="s">
-        <v>402</v>
+        <v>415</v>
       </c>
       <c r="C115" s="9">
         <v>2001</v>
@@ -4304,7 +4433,7 @@
         <v>18</v>
       </c>
       <c r="F115" s="5" t="s">
-        <v>403</v>
+        <v>416</v>
       </c>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.2">
@@ -4312,7 +4441,7 @@
         <v>164</v>
       </c>
       <c r="B116" s="4" t="s">
-        <v>404</v>
+        <v>417</v>
       </c>
       <c r="C116" s="9">
         <v>2004</v>
@@ -4324,7 +4453,7 @@
         <v>12</v>
       </c>
       <c r="F116" s="5" t="s">
-        <v>405</v>
+        <v>418</v>
       </c>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.2">
@@ -4332,7 +4461,7 @@
         <v>165</v>
       </c>
       <c r="B117" s="4" t="s">
-        <v>406</v>
+        <v>419</v>
       </c>
       <c r="C117" s="9">
         <v>2004</v>
@@ -4344,7 +4473,7 @@
         <v>12</v>
       </c>
       <c r="F117" s="5" t="s">
-        <v>407</v>
+        <v>420</v>
       </c>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.2">
@@ -4352,7 +4481,7 @@
         <v>166</v>
       </c>
       <c r="B118" s="4" t="s">
-        <v>408</v>
+        <v>421</v>
       </c>
       <c r="C118" s="9">
         <v>1987</v>
@@ -4364,7 +4493,7 @@
         <v>12</v>
       </c>
       <c r="F118" s="5" t="s">
-        <v>409</v>
+        <v>422</v>
       </c>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.2">
@@ -4372,7 +4501,7 @@
         <v>167</v>
       </c>
       <c r="B119" s="4" t="s">
-        <v>410</v>
+        <v>423</v>
       </c>
       <c r="C119" s="9">
         <v>2004</v>
@@ -4384,7 +4513,7 @@
         <v>6</v>
       </c>
       <c r="F119" s="5" t="s">
-        <v>411</v>
+        <v>424</v>
       </c>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.2">
@@ -4392,7 +4521,7 @@
         <v>168</v>
       </c>
       <c r="B120" s="4" t="s">
-        <v>412</v>
+        <v>425</v>
       </c>
       <c r="C120" s="9">
         <v>2001</v>
@@ -4404,7 +4533,7 @@
         <v>12</v>
       </c>
       <c r="F120" s="5" t="s">
-        <v>413</v>
+        <v>426</v>
       </c>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.2">
@@ -4412,7 +4541,7 @@
         <v>169</v>
       </c>
       <c r="B121" s="4" t="s">
-        <v>414</v>
+        <v>427</v>
       </c>
       <c r="C121" s="9">
         <v>2004</v>
@@ -4424,7 +4553,7 @@
         <v>18</v>
       </c>
       <c r="F121" s="5" t="s">
-        <v>415</v>
+        <v>428</v>
       </c>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.2">
@@ -4432,7 +4561,7 @@
         <v>170</v>
       </c>
       <c r="B122" s="4" t="s">
-        <v>416</v>
+        <v>429</v>
       </c>
       <c r="C122" s="9">
         <v>2000</v>
@@ -4444,10 +4573,10 @@
         <v>12</v>
       </c>
       <c r="F122" s="5" t="s">
-        <v>417</v>
+        <v>430</v>
       </c>
       <c r="G122" t="s">
-        <v>418</v>
+        <v>431</v>
       </c>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.2">
@@ -4455,7 +4584,7 @@
         <v>171</v>
       </c>
       <c r="B123" s="4" t="s">
-        <v>419</v>
+        <v>432</v>
       </c>
       <c r="C123" s="9">
         <v>2003</v>
@@ -4467,7 +4596,7 @@
         <v>12</v>
       </c>
       <c r="F123" s="5" t="s">
-        <v>420</v>
+        <v>433</v>
       </c>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.2">
@@ -4475,7 +4604,7 @@
         <v>172</v>
       </c>
       <c r="B124" s="4" t="s">
-        <v>421</v>
+        <v>434</v>
       </c>
       <c r="C124" s="9">
         <v>1987</v>
@@ -4487,7 +4616,7 @@
         <v>16</v>
       </c>
       <c r="F124" s="5" t="s">
-        <v>422</v>
+        <v>435</v>
       </c>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.2">
@@ -4495,7 +4624,7 @@
         <v>173</v>
       </c>
       <c r="B125" s="4" t="s">
-        <v>423</v>
+        <v>436</v>
       </c>
       <c r="C125" s="9">
         <v>1999</v>
@@ -4507,7 +4636,7 @@
         <v>16</v>
       </c>
       <c r="F125" s="5" t="s">
-        <v>424</v>
+        <v>437</v>
       </c>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.2">
@@ -4515,7 +4644,7 @@
         <v>174</v>
       </c>
       <c r="B126" s="4" t="s">
-        <v>425</v>
+        <v>438</v>
       </c>
       <c r="C126" s="9">
         <v>2002</v>
@@ -4527,7 +4656,7 @@
         <v>18</v>
       </c>
       <c r="F126" s="5" t="s">
-        <v>426</v>
+        <v>439</v>
       </c>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.2">
@@ -4535,7 +4664,7 @@
         <v>175</v>
       </c>
       <c r="B127" s="4" t="s">
-        <v>427</v>
+        <v>440</v>
       </c>
       <c r="C127" s="9">
         <v>2004</v>
@@ -4547,7 +4676,7 @@
         <v>18</v>
       </c>
       <c r="F127" s="5" t="s">
-        <v>428</v>
+        <v>441</v>
       </c>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.2">
@@ -4555,7 +4684,7 @@
         <v>176</v>
       </c>
       <c r="B128" s="4" t="s">
-        <v>429</v>
+        <v>442</v>
       </c>
       <c r="C128" s="9">
         <v>2003</v>
@@ -4567,7 +4696,7 @@
         <v>0</v>
       </c>
       <c r="F128" s="5" t="s">
-        <v>430</v>
+        <v>443</v>
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.2">
@@ -4575,7 +4704,7 @@
         <v>177</v>
       </c>
       <c r="B129" s="4" t="s">
-        <v>431</v>
+        <v>444</v>
       </c>
       <c r="C129" s="9">
         <v>2004</v>
@@ -4587,7 +4716,7 @@
         <v>0</v>
       </c>
       <c r="F129" s="5" t="s">
-        <v>432</v>
+        <v>445</v>
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.2">
@@ -4595,7 +4724,7 @@
         <v>178</v>
       </c>
       <c r="B130" s="4" t="s">
-        <v>433</v>
+        <v>446</v>
       </c>
       <c r="C130" s="9">
         <v>2003</v>
@@ -4607,7 +4736,7 @@
         <v>16</v>
       </c>
       <c r="F130" s="5" t="s">
-        <v>434</v>
+        <v>447</v>
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.2">
@@ -4615,7 +4744,7 @@
         <v>179</v>
       </c>
       <c r="B131" s="4" t="s">
-        <v>435</v>
+        <v>448</v>
       </c>
       <c r="C131" s="9">
         <v>2003</v>
@@ -4627,7 +4756,7 @@
         <v>18</v>
       </c>
       <c r="F131" s="5" t="s">
-        <v>436</v>
+        <v>449</v>
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.2">
@@ -4635,7 +4764,7 @@
         <v>180</v>
       </c>
       <c r="B132" s="4" t="s">
-        <v>437</v>
+        <v>450</v>
       </c>
       <c r="C132" s="9">
         <v>2006</v>
@@ -4647,7 +4776,7 @@
         <v>16</v>
       </c>
       <c r="F132" s="5" t="s">
-        <v>438</v>
+        <v>451</v>
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.2">
@@ -4655,7 +4784,7 @@
         <v>181</v>
       </c>
       <c r="B133" s="4" t="s">
-        <v>439</v>
+        <v>452</v>
       </c>
       <c r="C133" s="9">
         <v>2005</v>
@@ -4667,7 +4796,7 @@
         <v>12</v>
       </c>
       <c r="F133" s="5" t="s">
-        <v>440</v>
+        <v>453</v>
       </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.2">
@@ -4675,7 +4804,7 @@
         <v>182</v>
       </c>
       <c r="B134" s="4" t="s">
-        <v>441</v>
+        <v>454</v>
       </c>
       <c r="C134" s="9">
         <v>2005</v>
@@ -4687,7 +4816,7 @@
         <v>18</v>
       </c>
       <c r="F134" s="5" t="s">
-        <v>442</v>
+        <v>455</v>
       </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.2">
@@ -4695,7 +4824,7 @@
         <v>183</v>
       </c>
       <c r="B135" s="4" t="s">
-        <v>443</v>
+        <v>456</v>
       </c>
       <c r="C135" s="9">
         <v>1995</v>
@@ -4707,7 +4836,7 @@
         <v>12</v>
       </c>
       <c r="F135" s="5" t="s">
-        <v>444</v>
+        <v>457</v>
       </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.2">
@@ -4715,7 +4844,7 @@
         <v>184</v>
       </c>
       <c r="B136" s="4" t="s">
-        <v>445</v>
+        <v>458</v>
       </c>
       <c r="C136" s="9">
         <v>2004</v>
@@ -4727,7 +4856,7 @@
         <v>6</v>
       </c>
       <c r="F136" s="5" t="s">
-        <v>446</v>
+        <v>459</v>
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.2">
@@ -4735,7 +4864,7 @@
         <v>185</v>
       </c>
       <c r="B137" s="4" t="s">
-        <v>447</v>
+        <v>460</v>
       </c>
       <c r="C137" s="9">
         <v>1995</v>
@@ -4747,7 +4876,7 @@
         <v>18</v>
       </c>
       <c r="F137" s="5" t="s">
-        <v>448</v>
+        <v>461</v>
       </c>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.2">
@@ -4755,7 +4884,7 @@
         <v>186</v>
       </c>
       <c r="B138" s="4" t="s">
-        <v>449</v>
+        <v>462</v>
       </c>
       <c r="C138" s="9">
         <v>2003</v>
@@ -4767,7 +4896,7 @@
         <v>18</v>
       </c>
       <c r="F138" s="5" t="s">
-        <v>450</v>
+        <v>463</v>
       </c>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.2">
@@ -4775,7 +4904,7 @@
         <v>187</v>
       </c>
       <c r="B139" s="4" t="s">
-        <v>451</v>
+        <v>464</v>
       </c>
       <c r="C139" s="9">
         <v>2003</v>
@@ -4787,7 +4916,7 @@
         <v>12</v>
       </c>
       <c r="F139" s="5" t="s">
-        <v>452</v>
+        <v>465</v>
       </c>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.2">
@@ -4795,7 +4924,7 @@
         <v>188</v>
       </c>
       <c r="B140" s="4" t="s">
-        <v>453</v>
+        <v>466</v>
       </c>
       <c r="C140" s="9">
         <v>1971</v>
@@ -4807,7 +4936,7 @@
         <v>16</v>
       </c>
       <c r="F140" s="5" t="s">
-        <v>454</v>
+        <v>467</v>
       </c>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.2">
@@ -4815,7 +4944,7 @@
         <v>189</v>
       </c>
       <c r="B141" s="4" t="s">
-        <v>455</v>
+        <v>468</v>
       </c>
       <c r="C141" s="9">
         <v>2004</v>
@@ -4827,7 +4956,7 @@
         <v>12</v>
       </c>
       <c r="F141" s="5" t="s">
-        <v>456</v>
+        <v>469</v>
       </c>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.2">
@@ -4835,7 +4964,7 @@
         <v>190</v>
       </c>
       <c r="B142" s="4" t="s">
-        <v>457</v>
+        <v>470</v>
       </c>
       <c r="C142" s="9">
         <v>2005</v>
@@ -4847,7 +4976,7 @@
         <v>12</v>
       </c>
       <c r="F142" s="5" t="s">
-        <v>458</v>
+        <v>471</v>
       </c>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.2">
@@ -4855,7 +4984,7 @@
         <v>191</v>
       </c>
       <c r="B143" s="4" t="s">
-        <v>459</v>
+        <v>472</v>
       </c>
       <c r="C143" s="9">
         <v>1987</v>
@@ -4865,6 +4994,9 @@
       </c>
       <c r="E143" s="9">
         <v>12</v>
+      </c>
+      <c r="F143" s="11" t="s">
+        <v>553</v>
       </c>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.2">
@@ -4872,7 +5004,7 @@
         <v>192</v>
       </c>
       <c r="B144" s="4" t="s">
-        <v>460</v>
+        <v>473</v>
       </c>
       <c r="C144" s="9">
         <v>2004</v>
@@ -4884,7 +5016,7 @@
         <v>18</v>
       </c>
       <c r="F144" s="5" t="s">
-        <v>461</v>
+        <v>474</v>
       </c>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.2">
@@ -4892,7 +5024,7 @@
         <v>193</v>
       </c>
       <c r="B145" s="4" t="s">
-        <v>462</v>
+        <v>475</v>
       </c>
       <c r="C145" s="9">
         <v>2023</v>
@@ -4904,7 +5036,7 @@
         <v>12</v>
       </c>
       <c r="F145" s="5" t="s">
-        <v>463</v>
+        <v>476</v>
       </c>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.2">
@@ -4912,7 +5044,7 @@
         <v>194</v>
       </c>
       <c r="B146" s="4" t="s">
-        <v>464</v>
+        <v>477</v>
       </c>
       <c r="C146" s="9">
         <v>2003</v>
@@ -4924,7 +5056,7 @@
         <v>16</v>
       </c>
       <c r="F146" s="5" t="s">
-        <v>465</v>
+        <v>478</v>
       </c>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.2">
@@ -4932,7 +5064,7 @@
         <v>195</v>
       </c>
       <c r="B147" s="4" t="s">
-        <v>466</v>
+        <v>479</v>
       </c>
       <c r="C147" s="9">
         <v>2000</v>
@@ -4944,7 +5076,7 @@
         <v>16</v>
       </c>
       <c r="F147" s="5" t="s">
-        <v>467</v>
+        <v>480</v>
       </c>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.2">
@@ -4952,7 +5084,7 @@
         <v>196</v>
       </c>
       <c r="B148" s="4" t="s">
-        <v>468</v>
+        <v>481</v>
       </c>
       <c r="C148" s="9">
         <v>2003</v>
@@ -4964,7 +5096,7 @@
         <v>16</v>
       </c>
       <c r="F148" s="5" t="s">
-        <v>469</v>
+        <v>482</v>
       </c>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.2">
@@ -4972,7 +5104,7 @@
         <v>197</v>
       </c>
       <c r="B149" s="4" t="s">
-        <v>470</v>
+        <v>483</v>
       </c>
       <c r="C149" s="9">
         <v>2006</v>
@@ -4984,7 +5116,7 @@
         <v>18</v>
       </c>
       <c r="F149" s="5" t="s">
-        <v>471</v>
+        <v>484</v>
       </c>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.2">
@@ -4992,7 +5124,7 @@
         <v>198</v>
       </c>
       <c r="B150" s="4" t="s">
-        <v>472</v>
+        <v>485</v>
       </c>
       <c r="C150" s="9">
         <v>2008</v>
@@ -5004,7 +5136,7 @@
         <v>12</v>
       </c>
       <c r="F150" s="5" t="s">
-        <v>473</v>
+        <v>486</v>
       </c>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.2">
@@ -5012,7 +5144,7 @@
         <v>199</v>
       </c>
       <c r="B151" s="4" t="s">
-        <v>474</v>
+        <v>487</v>
       </c>
       <c r="C151" s="9">
         <v>2004</v>
@@ -5024,7 +5156,7 @@
         <v>16</v>
       </c>
       <c r="F151" s="5" t="s">
-        <v>475</v>
+        <v>488</v>
       </c>
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.2">
@@ -5032,7 +5164,7 @@
         <v>200</v>
       </c>
       <c r="B152" s="4" t="s">
-        <v>476</v>
+        <v>489</v>
       </c>
       <c r="C152" s="9">
         <v>2004</v>
@@ -5044,7 +5176,7 @@
         <v>12</v>
       </c>
       <c r="F152" s="5" t="s">
-        <v>477</v>
+        <v>490</v>
       </c>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.2">
@@ -5052,7 +5184,7 @@
         <v>201</v>
       </c>
       <c r="B153" s="4" t="s">
-        <v>478</v>
+        <v>491</v>
       </c>
       <c r="C153" s="9">
         <v>1999</v>
@@ -5064,7 +5196,7 @@
         <v>18</v>
       </c>
       <c r="F153" s="5" t="s">
-        <v>479</v>
+        <v>492</v>
       </c>
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.2">
@@ -5072,7 +5204,7 @@
         <v>202</v>
       </c>
       <c r="B154" s="4" t="s">
-        <v>481</v>
+        <v>494</v>
       </c>
       <c r="C154" s="9">
         <v>1981</v>
@@ -5084,7 +5216,7 @@
         <v>16</v>
       </c>
       <c r="F154" s="5" t="s">
-        <v>480</v>
+        <v>493</v>
       </c>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.2">
@@ -5092,7 +5224,7 @@
         <v>203</v>
       </c>
       <c r="B155" s="4" t="s">
-        <v>482</v>
+        <v>495</v>
       </c>
       <c r="C155" s="9">
         <v>1993</v>
@@ -5104,7 +5236,7 @@
         <v>16</v>
       </c>
       <c r="F155" s="5" t="s">
-        <v>483</v>
+        <v>496</v>
       </c>
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.2">
@@ -5112,7 +5244,7 @@
         <v>204</v>
       </c>
       <c r="B156" s="4" t="s">
-        <v>484</v>
+        <v>497</v>
       </c>
       <c r="C156" s="9">
         <v>1973</v>
@@ -5124,7 +5256,7 @@
         <v>12</v>
       </c>
       <c r="F156" s="5" t="s">
-        <v>485</v>
+        <v>498</v>
       </c>
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.2">
@@ -5132,7 +5264,7 @@
         <v>205</v>
       </c>
       <c r="B157" s="4" t="s">
-        <v>486</v>
+        <v>499</v>
       </c>
       <c r="C157" s="9">
         <v>2000</v>
@@ -5144,7 +5276,7 @@
         <v>12</v>
       </c>
       <c r="F157" s="5" t="s">
-        <v>487</v>
+        <v>500</v>
       </c>
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.2">
@@ -5152,7 +5284,7 @@
         <v>206</v>
       </c>
       <c r="B158" s="4" t="s">
-        <v>488</v>
+        <v>501</v>
       </c>
       <c r="C158" s="9">
         <v>2005</v>
@@ -5164,7 +5296,7 @@
         <v>6</v>
       </c>
       <c r="F158" s="5" t="s">
-        <v>489</v>
+        <v>502</v>
       </c>
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.2">
@@ -5172,7 +5304,7 @@
         <v>207</v>
       </c>
       <c r="B159" s="4" t="s">
-        <v>490</v>
+        <v>503</v>
       </c>
       <c r="C159" s="9">
         <v>2003</v>
@@ -5184,7 +5316,7 @@
         <v>12</v>
       </c>
       <c r="F159" s="5" t="s">
-        <v>491</v>
+        <v>504</v>
       </c>
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.2">
@@ -5192,7 +5324,7 @@
         <v>208</v>
       </c>
       <c r="B160" s="4" t="s">
-        <v>492</v>
+        <v>505</v>
       </c>
       <c r="C160" s="9">
         <v>2001</v>
@@ -5204,7 +5336,7 @@
         <v>12</v>
       </c>
       <c r="F160" s="5" t="s">
-        <v>493</v>
+        <v>506</v>
       </c>
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.2">
@@ -5212,7 +5344,7 @@
         <v>209</v>
       </c>
       <c r="B161" s="4" t="s">
-        <v>494</v>
+        <v>507</v>
       </c>
       <c r="C161" s="9">
         <v>2005</v>
@@ -5224,7 +5356,7 @@
         <v>12</v>
       </c>
       <c r="F161" s="5" t="s">
-        <v>495</v>
+        <v>508</v>
       </c>
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.2">
@@ -5232,7 +5364,7 @@
         <v>210</v>
       </c>
       <c r="B162" s="4" t="s">
-        <v>496</v>
+        <v>509</v>
       </c>
       <c r="C162" s="9">
         <v>2001</v>
@@ -5244,7 +5376,7 @@
         <v>16</v>
       </c>
       <c r="F162" s="5" t="s">
-        <v>497</v>
+        <v>510</v>
       </c>
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.2">
@@ -5252,7 +5384,7 @@
         <v>211</v>
       </c>
       <c r="B163" s="4" t="s">
-        <v>498</v>
+        <v>511</v>
       </c>
       <c r="C163" s="9">
         <v>2003</v>
@@ -5264,7 +5396,7 @@
         <v>18</v>
       </c>
       <c r="F163" s="5" t="s">
-        <v>499</v>
+        <v>512</v>
       </c>
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.2">
@@ -5272,7 +5404,7 @@
         <v>212</v>
       </c>
       <c r="B164" s="4" t="s">
-        <v>500</v>
+        <v>513</v>
       </c>
       <c r="C164" s="9">
         <v>1985</v>
@@ -5284,7 +5416,7 @@
         <v>12</v>
       </c>
       <c r="F164" s="5" t="s">
-        <v>501</v>
+        <v>514</v>
       </c>
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.2">
@@ -5292,7 +5424,7 @@
         <v>213</v>
       </c>
       <c r="B165" s="4" t="s">
-        <v>502</v>
+        <v>515</v>
       </c>
       <c r="C165" s="9">
         <v>2002</v>
@@ -5304,7 +5436,7 @@
         <v>12</v>
       </c>
       <c r="F165" s="5" t="s">
-        <v>503</v>
+        <v>516</v>
       </c>
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.2">
@@ -5312,7 +5444,7 @@
         <v>214</v>
       </c>
       <c r="B166" s="4" t="s">
-        <v>504</v>
+        <v>517</v>
       </c>
       <c r="C166" s="9">
         <v>2003</v>
@@ -5324,7 +5456,7 @@
         <v>12</v>
       </c>
       <c r="F166" s="5" t="s">
-        <v>505</v>
+        <v>518</v>
       </c>
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.2">
@@ -5332,7 +5464,7 @@
         <v>215</v>
       </c>
       <c r="B167" s="4" t="s">
-        <v>506</v>
+        <v>519</v>
       </c>
       <c r="C167" s="9">
         <v>2001</v>
@@ -5344,7 +5476,7 @@
         <v>12</v>
       </c>
       <c r="F167" s="5" t="s">
-        <v>507</v>
+        <v>520</v>
       </c>
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.2">
@@ -5352,7 +5484,7 @@
         <v>216</v>
       </c>
       <c r="B168" s="4" t="s">
-        <v>508</v>
+        <v>521</v>
       </c>
       <c r="C168" s="9">
         <v>2004</v>
@@ -5364,7 +5496,7 @@
         <v>6</v>
       </c>
       <c r="F168" s="5" t="s">
-        <v>509</v>
+        <v>522</v>
       </c>
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.2">
@@ -5372,7 +5504,7 @@
         <v>217</v>
       </c>
       <c r="B169" s="4" t="s">
-        <v>510</v>
+        <v>523</v>
       </c>
       <c r="C169" s="9">
         <v>2000</v>
@@ -5384,7 +5516,7 @@
         <v>16</v>
       </c>
       <c r="F169" s="5" t="s">
-        <v>511</v>
+        <v>524</v>
       </c>
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.2">
@@ -5392,7 +5524,7 @@
         <v>218</v>
       </c>
       <c r="B170" s="4" t="s">
-        <v>512</v>
+        <v>525</v>
       </c>
       <c r="C170" s="9">
         <v>2000</v>
@@ -5404,7 +5536,267 @@
         <v>12</v>
       </c>
       <c r="F170" s="5" t="s">
-        <v>513</v>
+        <v>526</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A171" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="B171" s="4" t="s">
+        <v>527</v>
+      </c>
+      <c r="C171" s="9">
+        <v>2006</v>
+      </c>
+      <c r="D171" s="9">
+        <v>80</v>
+      </c>
+      <c r="E171" s="9">
+        <v>0</v>
+      </c>
+      <c r="F171" s="5" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A172" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="B172" s="4" t="s">
+        <v>529</v>
+      </c>
+      <c r="C172" s="9">
+        <v>2001</v>
+      </c>
+      <c r="D172" s="9">
+        <v>97</v>
+      </c>
+      <c r="E172" s="9">
+        <v>12</v>
+      </c>
+      <c r="F172" s="5" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A173" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="B173" s="4" t="s">
+        <v>531</v>
+      </c>
+      <c r="C173" s="9">
+        <v>2005</v>
+      </c>
+      <c r="D173" s="9">
+        <v>123</v>
+      </c>
+      <c r="E173" s="9">
+        <v>0</v>
+      </c>
+      <c r="F173" s="5" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A174" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="B174" s="4" t="s">
+        <v>533</v>
+      </c>
+      <c r="C174" s="9">
+        <v>2005</v>
+      </c>
+      <c r="D174" s="9">
+        <v>107</v>
+      </c>
+      <c r="E174" s="9">
+        <v>0</v>
+      </c>
+      <c r="F174" s="5" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A175" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="B175" s="4" t="s">
+        <v>535</v>
+      </c>
+      <c r="C175" s="9">
+        <v>2001</v>
+      </c>
+      <c r="D175" s="9">
+        <v>93</v>
+      </c>
+      <c r="E175" s="9">
+        <v>16</v>
+      </c>
+      <c r="F175" s="5" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A176" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="B176" s="4" t="s">
+        <v>537</v>
+      </c>
+      <c r="C176" s="9">
+        <v>2004</v>
+      </c>
+      <c r="D176" s="9">
+        <v>105</v>
+      </c>
+      <c r="E176" s="9">
+        <v>12</v>
+      </c>
+      <c r="F176" s="5" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A177" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="B177" s="4" t="s">
+        <v>539</v>
+      </c>
+      <c r="C177" s="9">
+        <v>2001</v>
+      </c>
+      <c r="D177" s="9">
+        <v>88</v>
+      </c>
+      <c r="E177" s="9">
+        <v>6</v>
+      </c>
+      <c r="F177" s="5" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A178" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="B178" s="4" t="s">
+        <v>541</v>
+      </c>
+      <c r="C178" s="9">
+        <v>1999</v>
+      </c>
+      <c r="D178" s="9">
+        <v>112</v>
+      </c>
+      <c r="E178" s="9">
+        <v>16</v>
+      </c>
+      <c r="F178" s="5" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A179" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="B179" s="4" t="s">
+        <v>543</v>
+      </c>
+      <c r="C179" s="9">
+        <v>1999</v>
+      </c>
+      <c r="D179" s="9">
+        <v>96</v>
+      </c>
+      <c r="E179" s="9">
+        <v>12</v>
+      </c>
+      <c r="F179" s="5" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A180" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="B180" s="4" t="s">
+        <v>545</v>
+      </c>
+      <c r="C180" s="9">
+        <v>2002</v>
+      </c>
+      <c r="D180" s="9">
+        <v>97</v>
+      </c>
+      <c r="E180" s="9">
+        <v>16</v>
+      </c>
+      <c r="F180" s="5" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A181" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="B181" s="4" t="s">
+        <v>547</v>
+      </c>
+      <c r="C181" s="9">
+        <v>2003</v>
+      </c>
+      <c r="D181" s="9">
+        <v>91</v>
+      </c>
+      <c r="E181" s="9">
+        <v>0</v>
+      </c>
+      <c r="F181" s="5" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A182" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="B182" s="4" t="s">
+        <v>549</v>
+      </c>
+      <c r="C182" s="9">
+        <v>2005</v>
+      </c>
+      <c r="D182" s="9">
+        <v>187</v>
+      </c>
+      <c r="E182" s="9">
+        <v>12</v>
+      </c>
+      <c r="F182" s="5" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A183" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="B183" s="4" t="s">
+        <v>551</v>
+      </c>
+      <c r="C183" s="9">
+        <v>2004</v>
+      </c>
+      <c r="D183" s="9">
+        <v>108</v>
+      </c>
+      <c r="E183" s="9">
+        <v>6</v>
+      </c>
+      <c r="F183" s="5" t="s">
+        <v>552</v>
       </c>
     </row>
   </sheetData>

--- a/Web-Tools/MB Video-Base/MB Video-Base.xlsx
+++ b/Web-Tools/MB Video-Base/MB Video-Base.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mario/Documents/GitHub/homepage/Web-Tools/MB Video-Base/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D91E158-1DCE-6348-9AEC-CDCAF58328C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1D02D36-BE2F-F54E-A335-AE509AED1C24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="740" windowWidth="30240" windowHeight="18900" xr2:uid="{6AEA2D50-42AE-224B-8400-6BD6B3C7B91A}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="554" uniqueCount="554">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="627" uniqueCount="627">
   <si>
     <t>Hulk</t>
   </si>
@@ -734,6 +734,78 @@
     <t>0182</t>
   </si>
   <si>
+    <t>0218</t>
+  </si>
+  <si>
+    <t>0298</t>
+  </si>
+  <si>
+    <t>0441</t>
+  </si>
+  <si>
+    <t>0492</t>
+  </si>
+  <si>
+    <t>0621</t>
+  </si>
+  <si>
+    <t>0663</t>
+  </si>
+  <si>
+    <t>0703</t>
+  </si>
+  <si>
+    <t>0717</t>
+  </si>
+  <si>
+    <t>0918</t>
+  </si>
+  <si>
+    <t>0919</t>
+  </si>
+  <si>
+    <t>0932</t>
+  </si>
+  <si>
+    <t>0980</t>
+  </si>
+  <si>
+    <t>1003</t>
+  </si>
+  <si>
+    <t>1004</t>
+  </si>
+  <si>
+    <t>1017</t>
+  </si>
+  <si>
+    <t>1036</t>
+  </si>
+  <si>
+    <t>1054</t>
+  </si>
+  <si>
+    <t>1066</t>
+  </si>
+  <si>
+    <t>1163</t>
+  </si>
+  <si>
+    <t>1229</t>
+  </si>
+  <si>
+    <t>1267</t>
+  </si>
+  <si>
+    <t>1268</t>
+  </si>
+  <si>
+    <t>1269</t>
+  </si>
+  <si>
+    <t>1634</t>
+  </si>
+  <si>
     <t>Nicht Auflegen</t>
   </si>
   <si>
@@ -1698,6 +1770,153 @@
   </si>
   <si>
     <t>Francis „Baby“ Houseman ist ein Mädchen aus reichem Hause. Sie und ihre Familie verbringen die Sommerferien 1963 in Max Kellermans Hotel, wo Baby dem feschen Tanzlehrer Johnny Castle begegnet - seine Show lässt auch in ihr die Lust steigen, zu tanzen. Doch der Mambogott hat nichts übrig für verwöhnte Mädels aus der Oberschicht. Dann aber fällt seine Tanzpartnerin Penny wegen einer ungewollten Schwangerschaft aus und Baby bietet ihre Hilfe an. Nun soll sie im Schnelldurchgang die komplizierten Figuren des Mambos lernen. Das Paar kommt sich auch emotional schnell näher, muss auf seinem Weg aber diversen Problemen trotzen: eine Reihe von Diebstählen und die goldene Hotelregel, dass Personal und Gäste durch eine unsichtbare Linie voneinander getrennt bleiben müssen, machen Baby und Johnny zu schaffen...</t>
+  </si>
+  <si>
+    <t>00 Schneider</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Der Zirkusclown Metulski hat dem Kunstsammler und Freak Nihil Baxter sein Auto verkauft. Als Baxter bemerkt, das dieser ihn mit dem Auto übers Ohr gehauen hat, erschlägt er Metulski mit einer Statue. Kommissar 00 Schneider und sein Kollege Körschgen ermitteln in dem Mordfall und kommen schon bald dem exzentrischen Nihil Baxter auf die Schliche... </t>
+  </si>
+  <si>
+    <t>2 Tage Paris</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Frankreich kann ein schwieriges Pflaster sein, wenn man kein Französisch spricht. Das gilt auch für die Hauptstadt Paris. Der Amerikaner Jack beherrscht nur Englisch. Gemeinsam mit seiner Freundin Marion besucht er deren Eltern in der Seine-Metropole. Der Aufenthalt wird schnell zu einem kleinen Albtraum, da Sprachbarriere und Vorurteile zu allerlei Chaos und Provokationen führen. Marions Vater beäugt Jack mit großem Misstrauen und spielt sich als Oberlehrer in Sachen Bildung sowie Lebensart auf. Auf Partys geben sich diverse Ex-Freunde Marions die Klinke in die Hand. Und Marion neigt zu unbeherrschten Aktionen, die für zusätzliche Anspannungen sorgen. Die Mischung aus Konflikten und Provokation ist dazu geeignet, die Beziehung von Jack und Marion auf die Probe zu stellen. Denn zwei Tage Paris sind ein echter Härtetest. </t>
+  </si>
+  <si>
+    <t>3 Ninjas 1 - Kick Back</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Baseball-Finale oder Kampf um den Karate-Meistertitel in Fernost? Die drei kleinen Ninjas entscheiden sich fürs Hierbleiben. Grandpa muss allein nach Japan. Doch schon bald benötigen Colt, Rocky und Tum Tum alle Tricks, die ihnen der Alte beigebracht hat. Grandpa liegt nämlich, von Gangstern verletzt, in Tokyo im Krankenhaus. Kurzentschlossen düsen die 3 Ninjas zu ihm. Sumos, Karate, Wurfsterne und Schlaghölzer warten bereits... </t>
+  </si>
+  <si>
+    <t>3 Ninjas 2 - Knuckle Up</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aufruhr im Indianer-Reservat Eine brutale Spekulanten-Gang hat es auf Grund und Boden der Indianer abgesehen. Häuptlings-Tochter Jo, deren Vater als Geisel genommen wurde, wendet sich verzweifelt an die drei kleinen Ninjas. Colt, Rocky und Tum Tum rüsten mit Schleuder, Armbrust und perfekter Kampftechnik gegen die skrupellosen Grundstückshaie. Doch die schlagen so gnadenlos zurück, dass sogar Grandpa wieder aktiv wird... </t>
+  </si>
+  <si>
+    <t>3 Ninjas 3 - Mega Mountain Mission</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Die drei Jungs Rocky, Colt und Tum Tum besuchen gemeinsam mit ihrer Nachbarin, der computerbegeisterten Amanda, den Vergnügungspark “Mega Mountain”. Während ihres Aufenthaltes stürmt eine Armee von Ninjas, die von der bösen Medusa angeführt werden, den Park. Zur selben Zeit befindet sich der frühere Fernsehstar Dave Dragon im Freizeitpark, um eine Wohltätigkeitsveranstaltung zu moderieren. Gemeinsam mit Dragon setzen die Kids zum Kampf gegen die Ninjas an. </t>
+  </si>
+  <si>
+    <t>6 Underground</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sechs Personen bilden nach dem Vortäuschen ihres Todes eine Selbstjustiztruppe, um berüchtigte Kriminelle zu Fall zu bringen. Alle wurden von ihrem Leiter "One" für ihre einzigartigen Fähigkeiten und den Wunsch, ihre Vergangenheit zu überwinden und die Zukunft zu verändern, für das Team ausgewählt. </t>
+  </si>
+  <si>
+    <t>7 Psychos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Der Drehbuchautor Marty hat beim Schreiben Ladehemmung und kommt mit seinem Drehbuch einfach nicht weiter. Dabei hat er mit '7 Psychopaths' bereits einen guten Titel, aber ihm fehlen die Figuren. Deshalb gibt sein bester Freund Billy eine Anzeige auf, in der er Psychopathen sucht - und zieht Marty in die Auseinandersetzung mit dem Gangsterboss Charlie hinein, dessen geliebten Hund Bonnie er entführt hat. Daher stecken sie schon bald mit Billys undurchsichtigem Chef Hans inmitten eines aberwitzigen Abenteuers. </t>
+  </si>
+  <si>
+    <t>9½ Wochen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zufällige Begegnungen können gut, aber auch schlecht sein. Als sich der umwerfend gutaussehende John und die attraktive Elizabeth kennen lernen, ist schnell klar, welche Art Beziehung die beiden verbinden wird: Sex. Keine Liebe. Keine Emotionen, keine langen Gespräche vor dem Kamin an einem kalten Wintertag. Harter, bedingungsloser Sex - mit allem, was dazu gehört. Auch an verbotenen Orten, wo die beiden ihre wildesten Phantasien ausleben können. Doch John wird nach und nach immer brutaler und sadistischer, was Elizabeth immer weniger aushält. Doch sie scheint aus dem Sexgefängnis, das John gebaut hat, nicht wieder entkommen zu können. Ist sie ihm schon hörig? Es dauert nicht lange und beide steuern auf eine zwischenmenschliche Katastrophe hin... </t>
+  </si>
+  <si>
+    <t>11-11-11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nach dem tragischen Tod seiner Frau Sarah und seines Sohns Cole bei einem Brand, verursacht durch einen verrückten Fan, leidet der berühmte amerikanische Erfolgsautor Joseph Crone an einer schweren Depression, die ihm vom Schreiben abhält. Während seiner psychologischen Sitzungen lernt er eine junge Frau namens Sadie kennen, die eine ähnliche Tragödie erlebt hat. Einen Tag nach einer herzerweichenden Unterhaltung mit Sadie hat Joseph einen schrecklichen Autounfall, den er aber wie durch ein Wunder überlebt. Der Unfall passiert um genau 11:11 Uhr. Bald entdeckt Joseph, dass 11 eine Zahl ist, die in seinem vergangenen Leben irgendwie wichtig war und in seinem Alltag nun öfter und öfter auftaucht. </t>
+  </si>
+  <si>
+    <t>12 Monkeys</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Das Jahr 2035: Die Erdoberfläche ist entvölkert, seit eine Virenepidemie die Menschheit 1996 fast gänzlich vernichtet hat. Die wenigen Überlebenden existieren in einem Unterwelt-System. Mit der Hoffnung auf ein besseres Leben schickt man den Sträfling Cole als Zeitboten ins Jahr der Katastrophe zurück, um den Ursprung der Apokalypse herauszufinden. Versehentlich gerät er zunächst ins Jahr 1990 und in eine Irrenanstalt. Dort warnt ihn der verwirrte Jeffrey vor den "12 Monkeys". Haben sie mit den Viren zu tun? Endlich im Jahr 1996, spürt Cole mit der Psychiaterin Kathryn diese Vereinigung auf und macht eine verblüffende Entdeckung... </t>
+  </si>
+  <si>
+    <t>12 Uhr Mittags</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Marshal Will Kane möchte seiner Frau Amy zuliebe seinen Posten aufgeben, als seine Stadt plötzlich von dem Banditen Frank Miller und seiner Bande heimgesucht wird. Fest entschlossen, seine Stadt nicht im Stich zu lassen, bereitet sich der allseits beliebte Kane für den Kampf gegen die Banditen vor. Bald muss er jedoch feststellen, dass seine Mitbürger ihm aus Angst jegliche Hilfe verweigern und ihm stattdessen den Rücken kehren. Für Kane beginnt ein einsamer Kampf um das Wohlergehen seiner Kleinstadt. </t>
+  </si>
+  <si>
+    <t>13 Geister</t>
+  </si>
+  <si>
+    <t>Der verwitwete Familienvater Arthur Kriticos und seine beiden Kinder Kathy und Bobby können ihr Glück kaum fassen Ihr exzentrischer Onkel hat ihnen ein riesiges Haus vererbt, ein Glanzstück moderner Architektur aus Glas und Stahl. Doch kaum eingezogen, müssen sie feststellen, dass das Haus ein gefährliches Eigenleben führt Wände bewegen sich wie von Geisterhand, halten Insassen darin gefangen</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> mächtige und rachsüchtige Kreaturen treiben ihr Unwesen, töten jeden, der sich ihnen in den Weg stellt. Als sie mit Hilfe eines Hellsehers versuchen, dem Spuk ein Ende zu machen, wird schnell klar, dass das Haus ein einziges labyrinthisches Rätsel ist, von dessen Lösung Leben oder Tod abhängt. </t>
+  </si>
+  <si>
+    <t>21 Jump Street</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Die beiden jungen Polizisten Schmidt und Jenko werden aufgrund ihres jugendlichen Aussehens der geheimen Jump-Street-Einheit zugeteilt und treten in der örtlichen Highschool ihren Dienst undercover an. Schmidt und Jenko tauschen ihre Waffen und Dienstmarken gegen Rucksäcke ein und riskieren ihr Leben, um gegen einen gewalttätigen und gefährlichen Drogenring zu ermitteln. Dabei müssen sie bald feststellen, dass die Highschool von heute nicht mehr das ist, was sie mal war, als sie selbst vor einigen Jahren dort noch zur Schule gegangen sind. Außerdem hatten sie nicht damit gerechnet, sich noch einmal mit den Schrecken und Ängsten, ein Teenager zu sein, auseinandersetzen zu müssen oder mit all den anderen Problemen, von denen sie glaubten, sie lägen längst hinter ihnen. </t>
+  </si>
+  <si>
+    <t>22 Jump Street</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nachdem die Neu-Polizisten Schmidt und Jenko ihren ersten Fall erfolgreich lösen konnten, sollen sie erneut als verdeckte Ermittler arbeiten. Dieses Mal wird keine Highschool infiltriert, sondern ein örtliches College. Es kommt, wie es kommen muss: Schnell sind Schmidt und Jenko von ihrer eigentlichen Arbeit abgelenkt und verlieren sich in den Verlockungen des Studentenlebens. Jenko findet Anschluss im Football-Team, während Schmidt sich in Kreisen der gehobenen Kunst zu bewegen beginnt. Diese Einflüsse lassen die beiden Cops allerdings auch an ihrer Partnerschaft zweifeln. Gelingt es den beiden dennoch, sich zusammenzuraufen, ihren Fall zu lösen und endlich erwachsen zu werden? Oder bleibt ihre Freundschaft zwischen den Partys und Schießereien auf der Strecke? </t>
+  </si>
+  <si>
+    <t>47 Ronin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Als ihr Fürst heimtückisch ermordet wird, bleibt 47 entehrten Ronin nur die Verbannung - deshalb wollen sie Rache. Der Krieger Oishi und seine Gefährten sind dabei auf die Unterstützung des Halbbluts Kai angewiesen, müssen ihn aber zunächst aus der Sklaverei befreien. Kai wurde einst vom Fürsten aufgenommen und erzogen und liebt seit langem die Tochter seines Herren. Obwohl die Ronin das Halbblut ihre Abneigung spüren lassen, schließt Kai sich ihrer Gruppe an und steigt schließlich sogar zum Anführer auf. Gemeinsam versuchen sie die Festung des Feindes zu stürmen und die Ehre ihres Fürsten wieder herzustellen. Doch auf dem Weg dorthin müssen sie sich gegen ihre Feinde, zu denen nicht nur Fabelwesen und eine verführerische Hexe zählen, wehren. </t>
+  </si>
+  <si>
+    <t>72 Stunden</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lara Brennan, die Frau von College-Professor John Brennan wird aus heiterem Himmel wegen Mordes verhaftet. Der schockierten Familienmutter wird vorgeworfen ihre Chefin ermordet zu haben. Alle Indizien sprechen eindeutig gegen sie, doch John glaubt an seine Frau. Obwohl er alles daran setzt ihre Unschuld zu beweisen, wird Lara vor Gericht schuldig gesprochen. Gemeinsam mit einem ehemaligen Gefängnisinsassen entwickelt John den scheinbar perfekten Ausbruchsplan. Dann soll seine Ehefrau jedoch in ein anderes Gefängnis verlegt werden - John bleiben nur noch 72 Stunden um Lara zu befreien. </t>
+  </si>
+  <si>
+    <t>88 Minutes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Psychiater Jack Gramm unterrichtet nicht nur als Professor am College in Seattle, sondern stellt seine besonderen Fähigkeiten auch in den Dienst des FBI. Ihm ist es zu verdanken, dass Serienkiller John Forster trotz unzulänglicher Beweise für schuldig erklärt wurde. Doch kurz vor Forsters Hinrichtung geschieht ein weiterer Mord, der in der gleichen bizarren Grausamkeit wie seine Vorgänger inszeniert wurde. Kurz bevor Gramm die Ermittlungen aufnehmen kann, erhält er die Nachricht, dass er in 88 Minuten sterben wird - mehr Zeit bleibt ihm nicht, um sein Leben zu retten. </t>
+  </si>
+  <si>
+    <t>96 Hours - Taken 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bryan Mills hat seinen Dienst als Agent der US-Regierung quittiert, um in der Nähe seiner 17-jährigen Tochter leben zu können. Die verwöhnte Kim wohnt bei Bryans Ex-Frau und deren reichem Mann und Bryan kommt kaum an sie heran. Als Kim mit ihrer Freundin nach Paris fährt, macht sich Bryan Sorgen. Tatsächlich werden die Mädchen dort von einer albanischen Bande entführt. Bryan fährt nach Paris, wo er seine Fähigkeiten als Mann für gefährliche Einsätze voll einsetzen muss. </t>
+  </si>
+  <si>
+    <t>96 Hours - Taken 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nachdem der frühere CIA-Topagent Bryan Mills im ersten Teil seine Tochter Kim in Eigenregie aus den Klauen eines osteuropäischen Mädchenhändlerrings befreit hatte, braucht er diesmal selber Hilfe. Einem Vater der damaligen Kidnapper gefiel Mills Aufräumaktion so gar nicht, weshalb er den mit seiner Frau Leonore im Urlaub in Istanbul weilenden Ex-Agenten kurzerhand als Geisel nimmt. Mit Hilfe seiner Tochter gelingt es Mills, den Spieß umzudrehen und seine Familie in Sicherheit zu bringen. Auch dieses Mal springt der ehemalige Topagent dabei nicht gerade zimperlich mit seinen Widersachern um. </t>
+  </si>
+  <si>
+    <t>96 Hours - Taken 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ex-CIA-Agent und Familienvater Bryan Mills rettete seine Tochter Kim und deren Mutter Lenore bereits zwei Mal aus den bedrohlichsten Situationen. Diesmal muss er sich primär um die eigene Haut kümmern - Mills wird zum Hauptverdächtigen in einem Mordfall, dessen Opfer ihm sehr nahe stand. Der Einzelkämpfer sieht nur eine Möglichkeit, seine Unschuld zu beweisen: Er muss den Killer selbst ausfindig machen und zur Rechenschaft ziehen. Seine in vielen gefährlichen Missionen geschulten, ebenso besonderen wie tödlichen Fähigkeit setzt Mills aber nicht nur für die Jagt ein, sondern auch, um sich die Polizei vom Hals zu halten. Diese fahndet mit allen Mitteln nach dem früheren Spion, angeführt von dem hartnäckigen Polizeiinspektor Franck Dotzler... </t>
+  </si>
+  <si>
+    <t>400 Days</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Das Reisen im Weltraum fordert dem menschlichen Körper nicht nur physisch extrem viel ab, sondern auch psychisch. Immerhin sind die Astronauten teils über Jahre hinweg mit den gleichen Menschen in einem Raum - und das unter Extrembedingungen. Um die psychischen Auswirkungen von Langzeitmissionen zu testen, werden vier Astronauten auf einen simulierten Weltraum-Ausflug geschickt. Über 400 Tage sind sie eingesperrt in einem Bunker und haben keinen Kontakt zur Außenwelt. So wird ihre geistige Gesundheit auf eine harte Probe gestellt. Die Nerven liegen schon bald blank, als immer öfter seltsame Dinge geschehen und schließlich auch noch die Verbindung zum Kontrollzentrum abbricht. Ist das Teil des Experiments? Dann trifft die Mannschaft eine folgenschwere Entscheidung. Realität und Wahnsinn verschwimmen endgültig... </t>
+  </si>
+  <si>
+    <t>700 Meilen Westwärts</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1906 lässt der Verleger der "Denver Post" ein über 700 Meilen führendes Pferderennen austragen, das über Wüstenland, reißende Flüsse, verschneite Berge und dichte Wälder führt. Die Raureiter Clayton und Matthews, die Ex-Prostituierte Miss Jones, Greenhorn Carbo und der Engländer Norfolk zählen zu den Favoriten. Norfolk muss nach Sturz sein Pferd erschießen, Carbo erweist sich als Tierquäler, Miss Jones reitet nur, um ihren Geliebten zu befreien. Nur die besonnenen Clayton und Matthews erreichen Seite an Seite das Ziel. </t>
+  </si>
+  <si>
+    <t>2001 - Odyssee Im Weltraum</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Als im Jahr 2001 ein Monolith auf dem Mond entdeckt wird, wird diese Entdeckung als der Beweis für außerirdisches Leben gedeutet. Eineinhalb Jahre nach der Entdeckung des Monoliths werden 2 Astronauten, Bowman und Poole, mit dem Raumschiff Discovery zum Jupiter geschickt, um weitere Erkenntnisse zu gewinnen. Das Raumschiff ist mit dem Supercomputer HAL-9000 ausgerüstet. Bald ergeben sich erste Komplikationen mit dem Computer... </t>
+  </si>
+  <si>
+    <t>2012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2012 endet nach dem Kalender der Maya ein Zeitalter und die bekannte Welt wird in einer Katastrophe untergehen. Während Experten nach einem Ausweg suchen und die US-Regierung bereits einen geheimen Plan für die Rettung eines Teils der Menschheit erstellt, sind sich normale Bürger wie Jackson Curtis der nahenden Naturkatastrophe nicht bewusst. Die Begegnung mit dem Wissenschaftler Charlie Frost, der die Anzeichen für das bevorstehende Weltende dokumentiert, nimmt Curtis zunächst nicht ernst. Doch schon bald mehren sich die Vorzeichen und Curtis wird klar, dass ein wenig aussichtsreicher Kampf ums Überleben begonnen hat. </t>
   </si>
 </sst>
 </file>
@@ -2119,10 +2338,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D51DD517-BD67-9F45-A4CA-2F65B8CF2913}">
-  <dimension ref="A1:G183"/>
+  <dimension ref="A1:G207"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A158" workbookViewId="0">
-      <selection activeCell="A184" sqref="A184"/>
+    <sheetView tabSelected="1" topLeftCell="A187" workbookViewId="0">
+      <selection activeCell="B208" sqref="B208"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2598,7 +2817,7 @@
         <v>72</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>232</v>
+        <v>256</v>
       </c>
       <c r="C24" s="9">
         <v>2002</v>
@@ -2610,7 +2829,7 @@
         <v>16</v>
       </c>
       <c r="F24" s="6" t="s">
-        <v>233</v>
+        <v>257</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
@@ -2618,7 +2837,7 @@
         <v>73</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>234</v>
+        <v>258</v>
       </c>
       <c r="C25" s="9">
         <v>2004</v>
@@ -2630,7 +2849,7 @@
         <v>12</v>
       </c>
       <c r="F25" s="6" t="s">
-        <v>235</v>
+        <v>259</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
@@ -2638,7 +2857,7 @@
         <v>74</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>236</v>
+        <v>260</v>
       </c>
       <c r="C26" s="9">
         <v>2006</v>
@@ -2650,7 +2869,7 @@
         <v>12</v>
       </c>
       <c r="F26" s="6" t="s">
-        <v>237</v>
+        <v>261</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
@@ -2658,7 +2877,7 @@
         <v>75</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>238</v>
+        <v>262</v>
       </c>
       <c r="C27" s="9">
         <v>1993</v>
@@ -2670,7 +2889,7 @@
         <v>6</v>
       </c>
       <c r="F27" s="6" t="s">
-        <v>239</v>
+        <v>263</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
@@ -2678,7 +2897,7 @@
         <v>76</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>240</v>
+        <v>264</v>
       </c>
       <c r="C28" s="9">
         <v>1990</v>
@@ -2690,7 +2909,7 @@
         <v>16</v>
       </c>
       <c r="F28" s="6" t="s">
-        <v>241</v>
+        <v>265</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
@@ -2698,7 +2917,7 @@
         <v>77</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>242</v>
+        <v>266</v>
       </c>
       <c r="C29" s="9">
         <v>1999</v>
@@ -2710,7 +2929,7 @@
         <v>16</v>
       </c>
       <c r="F29" s="6" t="s">
-        <v>243</v>
+        <v>267</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
@@ -2718,7 +2937,7 @@
         <v>78</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>244</v>
+        <v>268</v>
       </c>
       <c r="C30" s="9">
         <v>1994</v>
@@ -2730,7 +2949,7 @@
         <v>12</v>
       </c>
       <c r="F30" s="6" t="s">
-        <v>245</v>
+        <v>269</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
@@ -2738,7 +2957,7 @@
         <v>79</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>246</v>
+        <v>270</v>
       </c>
       <c r="C31" s="9">
         <v>2003</v>
@@ -2750,7 +2969,7 @@
         <v>16</v>
       </c>
       <c r="F31" s="5" t="s">
-        <v>247</v>
+        <v>271</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
@@ -2758,7 +2977,7 @@
         <v>80</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>248</v>
+        <v>272</v>
       </c>
       <c r="C32" s="9">
         <v>1971</v>
@@ -2770,7 +2989,7 @@
         <v>18</v>
       </c>
       <c r="F32" s="5" t="s">
-        <v>249</v>
+        <v>273</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
@@ -2778,7 +2997,7 @@
         <v>81</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>250</v>
+        <v>274</v>
       </c>
       <c r="C33" s="9">
         <v>2003</v>
@@ -2790,7 +3009,7 @@
         <v>6</v>
       </c>
       <c r="F33" s="5" t="s">
-        <v>251</v>
+        <v>275</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.2">
@@ -2798,7 +3017,7 @@
         <v>82</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>252</v>
+        <v>276</v>
       </c>
       <c r="C34" s="9">
         <v>2001</v>
@@ -2810,10 +3029,10 @@
         <v>12</v>
       </c>
       <c r="F34" s="5" t="s">
-        <v>253</v>
+        <v>277</v>
       </c>
       <c r="G34" t="s">
-        <v>254</v>
+        <v>278</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.2">
@@ -2821,7 +3040,7 @@
         <v>83</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>255</v>
+        <v>279</v>
       </c>
       <c r="C35" s="9">
         <v>2003</v>
@@ -2833,7 +3052,7 @@
         <v>0</v>
       </c>
       <c r="F35" s="5" t="s">
-        <v>256</v>
+        <v>280</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
@@ -2841,7 +3060,7 @@
         <v>84</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>257</v>
+        <v>281</v>
       </c>
       <c r="C36" s="9">
         <v>2003</v>
@@ -2853,7 +3072,7 @@
         <v>12</v>
       </c>
       <c r="F36" s="5" t="s">
-        <v>258</v>
+        <v>282</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.2">
@@ -2861,7 +3080,7 @@
         <v>85</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>259</v>
+        <v>283</v>
       </c>
       <c r="C37" s="9">
         <v>2005</v>
@@ -2873,7 +3092,7 @@
         <v>12</v>
       </c>
       <c r="F37" s="5" t="s">
-        <v>260</v>
+        <v>284</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.2">
@@ -2881,7 +3100,7 @@
         <v>86</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>261</v>
+        <v>285</v>
       </c>
       <c r="C38" s="9">
         <v>2001</v>
@@ -2893,7 +3112,7 @@
         <v>0</v>
       </c>
       <c r="F38" s="5" t="s">
-        <v>262</v>
+        <v>286</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.2">
@@ -2901,7 +3120,7 @@
         <v>87</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>263</v>
+        <v>287</v>
       </c>
       <c r="C39" s="9">
         <v>2005</v>
@@ -2913,7 +3132,7 @@
         <v>12</v>
       </c>
       <c r="F39" s="5" t="s">
-        <v>264</v>
+        <v>288</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.2">
@@ -2921,7 +3140,7 @@
         <v>88</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>265</v>
+        <v>289</v>
       </c>
       <c r="C40" s="9">
         <v>2006</v>
@@ -2933,7 +3152,7 @@
         <v>6</v>
       </c>
       <c r="F40" s="5" t="s">
-        <v>266</v>
+        <v>290</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.2">
@@ -2941,7 +3160,7 @@
         <v>89</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>267</v>
+        <v>291</v>
       </c>
       <c r="C41" s="9">
         <v>2004</v>
@@ -2953,7 +3172,7 @@
         <v>6</v>
       </c>
       <c r="F41" s="5" t="s">
-        <v>268</v>
+        <v>292</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.2">
@@ -2961,7 +3180,7 @@
         <v>90</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>269</v>
+        <v>293</v>
       </c>
       <c r="C42" s="9">
         <v>1996</v>
@@ -2973,7 +3192,7 @@
         <v>16</v>
       </c>
       <c r="F42" s="5" t="s">
-        <v>270</v>
+        <v>294</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.2">
@@ -2981,7 +3200,7 @@
         <v>91</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>271</v>
+        <v>295</v>
       </c>
       <c r="C43" s="9">
         <v>1992</v>
@@ -2993,7 +3212,7 @@
         <v>18</v>
       </c>
       <c r="F43" s="5" t="s">
-        <v>272</v>
+        <v>296</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.2">
@@ -3001,7 +3220,7 @@
         <v>92</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>273</v>
+        <v>297</v>
       </c>
       <c r="C44" s="9">
         <v>2005</v>
@@ -3013,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="F44" s="5" t="s">
-        <v>274</v>
+        <v>298</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.2">
@@ -3021,7 +3240,7 @@
         <v>93</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>275</v>
+        <v>299</v>
       </c>
       <c r="C45" s="9">
         <v>2004</v>
@@ -3033,7 +3252,7 @@
         <v>16</v>
       </c>
       <c r="F45" s="5" t="s">
-        <v>276</v>
+        <v>300</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.2">
@@ -3041,7 +3260,7 @@
         <v>94</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>277</v>
+        <v>301</v>
       </c>
       <c r="C46" s="9">
         <v>2003</v>
@@ -3053,7 +3272,7 @@
         <v>16</v>
       </c>
       <c r="F46" s="5" t="s">
-        <v>278</v>
+        <v>302</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.2">
@@ -3061,7 +3280,7 @@
         <v>95</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>279</v>
+        <v>303</v>
       </c>
       <c r="C47" s="9">
         <v>2003</v>
@@ -3073,7 +3292,7 @@
         <v>6</v>
       </c>
       <c r="F47" s="5" t="s">
-        <v>280</v>
+        <v>304</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.2">
@@ -3081,7 +3300,7 @@
         <v>96</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>281</v>
+        <v>305</v>
       </c>
       <c r="C48" s="9">
         <v>1993</v>
@@ -3093,7 +3312,7 @@
         <v>12</v>
       </c>
       <c r="F48" s="5" t="s">
-        <v>282</v>
+        <v>306</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.2">
@@ -3101,7 +3320,7 @@
         <v>97</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>283</v>
+        <v>307</v>
       </c>
       <c r="C49" s="9">
         <v>2002</v>
@@ -3113,7 +3332,7 @@
         <v>0</v>
       </c>
       <c r="F49" s="5" t="s">
-        <v>284</v>
+        <v>308</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.2">
@@ -3121,7 +3340,7 @@
         <v>98</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>285</v>
+        <v>309</v>
       </c>
       <c r="C50" s="9">
         <v>1998</v>
@@ -3133,7 +3352,7 @@
         <v>16</v>
       </c>
       <c r="F50" s="5" t="s">
-        <v>286</v>
+        <v>310</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.2">
@@ -3141,7 +3360,7 @@
         <v>99</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>287</v>
+        <v>311</v>
       </c>
       <c r="C51" s="9">
         <v>1999</v>
@@ -3153,7 +3372,7 @@
         <v>12</v>
       </c>
       <c r="F51" s="5" t="s">
-        <v>288</v>
+        <v>312</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.2">
@@ -3161,7 +3380,7 @@
         <v>100</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>289</v>
+        <v>313</v>
       </c>
       <c r="C52" s="9">
         <v>2002</v>
@@ -3173,7 +3392,7 @@
         <v>12</v>
       </c>
       <c r="F52" s="5" t="s">
-        <v>290</v>
+        <v>314</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.2">
@@ -3181,7 +3400,7 @@
         <v>101</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>291</v>
+        <v>315</v>
       </c>
       <c r="C53" s="9">
         <v>1994</v>
@@ -3193,7 +3412,7 @@
         <v>12</v>
       </c>
       <c r="F53" s="5" t="s">
-        <v>292</v>
+        <v>316</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.2">
@@ -3201,7 +3420,7 @@
         <v>102</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>293</v>
+        <v>317</v>
       </c>
       <c r="C54" s="9">
         <v>2004</v>
@@ -3213,7 +3432,7 @@
         <v>0</v>
       </c>
       <c r="F54" s="5" t="s">
-        <v>294</v>
+        <v>318</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.2">
@@ -3221,7 +3440,7 @@
         <v>103</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>295</v>
+        <v>319</v>
       </c>
       <c r="C55" s="9">
         <v>2002</v>
@@ -3233,7 +3452,7 @@
         <v>18</v>
       </c>
       <c r="F55" s="5" t="s">
-        <v>296</v>
+        <v>320</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.2">
@@ -3241,7 +3460,7 @@
         <v>104</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>297</v>
+        <v>321</v>
       </c>
       <c r="C56" s="9">
         <v>2004</v>
@@ -3253,7 +3472,7 @@
         <v>12</v>
       </c>
       <c r="F56" s="5" t="s">
-        <v>298</v>
+        <v>322</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.2">
@@ -3261,7 +3480,7 @@
         <v>105</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>299</v>
+        <v>323</v>
       </c>
       <c r="C57" s="9">
         <v>1996</v>
@@ -3273,7 +3492,7 @@
         <v>12</v>
       </c>
       <c r="F57" s="5" t="s">
-        <v>300</v>
+        <v>324</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.2">
@@ -3281,7 +3500,7 @@
         <v>106</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>301</v>
+        <v>325</v>
       </c>
       <c r="C58" s="9">
         <v>2006</v>
@@ -3293,7 +3512,7 @@
         <v>12</v>
       </c>
       <c r="F58" s="5" t="s">
-        <v>302</v>
+        <v>326</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.2">
@@ -3301,7 +3520,7 @@
         <v>107</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>303</v>
+        <v>327</v>
       </c>
       <c r="C59" s="9">
         <v>1997</v>
@@ -3313,7 +3532,7 @@
         <v>16</v>
       </c>
       <c r="F59" s="5" t="s">
-        <v>304</v>
+        <v>328</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.2">
@@ -3321,7 +3540,7 @@
         <v>108</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>305</v>
+        <v>329</v>
       </c>
       <c r="C60" s="9">
         <v>2009</v>
@@ -3333,7 +3552,7 @@
         <v>16</v>
       </c>
       <c r="F60" s="5" t="s">
-        <v>306</v>
+        <v>330</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.2">
@@ -3341,7 +3560,7 @@
         <v>109</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>307</v>
+        <v>331</v>
       </c>
       <c r="C61" s="9">
         <v>2001</v>
@@ -3353,7 +3572,7 @@
         <v>16</v>
       </c>
       <c r="F61" s="5" t="s">
-        <v>308</v>
+        <v>332</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.2">
@@ -3361,7 +3580,7 @@
         <v>110</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>309</v>
+        <v>333</v>
       </c>
       <c r="C62" s="9">
         <v>2002</v>
@@ -3373,7 +3592,7 @@
         <v>12</v>
       </c>
       <c r="F62" s="5" t="s">
-        <v>310</v>
+        <v>334</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.2">
@@ -3381,7 +3600,7 @@
         <v>111</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>311</v>
+        <v>335</v>
       </c>
       <c r="C63" s="9">
         <v>2003</v>
@@ -3393,7 +3612,7 @@
         <v>12</v>
       </c>
       <c r="F63" s="5" t="s">
-        <v>312</v>
+        <v>336</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.2">
@@ -3401,7 +3620,7 @@
         <v>112</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>313</v>
+        <v>337</v>
       </c>
       <c r="C64" s="9">
         <v>2005</v>
@@ -3413,7 +3632,7 @@
         <v>12</v>
       </c>
       <c r="F64" s="5" t="s">
-        <v>314</v>
+        <v>338</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.2">
@@ -3421,7 +3640,7 @@
         <v>113</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>315</v>
+        <v>339</v>
       </c>
       <c r="C65" s="9">
         <v>2006</v>
@@ -3433,7 +3652,7 @@
         <v>16</v>
       </c>
       <c r="F65" s="5" t="s">
-        <v>316</v>
+        <v>340</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.2">
@@ -3441,7 +3660,7 @@
         <v>114</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>317</v>
+        <v>341</v>
       </c>
       <c r="C66" s="9">
         <v>1979</v>
@@ -3453,7 +3672,7 @@
         <v>12</v>
       </c>
       <c r="F66" s="5" t="s">
-        <v>318</v>
+        <v>342</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.2">
@@ -3461,7 +3680,7 @@
         <v>115</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>319</v>
+        <v>343</v>
       </c>
       <c r="C67" s="9">
         <v>2002</v>
@@ -3473,7 +3692,7 @@
         <v>16</v>
       </c>
       <c r="F67" s="5" t="s">
-        <v>320</v>
+        <v>344</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.2">
@@ -3481,7 +3700,7 @@
         <v>116</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>321</v>
+        <v>345</v>
       </c>
       <c r="C68" s="9">
         <v>1996</v>
@@ -3493,7 +3712,7 @@
         <v>16</v>
       </c>
       <c r="F68" s="5" t="s">
-        <v>322</v>
+        <v>346</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.2">
@@ -3501,7 +3720,7 @@
         <v>117</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>323</v>
+        <v>347</v>
       </c>
       <c r="C69" s="9">
         <v>2005</v>
@@ -3513,7 +3732,7 @@
         <v>18</v>
       </c>
       <c r="F69" s="5" t="s">
-        <v>324</v>
+        <v>348</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.2">
@@ -3521,7 +3740,7 @@
         <v>118</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>325</v>
+        <v>349</v>
       </c>
       <c r="C70" s="9">
         <v>2005</v>
@@ -3533,7 +3752,7 @@
         <v>6</v>
       </c>
       <c r="F70" s="5" t="s">
-        <v>326</v>
+        <v>350</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.2">
@@ -3541,7 +3760,7 @@
         <v>119</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>328</v>
+        <v>352</v>
       </c>
       <c r="C71" s="9">
         <v>1996</v>
@@ -3553,7 +3772,7 @@
         <v>6</v>
       </c>
       <c r="F71" s="5" t="s">
-        <v>327</v>
+        <v>351</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.2">
@@ -3561,7 +3780,7 @@
         <v>120</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>329</v>
+        <v>353</v>
       </c>
       <c r="C72" s="9">
         <v>2000</v>
@@ -3573,7 +3792,7 @@
         <v>16</v>
       </c>
       <c r="F72" s="5" t="s">
-        <v>330</v>
+        <v>354</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.2">
@@ -3581,7 +3800,7 @@
         <v>121</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>331</v>
+        <v>355</v>
       </c>
       <c r="C73" s="9">
         <v>2000</v>
@@ -3593,7 +3812,7 @@
         <v>12</v>
       </c>
       <c r="F73" s="5" t="s">
-        <v>332</v>
+        <v>356</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.2">
@@ -3601,7 +3820,7 @@
         <v>122</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>333</v>
+        <v>357</v>
       </c>
       <c r="C74" s="9">
         <v>2004</v>
@@ -3613,7 +3832,7 @@
         <v>18</v>
       </c>
       <c r="F74" s="5" t="s">
-        <v>334</v>
+        <v>358</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.2">
@@ -3621,7 +3840,7 @@
         <v>123</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>335</v>
+        <v>359</v>
       </c>
       <c r="C75" s="9">
         <v>2004</v>
@@ -3633,7 +3852,7 @@
         <v>6</v>
       </c>
       <c r="F75" s="5" t="s">
-        <v>336</v>
+        <v>360</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.2">
@@ -3641,7 +3860,7 @@
         <v>124</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>337</v>
+        <v>361</v>
       </c>
       <c r="C76" s="9">
         <v>1979</v>
@@ -3653,7 +3872,7 @@
         <v>16</v>
       </c>
       <c r="F76" s="5" t="s">
-        <v>338</v>
+        <v>362</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.2">
@@ -3661,7 +3880,7 @@
         <v>125</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>339</v>
+        <v>363</v>
       </c>
       <c r="C77" s="9">
         <v>2003</v>
@@ -3673,7 +3892,7 @@
         <v>16</v>
       </c>
       <c r="F77" s="5" t="s">
-        <v>340</v>
+        <v>364</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.2">
@@ -3681,7 +3900,7 @@
         <v>126</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>341</v>
+        <v>365</v>
       </c>
       <c r="C78" s="9">
         <v>1997</v>
@@ -3693,7 +3912,7 @@
         <v>16</v>
       </c>
       <c r="F78" s="5" t="s">
-        <v>342</v>
+        <v>366</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.2">
@@ -3701,7 +3920,7 @@
         <v>127</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>343</v>
+        <v>367</v>
       </c>
       <c r="C79" s="9">
         <v>2005</v>
@@ -3713,7 +3932,7 @@
         <v>12</v>
       </c>
       <c r="F79" s="5" t="s">
-        <v>344</v>
+        <v>368</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.2">
@@ -3721,7 +3940,7 @@
         <v>128</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>345</v>
+        <v>369</v>
       </c>
       <c r="C80" s="9">
         <v>2003</v>
@@ -3733,7 +3952,7 @@
         <v>18</v>
       </c>
       <c r="F80" s="5" t="s">
-        <v>346</v>
+        <v>370</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.2">
@@ -3741,7 +3960,7 @@
         <v>129</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>347</v>
+        <v>371</v>
       </c>
       <c r="C81" s="9">
         <v>2007</v>
@@ -3753,7 +3972,7 @@
         <v>16</v>
       </c>
       <c r="F81" s="5" t="s">
-        <v>348</v>
+        <v>372</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.2">
@@ -3761,7 +3980,7 @@
         <v>130</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>349</v>
+        <v>373</v>
       </c>
       <c r="C82" s="9">
         <v>2002</v>
@@ -3773,7 +3992,7 @@
         <v>18</v>
       </c>
       <c r="F82" s="5" t="s">
-        <v>350</v>
+        <v>374</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.2">
@@ -3781,7 +4000,7 @@
         <v>131</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>351</v>
+        <v>375</v>
       </c>
       <c r="C83" s="9">
         <v>2004</v>
@@ -3793,7 +4012,7 @@
         <v>16</v>
       </c>
       <c r="F83" s="5" t="s">
-        <v>352</v>
+        <v>376</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.2">
@@ -3801,7 +4020,7 @@
         <v>132</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>353</v>
+        <v>377</v>
       </c>
       <c r="C84" s="9">
         <v>2004</v>
@@ -3813,7 +4032,7 @@
         <v>12</v>
       </c>
       <c r="F84" s="5" t="s">
-        <v>354</v>
+        <v>378</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.2">
@@ -3821,7 +4040,7 @@
         <v>133</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>355</v>
+        <v>379</v>
       </c>
       <c r="C85" s="9">
         <v>2002</v>
@@ -3833,7 +4052,7 @@
         <v>12</v>
       </c>
       <c r="F85" s="5" t="s">
-        <v>356</v>
+        <v>380</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.2">
@@ -3841,7 +4060,7 @@
         <v>134</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>357</v>
+        <v>381</v>
       </c>
       <c r="C86" s="9">
         <v>2004</v>
@@ -3853,7 +4072,7 @@
         <v>16</v>
       </c>
       <c r="F86" s="5" t="s">
-        <v>358</v>
+        <v>382</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.2">
@@ -3861,7 +4080,7 @@
         <v>135</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>359</v>
+        <v>383</v>
       </c>
       <c r="C87" s="9">
         <v>2009</v>
@@ -3873,7 +4092,7 @@
         <v>16</v>
       </c>
       <c r="F87" s="5" t="s">
-        <v>360</v>
+        <v>384</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.2">
@@ -3881,7 +4100,7 @@
         <v>136</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>361</v>
+        <v>385</v>
       </c>
       <c r="C88" s="9">
         <v>2001</v>
@@ -3893,7 +4112,7 @@
         <v>12</v>
       </c>
       <c r="F88" s="5" t="s">
-        <v>362</v>
+        <v>386</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.2">
@@ -3901,7 +4120,7 @@
         <v>137</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>363</v>
+        <v>387</v>
       </c>
       <c r="C89" s="9">
         <v>2023</v>
@@ -3913,7 +4132,7 @@
         <v>16</v>
       </c>
       <c r="F89" s="5" t="s">
-        <v>364</v>
+        <v>388</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.2">
@@ -3921,7 +4140,7 @@
         <v>138</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>365</v>
+        <v>389</v>
       </c>
       <c r="C90" s="9">
         <v>1994</v>
@@ -3933,7 +4152,7 @@
         <v>16</v>
       </c>
       <c r="F90" s="5" t="s">
-        <v>366</v>
+        <v>390</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.2">
@@ -3941,7 +4160,7 @@
         <v>139</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>367</v>
+        <v>391</v>
       </c>
       <c r="C91" s="9">
         <v>2022</v>
@@ -3953,7 +4172,7 @@
         <v>12</v>
       </c>
       <c r="F91" s="5" t="s">
-        <v>368</v>
+        <v>392</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.2">
@@ -3961,7 +4180,7 @@
         <v>140</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>369</v>
+        <v>393</v>
       </c>
       <c r="C92" s="9">
         <v>1984</v>
@@ -3973,7 +4192,7 @@
         <v>16</v>
       </c>
       <c r="F92" s="5" t="s">
-        <v>370</v>
+        <v>394</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.2">
@@ -3981,7 +4200,7 @@
         <v>141</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>371</v>
+        <v>395</v>
       </c>
       <c r="C93" s="9">
         <v>1989</v>
@@ -3993,7 +4212,7 @@
         <v>12</v>
       </c>
       <c r="F93" s="5" t="s">
-        <v>372</v>
+        <v>396</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.2">
@@ -4001,7 +4220,7 @@
         <v>142</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>373</v>
+        <v>397</v>
       </c>
       <c r="C94" s="9">
         <v>2023</v>
@@ -4013,7 +4232,7 @@
         <v>6</v>
       </c>
       <c r="F94" s="5" t="s">
-        <v>374</v>
+        <v>398</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.2">
@@ -4021,7 +4240,7 @@
         <v>143</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>375</v>
+        <v>399</v>
       </c>
       <c r="C95" s="9">
         <v>1994</v>
@@ -4033,7 +4252,7 @@
         <v>16</v>
       </c>
       <c r="F95" s="5" t="s">
-        <v>376</v>
+        <v>400</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.2">
@@ -4041,7 +4260,7 @@
         <v>144</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>377</v>
+        <v>401</v>
       </c>
       <c r="C96" s="9">
         <v>2004</v>
@@ -4053,7 +4272,7 @@
         <v>12</v>
       </c>
       <c r="F96" s="5" t="s">
-        <v>378</v>
+        <v>402</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.2">
@@ -4061,7 +4280,7 @@
         <v>145</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>379</v>
+        <v>403</v>
       </c>
       <c r="C97" s="9">
         <v>2003</v>
@@ -4073,7 +4292,7 @@
         <v>6</v>
       </c>
       <c r="F97" s="5" t="s">
-        <v>380</v>
+        <v>404</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.2">
@@ -4081,7 +4300,7 @@
         <v>146</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>381</v>
+        <v>405</v>
       </c>
       <c r="C98" s="9">
         <v>2003</v>
@@ -4093,7 +4312,7 @@
         <v>12</v>
       </c>
       <c r="F98" s="5" t="s">
-        <v>382</v>
+        <v>406</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.2">
@@ -4101,7 +4320,7 @@
         <v>147</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>383</v>
+        <v>407</v>
       </c>
       <c r="C99" s="9">
         <v>1996</v>
@@ -4113,7 +4332,7 @@
         <v>18</v>
       </c>
       <c r="F99" s="5" t="s">
-        <v>384</v>
+        <v>408</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.2">
@@ -4121,7 +4340,7 @@
         <v>148</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>385</v>
+        <v>409</v>
       </c>
       <c r="C100" s="9">
         <v>1987</v>
@@ -4133,7 +4352,7 @@
         <v>6</v>
       </c>
       <c r="F100" s="5" t="s">
-        <v>386</v>
+        <v>410</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.2">
@@ -4141,7 +4360,7 @@
         <v>149</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>387</v>
+        <v>411</v>
       </c>
       <c r="C101" s="9">
         <v>2002</v>
@@ -4153,7 +4372,7 @@
         <v>16</v>
       </c>
       <c r="F101" s="5" t="s">
-        <v>388</v>
+        <v>412</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.2">
@@ -4161,7 +4380,7 @@
         <v>150</v>
       </c>
       <c r="B102" s="4" t="s">
-        <v>389</v>
+        <v>413</v>
       </c>
       <c r="C102" s="9">
         <v>2005</v>
@@ -4173,7 +4392,7 @@
         <v>6</v>
       </c>
       <c r="F102" s="5" t="s">
-        <v>390</v>
+        <v>414</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.2">
@@ -4181,7 +4400,7 @@
         <v>151</v>
       </c>
       <c r="B103" s="4" t="s">
-        <v>391</v>
+        <v>415</v>
       </c>
       <c r="C103" s="9">
         <v>2003</v>
@@ -4193,7 +4412,7 @@
         <v>12</v>
       </c>
       <c r="F103" s="5" t="s">
-        <v>392</v>
+        <v>416</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.2">
@@ -4201,7 +4420,7 @@
         <v>152</v>
       </c>
       <c r="B104" s="4" t="s">
-        <v>393</v>
+        <v>417</v>
       </c>
       <c r="C104" s="9">
         <v>2014</v>
@@ -4213,7 +4432,7 @@
         <v>16</v>
       </c>
       <c r="F104" s="5" t="s">
-        <v>394</v>
+        <v>418</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.2">
@@ -4221,7 +4440,7 @@
         <v>153</v>
       </c>
       <c r="B105" s="4" t="s">
-        <v>395</v>
+        <v>419</v>
       </c>
       <c r="C105" s="9">
         <v>2004</v>
@@ -4233,7 +4452,7 @@
         <v>16</v>
       </c>
       <c r="F105" s="5" t="s">
-        <v>396</v>
+        <v>420</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.2">
@@ -4241,7 +4460,7 @@
         <v>154</v>
       </c>
       <c r="B106" s="4" t="s">
-        <v>397</v>
+        <v>421</v>
       </c>
       <c r="C106" s="9">
         <v>2005</v>
@@ -4253,7 +4472,7 @@
         <v>0</v>
       </c>
       <c r="F106" s="5" t="s">
-        <v>398</v>
+        <v>422</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.2">
@@ -4261,7 +4480,7 @@
         <v>155</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>399</v>
+        <v>423</v>
       </c>
       <c r="C107" s="9">
         <v>2005</v>
@@ -4273,7 +4492,7 @@
         <v>16</v>
       </c>
       <c r="F107" s="5" t="s">
-        <v>400</v>
+        <v>424</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.2">
@@ -4281,7 +4500,7 @@
         <v>156</v>
       </c>
       <c r="B108" s="4" t="s">
-        <v>401</v>
+        <v>425</v>
       </c>
       <c r="C108" s="9">
         <v>2004</v>
@@ -4293,7 +4512,7 @@
         <v>0</v>
       </c>
       <c r="F108" s="5" t="s">
-        <v>402</v>
+        <v>426</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.2">
@@ -4301,7 +4520,7 @@
         <v>157</v>
       </c>
       <c r="B109" s="4" t="s">
-        <v>403</v>
+        <v>427</v>
       </c>
       <c r="C109" s="9">
         <v>2002</v>
@@ -4313,7 +4532,7 @@
         <v>12</v>
       </c>
       <c r="F109" s="5" t="s">
-        <v>404</v>
+        <v>428</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.2">
@@ -4321,7 +4540,7 @@
         <v>158</v>
       </c>
       <c r="B110" s="4" t="s">
-        <v>405</v>
+        <v>429</v>
       </c>
       <c r="C110" s="9">
         <v>2004</v>
@@ -4333,7 +4552,7 @@
         <v>12</v>
       </c>
       <c r="F110" s="5" t="s">
-        <v>406</v>
+        <v>430</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.2">
@@ -4341,7 +4560,7 @@
         <v>159</v>
       </c>
       <c r="B111" s="4" t="s">
-        <v>407</v>
+        <v>431</v>
       </c>
       <c r="C111" s="9">
         <v>2002</v>
@@ -4353,7 +4572,7 @@
         <v>16</v>
       </c>
       <c r="F111" s="5" t="s">
-        <v>408</v>
+        <v>432</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.2">
@@ -4361,7 +4580,7 @@
         <v>160</v>
       </c>
       <c r="B112" s="4" t="s">
-        <v>409</v>
+        <v>433</v>
       </c>
       <c r="C112" s="9">
         <v>2002</v>
@@ -4373,7 +4592,7 @@
         <v>12</v>
       </c>
       <c r="F112" s="5" t="s">
-        <v>410</v>
+        <v>434</v>
       </c>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.2">
@@ -4381,7 +4600,7 @@
         <v>161</v>
       </c>
       <c r="B113" s="4" t="s">
-        <v>411</v>
+        <v>435</v>
       </c>
       <c r="C113" s="9">
         <v>2003</v>
@@ -4393,7 +4612,7 @@
         <v>12</v>
       </c>
       <c r="F113" s="5" t="s">
-        <v>412</v>
+        <v>436</v>
       </c>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.2">
@@ -4401,7 +4620,7 @@
         <v>162</v>
       </c>
       <c r="B114" s="4" t="s">
-        <v>413</v>
+        <v>437</v>
       </c>
       <c r="C114" s="9">
         <v>2006</v>
@@ -4413,7 +4632,7 @@
         <v>12</v>
       </c>
       <c r="F114" s="5" t="s">
-        <v>414</v>
+        <v>438</v>
       </c>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.2">
@@ -4421,7 +4640,7 @@
         <v>163</v>
       </c>
       <c r="B115" s="4" t="s">
-        <v>415</v>
+        <v>439</v>
       </c>
       <c r="C115" s="9">
         <v>2001</v>
@@ -4433,7 +4652,7 @@
         <v>18</v>
       </c>
       <c r="F115" s="5" t="s">
-        <v>416</v>
+        <v>440</v>
       </c>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.2">
@@ -4441,7 +4660,7 @@
         <v>164</v>
       </c>
       <c r="B116" s="4" t="s">
-        <v>417</v>
+        <v>441</v>
       </c>
       <c r="C116" s="9">
         <v>2004</v>
@@ -4453,7 +4672,7 @@
         <v>12</v>
       </c>
       <c r="F116" s="5" t="s">
-        <v>418</v>
+        <v>442</v>
       </c>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.2">
@@ -4461,7 +4680,7 @@
         <v>165</v>
       </c>
       <c r="B117" s="4" t="s">
-        <v>419</v>
+        <v>443</v>
       </c>
       <c r="C117" s="9">
         <v>2004</v>
@@ -4473,7 +4692,7 @@
         <v>12</v>
       </c>
       <c r="F117" s="5" t="s">
-        <v>420</v>
+        <v>444</v>
       </c>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.2">
@@ -4481,7 +4700,7 @@
         <v>166</v>
       </c>
       <c r="B118" s="4" t="s">
-        <v>421</v>
+        <v>445</v>
       </c>
       <c r="C118" s="9">
         <v>1987</v>
@@ -4493,7 +4712,7 @@
         <v>12</v>
       </c>
       <c r="F118" s="5" t="s">
-        <v>422</v>
+        <v>446</v>
       </c>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.2">
@@ -4501,7 +4720,7 @@
         <v>167</v>
       </c>
       <c r="B119" s="4" t="s">
-        <v>423</v>
+        <v>447</v>
       </c>
       <c r="C119" s="9">
         <v>2004</v>
@@ -4513,7 +4732,7 @@
         <v>6</v>
       </c>
       <c r="F119" s="5" t="s">
-        <v>424</v>
+        <v>448</v>
       </c>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.2">
@@ -4521,7 +4740,7 @@
         <v>168</v>
       </c>
       <c r="B120" s="4" t="s">
-        <v>425</v>
+        <v>449</v>
       </c>
       <c r="C120" s="9">
         <v>2001</v>
@@ -4533,7 +4752,7 @@
         <v>12</v>
       </c>
       <c r="F120" s="5" t="s">
-        <v>426</v>
+        <v>450</v>
       </c>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.2">
@@ -4541,7 +4760,7 @@
         <v>169</v>
       </c>
       <c r="B121" s="4" t="s">
-        <v>427</v>
+        <v>451</v>
       </c>
       <c r="C121" s="9">
         <v>2004</v>
@@ -4553,7 +4772,7 @@
         <v>18</v>
       </c>
       <c r="F121" s="5" t="s">
-        <v>428</v>
+        <v>452</v>
       </c>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.2">
@@ -4561,7 +4780,7 @@
         <v>170</v>
       </c>
       <c r="B122" s="4" t="s">
-        <v>429</v>
+        <v>453</v>
       </c>
       <c r="C122" s="9">
         <v>2000</v>
@@ -4573,10 +4792,10 @@
         <v>12</v>
       </c>
       <c r="F122" s="5" t="s">
-        <v>430</v>
+        <v>454</v>
       </c>
       <c r="G122" t="s">
-        <v>431</v>
+        <v>455</v>
       </c>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.2">
@@ -4584,7 +4803,7 @@
         <v>171</v>
       </c>
       <c r="B123" s="4" t="s">
-        <v>432</v>
+        <v>456</v>
       </c>
       <c r="C123" s="9">
         <v>2003</v>
@@ -4596,7 +4815,7 @@
         <v>12</v>
       </c>
       <c r="F123" s="5" t="s">
-        <v>433</v>
+        <v>457</v>
       </c>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.2">
@@ -4604,7 +4823,7 @@
         <v>172</v>
       </c>
       <c r="B124" s="4" t="s">
-        <v>434</v>
+        <v>458</v>
       </c>
       <c r="C124" s="9">
         <v>1987</v>
@@ -4616,7 +4835,7 @@
         <v>16</v>
       </c>
       <c r="F124" s="5" t="s">
-        <v>435</v>
+        <v>459</v>
       </c>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.2">
@@ -4624,7 +4843,7 @@
         <v>173</v>
       </c>
       <c r="B125" s="4" t="s">
-        <v>436</v>
+        <v>460</v>
       </c>
       <c r="C125" s="9">
         <v>1999</v>
@@ -4636,7 +4855,7 @@
         <v>16</v>
       </c>
       <c r="F125" s="5" t="s">
-        <v>437</v>
+        <v>461</v>
       </c>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.2">
@@ -4644,7 +4863,7 @@
         <v>174</v>
       </c>
       <c r="B126" s="4" t="s">
-        <v>438</v>
+        <v>462</v>
       </c>
       <c r="C126" s="9">
         <v>2002</v>
@@ -4656,7 +4875,7 @@
         <v>18</v>
       </c>
       <c r="F126" s="5" t="s">
-        <v>439</v>
+        <v>463</v>
       </c>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.2">
@@ -4664,7 +4883,7 @@
         <v>175</v>
       </c>
       <c r="B127" s="4" t="s">
-        <v>440</v>
+        <v>464</v>
       </c>
       <c r="C127" s="9">
         <v>2004</v>
@@ -4676,7 +4895,7 @@
         <v>18</v>
       </c>
       <c r="F127" s="5" t="s">
-        <v>441</v>
+        <v>465</v>
       </c>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.2">
@@ -4684,7 +4903,7 @@
         <v>176</v>
       </c>
       <c r="B128" s="4" t="s">
-        <v>442</v>
+        <v>466</v>
       </c>
       <c r="C128" s="9">
         <v>2003</v>
@@ -4696,7 +4915,7 @@
         <v>0</v>
       </c>
       <c r="F128" s="5" t="s">
-        <v>443</v>
+        <v>467</v>
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.2">
@@ -4704,7 +4923,7 @@
         <v>177</v>
       </c>
       <c r="B129" s="4" t="s">
-        <v>444</v>
+        <v>468</v>
       </c>
       <c r="C129" s="9">
         <v>2004</v>
@@ -4716,7 +4935,7 @@
         <v>0</v>
       </c>
       <c r="F129" s="5" t="s">
-        <v>445</v>
+        <v>469</v>
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.2">
@@ -4724,7 +4943,7 @@
         <v>178</v>
       </c>
       <c r="B130" s="4" t="s">
-        <v>446</v>
+        <v>470</v>
       </c>
       <c r="C130" s="9">
         <v>2003</v>
@@ -4736,7 +4955,7 @@
         <v>16</v>
       </c>
       <c r="F130" s="5" t="s">
-        <v>447</v>
+        <v>471</v>
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.2">
@@ -4744,7 +4963,7 @@
         <v>179</v>
       </c>
       <c r="B131" s="4" t="s">
-        <v>448</v>
+        <v>472</v>
       </c>
       <c r="C131" s="9">
         <v>2003</v>
@@ -4756,7 +4975,7 @@
         <v>18</v>
       </c>
       <c r="F131" s="5" t="s">
-        <v>449</v>
+        <v>473</v>
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.2">
@@ -4764,7 +4983,7 @@
         <v>180</v>
       </c>
       <c r="B132" s="4" t="s">
-        <v>450</v>
+        <v>474</v>
       </c>
       <c r="C132" s="9">
         <v>2006</v>
@@ -4776,7 +4995,7 @@
         <v>16</v>
       </c>
       <c r="F132" s="5" t="s">
-        <v>451</v>
+        <v>475</v>
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.2">
@@ -4784,7 +5003,7 @@
         <v>181</v>
       </c>
       <c r="B133" s="4" t="s">
-        <v>452</v>
+        <v>476</v>
       </c>
       <c r="C133" s="9">
         <v>2005</v>
@@ -4796,7 +5015,7 @@
         <v>12</v>
       </c>
       <c r="F133" s="5" t="s">
-        <v>453</v>
+        <v>477</v>
       </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.2">
@@ -4804,7 +5023,7 @@
         <v>182</v>
       </c>
       <c r="B134" s="4" t="s">
-        <v>454</v>
+        <v>478</v>
       </c>
       <c r="C134" s="9">
         <v>2005</v>
@@ -4816,7 +5035,7 @@
         <v>18</v>
       </c>
       <c r="F134" s="5" t="s">
-        <v>455</v>
+        <v>479</v>
       </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.2">
@@ -4824,7 +5043,7 @@
         <v>183</v>
       </c>
       <c r="B135" s="4" t="s">
-        <v>456</v>
+        <v>480</v>
       </c>
       <c r="C135" s="9">
         <v>1995</v>
@@ -4836,7 +5055,7 @@
         <v>12</v>
       </c>
       <c r="F135" s="5" t="s">
-        <v>457</v>
+        <v>481</v>
       </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.2">
@@ -4844,7 +5063,7 @@
         <v>184</v>
       </c>
       <c r="B136" s="4" t="s">
-        <v>458</v>
+        <v>482</v>
       </c>
       <c r="C136" s="9">
         <v>2004</v>
@@ -4856,7 +5075,7 @@
         <v>6</v>
       </c>
       <c r="F136" s="5" t="s">
-        <v>459</v>
+        <v>483</v>
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.2">
@@ -4864,7 +5083,7 @@
         <v>185</v>
       </c>
       <c r="B137" s="4" t="s">
-        <v>460</v>
+        <v>484</v>
       </c>
       <c r="C137" s="9">
         <v>1995</v>
@@ -4876,7 +5095,7 @@
         <v>18</v>
       </c>
       <c r="F137" s="5" t="s">
-        <v>461</v>
+        <v>485</v>
       </c>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.2">
@@ -4884,7 +5103,7 @@
         <v>186</v>
       </c>
       <c r="B138" s="4" t="s">
-        <v>462</v>
+        <v>486</v>
       </c>
       <c r="C138" s="9">
         <v>2003</v>
@@ -4896,7 +5115,7 @@
         <v>18</v>
       </c>
       <c r="F138" s="5" t="s">
-        <v>463</v>
+        <v>487</v>
       </c>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.2">
@@ -4904,7 +5123,7 @@
         <v>187</v>
       </c>
       <c r="B139" s="4" t="s">
-        <v>464</v>
+        <v>488</v>
       </c>
       <c r="C139" s="9">
         <v>2003</v>
@@ -4916,7 +5135,7 @@
         <v>12</v>
       </c>
       <c r="F139" s="5" t="s">
-        <v>465</v>
+        <v>489</v>
       </c>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.2">
@@ -4924,7 +5143,7 @@
         <v>188</v>
       </c>
       <c r="B140" s="4" t="s">
-        <v>466</v>
+        <v>490</v>
       </c>
       <c r="C140" s="9">
         <v>1971</v>
@@ -4936,7 +5155,7 @@
         <v>16</v>
       </c>
       <c r="F140" s="5" t="s">
-        <v>467</v>
+        <v>491</v>
       </c>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.2">
@@ -4944,7 +5163,7 @@
         <v>189</v>
       </c>
       <c r="B141" s="4" t="s">
-        <v>468</v>
+        <v>492</v>
       </c>
       <c r="C141" s="9">
         <v>2004</v>
@@ -4956,7 +5175,7 @@
         <v>12</v>
       </c>
       <c r="F141" s="5" t="s">
-        <v>469</v>
+        <v>493</v>
       </c>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.2">
@@ -4964,7 +5183,7 @@
         <v>190</v>
       </c>
       <c r="B142" s="4" t="s">
-        <v>470</v>
+        <v>494</v>
       </c>
       <c r="C142" s="9">
         <v>2005</v>
@@ -4976,7 +5195,7 @@
         <v>12</v>
       </c>
       <c r="F142" s="5" t="s">
-        <v>471</v>
+        <v>495</v>
       </c>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.2">
@@ -4984,7 +5203,7 @@
         <v>191</v>
       </c>
       <c r="B143" s="4" t="s">
-        <v>472</v>
+        <v>496</v>
       </c>
       <c r="C143" s="9">
         <v>1987</v>
@@ -4996,7 +5215,7 @@
         <v>12</v>
       </c>
       <c r="F143" s="11" t="s">
-        <v>553</v>
+        <v>577</v>
       </c>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.2">
@@ -5004,7 +5223,7 @@
         <v>192</v>
       </c>
       <c r="B144" s="4" t="s">
-        <v>473</v>
+        <v>497</v>
       </c>
       <c r="C144" s="9">
         <v>2004</v>
@@ -5016,7 +5235,7 @@
         <v>18</v>
       </c>
       <c r="F144" s="5" t="s">
-        <v>474</v>
+        <v>498</v>
       </c>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.2">
@@ -5024,7 +5243,7 @@
         <v>193</v>
       </c>
       <c r="B145" s="4" t="s">
-        <v>475</v>
+        <v>499</v>
       </c>
       <c r="C145" s="9">
         <v>2023</v>
@@ -5036,7 +5255,7 @@
         <v>12</v>
       </c>
       <c r="F145" s="5" t="s">
-        <v>476</v>
+        <v>500</v>
       </c>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.2">
@@ -5044,7 +5263,7 @@
         <v>194</v>
       </c>
       <c r="B146" s="4" t="s">
-        <v>477</v>
+        <v>501</v>
       </c>
       <c r="C146" s="9">
         <v>2003</v>
@@ -5056,7 +5275,7 @@
         <v>16</v>
       </c>
       <c r="F146" s="5" t="s">
-        <v>478</v>
+        <v>502</v>
       </c>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.2">
@@ -5064,7 +5283,7 @@
         <v>195</v>
       </c>
       <c r="B147" s="4" t="s">
-        <v>479</v>
+        <v>503</v>
       </c>
       <c r="C147" s="9">
         <v>2000</v>
@@ -5076,7 +5295,7 @@
         <v>16</v>
       </c>
       <c r="F147" s="5" t="s">
-        <v>480</v>
+        <v>504</v>
       </c>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.2">
@@ -5084,7 +5303,7 @@
         <v>196</v>
       </c>
       <c r="B148" s="4" t="s">
-        <v>481</v>
+        <v>505</v>
       </c>
       <c r="C148" s="9">
         <v>2003</v>
@@ -5096,7 +5315,7 @@
         <v>16</v>
       </c>
       <c r="F148" s="5" t="s">
-        <v>482</v>
+        <v>506</v>
       </c>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.2">
@@ -5104,7 +5323,7 @@
         <v>197</v>
       </c>
       <c r="B149" s="4" t="s">
-        <v>483</v>
+        <v>507</v>
       </c>
       <c r="C149" s="9">
         <v>2006</v>
@@ -5116,7 +5335,7 @@
         <v>18</v>
       </c>
       <c r="F149" s="5" t="s">
-        <v>484</v>
+        <v>508</v>
       </c>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.2">
@@ -5124,7 +5343,7 @@
         <v>198</v>
       </c>
       <c r="B150" s="4" t="s">
-        <v>485</v>
+        <v>509</v>
       </c>
       <c r="C150" s="9">
         <v>2008</v>
@@ -5136,7 +5355,7 @@
         <v>12</v>
       </c>
       <c r="F150" s="5" t="s">
-        <v>486</v>
+        <v>510</v>
       </c>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.2">
@@ -5144,7 +5363,7 @@
         <v>199</v>
       </c>
       <c r="B151" s="4" t="s">
-        <v>487</v>
+        <v>511</v>
       </c>
       <c r="C151" s="9">
         <v>2004</v>
@@ -5156,7 +5375,7 @@
         <v>16</v>
       </c>
       <c r="F151" s="5" t="s">
-        <v>488</v>
+        <v>512</v>
       </c>
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.2">
@@ -5164,7 +5383,7 @@
         <v>200</v>
       </c>
       <c r="B152" s="4" t="s">
-        <v>489</v>
+        <v>513</v>
       </c>
       <c r="C152" s="9">
         <v>2004</v>
@@ -5176,7 +5395,7 @@
         <v>12</v>
       </c>
       <c r="F152" s="5" t="s">
-        <v>490</v>
+        <v>514</v>
       </c>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.2">
@@ -5184,7 +5403,7 @@
         <v>201</v>
       </c>
       <c r="B153" s="4" t="s">
-        <v>491</v>
+        <v>515</v>
       </c>
       <c r="C153" s="9">
         <v>1999</v>
@@ -5196,7 +5415,7 @@
         <v>18</v>
       </c>
       <c r="F153" s="5" t="s">
-        <v>492</v>
+        <v>516</v>
       </c>
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.2">
@@ -5204,7 +5423,7 @@
         <v>202</v>
       </c>
       <c r="B154" s="4" t="s">
-        <v>494</v>
+        <v>518</v>
       </c>
       <c r="C154" s="9">
         <v>1981</v>
@@ -5216,7 +5435,7 @@
         <v>16</v>
       </c>
       <c r="F154" s="5" t="s">
-        <v>493</v>
+        <v>517</v>
       </c>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.2">
@@ -5224,7 +5443,7 @@
         <v>203</v>
       </c>
       <c r="B155" s="4" t="s">
-        <v>495</v>
+        <v>519</v>
       </c>
       <c r="C155" s="9">
         <v>1993</v>
@@ -5236,7 +5455,7 @@
         <v>16</v>
       </c>
       <c r="F155" s="5" t="s">
-        <v>496</v>
+        <v>520</v>
       </c>
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.2">
@@ -5244,7 +5463,7 @@
         <v>204</v>
       </c>
       <c r="B156" s="4" t="s">
-        <v>497</v>
+        <v>521</v>
       </c>
       <c r="C156" s="9">
         <v>1973</v>
@@ -5256,7 +5475,7 @@
         <v>12</v>
       </c>
       <c r="F156" s="5" t="s">
-        <v>498</v>
+        <v>522</v>
       </c>
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.2">
@@ -5264,7 +5483,7 @@
         <v>205</v>
       </c>
       <c r="B157" s="4" t="s">
-        <v>499</v>
+        <v>523</v>
       </c>
       <c r="C157" s="9">
         <v>2000</v>
@@ -5276,7 +5495,7 @@
         <v>12</v>
       </c>
       <c r="F157" s="5" t="s">
-        <v>500</v>
+        <v>524</v>
       </c>
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.2">
@@ -5284,7 +5503,7 @@
         <v>206</v>
       </c>
       <c r="B158" s="4" t="s">
-        <v>501</v>
+        <v>525</v>
       </c>
       <c r="C158" s="9">
         <v>2005</v>
@@ -5296,7 +5515,7 @@
         <v>6</v>
       </c>
       <c r="F158" s="5" t="s">
-        <v>502</v>
+        <v>526</v>
       </c>
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.2">
@@ -5304,7 +5523,7 @@
         <v>207</v>
       </c>
       <c r="B159" s="4" t="s">
-        <v>503</v>
+        <v>527</v>
       </c>
       <c r="C159" s="9">
         <v>2003</v>
@@ -5316,7 +5535,7 @@
         <v>12</v>
       </c>
       <c r="F159" s="5" t="s">
-        <v>504</v>
+        <v>528</v>
       </c>
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.2">
@@ -5324,7 +5543,7 @@
         <v>208</v>
       </c>
       <c r="B160" s="4" t="s">
-        <v>505</v>
+        <v>529</v>
       </c>
       <c r="C160" s="9">
         <v>2001</v>
@@ -5336,7 +5555,7 @@
         <v>12</v>
       </c>
       <c r="F160" s="5" t="s">
-        <v>506</v>
+        <v>530</v>
       </c>
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.2">
@@ -5344,7 +5563,7 @@
         <v>209</v>
       </c>
       <c r="B161" s="4" t="s">
-        <v>507</v>
+        <v>531</v>
       </c>
       <c r="C161" s="9">
         <v>2005</v>
@@ -5356,7 +5575,7 @@
         <v>12</v>
       </c>
       <c r="F161" s="5" t="s">
-        <v>508</v>
+        <v>532</v>
       </c>
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.2">
@@ -5364,7 +5583,7 @@
         <v>210</v>
       </c>
       <c r="B162" s="4" t="s">
-        <v>509</v>
+        <v>533</v>
       </c>
       <c r="C162" s="9">
         <v>2001</v>
@@ -5376,7 +5595,7 @@
         <v>16</v>
       </c>
       <c r="F162" s="5" t="s">
-        <v>510</v>
+        <v>534</v>
       </c>
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.2">
@@ -5384,7 +5603,7 @@
         <v>211</v>
       </c>
       <c r="B163" s="4" t="s">
-        <v>511</v>
+        <v>535</v>
       </c>
       <c r="C163" s="9">
         <v>2003</v>
@@ -5396,7 +5615,7 @@
         <v>18</v>
       </c>
       <c r="F163" s="5" t="s">
-        <v>512</v>
+        <v>536</v>
       </c>
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.2">
@@ -5404,7 +5623,7 @@
         <v>212</v>
       </c>
       <c r="B164" s="4" t="s">
-        <v>513</v>
+        <v>537</v>
       </c>
       <c r="C164" s="9">
         <v>1985</v>
@@ -5416,7 +5635,7 @@
         <v>12</v>
       </c>
       <c r="F164" s="5" t="s">
-        <v>514</v>
+        <v>538</v>
       </c>
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.2">
@@ -5424,7 +5643,7 @@
         <v>213</v>
       </c>
       <c r="B165" s="4" t="s">
-        <v>515</v>
+        <v>539</v>
       </c>
       <c r="C165" s="9">
         <v>2002</v>
@@ -5436,7 +5655,7 @@
         <v>12</v>
       </c>
       <c r="F165" s="5" t="s">
-        <v>516</v>
+        <v>540</v>
       </c>
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.2">
@@ -5444,7 +5663,7 @@
         <v>214</v>
       </c>
       <c r="B166" s="4" t="s">
-        <v>517</v>
+        <v>541</v>
       </c>
       <c r="C166" s="9">
         <v>2003</v>
@@ -5456,7 +5675,7 @@
         <v>12</v>
       </c>
       <c r="F166" s="5" t="s">
-        <v>518</v>
+        <v>542</v>
       </c>
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.2">
@@ -5464,7 +5683,7 @@
         <v>215</v>
       </c>
       <c r="B167" s="4" t="s">
-        <v>519</v>
+        <v>543</v>
       </c>
       <c r="C167" s="9">
         <v>2001</v>
@@ -5476,7 +5695,7 @@
         <v>12</v>
       </c>
       <c r="F167" s="5" t="s">
-        <v>520</v>
+        <v>544</v>
       </c>
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.2">
@@ -5484,7 +5703,7 @@
         <v>216</v>
       </c>
       <c r="B168" s="4" t="s">
-        <v>521</v>
+        <v>545</v>
       </c>
       <c r="C168" s="9">
         <v>2004</v>
@@ -5496,7 +5715,7 @@
         <v>6</v>
       </c>
       <c r="F168" s="5" t="s">
-        <v>522</v>
+        <v>546</v>
       </c>
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.2">
@@ -5504,7 +5723,7 @@
         <v>217</v>
       </c>
       <c r="B169" s="4" t="s">
-        <v>523</v>
+        <v>547</v>
       </c>
       <c r="C169" s="9">
         <v>2000</v>
@@ -5516,7 +5735,7 @@
         <v>16</v>
       </c>
       <c r="F169" s="5" t="s">
-        <v>524</v>
+        <v>548</v>
       </c>
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.2">
@@ -5524,7 +5743,7 @@
         <v>218</v>
       </c>
       <c r="B170" s="4" t="s">
-        <v>525</v>
+        <v>549</v>
       </c>
       <c r="C170" s="9">
         <v>2000</v>
@@ -5536,7 +5755,7 @@
         <v>12</v>
       </c>
       <c r="F170" s="5" t="s">
-        <v>526</v>
+        <v>550</v>
       </c>
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.2">
@@ -5544,7 +5763,7 @@
         <v>219</v>
       </c>
       <c r="B171" s="4" t="s">
-        <v>527</v>
+        <v>551</v>
       </c>
       <c r="C171" s="9">
         <v>2006</v>
@@ -5556,7 +5775,7 @@
         <v>0</v>
       </c>
       <c r="F171" s="5" t="s">
-        <v>528</v>
+        <v>552</v>
       </c>
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.2">
@@ -5564,7 +5783,7 @@
         <v>220</v>
       </c>
       <c r="B172" s="4" t="s">
-        <v>529</v>
+        <v>553</v>
       </c>
       <c r="C172" s="9">
         <v>2001</v>
@@ -5576,7 +5795,7 @@
         <v>12</v>
       </c>
       <c r="F172" s="5" t="s">
-        <v>530</v>
+        <v>554</v>
       </c>
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.2">
@@ -5584,7 +5803,7 @@
         <v>221</v>
       </c>
       <c r="B173" s="4" t="s">
-        <v>531</v>
+        <v>555</v>
       </c>
       <c r="C173" s="9">
         <v>2005</v>
@@ -5596,7 +5815,7 @@
         <v>0</v>
       </c>
       <c r="F173" s="5" t="s">
-        <v>532</v>
+        <v>556</v>
       </c>
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.2">
@@ -5604,7 +5823,7 @@
         <v>222</v>
       </c>
       <c r="B174" s="4" t="s">
-        <v>533</v>
+        <v>557</v>
       </c>
       <c r="C174" s="9">
         <v>2005</v>
@@ -5616,7 +5835,7 @@
         <v>0</v>
       </c>
       <c r="F174" s="5" t="s">
-        <v>534</v>
+        <v>558</v>
       </c>
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.2">
@@ -5624,7 +5843,7 @@
         <v>223</v>
       </c>
       <c r="B175" s="4" t="s">
-        <v>535</v>
+        <v>559</v>
       </c>
       <c r="C175" s="9">
         <v>2001</v>
@@ -5636,7 +5855,7 @@
         <v>16</v>
       </c>
       <c r="F175" s="5" t="s">
-        <v>536</v>
+        <v>560</v>
       </c>
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.2">
@@ -5644,7 +5863,7 @@
         <v>224</v>
       </c>
       <c r="B176" s="4" t="s">
-        <v>537</v>
+        <v>561</v>
       </c>
       <c r="C176" s="9">
         <v>2004</v>
@@ -5656,7 +5875,7 @@
         <v>12</v>
       </c>
       <c r="F176" s="5" t="s">
-        <v>538</v>
+        <v>562</v>
       </c>
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.2">
@@ -5664,7 +5883,7 @@
         <v>225</v>
       </c>
       <c r="B177" s="4" t="s">
-        <v>539</v>
+        <v>563</v>
       </c>
       <c r="C177" s="9">
         <v>2001</v>
@@ -5676,7 +5895,7 @@
         <v>6</v>
       </c>
       <c r="F177" s="5" t="s">
-        <v>540</v>
+        <v>564</v>
       </c>
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.2">
@@ -5684,7 +5903,7 @@
         <v>226</v>
       </c>
       <c r="B178" s="4" t="s">
-        <v>541</v>
+        <v>565</v>
       </c>
       <c r="C178" s="9">
         <v>1999</v>
@@ -5696,7 +5915,7 @@
         <v>16</v>
       </c>
       <c r="F178" s="5" t="s">
-        <v>542</v>
+        <v>566</v>
       </c>
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.2">
@@ -5704,7 +5923,7 @@
         <v>227</v>
       </c>
       <c r="B179" s="4" t="s">
-        <v>543</v>
+        <v>567</v>
       </c>
       <c r="C179" s="9">
         <v>1999</v>
@@ -5716,7 +5935,7 @@
         <v>12</v>
       </c>
       <c r="F179" s="5" t="s">
-        <v>544</v>
+        <v>568</v>
       </c>
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.2">
@@ -5724,7 +5943,7 @@
         <v>228</v>
       </c>
       <c r="B180" s="4" t="s">
-        <v>545</v>
+        <v>569</v>
       </c>
       <c r="C180" s="9">
         <v>2002</v>
@@ -5736,7 +5955,7 @@
         <v>16</v>
       </c>
       <c r="F180" s="5" t="s">
-        <v>546</v>
+        <v>570</v>
       </c>
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.2">
@@ -5744,7 +5963,7 @@
         <v>229</v>
       </c>
       <c r="B181" s="4" t="s">
-        <v>547</v>
+        <v>571</v>
       </c>
       <c r="C181" s="9">
         <v>2003</v>
@@ -5756,7 +5975,7 @@
         <v>0</v>
       </c>
       <c r="F181" s="5" t="s">
-        <v>548</v>
+        <v>572</v>
       </c>
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.2">
@@ -5764,7 +5983,7 @@
         <v>230</v>
       </c>
       <c r="B182" s="4" t="s">
-        <v>549</v>
+        <v>573</v>
       </c>
       <c r="C182" s="9">
         <v>2005</v>
@@ -5776,7 +5995,7 @@
         <v>12</v>
       </c>
       <c r="F182" s="5" t="s">
-        <v>550</v>
+        <v>574</v>
       </c>
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.2">
@@ -5784,7 +6003,7 @@
         <v>231</v>
       </c>
       <c r="B183" s="4" t="s">
-        <v>551</v>
+        <v>575</v>
       </c>
       <c r="C183" s="9">
         <v>2004</v>
@@ -5796,11 +6015,501 @@
         <v>6</v>
       </c>
       <c r="F183" s="5" t="s">
-        <v>552</v>
+        <v>576</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A184" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="B184" s="4" t="s">
+        <v>594</v>
+      </c>
+      <c r="C184" s="9">
+        <v>2011</v>
+      </c>
+      <c r="D184" s="9">
+        <v>90</v>
+      </c>
+      <c r="E184" s="9">
+        <v>16</v>
+      </c>
+      <c r="F184" s="5" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A185" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="B185" s="4" t="s">
+        <v>611</v>
+      </c>
+      <c r="C185" s="9">
+        <v>2007</v>
+      </c>
+      <c r="D185" s="9">
+        <v>106</v>
+      </c>
+      <c r="E185" s="9">
+        <v>16</v>
+      </c>
+      <c r="F185" s="5" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A186" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="B186" s="4" t="s">
+        <v>600</v>
+      </c>
+      <c r="C186" s="9">
+        <v>2001</v>
+      </c>
+      <c r="D186" s="9">
+        <v>87</v>
+      </c>
+      <c r="E186" s="9">
+        <v>16</v>
+      </c>
+      <c r="F186" s="5" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A187" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="B187" s="4" t="s">
+        <v>578</v>
+      </c>
+      <c r="C187" s="9">
+        <v>1994</v>
+      </c>
+      <c r="D187" s="9">
+        <v>90</v>
+      </c>
+      <c r="E187" s="9">
+        <v>0</v>
+      </c>
+      <c r="F187" s="5" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A188" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="B188" s="4" t="s">
+        <v>625</v>
+      </c>
+      <c r="C188" s="9">
+        <v>2009</v>
+      </c>
+      <c r="D188" s="9">
+        <v>158</v>
+      </c>
+      <c r="E188" s="9">
+        <v>12</v>
+      </c>
+      <c r="F188" s="5" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A189" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="B189" s="4" t="s">
+        <v>609</v>
+      </c>
+      <c r="C189" s="9">
+        <v>2010</v>
+      </c>
+      <c r="D189" s="9">
+        <v>153</v>
+      </c>
+      <c r="E189" s="9">
+        <v>12</v>
+      </c>
+      <c r="F189" s="5" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A190" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="B190" s="4" t="s">
+        <v>592</v>
+      </c>
+      <c r="C190" s="9">
+        <v>1986</v>
+      </c>
+      <c r="D190" s="9">
+        <v>117</v>
+      </c>
+      <c r="E190" s="9">
+        <v>16</v>
+      </c>
+      <c r="F190" s="5" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="191" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A191" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="B191" s="4" t="s">
+        <v>580</v>
+      </c>
+      <c r="C191" s="9">
+        <v>2007</v>
+      </c>
+      <c r="D191" s="9">
+        <v>101</v>
+      </c>
+      <c r="E191" s="9">
+        <v>12</v>
+      </c>
+      <c r="F191" s="5" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="192" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A192" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="B192" s="4" t="s">
+        <v>613</v>
+      </c>
+      <c r="C192" s="9">
+        <v>2008</v>
+      </c>
+      <c r="D192" s="9">
+        <v>93</v>
+      </c>
+      <c r="E192" s="9">
+        <v>12</v>
+      </c>
+      <c r="F192" s="5" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="193" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A193" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="B193" s="4" t="s">
+        <v>615</v>
+      </c>
+      <c r="C193" s="9">
+        <v>2012</v>
+      </c>
+      <c r="D193" s="9">
+        <v>98</v>
+      </c>
+      <c r="E193" s="9">
+        <v>16</v>
+      </c>
+      <c r="F193" s="5" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="194" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A194" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="B194" s="4" t="s">
+        <v>617</v>
+      </c>
+      <c r="C194" s="9">
+        <v>2014</v>
+      </c>
+      <c r="D194" s="9">
+        <v>115</v>
+      </c>
+      <c r="E194" s="9">
+        <v>16</v>
+      </c>
+      <c r="F194" s="5" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="195" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A195" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="B195" s="4" t="s">
+        <v>623</v>
+      </c>
+      <c r="C195" s="9">
+        <v>1968</v>
+      </c>
+      <c r="D195" s="9">
+        <v>164</v>
+      </c>
+      <c r="E195" s="9">
+        <v>12</v>
+      </c>
+      <c r="F195" s="5" t="s">
+        <v>624</v>
+      </c>
+      <c r="G195" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="196" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A196" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="B196" s="4" t="s">
+        <v>603</v>
+      </c>
+      <c r="C196" s="9">
+        <v>2012</v>
+      </c>
+      <c r="D196" s="9">
+        <v>110</v>
+      </c>
+      <c r="E196" s="9">
+        <v>12</v>
+      </c>
+      <c r="F196" s="5" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="197" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A197" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="B197" s="4" t="s">
+        <v>605</v>
+      </c>
+      <c r="C197" s="9">
+        <v>2014</v>
+      </c>
+      <c r="D197" s="9">
+        <v>112</v>
+      </c>
+      <c r="E197" s="9">
+        <v>12</v>
+      </c>
+      <c r="F197" s="5" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="198" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A198" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="B198" s="4" t="s">
+        <v>598</v>
+      </c>
+      <c r="C198" s="9">
+        <v>1952</v>
+      </c>
+      <c r="D198" s="9">
+        <v>85</v>
+      </c>
+      <c r="E198" s="9">
+        <v>12</v>
+      </c>
+      <c r="F198" s="5" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="199" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A199" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="B199" s="4" t="s">
+        <v>621</v>
+      </c>
+      <c r="C199" s="9">
+        <v>1975</v>
+      </c>
+      <c r="D199" s="9">
+        <v>132</v>
+      </c>
+      <c r="E199" s="9">
+        <v>12</v>
+      </c>
+      <c r="F199" s="5" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="200" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A200" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="B200" s="4" t="s">
+        <v>590</v>
+      </c>
+      <c r="C200" s="9">
+        <v>2012</v>
+      </c>
+      <c r="D200" s="9">
+        <v>110</v>
+      </c>
+      <c r="E200" s="9">
+        <v>16</v>
+      </c>
+      <c r="F200" s="5" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="201" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A201" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="B201" s="4" t="s">
+        <v>596</v>
+      </c>
+      <c r="C201" s="9">
+        <v>1995</v>
+      </c>
+      <c r="D201" s="9">
+        <v>131</v>
+      </c>
+      <c r="E201" s="9">
+        <v>16</v>
+      </c>
+      <c r="F201" s="5" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="202" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A202" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="B202" s="4" t="s">
+        <v>607</v>
+      </c>
+      <c r="C202" s="9">
+        <v>2013</v>
+      </c>
+      <c r="D202" s="9">
+        <v>128</v>
+      </c>
+      <c r="E202" s="9">
+        <v>12</v>
+      </c>
+      <c r="F202" s="5" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="203" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A203" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="B203" s="4" t="s">
+        <v>619</v>
+      </c>
+      <c r="C203" s="9">
+        <v>2015</v>
+      </c>
+      <c r="D203" s="9">
+        <v>91</v>
+      </c>
+      <c r="E203" s="9">
+        <v>16</v>
+      </c>
+      <c r="F203" s="5" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="204" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A204" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="B204" s="4" t="s">
+        <v>582</v>
+      </c>
+      <c r="C204" s="9">
+        <v>1994</v>
+      </c>
+      <c r="D204" s="9">
+        <v>90</v>
+      </c>
+      <c r="E204" s="9">
+        <v>12</v>
+      </c>
+      <c r="F204" s="5" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="205" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A205" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="B205" s="4" t="s">
+        <v>584</v>
+      </c>
+      <c r="C205" s="9">
+        <v>1995</v>
+      </c>
+      <c r="D205" s="9">
+        <v>88</v>
+      </c>
+      <c r="E205" s="9">
+        <v>12</v>
+      </c>
+      <c r="F205" s="5" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="206" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A206" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="B206" s="4" t="s">
+        <v>586</v>
+      </c>
+      <c r="C206" s="9">
+        <v>1998</v>
+      </c>
+      <c r="D206" s="9">
+        <v>94</v>
+      </c>
+      <c r="E206" s="9">
+        <v>16</v>
+      </c>
+      <c r="F206" s="5" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="207" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A207" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="B207" s="4" t="s">
+        <v>588</v>
+      </c>
+      <c r="C207" s="9">
+        <v>2019</v>
+      </c>
+      <c r="D207" s="9">
+        <v>128</v>
+      </c>
+      <c r="E207" s="9">
+        <v>16</v>
+      </c>
+      <c r="F207" s="5" t="s">
+        <v>589</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:F207">
+    <sortCondition ref="A3:A207"/>
+  </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <ignoredErrors>
+    <ignoredError sqref="B184" twoDigitTextYear="1"/>
+    <ignoredError sqref="B188 A2 A1 A3:A1048576" numberStoredAsText="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>
--- a/Web-Tools/MB Video-Base/MB Video-Base.xlsx
+++ b/Web-Tools/MB Video-Base/MB Video-Base.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mario/Documents/GitHub/homepage/Web-Tools/MB Video-Base/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1D02D36-BE2F-F54E-A335-AE509AED1C24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE094FD0-217A-FA4B-B484-DE1BC65014D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="740" windowWidth="30240" windowHeight="18900" xr2:uid="{6AEA2D50-42AE-224B-8400-6BD6B3C7B91A}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="627" uniqueCount="627">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="942" uniqueCount="940">
   <si>
     <t>Hulk</t>
   </si>
@@ -734,30 +734,150 @@
     <t>0182</t>
   </si>
   <si>
+    <t>0188</t>
+  </si>
+  <si>
     <t>0218</t>
   </si>
   <si>
+    <t>0237</t>
+  </si>
+  <si>
+    <t>0259</t>
+  </si>
+  <si>
+    <t>0284</t>
+  </si>
+  <si>
+    <t>0297</t>
+  </si>
+  <si>
     <t>0298</t>
   </si>
   <si>
+    <t>0300</t>
+  </si>
+  <si>
+    <t>0306</t>
+  </si>
+  <si>
+    <t>0317</t>
+  </si>
+  <si>
+    <t>0322</t>
+  </si>
+  <si>
+    <t>0328</t>
+  </si>
+  <si>
+    <t>0331</t>
+  </si>
+  <si>
+    <t>0332</t>
+  </si>
+  <si>
+    <t>0333</t>
+  </si>
+  <si>
+    <t>0334</t>
+  </si>
+  <si>
+    <t>0335</t>
+  </si>
+  <si>
+    <t>0354</t>
+  </si>
+  <si>
+    <t>0369</t>
+  </si>
+  <si>
+    <t>0370</t>
+  </si>
+  <si>
+    <t>0396</t>
+  </si>
+  <si>
+    <t>0402</t>
+  </si>
+  <si>
     <t>0441</t>
   </si>
   <si>
     <t>0492</t>
   </si>
   <si>
+    <t>0500</t>
+  </si>
+  <si>
+    <t>0501</t>
+  </si>
+  <si>
+    <t>0533</t>
+  </si>
+  <si>
+    <t>0540</t>
+  </si>
+  <si>
+    <t>0614</t>
+  </si>
+  <si>
     <t>0621</t>
   </si>
   <si>
+    <t>0624</t>
+  </si>
+  <si>
+    <t>0639</t>
+  </si>
+  <si>
     <t>0663</t>
   </si>
   <si>
+    <t>0677</t>
+  </si>
+  <si>
+    <t>0679</t>
+  </si>
+  <si>
     <t>0703</t>
   </si>
   <si>
+    <t>0712</t>
+  </si>
+  <si>
     <t>0717</t>
   </si>
   <si>
+    <t>0718</t>
+  </si>
+  <si>
+    <t>0794</t>
+  </si>
+  <si>
+    <t>0800</t>
+  </si>
+  <si>
+    <t>0845</t>
+  </si>
+  <si>
+    <t>0849</t>
+  </si>
+  <si>
+    <t>0850</t>
+  </si>
+  <si>
+    <t>0851</t>
+  </si>
+  <si>
+    <t>0863</t>
+  </si>
+  <si>
+    <t>0864</t>
+  </si>
+  <si>
+    <t>0913</t>
+  </si>
+  <si>
     <t>0918</t>
   </si>
   <si>
@@ -767,9 +887,42 @@
     <t>0932</t>
   </si>
   <si>
+    <t>0935</t>
+  </si>
+  <si>
+    <t>0941</t>
+  </si>
+  <si>
+    <t>0944</t>
+  </si>
+  <si>
+    <t>0954</t>
+  </si>
+  <si>
+    <t>0960</t>
+  </si>
+  <si>
+    <t>0962</t>
+  </si>
+  <si>
+    <t>0966</t>
+  </si>
+  <si>
+    <t>0972</t>
+  </si>
+  <si>
+    <t>0974</t>
+  </si>
+  <si>
     <t>0980</t>
   </si>
   <si>
+    <t>0983</t>
+  </si>
+  <si>
+    <t>0984</t>
+  </si>
+  <si>
     <t>1003</t>
   </si>
   <si>
@@ -785,15 +938,69 @@
     <t>1054</t>
   </si>
   <si>
+    <t>1055</t>
+  </si>
+  <si>
     <t>1066</t>
   </si>
   <si>
+    <t>1100</t>
+  </si>
+  <si>
+    <t>1102</t>
+  </si>
+  <si>
+    <t>1103</t>
+  </si>
+  <si>
+    <t>1104</t>
+  </si>
+  <si>
+    <t>1105</t>
+  </si>
+  <si>
+    <t>1123</t>
+  </si>
+  <si>
+    <t>1124</t>
+  </si>
+  <si>
+    <t>1125</t>
+  </si>
+  <si>
+    <t>1126</t>
+  </si>
+  <si>
     <t>1163</t>
   </si>
   <si>
+    <t>1179</t>
+  </si>
+  <si>
+    <t>1181</t>
+  </si>
+  <si>
+    <t>1183</t>
+  </si>
+  <si>
+    <t>1199</t>
+  </si>
+  <si>
+    <t>1225</t>
+  </si>
+  <si>
+    <t>1228</t>
+  </si>
+  <si>
     <t>1229</t>
   </si>
   <si>
+    <t>1241</t>
+  </si>
+  <si>
+    <t>1244</t>
+  </si>
+  <si>
     <t>1267</t>
   </si>
   <si>
@@ -803,9 +1010,117 @@
     <t>1269</t>
   </si>
   <si>
+    <t>1272</t>
+  </si>
+  <si>
+    <t>1300</t>
+  </si>
+  <si>
+    <t>1329</t>
+  </si>
+  <si>
+    <t>1338</t>
+  </si>
+  <si>
+    <t>1339</t>
+  </si>
+  <si>
+    <t>1341</t>
+  </si>
+  <si>
+    <t>1350</t>
+  </si>
+  <si>
+    <t>1351</t>
+  </si>
+  <si>
+    <t>1360</t>
+  </si>
+  <si>
+    <t>1364</t>
+  </si>
+  <si>
+    <t>1398</t>
+  </si>
+  <si>
+    <t>1415</t>
+  </si>
+  <si>
+    <t>1416</t>
+  </si>
+  <si>
+    <t>1440</t>
+  </si>
+  <si>
+    <t>1498</t>
+  </si>
+  <si>
+    <t>1499</t>
+  </si>
+  <si>
+    <t>1522</t>
+  </si>
+  <si>
+    <t>1524</t>
+  </si>
+  <si>
+    <t>1527</t>
+  </si>
+  <si>
+    <t>1528</t>
+  </si>
+  <si>
+    <t>1529</t>
+  </si>
+  <si>
+    <t>1531</t>
+  </si>
+  <si>
+    <t>1532</t>
+  </si>
+  <si>
+    <t>1533</t>
+  </si>
+  <si>
+    <t>1549</t>
+  </si>
+  <si>
+    <t>1560</t>
+  </si>
+  <si>
+    <t>1584</t>
+  </si>
+  <si>
+    <t>1587</t>
+  </si>
+  <si>
+    <t>1597</t>
+  </si>
+  <si>
+    <t>1616</t>
+  </si>
+  <si>
+    <t>1626</t>
+  </si>
+  <si>
+    <t>1627</t>
+  </si>
+  <si>
+    <t>1629</t>
+  </si>
+  <si>
+    <t>1631</t>
+  </si>
+  <si>
+    <t>1633</t>
+  </si>
+  <si>
     <t>1634</t>
   </si>
   <si>
+    <t>1652</t>
+  </si>
+  <si>
     <t>Nicht Auflegen</t>
   </si>
   <si>
@@ -1917,6 +2232,630 @@
   </si>
   <si>
     <t xml:space="preserve">2012 endet nach dem Kalender der Maya ein Zeitalter und die bekannte Welt wird in einer Katastrophe untergehen. Während Experten nach einem Ausweg suchen und die US-Regierung bereits einen geheimen Plan für die Rettung eines Teils der Menschheit erstellt, sind sich normale Bürger wie Jackson Curtis der nahenden Naturkatastrophe nicht bewusst. Die Begegnung mit dem Wissenschaftler Charlie Frost, der die Anzeichen für das bevorstehende Weltende dokumentiert, nimmt Curtis zunächst nicht ernst. Doch schon bald mehren sich die Vorzeichen und Curtis wird klar, dass ein wenig aussichtsreicher Kampf ums Überleben begonnen hat. </t>
+  </si>
+  <si>
+    <t>A Hard Day's Night</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wir schreiben das Jahr 1964 und vier junge Typen aus Liverpool sind kurz davor, die Welt zu verändern - wenn die völlig durchgedrehte Welt sie nur unerkannt aus ihren Hotelzimmern entkommen ließe Richard Lesters frech-zeitgenössische Rock-’n’-Roll-Komödie stößt die Jungs, die als The Beatles auftreten, in einen Strudel von kreischenden Fans, paranoiden Produzenten, fanatischen Journalisten und nervenden Familienangehörigen... </t>
+  </si>
+  <si>
+    <t>A Million Ways To Die In The West</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Was tun, wenn es einen ganzen Kerl bräuchte, um die Frau seiner Träume zurückzugewinnen, aber man doch eher nur zum halben Hahn taugt? Genau dieser Frage muss sich der einfache Schaf-Farmer Albert stellen, nachdem seine Freundin ihn verlassen hat, nur weil er einem bevorstehenden Duell durch Flucht entwich. Albert erhält die einzig wahre Antwort auf diese elementare Frage in Form einer taffen Frau, die sich ihm als Nachhilfelehrerin in Sachen Wilder Westen anbietet. Als Frau des skrupellosen Outlaws Clinch kennt sie sich darin bestens aus. Nachdem dieser jedoch hinter den Deal gekommen ist, ist es an Albert zu zeigen, was er an Lektionen bereits gelernt hat. Und die erste ist ganz klar: Es gibt eine Millionen Wege im Wilden Westen zu sterben </t>
+  </si>
+  <si>
+    <t>A Night At The Roxbury</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Es sieht so aus, als ob Steve und Doug Butabi niemals cool genug sein werden, um es auf die Gästeliste des Roxbury Clubs zu schaffen. Das ändert sich schlagartig nach einem Autounfall mit ihrem Vorbild, dem Clubstammgast Richard Grieco. Um deswegen nicht in Schwierigkeiten zu kommen, freundet er sich mit den beiden VIP-Bewunderern an. Grieco führt sie in die Glitzerwelt ein, von der sie bisher nur zu träumen wagten. Volltreffer </t>
+  </si>
+  <si>
+    <t>A Star Is Born</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jackson Maines Country-Karriere befindet sich am Tiefpunkt, als er eine begabte Unbekannte namens Ally entdeckt. Die beiden beginnen eine leidenschaftliche Liebesbeziehung und Jack drängt Ally ins Rampenlicht, wo sie über Nacht zum Star aufsteigt. Als Allys Karriere Jack bald in den Schatten stellt, fällt es ihm zunehmend schwerer, sich mit seinem verblassenden Ruhm abzufinden. </t>
+  </si>
+  <si>
+    <t>A World Beyond</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Die junge, clevere Casey Newton interessiert sich sehr für Wissenschaft. Eines Tages findet sie eine mysteriöse Anstecknadel, die sie Visionen von einer anderen Welt bekommen lässt, und lernt den einst genialen Erfinder Frank Walker kennen. Walker hat jedoch seine frühere Klasse verloren und ist stark desillusioniert. Der Hauptgrund dafür ist, dass er eine Art von Parallel-Universum, das Tomorrowland genannt wird, verlassen musste. Dies traf ihn besonders schwer, da es dort keinerlei Sorgen gab, sondern Frieden und Glückseligkeit herrschten. Nach seinem erzwungenen Abschied aus der Parallelwelt hat David Nix dort die Herrschaft übernommen und die wunderbare Welt in etwas Dunkles und Böses verwandelt. Gemeinsam wollen das Mädchen und der Erfinder nach Tomorrowland zurückkehren, um es zu dem blühenden Ort zu machen, der es einst war. </t>
+  </si>
+  <si>
+    <t>Abgezockt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">An einem Wochenende versuchen drei Bank-Angestellte unabhängig voneinander die Desert Savings Bank, in welcher sie alle angestellt sind, auszurauben. Jeder verfolgt dabei ganz eigene Ziele. </t>
+  </si>
+  <si>
+    <t>About A Boy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Will Freeman wird von all seinen Geschlechtsgenossen beneidet - er fährt ein schnelles Auto, genießt seine Affären und kann mit 38 ohne jede Verantwortung in den Tag hinein leben... Seine neue Taktik für den Frauenfang ist der Besuch von Selbsthilfegruppen für allein erziehende Mütter und Väter, denn das ist genau der richtige Ort um auf einsame Frauen zu treffen. Doch dann begegnet Will Marcus. Dieser ungewöhnliche Zwölfjährige bringt sein Leben völlig durcheinander - mit äußerst amüsanten Folgen. </t>
+  </si>
+  <si>
+    <t>Abraham Lincoln - Vampirjäger</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Als Neunjähriger wird Abraham Lincoln Zeuge, wie ein Vampir seine geliebte Mutter ermordet. Angetrieben von schwelenden Rachegedanken, entwickelt sich Abe als junger Mann unter den Fittichen des geheimnisvollen Henry Sturgess zum Axt schwingenden Vampirjäger, der die Bestien über seine versilberte Klinge springen lässt. Lincoln steigt in die Politik ein, wird 16. Präsident der Vereinigten Staaten und gewinnt im Bürgerkrieg gegen die Südstaaten, die mit den Blutsaugern gemeinsame Sache machen. </t>
+  </si>
+  <si>
+    <t>Abraham Lincoln Vs. Zombies</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Der Bürgerkrieg ist in vollem Gange. Doch dieser ist noch das kleinere Übel das Präsident Abraham Lincoln hat. Eine gewaltige Armee von Untoten droht seine gesamten Pläne zu zerstören. Nun muss Lincoln schnell handeln, um die Zombies noch rechtzeitig von der Erdoberfläche zu fegen. </t>
+  </si>
+  <si>
+    <t>Ace Ventura 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nach dem tragischen Unfall eines Klienten hat sich Tierdetektiv Ace Ventura zum Meditieren in ein tibetanisches Kloster zurückgezogen. Doch schon bald muss der gefragte Schnüffler seine spirituelle Enklave wieder verlassen, um im tiefsten Afrika eine entführte Albino-Fledermaus auftreiben - immerhin steht der Friede zwischen zwei Urwaldstämmen auf dem Spiel. Nach einigen haarsträubenden Dschungelerlebnissen macht der Meisterdetektiv die Gauner dingfest. </t>
+  </si>
+  <si>
+    <t>Ach Egon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Der Kinderarzt Waldemar Weber ist verzweifelt Ausgerechnet für seinen ersten Hochzeitstag hat sich sein Adoptivsohn Egon aus erster Ehe zu Besuch angekündigt, den Waldemar seiner jungen Gattin Henny stets verschwiegen hat. Waldemar muss Egon unbedingt abfangen. Als Egon dann doch vor der Tür steht, stellt der sich außerdem als Affendompteur heraus. Er hat auch noch seine Schimpansen Kiki, Koko und Kaka mitgebracht. Waldemar hat alle Hände voll zu tun, um Egons Existenz zu erklären und die Schimpansen vor seiner misstrauischen Frau zu verstecken. Aber ob der Schlafzimmerschrank wirklich das geeignete Versteck ist? </t>
+  </si>
+  <si>
+    <t>Action Point</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Der verrückte D.C. betreibt einen Vergnügungspark, in dem die Attraktionen und einzelnen Fahrten auf den maximalen Spaß der Besucher ausgelegt sind, auch wenn das auf Kosten der Sicherheit geht. Zudem beschäftigt er völlig ungeeignetes Personal, das unqualifiziert und bei der Arbeit nie ganz nüchtern ist. Gerade als D.C.s Tochter Boogie, die er lange nicht gesehen hat, zu Besuch kommt, macht nebenan ein todschicker, riesengroßer neuer Mega-Funpark auf und gegen den sieht D.C.s heruntergekommener Action Point halt leider verdammt alt aus. Der exzentrische Parkchef versucht daraufhin unterstützt von einer Gruppe ebenso durchgeknallter Freunde seinen Park zu retten, und nebenbei auch das Verhältnis zu seiner Tochter Boogie... </t>
+  </si>
+  <si>
+    <t>Adaline</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1933 hörte Adaline Bowman auf, zu altern. Sie war 29 und ein Unfall bewirkte, dass sie 29 blieb. Die folgenden 80 Jahre waren einsam. Adaline verzichtete auf eine der wichtigsten Erfahrungen, Quelle von Kraft und Glück - die Liebe. Nie in dieser langen Zeit erlaubte sie sich, jemandem nahe zu kommen, immer war die Angst zu groß, dass ihr Geheimnis enthüllt wird. Doch dann katalysiert eine Zufallsbegegnung den Sinneswandel. Mit dem sympathischen Philanthropen Ellis Jones lernt Adaline einen Mann kennen, der ihr lange unterdrücktes Verlangen nach Liebe weckt. Soll sie seinetwegen mit ihrer Regel brechen? Soll sie ihm von ihrem außergewöhnlichen Zustand erzählen? Als auf einem Wochenende mit Ellis' Eltern William und Kathy die Wahrheit ans Licht zu kommen droht, trifft Adaline eine Entscheidung von großer Konsequenz... </t>
+  </si>
+  <si>
+    <t>Aeon Flux</t>
+  </si>
+  <si>
+    <t xml:space="preserve">400 Jahre in der Zukunft, genauer im Jahre 2415, ist Æon Flux eine mysteriöse Attentäterin. Vier Jahrhunderte nach einem Virus, der fast die gesamte menschliche Rasse ausgelöscht hat, leben 5 Millionen Menschen in einer utopischen Stadt genannt Bregna. Æon kämpft um das Goodchild Regime zu vernichten, dass von ihrem Namensvetter und Herrschers von Bregna, Trevor Goodchild angeführt wird. Æon versucht Trevor Goodchild zu töten, doch kurz bevor offenbaren sich weitere Geheimnisse die entdeckt werden müssen und Verschwörungen die vereitelt werden müssen. </t>
+  </si>
+  <si>
+    <t>Akira</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tokio 1988. In einem Geheimlabor der Armee wird mit Kindern, die über PSI-Fähigkeiten verfügen, experimentiert. Doch die Tests geraten außer Kontrolle, die nur noch mit dem Abwurf einer Atombombe gestoppt werden können. 31 Jahre später. Eine Motorradgang, angeführt von Kaneda, durchstreift Neo-Tokio auf der Suche nach Action. Ungewollt gerät sie an ein Geheimnis, das die gesamte Menschheit bedroht. </t>
+  </si>
+  <si>
+    <t>Aladdin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Der Straßendieb Aladdin macht am liebsten mit seinem Affen Abu die Straßen von Agrabah unsicher. Auf den Basaren der Stadt ist kein noch so wertvoll aussehender Gegenstand vor ihm sicher. Doch er möchte dieses Leben als kleiner Gauner gerne hinter sich lassen, da er der festen Überzeugung ist, zu etwas Größerem bestimmt zu sein. Bei seinen Streifzügen lernt er eines Tages die Prinzessin Jasmin kennen. Um sich in der Öffentlichkeit unerkannt bewegen zu können, verkleidet sich die Prinzessin und hat so auch die Möglichkeit, mit den Bewohnern ihrer Stadt in Kontakt zu treten. Nachdem sich Aladdin unsterblich in sie verliebt, setzt er alles daran, sie wiederzusehen - und das ist gar nicht so einfach. Er wird schließlich bei dem Versuch, die Mauern ihres Palastes zu überbrücken, erwischt und landet kurzerhand im Kerker. Da tritt der zwielichtige Jafar auf den Plan... </t>
+  </si>
+  <si>
+    <t>Ali Baba Und Die 40 Räuber</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Der grausame Mongolenherrscher Hulagu Khan tötet die Kalifenfamilie, um über Bagdad allein zu herrschen. Der 12-jährige Ali - Sohn des Kalifen - kann sich jedoch retten. Er wird von dem Räuberhauptmann Baba adoptiert und aufgezogen. Es steht für Ali fest, dass er den Mörder umbringen wird, der seinen Vater ermordet hat... </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nahe der Stadt Guljabad treiben Räuber ihr Unwesen. Die Lage wird für die Stadt immer bedrohlicher, denn die Karawanen meiden die Gegend, so dass die Versorgungslage kritisch wird. Unterdessen befindet sich die Karawane eines Kaufmanns auf dem Weg nach Guljabad, wo ihn seine Frau und dessen Söhne, Ali Baba und Kassym, bereits erwarten. Sie rasten am Damm des Stausees, als plötzlich Räuber auftauchen und den Damm, der die Wasserversorgung der Stadt sichert, sprengen. </t>
+  </si>
+  <si>
+    <t>Alice</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Das Wunderland hat sich mit dem falschen Mädchen angelegt Als Alice zehn Jahre alt war, hat ihr Vater die Familie über Nacht verlassen. Dieses einschneidende Erlebnis hatte zur Folge, dass Alice seither zu keinem Mann mehr Vertrauen fassen kann - auch nicht zu Jack. Als dieser nun Alice einen Ring schenken möchte, überkommt sie Panik, und sie schickt ihn fort. Kurz darauf wird Jack wie aus heiterem Himmel von ein paar dunklen Gestalten entführt. Alice nimmt die Verfolgung auf - und landet, einem weißen Kaninchen durch einen Spiegel folgend, im Wunderland. </t>
+  </si>
+  <si>
+    <t>Alice - The Darker Side Of The Mirror</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Die wohlhabende Alice trifft im Park des Herrenhauses ihrer Eltern auf einen geheimnisvollen Mann, der ihr Zeichen gibt ihr zu folgen. Er verschwindet dann plötzlich in einem Kaninchenbau und Alice folgt ihm aus einem Impuls heraus und krabbelt auch hinein. Gleich darauf verliert sie das Bewusstsein und findet sich danach im Untergrund des Pazifischen Nordwestens von 1905 wieder. Hier trifft sie auf allerhand seltsame Gestalten: Allen voran ein verrückter Doktor, der auch mit Alice äußerst eigenartige Experimente machen will. Wird Alice einen Weg zurück in die Realität finden oder wird sie die Parallelwelt in den Wahnsinn treiben? </t>
+  </si>
+  <si>
+    <t>Alice Im Wunderland 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nach vielen Jahren kehrt die inzwischen 19-jährige Alice zurück ins Wunderland, einem faszinierenden Ort jenseits aller Vorstellungskraft. Dort trifft sie auf viele außergewöhnliche Charaktere wie den verrückten Hutmacher, die weiße und rote Königin, sowie das weiße Kaninchen. Auf ihrer unglaublichen Reise durch diese zauberhafte Welt findet Alice heraus, wer sie wirklich ist. </t>
+  </si>
+  <si>
+    <t>Alice Im Wunderland 2 - Hinter Den Spiegeln</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alice Kingsleigh hat die letzten Jahre damit zugebracht, in die Fußstapfen ihres Vaters zu treten und über die sieben Weltmeere zu segeln. Wieder zurück in London findet sie einen magischen Spiegel und kehrt in die fantastische Welt von Unterland zurück. Dort trifft sie auf alte Bekannte: das weiße Kaninchen, Absolem, die Grinsekatze und natürlich den verrückten Hutmacher, der aber nicht mehr er selbst ist - er hat sein Mehrsein verloren. Um ihn zu retten, schickt die weiße Königin Alice los, nach der Chronosphäre zu suchen, einer Metallkugel im Inneren der Grossen Uhr, von der alle Zeit ausgeht. Auf ihrer Reise in die Vergangenheit trifft Alice auf Freunde - und Feinde - in verschiedenen Stadien ihres Lebens. Es ist ein gefahrenvoller Wettlauf mit der Zeit, um den verrückten Hutmacher zu retten, bevor sein letztes Stündlein geschlagen hat... im wahrsten Sinne des Wortes </t>
+  </si>
+  <si>
+    <t>Alien 2103 - Covenant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Der fremde Planet, den die Crew des Kolonisationsraumschiffs Covenant erforscht, wirkt paradiesisch: Doch als die Terraforming-Spezialistin Daniels und ihre Kollegen, darunter der Android Walter, Christopher und Tennessee, durch die bergige, bewaldete Landschaft laufen, fällt ihnen vor allem die merkwürdige, beunruhigende Stille auf: Kein Vogel ist zu hören - und auch kein anderes Tier. Bald schon merken die Entdecker, dass sie auf einem Planeten gelandet sind, der lebensfeindlicher kaum sein könnte. Blitzschnelle, hochintelligente und Säure-spritzende Aliens überfallen die Covenant-Crew, töten ein Mitglied nach dem anderen. Und dem Rest der Gruppe wird klar: So weit weg von der Heimat sind sie komplett auf sich allein gestellt... </t>
+  </si>
+  <si>
+    <t>Alien Domicile - Battlefield Area 51</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nach Jahrzehnten strikter Geheimhaltung und wilder Verschwörungstheorien bestätigt die CIA endlich die Existenz der Militärbasis "Area 51". Was auf dem rätselhaften Gelände vor sich geht, bleibt jedoch nach wie vor streng geheim - bis plötzlich eine bunt gemischte Gruppe aus Militaristen, Staatsbediensteten und Technikern mitten in das unbekannte Areal geschickt wird. Sergeant Ryan Pierce führt seine Spezialeinheit direkt in eine blutige Konfrontation mit etwas unvorstellbar Grauenhaftem. </t>
+  </si>
+  <si>
+    <t>Alien Jäger - Mysterium In Der Antarktis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Die NASA unterhält in der Antarktis ein Labor, dessen Mitarbeiter ein Objekt im Eis finden. Als sie das Objekt in einem Eisblock in der Station untersuchen wollen, beginnt es trotz Kühlung aufzutauen. Die außerirdische Kapsel beginnt, ähnliche Signale wie jene, die man 1947 in Roswell fand, zu senden. Der Kryptologe Julian Rome, der früher für SETI arbeitete, wird mit der Dechiffrierung der Signale beauftragt. Die Kapsel wird geöffnet, wobei die Labormitarbeiter einer Infektion zum Opfer fallen. In der Kapsel befand sich ein außerirdischer Pilot. Ein U-Boot wird beauftragt, das Labor zu zerstören, um die Ausbreitung der Seuche zu verhindern. </t>
+  </si>
+  <si>
+    <t>Alien Predator</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ein Aufklärungsteam der Black Ops wird beauftragt, den Absturz eines nicht identifizierten Flugzeugs zu untersuchen. Als sie ankommen, finden sie merkwürdige Markierungen und Rückstände, die nur im Infrarot sichtbar sind. Als das Team tiefer eindringt und versucht, die Quelle der Markierungen herauszufinden, entdecken sie, dass sie von einer außerirdischen Expedition gejagt werden. </t>
+  </si>
+  <si>
+    <t>Alita - Battle Angel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Auf der Erde sind im 26. Jahrhundert 300 Jahre nach dem großen Krieg die gesellschaftlichen Systeme zerfallen. Bei seiner Suche nach Cyborg-Technologie rettet der mysteriöse Wissenschaftler Dr. Ido aus einem Schrotthaufen eine weibliche Cyborg. Er flickt die künstliche Frau, deren Körper bis auf ihr menschliches Gehirn aus Maschinenteilen besteht, wieder zusammen, und wird zu einer Art Ersatzvater für sie. Doch Alita ist ein gefährliches Wesen. Sie kann sich nicht erinnern, wer sie ist oder woher sie kommt. Dr. Ido jedoch glaubt, dass sie diejenige ist, die den Kreislauf von Tod und Zerstörung, der von Tiphares zurückgelassen wurde, durchbrechen kann. Um ihrer wahren Bestimmung zu folgen, muss Alita kämpfen und töten. Als ein Geschenk des Himmels ist sie doch auch ein Engel des Todes. </t>
+  </si>
+  <si>
+    <t>All Inclusive</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Klares Wasser, weißer Sandstrand und Palmen in der Sonne. Angelockt vom exotischen Luxus Bora Boras begleiten drei Pärchen ein befreundetes Paar ins tropische Schlaraffenland und Urlaubsresort mit dem bezeichnenden Namen Eden. Dass dort allerdings keineswegs nur Erholung, sondern auch ungewollte Eheberatung auf sie wartet, wird ihnen leider erst viel zu spät klar. So gibt es anstelle von Jetski, Sonnenbad und Cocktails reihenweise Paarübungen, Konflikttherapie und Sex-Tipps - und wer nach Beziehungsproblemen sucht, der findet sie wohl auch... </t>
+  </si>
+  <si>
+    <t>Alles Erlaubt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Für Rick und Fred ist Alles erlaubt. Sie sind beste Freunde, die vieles gemeinsam haben, inklusive der Tatsache, dass sie seit Jahren verheiratet sind. Als die beiden Männer deutliche Anzeichen von sexueller Rastlosigkeit zeigen, bekommen sie von ihren frustrierten Frauen eine Art Eheblankoscheck: Sie dürfen für eine Woche die Sau rauslassen und tun was immer sie wollen, ohne Konsequenzen befürchten zu müssen. Was sich zunächst wie ein Traum anhört, entpuppt sich sehr schnell als problematischer als gedacht. </t>
+  </si>
+  <si>
+    <t>Allied - Vertraute Fremde</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Liebe im Krieg: 1942 verliebt sich der Geheimdienstoffizier Max Vatan in die französische Widerstands-Kämpferin Marianne Beausejour. Beide hatten von ihren Regierungen den Auftrag erhalten, den deutschen Botschafter zu töten. Nach der gefährlichen Mission finden die zwei in London wieder zusammen, doch ihr Glück hält nicht lange an. Vom Krieg gebeutelt, hängt der Haussegen bald schief und spätestens als Max erfährt, dass seine Frau in Wahrheit eine Doppelagentin der Deutschen ist, bricht alles in sich zusammen. Nun erhält Max den Auftrag, seine Frau aus dem Weg zu räumen... </t>
+  </si>
+  <si>
+    <t>Almost Famous</t>
+  </si>
+  <si>
+    <t xml:space="preserve">San Diego, 1973: Der 15-jährige William träumt davon, eines Tages ein großer Rock-Kritiker zu werden - obwohl oder gerade weil seine Mutter hinter dieser Musik nur Drogen und zügellosen Sex wittert. Da bekommt der schüchterne Teen vom Rolling Stone Magazine unverhofft ein Traumangebot: Er soll die aufstrebende Band Stillwater auf ihrer "Almost Famous"-Tour begleiten. Dabei lernt er nicht nur das Leben auf der Überholspur sondern auch Penny Lane kennen, die allerdings nur Augen für den charismatischen Gitarristen Russell hat... </t>
+  </si>
+  <si>
+    <t>Alpha Dog</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Johnny Truelove residiert in einem schmucken Bungalow und feiert durchgehend wilde Partys. Zusammen mit seiner Gang verdient Johnny sein Geld mit Verkauf von Drogen und springt dabei mit zahlungsunwilligen Kunden nicht gerade zimperlich um. Der heißblütige Drogensüchtige Jack Mazursky schuldet Johnny noch einige hundert Dollar - zwischen den beiden Platzhirschen entwickelt sich ein Machtkampf. Jack verwüstet Johnnys Haus, was sich dieser nicht gefallen lässt und kurzerhand Jacks kleinen Halbbruder Zack kidnappt, um Druck auszuüben... </t>
+  </si>
+  <si>
+    <t>Am Leben</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Die rasche Ausbreitung einer unbekannten Infektion hat eine ganze Stadt in einem unregierbaren Chaos zurückgelassen, aber ein Überlebender bleibt isoliert am Leben. Es ist seine Geschichte. </t>
+  </si>
+  <si>
+    <t>Amadeus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Am Wiener Hof von Kaiser Joseph II. wird man schon früh auf das Wunderkind Mozart aufmerksam. Doch die Begeisterung ist nicht ungeteilt: Dem verhärmten Hofkomponisten Salieri ist das lebensfrohe Genie ein unerträglicher Dorn im Auge. Und während Mozart zur musikalischen Sensation des Jahrhunderts aufsteigt, reift in seinem verbitterten Konkurrenten ein mörderischer Plan. </t>
+  </si>
+  <si>
+    <t>American Fighter 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Joe Armstrong ist ein ruhiger GI, hinter dem ein großes Geheimnis steckt: perfekt beherrscht er die Kampfkunst der japanischen Ninjas - der geheimnisvollen Schattenkrieger, in deren Händen alles zu einer gefährlichen Waffe wird. Wer ihm die todbringenden Techniken und Taktiken der Ninja lehrte, ist Joe aufgrund einer Gedächtnistrübung nicht bekannt. Ein Rätsel aber, das sich löst, als Joe durch sein entschlossenes Eingreifen ein betrügerisches Waffengeschäft zwischen seinem Vorgesetzten Colonel Hicock und dem Mafia-Boss Ortega zunichte macht. Denn bei diesem Überfall begegnet Joe erstmals einem schwarzen Ninja, für den Töten zum Geschäft wurde. Ein schmutziges Geschäft, dem Joe mit allen Möglichkeiten der Ninja-Kampfkunst entgegentritt... </t>
+  </si>
+  <si>
+    <t>American Fighter 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mit geheimen Auftrag landen die beiden Ranger Joe Armstrong und Curtis Jackson auf einer kleinen Karibikinsel, wo sie das mysteriöse Verschwinden von Marinesoldaten aufklären sollen. Schon bei ihren ersten Nachforschungen geraten sie mit Ninja-Killern aneinander, die für ein Verbrechersyndikat arbeiten. Sie finden heraus, dass die gekidnappten Marines im Hauptquartier der Ninjas von einem Gen-Forscher in willenlos-gehorsame, blutrünstige Kampfmaschinen umgewandelt werden. Armstrong und Jackson versuchen nun mit allen Mitteln, das Ninja-Nest auszuheben und die Gefangenen zu befreien - aber die Ninja-Roboter erwarten sie schon. Armstrong stellt sich dem Lehrmeister der Ninjas und kämpft mit Tojo Ken einen Kampf auf Leben und Tod... </t>
+  </si>
+  <si>
+    <t>American Fighter 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">US-Karatechampion Sean fährt mit seinen Teamkollegen auf eine kleine Karibikinsel, um dort an einem Wettkampf teilzunehmen. Der Präsident, General Andreas, und sein Finanzier, der verbrecherische Cobra, haben vor Jahren Seans Vater bei einem Terrorakt umgebracht. Cobra unterhält zur Verschleierung seiner verbrecherischen Aktivitäten und Gen-Manipulationen eine ganze Fabrik, die East Bay Lab's, geschützt von einer schier unbesiegbaren Ninja-Truppe, die von der hübschen Chan Lee befehligt wird. Sean und seine Freunde Dexter und Jackson nehmen den Kampf auf, später sogar unterstützt von Chan Lee, die dafür ebenso mit dem Tod bezahlt wie Dexter. Cobra und seine Ninjas ziehen bei der Auseinandersetzung den Kürzeren. </t>
+  </si>
+  <si>
+    <t>American Fighter 4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ein Sonderkommando der US-Elite-Truppe Delta Force wird bei einem geheimen Einsatz im afrikanischen Hochland von schwarzen Ninjas gefangengenommen. Die Entführer stellen eine Lösegeldforderung in Milliardenhöhe und drohen mit der Erschießung der Gefangenen und der Zerstörung von New York. Die beiden Top-Agenten Sean Davidson und Carl Brackston erhalten den Auftrag, die Geiseln aus der Gewalt der Terroristen zu befreien. Aber auch Davidson und Brackston werden überwältigt. Sie sollen mit den anderen erschossen werden, wenn die US-Regierung sich weigern sollte, das Lösegeld zu zahlen. Jetzt kann ihnen nur noch einer helfen: Ex-Top-Agent Joe Armstrong. Aber der "American Fighter" hat sich schon vor Jahren zur Ruhe gesetzt... </t>
+  </si>
+  <si>
+    <t>American Fighter 5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Die Freundin von Karatekämpfer Joe Kastle wurde entführt, weil ihr Vater ein bahnbrechendes Insektizid erfunden hat. Klar, dass Joe die widerlichen Kidnapper wie Kakerlaken zertreten will... </t>
+  </si>
+  <si>
+    <t>American Hustle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">New York, Ende der 1970er: Irving Rosenfeld ist im Bullshit Business - das heißt: Er schlägt aus Geldgeschäften größtmöglichen Gewinn - für sich, versteht sich. Dank seiner Abgezocktheit und seiner Überredungskunst ist Irving ein wahres Betrüger-As im Sektor des Finanzbetruges. Mit dem Geld anderer Leute hat er ein kleines Vermögen angehäuft, was seiner Frau Rosalyn und dem gemeinsamen Sohn ein unbeschwertes Leben verschafft. Da Irving seine Grenzen kennt und weiß, wie weit er mit seinen Betrügereien gehen kann, ist er bisher weder mit dem Mob in Konflikt geraten, noch auf den Radar der Behörden in Form des FBI. Leider ist seine ‘Geschäftspartnerin’ und Geliebte Sydney Prosser aus gierigerem Holz geschnitzt. Und so führt ihre Unachtsamkeit das FBI in Gestalt des aufstrebenden Agent Richie DiMaso direkt zu Irving... </t>
+  </si>
+  <si>
+    <t>American Pie 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jim, Kevin, Oz und Finch haben ein Problem: Die vier Jungs sind noch Jungfrauen, obwohl doch der Abschluss der High School so kurz bevor steht. Aus Verzweiflung setzen sie sich ein Ultimatum: Bis zum Abschlussball der Schule wollen sie alle Sex gehabt haben. Die Umsetzung des Vorhabens gestaltet sich allerdings schwieriger, als erwartet - besonders für Jim, dessen Sexversuch mit der heißen Austauschschülerin Nadia ungewollt im Internet übertragen wird... </t>
+  </si>
+  <si>
+    <t>American Pie 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Seit dem ersten Teil ist etwa ein Jahr vergangen. Jim, Oz, Kevin und Finch haben inzwischen die High School hinter sich gebracht und gehen das erste Jahr aufs College. Doch der Start in ihre ersten Semesterferien ist holprig: Stiflers Partys werden polizeilich verboten, es herrscht Langeweile, und in Liebesdingen geht auch nicht alles den gewünschten Gang. Speziell Kevin leidet darunter, dass sich alles verändert hat, und er wendet sich vertrauensvoll an seinen großen Bruder Tom. Der macht ihm den Vorschlag, mit seinen Freunden den bevorstehenden Sommer in einem Ferienhaus am Michigansee zu verbringen - danach würden sie die Dinge mit anderen Augen sehen. Alle sind mit diesem Vorschlag einverstanden und packen die Koffer. Die vier stellen jedoch fest, dass sie trotz ihrer finanziellen Zuschüsse und etlicher Gelegenheitsjobs sich das Haus nicht leisten können. </t>
+  </si>
+  <si>
+    <t>American Pie 3 - Jetzt Wird Geheiratet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jim will seine große Liebe Michelle zu seiner Frau machen. Ein großer und, wie manche seiner Freunde finden, voreiliger Schritt, denn schließlich haben sich die meisten von ihnen noch lange nicht vom wilden Partyleben verabschiedet. Aber wenn schon, dann soll es wenigstens zum unvergesslichen Erlebnis werden. Stifler bringt Jim das Tanzen bei und darf dafür den Junggesellenabend organisieren... ausgerechnet. Jims Dad spart nicht mit guten Ratschlägen und schießt dabei wie immer übers Ziel hinaus. Und damit nicht genug, wird Michelles umwerfende kleine Schwester Cadence ausgerechnet von Finch und Stifler gleichzeitig belagert, wobei sie diesmal die Rollen tauschen. Stifler gibt den lieben Jungen und Finch den bösen Buben. Ein heilloses Durcheinander bei den Hochzeits-Vorbereitungen ist damit wohl garantiert, und natürlich finden sich wie erwartet gleich reihenweise Fettnäpfchen auf Jims Weg zum Altar. </t>
+  </si>
+  <si>
+    <t>American Pie 4 - Die Nächste Generation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Matt Stifler will seinem älteren Bruder, dem legendären Stiffmeister nacheifern. Als er bei einem klassischen Stiffmeister-Streich erwischt wird, schickt ihn Sherman, ehemaliger Mitschüler Steves und inzwischen Schülerberater, zur Strafe mit allen Langweilern des Schulorchesters ins “Band Camp”. Matt installiert überall im Camp versteckte Kameras, um die knackigen Rundungen der sogenannten “Bandies” zu filmen. Dass er sich zu diesem Zweck mit einigen von ihnen anfreunden muss und sich dann auch noch in seine alte Schulfreundin Elyse verliebt, passt ihm gar nicht in den Kram. Während dieser schwierigen Zeit hilft ihm Jims Dad, der mittlerweile der Manieren- und Konfliktregelungsoffizier des Camps ist. Allerdings hat es sich dieser auch zur persönlichen Aufgabe gemacht, Matt auf den rechten Weg zurückzubringen... </t>
+  </si>
+  <si>
+    <t>American Pie 7 - Das Buch Der Liebe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rob, Nathan und Lube besuchen dieselbe High School und haben nur ein Ziel: Sie wollen unbedingt bei den Frauen ihrer Träume landen. Zufällig entdeckt das Trio in der Schulbibliothek das legendäre Buch der Liebe. Das Geheimwissen dieses einzigartigen Sex-Ratgebers verhalf schon ganzen Schülergenerationen zu erregenden Höhepunkten. Doch leider fehlen in dem lüsternen Leitfaden ein paar Seiten, so dass die erotischen Eskapaden der unerfahrenen Teenager zum peinlichen Reinfall werden. </t>
+  </si>
+  <si>
+    <t>American Pie 8 - Das Klassentreffen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Das Klassentreffen führt sie wieder zusammen: Jim, Stifler, Finch, Kevin und Oz. 10 Jahre ist es jetzt her, dass sie die High School hinter sich gelassen haben, und in ihrem Leben hat sich viel verändert. Ging es früher nur um Sex, so müssen sie heute als Erwachsene Verantwortung übernehmen. Theoretisch. Denn mit dem Erwachsenwerden haben alle noch ihre Probleme, trotz ihrer mittlerweile 30 Jahre. Dies müssen sie und ihre Freundinnen spätestens während ihres turbulenten American Pie Klassentreffens einsehen, bei dem sie auch alte Bekannte wie den Sherminator, Jims Dad und - natürlich - Stifflers Mom wiedersehen. </t>
+  </si>
+  <si>
+    <t>American Ultra</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Der Kiffer Mike und seine Freundin Phoebe führen ein ruhiges Leben in einer beschaulichen Kleinstadt. In seinem Alltag als Kiosk-Mitarbeiter erlebt Mike keine großen Abenteuer. Dennoch sind die beiden mit ihrem Leben und ihrem Dope super zufrieden. Mike plant sogar seiner großen Liebe Phoebe einen Heiratsantrag zu machen. Doch so einfach wird sein Leben nicht weiter dahinplätschern, denn Mike ist ein Schläfer-Agent der US-amerikanischen Regierung. Die plötzliche Entdeckung seiner Fähigkeiten macht ihn angeblich zu einem hohen Risiko und von nun an gilt es den unfreiwilligen Killer auszuschalten. Die Regierung auf den Fersen, fliehen Mike und Phoebe vor ihren Verfolgern. Plötzlich scheint das einfältige Kleinstadtleben doch seine Vorteile zu haben. </t>
+  </si>
+  <si>
+    <t>America's Sweethearts</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eddie und Gwen sind das Traumpaar Hollywoods. Doch jenseits der Leinwände hängt ihre Ehe schon lange in den Seilen: Die launige Diva beschäftigt sich neuerdings lieber mit einem lispelnden Spanier und Eddie mit dem Nervendoktor. Ausgerechnet jetzt müssen sie noch ihren letzten gemeinsamen Film promoten. Um den schönen Schein zu wahren, soll eine herzzerreißende Versöhnung mediengerecht inszeniert werden - eingefädelt von PR-Zyniker Lee. Unterstützen soll ihn dabei Gwens Assistentin Kiki, die ganz nebenbei auch noch ihre Schwester ist. Kiki hat alle Hände voll zu tun, die beiden Streithähne zusammenzubringen - und die Tatsache, dass sie Eddie bei der ganzen Geschichte immer näher kommt, macht die Sache auch nicht gerade leichter... </t>
+  </si>
+  <si>
+    <t>An Jedem Verdammten Sonntag</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Als Star-Quarterback Cap Rooney durch einen schweren Schlag spielunfähig wird, kommt ein junger, unbekannter Ersatzmann für ihn ins Team. Der Neuling zeigt eine beeindruckende Leistung, und so muss der gealterte Trainer Tony D’Amato seine Taktik neu abstimmen. Auch Christina Pagniacci, die neue Besitzerin und Präsidentin des Teams, übt einigen Druck auf die Mannschaft aus, um sich in einer von Männern dominierten Welt zu behaupten... </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ein Filmteam um die attraktive Terri im Dickicht des Amazonas-Dschungels macht sich auf die Suche nach den Spuren eines vermeintlich ausgestorbenen Indianerstamms. Keiner kann ahnen, dass ihnen ein Rendezvous mit einer Riesenschlange bevorsteht, die nur ein Ziel kennt: Ihre Opfer zu Tode zu quetschen. Als sich der Schlangenjäger Sarone Zugang zum Boot verschafft, wird die Expedition zum apokalyptischen Todestrip. Denn der dämonische Sarone hat es auf die Anaconda abgesehen. Um der Bestie endlich ins Auge sehen zu können, schreckt er auch nicht davor zurück, das Kommando skrupellos an sich zu reißen und die Expeditionsteilnehmer als Köder an das Monster zu verfüttern... </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Auf Borneo ist ein Team von Wissenschaftlern auf der Suche nach einer seltenen Orchidee. Da vor Ort die Regensaison eingesetzt hat, ist das Team gezwungen, den etwas fragwürdigen Kapitän Bill Johnson und seinen heruntergekommenen Kutter anzuheuern. Als sie schon kurz darauf Schiffbruch erleiden, machen sie die Bekanntschaft mit einer Riesenanakonda und kämpfen sich, verfolgt von dem hungrigen Untier, zu Fuß durch den Dschungel. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Einer Gruppe skrupelloser Wissenschaftler und Jäger in Diensten des Unternehmers Murdoch ist es gelungen, eine jener gefährlichen Monsteranakondas vom Urwald Brasiliens in ein Labor auf Amerikas grüner Wiese zu verfrachten, um dort einen Jungbrunnen aus ihren Zellen zu destillieren. Prompt macht sich das Mörderreptil selbständig, entkommt in die Natur und bedroht die Einwohner der Umgebung. Ein Team unter Leitung des kriminellen Großwildjägers Hammett soll es erledigen, bevor es sich am Ende noch vermehrt. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Der todgeweihte Magnat Murdoch beauftragt einen Arzt, einen neuen Bestand Blutorchideen zu ernten und mit ihrem regenerativen Nektar Experimente an einer kleinen Anaconda durchzuführen. Über Nacht wächst die Babyschlange zu einem Monster heran, das groß und hungrig genug ist, um den guten Doktor zu verspeisen, bevor es sich frisch gestärkt auf einen Amoklauf begibt. Die attraktive Herpetologin Amanda ist entschlossen, die gefährlichen Tiere zu töten, an deren Entstehung sie selbst beteiligt war, und führt ein Team junger Wissenschaftler gegen Murdochs eiskalte Bande bewaffneter Schläger an, um die begehrten Orchideen in Sicherheit zu bringen, bevor die gefährliche Schlange beide Parteien erwischt. Das angriffslustige Reptil scheint unbesiegbar, gleitet unbeschadet durch Explosionen und Feuergefechte und regeneriert sich jedes Mal aufs Neue, um unersättlich alles zu verzehren, was sich ihm in den Weg stellt. </t>
+  </si>
+  <si>
+    <t>Anaconda 1</t>
+  </si>
+  <si>
+    <t>Anaconda 2 - Die Jagd Nach Der Blut-Orchidee</t>
+  </si>
+  <si>
+    <t>Anaconda 3 - Offspring</t>
+  </si>
+  <si>
+    <t>Anaconda 4 - Trail Of Blood</t>
+  </si>
+  <si>
+    <t>Angels Fallen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nach dem tragischen Verlust seiner Frau im Kampf gegen die Mächte der Dunkelheit ließ sich Gabriel überreden, sich wieder seinem ehemaligen Team von Dämonenjägern anzuschließen, die von der relativ dunklen Seite Amerikas in die tief unbekannten Regionen Europas reisen. Zu ihm gesellen sich sein entfremdeter bester Freund Michael, der ein dunkles Geheimnis birgt, die mystische Hannah, deren Visionen die Zukunft vorhersagen, und eine bunte Crew von Dämonentötern. Nachdem Gabriel einen Teil seines Teams verloren hat, muss er sich mit seiner tragischen Vergangenheit auseinandersetzen und entscheiden, wer wirklich Freund oder Feind ist. </t>
+  </si>
+  <si>
+    <t>Angriff Der Killertomaten 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sie sind bissiger als der weiße Hai, angriffslustiger als Hitchcocks Vögel und gefräßiger als sämtliche Killer-Ameisen zusammen: Tomaten aller Handelsklassen und Größen auf ihrem Rache-Feldzug. Sie verarbeiten zu Ketchup was oder wer sich ihnen in den Weg stellt. Und machen selbst vor harmlosen Hausfrauen, kleinen Kindern und alten Damen nicht halt. Früchte zum Fürchten, rot vor Zorn, gegen die selbst der CIA machtlos ist. </t>
+  </si>
+  <si>
+    <t>Angriff Der Killertomaten 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nachdem der erste Angriff der Killertomaten von 1977 zwar abgewehrt wurden konnte, leben die Überlebenden ein möglichst normales Leben. Zumindest versuchen sie es, denn sie sind von den Ereignissen immer so traumatisiert, dass alleine ein Blick auf eine normale Tomate schon Todesängste in ihnen auslöst. Doch der durchgeknallte Professor Mortimer Gangreen rüstet sich zu einem zweiten Feldzug mit seiner todbringenden Tomaten-Armee. Ein Plan ist schon geschmiedet und die Rache soll dieses Mal sein sein. Als der Pizza-Lieferant Chad erfährt, dass die Frau, die er liebt, in Wirklichkeit eine mutierte Killertomate ist, beginnt für ihn ein Albtraum und nur er kann den verrückten Professor noch aufhalten. Denn mit Hilfe der Freundin will Gangreen unbemerkt die Weltherrschaft an sich reißen... </t>
+  </si>
+  <si>
+    <t>Angry Birds 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eine Insel wird fast ausschließlich von glücklichen, flugunfähigen Vögeln bewohnt. In diesem Paradies gehörten Red, ein Vogel mit der Neigung zu cholerischen Wutausbrüchen, der blitzschnelle Chuck und der unberechenbare Bombe schon immer zu den Außenseitern. Doch als die Insel eines Tages von mysteriösen grünen Schweinchen besucht wird, liegt es an diesen drei Ausgestoßenen, die unterschiedlicher nicht sein könnten, herauszufinden, was die Schweine im Schilde führen. </t>
+  </si>
+  <si>
+    <t>Animatrix</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Animatrix besteht aus neun Kurzfilmen, die Andy und Larry Wachowski konzipiert haben, jene Brüder, denen wir auch die Martrix-Trilogie verdanken. Umgesetzt wurden die Ideen der Wachowskis von den besten Regisseuren, die das Anime-Genre zu bieten hat. Spektakuläre Bilder, mitreißende Rhythmen und die visionären Geschichten der Wachowski-Brüder entführen auf eine einzigartige Reise durch die jede Vorstellungskraft sprengende Welt der Matrix. Erfahren Sie mehr über den Krieg der Menschen gegen die Maschinen, wie die Matrix entstand und über die Figuren, die in ihr leben. </t>
+  </si>
+  <si>
+    <t>Another Day In Paradise</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Die Teenager Bobbie und Rosie finanzieren ihre kostspieligen Drogentrips mit Automatenknacken. Als sie dem Profi-Dealer Mel und seiner schönen Gangsterbraut Sid begegnen, schließen sie sich den idealisierten Erwachsenen begeistert an. Ein wildes Leben voller Abenteuer schlägt sie ganz in ihren Bann. Doch der aufregende Trip durch den mittleren Westen der USA wird allmählich zur Höllenfahrt. Rosie stirbt an einer Überdosis Heroin und Mel gerät zwischen die Fronten rivalisierender Gangs. Bobbie wird schlagartig klar, dass es hier nur noch um's nackte Überleben geht </t>
+  </si>
+  <si>
+    <t>Ant-Man 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Als Hank Pym den smarten Superdieb Scott Lang für einen großen Coup anwirbt, setzt der Knastveteran seine Qualitäten erstmals für das Gute ein. Um zu verhindern, dass Pyms Technologie, mit der Belebtes und Unbelebtes auf Miniaturgröße geschrumpft werden kann, militärisch genutzt wird, soll Lang die Fortschritte von Pyms skrupellosem Kontrahenten Cross sabotieren und dessen Spezialanzug stehlen. Doch dafür muss Lang ein Superheldentraining absolvieren und lernen, ein Heer von Ameisen für seinen Raubüberfall zu kontrollieren. </t>
+  </si>
+  <si>
+    <t>Ant-Man 2 - And The Wasp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Als Scott Langs Tochter Cassie ein Gerät entwickelt, durch das eine Kommunikation mit der Quantenebene möglich werden soll, endet das Experiment in einer Katastrophe: Cassie, Scott und seine Mitstreiterin Hope van Dyne finden sich ungewollt in dem mystischen Reich wieder. Gemeinsam mit Hopes Eltern Hank Pym und Janet van Dyne arbeitet das Trio an einem Weg zurück, während sie die mysteriöse Welt des Quantenreichs, in der sie auf fremde Kreaturen und eine versteckte Zivilisation treffen, auf Entdeckungsreise lockt. Dabei erfahren sie auch, dass Janet, die 30 Jahre lang hier gefangen war, noch das ein oder andere Geheimnis aus ihrer Vergangenheit vor ihnen verbirgt: Denn ebenso gefangen in der Quantendimension ist der mysteriöse Kang, der die Fähigkeit besitzt, durch Zeit und Multiversum zu reisen, und Scotts Hilfe für eine wichtige Mission benötigt. Doch ist dem mächtigen Kang zu trauen? </t>
+  </si>
+  <si>
+    <t>Apocalypse Now</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Im Jahr 1969, mitten im Vietnamkrieg, erhält Captain Benjamin L. Willard den Auftrag, den abtrünnigen Colonel Walter E. Kurtz zu liquidieren. Dieser hat sich von der amerikanischen Militärführung distanziert und lässt sich nicht mehr kontrollieren. Im kambodschanischen Dschungel hat er sich ein eigenes „Reich“ aufgebaut, über das er gebieterisch herrscht. Captain Willard macht sich in einem Patrouillenboot samt Besatzung von Saigon aus auf den Weg durch den Dschungel. Die Reise der Männer entwickelt sich zu einem Höllentrip durch die Absurditäten eines sinnentleerten Kriegs und offenbart, analog zur Romanvorlage, die Abgründe der menschlichen Seele. </t>
+  </si>
+  <si>
+    <t>Apocalypto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Es ist die Zeit, in der der Niedergang einer der ältesten und geheimnisvollsten Hochkulturen aller Zeiten bevorsteht: der Maya. Bis heute birgt diese Zeit offene Fragen und ungeklärte Geheimnisse. In Apocalypto skizziert Mel Gibson die Geschichte eines Mannes aus dem Volk der Maya, der in dieser Zeit um sein Leben kämpft. Nur die Liebe zu seiner Familie und zu seiner Frau gibt ihm die Kraft und den Mut zu bestehen. </t>
+  </si>
+  <si>
+    <t>Apollo 18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Offiziell hat am 7. Dezember 1972 das letzte Mal ein Mensch seine Fußabdrücke auf dem Mond hinterlassen. Seitdem soll niemand mehr den einzig natürlichen Satelliten der Erde betreten haben. Doch ist das wirklich wahr? Wurde die schon akribisch durchgeplante Apollo-18-Mission wirklich nur wegen Finanzierungsproblemen auf Eis gelegt? Oder gibt es einen glaubwürdigeren Grund, weshalb die Menschen ihren weißen Begleiter meiden? Doch nun gefundene Videoaufnahmen der Apollo-18-Besatzung sprechen eine deutliche Sprache: Die Mission fand statt und die Menschheit hat ihre guten Gründe, den Mond niemals wieder anzufliegen. Denn schon kurz nach der Landung beginnen sich seltsame Ereignisse zu häufen: Die Kommunikation fällt aus, technische Störungen treten auf und nach einem Biss eines insektenartigen Wesens wird schnell klar: Sie sind nicht allein... </t>
+  </si>
+  <si>
+    <t>Appleseed 2004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Die Welt im Jahre 2131: Ein Dritter Weltkrieg hat die Zivilisation größtenteils zerstört. Die ehemalige Polizistin Deunan Knute kommt in die futuristische Metropole Olympus, wo sich eine neue Weltordnung etabliert hat. Doch auch hier droht ein neuer Konflikt. </t>
+  </si>
+  <si>
+    <t>Appleseed 2007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Deunan, Briareos und Tereus sind Soldaten in einer Spezialeinheit ihre Aufgabe: im Stadtstaat Olympus für Ruhe und Ordnung zu sorgen... </t>
+  </si>
+  <si>
+    <t>Appleseed 2011 - Ouranos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nach einem zerstörerischen Weltkrieg ist die Weltbevölkerung drastisch reduziert, der Planet verwüstet. Der utopische Stadtstaat Olympus scheint der einzige zivilisierte Ort in dem verbliebenen Chaos zu sein. Hier regiert die künstliche Intelligenz Gaia und genmanipulierte Bioroids verwalten die Stadt. Doch der Frieden in Olympus ist gefährdet. Im Untergrund schwelen zahlreiche politisch und rassistisch motivierte Konflikte zwischen Menschen, Bioroiden und Cyborgs. Die Spezialagentin Deunan Knute und ihr Freund, der Cyborg-Veteran Briareos, gehören zur globalen Elite-Einheit E.S.W.A.T., die den fragilen Frieden in Olympus gegen terroristische Angriffe verteidigen, politische Verschwörungen aufdecken und korrupten Politikern das Handwerk legen sollen. </t>
+  </si>
+  <si>
+    <t>Appleseed 2011 - Tartaros</t>
+  </si>
+  <si>
+    <t>Appleseed 2014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Die junge Soldatin Deunan und ihr Cyborg-Partner Briareos kämpfen nach dem dritten Weltkrieg ums Überleben. Während eines Auftrags im kriegszerstörten New York treffen sie auf Iris und Olson, zwei Einwohnern der sagenumwobenen Stadt Olympus. Diese scheinen den Schlüssel zur Rettung der Menschheit in den Händen zu halten, doch der skrupellose Talos und der durchtriebene, selbsternannte Machthaber Two Horns verfolgen dunklere Ziele und durchkreuzen die Pläne der vier Freunde. Die tapfere Deunan und ihr Partner Briareos müssen das Leben von Iris und Olson um jeden Preis schützen, um der Menschheit ihre letzte Hoffnung auf eine bessere Welt zu bewahren. </t>
+  </si>
+  <si>
+    <t>Aquaman</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Arthur Curry besser bekannt unter seinem Alias "Aquaman", ist der rechtmäßige Erbe des Thrones von Atlantis. Doch bisher ist dem Sohn eines menschlichen Vaters und einer atlantischen Mutter die Herrschaft über das mystische Unterwasserkönigreich verwehrt. Aquamans Halbbruder Orm herrscht über Atlantis und möchte auch die anderen sechs Königreiche der Meere um sich scharen, um vereint einen Krieg gegen die Menschen an der Erdoberfläche zu führen. Um seinen Anspruch auf den Thron zu beweisen, macht sich Aquaman gemeinsam mit Mera auf die Suche nach dem Dreizack des ersten Königs von Atlantis. Als Orm von diesem Plan erfährt, hetzt er den beiden den Piraten Black Manta auf den Hals, welcher mit Aquaman selbst noch eine Rechnung zu begleichen hat. </t>
+  </si>
+  <si>
+    <t>Aquaman LEGO - Die Rache Von Atlantis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In Atlantis, dem sagenumwobenen Königreich unter der Meeresoberfläche, herrscht Aquaman, der neben seiner Rolle als König der Atlanter auch ein wichtiges Mitglied der Justice League ist. Mit seiner Frau Mera und seinem Halbbruder Orm an der Seite, scheint es nichts zu geben, was Aquaman stoppen kann. Das muss er ein weiteres Mal beweisen, als das Justice-League-Alarmsignal ertönt und er sich mit Batman, Superman, Wonder Woman und den anderen Helden zusammenschließt, weil eine außerirdische Bedrohung unseren Planeten in Angst und Schrecken versetzt... </t>
+  </si>
+  <si>
+    <t>Arabische Nächte</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Die Prinzenbrüder Ali Ben Ali und Haroun-Al-Raschid konkurrieren um die Liebe der schönen Tänzerin Scheherazade. Als Haroun-Al-Raschid von seinem Bruder verraten wird und in Gefangenschaft gerät, ist dies der Auftakt für eine Reihe spannender Abenteuer, deren Lohn am Ende der Thron und die Liebe Scheherazades sein wird. Doch nur einer der Brüder kann gewinnen. </t>
+  </si>
+  <si>
+    <t>Arac Attack</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eine Giftmülllagereinrichtung direkt neben einer Spinnenfarm mit vielen verschiedenen Arten? Ganz schlechte Idee Und wie es nun einmal geschehen muss, gerät der giftige Abfall ins Spinnenfutter, was einige sehr beunruhigende Wachstumsschübe zur Folge hat. Kein Wunder also, dass Chris McCormack und Sheriff Sam Parker bald ihre liebe Not haben, lebend aus ihrer Kleinstadt herauszukommen, denn die achtbeinigen Monster sind bald überall... </t>
+  </si>
+  <si>
+    <t>Argo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Auf dem Höhepunkt der iranischen Revolution wird am 4. November 1979 die US- Botschaft in Teheran gestürmt - militante Studenten nehmen 52 Amerikaner als Geiseln. Doch mitten in diesem Chaos gelingt es sechs Amerikanern, sich davon zu schleichen und in das Haus des kanadischen Botschafters zu fliehen. Es ist nur eine Frage der Zeit, bis der Verbleib der sechs bekannt wird - ihr Leben steht auf dem Spiel. Deshalb entwirft der auf das "Ausfiltern" spezialisierte CIA-Agent Tony Mendez einen riskanten Plan, um die Flüchtlinge außer Landes und in Sicherheit zu bringen. Dieser Plan ist so unglaublich, dass er sich nur im Kino abspielen kann... </t>
+  </si>
+  <si>
+    <t>Arielle Die Meerjungfrau</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Die Meerjungfrau Arielle träumt davon, ein Mensch zu sein. Verstärkt wird ihr Verlangen, als sie dem schiffbrüchigen Prinzen Eric das Leben rettet und sich unsterblich in ihn verliebt. Der Seehexe Ursula gelingt es, sich in Arielles Vertrauen einzuschleichen. Gegen ihre Stimme als Pfand verwandelt sie die kleine Schönheit in einen Menschen. Drei Tage hat Arielle, sich von dem Prinzen küssen zu lassen. Tatsächlich verlieben sich die beiden ineinander, doch Ursula hegt finstere Pläne. </t>
+  </si>
+  <si>
+    <t>Aristocats</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Im Herzen von Paris vererbt eine gutherzige und exzentrische Millionärin ihren gesamten Besitz ihrer High-Society-Katze Duchess und deren drei Kätzchen. Spaß und Abenteuer beginnen, als der habgierige, unbeholfene Butler die Katzen verschwinden lässt. Jetzt liegt es am raubeinigen Straßenkater Thomas O'Malley und seinen swingenden Jazz-Katzen, die Katzen zurückzubringen. Mit seinen unwiderstehlichen Extras, inklusive einem virtuellen Katzenspiel, einem herzerwärmenden Song und vielem mehr, ist Aristocats ein Erlebnis für die ganze Familie. </t>
+  </si>
+  <si>
+    <t>Arlo &amp; Spot</t>
+  </si>
+  <si>
+    <t>In einer Welt, die nie von einem Meteor getroffen wurde, sind die Dinosaurier nicht ausgestorben, sondern leben weiter auf der Erde. Zu ihnen gehört auch der gutmütige Apatosaurus Arlo, der zwar stets versucht, seine Familie tatkräftig zu unterstützen, sich jedoch vor allem und jedem fürchtet. Als er eines Tages aber in einen reißenden Fluss fällt und erst weit entfernt von seinem Zuhause wieder an Land gespült wird, muss er sich in einer ihm fremden Umgebung seinen Ängsten stellen. Dabei ist er allerdings nicht allein, hat er kurz zuvor doch Bekanntschaft mit dem wilden Menschenjungen Spot gemacht, der ganz im Gegensatz zu Arlo vor keiner Gefahr zurückschreckt. Auch wenn der junge Dinosaurier anfangs nicht viel mit dem knurrenden Energiebündel anfangen kann, entwickelt sich zwischen den beiden schnell eine ungewöhnliche Freundschaft, die ihnen hilft, das turbulente Abenteuer zu bestehen, das vor ihnen liegt.</t>
+  </si>
+  <si>
+    <t>Armageddon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Als die NASA einen Asteroiden von der Größe des Bundesstaates Texas entdeckt, der sich auf Kollisionskurs mit der Erde befindet und diese in voraussichtlich 18 Tagen erreichen wird, scheint es nur eine Möglichkeit zu geben, die drohende Apokalypse zu verhindern und das Überleben der Menschheit zu sichern. Ein Team, bestehend aus erfahrenen Astronauten und dem weltbesten Bohrteam, wird nach einem kurzen Spezialtraining ins All gesandt, um den riesigen Felsen vor seinem Zusammenstoß mit der Erde mit Hilfe eines nuklearen Sprengkopfes zu zerstören. </t>
+  </si>
+  <si>
+    <t>Armour Of God 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Der Abenteurer Jackie stiehlt im finsteren Afrika das Schwert einer mittelalterlichen Rüstung. Als ihm einige Zeit später das Geld ausgeht, bietet er das Stück auf einer Versteigerung an, wo sich eine mysteriöse Schönheit ganz besonders dafür interessiert. Jackie weiß nicht, dass das Schwert zum obersten Heiligtum einer kriminellen Sekte gehört, zu der legendären fünfteiligen “Rüstung Gottes”. Und um in den Besitz der noch fehlenden drei Teile zu gelangen, schrecken die Verbrecher vor nichts zurück - auch nicht vor der Entführung von Jackies Freundin. </t>
+  </si>
+  <si>
+    <t>Armour Of God 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Der Abenteurer Jackie bekommt von einem spanischen Herzog den Auftrag, einen Goldschatz zu finden, den die Deutschen im Zweiten Weltkrieg in der Wüste zurücklassen mussten. Gemeinsam mit der Expertin Ada und Elsa, der Enkelin des deutschen Kommandeurs, bricht er auf. Schnell kommt es zu Turbulenzen: Zwei Araber und eine mysteriöse Karawane sind ebenfalls hinter dem Schatz her. Mit Hilfe der ortskundigen Momoko finden sie das deutsche Lager. Dort tritt Adolf auf den Plan, der einzige Überlebende der damaligen Gold-Operation. Doch seine Söldner wollen den Reichtum für sich... </t>
+  </si>
+  <si>
+    <t>Army Of The Dead</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Während einer Zombieplage in Las Vegas stellt sich eine Truppe Söldner der ultimativen Gefahr und wagt sich für den größten Coup aller Zeiten in die Höhle des Löwen. </t>
+  </si>
+  <si>
+    <t>Arrival</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zwölf Alien-Raumschiffe landen auf der Erde in unterschiedlichen Regionen. Die Menschen versuchen mit den Außerirdischen zu kommunizieren, aber niemand versteht die walartigen Laute, die von den Aliens abgesondert werden. Im Auftrag der US-Regierung stellt Colonel Weber darum ein Team um die Linguistin Louise Banks und den Physiker Ian Donnelly zusammen, das eine Kommunikation mit den fremden Wesen herstellen soll, um deren Absichten in Erfahrung zu bringen. In Montana, wo eines der Schiffe über dem Boden schwebt, machen sich die beiden an die Arbeit - er, der rationale Naturwissenschaftler mit klarer Ansicht zu den Dingen, sie mit ihrem Sprachverständnis und ihrer ansteckenden Entdeckungsfreude. Doch bald beginnt ein Rennen gegen die Zeit, bei dem es um nicht weniger als den Fortbestand der Menschheit geht... </t>
+  </si>
+  <si>
+    <t>Assassin's Creed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Callum Lynch soll wegen Mordes hingerichtet werden, doch kurz bevor das Urteil vollstreckt wird, kommt er im Auftrag der Firma Abstergo Industries in die Einrichtung der Wissenschaftlerin Sophia Rikkin nach Madrid, wo Menschen mit hohem Gewaltpotenzial geheilt werden sollen. Nur wenig später erfährt Callum jedoch, dass hinter der Organisation des Generaldirektors Alan Rikkin die moderne Inkarnation des Templerordens steckt. Die Templer wollen den legendären Apfel Edens finden, um damit den freien Willen der Menschheit zu steuern - und Callum soll ihnen dabei behilflich sein. Mittels einer Maschine durchlebt er die Erinnerungen seines Vorfahren Aguilar de Nerha, einem Assassinen zur Zeit der Spanischen Inquisition. Doch während er in der Vergangenheit seine Mission ausführt, erlernt Callum immer mehr Fähigkeiten, die er in der Gegenwart gegen die Templer einsetzen kann... </t>
+  </si>
+  <si>
+    <t>Asterix Und Obelix - Bei Den Briten</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nach erfolgreichen Eroberungen sieht Cäsar in Britannien sein nächstes Ziel und beginnt dort mit seinen Truppen einen Feldzug. Die Briten leisten erbittert Widerstand, beenden den Kampf jedoch nachmittags um fünf für eine Teepause (eigentlich trinken sie nur warmes Wasser mit Milch) und kämpfen am Wochenende grundsätzlich nicht. Erst als sich die Römer darüber hinweg setzen, gelingt es ihnen, die Briten zu unterwerfen. Nur noch ein kleines Dorf leistet Widerstand, ist jedoch in arger Bedrängnis. Einer dieser Dorfbewohner, Teefax, erinnert sich an seine gallischen Vettern und dass diese eine Wunderwaffe, den Zaubertrank, besitzen. Er beschließt, nach Gallien zu reisen, um die Gallier zu überreden, mit in seine Heimat zu kommen, um dort mit Hilfe des Zaubertrankes die Römer zurückzuschlagen. </t>
+  </si>
+  <si>
+    <t>Asterix Und Obelix - Mission Kleopatra</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In kürzester Zeit soll der Chaos-Architekt Numerobis seiner launischen und spitznasigen Königin einen prächtigen Palast bauen. Sollte es ihm nicht gelingen, so wird ihn Kleopatra den Krokodilen zum Fraß vorwerfen. Der Verzweiflung nahe wendet sich Numberobis an den gallischen Druiden Miraculix. Mit dem geheimnisvollen Zaubertrank gestärkt, reisen Asterix, Obelix und Miraculix samt Hündchen Idefix kurz darauf nach Ägypten, um Numberobis zu helfen. Die Bauarbeiten werden jedoch von dem hinterhältigen Pyradonis behindert, und die Freunde müssen - um die Lieferung neuer Steine zu sichern - ins Innere des Landes reisen. So erfahren wir endlich auch, weshalb die Sphinx heute keine Nase mehr hat und wie gefährlich ein Besuch der Pyramiden sein kann. Schließlich kommt der Bau mit Hilfe von Miraculix' Zaubertrank doch noch rasch voran. Bis zu dem Moment, als Cäsar die Sabotage der Bauarbeiten selbst in die Hand nimmt... </t>
+  </si>
+  <si>
+    <t>Asterix Und Obelix - Operation Hinkelstein</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Beim Teutates So schlecht stand es um unser gallisches Dorf noch nie. Nachdem Obelix dem Druiden Miraculix versehentlich einen Hinkelstein an den Kopf geworfen hat, kann dieser sich nicht mehr an die Formel für den Zaubertrank erinnern. Lügfix, der falsche Seher, brachte alle Bewohner dazu, fluchtartig das Dorf zu verlassen. Nur Asterix und Obelix bleiben zurück und erwarten die Römer, die schon zum Angriff rüsten... </t>
+  </si>
+  <si>
+    <t>Atomic Blonde</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Berlin, November 1989: Kurz vor dem Fall der Berliner Mauer wird ein MI6-Offizier tot aufgefunden. Er sollte Informationen einer geheimen Quelle auf der Ostseite der Stadt in den Westen schmuggeln - genauer gesagt: eine Liste mit allen Namen der auf beiden Seiten Berlins tätigen Spione. Doch die Liste wird bei der Leiche nicht gefunden. Gebrieft von ihrem MI6-Vorgesetzten Gray und dem CIA-Chef wird die erfahrene Spionin Lorraine Broughton in das Pulverfass sozialer Unruhen, Spionageabwehr, gescheiterter Missionen und geheimer Hinrichtungen geschickt, um die streng vertrauliche Liste und damit die Identität britischer Agenten zu sichern, deren Leben davon abhängen. Lorraine trifft den Ex-Geheimdienstler David Percival, der ein wichtiger Kontaktmann ist - und sie trifft die verführerische französische Agentin Delphine... </t>
+  </si>
+  <si>
+    <t>Attack On Titan - Movie 1 - Feuerroter Pfeil Und Bogen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In 2000 Jahren lebt die Menschheit - oder das, was davon übrig ist - hinter 50 Meter hohen, gewaltigen Mauern. Diese Festung verspricht Sicherheit, doch wer sich nach draußen wagt, kehrt selten unversehrt zurück. Denn die Welt wird von riesigen Titanen beherrscht, die anscheinend nur ein Ziel haben: Menschen zu fressen </t>
+  </si>
+  <si>
+    <t>Attack On Titan - Movie 2 - Flügel Der Freiheit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Begleitet von unzähligen Opfern konnte der Bezirk Trost doch noch erfolgreich zurückerobert werden. Trotzdem wird Eren vor ein Tribunal gestellt, das darüber entscheiden soll, welcher Division er anvertraut wird: der Militärpolizei, die ihn für ein Monster hält und sofort beseitigen will, oder dem Aufklärungstrupp unter dem Kommando von Erwin Smith. Vor den Augen der aufgebrachten Beobachter wird schließlich dem Vorschlag stattgegeben, Eren in den Aufklärungstrupp aufzunehmen und seine Titanenkraft zur Rückeroberung der Mauer Maria zu nutzen. Während er vom Hauptgefreiten Levi nun auf die erste Mission vorbereitet wird, müssen sich Erens Freunde ebenfalls entscheiden, ob sie ihr Leben wirklich für den mehr als exzentrischen Aufklärungstrupp aufs Spiel setzen wollen... </t>
+  </si>
+  <si>
+    <t>Attack On Titan 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In 2000 Jahren leben die letzten Menschen hinter gewaltigen Mauern – die Welt außerhalb wird von riesigen Titanen beherrscht. Als eines Tages ein Titan von bislang ungekannten Ausmaßen über die Mauer blickt, beginnt der junge Eren Jäger zusammen mit seinen Freunden Mikasa und Armin einen scheinbar ausweglosen Kampf um die Freiheit. </t>
+  </si>
+  <si>
+    <t>Attack On Titan 2 - End Of The World</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eren hat sich selbst in einen Titanen verwandelt - Ist er jetzt Mensch oder Monster? Kubaru siehst ihn als Bedrohung und will ihn töten, seine Freunde glauben fest an Eren, dass er zum Retter aller werden kann. Doch als plötzlich ein weiterer Titan auftaucht und Eren verschleppt, beginnt der große Showdown um das Schicksal der Menschheit... </t>
+  </si>
+  <si>
+    <t>Attentat Auf Richard Nixon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1974. Sam Bicke hat alles verloren. Seine Frau hat ihn mitsamt seinen drei Kindern verlassen, sein Chef hat ihm gekündigt, sein Bruder wendet sich von ihm ab und auch die Bank will ihm keinen Kredit für ein eigenes Geschäft gewähren. In seiner Enttäuschung sucht er einen Schuldigen. Und er findet ihn im amtierenden Präsidenten der Vereinigten Staaten. Also plant er einen Mordanschlag. </t>
+  </si>
+  <si>
+    <t>Attraction 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nachdem ein mysteriöses außerirdisches Raumschiff in Moskau eine Bruchlandung hingelegt hat, liegen große Teile der russischen Metropole in Schutt und Asche. Das UFO in Form eines gigantischen Gyroskops war kurz zuvor während eines seltenen astronomischen Phänomens im Orbit der Erde aufgetaucht und dann aus unerklärlichen Gründen abgestürzt. Ebenso unklar wie die Absturzursache ist zunächst, warum und mit welcher Absicht die Aliens überhaupt auf die Erde gekommen sind. Wollen sie ihr Wissen mit der Menschheit teilen oder den blauen Planeten erobern? Nur eines ist gewiss: Nachdem einige Auserwählte einen Blick ins Innere des Raumschiffs erhaschen konnten, beginnen sie ihre gesamte Existenz und den Ursprung der Menschheit in Frage zu stellen. Andere wiederum, darunter jene, die beim Absturz des UFOs Angehörige und Freunde verloren haben, sind den außerirdischen Gästen weit weniger freundlich gesonnen und wollen die Aliens schnellstmöglich wieder vertreiben. </t>
+  </si>
+  <si>
+    <t>Attraction 2 - Invasion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Seit dem Absturz des außerirdischen Raumschiffes in Moskau und den darauffolgenden Unruhen sind zwei Jahre vergangen. Die Katastrophe und eine romantische Beziehung zu einem Alien haben das Leben des Mädchens von Chertanovo und unsere Sicht auf das Universum für immer verändert. </t>
+  </si>
+  <si>
+    <t>Auslöschung</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Als zwölftes Expeditionsteam der geheimen Organisation Southern Reach werden vier Wissenschaftlerinnen in ein Gebiet geschickt, das als Area X bekannt ist. Seit vor 30 Jahren ein unbekanntes Ereignis den Landstrich erschütterte, überwuchert dort nun die Natur die letzten Überbleibsel menschlicher Zivilisation. Doch ihr Auftrag ist nicht einfach: Die Gruppe soll nicht nur das Areal und seine Tier- und Pflanzenwelt erforschen, sondern auch die Ursachen für das mysteriöse Unglück aufdecken. Die Mitglieder der vorherigen elf Forscherteams starben entweder an Krebs, begingen Suizid oder verschwanden spurlos. </t>
+  </si>
+  <si>
+    <t>Austin Powers 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">London, 1967: Die Swinging Sixties erleben gerade ihren Höhepunkt. Mittendrin: Austin Powers. Fotograf, Geheimagent und immer am Puls der Zeit. Im Namen ihrer Majestät bekämpft er das Verbrechen, nur der glatzköpfige und bösartige Dr. Evil geht dem schrillen Agenten immer wieder durch die Lappen. Als sich sein Gegenspieler einfrieren lässt, um sein Unwesen auf die 90er Jahre zu vertagen, begibt sich Austin in den Gefrierschrank des Secret Service und lässt sich ebenfalls auf Eis legen. Nach 30 Jahren wird er wieder aufgetaut um Dr. Evil endgültig das Handwerk zu legen. Dieser hat die Welt als Geisel genommen und droht mit ihrer Vernichtung, sollten seine Forderungen nicht erfüllt werden. Gemeinsam mit der Tochter seiner ehemaligen Sekretärin, Miss Kensington, macht sich der britische Geheimagent ans Werk. </t>
+  </si>
+  <si>
+    <t>Austin Powers 2 - Spion In Geheimer Missionarsstellung</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Und ein neues Abenteuer des unwiderstehlichen - hust Dr. Evil reist mit einer Zeitmaschine zurück in die sechziger Jahre und raubt Austin sein Lustempfinden. Jetzt fehlt dem smarten Agenten mit den schrillen Klamotten jegliche Anziehungskraft auf das weibliche Geschlecht. Das findet er verständlicherweise gar nicht gut und gelangt mittels eines Zeitportals des britischen Geheimdienstes in Form eines neuen VW Käfers in das Jahr 1969. Dort versucht er, seine Libido zurückzugewinnen und mit Hilfe der Agentin Felicity Schickfick Evils Plan zur Übernahme der Weltherrschaft zu stoppen. Denn Evil hat eine mächtige Erfindung des Wissenschaftlers Alan Parson in seinem Besitz. Es handelt sich um einen gigantischen Laser, mit dem die Erde zerstört werden kann. Powers und Schickfick müssen vollen Einsatz zeigen, um Evil in die Schranken zu weisen. </t>
+  </si>
+  <si>
+    <t>Austin Powers 3 - Goldständer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dr. Evil und seinem Komplizen Mini-Me gelingt es, aus dem Gefängnis zu fliehen. Das ruft den "Swinging International Man of Mystery" auf den Plan. Als Austin Powers tritt er in Aktion, um seine beiden Widersacher wieder hinter Gitter zu wissen. Aber der schrille Agent hat es nicht nur mit Dr. Evil zu tun. Denn sein Vater Nigel Powers, ein altgedienter Agent, wurde von dem holländischen Bösewicht Goldständer entführt. Der unberechenbare Schurke plant eine Teufelei, die den Fortbestand des Planeten gefährdet. Sowohl die Sorge um die Erde als auch die persönliche Schmach, dass sich Goldständer an der Familie Austin Powers' vergreifen konnte, will der Agent nicht ungesühnt lassen. Passenderweise arbeiten Goldständer und Dr. Evil zusammen, so dass Austin Powers mit einem Kampf gleich zwei Gegner in die Schranken weisen kann. </t>
+  </si>
+  <si>
+    <t>Avatar - Aufbruch Nach Pandora</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ex-Marine Jake Sully nimmt auf dem Planeten Pandora an einem Experiment unter der Leitung der Wissenschaftlerin Dr. Grace Augustine teil. Als er sich im genetisch manipulierten Körper der Ureinwohner in die schöne Neytiri verliebt, gerät er zwischen die Fronten eines skrupellosen Konzerns und dem naturverbundenen Volk der Na'vi. Jake muss sich entscheiden, auf welcher Seite er steht - in einem ungleichen Kampf, in dem es um das Schicksal einer einzigartigen Welt geht... </t>
+  </si>
+  <si>
+    <t>Avengers 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nick Fury ist der Anführer der Organisation S.H.I.E.L.D., einer internationalen Friedensorganisation. Die Behörde ist ein Who's Who der Marvel Superhelden, mit Iron Man, Thor, Captain America, Hawkeye, dem Unglaublichen Hulk und Black Widow. Als die weltweite Sicherheit von Thors sinistrem Halbbruder Loki und seiner Schar bedroht wird, werden Nick Fury und sein Team all ihre Kräfte brauchen, um die Welt vor einer Katastrophe zu bewahren... </t>
+  </si>
+  <si>
+    <t>Avengers 2 - Age Of Ultron</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Milliardär, Lebemann und Genie Tony Stark aka Iron Man will ein inaktives Friedensprogramm in Gang bringen, doch dabei geht etwas schief. So taucht der niederträchtige Roboter-Bösewicht Ultron auf und verfolgt Pläne zur Ausrottung der Menschheit. Nun ist es an den Helden, sich wieder zu sammeln und das schreckliche Schicksal der Welt abzuwenden. Zusammen mit Iron Man treten Thor, Captain America, Hulk, Black Widow und Hawkeye dem fiesen Ultron entgegen und bekommen dabei Unterstützung von den ehemaligen S.H.I.E.L.D.-Agenten Nick Fury und Maria Hill. Außerdem kreuzen die geheimnisvollen und mit besonderen Fähigkeiten ausgestatteten Newcomer Wanda und Pietro Maximoff den Weg der Helden, wie auch ein alter Bekannter in neuer Gestalt: Vision. Die Rächer müssen ihre Kräfte vereinen, unsichere Allianzen schmieden und auf unerwartete Aktionen reagieren, um die Bewohner der Erde einmal mehr vor dem drohenden Untergang zu bewahren. </t>
+  </si>
+  <si>
+    <t>Avengers 3 - Infinity War</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Der mächtige Titan Thanos hat es sich zur Aufgabe gemacht das halbe Universum auszulöschen. Um diesen perfiden Plan Realität werden zu lassen, benötigt er allerdings zuerst alle sechs Infinity-Steine, die ihm in Verbindung mit einem speziell gefertigten Handschuh, gottgleiche Kräfte verleihen. Da sich unglücklicherweise auch auf der Erde zwei dieser Steine befinden, betraut er seine treu ergebene Black Order mit deren Beschaffung. Sowohl die Avengers, als auch die Guardians of the Galaxy und Thor erfahren jedoch von Thanos' Plänen und stellen sich dem Schurken entgegen. Doch mit einen derart mächtigen Gegner hatte es bisher keiner von ihnen zu tun... </t>
+  </si>
+  <si>
+    <t>Avengers 4 - Endgame</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thanos hat also tatsächlich Wort gehalten, seinen Plan in die Tat umgesetzt und die Hälfte allen Lebens im Universum ausgelöscht. Die Avengers? Machtlos. Iron Man und Nebula sitzen auf dem Planeten Titan fest, während auf der Erde absolutes Chaos herrscht. Doch dann finden Captain America und die anderen überlebenden Helden auf der Erde heraus, dass Nick Fury vor den verheerenden Ereignissen gerade noch ein Notsignal absetzen konnte, um Verstärkung auf den Plan zu rufen. Die Superhelden-Gemeinschaft bekommt mit Captain Marvel kurzerhand tatkräftige Unterstützung im Kampf gegen ihren vermeintlich übermächtigen Widersacher. Und dann ist da auch noch Ant-Man, der wie aus dem Nichts auftaucht und sich der Truppe erneut anschließt, um die ganze Sache womöglich doch noch zu einem guten Ende zu bringen... </t>
+  </si>
+  <si>
+    <t>Avengers Of Justice - Farce Wars</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Um ihren teuflischen Plan zur Vernichtung der Erde umzusetzen, entführen der irre Dark Jokester und Unterweltkönig Lisp Luther die Kinder des abgehalfterten Superhelden Superbat, um deren Kräfte zu stehlen. Das kann Superbat natürlich nicht zulassen und trommelt die Avengers of Justice Mitglieder aus alten Tagen zusammen: Jean Wonder, Beaverine, Thorbacca, Spidercat, Lando Fury und El Capitan South America. Bevor es losgeht, muss er allerdings das knochenharte Training von Incredible Master Yoga überleben </t>
+  </si>
+  <si>
+    <t>Avenging Angelo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jahrelang gab Mobster Frankie den unsichtbaren Beschützer für Jennifer, die Tochter des mächtigen Paten Angelo, ohne dass Jennifer von ihrer wahren Identität die geringste Ahnung hatte. Jetzt ist Angelo tot, und Jennifer erfährt durch Frankie, dass sie nicht aus so behütetem Hause stammt, wie sie immer dachte. Während Frankie und Jennifer einander auch persönlich näher kommen, entdeckt die schöne Tochter ihre kriminelle Ader und beschließt, Vatis Tod persönlich zu rächen. Frankie ist unbegeistert, spielt aber mit. </t>
   </si>
 </sst>
 </file>
@@ -2338,16 +3277,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D51DD517-BD67-9F45-A4CA-2F65B8CF2913}">
-  <dimension ref="A1:G207"/>
+  <dimension ref="A1:G312"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A187" workbookViewId="0">
-      <selection activeCell="B208" sqref="B208"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B291" sqref="B291"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10.83203125" style="3"/>
-    <col min="2" max="2" width="41.1640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="48.1640625" style="4" bestFit="1" customWidth="1"/>
     <col min="3" max="5" width="10.83203125" style="9"/>
     <col min="6" max="6" width="255.83203125" style="5" bestFit="1" customWidth="1"/>
   </cols>
@@ -2817,7 +3756,7 @@
         <v>72</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>256</v>
+        <v>361</v>
       </c>
       <c r="C24" s="9">
         <v>2002</v>
@@ -2829,7 +3768,7 @@
         <v>16</v>
       </c>
       <c r="F24" s="6" t="s">
-        <v>257</v>
+        <v>362</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
@@ -2837,7 +3776,7 @@
         <v>73</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>258</v>
+        <v>363</v>
       </c>
       <c r="C25" s="9">
         <v>2004</v>
@@ -2849,7 +3788,7 @@
         <v>12</v>
       </c>
       <c r="F25" s="6" t="s">
-        <v>259</v>
+        <v>364</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
@@ -2857,7 +3796,7 @@
         <v>74</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>260</v>
+        <v>365</v>
       </c>
       <c r="C26" s="9">
         <v>2006</v>
@@ -2869,7 +3808,7 @@
         <v>12</v>
       </c>
       <c r="F26" s="6" t="s">
-        <v>261</v>
+        <v>366</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
@@ -2877,7 +3816,7 @@
         <v>75</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>262</v>
+        <v>367</v>
       </c>
       <c r="C27" s="9">
         <v>1993</v>
@@ -2889,7 +3828,7 @@
         <v>6</v>
       </c>
       <c r="F27" s="6" t="s">
-        <v>263</v>
+        <v>368</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
@@ -2897,7 +3836,7 @@
         <v>76</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>264</v>
+        <v>369</v>
       </c>
       <c r="C28" s="9">
         <v>1990</v>
@@ -2909,7 +3848,7 @@
         <v>16</v>
       </c>
       <c r="F28" s="6" t="s">
-        <v>265</v>
+        <v>370</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
@@ -2917,7 +3856,7 @@
         <v>77</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>266</v>
+        <v>371</v>
       </c>
       <c r="C29" s="9">
         <v>1999</v>
@@ -2929,7 +3868,7 @@
         <v>16</v>
       </c>
       <c r="F29" s="6" t="s">
-        <v>267</v>
+        <v>372</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
@@ -2937,7 +3876,7 @@
         <v>78</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>268</v>
+        <v>373</v>
       </c>
       <c r="C30" s="9">
         <v>1994</v>
@@ -2949,7 +3888,7 @@
         <v>12</v>
       </c>
       <c r="F30" s="6" t="s">
-        <v>269</v>
+        <v>374</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
@@ -2957,7 +3896,7 @@
         <v>79</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>270</v>
+        <v>375</v>
       </c>
       <c r="C31" s="9">
         <v>2003</v>
@@ -2969,7 +3908,7 @@
         <v>16</v>
       </c>
       <c r="F31" s="5" t="s">
-        <v>271</v>
+        <v>376</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
@@ -2977,7 +3916,7 @@
         <v>80</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>272</v>
+        <v>377</v>
       </c>
       <c r="C32" s="9">
         <v>1971</v>
@@ -2989,7 +3928,7 @@
         <v>18</v>
       </c>
       <c r="F32" s="5" t="s">
-        <v>273</v>
+        <v>378</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
@@ -2997,7 +3936,7 @@
         <v>81</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>274</v>
+        <v>379</v>
       </c>
       <c r="C33" s="9">
         <v>2003</v>
@@ -3009,7 +3948,7 @@
         <v>6</v>
       </c>
       <c r="F33" s="5" t="s">
-        <v>275</v>
+        <v>380</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.2">
@@ -3017,7 +3956,7 @@
         <v>82</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>276</v>
+        <v>381</v>
       </c>
       <c r="C34" s="9">
         <v>2001</v>
@@ -3029,10 +3968,10 @@
         <v>12</v>
       </c>
       <c r="F34" s="5" t="s">
-        <v>277</v>
+        <v>382</v>
       </c>
       <c r="G34" t="s">
-        <v>278</v>
+        <v>383</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.2">
@@ -3040,7 +3979,7 @@
         <v>83</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>279</v>
+        <v>384</v>
       </c>
       <c r="C35" s="9">
         <v>2003</v>
@@ -3052,7 +3991,7 @@
         <v>0</v>
       </c>
       <c r="F35" s="5" t="s">
-        <v>280</v>
+        <v>385</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
@@ -3060,7 +3999,7 @@
         <v>84</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>281</v>
+        <v>386</v>
       </c>
       <c r="C36" s="9">
         <v>2003</v>
@@ -3072,7 +4011,7 @@
         <v>12</v>
       </c>
       <c r="F36" s="5" t="s">
-        <v>282</v>
+        <v>387</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.2">
@@ -3080,7 +4019,7 @@
         <v>85</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>283</v>
+        <v>388</v>
       </c>
       <c r="C37" s="9">
         <v>2005</v>
@@ -3092,7 +4031,7 @@
         <v>12</v>
       </c>
       <c r="F37" s="5" t="s">
-        <v>284</v>
+        <v>389</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.2">
@@ -3100,7 +4039,7 @@
         <v>86</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>285</v>
+        <v>390</v>
       </c>
       <c r="C38" s="9">
         <v>2001</v>
@@ -3112,7 +4051,7 @@
         <v>0</v>
       </c>
       <c r="F38" s="5" t="s">
-        <v>286</v>
+        <v>391</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.2">
@@ -3120,7 +4059,7 @@
         <v>87</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>287</v>
+        <v>392</v>
       </c>
       <c r="C39" s="9">
         <v>2005</v>
@@ -3132,7 +4071,7 @@
         <v>12</v>
       </c>
       <c r="F39" s="5" t="s">
-        <v>288</v>
+        <v>393</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.2">
@@ -3140,7 +4079,7 @@
         <v>88</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>289</v>
+        <v>394</v>
       </c>
       <c r="C40" s="9">
         <v>2006</v>
@@ -3152,7 +4091,7 @@
         <v>6</v>
       </c>
       <c r="F40" s="5" t="s">
-        <v>290</v>
+        <v>395</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.2">
@@ -3160,7 +4099,7 @@
         <v>89</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>291</v>
+        <v>396</v>
       </c>
       <c r="C41" s="9">
         <v>2004</v>
@@ -3172,7 +4111,7 @@
         <v>6</v>
       </c>
       <c r="F41" s="5" t="s">
-        <v>292</v>
+        <v>397</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.2">
@@ -3180,7 +4119,7 @@
         <v>90</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>293</v>
+        <v>398</v>
       </c>
       <c r="C42" s="9">
         <v>1996</v>
@@ -3192,7 +4131,7 @@
         <v>16</v>
       </c>
       <c r="F42" s="5" t="s">
-        <v>294</v>
+        <v>399</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.2">
@@ -3200,7 +4139,7 @@
         <v>91</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>295</v>
+        <v>400</v>
       </c>
       <c r="C43" s="9">
         <v>1992</v>
@@ -3212,7 +4151,7 @@
         <v>18</v>
       </c>
       <c r="F43" s="5" t="s">
-        <v>296</v>
+        <v>401</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.2">
@@ -3220,7 +4159,7 @@
         <v>92</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>297</v>
+        <v>402</v>
       </c>
       <c r="C44" s="9">
         <v>2005</v>
@@ -3232,7 +4171,7 @@
         <v>0</v>
       </c>
       <c r="F44" s="5" t="s">
-        <v>298</v>
+        <v>403</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.2">
@@ -3240,7 +4179,7 @@
         <v>93</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>299</v>
+        <v>404</v>
       </c>
       <c r="C45" s="9">
         <v>2004</v>
@@ -3252,7 +4191,7 @@
         <v>16</v>
       </c>
       <c r="F45" s="5" t="s">
-        <v>300</v>
+        <v>405</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.2">
@@ -3260,7 +4199,7 @@
         <v>94</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>301</v>
+        <v>406</v>
       </c>
       <c r="C46" s="9">
         <v>2003</v>
@@ -3272,7 +4211,7 @@
         <v>16</v>
       </c>
       <c r="F46" s="5" t="s">
-        <v>302</v>
+        <v>407</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.2">
@@ -3280,7 +4219,7 @@
         <v>95</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>303</v>
+        <v>408</v>
       </c>
       <c r="C47" s="9">
         <v>2003</v>
@@ -3292,7 +4231,7 @@
         <v>6</v>
       </c>
       <c r="F47" s="5" t="s">
-        <v>304</v>
+        <v>409</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.2">
@@ -3300,7 +4239,7 @@
         <v>96</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>305</v>
+        <v>410</v>
       </c>
       <c r="C48" s="9">
         <v>1993</v>
@@ -3312,7 +4251,7 @@
         <v>12</v>
       </c>
       <c r="F48" s="5" t="s">
-        <v>306</v>
+        <v>411</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.2">
@@ -3320,7 +4259,7 @@
         <v>97</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>307</v>
+        <v>412</v>
       </c>
       <c r="C49" s="9">
         <v>2002</v>
@@ -3332,7 +4271,7 @@
         <v>0</v>
       </c>
       <c r="F49" s="5" t="s">
-        <v>308</v>
+        <v>413</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.2">
@@ -3340,7 +4279,7 @@
         <v>98</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>309</v>
+        <v>414</v>
       </c>
       <c r="C50" s="9">
         <v>1998</v>
@@ -3352,7 +4291,7 @@
         <v>16</v>
       </c>
       <c r="F50" s="5" t="s">
-        <v>310</v>
+        <v>415</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.2">
@@ -3360,7 +4299,7 @@
         <v>99</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>311</v>
+        <v>416</v>
       </c>
       <c r="C51" s="9">
         <v>1999</v>
@@ -3372,7 +4311,7 @@
         <v>12</v>
       </c>
       <c r="F51" s="5" t="s">
-        <v>312</v>
+        <v>417</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.2">
@@ -3380,7 +4319,7 @@
         <v>100</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>313</v>
+        <v>418</v>
       </c>
       <c r="C52" s="9">
         <v>2002</v>
@@ -3392,7 +4331,7 @@
         <v>12</v>
       </c>
       <c r="F52" s="5" t="s">
-        <v>314</v>
+        <v>419</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.2">
@@ -3400,7 +4339,7 @@
         <v>101</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>315</v>
+        <v>420</v>
       </c>
       <c r="C53" s="9">
         <v>1994</v>
@@ -3412,7 +4351,7 @@
         <v>12</v>
       </c>
       <c r="F53" s="5" t="s">
-        <v>316</v>
+        <v>421</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.2">
@@ -3420,7 +4359,7 @@
         <v>102</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>317</v>
+        <v>422</v>
       </c>
       <c r="C54" s="9">
         <v>2004</v>
@@ -3432,7 +4371,7 @@
         <v>0</v>
       </c>
       <c r="F54" s="5" t="s">
-        <v>318</v>
+        <v>423</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.2">
@@ -3440,7 +4379,7 @@
         <v>103</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>319</v>
+        <v>424</v>
       </c>
       <c r="C55" s="9">
         <v>2002</v>
@@ -3452,7 +4391,7 @@
         <v>18</v>
       </c>
       <c r="F55" s="5" t="s">
-        <v>320</v>
+        <v>425</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.2">
@@ -3460,7 +4399,7 @@
         <v>104</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>321</v>
+        <v>426</v>
       </c>
       <c r="C56" s="9">
         <v>2004</v>
@@ -3472,7 +4411,7 @@
         <v>12</v>
       </c>
       <c r="F56" s="5" t="s">
-        <v>322</v>
+        <v>427</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.2">
@@ -3480,7 +4419,7 @@
         <v>105</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>323</v>
+        <v>428</v>
       </c>
       <c r="C57" s="9">
         <v>1996</v>
@@ -3492,7 +4431,7 @@
         <v>12</v>
       </c>
       <c r="F57" s="5" t="s">
-        <v>324</v>
+        <v>429</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.2">
@@ -3500,7 +4439,7 @@
         <v>106</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>325</v>
+        <v>430</v>
       </c>
       <c r="C58" s="9">
         <v>2006</v>
@@ -3512,7 +4451,7 @@
         <v>12</v>
       </c>
       <c r="F58" s="5" t="s">
-        <v>326</v>
+        <v>431</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.2">
@@ -3520,7 +4459,7 @@
         <v>107</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>327</v>
+        <v>432</v>
       </c>
       <c r="C59" s="9">
         <v>1997</v>
@@ -3532,7 +4471,7 @@
         <v>16</v>
       </c>
       <c r="F59" s="5" t="s">
-        <v>328</v>
+        <v>433</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.2">
@@ -3540,7 +4479,7 @@
         <v>108</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>329</v>
+        <v>434</v>
       </c>
       <c r="C60" s="9">
         <v>2009</v>
@@ -3552,7 +4491,7 @@
         <v>16</v>
       </c>
       <c r="F60" s="5" t="s">
-        <v>330</v>
+        <v>435</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.2">
@@ -3560,7 +4499,7 @@
         <v>109</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>331</v>
+        <v>436</v>
       </c>
       <c r="C61" s="9">
         <v>2001</v>
@@ -3572,7 +4511,7 @@
         <v>16</v>
       </c>
       <c r="F61" s="5" t="s">
-        <v>332</v>
+        <v>437</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.2">
@@ -3580,7 +4519,7 @@
         <v>110</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>333</v>
+        <v>438</v>
       </c>
       <c r="C62" s="9">
         <v>2002</v>
@@ -3592,7 +4531,7 @@
         <v>12</v>
       </c>
       <c r="F62" s="5" t="s">
-        <v>334</v>
+        <v>439</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.2">
@@ -3600,7 +4539,7 @@
         <v>111</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>335</v>
+        <v>440</v>
       </c>
       <c r="C63" s="9">
         <v>2003</v>
@@ -3612,7 +4551,7 @@
         <v>12</v>
       </c>
       <c r="F63" s="5" t="s">
-        <v>336</v>
+        <v>441</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.2">
@@ -3620,7 +4559,7 @@
         <v>112</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>337</v>
+        <v>442</v>
       </c>
       <c r="C64" s="9">
         <v>2005</v>
@@ -3632,7 +4571,7 @@
         <v>12</v>
       </c>
       <c r="F64" s="5" t="s">
-        <v>338</v>
+        <v>443</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.2">
@@ -3640,7 +4579,7 @@
         <v>113</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>339</v>
+        <v>444</v>
       </c>
       <c r="C65" s="9">
         <v>2006</v>
@@ -3652,7 +4591,7 @@
         <v>16</v>
       </c>
       <c r="F65" s="5" t="s">
-        <v>340</v>
+        <v>445</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.2">
@@ -3660,7 +4599,7 @@
         <v>114</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>341</v>
+        <v>446</v>
       </c>
       <c r="C66" s="9">
         <v>1979</v>
@@ -3672,7 +4611,7 @@
         <v>12</v>
       </c>
       <c r="F66" s="5" t="s">
-        <v>342</v>
+        <v>447</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.2">
@@ -3680,7 +4619,7 @@
         <v>115</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>343</v>
+        <v>448</v>
       </c>
       <c r="C67" s="9">
         <v>2002</v>
@@ -3692,7 +4631,7 @@
         <v>16</v>
       </c>
       <c r="F67" s="5" t="s">
-        <v>344</v>
+        <v>449</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.2">
@@ -3700,7 +4639,7 @@
         <v>116</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>345</v>
+        <v>450</v>
       </c>
       <c r="C68" s="9">
         <v>1996</v>
@@ -3712,7 +4651,7 @@
         <v>16</v>
       </c>
       <c r="F68" s="5" t="s">
-        <v>346</v>
+        <v>451</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.2">
@@ -3720,7 +4659,7 @@
         <v>117</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>347</v>
+        <v>452</v>
       </c>
       <c r="C69" s="9">
         <v>2005</v>
@@ -3732,7 +4671,7 @@
         <v>18</v>
       </c>
       <c r="F69" s="5" t="s">
-        <v>348</v>
+        <v>453</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.2">
@@ -3740,7 +4679,7 @@
         <v>118</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>349</v>
+        <v>454</v>
       </c>
       <c r="C70" s="9">
         <v>2005</v>
@@ -3752,7 +4691,7 @@
         <v>6</v>
       </c>
       <c r="F70" s="5" t="s">
-        <v>350</v>
+        <v>455</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.2">
@@ -3760,7 +4699,7 @@
         <v>119</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>352</v>
+        <v>457</v>
       </c>
       <c r="C71" s="9">
         <v>1996</v>
@@ -3772,7 +4711,7 @@
         <v>6</v>
       </c>
       <c r="F71" s="5" t="s">
-        <v>351</v>
+        <v>456</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.2">
@@ -3780,7 +4719,7 @@
         <v>120</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>353</v>
+        <v>458</v>
       </c>
       <c r="C72" s="9">
         <v>2000</v>
@@ -3792,7 +4731,7 @@
         <v>16</v>
       </c>
       <c r="F72" s="5" t="s">
-        <v>354</v>
+        <v>459</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.2">
@@ -3800,7 +4739,7 @@
         <v>121</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>355</v>
+        <v>460</v>
       </c>
       <c r="C73" s="9">
         <v>2000</v>
@@ -3812,7 +4751,7 @@
         <v>12</v>
       </c>
       <c r="F73" s="5" t="s">
-        <v>356</v>
+        <v>461</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.2">
@@ -3820,7 +4759,7 @@
         <v>122</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>357</v>
+        <v>462</v>
       </c>
       <c r="C74" s="9">
         <v>2004</v>
@@ -3832,7 +4771,7 @@
         <v>18</v>
       </c>
       <c r="F74" s="5" t="s">
-        <v>358</v>
+        <v>463</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.2">
@@ -3840,7 +4779,7 @@
         <v>123</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>359</v>
+        <v>464</v>
       </c>
       <c r="C75" s="9">
         <v>2004</v>
@@ -3852,7 +4791,7 @@
         <v>6</v>
       </c>
       <c r="F75" s="5" t="s">
-        <v>360</v>
+        <v>465</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.2">
@@ -3860,7 +4799,7 @@
         <v>124</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>361</v>
+        <v>466</v>
       </c>
       <c r="C76" s="9">
         <v>1979</v>
@@ -3872,7 +4811,7 @@
         <v>16</v>
       </c>
       <c r="F76" s="5" t="s">
-        <v>362</v>
+        <v>467</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.2">
@@ -3880,7 +4819,7 @@
         <v>125</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>363</v>
+        <v>468</v>
       </c>
       <c r="C77" s="9">
         <v>2003</v>
@@ -3892,7 +4831,7 @@
         <v>16</v>
       </c>
       <c r="F77" s="5" t="s">
-        <v>364</v>
+        <v>469</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.2">
@@ -3900,7 +4839,7 @@
         <v>126</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>365</v>
+        <v>470</v>
       </c>
       <c r="C78" s="9">
         <v>1997</v>
@@ -3912,7 +4851,7 @@
         <v>16</v>
       </c>
       <c r="F78" s="5" t="s">
-        <v>366</v>
+        <v>471</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.2">
@@ -3920,7 +4859,7 @@
         <v>127</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>367</v>
+        <v>472</v>
       </c>
       <c r="C79" s="9">
         <v>2005</v>
@@ -3932,7 +4871,7 @@
         <v>12</v>
       </c>
       <c r="F79" s="5" t="s">
-        <v>368</v>
+        <v>473</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.2">
@@ -3940,7 +4879,7 @@
         <v>128</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>369</v>
+        <v>474</v>
       </c>
       <c r="C80" s="9">
         <v>2003</v>
@@ -3952,7 +4891,7 @@
         <v>18</v>
       </c>
       <c r="F80" s="5" t="s">
-        <v>370</v>
+        <v>475</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.2">
@@ -3960,7 +4899,7 @@
         <v>129</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>371</v>
+        <v>476</v>
       </c>
       <c r="C81" s="9">
         <v>2007</v>
@@ -3972,7 +4911,7 @@
         <v>16</v>
       </c>
       <c r="F81" s="5" t="s">
-        <v>372</v>
+        <v>477</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.2">
@@ -3980,7 +4919,7 @@
         <v>130</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>373</v>
+        <v>478</v>
       </c>
       <c r="C82" s="9">
         <v>2002</v>
@@ -3992,7 +4931,7 @@
         <v>18</v>
       </c>
       <c r="F82" s="5" t="s">
-        <v>374</v>
+        <v>479</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.2">
@@ -4000,7 +4939,7 @@
         <v>131</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>375</v>
+        <v>480</v>
       </c>
       <c r="C83" s="9">
         <v>2004</v>
@@ -4012,7 +4951,7 @@
         <v>16</v>
       </c>
       <c r="F83" s="5" t="s">
-        <v>376</v>
+        <v>481</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.2">
@@ -4020,7 +4959,7 @@
         <v>132</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>377</v>
+        <v>482</v>
       </c>
       <c r="C84" s="9">
         <v>2004</v>
@@ -4032,7 +4971,7 @@
         <v>12</v>
       </c>
       <c r="F84" s="5" t="s">
-        <v>378</v>
+        <v>483</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.2">
@@ -4040,7 +4979,7 @@
         <v>133</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>379</v>
+        <v>484</v>
       </c>
       <c r="C85" s="9">
         <v>2002</v>
@@ -4052,7 +4991,7 @@
         <v>12</v>
       </c>
       <c r="F85" s="5" t="s">
-        <v>380</v>
+        <v>485</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.2">
@@ -4060,7 +4999,7 @@
         <v>134</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>381</v>
+        <v>486</v>
       </c>
       <c r="C86" s="9">
         <v>2004</v>
@@ -4072,7 +5011,7 @@
         <v>16</v>
       </c>
       <c r="F86" s="5" t="s">
-        <v>382</v>
+        <v>487</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.2">
@@ -4080,7 +5019,7 @@
         <v>135</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>383</v>
+        <v>488</v>
       </c>
       <c r="C87" s="9">
         <v>2009</v>
@@ -4092,7 +5031,7 @@
         <v>16</v>
       </c>
       <c r="F87" s="5" t="s">
-        <v>384</v>
+        <v>489</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.2">
@@ -4100,7 +5039,7 @@
         <v>136</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>385</v>
+        <v>490</v>
       </c>
       <c r="C88" s="9">
         <v>2001</v>
@@ -4112,7 +5051,7 @@
         <v>12</v>
       </c>
       <c r="F88" s="5" t="s">
-        <v>386</v>
+        <v>491</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.2">
@@ -4120,7 +5059,7 @@
         <v>137</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>387</v>
+        <v>492</v>
       </c>
       <c r="C89" s="9">
         <v>2023</v>
@@ -4132,7 +5071,7 @@
         <v>16</v>
       </c>
       <c r="F89" s="5" t="s">
-        <v>388</v>
+        <v>493</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.2">
@@ -4140,7 +5079,7 @@
         <v>138</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>389</v>
+        <v>494</v>
       </c>
       <c r="C90" s="9">
         <v>1994</v>
@@ -4152,7 +5091,7 @@
         <v>16</v>
       </c>
       <c r="F90" s="5" t="s">
-        <v>390</v>
+        <v>495</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.2">
@@ -4160,7 +5099,7 @@
         <v>139</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>391</v>
+        <v>496</v>
       </c>
       <c r="C91" s="9">
         <v>2022</v>
@@ -4172,7 +5111,7 @@
         <v>12</v>
       </c>
       <c r="F91" s="5" t="s">
-        <v>392</v>
+        <v>497</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.2">
@@ -4180,7 +5119,7 @@
         <v>140</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>393</v>
+        <v>498</v>
       </c>
       <c r="C92" s="9">
         <v>1984</v>
@@ -4192,7 +5131,7 @@
         <v>16</v>
       </c>
       <c r="F92" s="5" t="s">
-        <v>394</v>
+        <v>499</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.2">
@@ -4200,7 +5139,7 @@
         <v>141</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>395</v>
+        <v>500</v>
       </c>
       <c r="C93" s="9">
         <v>1989</v>
@@ -4212,7 +5151,7 @@
         <v>12</v>
       </c>
       <c r="F93" s="5" t="s">
-        <v>396</v>
+        <v>501</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.2">
@@ -4220,7 +5159,7 @@
         <v>142</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>397</v>
+        <v>502</v>
       </c>
       <c r="C94" s="9">
         <v>2023</v>
@@ -4232,7 +5171,7 @@
         <v>6</v>
       </c>
       <c r="F94" s="5" t="s">
-        <v>398</v>
+        <v>503</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.2">
@@ -4240,7 +5179,7 @@
         <v>143</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>399</v>
+        <v>504</v>
       </c>
       <c r="C95" s="9">
         <v>1994</v>
@@ -4252,7 +5191,7 @@
         <v>16</v>
       </c>
       <c r="F95" s="5" t="s">
-        <v>400</v>
+        <v>505</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.2">
@@ -4260,7 +5199,7 @@
         <v>144</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>401</v>
+        <v>506</v>
       </c>
       <c r="C96" s="9">
         <v>2004</v>
@@ -4272,7 +5211,7 @@
         <v>12</v>
       </c>
       <c r="F96" s="5" t="s">
-        <v>402</v>
+        <v>507</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.2">
@@ -4280,7 +5219,7 @@
         <v>145</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>403</v>
+        <v>508</v>
       </c>
       <c r="C97" s="9">
         <v>2003</v>
@@ -4292,7 +5231,7 @@
         <v>6</v>
       </c>
       <c r="F97" s="5" t="s">
-        <v>404</v>
+        <v>509</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.2">
@@ -4300,7 +5239,7 @@
         <v>146</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>405</v>
+        <v>510</v>
       </c>
       <c r="C98" s="9">
         <v>2003</v>
@@ -4312,7 +5251,7 @@
         <v>12</v>
       </c>
       <c r="F98" s="5" t="s">
-        <v>406</v>
+        <v>511</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.2">
@@ -4320,7 +5259,7 @@
         <v>147</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>407</v>
+        <v>512</v>
       </c>
       <c r="C99" s="9">
         <v>1996</v>
@@ -4332,7 +5271,7 @@
         <v>18</v>
       </c>
       <c r="F99" s="5" t="s">
-        <v>408</v>
+        <v>513</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.2">
@@ -4340,7 +5279,7 @@
         <v>148</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>409</v>
+        <v>514</v>
       </c>
       <c r="C100" s="9">
         <v>1987</v>
@@ -4352,7 +5291,7 @@
         <v>6</v>
       </c>
       <c r="F100" s="5" t="s">
-        <v>410</v>
+        <v>515</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.2">
@@ -4360,7 +5299,7 @@
         <v>149</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>411</v>
+        <v>516</v>
       </c>
       <c r="C101" s="9">
         <v>2002</v>
@@ -4372,7 +5311,7 @@
         <v>16</v>
       </c>
       <c r="F101" s="5" t="s">
-        <v>412</v>
+        <v>517</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.2">
@@ -4380,7 +5319,7 @@
         <v>150</v>
       </c>
       <c r="B102" s="4" t="s">
-        <v>413</v>
+        <v>518</v>
       </c>
       <c r="C102" s="9">
         <v>2005</v>
@@ -4392,7 +5331,7 @@
         <v>6</v>
       </c>
       <c r="F102" s="5" t="s">
-        <v>414</v>
+        <v>519</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.2">
@@ -4400,7 +5339,7 @@
         <v>151</v>
       </c>
       <c r="B103" s="4" t="s">
-        <v>415</v>
+        <v>520</v>
       </c>
       <c r="C103" s="9">
         <v>2003</v>
@@ -4412,7 +5351,7 @@
         <v>12</v>
       </c>
       <c r="F103" s="5" t="s">
-        <v>416</v>
+        <v>521</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.2">
@@ -4420,7 +5359,7 @@
         <v>152</v>
       </c>
       <c r="B104" s="4" t="s">
-        <v>417</v>
+        <v>522</v>
       </c>
       <c r="C104" s="9">
         <v>2014</v>
@@ -4432,7 +5371,7 @@
         <v>16</v>
       </c>
       <c r="F104" s="5" t="s">
-        <v>418</v>
+        <v>523</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.2">
@@ -4440,7 +5379,7 @@
         <v>153</v>
       </c>
       <c r="B105" s="4" t="s">
-        <v>419</v>
+        <v>524</v>
       </c>
       <c r="C105" s="9">
         <v>2004</v>
@@ -4452,7 +5391,7 @@
         <v>16</v>
       </c>
       <c r="F105" s="5" t="s">
-        <v>420</v>
+        <v>525</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.2">
@@ -4460,7 +5399,7 @@
         <v>154</v>
       </c>
       <c r="B106" s="4" t="s">
-        <v>421</v>
+        <v>526</v>
       </c>
       <c r="C106" s="9">
         <v>2005</v>
@@ -4472,7 +5411,7 @@
         <v>0</v>
       </c>
       <c r="F106" s="5" t="s">
-        <v>422</v>
+        <v>527</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.2">
@@ -4480,7 +5419,7 @@
         <v>155</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>423</v>
+        <v>528</v>
       </c>
       <c r="C107" s="9">
         <v>2005</v>
@@ -4492,7 +5431,7 @@
         <v>16</v>
       </c>
       <c r="F107" s="5" t="s">
-        <v>424</v>
+        <v>529</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.2">
@@ -4500,7 +5439,7 @@
         <v>156</v>
       </c>
       <c r="B108" s="4" t="s">
-        <v>425</v>
+        <v>530</v>
       </c>
       <c r="C108" s="9">
         <v>2004</v>
@@ -4512,7 +5451,7 @@
         <v>0</v>
       </c>
       <c r="F108" s="5" t="s">
-        <v>426</v>
+        <v>531</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.2">
@@ -4520,7 +5459,7 @@
         <v>157</v>
       </c>
       <c r="B109" s="4" t="s">
-        <v>427</v>
+        <v>532</v>
       </c>
       <c r="C109" s="9">
         <v>2002</v>
@@ -4532,7 +5471,7 @@
         <v>12</v>
       </c>
       <c r="F109" s="5" t="s">
-        <v>428</v>
+        <v>533</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.2">
@@ -4540,7 +5479,7 @@
         <v>158</v>
       </c>
       <c r="B110" s="4" t="s">
-        <v>429</v>
+        <v>534</v>
       </c>
       <c r="C110" s="9">
         <v>2004</v>
@@ -4552,7 +5491,7 @@
         <v>12</v>
       </c>
       <c r="F110" s="5" t="s">
-        <v>430</v>
+        <v>535</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.2">
@@ -4560,7 +5499,7 @@
         <v>159</v>
       </c>
       <c r="B111" s="4" t="s">
-        <v>431</v>
+        <v>536</v>
       </c>
       <c r="C111" s="9">
         <v>2002</v>
@@ -4572,7 +5511,7 @@
         <v>16</v>
       </c>
       <c r="F111" s="5" t="s">
-        <v>432</v>
+        <v>537</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.2">
@@ -4580,7 +5519,7 @@
         <v>160</v>
       </c>
       <c r="B112" s="4" t="s">
-        <v>433</v>
+        <v>538</v>
       </c>
       <c r="C112" s="9">
         <v>2002</v>
@@ -4592,7 +5531,7 @@
         <v>12</v>
       </c>
       <c r="F112" s="5" t="s">
-        <v>434</v>
+        <v>539</v>
       </c>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.2">
@@ -4600,7 +5539,7 @@
         <v>161</v>
       </c>
       <c r="B113" s="4" t="s">
-        <v>435</v>
+        <v>540</v>
       </c>
       <c r="C113" s="9">
         <v>2003</v>
@@ -4612,7 +5551,7 @@
         <v>12</v>
       </c>
       <c r="F113" s="5" t="s">
-        <v>436</v>
+        <v>541</v>
       </c>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.2">
@@ -4620,7 +5559,7 @@
         <v>162</v>
       </c>
       <c r="B114" s="4" t="s">
-        <v>437</v>
+        <v>542</v>
       </c>
       <c r="C114" s="9">
         <v>2006</v>
@@ -4632,7 +5571,7 @@
         <v>12</v>
       </c>
       <c r="F114" s="5" t="s">
-        <v>438</v>
+        <v>543</v>
       </c>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.2">
@@ -4640,7 +5579,7 @@
         <v>163</v>
       </c>
       <c r="B115" s="4" t="s">
-        <v>439</v>
+        <v>544</v>
       </c>
       <c r="C115" s="9">
         <v>2001</v>
@@ -4652,7 +5591,7 @@
         <v>18</v>
       </c>
       <c r="F115" s="5" t="s">
-        <v>440</v>
+        <v>545</v>
       </c>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.2">
@@ -4660,7 +5599,7 @@
         <v>164</v>
       </c>
       <c r="B116" s="4" t="s">
-        <v>441</v>
+        <v>546</v>
       </c>
       <c r="C116" s="9">
         <v>2004</v>
@@ -4672,7 +5611,7 @@
         <v>12</v>
       </c>
       <c r="F116" s="5" t="s">
-        <v>442</v>
+        <v>547</v>
       </c>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.2">
@@ -4680,7 +5619,7 @@
         <v>165</v>
       </c>
       <c r="B117" s="4" t="s">
-        <v>443</v>
+        <v>548</v>
       </c>
       <c r="C117" s="9">
         <v>2004</v>
@@ -4692,7 +5631,7 @@
         <v>12</v>
       </c>
       <c r="F117" s="5" t="s">
-        <v>444</v>
+        <v>549</v>
       </c>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.2">
@@ -4700,7 +5639,7 @@
         <v>166</v>
       </c>
       <c r="B118" s="4" t="s">
-        <v>445</v>
+        <v>550</v>
       </c>
       <c r="C118" s="9">
         <v>1987</v>
@@ -4712,7 +5651,7 @@
         <v>12</v>
       </c>
       <c r="F118" s="5" t="s">
-        <v>446</v>
+        <v>551</v>
       </c>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.2">
@@ -4720,7 +5659,7 @@
         <v>167</v>
       </c>
       <c r="B119" s="4" t="s">
-        <v>447</v>
+        <v>552</v>
       </c>
       <c r="C119" s="9">
         <v>2004</v>
@@ -4732,7 +5671,7 @@
         <v>6</v>
       </c>
       <c r="F119" s="5" t="s">
-        <v>448</v>
+        <v>553</v>
       </c>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.2">
@@ -4740,7 +5679,7 @@
         <v>168</v>
       </c>
       <c r="B120" s="4" t="s">
-        <v>449</v>
+        <v>554</v>
       </c>
       <c r="C120" s="9">
         <v>2001</v>
@@ -4752,7 +5691,7 @@
         <v>12</v>
       </c>
       <c r="F120" s="5" t="s">
-        <v>450</v>
+        <v>555</v>
       </c>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.2">
@@ -4760,7 +5699,7 @@
         <v>169</v>
       </c>
       <c r="B121" s="4" t="s">
-        <v>451</v>
+        <v>556</v>
       </c>
       <c r="C121" s="9">
         <v>2004</v>
@@ -4772,7 +5711,7 @@
         <v>18</v>
       </c>
       <c r="F121" s="5" t="s">
-        <v>452</v>
+        <v>557</v>
       </c>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.2">
@@ -4780,7 +5719,7 @@
         <v>170</v>
       </c>
       <c r="B122" s="4" t="s">
-        <v>453</v>
+        <v>558</v>
       </c>
       <c r="C122" s="9">
         <v>2000</v>
@@ -4792,10 +5731,10 @@
         <v>12</v>
       </c>
       <c r="F122" s="5" t="s">
-        <v>454</v>
+        <v>559</v>
       </c>
       <c r="G122" t="s">
-        <v>455</v>
+        <v>560</v>
       </c>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.2">
@@ -4803,7 +5742,7 @@
         <v>171</v>
       </c>
       <c r="B123" s="4" t="s">
-        <v>456</v>
+        <v>561</v>
       </c>
       <c r="C123" s="9">
         <v>2003</v>
@@ -4815,7 +5754,7 @@
         <v>12</v>
       </c>
       <c r="F123" s="5" t="s">
-        <v>457</v>
+        <v>562</v>
       </c>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.2">
@@ -4823,7 +5762,7 @@
         <v>172</v>
       </c>
       <c r="B124" s="4" t="s">
-        <v>458</v>
+        <v>563</v>
       </c>
       <c r="C124" s="9">
         <v>1987</v>
@@ -4835,7 +5774,7 @@
         <v>16</v>
       </c>
       <c r="F124" s="5" t="s">
-        <v>459</v>
+        <v>564</v>
       </c>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.2">
@@ -4843,7 +5782,7 @@
         <v>173</v>
       </c>
       <c r="B125" s="4" t="s">
-        <v>460</v>
+        <v>565</v>
       </c>
       <c r="C125" s="9">
         <v>1999</v>
@@ -4855,7 +5794,7 @@
         <v>16</v>
       </c>
       <c r="F125" s="5" t="s">
-        <v>461</v>
+        <v>566</v>
       </c>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.2">
@@ -4863,7 +5802,7 @@
         <v>174</v>
       </c>
       <c r="B126" s="4" t="s">
-        <v>462</v>
+        <v>567</v>
       </c>
       <c r="C126" s="9">
         <v>2002</v>
@@ -4875,7 +5814,7 @@
         <v>18</v>
       </c>
       <c r="F126" s="5" t="s">
-        <v>463</v>
+        <v>568</v>
       </c>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.2">
@@ -4883,7 +5822,7 @@
         <v>175</v>
       </c>
       <c r="B127" s="4" t="s">
-        <v>464</v>
+        <v>569</v>
       </c>
       <c r="C127" s="9">
         <v>2004</v>
@@ -4895,7 +5834,7 @@
         <v>18</v>
       </c>
       <c r="F127" s="5" t="s">
-        <v>465</v>
+        <v>570</v>
       </c>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.2">
@@ -4903,7 +5842,7 @@
         <v>176</v>
       </c>
       <c r="B128" s="4" t="s">
-        <v>466</v>
+        <v>571</v>
       </c>
       <c r="C128" s="9">
         <v>2003</v>
@@ -4915,7 +5854,7 @@
         <v>0</v>
       </c>
       <c r="F128" s="5" t="s">
-        <v>467</v>
+        <v>572</v>
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.2">
@@ -4923,7 +5862,7 @@
         <v>177</v>
       </c>
       <c r="B129" s="4" t="s">
-        <v>468</v>
+        <v>573</v>
       </c>
       <c r="C129" s="9">
         <v>2004</v>
@@ -4935,7 +5874,7 @@
         <v>0</v>
       </c>
       <c r="F129" s="5" t="s">
-        <v>469</v>
+        <v>574</v>
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.2">
@@ -4943,7 +5882,7 @@
         <v>178</v>
       </c>
       <c r="B130" s="4" t="s">
-        <v>470</v>
+        <v>575</v>
       </c>
       <c r="C130" s="9">
         <v>2003</v>
@@ -4955,7 +5894,7 @@
         <v>16</v>
       </c>
       <c r="F130" s="5" t="s">
-        <v>471</v>
+        <v>576</v>
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.2">
@@ -4963,7 +5902,7 @@
         <v>179</v>
       </c>
       <c r="B131" s="4" t="s">
-        <v>472</v>
+        <v>577</v>
       </c>
       <c r="C131" s="9">
         <v>2003</v>
@@ -4975,7 +5914,7 @@
         <v>18</v>
       </c>
       <c r="F131" s="5" t="s">
-        <v>473</v>
+        <v>578</v>
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.2">
@@ -4983,7 +5922,7 @@
         <v>180</v>
       </c>
       <c r="B132" s="4" t="s">
-        <v>474</v>
+        <v>579</v>
       </c>
       <c r="C132" s="9">
         <v>2006</v>
@@ -4995,7 +5934,7 @@
         <v>16</v>
       </c>
       <c r="F132" s="5" t="s">
-        <v>475</v>
+        <v>580</v>
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.2">
@@ -5003,7 +5942,7 @@
         <v>181</v>
       </c>
       <c r="B133" s="4" t="s">
-        <v>476</v>
+        <v>581</v>
       </c>
       <c r="C133" s="9">
         <v>2005</v>
@@ -5015,7 +5954,7 @@
         <v>12</v>
       </c>
       <c r="F133" s="5" t="s">
-        <v>477</v>
+        <v>582</v>
       </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.2">
@@ -5023,7 +5962,7 @@
         <v>182</v>
       </c>
       <c r="B134" s="4" t="s">
-        <v>478</v>
+        <v>583</v>
       </c>
       <c r="C134" s="9">
         <v>2005</v>
@@ -5035,7 +5974,7 @@
         <v>18</v>
       </c>
       <c r="F134" s="5" t="s">
-        <v>479</v>
+        <v>584</v>
       </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.2">
@@ -5043,7 +5982,7 @@
         <v>183</v>
       </c>
       <c r="B135" s="4" t="s">
-        <v>480</v>
+        <v>585</v>
       </c>
       <c r="C135" s="9">
         <v>1995</v>
@@ -5055,7 +5994,7 @@
         <v>12</v>
       </c>
       <c r="F135" s="5" t="s">
-        <v>481</v>
+        <v>586</v>
       </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.2">
@@ -5063,7 +6002,7 @@
         <v>184</v>
       </c>
       <c r="B136" s="4" t="s">
-        <v>482</v>
+        <v>587</v>
       </c>
       <c r="C136" s="9">
         <v>2004</v>
@@ -5075,7 +6014,7 @@
         <v>6</v>
       </c>
       <c r="F136" s="5" t="s">
-        <v>483</v>
+        <v>588</v>
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.2">
@@ -5083,7 +6022,7 @@
         <v>185</v>
       </c>
       <c r="B137" s="4" t="s">
-        <v>484</v>
+        <v>589</v>
       </c>
       <c r="C137" s="9">
         <v>1995</v>
@@ -5095,7 +6034,7 @@
         <v>18</v>
       </c>
       <c r="F137" s="5" t="s">
-        <v>485</v>
+        <v>590</v>
       </c>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.2">
@@ -5103,7 +6042,7 @@
         <v>186</v>
       </c>
       <c r="B138" s="4" t="s">
-        <v>486</v>
+        <v>591</v>
       </c>
       <c r="C138" s="9">
         <v>2003</v>
@@ -5115,7 +6054,7 @@
         <v>18</v>
       </c>
       <c r="F138" s="5" t="s">
-        <v>487</v>
+        <v>592</v>
       </c>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.2">
@@ -5123,7 +6062,7 @@
         <v>187</v>
       </c>
       <c r="B139" s="4" t="s">
-        <v>488</v>
+        <v>593</v>
       </c>
       <c r="C139" s="9">
         <v>2003</v>
@@ -5135,7 +6074,7 @@
         <v>12</v>
       </c>
       <c r="F139" s="5" t="s">
-        <v>489</v>
+        <v>594</v>
       </c>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.2">
@@ -5143,7 +6082,7 @@
         <v>188</v>
       </c>
       <c r="B140" s="4" t="s">
-        <v>490</v>
+        <v>595</v>
       </c>
       <c r="C140" s="9">
         <v>1971</v>
@@ -5155,7 +6094,7 @@
         <v>16</v>
       </c>
       <c r="F140" s="5" t="s">
-        <v>491</v>
+        <v>596</v>
       </c>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.2">
@@ -5163,7 +6102,7 @@
         <v>189</v>
       </c>
       <c r="B141" s="4" t="s">
-        <v>492</v>
+        <v>597</v>
       </c>
       <c r="C141" s="9">
         <v>2004</v>
@@ -5175,7 +6114,7 @@
         <v>12</v>
       </c>
       <c r="F141" s="5" t="s">
-        <v>493</v>
+        <v>598</v>
       </c>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.2">
@@ -5183,7 +6122,7 @@
         <v>190</v>
       </c>
       <c r="B142" s="4" t="s">
-        <v>494</v>
+        <v>599</v>
       </c>
       <c r="C142" s="9">
         <v>2005</v>
@@ -5195,7 +6134,7 @@
         <v>12</v>
       </c>
       <c r="F142" s="5" t="s">
-        <v>495</v>
+        <v>600</v>
       </c>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.2">
@@ -5203,7 +6142,7 @@
         <v>191</v>
       </c>
       <c r="B143" s="4" t="s">
-        <v>496</v>
+        <v>601</v>
       </c>
       <c r="C143" s="9">
         <v>1987</v>
@@ -5215,7 +6154,7 @@
         <v>12</v>
       </c>
       <c r="F143" s="11" t="s">
-        <v>577</v>
+        <v>682</v>
       </c>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.2">
@@ -5223,7 +6162,7 @@
         <v>192</v>
       </c>
       <c r="B144" s="4" t="s">
-        <v>497</v>
+        <v>602</v>
       </c>
       <c r="C144" s="9">
         <v>2004</v>
@@ -5235,7 +6174,7 @@
         <v>18</v>
       </c>
       <c r="F144" s="5" t="s">
-        <v>498</v>
+        <v>603</v>
       </c>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.2">
@@ -5243,7 +6182,7 @@
         <v>193</v>
       </c>
       <c r="B145" s="4" t="s">
-        <v>499</v>
+        <v>604</v>
       </c>
       <c r="C145" s="9">
         <v>2023</v>
@@ -5255,7 +6194,7 @@
         <v>12</v>
       </c>
       <c r="F145" s="5" t="s">
-        <v>500</v>
+        <v>605</v>
       </c>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.2">
@@ -5263,7 +6202,7 @@
         <v>194</v>
       </c>
       <c r="B146" s="4" t="s">
-        <v>501</v>
+        <v>606</v>
       </c>
       <c r="C146" s="9">
         <v>2003</v>
@@ -5275,7 +6214,7 @@
         <v>16</v>
       </c>
       <c r="F146" s="5" t="s">
-        <v>502</v>
+        <v>607</v>
       </c>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.2">
@@ -5283,7 +6222,7 @@
         <v>195</v>
       </c>
       <c r="B147" s="4" t="s">
-        <v>503</v>
+        <v>608</v>
       </c>
       <c r="C147" s="9">
         <v>2000</v>
@@ -5295,7 +6234,7 @@
         <v>16</v>
       </c>
       <c r="F147" s="5" t="s">
-        <v>504</v>
+        <v>609</v>
       </c>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.2">
@@ -5303,7 +6242,7 @@
         <v>196</v>
       </c>
       <c r="B148" s="4" t="s">
-        <v>505</v>
+        <v>610</v>
       </c>
       <c r="C148" s="9">
         <v>2003</v>
@@ -5315,7 +6254,7 @@
         <v>16</v>
       </c>
       <c r="F148" s="5" t="s">
-        <v>506</v>
+        <v>611</v>
       </c>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.2">
@@ -5323,7 +6262,7 @@
         <v>197</v>
       </c>
       <c r="B149" s="4" t="s">
-        <v>507</v>
+        <v>612</v>
       </c>
       <c r="C149" s="9">
         <v>2006</v>
@@ -5335,7 +6274,7 @@
         <v>18</v>
       </c>
       <c r="F149" s="5" t="s">
-        <v>508</v>
+        <v>613</v>
       </c>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.2">
@@ -5343,7 +6282,7 @@
         <v>198</v>
       </c>
       <c r="B150" s="4" t="s">
-        <v>509</v>
+        <v>614</v>
       </c>
       <c r="C150" s="9">
         <v>2008</v>
@@ -5355,7 +6294,7 @@
         <v>12</v>
       </c>
       <c r="F150" s="5" t="s">
-        <v>510</v>
+        <v>615</v>
       </c>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.2">
@@ -5363,7 +6302,7 @@
         <v>199</v>
       </c>
       <c r="B151" s="4" t="s">
-        <v>511</v>
+        <v>616</v>
       </c>
       <c r="C151" s="9">
         <v>2004</v>
@@ -5375,7 +6314,7 @@
         <v>16</v>
       </c>
       <c r="F151" s="5" t="s">
-        <v>512</v>
+        <v>617</v>
       </c>
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.2">
@@ -5383,7 +6322,7 @@
         <v>200</v>
       </c>
       <c r="B152" s="4" t="s">
-        <v>513</v>
+        <v>618</v>
       </c>
       <c r="C152" s="9">
         <v>2004</v>
@@ -5395,7 +6334,7 @@
         <v>12</v>
       </c>
       <c r="F152" s="5" t="s">
-        <v>514</v>
+        <v>619</v>
       </c>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.2">
@@ -5403,7 +6342,7 @@
         <v>201</v>
       </c>
       <c r="B153" s="4" t="s">
-        <v>515</v>
+        <v>620</v>
       </c>
       <c r="C153" s="9">
         <v>1999</v>
@@ -5415,7 +6354,7 @@
         <v>18</v>
       </c>
       <c r="F153" s="5" t="s">
-        <v>516</v>
+        <v>621</v>
       </c>
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.2">
@@ -5423,7 +6362,7 @@
         <v>202</v>
       </c>
       <c r="B154" s="4" t="s">
-        <v>518</v>
+        <v>623</v>
       </c>
       <c r="C154" s="9">
         <v>1981</v>
@@ -5435,7 +6374,7 @@
         <v>16</v>
       </c>
       <c r="F154" s="5" t="s">
-        <v>517</v>
+        <v>622</v>
       </c>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.2">
@@ -5443,7 +6382,7 @@
         <v>203</v>
       </c>
       <c r="B155" s="4" t="s">
-        <v>519</v>
+        <v>624</v>
       </c>
       <c r="C155" s="9">
         <v>1993</v>
@@ -5455,7 +6394,7 @@
         <v>16</v>
       </c>
       <c r="F155" s="5" t="s">
-        <v>520</v>
+        <v>625</v>
       </c>
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.2">
@@ -5463,7 +6402,7 @@
         <v>204</v>
       </c>
       <c r="B156" s="4" t="s">
-        <v>521</v>
+        <v>626</v>
       </c>
       <c r="C156" s="9">
         <v>1973</v>
@@ -5475,7 +6414,7 @@
         <v>12</v>
       </c>
       <c r="F156" s="5" t="s">
-        <v>522</v>
+        <v>627</v>
       </c>
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.2">
@@ -5483,7 +6422,7 @@
         <v>205</v>
       </c>
       <c r="B157" s="4" t="s">
-        <v>523</v>
+        <v>628</v>
       </c>
       <c r="C157" s="9">
         <v>2000</v>
@@ -5495,7 +6434,7 @@
         <v>12</v>
       </c>
       <c r="F157" s="5" t="s">
-        <v>524</v>
+        <v>629</v>
       </c>
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.2">
@@ -5503,7 +6442,7 @@
         <v>206</v>
       </c>
       <c r="B158" s="4" t="s">
-        <v>525</v>
+        <v>630</v>
       </c>
       <c r="C158" s="9">
         <v>2005</v>
@@ -5515,7 +6454,7 @@
         <v>6</v>
       </c>
       <c r="F158" s="5" t="s">
-        <v>526</v>
+        <v>631</v>
       </c>
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.2">
@@ -5523,7 +6462,7 @@
         <v>207</v>
       </c>
       <c r="B159" s="4" t="s">
-        <v>527</v>
+        <v>632</v>
       </c>
       <c r="C159" s="9">
         <v>2003</v>
@@ -5535,7 +6474,7 @@
         <v>12</v>
       </c>
       <c r="F159" s="5" t="s">
-        <v>528</v>
+        <v>633</v>
       </c>
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.2">
@@ -5543,7 +6482,7 @@
         <v>208</v>
       </c>
       <c r="B160" s="4" t="s">
-        <v>529</v>
+        <v>634</v>
       </c>
       <c r="C160" s="9">
         <v>2001</v>
@@ -5555,7 +6494,7 @@
         <v>12</v>
       </c>
       <c r="F160" s="5" t="s">
-        <v>530</v>
+        <v>635</v>
       </c>
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.2">
@@ -5563,7 +6502,7 @@
         <v>209</v>
       </c>
       <c r="B161" s="4" t="s">
-        <v>531</v>
+        <v>636</v>
       </c>
       <c r="C161" s="9">
         <v>2005</v>
@@ -5575,7 +6514,7 @@
         <v>12</v>
       </c>
       <c r="F161" s="5" t="s">
-        <v>532</v>
+        <v>637</v>
       </c>
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.2">
@@ -5583,7 +6522,7 @@
         <v>210</v>
       </c>
       <c r="B162" s="4" t="s">
-        <v>533</v>
+        <v>638</v>
       </c>
       <c r="C162" s="9">
         <v>2001</v>
@@ -5595,7 +6534,7 @@
         <v>16</v>
       </c>
       <c r="F162" s="5" t="s">
-        <v>534</v>
+        <v>639</v>
       </c>
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.2">
@@ -5603,7 +6542,7 @@
         <v>211</v>
       </c>
       <c r="B163" s="4" t="s">
-        <v>535</v>
+        <v>640</v>
       </c>
       <c r="C163" s="9">
         <v>2003</v>
@@ -5615,7 +6554,7 @@
         <v>18</v>
       </c>
       <c r="F163" s="5" t="s">
-        <v>536</v>
+        <v>641</v>
       </c>
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.2">
@@ -5623,7 +6562,7 @@
         <v>212</v>
       </c>
       <c r="B164" s="4" t="s">
-        <v>537</v>
+        <v>642</v>
       </c>
       <c r="C164" s="9">
         <v>1985</v>
@@ -5635,7 +6574,7 @@
         <v>12</v>
       </c>
       <c r="F164" s="5" t="s">
-        <v>538</v>
+        <v>643</v>
       </c>
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.2">
@@ -5643,7 +6582,7 @@
         <v>213</v>
       </c>
       <c r="B165" s="4" t="s">
-        <v>539</v>
+        <v>644</v>
       </c>
       <c r="C165" s="9">
         <v>2002</v>
@@ -5655,7 +6594,7 @@
         <v>12</v>
       </c>
       <c r="F165" s="5" t="s">
-        <v>540</v>
+        <v>645</v>
       </c>
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.2">
@@ -5663,7 +6602,7 @@
         <v>214</v>
       </c>
       <c r="B166" s="4" t="s">
-        <v>541</v>
+        <v>646</v>
       </c>
       <c r="C166" s="9">
         <v>2003</v>
@@ -5675,7 +6614,7 @@
         <v>12</v>
       </c>
       <c r="F166" s="5" t="s">
-        <v>542</v>
+        <v>647</v>
       </c>
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.2">
@@ -5683,7 +6622,7 @@
         <v>215</v>
       </c>
       <c r="B167" s="4" t="s">
-        <v>543</v>
+        <v>648</v>
       </c>
       <c r="C167" s="9">
         <v>2001</v>
@@ -5695,7 +6634,7 @@
         <v>12</v>
       </c>
       <c r="F167" s="5" t="s">
-        <v>544</v>
+        <v>649</v>
       </c>
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.2">
@@ -5703,7 +6642,7 @@
         <v>216</v>
       </c>
       <c r="B168" s="4" t="s">
-        <v>545</v>
+        <v>650</v>
       </c>
       <c r="C168" s="9">
         <v>2004</v>
@@ -5715,7 +6654,7 @@
         <v>6</v>
       </c>
       <c r="F168" s="5" t="s">
-        <v>546</v>
+        <v>651</v>
       </c>
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.2">
@@ -5723,7 +6662,7 @@
         <v>217</v>
       </c>
       <c r="B169" s="4" t="s">
-        <v>547</v>
+        <v>652</v>
       </c>
       <c r="C169" s="9">
         <v>2000</v>
@@ -5735,7 +6674,7 @@
         <v>16</v>
       </c>
       <c r="F169" s="5" t="s">
-        <v>548</v>
+        <v>653</v>
       </c>
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.2">
@@ -5743,7 +6682,7 @@
         <v>218</v>
       </c>
       <c r="B170" s="4" t="s">
-        <v>549</v>
+        <v>654</v>
       </c>
       <c r="C170" s="9">
         <v>2000</v>
@@ -5755,7 +6694,7 @@
         <v>12</v>
       </c>
       <c r="F170" s="5" t="s">
-        <v>550</v>
+        <v>655</v>
       </c>
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.2">
@@ -5763,7 +6702,7 @@
         <v>219</v>
       </c>
       <c r="B171" s="4" t="s">
-        <v>551</v>
+        <v>656</v>
       </c>
       <c r="C171" s="9">
         <v>2006</v>
@@ -5775,7 +6714,7 @@
         <v>0</v>
       </c>
       <c r="F171" s="5" t="s">
-        <v>552</v>
+        <v>657</v>
       </c>
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.2">
@@ -5783,7 +6722,7 @@
         <v>220</v>
       </c>
       <c r="B172" s="4" t="s">
-        <v>553</v>
+        <v>658</v>
       </c>
       <c r="C172" s="9">
         <v>2001</v>
@@ -5795,7 +6734,7 @@
         <v>12</v>
       </c>
       <c r="F172" s="5" t="s">
-        <v>554</v>
+        <v>659</v>
       </c>
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.2">
@@ -5803,7 +6742,7 @@
         <v>221</v>
       </c>
       <c r="B173" s="4" t="s">
-        <v>555</v>
+        <v>660</v>
       </c>
       <c r="C173" s="9">
         <v>2005</v>
@@ -5815,7 +6754,7 @@
         <v>0</v>
       </c>
       <c r="F173" s="5" t="s">
-        <v>556</v>
+        <v>661</v>
       </c>
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.2">
@@ -5823,7 +6762,7 @@
         <v>222</v>
       </c>
       <c r="B174" s="4" t="s">
-        <v>557</v>
+        <v>662</v>
       </c>
       <c r="C174" s="9">
         <v>2005</v>
@@ -5835,7 +6774,7 @@
         <v>0</v>
       </c>
       <c r="F174" s="5" t="s">
-        <v>558</v>
+        <v>663</v>
       </c>
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.2">
@@ -5843,7 +6782,7 @@
         <v>223</v>
       </c>
       <c r="B175" s="4" t="s">
-        <v>559</v>
+        <v>664</v>
       </c>
       <c r="C175" s="9">
         <v>2001</v>
@@ -5855,7 +6794,7 @@
         <v>16</v>
       </c>
       <c r="F175" s="5" t="s">
-        <v>560</v>
+        <v>665</v>
       </c>
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.2">
@@ -5863,7 +6802,7 @@
         <v>224</v>
       </c>
       <c r="B176" s="4" t="s">
-        <v>561</v>
+        <v>666</v>
       </c>
       <c r="C176" s="9">
         <v>2004</v>
@@ -5875,7 +6814,7 @@
         <v>12</v>
       </c>
       <c r="F176" s="5" t="s">
-        <v>562</v>
+        <v>667</v>
       </c>
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.2">
@@ -5883,7 +6822,7 @@
         <v>225</v>
       </c>
       <c r="B177" s="4" t="s">
-        <v>563</v>
+        <v>668</v>
       </c>
       <c r="C177" s="9">
         <v>2001</v>
@@ -5895,7 +6834,7 @@
         <v>6</v>
       </c>
       <c r="F177" s="5" t="s">
-        <v>564</v>
+        <v>669</v>
       </c>
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.2">
@@ -5903,7 +6842,7 @@
         <v>226</v>
       </c>
       <c r="B178" s="4" t="s">
-        <v>565</v>
+        <v>670</v>
       </c>
       <c r="C178" s="9">
         <v>1999</v>
@@ -5915,7 +6854,7 @@
         <v>16</v>
       </c>
       <c r="F178" s="5" t="s">
-        <v>566</v>
+        <v>671</v>
       </c>
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.2">
@@ -5923,7 +6862,7 @@
         <v>227</v>
       </c>
       <c r="B179" s="4" t="s">
-        <v>567</v>
+        <v>672</v>
       </c>
       <c r="C179" s="9">
         <v>1999</v>
@@ -5935,7 +6874,7 @@
         <v>12</v>
       </c>
       <c r="F179" s="5" t="s">
-        <v>568</v>
+        <v>673</v>
       </c>
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.2">
@@ -5943,7 +6882,7 @@
         <v>228</v>
       </c>
       <c r="B180" s="4" t="s">
-        <v>569</v>
+        <v>674</v>
       </c>
       <c r="C180" s="9">
         <v>2002</v>
@@ -5955,7 +6894,7 @@
         <v>16</v>
       </c>
       <c r="F180" s="5" t="s">
-        <v>570</v>
+        <v>675</v>
       </c>
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.2">
@@ -5963,7 +6902,7 @@
         <v>229</v>
       </c>
       <c r="B181" s="4" t="s">
-        <v>571</v>
+        <v>676</v>
       </c>
       <c r="C181" s="9">
         <v>2003</v>
@@ -5975,7 +6914,7 @@
         <v>0</v>
       </c>
       <c r="F181" s="5" t="s">
-        <v>572</v>
+        <v>677</v>
       </c>
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.2">
@@ -5983,7 +6922,7 @@
         <v>230</v>
       </c>
       <c r="B182" s="4" t="s">
-        <v>573</v>
+        <v>678</v>
       </c>
       <c r="C182" s="9">
         <v>2005</v>
@@ -5995,7 +6934,7 @@
         <v>12</v>
       </c>
       <c r="F182" s="5" t="s">
-        <v>574</v>
+        <v>679</v>
       </c>
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.2">
@@ -6003,7 +6942,7 @@
         <v>231</v>
       </c>
       <c r="B183" s="4" t="s">
-        <v>575</v>
+        <v>680</v>
       </c>
       <c r="C183" s="9">
         <v>2004</v>
@@ -6015,7 +6954,7 @@
         <v>6</v>
       </c>
       <c r="F183" s="5" t="s">
-        <v>576</v>
+        <v>681</v>
       </c>
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.2">
@@ -6023,19 +6962,19 @@
         <v>232</v>
       </c>
       <c r="B184" s="4" t="s">
-        <v>594</v>
+        <v>827</v>
       </c>
       <c r="C184" s="9">
-        <v>2011</v>
+        <v>1999</v>
       </c>
       <c r="D184" s="9">
-        <v>90</v>
+        <v>157</v>
       </c>
       <c r="E184" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F184" s="5" t="s">
-        <v>595</v>
+        <v>828</v>
       </c>
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.2">
@@ -6043,19 +6982,19 @@
         <v>233</v>
       </c>
       <c r="B185" s="4" t="s">
-        <v>611</v>
+        <v>699</v>
       </c>
       <c r="C185" s="9">
-        <v>2007</v>
+        <v>2011</v>
       </c>
       <c r="D185" s="9">
-        <v>106</v>
+        <v>90</v>
       </c>
       <c r="E185" s="9">
         <v>16</v>
       </c>
       <c r="F185" s="5" t="s">
-        <v>612</v>
+        <v>700</v>
       </c>
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.2">
@@ -6063,19 +7002,19 @@
         <v>234</v>
       </c>
       <c r="B186" s="4" t="s">
-        <v>600</v>
+        <v>758</v>
       </c>
       <c r="C186" s="9">
-        <v>2001</v>
+        <v>2005</v>
       </c>
       <c r="D186" s="9">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E186" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F186" s="5" t="s">
-        <v>601</v>
+        <v>759</v>
       </c>
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.2">
@@ -6083,19 +7022,19 @@
         <v>235</v>
       </c>
       <c r="B187" s="4" t="s">
-        <v>578</v>
+        <v>736</v>
       </c>
       <c r="C187" s="9">
-        <v>1994</v>
+        <v>1998</v>
       </c>
       <c r="D187" s="9">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="E187" s="9">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F187" s="5" t="s">
-        <v>579</v>
+        <v>737</v>
       </c>
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.2">
@@ -6103,19 +7042,19 @@
         <v>236</v>
       </c>
       <c r="B188" s="4" t="s">
-        <v>625</v>
+        <v>898</v>
       </c>
       <c r="C188" s="9">
-        <v>2009</v>
+        <v>2002</v>
       </c>
       <c r="D188" s="9">
-        <v>158</v>
+        <v>107</v>
       </c>
       <c r="E188" s="9">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="F188" s="5" t="s">
-        <v>626</v>
+        <v>899</v>
       </c>
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.2">
@@ -6123,19 +7062,19 @@
         <v>237</v>
       </c>
       <c r="B189" s="4" t="s">
-        <v>609</v>
+        <v>896</v>
       </c>
       <c r="C189" s="9">
-        <v>2010</v>
+        <v>1986</v>
       </c>
       <c r="D189" s="9">
-        <v>153</v>
+        <v>79</v>
       </c>
       <c r="E189" s="9">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="F189" s="5" t="s">
-        <v>610</v>
+        <v>897</v>
       </c>
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.2">
@@ -6143,19 +7082,19 @@
         <v>238</v>
       </c>
       <c r="B190" s="4" t="s">
-        <v>592</v>
+        <v>716</v>
       </c>
       <c r="C190" s="9">
-        <v>1986</v>
+        <v>2007</v>
       </c>
       <c r="D190" s="9">
-        <v>117</v>
+        <v>106</v>
       </c>
       <c r="E190" s="9">
         <v>16</v>
       </c>
       <c r="F190" s="5" t="s">
-        <v>593</v>
+        <v>717</v>
       </c>
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.2">
@@ -6163,19 +7102,19 @@
         <v>239</v>
       </c>
       <c r="B191" s="4" t="s">
-        <v>580</v>
+        <v>750</v>
       </c>
       <c r="C191" s="9">
-        <v>2007</v>
+        <v>1995</v>
       </c>
       <c r="D191" s="9">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="E191" s="9">
         <v>12</v>
       </c>
       <c r="F191" s="5" t="s">
-        <v>581</v>
+        <v>751</v>
       </c>
     </row>
     <row r="192" spans="1:6" x14ac:dyDescent="0.2">
@@ -6183,19 +7122,19 @@
         <v>240</v>
       </c>
       <c r="B192" s="4" t="s">
-        <v>613</v>
+        <v>938</v>
       </c>
       <c r="C192" s="9">
-        <v>2008</v>
+        <v>2002</v>
       </c>
       <c r="D192" s="9">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E192" s="9">
         <v>12</v>
       </c>
       <c r="F192" s="5" t="s">
-        <v>614</v>
+        <v>939</v>
       </c>
     </row>
     <row r="193" spans="1:7" x14ac:dyDescent="0.2">
@@ -6203,19 +7142,19 @@
         <v>241</v>
       </c>
       <c r="B193" s="4" t="s">
-        <v>615</v>
+        <v>912</v>
       </c>
       <c r="C193" s="9">
-        <v>2012</v>
+        <v>2004</v>
       </c>
       <c r="D193" s="9">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="E193" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F193" s="5" t="s">
-        <v>616</v>
+        <v>913</v>
       </c>
     </row>
     <row r="194" spans="1:7" x14ac:dyDescent="0.2">
@@ -6223,19 +7162,19 @@
         <v>242</v>
       </c>
       <c r="B194" s="4" t="s">
-        <v>617</v>
+        <v>764</v>
       </c>
       <c r="C194" s="9">
-        <v>2014</v>
+        <v>1980</v>
       </c>
       <c r="D194" s="9">
-        <v>115</v>
+        <v>130</v>
       </c>
       <c r="E194" s="9">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="F194" s="5" t="s">
-        <v>618</v>
+        <v>766</v>
       </c>
     </row>
     <row r="195" spans="1:7" x14ac:dyDescent="0.2">
@@ -6243,22 +7182,22 @@
         <v>243</v>
       </c>
       <c r="B195" s="4" t="s">
-        <v>623</v>
+        <v>793</v>
       </c>
       <c r="C195" s="9">
-        <v>1968</v>
+        <v>2006</v>
       </c>
       <c r="D195" s="9">
-        <v>164</v>
+        <v>117</v>
       </c>
       <c r="E195" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F195" s="5" t="s">
-        <v>624</v>
+        <v>794</v>
       </c>
       <c r="G195" t="s">
-        <v>602</v>
+        <v>707</v>
       </c>
     </row>
     <row r="196" spans="1:7" x14ac:dyDescent="0.2">
@@ -6266,19 +7205,19 @@
         <v>244</v>
       </c>
       <c r="B196" s="4" t="s">
-        <v>603</v>
+        <v>799</v>
       </c>
       <c r="C196" s="9">
-        <v>2012</v>
+        <v>1985</v>
       </c>
       <c r="D196" s="9">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="E196" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F196" s="5" t="s">
-        <v>604</v>
+        <v>800</v>
       </c>
     </row>
     <row r="197" spans="1:7" x14ac:dyDescent="0.2">
@@ -6286,19 +7225,19 @@
         <v>245</v>
       </c>
       <c r="B197" s="4" t="s">
-        <v>605</v>
+        <v>801</v>
       </c>
       <c r="C197" s="9">
-        <v>2014</v>
+        <v>1987</v>
       </c>
       <c r="D197" s="9">
-        <v>112</v>
+        <v>90</v>
       </c>
       <c r="E197" s="9">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="F197" s="5" t="s">
-        <v>606</v>
+        <v>802</v>
       </c>
     </row>
     <row r="198" spans="1:7" x14ac:dyDescent="0.2">
@@ -6306,19 +7245,19 @@
         <v>246</v>
       </c>
       <c r="B198" s="4" t="s">
-        <v>598</v>
+        <v>803</v>
       </c>
       <c r="C198" s="9">
-        <v>1952</v>
+        <v>1989</v>
       </c>
       <c r="D198" s="9">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="E198" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F198" s="5" t="s">
-        <v>599</v>
+        <v>804</v>
       </c>
     </row>
     <row r="199" spans="1:7" x14ac:dyDescent="0.2">
@@ -6326,19 +7265,19 @@
         <v>247</v>
       </c>
       <c r="B199" s="4" t="s">
-        <v>621</v>
+        <v>805</v>
       </c>
       <c r="C199" s="9">
-        <v>1975</v>
+        <v>1990</v>
       </c>
       <c r="D199" s="9">
-        <v>132</v>
+        <v>100</v>
       </c>
       <c r="E199" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F199" s="5" t="s">
-        <v>622</v>
+        <v>806</v>
       </c>
     </row>
     <row r="200" spans="1:7" x14ac:dyDescent="0.2">
@@ -6346,19 +7285,19 @@
         <v>248</v>
       </c>
       <c r="B200" s="4" t="s">
-        <v>590</v>
+        <v>807</v>
       </c>
       <c r="C200" s="9">
-        <v>2012</v>
+        <v>1992</v>
       </c>
       <c r="D200" s="9">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="E200" s="9">
         <v>16</v>
       </c>
       <c r="F200" s="5" t="s">
-        <v>591</v>
+        <v>808</v>
       </c>
     </row>
     <row r="201" spans="1:7" x14ac:dyDescent="0.2">
@@ -6366,19 +7305,19 @@
         <v>249</v>
       </c>
       <c r="B201" s="4" t="s">
-        <v>596</v>
+        <v>825</v>
       </c>
       <c r="C201" s="9">
-        <v>1995</v>
+        <v>2001</v>
       </c>
       <c r="D201" s="9">
-        <v>131</v>
+        <v>102</v>
       </c>
       <c r="E201" s="9">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="F201" s="5" t="s">
-        <v>597</v>
+        <v>826</v>
       </c>
     </row>
     <row r="202" spans="1:7" x14ac:dyDescent="0.2">
@@ -6386,19 +7325,19 @@
         <v>250</v>
       </c>
       <c r="B202" s="4" t="s">
-        <v>607</v>
+        <v>785</v>
       </c>
       <c r="C202" s="9">
-        <v>2013</v>
+        <v>2009</v>
       </c>
       <c r="D202" s="9">
-        <v>128</v>
+        <v>113</v>
       </c>
       <c r="E202" s="9">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="F202" s="5" t="s">
-        <v>608</v>
+        <v>786</v>
       </c>
     </row>
     <row r="203" spans="1:7" x14ac:dyDescent="0.2">
@@ -6406,19 +7345,19 @@
         <v>251</v>
       </c>
       <c r="B203" s="4" t="s">
-        <v>619</v>
+        <v>797</v>
       </c>
       <c r="C203" s="9">
-        <v>2015</v>
+        <v>1984</v>
       </c>
       <c r="D203" s="9">
-        <v>91</v>
+        <v>160</v>
       </c>
       <c r="E203" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F203" s="5" t="s">
-        <v>620</v>
+        <v>798</v>
       </c>
     </row>
     <row r="204" spans="1:7" x14ac:dyDescent="0.2">
@@ -6426,19 +7365,19 @@
         <v>252</v>
       </c>
       <c r="B204" s="4" t="s">
-        <v>582</v>
+        <v>890</v>
       </c>
       <c r="C204" s="9">
-        <v>1994</v>
+        <v>2021</v>
       </c>
       <c r="D204" s="9">
-        <v>90</v>
+        <v>148</v>
       </c>
       <c r="E204" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F204" s="5" t="s">
-        <v>583</v>
+        <v>891</v>
       </c>
     </row>
     <row r="205" spans="1:7" x14ac:dyDescent="0.2">
@@ -6446,19 +7385,19 @@
         <v>253</v>
       </c>
       <c r="B205" s="4" t="s">
-        <v>584</v>
+        <v>795</v>
       </c>
       <c r="C205" s="9">
-        <v>1995</v>
+        <v>2020</v>
       </c>
       <c r="D205" s="9">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="E205" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F205" s="5" t="s">
-        <v>585</v>
+        <v>796</v>
       </c>
     </row>
     <row r="206" spans="1:7" x14ac:dyDescent="0.2">
@@ -6466,19 +7405,19 @@
         <v>254</v>
       </c>
       <c r="B206" s="4" t="s">
-        <v>586</v>
+        <v>705</v>
       </c>
       <c r="C206" s="9">
-        <v>1998</v>
+        <v>2001</v>
       </c>
       <c r="D206" s="9">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="E206" s="9">
         <v>16</v>
       </c>
       <c r="F206" s="5" t="s">
-        <v>587</v>
+        <v>706</v>
       </c>
     </row>
     <row r="207" spans="1:7" x14ac:dyDescent="0.2">
@@ -6486,30 +7425,2131 @@
         <v>255</v>
       </c>
       <c r="B207" s="4" t="s">
-        <v>588</v>
+        <v>683</v>
       </c>
       <c r="C207" s="9">
+        <v>1994</v>
+      </c>
+      <c r="D207" s="9">
+        <v>90</v>
+      </c>
+      <c r="E207" s="9">
+        <v>0</v>
+      </c>
+      <c r="F207" s="5" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="208" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A208" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="B208" s="4" t="s">
+        <v>886</v>
+      </c>
+      <c r="C208" s="9">
+        <v>1986</v>
+      </c>
+      <c r="D208" s="9">
+        <v>88</v>
+      </c>
+      <c r="E208" s="9">
+        <v>12</v>
+      </c>
+      <c r="F208" s="5" t="s">
+        <v>887</v>
+      </c>
+    </row>
+    <row r="209" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A209" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="B209" s="4" t="s">
+        <v>888</v>
+      </c>
+      <c r="C209" s="9">
+        <v>1991</v>
+      </c>
+      <c r="D209" s="9">
+        <v>106</v>
+      </c>
+      <c r="E209" s="9">
+        <v>12</v>
+      </c>
+      <c r="F209" s="5" t="s">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="210" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A210" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="B210" s="4" t="s">
+        <v>760</v>
+      </c>
+      <c r="C210" s="9">
+        <v>1988</v>
+      </c>
+      <c r="D210" s="9">
+        <v>124</v>
+      </c>
+      <c r="E210" s="9">
+        <v>16</v>
+      </c>
+      <c r="F210" s="5" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="211" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A211" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="B211" s="4" t="s">
+        <v>900</v>
+      </c>
+      <c r="C211" s="9">
+        <v>1989</v>
+      </c>
+      <c r="D211" s="9">
+        <v>77</v>
+      </c>
+      <c r="E211" s="9">
+        <v>6</v>
+      </c>
+      <c r="F211" s="5" t="s">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="212" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A212" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="B212" s="4" t="s">
+        <v>847</v>
+      </c>
+      <c r="C212" s="9">
+        <v>1998</v>
+      </c>
+      <c r="D212" s="9">
+        <v>101</v>
+      </c>
+      <c r="E212" s="9">
+        <v>16</v>
+      </c>
+      <c r="F212" s="5" t="s">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="213" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A213" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="B213" s="4" t="s">
+        <v>730</v>
+      </c>
+      <c r="C213" s="9">
+        <v>2009</v>
+      </c>
+      <c r="D213" s="9">
+        <v>158</v>
+      </c>
+      <c r="E213" s="9">
+        <v>12</v>
+      </c>
+      <c r="F213" s="5" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="214" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A214" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="B214" s="4" t="s">
+        <v>928</v>
+      </c>
+      <c r="C214" s="9">
+        <v>2012</v>
+      </c>
+      <c r="D214" s="9">
+        <v>144</v>
+      </c>
+      <c r="E214" s="9">
+        <v>12</v>
+      </c>
+      <c r="F214" s="5" t="s">
+        <v>929</v>
+      </c>
+    </row>
+    <row r="215" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A215" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="B215" s="4" t="s">
+        <v>748</v>
+      </c>
+      <c r="C215" s="9">
+        <v>2012</v>
+      </c>
+      <c r="D215" s="9">
+        <v>96</v>
+      </c>
+      <c r="E215" s="9">
+        <v>18</v>
+      </c>
+      <c r="F215" s="5" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="216" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A216" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="B216" s="4" t="s">
+        <v>714</v>
+      </c>
+      <c r="C216" s="9">
+        <v>2010</v>
+      </c>
+      <c r="D216" s="9">
+        <v>153</v>
+      </c>
+      <c r="E216" s="9">
+        <v>12</v>
+      </c>
+      <c r="F216" s="5" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="217" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A217" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="B217" s="4" t="s">
+        <v>924</v>
+      </c>
+      <c r="C217" s="9">
+        <v>2002</v>
+      </c>
+      <c r="D217" s="9">
+        <v>98</v>
+      </c>
+      <c r="E217" s="9">
+        <v>12</v>
+      </c>
+      <c r="F217" s="5" t="s">
+        <v>925</v>
+      </c>
+    </row>
+    <row r="218" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A218" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="B218" s="4" t="s">
+        <v>857</v>
+      </c>
+      <c r="C218" s="9">
+        <v>2011</v>
+      </c>
+      <c r="D218" s="9">
+        <v>86</v>
+      </c>
+      <c r="E218" s="9">
+        <v>16</v>
+      </c>
+      <c r="F218" s="5" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="219" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A219" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="B219" s="4" t="s">
+        <v>697</v>
+      </c>
+      <c r="C219" s="9">
+        <v>1986</v>
+      </c>
+      <c r="D219" s="9">
+        <v>117</v>
+      </c>
+      <c r="E219" s="9">
+        <v>16</v>
+      </c>
+      <c r="F219" s="5" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="220" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A220" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="B220" s="4" t="s">
+        <v>811</v>
+      </c>
+      <c r="C220" s="9">
+        <v>1999</v>
+      </c>
+      <c r="D220" s="9">
+        <v>96</v>
+      </c>
+      <c r="E220" s="9">
+        <v>12</v>
+      </c>
+      <c r="F220" s="5" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="221" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A221" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="B221" s="4" t="s">
+        <v>685</v>
+      </c>
+      <c r="C221" s="9">
+        <v>2007</v>
+      </c>
+      <c r="D221" s="9">
+        <v>101</v>
+      </c>
+      <c r="E221" s="9">
+        <v>12</v>
+      </c>
+      <c r="F221" s="5" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="222" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A222" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="B222" s="4" t="s">
+        <v>744</v>
+      </c>
+      <c r="C222" s="9">
+        <v>2002</v>
+      </c>
+      <c r="D222" s="9">
+        <v>105</v>
+      </c>
+      <c r="E222" s="9">
+        <v>6</v>
+      </c>
+      <c r="F222" s="5" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="223" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A223" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="B223" s="4" t="s">
+        <v>855</v>
+      </c>
+      <c r="C223" s="9">
+        <v>2006</v>
+      </c>
+      <c r="D223" s="9">
+        <v>138</v>
+      </c>
+      <c r="E223" s="9">
+        <v>18</v>
+      </c>
+      <c r="F223" s="5" t="s">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="224" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A224" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="B224" s="4" t="s">
+        <v>920</v>
+      </c>
+      <c r="C224" s="9">
+        <v>1997</v>
+      </c>
+      <c r="D224" s="9">
+        <v>94</v>
+      </c>
+      <c r="E224" s="9">
+        <v>12</v>
+      </c>
+      <c r="F224" s="5" t="s">
+        <v>921</v>
+      </c>
+    </row>
+    <row r="225" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A225" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="B225" s="4" t="s">
+        <v>884</v>
+      </c>
+      <c r="C225" s="9">
+        <v>1998</v>
+      </c>
+      <c r="D225" s="9">
+        <v>153</v>
+      </c>
+      <c r="E225" s="9">
+        <v>12</v>
+      </c>
+      <c r="F225" s="5" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="226" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A226" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="B226" s="4" t="s">
+        <v>813</v>
+      </c>
+      <c r="C226" s="9">
+        <v>2001</v>
+      </c>
+      <c r="D226" s="9">
+        <v>110</v>
+      </c>
+      <c r="E226" s="9">
+        <v>12</v>
+      </c>
+      <c r="F226" s="5" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="227" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A227" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="B227" s="4" t="s">
+        <v>815</v>
+      </c>
+      <c r="C227" s="9">
+        <v>2003</v>
+      </c>
+      <c r="D227" s="9">
+        <v>103</v>
+      </c>
+      <c r="E227" s="9">
+        <v>12</v>
+      </c>
+      <c r="F227" s="5" t="s">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="228" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A228" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="B228" s="4" t="s">
+        <v>821</v>
+      </c>
+      <c r="C228" s="9">
+        <v>2012</v>
+      </c>
+      <c r="D228" s="9">
+        <v>113</v>
+      </c>
+      <c r="E228" s="9">
+        <v>12</v>
+      </c>
+      <c r="F228" s="5" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="229" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A229" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="B229" s="4" t="s">
+        <v>779</v>
+      </c>
+      <c r="C229" s="9">
+        <v>2003</v>
+      </c>
+      <c r="D229" s="9">
+        <v>92</v>
+      </c>
+      <c r="E229" s="9">
+        <v>12</v>
+      </c>
+      <c r="F229" s="5" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="230" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A230" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="B230" s="4" t="s">
+        <v>922</v>
+      </c>
+      <c r="C230" s="9">
+        <v>1999</v>
+      </c>
+      <c r="D230" s="9">
+        <v>95</v>
+      </c>
+      <c r="E230" s="9">
+        <v>12</v>
+      </c>
+      <c r="F230" s="5" t="s">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="231" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A231" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="B231" s="4" t="s">
+        <v>732</v>
+      </c>
+      <c r="C231" s="9">
+        <v>1964</v>
+      </c>
+      <c r="D231" s="9">
+        <v>92</v>
+      </c>
+      <c r="E231" s="9">
+        <v>6</v>
+      </c>
+      <c r="F231" s="5" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="232" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A232" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="B232" s="4" t="s">
+        <v>718</v>
+      </c>
+      <c r="C232" s="9">
+        <v>2008</v>
+      </c>
+      <c r="D232" s="9">
+        <v>93</v>
+      </c>
+      <c r="E232" s="9">
+        <v>12</v>
+      </c>
+      <c r="F232" s="5" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="233" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A233" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="B233" s="4" t="s">
+        <v>720</v>
+      </c>
+      <c r="C233" s="9">
+        <v>2012</v>
+      </c>
+      <c r="D233" s="9">
+        <v>98</v>
+      </c>
+      <c r="E233" s="9">
+        <v>16</v>
+      </c>
+      <c r="F233" s="5" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="234" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A234" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="B234" s="4" t="s">
+        <v>722</v>
+      </c>
+      <c r="C234" s="9">
+        <v>2014</v>
+      </c>
+      <c r="D234" s="9">
+        <v>115</v>
+      </c>
+      <c r="E234" s="9">
+        <v>16</v>
+      </c>
+      <c r="F234" s="5" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="235" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A235" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="B235" s="4" t="s">
+        <v>791</v>
+      </c>
+      <c r="C235" s="9">
+        <v>2000</v>
+      </c>
+      <c r="D235" s="9">
+        <v>162</v>
+      </c>
+      <c r="E235" s="9">
+        <v>12</v>
+      </c>
+      <c r="F235" s="5" t="s">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="236" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A236" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="B236" s="4" t="s">
+        <v>819</v>
+      </c>
+      <c r="C236" s="9">
+        <v>2009</v>
+      </c>
+      <c r="D236" s="9">
+        <v>96</v>
+      </c>
+      <c r="E236" s="9">
+        <v>16</v>
+      </c>
+      <c r="F236" s="5" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="237" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A237" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="B237" s="4" t="s">
+        <v>878</v>
+      </c>
+      <c r="C237" s="9">
+        <v>1989</v>
+      </c>
+      <c r="D237" s="9">
+        <v>85</v>
+      </c>
+      <c r="E237" s="9">
+        <v>0</v>
+      </c>
+      <c r="F237" s="5" t="s">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="238" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A238" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="B238" s="4" t="s">
+        <v>817</v>
+      </c>
+      <c r="C238" s="9">
+        <v>2005</v>
+      </c>
+      <c r="D238" s="9">
+        <v>94</v>
+      </c>
+      <c r="E238" s="9">
+        <v>12</v>
+      </c>
+      <c r="F238" s="5" t="s">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="239" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A239" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="B239" s="4" t="s">
+        <v>742</v>
+      </c>
+      <c r="C239" s="9">
+        <v>2003</v>
+      </c>
+      <c r="D239" s="9">
+        <v>95</v>
+      </c>
+      <c r="E239" s="9">
+        <v>12</v>
+      </c>
+      <c r="F239" s="5" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="240" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A240" s="3" t="s">
+        <v>288</v>
+      </c>
+      <c r="B240" s="4" t="s">
+        <v>930</v>
+      </c>
+      <c r="C240" s="9">
+        <v>2015</v>
+      </c>
+      <c r="D240" s="9">
+        <v>142</v>
+      </c>
+      <c r="E240" s="9">
+        <v>12</v>
+      </c>
+      <c r="F240" s="5" t="s">
+        <v>931</v>
+      </c>
+    </row>
+    <row r="241" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A241" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="B241" s="4" t="s">
+        <v>845</v>
+      </c>
+      <c r="C241" s="9">
+        <v>2003</v>
+      </c>
+      <c r="D241" s="9">
+        <v>102</v>
+      </c>
+      <c r="E241" s="9">
+        <v>16</v>
+      </c>
+      <c r="F241" s="5" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="242" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A242" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="B242" s="4" t="s">
+        <v>926</v>
+      </c>
+      <c r="C242" s="9">
+        <v>2009</v>
+      </c>
+      <c r="D242" s="9">
+        <v>162</v>
+      </c>
+      <c r="E242" s="9">
+        <v>12</v>
+      </c>
+      <c r="F242" s="5" t="s">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="243" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A243" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="B243" s="4" t="s">
+        <v>837</v>
+      </c>
+      <c r="C243" s="9">
+        <v>2020</v>
+      </c>
+      <c r="D243" s="9">
+        <v>87</v>
+      </c>
+      <c r="E243" s="9">
+        <v>16</v>
+      </c>
+      <c r="F243" s="5" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="244" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A244" s="3" t="s">
+        <v>292</v>
+      </c>
+      <c r="B244" s="4" t="s">
+        <v>728</v>
+      </c>
+      <c r="C244" s="9">
+        <v>1968</v>
+      </c>
+      <c r="D244" s="9">
+        <v>164</v>
+      </c>
+      <c r="E244" s="9">
+        <v>12</v>
+      </c>
+      <c r="F244" s="5" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="245" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A245" s="3" t="s">
+        <v>293</v>
+      </c>
+      <c r="B245" s="4" t="s">
+        <v>771</v>
+      </c>
+      <c r="C245" s="9">
+        <v>2010</v>
+      </c>
+      <c r="D245" s="9">
+        <v>108</v>
+      </c>
+      <c r="E245" s="9">
+        <v>12</v>
+      </c>
+      <c r="F245" s="5" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="246" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A246" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="B246" s="4" t="s">
+        <v>767</v>
+      </c>
+      <c r="C246" s="9">
+        <v>2009</v>
+      </c>
+      <c r="D246" s="9">
+        <v>170</v>
+      </c>
+      <c r="E246" s="9">
+        <v>12</v>
+      </c>
+      <c r="F246" s="5" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="247" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A247" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="B247" s="4" t="s">
+        <v>708</v>
+      </c>
+      <c r="C247" s="9">
+        <v>2012</v>
+      </c>
+      <c r="D247" s="9">
+        <v>110</v>
+      </c>
+      <c r="E247" s="9">
+        <v>12</v>
+      </c>
+      <c r="F247" s="5" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="248" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A248" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="B248" s="4" t="s">
+        <v>710</v>
+      </c>
+      <c r="C248" s="9">
+        <v>2014</v>
+      </c>
+      <c r="D248" s="9">
+        <v>112</v>
+      </c>
+      <c r="E248" s="9">
+        <v>12</v>
+      </c>
+      <c r="F248" s="5" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="249" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A249" s="3" t="s">
+        <v>297</v>
+      </c>
+      <c r="B249" s="4" t="s">
+        <v>703</v>
+      </c>
+      <c r="C249" s="9">
+        <v>1952</v>
+      </c>
+      <c r="D249" s="9">
+        <v>85</v>
+      </c>
+      <c r="E249" s="9">
+        <v>12</v>
+      </c>
+      <c r="F249" s="5" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="250" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A250" s="3" t="s">
+        <v>298</v>
+      </c>
+      <c r="B250" s="4" t="s">
+        <v>726</v>
+      </c>
+      <c r="C250" s="9">
+        <v>1975</v>
+      </c>
+      <c r="D250" s="9">
+        <v>132</v>
+      </c>
+      <c r="E250" s="9">
+        <v>12</v>
+      </c>
+      <c r="F250" s="5" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="251" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A251" s="3" t="s">
+        <v>299</v>
+      </c>
+      <c r="B251" s="4" t="s">
+        <v>695</v>
+      </c>
+      <c r="C251" s="9">
+        <v>2012</v>
+      </c>
+      <c r="D251" s="9">
+        <v>110</v>
+      </c>
+      <c r="E251" s="9">
+        <v>16</v>
+      </c>
+      <c r="F251" s="5" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="252" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A252" s="3" t="s">
+        <v>300</v>
+      </c>
+      <c r="B252" s="4" t="s">
+        <v>853</v>
+      </c>
+      <c r="C252" s="9">
+        <v>1979</v>
+      </c>
+      <c r="D252" s="9">
+        <v>153</v>
+      </c>
+      <c r="E252" s="9">
+        <v>18</v>
+      </c>
+      <c r="F252" s="5" t="s">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="253" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A253" s="3" t="s">
+        <v>301</v>
+      </c>
+      <c r="B253" s="4" t="s">
+        <v>701</v>
+      </c>
+      <c r="C253" s="9">
+        <v>1995</v>
+      </c>
+      <c r="D253" s="9">
+        <v>131</v>
+      </c>
+      <c r="E253" s="9">
+        <v>16</v>
+      </c>
+      <c r="F253" s="5" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="254" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A254" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="B254" s="4" t="s">
+        <v>865</v>
+      </c>
+      <c r="C254" s="9">
+        <v>2011</v>
+      </c>
+      <c r="D254" s="9">
+        <v>163</v>
+      </c>
+      <c r="E254" s="9">
+        <v>12</v>
+      </c>
+      <c r="F254" s="5" t="s">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="255" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A255" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="B255" s="4" t="s">
+        <v>859</v>
+      </c>
+      <c r="C255" s="9">
+        <v>2004</v>
+      </c>
+      <c r="D255" s="9">
+        <v>106</v>
+      </c>
+      <c r="E255" s="9">
+        <v>12</v>
+      </c>
+      <c r="F255" s="5" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="256" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A256" s="3" t="s">
+        <v>304</v>
+      </c>
+      <c r="B256" s="4" t="s">
+        <v>861</v>
+      </c>
+      <c r="C256" s="9">
+        <v>2007</v>
+      </c>
+      <c r="D256" s="9">
+        <v>105</v>
+      </c>
+      <c r="E256" s="9">
+        <v>12</v>
+      </c>
+      <c r="F256" s="5" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="257" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A257" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="B257" s="4" t="s">
+        <v>863</v>
+      </c>
+      <c r="C257" s="9">
+        <v>2011</v>
+      </c>
+      <c r="D257" s="9">
+        <v>170</v>
+      </c>
+      <c r="E257" s="9">
+        <v>12</v>
+      </c>
+      <c r="F257" s="5" t="s">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="258" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A258" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="B258" s="4" t="s">
+        <v>866</v>
+      </c>
+      <c r="C258" s="9">
+        <v>2014</v>
+      </c>
+      <c r="D258" s="9">
+        <v>93</v>
+      </c>
+      <c r="E258" s="9">
+        <v>12</v>
+      </c>
+      <c r="F258" s="5" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="259" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A259" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="B259" s="4" t="s">
+        <v>833</v>
+      </c>
+      <c r="C259" s="9">
+        <v>1997</v>
+      </c>
+      <c r="D259" s="9">
+        <v>90</v>
+      </c>
+      <c r="E259" s="9">
+        <v>16</v>
+      </c>
+      <c r="F259" s="5" t="s">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="260" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A260" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="B260" s="4" t="s">
+        <v>834</v>
+      </c>
+      <c r="C260" s="9">
+        <v>2004</v>
+      </c>
+      <c r="D260" s="9">
+        <v>97</v>
+      </c>
+      <c r="E260" s="9">
+        <v>12</v>
+      </c>
+      <c r="F260" s="5" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="261" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A261" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="B261" s="4" t="s">
+        <v>835</v>
+      </c>
+      <c r="C261" s="9">
+        <v>2008</v>
+      </c>
+      <c r="D261" s="9">
+        <v>120</v>
+      </c>
+      <c r="E261" s="9">
+        <v>18</v>
+      </c>
+      <c r="F261" s="5" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="262" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A262" s="3" t="s">
+        <v>310</v>
+      </c>
+      <c r="B262" s="4" t="s">
+        <v>836</v>
+      </c>
+      <c r="C262" s="9">
+        <v>2009</v>
+      </c>
+      <c r="D262" s="9">
+        <v>89</v>
+      </c>
+      <c r="E262" s="9">
+        <v>16</v>
+      </c>
+      <c r="F262" s="5" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="263" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A263" s="3" t="s">
+        <v>311</v>
+      </c>
+      <c r="B263" s="4" t="s">
+        <v>712</v>
+      </c>
+      <c r="C263" s="9">
+        <v>2013</v>
+      </c>
+      <c r="D263" s="9">
+        <v>128</v>
+      </c>
+      <c r="E263" s="9">
+        <v>12</v>
+      </c>
+      <c r="F263" s="5" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="264" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A264" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="B264" s="4" t="s">
+        <v>746</v>
+      </c>
+      <c r="C264" s="9">
+        <v>2012</v>
+      </c>
+      <c r="D264" s="9">
+        <v>105</v>
+      </c>
+      <c r="E264" s="9">
+        <v>16</v>
+      </c>
+      <c r="F264" s="5" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="265" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A265" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="B265" s="4" t="s">
+        <v>740</v>
+      </c>
+      <c r="C265" s="9">
+        <v>2015</v>
+      </c>
+      <c r="D265" s="9">
+        <v>130</v>
+      </c>
+      <c r="E265" s="9">
+        <v>12</v>
+      </c>
+      <c r="F265" s="5" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="266" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A266" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="B266" s="4" t="s">
+        <v>849</v>
+      </c>
+      <c r="C266" s="9">
+        <v>2015</v>
+      </c>
+      <c r="D266" s="9">
+        <v>118</v>
+      </c>
+      <c r="E266" s="9">
+        <v>6</v>
+      </c>
+      <c r="F266" s="5" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="267" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A267" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="B267" s="4" t="s">
+        <v>756</v>
+      </c>
+      <c r="C267" s="9">
+        <v>2015</v>
+      </c>
+      <c r="D267" s="9">
+        <v>112</v>
+      </c>
+      <c r="E267" s="9">
+        <v>6</v>
+      </c>
+      <c r="F267" s="5" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="268" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A268" s="3" t="s">
+        <v>316</v>
+      </c>
+      <c r="B268" s="4" t="s">
+        <v>734</v>
+      </c>
+      <c r="C268" s="9">
+        <v>2014</v>
+      </c>
+      <c r="D268" s="9">
+        <v>136</v>
+      </c>
+      <c r="E268" s="9">
+        <v>12</v>
+      </c>
+      <c r="F268" s="5" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="269" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A269" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="B269" s="4" t="s">
+        <v>823</v>
+      </c>
+      <c r="C269" s="9">
+        <v>2015</v>
+      </c>
+      <c r="D269" s="9">
+        <v>96</v>
+      </c>
+      <c r="E269" s="9">
+        <v>16</v>
+      </c>
+      <c r="F269" s="5" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="270" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A270" s="3" t="s">
+        <v>318</v>
+      </c>
+      <c r="B270" s="4" t="s">
+        <v>724</v>
+      </c>
+      <c r="C270" s="9">
+        <v>2015</v>
+      </c>
+      <c r="D270" s="9">
+        <v>91</v>
+      </c>
+      <c r="E270" s="9">
+        <v>16</v>
+      </c>
+      <c r="F270" s="5" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="271" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A271" s="3" t="s">
+        <v>319</v>
+      </c>
+      <c r="B271" s="4" t="s">
+        <v>882</v>
+      </c>
+      <c r="C271" s="9">
+        <v>2015</v>
+      </c>
+      <c r="D271" s="9">
+        <v>100</v>
+      </c>
+      <c r="E271" s="9">
+        <v>6</v>
+      </c>
+      <c r="F271" s="5" t="s">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="272" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A272" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="B272" s="4" t="s">
+        <v>880</v>
+      </c>
+      <c r="C272" s="9">
+        <v>1970</v>
+      </c>
+      <c r="D272" s="9">
+        <v>79</v>
+      </c>
+      <c r="E272" s="9">
+        <v>0</v>
+      </c>
+      <c r="F272" s="5" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="273" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A273" s="3" t="s">
+        <v>321</v>
+      </c>
+      <c r="B273" s="4" t="s">
+        <v>687</v>
+      </c>
+      <c r="C273" s="9">
+        <v>1994</v>
+      </c>
+      <c r="D273" s="9">
+        <v>90</v>
+      </c>
+      <c r="E273" s="9">
+        <v>12</v>
+      </c>
+      <c r="F273" s="5" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="274" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A274" s="3" t="s">
+        <v>322</v>
+      </c>
+      <c r="B274" s="4" t="s">
+        <v>689</v>
+      </c>
+      <c r="C274" s="9">
+        <v>1995</v>
+      </c>
+      <c r="D274" s="9">
+        <v>88</v>
+      </c>
+      <c r="E274" s="9">
+        <v>12</v>
+      </c>
+      <c r="F274" s="5" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="275" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A275" s="3" t="s">
+        <v>323</v>
+      </c>
+      <c r="B275" s="4" t="s">
+        <v>691</v>
+      </c>
+      <c r="C275" s="9">
+        <v>1998</v>
+      </c>
+      <c r="D275" s="9">
+        <v>94</v>
+      </c>
+      <c r="E275" s="9">
+        <v>16</v>
+      </c>
+      <c r="F275" s="5" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="276" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A276" s="3" t="s">
+        <v>324</v>
+      </c>
+      <c r="B276" s="4" t="s">
+        <v>769</v>
+      </c>
+      <c r="C276" s="9">
+        <v>2016</v>
+      </c>
+      <c r="D276" s="9">
+        <v>98</v>
+      </c>
+      <c r="E276" s="9">
+        <v>18</v>
+      </c>
+      <c r="F276" s="5" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="277" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A277" s="3" t="s">
+        <v>325</v>
+      </c>
+      <c r="B277" s="4" t="s">
+        <v>773</v>
+      </c>
+      <c r="C277" s="9">
+        <v>2016</v>
+      </c>
+      <c r="D277" s="9">
+        <v>114</v>
+      </c>
+      <c r="E277" s="9">
+        <v>6</v>
+      </c>
+      <c r="F277" s="5" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="278" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A278" s="3" t="s">
+        <v>326</v>
+      </c>
+      <c r="B278" s="4" t="s">
+        <v>874</v>
+      </c>
+      <c r="C278" s="9">
+        <v>2002</v>
+      </c>
+      <c r="D278" s="9">
+        <v>110</v>
+      </c>
+      <c r="E278" s="9">
+        <v>12</v>
+      </c>
+      <c r="F278" s="5" t="s">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="279" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A279" s="3" t="s">
+        <v>327</v>
+      </c>
+      <c r="B279" s="4" t="s">
+        <v>892</v>
+      </c>
+      <c r="C279" s="9">
+        <v>2016</v>
+      </c>
+      <c r="D279" s="9">
+        <v>118</v>
+      </c>
+      <c r="E279" s="9">
+        <v>12</v>
+      </c>
+      <c r="F279" s="5" t="s">
+        <v>893</v>
+      </c>
+    </row>
+    <row r="280" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A280" s="3" t="s">
+        <v>328</v>
+      </c>
+      <c r="B280" s="4" t="s">
+        <v>894</v>
+      </c>
+      <c r="C280" s="9">
+        <v>2016</v>
+      </c>
+      <c r="D280" s="9">
+        <v>140</v>
+      </c>
+      <c r="E280" s="9">
+        <v>16</v>
+      </c>
+      <c r="F280" s="5" t="s">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="281" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A281" s="3" t="s">
+        <v>329</v>
+      </c>
+      <c r="B281" s="4" t="s">
+        <v>876</v>
+      </c>
+      <c r="C281" s="9">
+        <v>2012</v>
+      </c>
+      <c r="D281" s="9">
+        <v>130</v>
+      </c>
+      <c r="E281" s="9">
+        <v>12</v>
+      </c>
+      <c r="F281" s="5" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="282" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A282" s="3" t="s">
+        <v>330</v>
+      </c>
+      <c r="B282" s="4" t="s">
+        <v>839</v>
+      </c>
+      <c r="C282" s="9">
+        <v>1978</v>
+      </c>
+      <c r="D282" s="9">
+        <v>87</v>
+      </c>
+      <c r="E282" s="9">
+        <v>12</v>
+      </c>
+      <c r="F282" s="5" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="283" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A283" s="3" t="s">
+        <v>331</v>
+      </c>
+      <c r="B283" s="4" t="s">
+        <v>908</v>
+      </c>
+      <c r="C283" s="9">
+        <v>2015</v>
+      </c>
+      <c r="D283" s="9">
+        <v>98</v>
+      </c>
+      <c r="E283" s="9">
+        <v>16</v>
+      </c>
+      <c r="F283" s="5" t="s">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="284" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A284" s="3" t="s">
+        <v>332</v>
+      </c>
+      <c r="B284" s="4" t="s">
+        <v>809</v>
+      </c>
+      <c r="C284" s="9">
+        <v>2013</v>
+      </c>
+      <c r="D284" s="9">
+        <v>138</v>
+      </c>
+      <c r="E284" s="9">
+        <v>6</v>
+      </c>
+      <c r="F284" s="5" t="s">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="285" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A285" s="3" t="s">
+        <v>333</v>
+      </c>
+      <c r="B285" s="4" t="s">
+        <v>789</v>
+      </c>
+      <c r="C285" s="9">
+        <v>2016</v>
+      </c>
+      <c r="D285" s="9">
+        <v>124</v>
+      </c>
+      <c r="E285" s="9">
+        <v>12</v>
+      </c>
+      <c r="F285" s="5" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="286" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A286" s="3" t="s">
+        <v>334</v>
+      </c>
+      <c r="B286" s="4" t="s">
+        <v>841</v>
+      </c>
+      <c r="C286" s="9">
+        <v>1988</v>
+      </c>
+      <c r="D286" s="9">
+        <v>98</v>
+      </c>
+      <c r="E286" s="9">
+        <v>12</v>
+      </c>
+      <c r="F286" s="5" t="s">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="287" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A287" s="3" t="s">
+        <v>335</v>
+      </c>
+      <c r="B287" s="4" t="s">
+        <v>914</v>
+      </c>
+      <c r="C287" s="9">
+        <v>2017</v>
+      </c>
+      <c r="D287" s="9">
+        <v>137</v>
+      </c>
+      <c r="E287" s="9">
+        <v>12</v>
+      </c>
+      <c r="F287" s="5" t="s">
+        <v>915</v>
+      </c>
+    </row>
+    <row r="288" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A288" s="3" t="s">
+        <v>336</v>
+      </c>
+      <c r="B288" s="4" t="s">
+        <v>775</v>
+      </c>
+      <c r="C288" s="9">
+        <v>2017</v>
+      </c>
+      <c r="D288" s="9">
+        <v>123</v>
+      </c>
+      <c r="E288" s="9">
+        <v>16</v>
+      </c>
+      <c r="F288" s="5" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="289" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A289" s="3" t="s">
+        <v>337</v>
+      </c>
+      <c r="B289" s="4" t="s">
+        <v>902</v>
+      </c>
+      <c r="C289" s="9">
+        <v>2017</v>
+      </c>
+      <c r="D289" s="9">
+        <v>115</v>
+      </c>
+      <c r="E289" s="9">
+        <v>16</v>
+      </c>
+      <c r="F289" s="5" t="s">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="290" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A290" s="3" t="s">
+        <v>338</v>
+      </c>
+      <c r="B290" s="4" t="s">
+        <v>872</v>
+      </c>
+      <c r="C290" s="9">
+        <v>1942</v>
+      </c>
+      <c r="D290" s="9">
+        <v>91</v>
+      </c>
+      <c r="E290" s="9">
+        <v>6</v>
+      </c>
+      <c r="F290" s="5" t="s">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="291" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A291" s="3" t="s">
+        <v>339</v>
+      </c>
+      <c r="B291" s="4" t="s">
+        <v>764</v>
+      </c>
+      <c r="C291" s="9">
+        <v>1944</v>
+      </c>
+      <c r="D291" s="9">
+        <v>87</v>
+      </c>
+      <c r="E291" s="9">
+        <v>12</v>
+      </c>
+      <c r="F291" s="5" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="292" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A292" s="3" t="s">
+        <v>340</v>
+      </c>
+      <c r="B292" s="4" t="s">
+        <v>936</v>
+      </c>
+      <c r="C292" s="9">
+        <v>2018</v>
+      </c>
+      <c r="D292" s="9">
+        <v>87</v>
+      </c>
+      <c r="E292" s="9">
+        <v>12</v>
+      </c>
+      <c r="F292" s="5" t="s">
+        <v>937</v>
+      </c>
+    </row>
+    <row r="293" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A293" s="3" t="s">
+        <v>341</v>
+      </c>
+      <c r="B293" s="4" t="s">
+        <v>870</v>
+      </c>
+      <c r="C293" s="9">
+        <v>2018</v>
+      </c>
+      <c r="D293" s="9">
+        <v>77</v>
+      </c>
+      <c r="E293" s="9">
+        <v>6</v>
+      </c>
+      <c r="F293" s="5" t="s">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="294" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A294" s="3" t="s">
+        <v>342</v>
+      </c>
+      <c r="B294" s="4" t="s">
+        <v>910</v>
+      </c>
+      <c r="C294" s="9">
+        <v>2015</v>
+      </c>
+      <c r="D294" s="9">
+        <v>87</v>
+      </c>
+      <c r="E294" s="9">
+        <v>16</v>
+      </c>
+      <c r="F294" s="5" t="s">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="295" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A295" s="3" t="s">
+        <v>343</v>
+      </c>
+      <c r="B295" s="4" t="s">
+        <v>904</v>
+      </c>
+      <c r="C295" s="9">
+        <v>2013</v>
+      </c>
+      <c r="D295" s="9">
+        <v>119</v>
+      </c>
+      <c r="E295" s="9">
+        <v>12</v>
+      </c>
+      <c r="F295" s="5" t="s">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="296" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A296" s="3" t="s">
+        <v>344</v>
+      </c>
+      <c r="B296" s="4" t="s">
+        <v>906</v>
+      </c>
+      <c r="C296" s="9">
+        <v>2013</v>
+      </c>
+      <c r="D296" s="9">
+        <v>121</v>
+      </c>
+      <c r="E296" s="9">
+        <v>18</v>
+      </c>
+      <c r="F296" s="5" t="s">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="297" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A297" s="3" t="s">
+        <v>345</v>
+      </c>
+      <c r="B297" s="4" t="s">
+        <v>932</v>
+      </c>
+      <c r="C297" s="9">
+        <v>2018</v>
+      </c>
+      <c r="D297" s="9">
+        <v>160</v>
+      </c>
+      <c r="E297" s="9">
+        <v>12</v>
+      </c>
+      <c r="F297" s="5" t="s">
+        <v>933</v>
+      </c>
+    </row>
+    <row r="298" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A298" s="3" t="s">
+        <v>346</v>
+      </c>
+      <c r="B298" s="4" t="s">
+        <v>754</v>
+      </c>
+      <c r="C298" s="9">
+        <v>2018</v>
+      </c>
+      <c r="D298" s="9">
+        <v>85</v>
+      </c>
+      <c r="E298" s="9">
+        <v>12</v>
+      </c>
+      <c r="F298" s="5" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="299" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A299" s="3" t="s">
+        <v>347</v>
+      </c>
+      <c r="B299" s="4" t="s">
+        <v>843</v>
+      </c>
+      <c r="C299" s="9">
+        <v>2016</v>
+      </c>
+      <c r="D299" s="9">
+        <v>97</v>
+      </c>
+      <c r="E299" s="9">
+        <v>0</v>
+      </c>
+      <c r="F299" s="5" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="300" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A300" s="3" t="s">
+        <v>348</v>
+      </c>
+      <c r="B300" s="4" t="s">
+        <v>851</v>
+      </c>
+      <c r="C300" s="9">
+        <v>2018</v>
+      </c>
+      <c r="D300" s="9">
+        <v>125</v>
+      </c>
+      <c r="E300" s="9">
+        <v>12</v>
+      </c>
+      <c r="F300" s="5" t="s">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="301" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A301" s="3" t="s">
+        <v>349</v>
+      </c>
+      <c r="B301" s="4" t="s">
+        <v>787</v>
+      </c>
+      <c r="C301" s="9">
+        <v>2011</v>
+      </c>
+      <c r="D301" s="9">
+        <v>111</v>
+      </c>
+      <c r="E301" s="9">
+        <v>12</v>
+      </c>
+      <c r="F301" s="5" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="302" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A302" s="3" t="s">
+        <v>350</v>
+      </c>
+      <c r="B302" s="4" t="s">
+        <v>738</v>
+      </c>
+      <c r="C302" s="9">
+        <v>2018</v>
+      </c>
+      <c r="D302" s="9">
+        <v>134</v>
+      </c>
+      <c r="E302" s="9">
+        <v>12</v>
+      </c>
+      <c r="F302" s="5" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="303" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A303" s="3" t="s">
+        <v>351</v>
+      </c>
+      <c r="B303" s="4" t="s">
+        <v>781</v>
+      </c>
+      <c r="C303" s="9">
         <v>2019</v>
       </c>
-      <c r="D207" s="9">
+      <c r="D303" s="9">
+        <v>98</v>
+      </c>
+      <c r="E303" s="9">
+        <v>16</v>
+      </c>
+      <c r="F303" s="5" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="304" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A304" s="3" t="s">
+        <v>352</v>
+      </c>
+      <c r="B304" s="4" t="s">
+        <v>918</v>
+      </c>
+      <c r="C304" s="9">
+        <v>2018</v>
+      </c>
+      <c r="D304" s="9">
+        <v>120</v>
+      </c>
+      <c r="E304" s="9">
+        <v>16</v>
+      </c>
+      <c r="F304" s="5" t="s">
+        <v>919</v>
+      </c>
+    </row>
+    <row r="305" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A305" s="3" t="s">
+        <v>353</v>
+      </c>
+      <c r="B305" s="4" t="s">
+        <v>868</v>
+      </c>
+      <c r="C305" s="9">
+        <v>2018</v>
+      </c>
+      <c r="D305" s="9">
+        <v>142</v>
+      </c>
+      <c r="E305" s="9">
+        <v>12</v>
+      </c>
+      <c r="F305" s="5" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="306" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A306" s="3" t="s">
+        <v>354</v>
+      </c>
+      <c r="B306" s="4" t="s">
+        <v>752</v>
+      </c>
+      <c r="C306" s="9">
+        <v>1961</v>
+      </c>
+      <c r="D306" s="9">
+        <v>126</v>
+      </c>
+      <c r="E306" s="9">
+        <v>12</v>
+      </c>
+      <c r="F306" s="5" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="307" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A307" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="B307" s="4" t="s">
+        <v>777</v>
+      </c>
+      <c r="C307" s="9">
+        <v>2019</v>
+      </c>
+      <c r="D307" s="9">
+        <v>88</v>
+      </c>
+      <c r="E307" s="9">
+        <v>16</v>
+      </c>
+      <c r="F307" s="5" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="308" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A308" s="3" t="s">
+        <v>356</v>
+      </c>
+      <c r="B308" s="4" t="s">
+        <v>934</v>
+      </c>
+      <c r="C308" s="9">
+        <v>2019</v>
+      </c>
+      <c r="D308" s="9">
+        <v>182</v>
+      </c>
+      <c r="E308" s="9">
+        <v>12</v>
+      </c>
+      <c r="F308" s="5" t="s">
+        <v>935</v>
+      </c>
+    </row>
+    <row r="309" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A309" s="3" t="s">
+        <v>357</v>
+      </c>
+      <c r="B309" s="4" t="s">
+        <v>783</v>
+      </c>
+      <c r="C309" s="9">
+        <v>2019</v>
+      </c>
+      <c r="D309" s="9">
+        <v>122</v>
+      </c>
+      <c r="E309" s="9">
+        <v>12</v>
+      </c>
+      <c r="F309" s="5" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="310" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A310" s="3" t="s">
+        <v>358</v>
+      </c>
+      <c r="B310" s="4" t="s">
+        <v>762</v>
+      </c>
+      <c r="C310" s="9">
+        <v>2019</v>
+      </c>
+      <c r="D310" s="9">
         <v>128</v>
       </c>
-      <c r="E207" s="9">
+      <c r="E310" s="9">
+        <v>6</v>
+      </c>
+      <c r="F310" s="5" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="311" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A311" s="3" t="s">
+        <v>359</v>
+      </c>
+      <c r="B311" s="4" t="s">
+        <v>693</v>
+      </c>
+      <c r="C311" s="9">
+        <v>2019</v>
+      </c>
+      <c r="D311" s="9">
+        <v>128</v>
+      </c>
+      <c r="E311" s="9">
         <v>16</v>
       </c>
-      <c r="F207" s="5" t="s">
-        <v>589</v>
+      <c r="F311" s="5" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="312" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A312" s="3" t="s">
+        <v>360</v>
+      </c>
+      <c r="B312" s="4" t="s">
+        <v>916</v>
+      </c>
+      <c r="C312" s="9">
+        <v>2020</v>
+      </c>
+      <c r="D312" s="9">
+        <v>134</v>
+      </c>
+      <c r="E312" s="9">
+        <v>12</v>
+      </c>
+      <c r="F312" s="5" t="s">
+        <v>917</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:F207">
-    <sortCondition ref="A3:A207"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F313">
+    <sortCondition ref="A2:A313"/>
+    <sortCondition ref="B2:B313"/>
+    <sortCondition ref="C2:C313"/>
+    <sortCondition ref="D2:D313"/>
+    <sortCondition ref="E2:E313"/>
+    <sortCondition ref="F2:F313"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <ignoredErrors>
-    <ignoredError sqref="B184" twoDigitTextYear="1"/>
-    <ignoredError sqref="B188 A2 A1 A3:A1048576" numberStoredAsText="1"/>
-  </ignoredErrors>
 </worksheet>
 </file>
--- a/Web-Tools/MB Video-Base/MB Video-Base.xlsx
+++ b/Web-Tools/MB Video-Base/MB Video-Base.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mario/Documents/GitHub/homepage/Web-Tools/MB Video-Base/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE094FD0-217A-FA4B-B484-DE1BC65014D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B471C583-1D35-BE43-B6FD-C609C2ED57B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="740" windowWidth="30240" windowHeight="18900" xr2:uid="{6AEA2D50-42AE-224B-8400-6BD6B3C7B91A}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="942" uniqueCount="940">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1154" uniqueCount="1152">
   <si>
     <t>Hulk</t>
   </si>
@@ -743,9 +743,30 @@
     <t>0237</t>
   </si>
   <si>
+    <t>0241</t>
+  </si>
+  <si>
+    <t>0254</t>
+  </si>
+  <si>
     <t>0259</t>
   </si>
   <si>
+    <t>0260</t>
+  </si>
+  <si>
+    <t>0261</t>
+  </si>
+  <si>
+    <t>0262</t>
+  </si>
+  <si>
+    <t>0270</t>
+  </si>
+  <si>
+    <t>0278</t>
+  </si>
+  <si>
     <t>0284</t>
   </si>
   <si>
@@ -761,12 +782,21 @@
     <t>0306</t>
   </si>
   <si>
+    <t>0311</t>
+  </si>
+  <si>
+    <t>0314</t>
+  </si>
+  <si>
     <t>0317</t>
   </si>
   <si>
     <t>0322</t>
   </si>
   <si>
+    <t>0323</t>
+  </si>
+  <si>
     <t>0328</t>
   </si>
   <si>
@@ -785,6 +815,9 @@
     <t>0335</t>
   </si>
   <si>
+    <t>0336</t>
+  </si>
+  <si>
     <t>0354</t>
   </si>
   <si>
@@ -794,30 +827,72 @@
     <t>0370</t>
   </si>
   <si>
+    <t>0377</t>
+  </si>
+  <si>
     <t>0396</t>
   </si>
   <si>
     <t>0402</t>
   </si>
   <si>
+    <t>0419</t>
+  </si>
+  <si>
+    <t>0423</t>
+  </si>
+  <si>
+    <t>0424</t>
+  </si>
+  <si>
     <t>0441</t>
   </si>
   <si>
+    <t>0450</t>
+  </si>
+  <si>
+    <t>0468</t>
+  </si>
+  <si>
+    <t>0470</t>
+  </si>
+  <si>
     <t>0492</t>
   </si>
   <si>
+    <t>0495</t>
+  </si>
+  <si>
+    <t>0496</t>
+  </si>
+  <si>
     <t>0500</t>
   </si>
   <si>
     <t>0501</t>
   </si>
   <si>
+    <t>0524</t>
+  </si>
+  <si>
     <t>0533</t>
   </si>
   <si>
     <t>0540</t>
   </si>
   <si>
+    <t>0554</t>
+  </si>
+  <si>
+    <t>0565</t>
+  </si>
+  <si>
+    <t>0579</t>
+  </si>
+  <si>
+    <t>0594</t>
+  </si>
+  <si>
     <t>0614</t>
   </si>
   <si>
@@ -833,30 +908,63 @@
     <t>0663</t>
   </si>
   <si>
+    <t>0666</t>
+  </si>
+  <si>
     <t>0677</t>
   </si>
   <si>
     <t>0679</t>
   </si>
   <si>
+    <t>0681</t>
+  </si>
+  <si>
+    <t>0702</t>
+  </si>
+  <si>
     <t>0703</t>
   </si>
   <si>
     <t>0712</t>
   </si>
   <si>
+    <t>0715</t>
+  </si>
+  <si>
     <t>0717</t>
   </si>
   <si>
     <t>0718</t>
   </si>
   <si>
+    <t>0758</t>
+  </si>
+  <si>
+    <t>0760</t>
+  </si>
+  <si>
+    <t>0762</t>
+  </si>
+  <si>
+    <t>0764</t>
+  </si>
+  <si>
+    <t>0769</t>
+  </si>
+  <si>
     <t>0794</t>
   </si>
   <si>
     <t>0800</t>
   </si>
   <si>
+    <t>0815</t>
+  </si>
+  <si>
+    <t>0844</t>
+  </si>
+  <si>
     <t>0845</t>
   </si>
   <si>
@@ -869,12 +977,18 @@
     <t>0851</t>
   </si>
   <si>
+    <t>0862</t>
+  </si>
+  <si>
     <t>0863</t>
   </si>
   <si>
     <t>0864</t>
   </si>
   <si>
+    <t>0891</t>
+  </si>
+  <si>
     <t>0913</t>
   </si>
   <si>
@@ -914,6 +1028,9 @@
     <t>0974</t>
   </si>
   <si>
+    <t>0979</t>
+  </si>
+  <si>
     <t>0980</t>
   </si>
   <si>
@@ -923,6 +1040,12 @@
     <t>0984</t>
   </si>
   <si>
+    <t>0985</t>
+  </si>
+  <si>
+    <t>0998</t>
+  </si>
+  <si>
     <t>1003</t>
   </si>
   <si>
@@ -932,9 +1055,18 @@
     <t>1017</t>
   </si>
   <si>
+    <t>1018</t>
+  </si>
+  <si>
     <t>1036</t>
   </si>
   <si>
+    <t>1037</t>
+  </si>
+  <si>
+    <t>1047</t>
+  </si>
+  <si>
     <t>1054</t>
   </si>
   <si>
@@ -974,6 +1106,12 @@
     <t>1163</t>
   </si>
   <si>
+    <t>1170</t>
+  </si>
+  <si>
+    <t>1174</t>
+  </si>
+  <si>
     <t>1179</t>
   </si>
   <si>
@@ -983,9 +1121,21 @@
     <t>1183</t>
   </si>
   <si>
+    <t>1192</t>
+  </si>
+  <si>
     <t>1199</t>
   </si>
   <si>
+    <t>1212</t>
+  </si>
+  <si>
+    <t>1213</t>
+  </si>
+  <si>
+    <t>1218</t>
+  </si>
+  <si>
     <t>1225</t>
   </si>
   <si>
@@ -1010,12 +1160,24 @@
     <t>1269</t>
   </si>
   <si>
+    <t>1270</t>
+  </si>
+  <si>
     <t>1272</t>
   </si>
   <si>
+    <t>1282</t>
+  </si>
+  <si>
     <t>1300</t>
   </si>
   <si>
+    <t>1316</t>
+  </si>
+  <si>
+    <t>1327</t>
+  </si>
+  <si>
     <t>1329</t>
   </si>
   <si>
@@ -1034,12 +1196,18 @@
     <t>1351</t>
   </si>
   <si>
+    <t>1359</t>
+  </si>
+  <si>
     <t>1360</t>
   </si>
   <si>
     <t>1364</t>
   </si>
   <si>
+    <t>1387</t>
+  </si>
+  <si>
     <t>1398</t>
   </si>
   <si>
@@ -1049,9 +1217,36 @@
     <t>1416</t>
   </si>
   <si>
+    <t>1422</t>
+  </si>
+  <si>
+    <t>1424</t>
+  </si>
+  <si>
+    <t>1435</t>
+  </si>
+  <si>
     <t>1440</t>
   </si>
   <si>
+    <t>1445</t>
+  </si>
+  <si>
+    <t>1468</t>
+  </si>
+  <si>
+    <t>1481</t>
+  </si>
+  <si>
+    <t>1482</t>
+  </si>
+  <si>
+    <t>1486</t>
+  </si>
+  <si>
+    <t>1492</t>
+  </si>
+  <si>
     <t>1498</t>
   </si>
   <si>
@@ -1085,6 +1280,9 @@
     <t>1549</t>
   </si>
   <si>
+    <t>1558</t>
+  </si>
+  <si>
     <t>1560</t>
   </si>
   <si>
@@ -1094,9 +1292,21 @@
     <t>1587</t>
   </si>
   <si>
+    <t>1589</t>
+  </si>
+  <si>
+    <t>1592</t>
+  </si>
+  <si>
     <t>1597</t>
   </si>
   <si>
+    <t>1600</t>
+  </si>
+  <si>
+    <t>1603</t>
+  </si>
+  <si>
     <t>1616</t>
   </si>
   <si>
@@ -2856,6 +3066,432 @@
   </si>
   <si>
     <t xml:space="preserve">Jahrelang gab Mobster Frankie den unsichtbaren Beschützer für Jennifer, die Tochter des mächtigen Paten Angelo, ohne dass Jennifer von ihrer wahren Identität die geringste Ahnung hatte. Jetzt ist Angelo tot, und Jennifer erfährt durch Frankie, dass sie nicht aus so behütetem Hause stammt, wie sie immer dachte. Während Frankie und Jennifer einander auch persönlich näher kommen, entdeckt die schöne Tochter ihre kriminelle Ader und beschließt, Vatis Tod persönlich zu rächen. Frankie ist unbegeistert, spielt aber mit. </t>
+  </si>
+  <si>
+    <t>Babel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ein Schuss in der Wüste von Marokko ist das auslösende Moment einer ganzen Kette von Ereignissen, die vier Schicksale von unterschiedlichen Menschen auf drei Kontinenten miteinander verbindet: Da ist ein amerikanischer Tourist, der in Marokko um das Leben seiner schwer verletzten Frau kämpft. Ein mexikanisches Kindermädchen, das verzweifelt versucht, die Grenze mit ihren beiden amerikanischen Schützlingen zu überqueren. Ein taubstummer japanischer Teenager, der gegen den eigenen Vater und dessen mysteriöse Vergangenheit rebelliert. Und zwei kleine Jungs auf der Flucht vor der eigenen Verantwortung. Geschichten und Schicksale, die nur scheinbar keine Verbindung haben. </t>
+  </si>
+  <si>
+    <t>Bad Boys 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ein paar Gangster stehlen aus der Asservatenkammer der Polizei konfisziertes, reines Heroin im Wert von 100 Millionen Dollar Die beiden Drogenfahnder Marcus Burnett und Mike Lowrey haben den Auftrag die Beute wiederbeschaffen. Und das innerhalb von 72 Stunden, ansonsten wird ihre Abteilung geschlossen. Die einzige Zeugin des Überfalls hat Angst, taucht zunächst unter, vertraut sich dann aber doch Mike Lowrey an. Bald stoßen sie auf gigantische Korruption und einen kaltblütigen Hintermann... </t>
+  </si>
+  <si>
+    <t>Bad Moms</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Die junge Mutter Amy Mitchell versucht, Karriere und Familie zu balancieren. Das ist schwer und wird noch schwerer, als sie herausfindet, dass ihr Mann Mike, ohnehin keine große Hilfe beim Hüten der frechen Kinder, sie auch noch betrügt. Amy platzt der Kragen, aus der braven Ehefrau wird eine „Bad Mom“. Sie schmeißt ihren Mann raus und bekommt zusammen mit zwei anderen Müttern, der frivolen Carla und der braven Kiki, einen Geschmack davon, was Freiheit wirklich bedeutet: Das Trio hört auf, nett und perfekt zu sein, setzt fortan lieber auf Genuss - und das ziemlich unverschämt. Muster-Mama Gwendolyn James findet den freizügigen Spaßtrip völlig daneben und versucht, mit Intrigen zu intervenieren. Amy aber sieht das nur als weiteren Kick... </t>
+  </si>
+  <si>
+    <t>Bad Spies</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Die neurotische Audrey fällt eines Tages aus allen Wolken, als sie herausfindet, dass ihr vermeintlich so langweiliger Ex-Freund Drew die ganze Zeit ein internationaler Spitzenspion war. Als ihr ein USB-Stick mit gefährlichen Daten in die Hände fällt und sie zusammen mit ihrer besten Freundin, der chaotischen Morgan, einen Mordanschlag auf ihren Verflossenen beobachtet, macht sie sich aus dem Staub und flüchtet aus Amerika. Es beginnt eine wilde Jagd durch die Hauptstädte Europas, bei der den beiden Freundinnen, nicht nur die CIA, sondern auch osteuropäische Killer sowie ein mysteriöser britischer Geheimagent namens Sebastian auf den Fersen sind. Dabei stellt sich schnell heraus, dass Audrey und Morgan nicht unbedingt das Zeug zum Agenten haben... </t>
+  </si>
+  <si>
+    <t>Bad Teacher</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Manchen Lehrern ist alles sch…egal. Elizabeth zum Beispiel. Sie hat ein loses Mundwerk, kennt keine Skrupel und ist für ihren Beruf völlig ungeeignet. Sie trinkt, ist meistens high und kann es kaum erwarten, sich nach oben zu schlafen und einen reichen Sugar Daddy zu heiraten, damit sie endlich ihren lästigen Tagesjob hinschmeißen kann, bei dem sie allen ohnehin nur etwas vorgaukelt. Als ihr Verlobter sie sitzen lässt, wirft Elizabeth ein Auge auf einen ebenso vermögenden wie attraktiven jungen Vertretungslehrer. Allerdings muss sie um dessen Aufmerksamkeit mit Amy, einer bei allen sehr beliebten Kollegin, buhlen. Gleichzeitig muss Elizabeth die hartnäckigen Avancen eines sarkastischen und überaus respektlosen Sportlehrers abwehren. Die Folgen von Elizabeths hemmungslosen und skandalträchtigen Intrigen sorgen dafür, dass ihre Schüler und Kollegen, sowie nicht zuletzt sie selbst, einige Lektionen fürs Leben lernen, die sich gewaschen haben. </t>
+  </si>
+  <si>
+    <t>Bag Of Bones</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Der Bestseller-Autor Mike Noonan kommt nicht über den Tod seiner geliebten Ehefrau Jo hinweg. Um seine Schreibblockade zu lösen, zieht er in das kleine Haus am See, wo er mit Jo schon viele glückliche Stunden verbrachte. Dort lernt er Mattie kennen, eine attraktive Frau und ebenfalls Witwe. Doch obwohl seine Schreibkunst wieder zurückkehrt, wird Mike von immer heftigeren Albträumen und Visionen geplagt. Scheinbar hat seine tote Frau ihm noch etwas mitzuteilen... </t>
+  </si>
+  <si>
+    <t>Banditen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kaum aus dem Gefängnis ausgebrochen, macht sich das Ganovenduo Joe und Terry wieder daran, eine Bank nach der anderen zu erleichtern und so gelangen sie schon bald zu beachtlicher Berühmtheit. Als das Duo bei einem der Überfälle eine Frau als Geisel nimmt, kommen die Turbulenzen erst richtig in Gang. Kate, frustrierte Ehefrau und absolut gelangweilt von ihrem alltäglichen Trott, lässt sich nämlich so leicht nicht mehr abschütteln. </t>
+  </si>
+  <si>
+    <t>Bang Boom Bang</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Keek braucht viel Geld, und zwar schnell plötzlich steht der Gefangene ohne Vorwarnung in der Tür, und das zwei Jahre vor seiner regulären Entlassung aus der Haft. </t>
+  </si>
+  <si>
+    <t>Bärenbrüder 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Der Indianerjunge Kenai mag Bären überhaupt nicht Umso ärgerlicher ist es für ihn, als er eines Tages ausgerechnet in so einen pelzigen Gesellen verwandelt wird. Da fehlen ihm gerade noch die beiden äußerst schrägen Elchbrüder, die ihm ständig über den Weg traben. Nur auf einem geheimnisvollen Berggipfel kann Kenai wieder zum Menschen werden. Deshalb macht er sich - begleitet von dem kleinen Bären Koda, der sich fest entschlossen an seine Tatzen heftet - auf die abenteuerlichste Reise seines Lebens und sieht die Welt bald mit ganz anderen Augen... </t>
+  </si>
+  <si>
+    <t>Bärenbrüder 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Der in einen Bär verwandelte Junge Kenai und sein kleiner Bärenbruder Koda wollen eigentlich nur als erste einen Berg erklimmen, um oben die besten Beeren ernten zu können. Doch unterwegs treffen sie auf die junge Frau Nita, der Kenai als Kind Treue geschworen hatte. Um heiraten zu können, muss sie gemeinsam mit ihrem Freund von damals das Amulett, das er ihr schenkte, am Ort des Treueschwurs verbrennen. Zuerst widerwillig begleiten Kenai und Koda sie auf ihrer Mission, und schon bald verlieben sich Kenai und Nita von neuem. </t>
+  </si>
+  <si>
+    <t>Basic Instinct</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Detective Nick Curran wird beauftragt, einen Mord an einem Mann aufzuklären, der während des Sex mit einem Eispickel erstochen wurde. Hauptverdächtige ist schon bald die eiskalte Catherine Tramell, die Nick gegenüber sehr provokant und sexuell eindeutig auftritt. Tatsächlich stürzen sich die beiden bald in eine verhängnisvolle Affäre, bei der Nick schon bald nicht überblicken kann, ob Catherine oder die Psychiaterin Beth Garner eher für den Mord in Frage kommt. </t>
+  </si>
+  <si>
+    <t>Batman - LEGO 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Der dunkle Ritter ist zurück und muss es mit altbekannten Widersachern aufnehmen, die Gotham City in Schutt und Asche legen wollen Dieses Mal verbündet sich Batmans Erzfeind - der Joker - mit Lex Luthor und auch der Riddler, Catwoman sowie der Pinguin-Mann mischen kräftig mit. Insbesondere dem Joker ist daran gelegen, Batman aus dem Verkehr zu ziehen. Ohne Hilfe hat der Held Gothams keine Chance gegen die Übeltäter. Deshalb kommen ihm die Mitglieder der Gerechtigkeitsliga, dessen Anführer er ist, zu Hilfe und ünterstützen ihn. Seite an Seite kämpft Batman mit Wonder Woman, Green Lantern, The Flash, Superman und Co. Natürlich ist auch sein alter Weggefährte Robin wieder mit von der Partie. Können sie zusammen die Bösen besiegen, welche einmal mehr die Macht in Gotham an sich reißen wollen, oder werden der Joker und Lex Luthor durch den Besitz einer neuen Waffe - dem Deconstructor - am Ende den Sieg davontragen? </t>
+  </si>
+  <si>
+    <t>Batman - LEGO 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kann Batman glücklich sein? Batman adoptiert als Bruce Wayne ein Kind - aus Versehen auf einer Wohltätigkeitsveranstaltung. Doch der Sohnemann, Dick Grayson alias Robin, nagt dem Heldenpapa mächtig an den Nerven: Im Gegensatz zu Batman ist er nämlich die ganze Zeit super-positiv drauf - und er will im Batmobil vorne sitzen, was natürlich gar nicht geht. Zumal Batman ohnehin schon genug Stress mit dem Joker hat. Der will dem Dunklen Ritter unbedingt beweisen, dass er der größte Bösewicht aller Zeiten ist. </t>
+  </si>
+  <si>
+    <t>Batman - The Killing Joke</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Batmans gefährlichster Widersacher, der Joker, ist mal wieder aus dem Arkham Asylum ausgebrochen. Während sich der Dunkle Ritter erfolglos auf die Spurensuche nach dem verrückten Killer-Clown begibt, überfallt der Joker Comissioner Gordon und verletzt dabei dessen Tochter Barbara alias Batgirl, sodass sie fortan an einen Rollstuhl gefesselt ist. Mit den Bildern dieser Schreckenstat versucht der Superschurke, den aufrichtigen Gordon in den Wahn zu treiben. Als Batman schließlich mithilfe eines Hinweises vom Joker dessen Versteck in einem verlassenen Vergnügungspark ausfindig macht, könnte es bereits zu spät sein um das geistige Wohl seines Freunds Gordon... </t>
+  </si>
+  <si>
+    <t>Batman 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gotham City erstickt in einem Sumpf aus Korruption und Verbrechen, und nur ein Mann stellt sich der Gefahr: Batman, der dunkle Ritter in dem Fledermaus-Cape. Die Reporterin Vicky Vale wittert eine heiße Story, und will die Identität des mysteriösen Kämpfers für das Gute aufdecken. Doch Batman hat andere Probleme: Er ist Joker auf den Fersen, der die Macht in Gothams Unterwelt an sich reißen will... </t>
+  </si>
+  <si>
+    <t>Batman 2 - Batman Returns</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Batman hat es mit dem Pinguin zu tun, einem amphibisch / menschlichen Wesen, das durch den Ansporn des fiesen Geschäftsmanns Max Shreck sogar Ambitionen hegt, es bis zum Bürgermeister Gotham Citys zu bringen. Die beiden wollen Batman in Verruf bringen, doch dann gibt es da noch die ehemalige Sekretärin Shrecks, Selina Kyle, die als undurchsichtige Catwoman durch Gothams Strassen zieht... </t>
+  </si>
+  <si>
+    <t>Batman 3 - Batman Forever</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Der dunkle Ritter von Gotham City hat es diesmal mit zwei äußerst gefährlichen Schurken zu tun: Der frühere Staatsanwalt Harvey Dent, der durch einen schrecklichen Unfall im Gerichtssaal entstellt wurde und zu Harvey Two-Face mutierte, macht fälschlicherweise Batman für seine Leiden verantwortlich. Dann ist da noch Edward Nygma, der ein neuartiges Fernsehvergnügen für die Einwohner von Gotham erfunden hat, und zeitweilig in der Person des Riddler Batman knifflige Rätsel zu lösen gibt... </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Turbulenzen in Gotham City und im Hause Wayne. Zwei neue Superverbrecher, der rachsüchtige Wissenschaftler Mr. Freeze und die giftige Ökoamazone Poison Ivy, haben den Ring betreten. Außerdem macht sich Nachwuchs in der Batcave breit: Barbara Wilson, Alfreds liebe Nichte, begehrt mit Vehemenz Einlass und ihre umgehende Beförderung zum Batgirl. Als Mr. Freeze auf Anraten von Ivy damit beginnt, die komplette Stadt einzufrieren, sind Eile und Teamwork geboten. </t>
+  </si>
+  <si>
+    <t>Batman 4 - Batman &amp; Robin</t>
+  </si>
+  <si>
+    <t>Batman 6 - The Dark Knight</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gemeinsam mit Bezirksstaatsanwalt Harvey Dent und Lieutenant James Gordon versucht der im Fledermauskostüm agierende Milliardär Bruce Wayne dem Verbrechen in Gotham City Einhalt zu gebieten. Wie aus dem Nichts taucht plötzlich ein psychotischer Superverbrecher auf - der Joker. In seiner wahnhaften Vision möchte er die Stadt in Chaos und Anarchie stürzen und Batman scheint der einzige, der ihn stoppen kann. Bis es zum endgültigen Show-Down kommt, wird aber viel Blut fließen und auch Menschen die Bruce Wayne nahe stehen, könnten Opfer werden. </t>
+  </si>
+  <si>
+    <t>Batman 7 - The Dark Knight Rises</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nach dem Tod des Staatsanwalts Harvey Dent alias Two-Face nahm Batman die Schuld von dessen Verbrechen auf sich, um seinen Ruf zu schützen. Daher wurde er von dem Gotham City Police Department gejagt und verließ die Stadt. Die Handlung des Films setzt acht Jahre nach den Ereignissen von The Dark Knight ein. Nachdem der bemerkbar gealterte Batman nach Gotham zurückkehrt, muss er die Wahrheit der geheimnisvollen Selina Kyle herausfinden und den Schurken Bane davon abhalten, Gotham zu zerstören... </t>
+  </si>
+  <si>
+    <t>Batman Vs. Robin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Batman entdeckt, dass eine Geheimgruppierung namens "Rat der Eulen" in Wirklichkeit seit Jahrzehnten die Geschichte seiner Heimatstadt Gotham lenkt. </t>
+  </si>
+  <si>
+    <t>Batman Vs. Superman - Dawn Of Justice</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zwei Wesen des zerstörten Planeten Krypton brachten im Finale von „Man of Steel“ Zerstörung auf die Erde: die Kontrahenten Superman und General Zod. Der böse Zod wurde geschlagen und der Mann aus Stahl wird fortan entweder als Gott verehrt oder - ob seiner Macht - als Bedrohung für die Menschheit verdammt. Ein gewichtiger Wortführer im globalen Shitstorm gegen Superman ist Bruce Wayne alias Batman. Der sorgt - moralisch unterstützt von Butler Alfred - für Ordnung in Gotham City und ist von den tödlichen Auswirkungen des Gigantenkampfes in der Nachbarstadt Metropolis auch persönlich betroffen. Er stellt sich gegen seinen rot bemäntelten Kollegen, verbal und mit Körpereinsatz. Doch während Batman und Superman kämpfen, taucht eine neue Bedrohung auf, die beide zusammenschweißen könnte und an der das junge Unternehmer-Genie Lex Luthor alles andere als unschuldig ist. Zeit, dass sich die Mitglieder der Heldengruppe Justice League formieren... </t>
+  </si>
+  <si>
+    <t>Battle Of The Sexes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bobby Riggs war in den 1930ern und 1940ern ein Tennis-Ass. Inzwischen ist er zwar 55 Jahre alt und im Ruhestand, wähnt sich seinen weiblichen Kolleginnen aber dennoch weiterhin überlegen, was er auch öffentlich macht. Das kann die Frauenrechtsaktivistin und Tennisspielerin Billie Jean King dem Macho nicht durchgehen lassen und nimmt deshalb die Herausforderung an, in einem Battle of the Sexes - Mann gegen Frau - gegen ihn anzutreten. Das Preisgeld wird auf 100.000 Doller angesetzt. </t>
+  </si>
+  <si>
+    <t>Baymax - Riesiges Robowabohu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hiro Hamada ist ein brillanter Teenager und lebt in der futuristischen Stadt San Fransokyo ein relativ normales Leben. Zumindest solange, bis ihm sein Bruder Tadashi den aufblasbaren Roboter Baymax baut, zu dem Hiro schnell eine ganz besondere Beziehung entwickelt. Baymax' tatkräftige Unterstützung kann der aufgeweckte Junge definitiv gut gebrauchen, droht doch schon bald eine kriminelle Organisation damit, seine Heimatstadt zu zerstören. Mit der Hilfe von Baymax und seinen Freunden Go Go Tomago, Wasabi, Honey Lemon und Fred beschließt Hiro, alles zu tun, um die Katastrophe zu verhindern. </t>
+  </si>
+  <si>
+    <t>Baywatch - The Movie</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mitch Buchannon hat als charismatischer Anführer eines Teams von Rettungsschwimmern alle Hände voll zu tun. Vor allem ein Neuzugang bereitet ihm Sorgen: Matt Brody war einst olympischer Schwimmer, doch wurde nach einem Aufsehen erregenden Zwischenfall verbannt. Nun muss ihn Mitch als PR-Maßnahme in sein Team aufnehmen. Der Neuzugang stellt gleich mal Mitchs Autorität in Frage. Summer hat dagegen ein Auge auf den Neuankömmling geworfen. Allgemein stehen Liebe und Beziehung dem Team immer im Weg. Mitchs Ex Stephanie ist geschäftlich noch weiter seine Partnerin, doch als er sich neu verliebt, reagiert sie eifersüchtig. Und der trottelige Ronnie versucht verzweifelt, bei Sexbombe C.J. zu landen. All das muss aber bald beiseite gewischt werden, denn als Mitch und Matt einer kriminellen Verschwörung auf die Spur kommen, die ihren Strand bedroht, müssen sie alle zusammenarbeiten... </t>
+  </si>
+  <si>
+    <t>Be Cool</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chili Palmer versucht nach seinem missglückten Ausflug im Filmgeschäft zusammen mit seiner Partnerin Edie, eine Plattenfirma, die kurz vor dem Bankrott steht, wieder aufleben zu lassen. Dafür brauchen sie eigentlich nur ein großes Talent, das einen Hit landet. Dieses Talent findet sich recht schnell in der Sängerin Linda Moon. Doch um aus ihr einen weltberühmten Star zu machen, müssen sich die beiden gegen zahlreiche Widersacher durchsetzen: Rapper, die zu gerne mit ihren Waffen spielen, die russische Mafia, andere Musiker, die sich für die größeren Talente halten und Manager, die der Größenwahn packt, müssen von Chili und Edie bewältigt werden. Dabei müssen sie die Ruhe bewahren und cool bleiben... </t>
+  </si>
+  <si>
+    <t>Bedtime Stories</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Der Hotelangestellte Skeeter erzählt seiner Nichte und seinem Neffen eine Gute-Nacht-Geschichte, wie es sein Vater immer getan hat. Allerdings wird diese Geschichte am nächsten Tag plötzlich Wirklichkeit. Mit der Hoffnung auf Profit durch diesen Umstand erzählt der Onkel den Kindern weitere Geschichten, die für ihn ein gutes Ende haben. Doch er muss bald feststellen, dass nicht er die Kontrolle über die Geschehnisse hat und deshalb einiges schief läuft. </t>
+  </si>
+  <si>
+    <t>Beetlejuice</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adam und Barbara Maitland sind vor kurzen erst verstorben, aber ein “Ruhe in Frieden” will sich bei den beiden nicht einstellen. Sie müssen sich viele, viele Jahre mit fremden Menschen herumschlagen, die nach ihrem Tod in ihr Haus eingezogen sind. Durch Spuk könnten sie sie ja vertreiben, aber hierfür fehlt es den beiden an Erfahrung und Ideen. Zum Glück gibt es ja noch den Bio-Exorzisten Beetlejuice, der den beiden nur zu gerne zur Hand gehen würde. </t>
+  </si>
+  <si>
+    <t>Beowulf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dänemark im 6. Jahrhundert: Nacht für Nacht sucht sich das Ungeheuer Grendel, halb Mensch, halb Wolf, neue Opfer im Schloss Sigriz. Beowulf, ein Einzelkämpfer mit übermenschlichen Kräften, will diesem Spuk ein Ende bereiten. Vor der Burg erwarten Beowulf abscheuliche Gestalten. Gerade noch gelingt es ihm, eine junge Frau zu retten, die von einem riesigen Hackbeil zweigeteilt werden soll. Doch lieber stirbt sie, als in das Bollwerk des Schreckens zurückzukehren... </t>
+  </si>
+  <si>
+    <t>Bernie</t>
+  </si>
+  <si>
+    <t>Bernhardt ‘Bernie’ Tiede ist der allseits beliebte homosexuelle Leichenbestatter einer kleinen Stadt in Texas. Ihm gelingt es sogar, sich mit der furchtbarsten Witwe der Stadt anzufreunden. Gemeinsam schwelgen sie im Luxus. Dies hält ihn allerdings nicht davon ab, sie zu töten, auszurauben und in seiner Gefriertruhe zu verstecken</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> danach gibt er sich aber die allergrößte Mühe, damit es so aussieht als ob sie noch am Leben sei. Doch der zynische Staatsanwalt Danny Buck Davidson ist ihm schon auf der Spur. </t>
+  </si>
+  <si>
+    <t>Big Business</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dan hat genug davon, dass seine Leistung in seiner Firma nicht anständig gewürdigt wird. Er kündigt, ein Jahr später hat er sein eigenes Unternehmen. Das besteht neben ihm nur aus zwei weiteren Mitarbeitern und mit denen gibt es jeweils ein Problem: Mike ist zu jung, Timothy ist zu alt. Um einen wichtigen Deal an Land zu ziehen, macht sich das Trio auf den Weg nach Europa. Doch bei dem als Routinereise geplanten Trip geht so gut wie alles schief, was schief gehen kann: Die Reisegruppe platzt auf einen von gewaltsamen Protesten begleiteten globalen Wirtschaftsgipfel, der Besuch eines riesigen Fetisch-Events läuft völlig aus dem Ruder und eine toughe Kollegin setzt Dan mächtig unter Druck. Der wird nicht geringer, als das chaotische Team realisiert, dass die Firma pleite ist, falls der Deal scheitert... </t>
+  </si>
+  <si>
+    <t>Big Daddy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Der faul in den Tag hineinlebende Sonny Koufax - er lebt von 200.000 Dollar, die ihm als Opfer eines Verkehrsunfalls zugesprochen wurden - nimmt den fünfjährigen Julian auf, den sein verreister Zimmerkollege einfach bei ihm deponiert hat. Zunächst über seinen neuen Mitbewohner alles andere als glücklich, schließt der vermeintliche Nichtsnutz den naseweisen Jungen schnell in sein gutmütiges Herz. Damit nimmt jedoch das Chaos seinen Lauf, denn - wie nicht anders zu erwarten - sind Sonnys Erziehungsmethoden nicht gerade die feinsten... </t>
+  </si>
+  <si>
+    <t>Big Game</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Der schüchterne, eher schwächlich gebaute Oskari muss im Rahmen einer Mutprobe eine ganze Nacht alleine in einem abgelegenen Waldstück verbringen. Er soll inmitten der Wildnis, nur mit Pfeil und Bogen bewaffnet, ein Tier erlegen und so beweisen, dass er ein ganzer Mann ist. Oskari aber hat Angst, zu versagen, und selbst sein Vater glaubt nicht an ihn. Dementsprechend schwer wiegt die Last der Aufgabe auf den jungen Schultern - und Oskari hat anfangs noch nicht mal eine leise Ahnung davon, welche Probleme warten. Als nämlich die Air Force One von Terroristen attackiert wird und im Wald abstürzt, entdeckt der Junge den US-Präsidenten in einer Rettungskapsel, der gerade noch so in Sicherheit gebracht werden konnte. In den folgenden Stunden muss sich das ungleiche Paar in einem kräftezehrenden Überlebenskampf bewähren. Die Attentäter sind ihnen dicht auf den Fersen... </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Böse Bill- und Ted-Roboter werden aus der Zukunft geschickt, um Bill und Ted zu töten, bevor sie mit ihrer Band Wild Stallyns einen Talentwettbewerb gewinnen und mit ihrer Fanschar die Welt verändern können. Die Roboter stürzen Bill und Ted von einer Klippe und übernehmen ihre Rolle. Bill und Ted spielen derzeit in der Hölle mit dem Tod um ihre Zukunft und gewinnen. Mit dem Sensenmann im Schlepptau gelangen Bill und Ted zurück ins Diesseits. Dort haben die Roboter bereits für Chaos gesorgt. Mit der Hilfe von marsianischen Wissenschaftlern bauen Bill und Ted weitere Bill- und Ted-Roboter, die bei dem Talentwettbewerb gegen die bösen Alter egos antreten. Einer Karriere als Rockstars steht nun nichts mehr im Wege. </t>
+  </si>
+  <si>
+    <t>Bill &amp; Ted 2 - Verrückte Reise In Die Zukunft</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Den potenziellen Rockstars Bill und Ted wurde einst prophezeit, sie würden mit abenteuerlichen Zeitreisen einmal das ganze Universum retten. Doch mittlerweile sind aus Bill und Ted Väter mittleren Alters geworden, die immer noch versuchen, einen Hit zu landen und ihr Schicksal zu finden. </t>
+  </si>
+  <si>
+    <t>Bill &amp; Ted 3 - Retten Das Universum</t>
+  </si>
+  <si>
+    <t>Billy Elliot</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Billy Elliot lernt seinem Vater Jackie zuliebe boxen, damit er sich auch im wahren Leben durchschlagen kann. Doch eines Tages entdeckt Billy seine Liebe zum klassischen Tanz und gibt den Boxunterricht auf, um in die Ballettschule gehen zu können. Wie man sich denken kann, sehr zum Leidwesen seines Vaters. Der verbietet Billy nämlich, das aus seiner Sicht unmännliche Tanzen fortzusetzen. Aber Billy ist nicht allein. Unterstützung für seine Leidenschaft erfährt er von der Ballettlehrerin Georgia Wilkinson und seinem Freund Michael. So gelingt es Billy, gegen die Widerstände aus der Familie, dem Tanzen treu zu bleiben. Als sein Vater ihn zufällig dabei beobachtet wie er mit eleganten Bewegungen durch die Halle tanzt, hat der Augenblick eine magische Kraft, die ihr Verhältnis verändern wird. </t>
+  </si>
+  <si>
+    <t>Birds Of Prey</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ex-Psychiaterin und bekennender Baseball-Fan Harley Quinn hat sich gerade frisch von ihrem Freund Joker getrennt und sucht in Gotham nach neuen Horizonten. Diese trifft sie bald in Gestalt der Superheldinnen-Truppe „Birds Of Prey“, die aus Huntress, Black Canary und Polizistin Renee Montoya besteht und in Eigenregie die Unterwelt der Stadt kräftig durchputzt. Obwohl die Ex-Kriminelle und die Selbstjustiz-Truppe sich anfangs nicht so ganz grün sind, schließen sie sich letztlich doch für den guten Zweck zusammen: Verbrecherboss Black Mask kreuzt nämlich ihren Weg und bedroht mit seinen Schergen wie dem düsteren Victor Zsasz die junge Cassandra Cain, die ihm einen Diamanten gestohlen hat und alsbald von den Birds Of Prey und der quirligen Quinn beschützt werden muss. </t>
+  </si>
+  <si>
+    <t>Bitter Moon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eine Mittelmeer-Kreuzfahrt möchte das junge britische Paar Nigel und Fiona dazu nutzen, die emotionslos dahinvegetierende Ehe zu retten. An Bord lernen die beiden den an den Rollstuhl gefesselten Schriftsteller Oscar und dessen attraktive Frau kennen. Nigel verliebt sich prompt in die mysteriöse Schöne, ohne zu ahnen, das Oscar längst ein teuflisches Spiel eingefädelt hat. Doch bevor der steife Brite den Plan durchschauen kann, kommt es zur blutigen Katastrophe. </t>
+  </si>
+  <si>
+    <t>Black Adam</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fast 5.000 Jahre nachdem er mit den allmächtigen Kräften der ägyptischen Götter ausgestattet und ebenso schnell wieder eingesperrt wurde, wird Black Adam aus seinem irdischen Grab befreit und ist bereit, seine einzigartige Form der Gerechtigkeit auf die moderne Welt loszulassen. </t>
+  </si>
+  <si>
+    <t>Black Hawk Down</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mogadischu 1993: Der machthungrige Clan-Chef Mohamed Aidid regiert mit Hilfe seiner Terror-Milizen das darbende Somalia und scheut auch nicht davor zurück, die UNO-Truppen anzugreifen. Um den Machtapparat des Despoten zu schwächen, entführen US-Einheiten dessen wichtigste Männer. Doch der Einsatz mündet in einer Katastrophe, als am 3. Oktober 1993 zwei Hubschrauber abgeschossen werden und rund 100 versprengte amerikanische Soldaten in den Häuserschluchten festsitzen. Was als kurzes Kommandounternehmen geplant war, entwickelt sich zu einem langen und blutigen Feuergefecht und endet in der größten amerikanischen Militärkatastrophe seit Vietnam. </t>
+  </si>
+  <si>
+    <t>Black Panther 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aufgrund von Bodenschätzen außerirdischen Ursprungs ist das afrikanische Königreich Wakanda unermesslich reich. Nur hier kommt das Vibrationen jeder Art und Stärke absorbierende Mineral Vibranium vor. Den Bewohnern von Wakanda ist sehr daran gelegen, vor den Augen Fremder verborgen zu bleiben. Reichtum weckt Begehrlichkeiten, und es braucht einen starken Führer, ihn zu verteidigen: Den Black Panther Die Verantwortung des Black Panther wird vom König Wakandas an den jeweiligen Nachfolger weitergegeben. Und so nimmt T’Challa die Bürde und die Würde des ihm vorbestimmten Schicksals von seinem Vater T’Chaka nach dessen tragischen Tod entgegen. </t>
+  </si>
+  <si>
+    <t>Black Swan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nina ist eine ehrgeizige und leidenschaftliche Ballett-Tänzerin, die ihr Leben ausnahmslos ihrer Arbeit an der New Yorker Ballet Company widmet. Dabei wird sie energisch von ihrer Mutter, selbst eine ehemalige Tänzerin, gefördert. Als die Rolle der Primaballerina für die Produktion des Klassikers Schwanensee neu besetzt werden soll, wird Nina von Regisseur Thomas Leroy favorisiert. Sie bekommt jedoch schnell Konkurrenz durch die jüngere Lily, die zwar technisch schwächer ist, aber eine Leichtigkeit besitzt, die sich nicht mit Übung erreichen lässt. Zwischen den beiden entsteht eine außergewöhnliche Beziehung, die zur Zerreißprobe für Nina wird. Immer intensiver lernt sie die düstere Seite ihres Selbst kennen, das ihr bedrohlicherweise immer ähnlicher wird. </t>
+  </si>
+  <si>
+    <t>Black Water</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wheeler ist ein knallharter Geheimagent. Doch plötzlich wacht er als Gefangener in einem Atom-U-Boot der CIA auf. Wie er dahingelangt ist und wer ihn in diese missliche Lage gebracht hat, bleibt zunächst unklar. Um der Sache auf den Grund zu gehen und dem Verlies unter Wasser zu entkommen, schließt sich Wheeler mit dem sich ebenfalls an Bord befindenden Agenten Marco und der taffen Cassie Taylor zusammen. Ein gefährlicher Gefängnisausbruch beginnt, bei dem Wheeler und seine Mitstreiter stark in der Unterzahl sind. Dass es den zahlreichen Feinden nicht an tödlichen Waffen mangelt, macht die Sache auch nicht gerade einfacher. Doch das soll für den erfahrenen Agenten kein Hindernis sein... </t>
+  </si>
+  <si>
+    <t>Black Widow</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nachdem sie das Sokovia-Abkommen abgelehnt und Steve Rogers zur Flucht verholfen hat, befindet sich Natasha Romanoff auf der Flucht. Von der Regierung gejagt, führt sie ihr Weg nach Russland, wo sie auf alte Verbündete und neue Feinde trifft. </t>
+  </si>
+  <si>
+    <t>Blade 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Der ultimative Vampirjäger, Blade, hat die Kräfte eines Unsterblichen, die Seele eines Menschen und das Herz eines Helden. Es ist seine Aufgabe, mit Hilfe seiner Stärken und seiner Waffen die menschliche Rasse vor der Auslöschung zu bewahren. Denn ihnen wurde vom Anführer der blutdurstigen Vampire, Deacon Frost, der Krieg erklärt. Frost glaubt, durch einen langen vergessenen Fluch die Erde buchstäblich in die Hölle verwandeln zu können. Blade und sein Mentor Whistler haben alle Hände voll zu tun, um Frost bei seinem Vorhaben aufzuhalten. </t>
+  </si>
+  <si>
+    <t>Blade Runner</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Man schreibt das Jahr 2019. Den Replikanten, künstlichen Menschen, ist bei Todesstrafe die Rückkehr zur Erde verboten. Doch trotzdem kehren eines Tages einige dieser Wesen zurück. Diese besondere Spezies verfügt über Kraft und Intelligenz mehrerer Menschen und ist von diesen kaum zu unterscheiden. Sie sollen unschädlich gemacht werden. Nur eine Spezialeinheit kann sie aufspüren: die Blade Runner. Eine atemberaubende Hetzjagd durch die futuristische Welt beginnt. </t>
+  </si>
+  <si>
+    <t>Blade Runner 2049</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Im Jahr 2023 wird die Herstellung von Replikanten - künstlichen Menschen, die zum Einsatz in den Weltall-Kolonien gezüchtet werden - nach mehreren schwerwiegenden Vorfällen verboten. Als der brillante Industrielle Niander Wallace ein neues, verbessertes Modell, den „Nexus 9“, vorstellt, wird die Produktion 2036 jedoch wieder erlaubt. Um ältere und somit nicht zugelassene Replikanten-Modelle, die sich auf der Erde verstecken, aufzuspüren und zu eliminieren, ist weiterhin die sogenannte „Blade Runner“-Einheit des LAPD im Einsatz, zu der auch K gehört. Bei seiner Arbeit stößt K auf ein düsteres, gut gehütetes Geheimnis von enormer Sprengkraft, das ihn auf die Spur eines ehemaligen Blade Runners bringt: Rick Deckard, der vor 30 Jahren aus Los Angeles verschwand... </t>
+  </si>
+  <si>
+    <t>Bloodsport</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Um seinen japanischen Meister zu ehren, der ihn als Jungen die asiatische Kampfkunst gelehrt hat, will der Amerikaner Frank Dux an den geheimen Kumite-Weltmeisterschaften in Hongkong teilnehmen. Dort freundet er sich mit einer Journalistin und einem amerikanischen Mitstreiter an. Durch seine disziplinierte und traumwandlerisch sichere Kampfweise weiß er seine Konkurrenten zu beeindrucken und kann nach einem dramatischen Finale gegen den ultrabrutalen Favoriten aus Korea als erster Weißer den Wettkampf gewinnen. </t>
+  </si>
+  <si>
+    <t>Blue Beetle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jaime hat die Nase voll davon, sich und seine Familie mit Aushilfsjobs über Wasser zu halten. Da kommt ihm ein Vorstellungsgespräch beim Konzern Kord Industries gerade recht, das ihm seine Bekannte Jenny Kord verschafft hat. Doch anstatt ihm einen Job anzubieten, drückt ihm Jenny kurzerhand einen Burger-Karton in die Hand und schickt ihn wieder nach Hause. Dort stellen Jaime, seine Schwester Milagro, seine Eltern Alberto und Rocio sowie sein Onkel Rudy fest, dass sich in der Box ein mysteriöser blauer Skarabäus befindet. Der setzt sich nicht nur an Jaimes Wirbelsäule fest, sondern kommuniziert auch mit ihm, hüllt ihn in eine blaue Hightech-Rüstung ein und fliegt mit ihm in die Umlaufbahn. </t>
+  </si>
+  <si>
+    <t>Bohemian Rhapsody</t>
+  </si>
+  <si>
+    <t xml:space="preserve">„Bohemian Rhapsody“ erzählt die Geschichte, wie Freddie Mercury, Brian May, Roger Taylor und John Deacon die Band Queen gründeten - eine der legendärsten Rockgruppen aller Zeiten. Durch so grundverschiedene Songs wie „Killer Queen“, „Bohemian Rhapsody“, „We Are The Champions“ und „We Will Rock You“ sowie unzähligen weiteren Songs gelang der Band ein beispielloser Erfolg, der Freddie zu einem der beliebtesten Entertainer weltweit machte. Doch hinter der Fassade von Erfolg kämpft Freddie mit seiner inneren Zerrissenheit. Der aus Sansibar stammende Parse sucht unablässig nach seinem Platz in der Welt, während er gleichzeitig versucht, sich in einer Gesellschaft, die in Stereotypen und Erwartungen gefangen ist, mit einer Sexualität zu arrangieren, die er selbst kaum definieren kann. Freddie wagt es, sich zu widersetzen, aber zahlt auch den Preis dafür... </t>
+  </si>
+  <si>
+    <t>Book Of Eli</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nach einer Katastrophe, die fast alles Leben auf Erden ausgelöscht hat, bahnt sich im Jahr 2044 ein einsamer Wanderer seinen Weg auf zerstörten Freeways und durch kalte Ruinen. Die Umgebung ist feindselig, überall könnten marodierende Banden zuschlagen und ein Schluck Wasser oder ein paar Schuhe entscheiden, wer unter Jägern und Gejagten den nächsten Tag erlebt. Der Name des Wanderers ist Eli. Obwohl er nicht weiß, ob es tatsächlich irgendwo noch Hoffnung für die Zivilisation gibt, ist er unterwegs nach Westen. Im Gepäck ein mysteriöses Buch, das auch von anderen manisch begehrt und von Eli mit seinem Leben geschützt wird. In einer zerfallenen Stadt, in der das Gesetz des Stärkeren herrscht, trifft Eli auf den despotischen Carnegie, der seinem Geheimnis bald auf die Schliche kommt. Zwar kann sich Eli zunächst der Waffengewalt von Carnegies Schergen erwehren und mit Hilfe der jungen Solara flüchten. </t>
+  </si>
+  <si>
+    <t>Borat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nachdem er Kasachstan verlassen hat, ist Borat nach Amerika gereist, um hier einen Dokumentarfilm über das Land und seine Einwohner zu drehen. Kreuz und quer fährt er durchs Land und trifft hier auf „wahre“ Leute im „wahren“ Leben und das hat zum Teil wahrlich irrsinnige Konsequenzen. Borats rückständiges und hinterwäldlerisches Auftreten ruft heftige Reaktionen hervor und entlarvt die Vorurteile und die Heuchelei der amerikanischen Kultur. In einigen Fällen teilen seine Interviewpartner durchaus seine unverschämten Ansichten vor allem bei den Themen „Männer </t>
+  </si>
+  <si>
+    <t>Borg McEnroe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Im Jahr 1980 ist der 24-jährige Schwede Björn Borg die Nummer eins auf der Weltrangliste im Herren-Tennis, aber auch von den Spuren seiner langen Karriere gezeichnet: Er fühlt sich ausgebrannt und müde. Doch nun steht das mit Spannung erwartete Finale des renommierten Tennisturniers in Wimbledon bevor, bei dem der besonnene Borg gegen den 20-jährigen John McEnroe antreten muss, einen ebenso hitzköpfigen wie exzentrischen Newcomer aus New York. Während sich Borg mit Hilfe seines Trainers Lennart Bergelin auf das Duell vorbereitet, sorgt McEnroe immer wieder für neue Schlagzeilen und fühlt sich bald von den Medien in einen Käfig gezwängt. Und so erkennen die beiden Männer trotz ihres unterschiedlichen Charakters, dass sie mehr verbindet, als man auf den ersten Blick ahnt... </t>
+  </si>
+  <si>
+    <t>Boss Level</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Und täglich grüßt der Tod durch Attentäter: Der ehemalige Elitesoldat Roy Pulver sieht sich jeden Tag aufs Neue mit seinem gewaltsamen Ableben konfrontiert und findet keinen Weg aus der grausamen Zeitschleife. Bei seinen Bemühungen, sich aus dem Teufelskreis zu befreien, stößt Roy auf ein geheimes Projekt der Regierung und macht sich auf die Suche nach dem mächtigen Colonel Ventor, der hinter der Sache zu stehen scheint. Dabei steht auch das Leben von Roys Familie auf dem Spiel. </t>
+  </si>
+  <si>
+    <t>Boston</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Boston, 15. April 2013 - Wie jedes Jahr zieht es tausende Läufer und Zuschauer aus aller Welt an die Strecke des beliebten Bostoner Marathons. Doch die Feierlichkeiten verstummen schlagartig, als zwei Sprengsätze an der Zielgeraden detonieren. Noch ist unklar, ob den Explosionen weitere folgen werden. Aber Police Sergeant Tommy Saunders versucht einen klaren Kopf zu bewahren und die ersten Rettungseinsätze zu koordinieren - obwohl seine Frau Carol beinahe selbst den Detonationen zum Opfer gefallen wäre. Für die Ermittler beginnt ein packender Wettlauf gegen die Zeit und eine der nervenaufreibendsten Großfahndungen in der Geschichte Amerikas nimmt seinen Lauf... </t>
+  </si>
+  <si>
+    <t>Bounty Killer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Im Jahr 2042 wurde die Welt durch die sogenannten Corporate Wars, welche von gierigen Geschäftsmännern eingefädelt wurden, zerstört. Doch der Profit für die Reichen hat die restliche Menschheit viel gekostet und die Überlebenden unter der verarmten Bevölkerung machen beinahe alles für Geld. Der Kopfgeldjäger Drifter reist mit seiner jungen Rivalin Mary Death durch die Wüste, gemeinsam sind sie auf der Suche nach jenen Männern, die die Apokalypse herbeigeführt haben, denn sie sinnen auf Rache. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Obwohl sie sich von Anfang an nicht besonders grün sind, kreuzen sich die Wege von Jennifer und Ryan in regelmäßigen Abständen, bis sie schließlich im selben College landen. Ryan ist noch immer ein schüchterner Brillentyp, Jennifer hingegen zur strahlenden Schönheit erblüht. Unterschiedlicher könnten die beiden wirklich nicht sein und dennoch plagt sie immer wieder das gleiche Problem: Liebeskummer. Also trösten sie einander, besprechen ihre Probleme und werden allmählich zu unzertrennlichen Freunden - bis ihre Hormone ins Spiel kommen... </t>
+  </si>
+  <si>
+    <t>Boys Girls &amp; A Kiss</t>
+  </si>
+  <si>
+    <t>Braveheart</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ende des 13. Jahrhunderts ermorden britische Besatzer die geliebte Frau des in Schottland lebenden William Wallace. Von dieser Tat aufgestachelt und blind vor Rache, mobilisiert er seine schottischen Landleute für einen Feldzug gegen die übermächtigen Engländer. Trotz ihrer nicht nur zahlenmäßigen Unterlegenheit schafft man das Unfassbare und besiegt die Armee des britischen Königs. Nach dem Sieg stehen jedoch nicht alle Schotten hinter Wallace und verraten ihren Freiheitskämpfer. </t>
+  </si>
+  <si>
+    <t>Bridget Jones 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Völlig verkatert und immer noch Single, beschließt Bridget Jones am Neujahrstag, ihr Leben endlich in den Griff zu kriegen - und Tagebuch zu führen: "Vorsatz Nummer eins: Muss unbedingt zwanzig Pfund abnehmen Netten, einfühlsamen Freund suchen und nie wieder eine Beziehung mit Spannern, Größenwahnsinnigen, emotionalen Flachwichsern oder Perversen eingehen" Leichter gesagt als getan - immerhin muss sich Bridget zwischen dem "amtlichen-Sex-Gott-mit-dickem-Auto" Daniel Cleaver und dem "unnahbar-wirkenden-aber-dennoch-nachdenklich-sensiblen" Mark Darcy entscheiden... </t>
+  </si>
+  <si>
+    <t>Bridget Jones 3</t>
+  </si>
+  <si>
+    <t>43 Jahre und noch - oder schon lange wieder - Single. Für Bridget Jones, erfolgreiche Produzentin des Nachrichtenmagazins „Hard News“, gibt es anscheinend wichtigere Dinge als die Gründung einer Familie oder Nachwuchs. Doch das soll sich bald ändern, denn um sie herum schwelgt so mancher im Babyglück und der bemüht verborgen gehaltene Geburtstag, der die biologische Uhr problemlos laut stellen kann, wird doch noch breit getreten. Doch dann kommt plötzlich alles zusammen: Bridget begegnet ihrem Ex-Lover Mark Darcy und dessen Frau Camilla</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> dann schleifen sie ihre Freundinnen Miranda und Cathy Bridget auf ein Mädelswochenende auf einem Musikfestival, wo diese mit Internet-Millionär Jack Qwant im Bett landet. Leider tut sie das auch kurz darauf noch mit dem guten Mark, was die Frage nach der Vaterschaft für die kurz darauf diagnostizierte Schwangerschaft verkompliziert... </t>
+  </si>
+  <si>
+    <t>Broken Flowers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Der Tag fängt gar nicht gut an für Don Johnston. Erst wird er von seiner sehr viel jüngeren Freundin Sherry verlassen, dann flattert auch noch ein rosafarbener Brief ins Haus. Keine Liebesbotschaft, sondern die späte Quittung für eine frühere Liaison des ergrauten Don Juan: Sein inzwischen 19jähriger Sohn werde ihn aufsuchen, droht die anonyme Schreiberin. Doch wer ist die Mutter? Ginge es allein nach Don - er würde gewiss weiter sein Sofa hüten und die Dinge auf sich zukommen lassen. Aber sein Nachbar Winston kann die lethargische Couchpotato zu detektivischen Nachforschungen überreden. Und so startet Don eher widerwillig und mit rosa Blumen bewaffnet eine aberwitzige Reise in seine Vergangenheit. Vier Frauen in vier verschiedenen Städten kommen als Mutter des unbekannten Sprosses in Betracht. </t>
+  </si>
+  <si>
+    <t>Brotherhood Of Blades</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1627, als die Ming-Dynastie ihrem Ende zugeht, dienen drei Brüder als Assassins in einer Elitetruppe der kaiserlichen Garde. Ihr erster Auftrag vom frisch eingesetzten jungen Kaiser: Findet alle Anhänger des Eunuchen Wei und tötet sie. Doch bald müssen die drei erkennen, dass sie das Bauernopfer in einer gewaltigen Verschwörung sein sollen. </t>
+  </si>
+  <si>
+    <t>Brothers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sam Cahill und sein jüngerer Bruder Tommy könnten unterschiedlicher kaum sein. Der Marine-Captain Sam genießt die ungeteilte Liebe seines Veteranen-Dads Hank und verlebt einen beschaulichen Provinz-Alltag mit Gattin Grace und seinen zwei Kindern. Bankräuber Tommy dagegen kommt frisch aus dem Gefängnis und hat nie einen sicheren Platz im Leben finden können. Dann wird Sam nach Afghanistan eingezogen, gerät in ein Gefecht und wird für tot erklärt. Nach einer symbolischen Beerdigung hat Grace alle Mühe, ihren Alltag zu bewältigen. Jetzt endlich wächst Tommy über sich hinaus und erweist sich als stabilisierendes Element der gelähmten Familie. Gerade, als er und die Witwe seines Bruders sich näherkommen, taucht Sam wieder auf - als tickende Zeitbombe... </t>
+  </si>
+  <si>
+    <t>Brügge Sehen Und Sterben</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Die beiden Profikiller Ray und Ken werden nach einem nicht ganz planmäßig ausgeführten Auftrag von ihrem jähzornigen Boss Harry von London nach Belgien geschickt, um in Brügge unterzutauchen und weitere Instruktionen abzuwarten. Während Ken vom kulturellen Angebot des mittelalterlichen Städtchens begeistert ist und alle Sehenswürdigkeiten besichtigen will, ist Ray nur angeödet und lässt seinen Unmut an amerikanischen Touristen aus. Am Set eines surrealistischen Filmes, in dem ein kleinwüchsiger Darsteller namens Jimmy mitwirkt, trifft er schließlich auf die hübsche Belgierin Chloë und gerät während ihrer ersten Verabredung körperlich mit ihrem eifersüchtigen Ex-Freund Eirik aneinander. Ken erhält inzwischen von Harry den überraschenden Auftrag, seinen Freund und Partner Ray zu töten und gerät in einen tiefen Gewissenskonflikt... </t>
+  </si>
+  <si>
+    <t>Buena Vista Social Club</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Der amerikanische Komponist Ry Cooder nahm 1996 in Havanna mit legendären kubanischen Musikern das Album Buena Vista Social Club auf. Auch Wim Wenders ließ sich von der weltweiten Euphorie um den Club anstecken und begleitete seinen Freund mit einem kleinen Filmteam nach Kuba. Entstanden ist ein einzigartiger Musikfilm, mit dem er den Soneros und ihrer Musik ein filmisches Denkmal gesetzt hat. </t>
+  </si>
+  <si>
+    <t>Bugs Bunny - Wilde Verwegene Jagd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Der Zuschauer begleitet Bugs Bunny durch sein üppiges Schloss, während Bugs nostalgisch in Erinnerungen schwelgt. All seine Erzählungen sind montiert aus einer Auswahl alter Cartoons, unter anderem aus „Hare-Way to The Stars“, „Robin Hood Duffy“, „What’s Opera Doc?“ und vielen anderen. </t>
+  </si>
+  <si>
+    <t>Burlesque</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sie ist jung und hat große Träume, wie so viele Frauen in ihrem Alter. Sängerin Ali ist in Iowa auf dem Land aufgewachsen. Eines Tages kauft sie sich ein Flugticket nach Los Angeles, um dort Karriere zu machen. Sie landet in der etwas heruntergekommenen Burlesque Lounge, einem Revuetheater, das seine besten Tage schon hinter sich hat. Geführt wird die Lounge von Tess, die gleichzeitig der Star der Show ist. Ali wird als Cocktail-Kellnerin eingestellt, doch sie sehnt sich danach, auf der Bühne zu stehen. Eines Tages erhält sie ihre Chance - und versetzt die Zuschauer durch ihre atemberaubende Stimmgewalt in Staunen und Begeisterung. </t>
+  </si>
+  <si>
+    <t>Burn After Reading</t>
+  </si>
+  <si>
+    <t xml:space="preserve">„Burn after reading - Nach dem Lesen vernichten“ So müsste eigentlich die Anweisung für die Lektüre der Memoiren des suspendierten CIA-Agenten Ozzie Cox lauten. Doch daran denken die Fitness-Trainerin Linda Litzke und ihr gutaussehender jedoch etwas dümmlicher Kollege Chad Feldheimer natürlich nicht im Traum, als sie zufällige eine CD mit dem offensichtlich brisanten Manuskript in einer der Umkleidekabine ihres Studios finden. Die beiden wittern das ganz große Geschäft mit den geheimen Staatsaffären. Ausgerechnet die Liebesaffären des Beamten Harry Pfarrer behindern ihren Erpressungsversuch. Schon bald ist den Amateur-Erpressern eine ganze Horde diverser Geheimdienste auf den Fersen. Zu allem Übel kommen dann auch noch die Russen ins Spiel... </t>
+  </si>
+  <si>
+    <t>Buster</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zusammen mit einer ganzen Reihe weiterer unbewaffneter Männer überfällt Buster Edwards am 8. August 1963 den Postzug der Royal Mail, erbeutet 2.631.684 Pfund und geht damit in die Geschichte ein: Es war der größte Raubüberfall Englands. Fortan stehen Buster und seine Freunde auf der Fahndungsliste Scotland Yards und müssen untertauchen. Als einer nach dem anderen verhaftet wird und auch Buster die Luft im heimischen England zu dünn wird, setzt er sich nach Acapulco in Mexiko ab. Seine Frau June und seine Kinder kommen kurze Zeit später nach, doch June bekommt Heimweh und wird nicht glücklich im Sonnenparadies </t>
+  </si>
+  <si>
+    <t>Cable Guy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Steven Kovacs wurde von seiner Freundin Robin Harris aus seinem Apartment geworfen. Für die Elektrik in seiner neuen Wohnung engagiert er den Kabeltechniker Chip Douglas. Steven gibt vor, sich für die Arbeit des einsamen Chip zu interessieren. Dieser deutet das Interesse als ein Freundschaftsgesuch. Und tatsächlich entwickelt sich zwischen den beiden Männern eine private Bande. Aber Chip leistet sich einen Fehler, als er glaubt die richtige Lösung für Stevens Liebeskummer parat zu haben, der immer noch über die Trennung von seiner Ex-Freundin Robin trauert. Chips eigenmächtiger Plan führt schließlich dazu, dass sich Steven hintergangen fühlt und sich von Chip distanziert. Damit kann Chip aber überhaupt nicht gut umgehen und dreht völlig durch. </t>
   </si>
 </sst>
 </file>
@@ -3277,10 +3913,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D51DD517-BD67-9F45-A4CA-2F65B8CF2913}">
-  <dimension ref="A1:G312"/>
+  <dimension ref="A1:G382"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B291" sqref="B291"/>
+    <sheetView tabSelected="1" topLeftCell="A341" workbookViewId="0">
+      <selection activeCell="A383" sqref="A383"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3756,7 +4392,7 @@
         <v>72</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>361</v>
+        <v>431</v>
       </c>
       <c r="C24" s="9">
         <v>2002</v>
@@ -3768,7 +4404,7 @@
         <v>16</v>
       </c>
       <c r="F24" s="6" t="s">
-        <v>362</v>
+        <v>432</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
@@ -3776,7 +4412,7 @@
         <v>73</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>363</v>
+        <v>433</v>
       </c>
       <c r="C25" s="9">
         <v>2004</v>
@@ -3788,7 +4424,7 @@
         <v>12</v>
       </c>
       <c r="F25" s="6" t="s">
-        <v>364</v>
+        <v>434</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
@@ -3796,7 +4432,7 @@
         <v>74</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>365</v>
+        <v>435</v>
       </c>
       <c r="C26" s="9">
         <v>2006</v>
@@ -3808,7 +4444,7 @@
         <v>12</v>
       </c>
       <c r="F26" s="6" t="s">
-        <v>366</v>
+        <v>436</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
@@ -3816,7 +4452,7 @@
         <v>75</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>367</v>
+        <v>437</v>
       </c>
       <c r="C27" s="9">
         <v>1993</v>
@@ -3828,7 +4464,7 @@
         <v>6</v>
       </c>
       <c r="F27" s="6" t="s">
-        <v>368</v>
+        <v>438</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
@@ -3836,7 +4472,7 @@
         <v>76</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>369</v>
+        <v>439</v>
       </c>
       <c r="C28" s="9">
         <v>1990</v>
@@ -3848,7 +4484,7 @@
         <v>16</v>
       </c>
       <c r="F28" s="6" t="s">
-        <v>370</v>
+        <v>440</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
@@ -3856,7 +4492,7 @@
         <v>77</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>371</v>
+        <v>441</v>
       </c>
       <c r="C29" s="9">
         <v>1999</v>
@@ -3868,7 +4504,7 @@
         <v>16</v>
       </c>
       <c r="F29" s="6" t="s">
-        <v>372</v>
+        <v>442</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
@@ -3876,7 +4512,7 @@
         <v>78</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>373</v>
+        <v>443</v>
       </c>
       <c r="C30" s="9">
         <v>1994</v>
@@ -3888,7 +4524,7 @@
         <v>12</v>
       </c>
       <c r="F30" s="6" t="s">
-        <v>374</v>
+        <v>444</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
@@ -3896,7 +4532,7 @@
         <v>79</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>375</v>
+        <v>445</v>
       </c>
       <c r="C31" s="9">
         <v>2003</v>
@@ -3908,7 +4544,7 @@
         <v>16</v>
       </c>
       <c r="F31" s="5" t="s">
-        <v>376</v>
+        <v>446</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
@@ -3916,7 +4552,7 @@
         <v>80</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>377</v>
+        <v>447</v>
       </c>
       <c r="C32" s="9">
         <v>1971</v>
@@ -3928,7 +4564,7 @@
         <v>18</v>
       </c>
       <c r="F32" s="5" t="s">
-        <v>378</v>
+        <v>448</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
@@ -3936,7 +4572,7 @@
         <v>81</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>379</v>
+        <v>449</v>
       </c>
       <c r="C33" s="9">
         <v>2003</v>
@@ -3948,7 +4584,7 @@
         <v>6</v>
       </c>
       <c r="F33" s="5" t="s">
-        <v>380</v>
+        <v>450</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.2">
@@ -3956,7 +4592,7 @@
         <v>82</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>381</v>
+        <v>451</v>
       </c>
       <c r="C34" s="9">
         <v>2001</v>
@@ -3968,10 +4604,10 @@
         <v>12</v>
       </c>
       <c r="F34" s="5" t="s">
-        <v>382</v>
+        <v>452</v>
       </c>
       <c r="G34" t="s">
-        <v>383</v>
+        <v>453</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.2">
@@ -3979,7 +4615,7 @@
         <v>83</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>384</v>
+        <v>454</v>
       </c>
       <c r="C35" s="9">
         <v>2003</v>
@@ -3991,7 +4627,7 @@
         <v>0</v>
       </c>
       <c r="F35" s="5" t="s">
-        <v>385</v>
+        <v>455</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
@@ -3999,7 +4635,7 @@
         <v>84</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>386</v>
+        <v>456</v>
       </c>
       <c r="C36" s="9">
         <v>2003</v>
@@ -4011,7 +4647,7 @@
         <v>12</v>
       </c>
       <c r="F36" s="5" t="s">
-        <v>387</v>
+        <v>457</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.2">
@@ -4019,7 +4655,7 @@
         <v>85</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>388</v>
+        <v>458</v>
       </c>
       <c r="C37" s="9">
         <v>2005</v>
@@ -4031,7 +4667,7 @@
         <v>12</v>
       </c>
       <c r="F37" s="5" t="s">
-        <v>389</v>
+        <v>459</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.2">
@@ -4039,7 +4675,7 @@
         <v>86</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>390</v>
+        <v>460</v>
       </c>
       <c r="C38" s="9">
         <v>2001</v>
@@ -4051,7 +4687,7 @@
         <v>0</v>
       </c>
       <c r="F38" s="5" t="s">
-        <v>391</v>
+        <v>461</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.2">
@@ -4059,7 +4695,7 @@
         <v>87</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>392</v>
+        <v>462</v>
       </c>
       <c r="C39" s="9">
         <v>2005</v>
@@ -4071,7 +4707,7 @@
         <v>12</v>
       </c>
       <c r="F39" s="5" t="s">
-        <v>393</v>
+        <v>463</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.2">
@@ -4079,7 +4715,7 @@
         <v>88</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>394</v>
+        <v>464</v>
       </c>
       <c r="C40" s="9">
         <v>2006</v>
@@ -4091,7 +4727,7 @@
         <v>6</v>
       </c>
       <c r="F40" s="5" t="s">
-        <v>395</v>
+        <v>465</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.2">
@@ -4099,7 +4735,7 @@
         <v>89</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>396</v>
+        <v>466</v>
       </c>
       <c r="C41" s="9">
         <v>2004</v>
@@ -4111,7 +4747,7 @@
         <v>6</v>
       </c>
       <c r="F41" s="5" t="s">
-        <v>397</v>
+        <v>467</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.2">
@@ -4119,7 +4755,7 @@
         <v>90</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>398</v>
+        <v>468</v>
       </c>
       <c r="C42" s="9">
         <v>1996</v>
@@ -4131,7 +4767,7 @@
         <v>16</v>
       </c>
       <c r="F42" s="5" t="s">
-        <v>399</v>
+        <v>469</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.2">
@@ -4139,7 +4775,7 @@
         <v>91</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>400</v>
+        <v>470</v>
       </c>
       <c r="C43" s="9">
         <v>1992</v>
@@ -4151,7 +4787,7 @@
         <v>18</v>
       </c>
       <c r="F43" s="5" t="s">
-        <v>401</v>
+        <v>471</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.2">
@@ -4159,7 +4795,7 @@
         <v>92</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>402</v>
+        <v>472</v>
       </c>
       <c r="C44" s="9">
         <v>2005</v>
@@ -4171,7 +4807,7 @@
         <v>0</v>
       </c>
       <c r="F44" s="5" t="s">
-        <v>403</v>
+        <v>473</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.2">
@@ -4179,7 +4815,7 @@
         <v>93</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>404</v>
+        <v>474</v>
       </c>
       <c r="C45" s="9">
         <v>2004</v>
@@ -4191,7 +4827,7 @@
         <v>16</v>
       </c>
       <c r="F45" s="5" t="s">
-        <v>405</v>
+        <v>475</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.2">
@@ -4199,7 +4835,7 @@
         <v>94</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>406</v>
+        <v>476</v>
       </c>
       <c r="C46" s="9">
         <v>2003</v>
@@ -4211,7 +4847,7 @@
         <v>16</v>
       </c>
       <c r="F46" s="5" t="s">
-        <v>407</v>
+        <v>477</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.2">
@@ -4219,7 +4855,7 @@
         <v>95</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>408</v>
+        <v>478</v>
       </c>
       <c r="C47" s="9">
         <v>2003</v>
@@ -4231,7 +4867,7 @@
         <v>6</v>
       </c>
       <c r="F47" s="5" t="s">
-        <v>409</v>
+        <v>479</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.2">
@@ -4239,7 +4875,7 @@
         <v>96</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>410</v>
+        <v>480</v>
       </c>
       <c r="C48" s="9">
         <v>1993</v>
@@ -4251,7 +4887,7 @@
         <v>12</v>
       </c>
       <c r="F48" s="5" t="s">
-        <v>411</v>
+        <v>481</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.2">
@@ -4259,7 +4895,7 @@
         <v>97</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>412</v>
+        <v>482</v>
       </c>
       <c r="C49" s="9">
         <v>2002</v>
@@ -4271,7 +4907,7 @@
         <v>0</v>
       </c>
       <c r="F49" s="5" t="s">
-        <v>413</v>
+        <v>483</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.2">
@@ -4279,7 +4915,7 @@
         <v>98</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>414</v>
+        <v>484</v>
       </c>
       <c r="C50" s="9">
         <v>1998</v>
@@ -4291,7 +4927,7 @@
         <v>16</v>
       </c>
       <c r="F50" s="5" t="s">
-        <v>415</v>
+        <v>485</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.2">
@@ -4299,7 +4935,7 @@
         <v>99</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>416</v>
+        <v>486</v>
       </c>
       <c r="C51" s="9">
         <v>1999</v>
@@ -4311,7 +4947,7 @@
         <v>12</v>
       </c>
       <c r="F51" s="5" t="s">
-        <v>417</v>
+        <v>487</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.2">
@@ -4319,7 +4955,7 @@
         <v>100</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>418</v>
+        <v>488</v>
       </c>
       <c r="C52" s="9">
         <v>2002</v>
@@ -4331,7 +4967,7 @@
         <v>12</v>
       </c>
       <c r="F52" s="5" t="s">
-        <v>419</v>
+        <v>489</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.2">
@@ -4339,7 +4975,7 @@
         <v>101</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>420</v>
+        <v>490</v>
       </c>
       <c r="C53" s="9">
         <v>1994</v>
@@ -4351,7 +4987,7 @@
         <v>12</v>
       </c>
       <c r="F53" s="5" t="s">
-        <v>421</v>
+        <v>491</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.2">
@@ -4359,7 +4995,7 @@
         <v>102</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>422</v>
+        <v>492</v>
       </c>
       <c r="C54" s="9">
         <v>2004</v>
@@ -4371,7 +5007,7 @@
         <v>0</v>
       </c>
       <c r="F54" s="5" t="s">
-        <v>423</v>
+        <v>493</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.2">
@@ -4379,7 +5015,7 @@
         <v>103</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>424</v>
+        <v>494</v>
       </c>
       <c r="C55" s="9">
         <v>2002</v>
@@ -4391,7 +5027,7 @@
         <v>18</v>
       </c>
       <c r="F55" s="5" t="s">
-        <v>425</v>
+        <v>495</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.2">
@@ -4399,7 +5035,7 @@
         <v>104</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>426</v>
+        <v>496</v>
       </c>
       <c r="C56" s="9">
         <v>2004</v>
@@ -4411,7 +5047,7 @@
         <v>12</v>
       </c>
       <c r="F56" s="5" t="s">
-        <v>427</v>
+        <v>497</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.2">
@@ -4419,7 +5055,7 @@
         <v>105</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>428</v>
+        <v>498</v>
       </c>
       <c r="C57" s="9">
         <v>1996</v>
@@ -4431,7 +5067,7 @@
         <v>12</v>
       </c>
       <c r="F57" s="5" t="s">
-        <v>429</v>
+        <v>499</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.2">
@@ -4439,7 +5075,7 @@
         <v>106</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>430</v>
+        <v>500</v>
       </c>
       <c r="C58" s="9">
         <v>2006</v>
@@ -4451,7 +5087,7 @@
         <v>12</v>
       </c>
       <c r="F58" s="5" t="s">
-        <v>431</v>
+        <v>501</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.2">
@@ -4459,7 +5095,7 @@
         <v>107</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>432</v>
+        <v>502</v>
       </c>
       <c r="C59" s="9">
         <v>1997</v>
@@ -4471,7 +5107,7 @@
         <v>16</v>
       </c>
       <c r="F59" s="5" t="s">
-        <v>433</v>
+        <v>503</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.2">
@@ -4479,7 +5115,7 @@
         <v>108</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>434</v>
+        <v>504</v>
       </c>
       <c r="C60" s="9">
         <v>2009</v>
@@ -4491,7 +5127,7 @@
         <v>16</v>
       </c>
       <c r="F60" s="5" t="s">
-        <v>435</v>
+        <v>505</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.2">
@@ -4499,7 +5135,7 @@
         <v>109</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>436</v>
+        <v>506</v>
       </c>
       <c r="C61" s="9">
         <v>2001</v>
@@ -4511,7 +5147,7 @@
         <v>16</v>
       </c>
       <c r="F61" s="5" t="s">
-        <v>437</v>
+        <v>507</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.2">
@@ -4519,7 +5155,7 @@
         <v>110</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>438</v>
+        <v>508</v>
       </c>
       <c r="C62" s="9">
         <v>2002</v>
@@ -4531,7 +5167,7 @@
         <v>12</v>
       </c>
       <c r="F62" s="5" t="s">
-        <v>439</v>
+        <v>509</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.2">
@@ -4539,7 +5175,7 @@
         <v>111</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>440</v>
+        <v>510</v>
       </c>
       <c r="C63" s="9">
         <v>2003</v>
@@ -4551,7 +5187,7 @@
         <v>12</v>
       </c>
       <c r="F63" s="5" t="s">
-        <v>441</v>
+        <v>511</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.2">
@@ -4559,7 +5195,7 @@
         <v>112</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>442</v>
+        <v>512</v>
       </c>
       <c r="C64" s="9">
         <v>2005</v>
@@ -4571,7 +5207,7 @@
         <v>12</v>
       </c>
       <c r="F64" s="5" t="s">
-        <v>443</v>
+        <v>513</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.2">
@@ -4579,7 +5215,7 @@
         <v>113</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>444</v>
+        <v>514</v>
       </c>
       <c r="C65" s="9">
         <v>2006</v>
@@ -4591,7 +5227,7 @@
         <v>16</v>
       </c>
       <c r="F65" s="5" t="s">
-        <v>445</v>
+        <v>515</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.2">
@@ -4599,7 +5235,7 @@
         <v>114</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>446</v>
+        <v>516</v>
       </c>
       <c r="C66" s="9">
         <v>1979</v>
@@ -4611,7 +5247,7 @@
         <v>12</v>
       </c>
       <c r="F66" s="5" t="s">
-        <v>447</v>
+        <v>517</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.2">
@@ -4619,7 +5255,7 @@
         <v>115</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>448</v>
+        <v>518</v>
       </c>
       <c r="C67" s="9">
         <v>2002</v>
@@ -4631,7 +5267,7 @@
         <v>16</v>
       </c>
       <c r="F67" s="5" t="s">
-        <v>449</v>
+        <v>519</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.2">
@@ -4639,7 +5275,7 @@
         <v>116</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>450</v>
+        <v>520</v>
       </c>
       <c r="C68" s="9">
         <v>1996</v>
@@ -4651,7 +5287,7 @@
         <v>16</v>
       </c>
       <c r="F68" s="5" t="s">
-        <v>451</v>
+        <v>521</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.2">
@@ -4659,7 +5295,7 @@
         <v>117</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>452</v>
+        <v>522</v>
       </c>
       <c r="C69" s="9">
         <v>2005</v>
@@ -4671,7 +5307,7 @@
         <v>18</v>
       </c>
       <c r="F69" s="5" t="s">
-        <v>453</v>
+        <v>523</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.2">
@@ -4679,7 +5315,7 @@
         <v>118</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>454</v>
+        <v>524</v>
       </c>
       <c r="C70" s="9">
         <v>2005</v>
@@ -4691,7 +5327,7 @@
         <v>6</v>
       </c>
       <c r="F70" s="5" t="s">
-        <v>455</v>
+        <v>525</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.2">
@@ -4699,7 +5335,7 @@
         <v>119</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>457</v>
+        <v>527</v>
       </c>
       <c r="C71" s="9">
         <v>1996</v>
@@ -4711,7 +5347,7 @@
         <v>6</v>
       </c>
       <c r="F71" s="5" t="s">
-        <v>456</v>
+        <v>526</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.2">
@@ -4719,7 +5355,7 @@
         <v>120</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>458</v>
+        <v>528</v>
       </c>
       <c r="C72" s="9">
         <v>2000</v>
@@ -4731,7 +5367,7 @@
         <v>16</v>
       </c>
       <c r="F72" s="5" t="s">
-        <v>459</v>
+        <v>529</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.2">
@@ -4739,7 +5375,7 @@
         <v>121</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>460</v>
+        <v>530</v>
       </c>
       <c r="C73" s="9">
         <v>2000</v>
@@ -4751,7 +5387,7 @@
         <v>12</v>
       </c>
       <c r="F73" s="5" t="s">
-        <v>461</v>
+        <v>531</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.2">
@@ -4759,7 +5395,7 @@
         <v>122</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>462</v>
+        <v>532</v>
       </c>
       <c r="C74" s="9">
         <v>2004</v>
@@ -4771,7 +5407,7 @@
         <v>18</v>
       </c>
       <c r="F74" s="5" t="s">
-        <v>463</v>
+        <v>533</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.2">
@@ -4779,7 +5415,7 @@
         <v>123</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>464</v>
+        <v>534</v>
       </c>
       <c r="C75" s="9">
         <v>2004</v>
@@ -4791,7 +5427,7 @@
         <v>6</v>
       </c>
       <c r="F75" s="5" t="s">
-        <v>465</v>
+        <v>535</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.2">
@@ -4799,7 +5435,7 @@
         <v>124</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>466</v>
+        <v>536</v>
       </c>
       <c r="C76" s="9">
         <v>1979</v>
@@ -4811,7 +5447,7 @@
         <v>16</v>
       </c>
       <c r="F76" s="5" t="s">
-        <v>467</v>
+        <v>537</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.2">
@@ -4819,7 +5455,7 @@
         <v>125</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>468</v>
+        <v>538</v>
       </c>
       <c r="C77" s="9">
         <v>2003</v>
@@ -4831,7 +5467,7 @@
         <v>16</v>
       </c>
       <c r="F77" s="5" t="s">
-        <v>469</v>
+        <v>539</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.2">
@@ -4839,7 +5475,7 @@
         <v>126</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>470</v>
+        <v>540</v>
       </c>
       <c r="C78" s="9">
         <v>1997</v>
@@ -4851,7 +5487,7 @@
         <v>16</v>
       </c>
       <c r="F78" s="5" t="s">
-        <v>471</v>
+        <v>541</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.2">
@@ -4859,7 +5495,7 @@
         <v>127</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>472</v>
+        <v>542</v>
       </c>
       <c r="C79" s="9">
         <v>2005</v>
@@ -4871,7 +5507,7 @@
         <v>12</v>
       </c>
       <c r="F79" s="5" t="s">
-        <v>473</v>
+        <v>543</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.2">
@@ -4879,7 +5515,7 @@
         <v>128</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>474</v>
+        <v>544</v>
       </c>
       <c r="C80" s="9">
         <v>2003</v>
@@ -4891,7 +5527,7 @@
         <v>18</v>
       </c>
       <c r="F80" s="5" t="s">
-        <v>475</v>
+        <v>545</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.2">
@@ -4899,7 +5535,7 @@
         <v>129</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>476</v>
+        <v>546</v>
       </c>
       <c r="C81" s="9">
         <v>2007</v>
@@ -4911,7 +5547,7 @@
         <v>16</v>
       </c>
       <c r="F81" s="5" t="s">
-        <v>477</v>
+        <v>547</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.2">
@@ -4919,7 +5555,7 @@
         <v>130</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>478</v>
+        <v>548</v>
       </c>
       <c r="C82" s="9">
         <v>2002</v>
@@ -4931,7 +5567,7 @@
         <v>18</v>
       </c>
       <c r="F82" s="5" t="s">
-        <v>479</v>
+        <v>549</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.2">
@@ -4939,7 +5575,7 @@
         <v>131</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>480</v>
+        <v>550</v>
       </c>
       <c r="C83" s="9">
         <v>2004</v>
@@ -4951,7 +5587,7 @@
         <v>16</v>
       </c>
       <c r="F83" s="5" t="s">
-        <v>481</v>
+        <v>551</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.2">
@@ -4959,7 +5595,7 @@
         <v>132</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>482</v>
+        <v>552</v>
       </c>
       <c r="C84" s="9">
         <v>2004</v>
@@ -4971,7 +5607,7 @@
         <v>12</v>
       </c>
       <c r="F84" s="5" t="s">
-        <v>483</v>
+        <v>553</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.2">
@@ -4979,7 +5615,7 @@
         <v>133</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>484</v>
+        <v>554</v>
       </c>
       <c r="C85" s="9">
         <v>2002</v>
@@ -4991,7 +5627,7 @@
         <v>12</v>
       </c>
       <c r="F85" s="5" t="s">
-        <v>485</v>
+        <v>555</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.2">
@@ -4999,7 +5635,7 @@
         <v>134</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>486</v>
+        <v>556</v>
       </c>
       <c r="C86" s="9">
         <v>2004</v>
@@ -5011,7 +5647,7 @@
         <v>16</v>
       </c>
       <c r="F86" s="5" t="s">
-        <v>487</v>
+        <v>557</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.2">
@@ -5019,7 +5655,7 @@
         <v>135</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>488</v>
+        <v>558</v>
       </c>
       <c r="C87" s="9">
         <v>2009</v>
@@ -5031,7 +5667,7 @@
         <v>16</v>
       </c>
       <c r="F87" s="5" t="s">
-        <v>489</v>
+        <v>559</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.2">
@@ -5039,7 +5675,7 @@
         <v>136</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>490</v>
+        <v>560</v>
       </c>
       <c r="C88" s="9">
         <v>2001</v>
@@ -5051,7 +5687,7 @@
         <v>12</v>
       </c>
       <c r="F88" s="5" t="s">
-        <v>491</v>
+        <v>561</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.2">
@@ -5059,7 +5695,7 @@
         <v>137</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>492</v>
+        <v>562</v>
       </c>
       <c r="C89" s="9">
         <v>2023</v>
@@ -5071,7 +5707,7 @@
         <v>16</v>
       </c>
       <c r="F89" s="5" t="s">
-        <v>493</v>
+        <v>563</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.2">
@@ -5079,7 +5715,7 @@
         <v>138</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>494</v>
+        <v>564</v>
       </c>
       <c r="C90" s="9">
         <v>1994</v>
@@ -5091,7 +5727,7 @@
         <v>16</v>
       </c>
       <c r="F90" s="5" t="s">
-        <v>495</v>
+        <v>565</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.2">
@@ -5099,7 +5735,7 @@
         <v>139</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>496</v>
+        <v>566</v>
       </c>
       <c r="C91" s="9">
         <v>2022</v>
@@ -5111,7 +5747,7 @@
         <v>12</v>
       </c>
       <c r="F91" s="5" t="s">
-        <v>497</v>
+        <v>567</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.2">
@@ -5119,7 +5755,7 @@
         <v>140</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>498</v>
+        <v>568</v>
       </c>
       <c r="C92" s="9">
         <v>1984</v>
@@ -5131,7 +5767,7 @@
         <v>16</v>
       </c>
       <c r="F92" s="5" t="s">
-        <v>499</v>
+        <v>569</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.2">
@@ -5139,7 +5775,7 @@
         <v>141</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>500</v>
+        <v>570</v>
       </c>
       <c r="C93" s="9">
         <v>1989</v>
@@ -5151,7 +5787,7 @@
         <v>12</v>
       </c>
       <c r="F93" s="5" t="s">
-        <v>501</v>
+        <v>571</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.2">
@@ -5159,7 +5795,7 @@
         <v>142</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>502</v>
+        <v>572</v>
       </c>
       <c r="C94" s="9">
         <v>2023</v>
@@ -5171,7 +5807,7 @@
         <v>6</v>
       </c>
       <c r="F94" s="5" t="s">
-        <v>503</v>
+        <v>573</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.2">
@@ -5179,7 +5815,7 @@
         <v>143</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>504</v>
+        <v>574</v>
       </c>
       <c r="C95" s="9">
         <v>1994</v>
@@ -5191,7 +5827,7 @@
         <v>16</v>
       </c>
       <c r="F95" s="5" t="s">
-        <v>505</v>
+        <v>575</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.2">
@@ -5199,7 +5835,7 @@
         <v>144</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>506</v>
+        <v>576</v>
       </c>
       <c r="C96" s="9">
         <v>2004</v>
@@ -5211,7 +5847,7 @@
         <v>12</v>
       </c>
       <c r="F96" s="5" t="s">
-        <v>507</v>
+        <v>577</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.2">
@@ -5219,7 +5855,7 @@
         <v>145</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>508</v>
+        <v>578</v>
       </c>
       <c r="C97" s="9">
         <v>2003</v>
@@ -5231,7 +5867,7 @@
         <v>6</v>
       </c>
       <c r="F97" s="5" t="s">
-        <v>509</v>
+        <v>579</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.2">
@@ -5239,7 +5875,7 @@
         <v>146</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>510</v>
+        <v>580</v>
       </c>
       <c r="C98" s="9">
         <v>2003</v>
@@ -5251,7 +5887,7 @@
         <v>12</v>
       </c>
       <c r="F98" s="5" t="s">
-        <v>511</v>
+        <v>581</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.2">
@@ -5259,7 +5895,7 @@
         <v>147</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>512</v>
+        <v>582</v>
       </c>
       <c r="C99" s="9">
         <v>1996</v>
@@ -5271,7 +5907,7 @@
         <v>18</v>
       </c>
       <c r="F99" s="5" t="s">
-        <v>513</v>
+        <v>583</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.2">
@@ -5279,7 +5915,7 @@
         <v>148</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>514</v>
+        <v>584</v>
       </c>
       <c r="C100" s="9">
         <v>1987</v>
@@ -5291,7 +5927,7 @@
         <v>6</v>
       </c>
       <c r="F100" s="5" t="s">
-        <v>515</v>
+        <v>585</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.2">
@@ -5299,7 +5935,7 @@
         <v>149</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>516</v>
+        <v>586</v>
       </c>
       <c r="C101" s="9">
         <v>2002</v>
@@ -5311,7 +5947,7 @@
         <v>16</v>
       </c>
       <c r="F101" s="5" t="s">
-        <v>517</v>
+        <v>587</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.2">
@@ -5319,7 +5955,7 @@
         <v>150</v>
       </c>
       <c r="B102" s="4" t="s">
-        <v>518</v>
+        <v>588</v>
       </c>
       <c r="C102" s="9">
         <v>2005</v>
@@ -5331,7 +5967,7 @@
         <v>6</v>
       </c>
       <c r="F102" s="5" t="s">
-        <v>519</v>
+        <v>589</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.2">
@@ -5339,7 +5975,7 @@
         <v>151</v>
       </c>
       <c r="B103" s="4" t="s">
-        <v>520</v>
+        <v>590</v>
       </c>
       <c r="C103" s="9">
         <v>2003</v>
@@ -5351,7 +5987,7 @@
         <v>12</v>
       </c>
       <c r="F103" s="5" t="s">
-        <v>521</v>
+        <v>591</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.2">
@@ -5359,7 +5995,7 @@
         <v>152</v>
       </c>
       <c r="B104" s="4" t="s">
-        <v>522</v>
+        <v>592</v>
       </c>
       <c r="C104" s="9">
         <v>2014</v>
@@ -5371,7 +6007,7 @@
         <v>16</v>
       </c>
       <c r="F104" s="5" t="s">
-        <v>523</v>
+        <v>593</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.2">
@@ -5379,7 +6015,7 @@
         <v>153</v>
       </c>
       <c r="B105" s="4" t="s">
-        <v>524</v>
+        <v>594</v>
       </c>
       <c r="C105" s="9">
         <v>2004</v>
@@ -5391,7 +6027,7 @@
         <v>16</v>
       </c>
       <c r="F105" s="5" t="s">
-        <v>525</v>
+        <v>595</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.2">
@@ -5399,7 +6035,7 @@
         <v>154</v>
       </c>
       <c r="B106" s="4" t="s">
-        <v>526</v>
+        <v>596</v>
       </c>
       <c r="C106" s="9">
         <v>2005</v>
@@ -5411,7 +6047,7 @@
         <v>0</v>
       </c>
       <c r="F106" s="5" t="s">
-        <v>527</v>
+        <v>597</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.2">
@@ -5419,7 +6055,7 @@
         <v>155</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>528</v>
+        <v>598</v>
       </c>
       <c r="C107" s="9">
         <v>2005</v>
@@ -5431,7 +6067,7 @@
         <v>16</v>
       </c>
       <c r="F107" s="5" t="s">
-        <v>529</v>
+        <v>599</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.2">
@@ -5439,7 +6075,7 @@
         <v>156</v>
       </c>
       <c r="B108" s="4" t="s">
-        <v>530</v>
+        <v>600</v>
       </c>
       <c r="C108" s="9">
         <v>2004</v>
@@ -5451,7 +6087,7 @@
         <v>0</v>
       </c>
       <c r="F108" s="5" t="s">
-        <v>531</v>
+        <v>601</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.2">
@@ -5459,7 +6095,7 @@
         <v>157</v>
       </c>
       <c r="B109" s="4" t="s">
-        <v>532</v>
+        <v>602</v>
       </c>
       <c r="C109" s="9">
         <v>2002</v>
@@ -5471,7 +6107,7 @@
         <v>12</v>
       </c>
       <c r="F109" s="5" t="s">
-        <v>533</v>
+        <v>603</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.2">
@@ -5479,7 +6115,7 @@
         <v>158</v>
       </c>
       <c r="B110" s="4" t="s">
-        <v>534</v>
+        <v>604</v>
       </c>
       <c r="C110" s="9">
         <v>2004</v>
@@ -5491,7 +6127,7 @@
         <v>12</v>
       </c>
       <c r="F110" s="5" t="s">
-        <v>535</v>
+        <v>605</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.2">
@@ -5499,7 +6135,7 @@
         <v>159</v>
       </c>
       <c r="B111" s="4" t="s">
-        <v>536</v>
+        <v>606</v>
       </c>
       <c r="C111" s="9">
         <v>2002</v>
@@ -5511,7 +6147,7 @@
         <v>16</v>
       </c>
       <c r="F111" s="5" t="s">
-        <v>537</v>
+        <v>607</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.2">
@@ -5519,7 +6155,7 @@
         <v>160</v>
       </c>
       <c r="B112" s="4" t="s">
-        <v>538</v>
+        <v>608</v>
       </c>
       <c r="C112" s="9">
         <v>2002</v>
@@ -5531,7 +6167,7 @@
         <v>12</v>
       </c>
       <c r="F112" s="5" t="s">
-        <v>539</v>
+        <v>609</v>
       </c>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.2">
@@ -5539,7 +6175,7 @@
         <v>161</v>
       </c>
       <c r="B113" s="4" t="s">
-        <v>540</v>
+        <v>610</v>
       </c>
       <c r="C113" s="9">
         <v>2003</v>
@@ -5551,7 +6187,7 @@
         <v>12</v>
       </c>
       <c r="F113" s="5" t="s">
-        <v>541</v>
+        <v>611</v>
       </c>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.2">
@@ -5559,7 +6195,7 @@
         <v>162</v>
       </c>
       <c r="B114" s="4" t="s">
-        <v>542</v>
+        <v>612</v>
       </c>
       <c r="C114" s="9">
         <v>2006</v>
@@ -5571,7 +6207,7 @@
         <v>12</v>
       </c>
       <c r="F114" s="5" t="s">
-        <v>543</v>
+        <v>613</v>
       </c>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.2">
@@ -5579,7 +6215,7 @@
         <v>163</v>
       </c>
       <c r="B115" s="4" t="s">
-        <v>544</v>
+        <v>614</v>
       </c>
       <c r="C115" s="9">
         <v>2001</v>
@@ -5591,7 +6227,7 @@
         <v>18</v>
       </c>
       <c r="F115" s="5" t="s">
-        <v>545</v>
+        <v>615</v>
       </c>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.2">
@@ -5599,7 +6235,7 @@
         <v>164</v>
       </c>
       <c r="B116" s="4" t="s">
-        <v>546</v>
+        <v>616</v>
       </c>
       <c r="C116" s="9">
         <v>2004</v>
@@ -5611,7 +6247,7 @@
         <v>12</v>
       </c>
       <c r="F116" s="5" t="s">
-        <v>547</v>
+        <v>617</v>
       </c>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.2">
@@ -5619,7 +6255,7 @@
         <v>165</v>
       </c>
       <c r="B117" s="4" t="s">
-        <v>548</v>
+        <v>618</v>
       </c>
       <c r="C117" s="9">
         <v>2004</v>
@@ -5631,7 +6267,7 @@
         <v>12</v>
       </c>
       <c r="F117" s="5" t="s">
-        <v>549</v>
+        <v>619</v>
       </c>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.2">
@@ -5639,7 +6275,7 @@
         <v>166</v>
       </c>
       <c r="B118" s="4" t="s">
-        <v>550</v>
+        <v>620</v>
       </c>
       <c r="C118" s="9">
         <v>1987</v>
@@ -5651,7 +6287,7 @@
         <v>12</v>
       </c>
       <c r="F118" s="5" t="s">
-        <v>551</v>
+        <v>621</v>
       </c>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.2">
@@ -5659,7 +6295,7 @@
         <v>167</v>
       </c>
       <c r="B119" s="4" t="s">
-        <v>552</v>
+        <v>622</v>
       </c>
       <c r="C119" s="9">
         <v>2004</v>
@@ -5671,7 +6307,7 @@
         <v>6</v>
       </c>
       <c r="F119" s="5" t="s">
-        <v>553</v>
+        <v>623</v>
       </c>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.2">
@@ -5679,7 +6315,7 @@
         <v>168</v>
       </c>
       <c r="B120" s="4" t="s">
-        <v>554</v>
+        <v>624</v>
       </c>
       <c r="C120" s="9">
         <v>2001</v>
@@ -5691,7 +6327,7 @@
         <v>12</v>
       </c>
       <c r="F120" s="5" t="s">
-        <v>555</v>
+        <v>625</v>
       </c>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.2">
@@ -5699,7 +6335,7 @@
         <v>169</v>
       </c>
       <c r="B121" s="4" t="s">
-        <v>556</v>
+        <v>626</v>
       </c>
       <c r="C121" s="9">
         <v>2004</v>
@@ -5711,7 +6347,7 @@
         <v>18</v>
       </c>
       <c r="F121" s="5" t="s">
-        <v>557</v>
+        <v>627</v>
       </c>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.2">
@@ -5719,7 +6355,7 @@
         <v>170</v>
       </c>
       <c r="B122" s="4" t="s">
-        <v>558</v>
+        <v>628</v>
       </c>
       <c r="C122" s="9">
         <v>2000</v>
@@ -5731,10 +6367,10 @@
         <v>12</v>
       </c>
       <c r="F122" s="5" t="s">
-        <v>559</v>
+        <v>629</v>
       </c>
       <c r="G122" t="s">
-        <v>560</v>
+        <v>630</v>
       </c>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.2">
@@ -5742,7 +6378,7 @@
         <v>171</v>
       </c>
       <c r="B123" s="4" t="s">
-        <v>561</v>
+        <v>631</v>
       </c>
       <c r="C123" s="9">
         <v>2003</v>
@@ -5754,7 +6390,7 @@
         <v>12</v>
       </c>
       <c r="F123" s="5" t="s">
-        <v>562</v>
+        <v>632</v>
       </c>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.2">
@@ -5762,7 +6398,7 @@
         <v>172</v>
       </c>
       <c r="B124" s="4" t="s">
-        <v>563</v>
+        <v>633</v>
       </c>
       <c r="C124" s="9">
         <v>1987</v>
@@ -5774,7 +6410,7 @@
         <v>16</v>
       </c>
       <c r="F124" s="5" t="s">
-        <v>564</v>
+        <v>634</v>
       </c>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.2">
@@ -5782,7 +6418,7 @@
         <v>173</v>
       </c>
       <c r="B125" s="4" t="s">
-        <v>565</v>
+        <v>635</v>
       </c>
       <c r="C125" s="9">
         <v>1999</v>
@@ -5794,7 +6430,7 @@
         <v>16</v>
       </c>
       <c r="F125" s="5" t="s">
-        <v>566</v>
+        <v>636</v>
       </c>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.2">
@@ -5802,7 +6438,7 @@
         <v>174</v>
       </c>
       <c r="B126" s="4" t="s">
-        <v>567</v>
+        <v>637</v>
       </c>
       <c r="C126" s="9">
         <v>2002</v>
@@ -5814,7 +6450,7 @@
         <v>18</v>
       </c>
       <c r="F126" s="5" t="s">
-        <v>568</v>
+        <v>638</v>
       </c>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.2">
@@ -5822,7 +6458,7 @@
         <v>175</v>
       </c>
       <c r="B127" s="4" t="s">
-        <v>569</v>
+        <v>639</v>
       </c>
       <c r="C127" s="9">
         <v>2004</v>
@@ -5834,7 +6470,7 @@
         <v>18</v>
       </c>
       <c r="F127" s="5" t="s">
-        <v>570</v>
+        <v>640</v>
       </c>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.2">
@@ -5842,7 +6478,7 @@
         <v>176</v>
       </c>
       <c r="B128" s="4" t="s">
-        <v>571</v>
+        <v>641</v>
       </c>
       <c r="C128" s="9">
         <v>2003</v>
@@ -5854,7 +6490,7 @@
         <v>0</v>
       </c>
       <c r="F128" s="5" t="s">
-        <v>572</v>
+        <v>642</v>
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.2">
@@ -5862,7 +6498,7 @@
         <v>177</v>
       </c>
       <c r="B129" s="4" t="s">
-        <v>573</v>
+        <v>643</v>
       </c>
       <c r="C129" s="9">
         <v>2004</v>
@@ -5874,7 +6510,7 @@
         <v>0</v>
       </c>
       <c r="F129" s="5" t="s">
-        <v>574</v>
+        <v>644</v>
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.2">
@@ -5882,7 +6518,7 @@
         <v>178</v>
       </c>
       <c r="B130" s="4" t="s">
-        <v>575</v>
+        <v>645</v>
       </c>
       <c r="C130" s="9">
         <v>2003</v>
@@ -5894,7 +6530,7 @@
         <v>16</v>
       </c>
       <c r="F130" s="5" t="s">
-        <v>576</v>
+        <v>646</v>
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.2">
@@ -5902,7 +6538,7 @@
         <v>179</v>
       </c>
       <c r="B131" s="4" t="s">
-        <v>577</v>
+        <v>647</v>
       </c>
       <c r="C131" s="9">
         <v>2003</v>
@@ -5914,7 +6550,7 @@
         <v>18</v>
       </c>
       <c r="F131" s="5" t="s">
-        <v>578</v>
+        <v>648</v>
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.2">
@@ -5922,7 +6558,7 @@
         <v>180</v>
       </c>
       <c r="B132" s="4" t="s">
-        <v>579</v>
+        <v>649</v>
       </c>
       <c r="C132" s="9">
         <v>2006</v>
@@ -5934,7 +6570,7 @@
         <v>16</v>
       </c>
       <c r="F132" s="5" t="s">
-        <v>580</v>
+        <v>650</v>
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.2">
@@ -5942,7 +6578,7 @@
         <v>181</v>
       </c>
       <c r="B133" s="4" t="s">
-        <v>581</v>
+        <v>651</v>
       </c>
       <c r="C133" s="9">
         <v>2005</v>
@@ -5954,7 +6590,7 @@
         <v>12</v>
       </c>
       <c r="F133" s="5" t="s">
-        <v>582</v>
+        <v>652</v>
       </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.2">
@@ -5962,7 +6598,7 @@
         <v>182</v>
       </c>
       <c r="B134" s="4" t="s">
-        <v>583</v>
+        <v>653</v>
       </c>
       <c r="C134" s="9">
         <v>2005</v>
@@ -5974,7 +6610,7 @@
         <v>18</v>
       </c>
       <c r="F134" s="5" t="s">
-        <v>584</v>
+        <v>654</v>
       </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.2">
@@ -5982,7 +6618,7 @@
         <v>183</v>
       </c>
       <c r="B135" s="4" t="s">
-        <v>585</v>
+        <v>655</v>
       </c>
       <c r="C135" s="9">
         <v>1995</v>
@@ -5994,7 +6630,7 @@
         <v>12</v>
       </c>
       <c r="F135" s="5" t="s">
-        <v>586</v>
+        <v>656</v>
       </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.2">
@@ -6002,7 +6638,7 @@
         <v>184</v>
       </c>
       <c r="B136" s="4" t="s">
-        <v>587</v>
+        <v>657</v>
       </c>
       <c r="C136" s="9">
         <v>2004</v>
@@ -6014,7 +6650,7 @@
         <v>6</v>
       </c>
       <c r="F136" s="5" t="s">
-        <v>588</v>
+        <v>658</v>
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.2">
@@ -6022,7 +6658,7 @@
         <v>185</v>
       </c>
       <c r="B137" s="4" t="s">
-        <v>589</v>
+        <v>659</v>
       </c>
       <c r="C137" s="9">
         <v>1995</v>
@@ -6034,7 +6670,7 @@
         <v>18</v>
       </c>
       <c r="F137" s="5" t="s">
-        <v>590</v>
+        <v>660</v>
       </c>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.2">
@@ -6042,7 +6678,7 @@
         <v>186</v>
       </c>
       <c r="B138" s="4" t="s">
-        <v>591</v>
+        <v>661</v>
       </c>
       <c r="C138" s="9">
         <v>2003</v>
@@ -6054,7 +6690,7 @@
         <v>18</v>
       </c>
       <c r="F138" s="5" t="s">
-        <v>592</v>
+        <v>662</v>
       </c>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.2">
@@ -6062,7 +6698,7 @@
         <v>187</v>
       </c>
       <c r="B139" s="4" t="s">
-        <v>593</v>
+        <v>663</v>
       </c>
       <c r="C139" s="9">
         <v>2003</v>
@@ -6074,7 +6710,7 @@
         <v>12</v>
       </c>
       <c r="F139" s="5" t="s">
-        <v>594</v>
+        <v>664</v>
       </c>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.2">
@@ -6082,7 +6718,7 @@
         <v>188</v>
       </c>
       <c r="B140" s="4" t="s">
-        <v>595</v>
+        <v>665</v>
       </c>
       <c r="C140" s="9">
         <v>1971</v>
@@ -6094,7 +6730,7 @@
         <v>16</v>
       </c>
       <c r="F140" s="5" t="s">
-        <v>596</v>
+        <v>666</v>
       </c>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.2">
@@ -6102,7 +6738,7 @@
         <v>189</v>
       </c>
       <c r="B141" s="4" t="s">
-        <v>597</v>
+        <v>667</v>
       </c>
       <c r="C141" s="9">
         <v>2004</v>
@@ -6114,7 +6750,7 @@
         <v>12</v>
       </c>
       <c r="F141" s="5" t="s">
-        <v>598</v>
+        <v>668</v>
       </c>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.2">
@@ -6122,7 +6758,7 @@
         <v>190</v>
       </c>
       <c r="B142" s="4" t="s">
-        <v>599</v>
+        <v>669</v>
       </c>
       <c r="C142" s="9">
         <v>2005</v>
@@ -6134,7 +6770,7 @@
         <v>12</v>
       </c>
       <c r="F142" s="5" t="s">
-        <v>600</v>
+        <v>670</v>
       </c>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.2">
@@ -6142,7 +6778,7 @@
         <v>191</v>
       </c>
       <c r="B143" s="4" t="s">
-        <v>601</v>
+        <v>671</v>
       </c>
       <c r="C143" s="9">
         <v>1987</v>
@@ -6154,7 +6790,7 @@
         <v>12</v>
       </c>
       <c r="F143" s="11" t="s">
-        <v>682</v>
+        <v>752</v>
       </c>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.2">
@@ -6162,7 +6798,7 @@
         <v>192</v>
       </c>
       <c r="B144" s="4" t="s">
-        <v>602</v>
+        <v>672</v>
       </c>
       <c r="C144" s="9">
         <v>2004</v>
@@ -6174,7 +6810,7 @@
         <v>18</v>
       </c>
       <c r="F144" s="5" t="s">
-        <v>603</v>
+        <v>673</v>
       </c>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.2">
@@ -6182,7 +6818,7 @@
         <v>193</v>
       </c>
       <c r="B145" s="4" t="s">
-        <v>604</v>
+        <v>674</v>
       </c>
       <c r="C145" s="9">
         <v>2023</v>
@@ -6194,7 +6830,7 @@
         <v>12</v>
       </c>
       <c r="F145" s="5" t="s">
-        <v>605</v>
+        <v>675</v>
       </c>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.2">
@@ -6202,7 +6838,7 @@
         <v>194</v>
       </c>
       <c r="B146" s="4" t="s">
-        <v>606</v>
+        <v>676</v>
       </c>
       <c r="C146" s="9">
         <v>2003</v>
@@ -6214,7 +6850,7 @@
         <v>16</v>
       </c>
       <c r="F146" s="5" t="s">
-        <v>607</v>
+        <v>677</v>
       </c>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.2">
@@ -6222,7 +6858,7 @@
         <v>195</v>
       </c>
       <c r="B147" s="4" t="s">
-        <v>608</v>
+        <v>678</v>
       </c>
       <c r="C147" s="9">
         <v>2000</v>
@@ -6234,7 +6870,7 @@
         <v>16</v>
       </c>
       <c r="F147" s="5" t="s">
-        <v>609</v>
+        <v>679</v>
       </c>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.2">
@@ -6242,7 +6878,7 @@
         <v>196</v>
       </c>
       <c r="B148" s="4" t="s">
-        <v>610</v>
+        <v>680</v>
       </c>
       <c r="C148" s="9">
         <v>2003</v>
@@ -6254,7 +6890,7 @@
         <v>16</v>
       </c>
       <c r="F148" s="5" t="s">
-        <v>611</v>
+        <v>681</v>
       </c>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.2">
@@ -6262,7 +6898,7 @@
         <v>197</v>
       </c>
       <c r="B149" s="4" t="s">
-        <v>612</v>
+        <v>682</v>
       </c>
       <c r="C149" s="9">
         <v>2006</v>
@@ -6274,7 +6910,7 @@
         <v>18</v>
       </c>
       <c r="F149" s="5" t="s">
-        <v>613</v>
+        <v>683</v>
       </c>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.2">
@@ -6282,7 +6918,7 @@
         <v>198</v>
       </c>
       <c r="B150" s="4" t="s">
-        <v>614</v>
+        <v>684</v>
       </c>
       <c r="C150" s="9">
         <v>2008</v>
@@ -6294,7 +6930,7 @@
         <v>12</v>
       </c>
       <c r="F150" s="5" t="s">
-        <v>615</v>
+        <v>685</v>
       </c>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.2">
@@ -6302,7 +6938,7 @@
         <v>199</v>
       </c>
       <c r="B151" s="4" t="s">
-        <v>616</v>
+        <v>686</v>
       </c>
       <c r="C151" s="9">
         <v>2004</v>
@@ -6314,7 +6950,7 @@
         <v>16</v>
       </c>
       <c r="F151" s="5" t="s">
-        <v>617</v>
+        <v>687</v>
       </c>
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.2">
@@ -6322,7 +6958,7 @@
         <v>200</v>
       </c>
       <c r="B152" s="4" t="s">
-        <v>618</v>
+        <v>688</v>
       </c>
       <c r="C152" s="9">
         <v>2004</v>
@@ -6334,7 +6970,7 @@
         <v>12</v>
       </c>
       <c r="F152" s="5" t="s">
-        <v>619</v>
+        <v>689</v>
       </c>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.2">
@@ -6342,7 +6978,7 @@
         <v>201</v>
       </c>
       <c r="B153" s="4" t="s">
-        <v>620</v>
+        <v>690</v>
       </c>
       <c r="C153" s="9">
         <v>1999</v>
@@ -6354,7 +6990,7 @@
         <v>18</v>
       </c>
       <c r="F153" s="5" t="s">
-        <v>621</v>
+        <v>691</v>
       </c>
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.2">
@@ -6362,7 +6998,7 @@
         <v>202</v>
       </c>
       <c r="B154" s="4" t="s">
-        <v>623</v>
+        <v>693</v>
       </c>
       <c r="C154" s="9">
         <v>1981</v>
@@ -6374,7 +7010,7 @@
         <v>16</v>
       </c>
       <c r="F154" s="5" t="s">
-        <v>622</v>
+        <v>692</v>
       </c>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.2">
@@ -6382,7 +7018,7 @@
         <v>203</v>
       </c>
       <c r="B155" s="4" t="s">
-        <v>624</v>
+        <v>694</v>
       </c>
       <c r="C155" s="9">
         <v>1993</v>
@@ -6394,7 +7030,7 @@
         <v>16</v>
       </c>
       <c r="F155" s="5" t="s">
-        <v>625</v>
+        <v>695</v>
       </c>
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.2">
@@ -6402,7 +7038,7 @@
         <v>204</v>
       </c>
       <c r="B156" s="4" t="s">
-        <v>626</v>
+        <v>696</v>
       </c>
       <c r="C156" s="9">
         <v>1973</v>
@@ -6414,7 +7050,7 @@
         <v>12</v>
       </c>
       <c r="F156" s="5" t="s">
-        <v>627</v>
+        <v>697</v>
       </c>
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.2">
@@ -6422,7 +7058,7 @@
         <v>205</v>
       </c>
       <c r="B157" s="4" t="s">
-        <v>628</v>
+        <v>698</v>
       </c>
       <c r="C157" s="9">
         <v>2000</v>
@@ -6434,7 +7070,7 @@
         <v>12</v>
       </c>
       <c r="F157" s="5" t="s">
-        <v>629</v>
+        <v>699</v>
       </c>
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.2">
@@ -6442,7 +7078,7 @@
         <v>206</v>
       </c>
       <c r="B158" s="4" t="s">
-        <v>630</v>
+        <v>700</v>
       </c>
       <c r="C158" s="9">
         <v>2005</v>
@@ -6454,7 +7090,7 @@
         <v>6</v>
       </c>
       <c r="F158" s="5" t="s">
-        <v>631</v>
+        <v>701</v>
       </c>
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.2">
@@ -6462,7 +7098,7 @@
         <v>207</v>
       </c>
       <c r="B159" s="4" t="s">
-        <v>632</v>
+        <v>702</v>
       </c>
       <c r="C159" s="9">
         <v>2003</v>
@@ -6474,7 +7110,7 @@
         <v>12</v>
       </c>
       <c r="F159" s="5" t="s">
-        <v>633</v>
+        <v>703</v>
       </c>
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.2">
@@ -6482,7 +7118,7 @@
         <v>208</v>
       </c>
       <c r="B160" s="4" t="s">
-        <v>634</v>
+        <v>704</v>
       </c>
       <c r="C160" s="9">
         <v>2001</v>
@@ -6494,7 +7130,7 @@
         <v>12</v>
       </c>
       <c r="F160" s="5" t="s">
-        <v>635</v>
+        <v>705</v>
       </c>
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.2">
@@ -6502,7 +7138,7 @@
         <v>209</v>
       </c>
       <c r="B161" s="4" t="s">
-        <v>636</v>
+        <v>706</v>
       </c>
       <c r="C161" s="9">
         <v>2005</v>
@@ -6514,7 +7150,7 @@
         <v>12</v>
       </c>
       <c r="F161" s="5" t="s">
-        <v>637</v>
+        <v>707</v>
       </c>
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.2">
@@ -6522,7 +7158,7 @@
         <v>210</v>
       </c>
       <c r="B162" s="4" t="s">
-        <v>638</v>
+        <v>708</v>
       </c>
       <c r="C162" s="9">
         <v>2001</v>
@@ -6534,7 +7170,7 @@
         <v>16</v>
       </c>
       <c r="F162" s="5" t="s">
-        <v>639</v>
+        <v>709</v>
       </c>
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.2">
@@ -6542,7 +7178,7 @@
         <v>211</v>
       </c>
       <c r="B163" s="4" t="s">
-        <v>640</v>
+        <v>710</v>
       </c>
       <c r="C163" s="9">
         <v>2003</v>
@@ -6554,7 +7190,7 @@
         <v>18</v>
       </c>
       <c r="F163" s="5" t="s">
-        <v>641</v>
+        <v>711</v>
       </c>
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.2">
@@ -6562,7 +7198,7 @@
         <v>212</v>
       </c>
       <c r="B164" s="4" t="s">
-        <v>642</v>
+        <v>712</v>
       </c>
       <c r="C164" s="9">
         <v>1985</v>
@@ -6574,7 +7210,7 @@
         <v>12</v>
       </c>
       <c r="F164" s="5" t="s">
-        <v>643</v>
+        <v>713</v>
       </c>
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.2">
@@ -6582,7 +7218,7 @@
         <v>213</v>
       </c>
       <c r="B165" s="4" t="s">
-        <v>644</v>
+        <v>714</v>
       </c>
       <c r="C165" s="9">
         <v>2002</v>
@@ -6594,7 +7230,7 @@
         <v>12</v>
       </c>
       <c r="F165" s="5" t="s">
-        <v>645</v>
+        <v>715</v>
       </c>
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.2">
@@ -6602,7 +7238,7 @@
         <v>214</v>
       </c>
       <c r="B166" s="4" t="s">
-        <v>646</v>
+        <v>716</v>
       </c>
       <c r="C166" s="9">
         <v>2003</v>
@@ -6614,7 +7250,7 @@
         <v>12</v>
       </c>
       <c r="F166" s="5" t="s">
-        <v>647</v>
+        <v>717</v>
       </c>
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.2">
@@ -6622,7 +7258,7 @@
         <v>215</v>
       </c>
       <c r="B167" s="4" t="s">
-        <v>648</v>
+        <v>718</v>
       </c>
       <c r="C167" s="9">
         <v>2001</v>
@@ -6634,7 +7270,7 @@
         <v>12</v>
       </c>
       <c r="F167" s="5" t="s">
-        <v>649</v>
+        <v>719</v>
       </c>
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.2">
@@ -6642,7 +7278,7 @@
         <v>216</v>
       </c>
       <c r="B168" s="4" t="s">
-        <v>650</v>
+        <v>720</v>
       </c>
       <c r="C168" s="9">
         <v>2004</v>
@@ -6654,7 +7290,7 @@
         <v>6</v>
       </c>
       <c r="F168" s="5" t="s">
-        <v>651</v>
+        <v>721</v>
       </c>
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.2">
@@ -6662,7 +7298,7 @@
         <v>217</v>
       </c>
       <c r="B169" s="4" t="s">
-        <v>652</v>
+        <v>722</v>
       </c>
       <c r="C169" s="9">
         <v>2000</v>
@@ -6674,7 +7310,7 @@
         <v>16</v>
       </c>
       <c r="F169" s="5" t="s">
-        <v>653</v>
+        <v>723</v>
       </c>
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.2">
@@ -6682,7 +7318,7 @@
         <v>218</v>
       </c>
       <c r="B170" s="4" t="s">
-        <v>654</v>
+        <v>724</v>
       </c>
       <c r="C170" s="9">
         <v>2000</v>
@@ -6694,7 +7330,7 @@
         <v>12</v>
       </c>
       <c r="F170" s="5" t="s">
-        <v>655</v>
+        <v>725</v>
       </c>
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.2">
@@ -6702,7 +7338,7 @@
         <v>219</v>
       </c>
       <c r="B171" s="4" t="s">
-        <v>656</v>
+        <v>726</v>
       </c>
       <c r="C171" s="9">
         <v>2006</v>
@@ -6714,7 +7350,7 @@
         <v>0</v>
       </c>
       <c r="F171" s="5" t="s">
-        <v>657</v>
+        <v>727</v>
       </c>
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.2">
@@ -6722,7 +7358,7 @@
         <v>220</v>
       </c>
       <c r="B172" s="4" t="s">
-        <v>658</v>
+        <v>728</v>
       </c>
       <c r="C172" s="9">
         <v>2001</v>
@@ -6734,7 +7370,7 @@
         <v>12</v>
       </c>
       <c r="F172" s="5" t="s">
-        <v>659</v>
+        <v>729</v>
       </c>
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.2">
@@ -6742,7 +7378,7 @@
         <v>221</v>
       </c>
       <c r="B173" s="4" t="s">
-        <v>660</v>
+        <v>730</v>
       </c>
       <c r="C173" s="9">
         <v>2005</v>
@@ -6754,7 +7390,7 @@
         <v>0</v>
       </c>
       <c r="F173" s="5" t="s">
-        <v>661</v>
+        <v>731</v>
       </c>
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.2">
@@ -6762,7 +7398,7 @@
         <v>222</v>
       </c>
       <c r="B174" s="4" t="s">
-        <v>662</v>
+        <v>732</v>
       </c>
       <c r="C174" s="9">
         <v>2005</v>
@@ -6774,7 +7410,7 @@
         <v>0</v>
       </c>
       <c r="F174" s="5" t="s">
-        <v>663</v>
+        <v>733</v>
       </c>
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.2">
@@ -6782,7 +7418,7 @@
         <v>223</v>
       </c>
       <c r="B175" s="4" t="s">
-        <v>664</v>
+        <v>734</v>
       </c>
       <c r="C175" s="9">
         <v>2001</v>
@@ -6794,7 +7430,7 @@
         <v>16</v>
       </c>
       <c r="F175" s="5" t="s">
-        <v>665</v>
+        <v>735</v>
       </c>
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.2">
@@ -6802,7 +7438,7 @@
         <v>224</v>
       </c>
       <c r="B176" s="4" t="s">
-        <v>666</v>
+        <v>736</v>
       </c>
       <c r="C176" s="9">
         <v>2004</v>
@@ -6814,7 +7450,7 @@
         <v>12</v>
       </c>
       <c r="F176" s="5" t="s">
-        <v>667</v>
+        <v>737</v>
       </c>
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.2">
@@ -6822,7 +7458,7 @@
         <v>225</v>
       </c>
       <c r="B177" s="4" t="s">
-        <v>668</v>
+        <v>738</v>
       </c>
       <c r="C177" s="9">
         <v>2001</v>
@@ -6834,7 +7470,7 @@
         <v>6</v>
       </c>
       <c r="F177" s="5" t="s">
-        <v>669</v>
+        <v>739</v>
       </c>
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.2">
@@ -6842,7 +7478,7 @@
         <v>226</v>
       </c>
       <c r="B178" s="4" t="s">
-        <v>670</v>
+        <v>740</v>
       </c>
       <c r="C178" s="9">
         <v>1999</v>
@@ -6854,7 +7490,7 @@
         <v>16</v>
       </c>
       <c r="F178" s="5" t="s">
-        <v>671</v>
+        <v>741</v>
       </c>
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.2">
@@ -6862,7 +7498,7 @@
         <v>227</v>
       </c>
       <c r="B179" s="4" t="s">
-        <v>672</v>
+        <v>742</v>
       </c>
       <c r="C179" s="9">
         <v>1999</v>
@@ -6874,7 +7510,7 @@
         <v>12</v>
       </c>
       <c r="F179" s="5" t="s">
-        <v>673</v>
+        <v>743</v>
       </c>
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.2">
@@ -6882,7 +7518,7 @@
         <v>228</v>
       </c>
       <c r="B180" s="4" t="s">
-        <v>674</v>
+        <v>744</v>
       </c>
       <c r="C180" s="9">
         <v>2002</v>
@@ -6894,7 +7530,7 @@
         <v>16</v>
       </c>
       <c r="F180" s="5" t="s">
-        <v>675</v>
+        <v>745</v>
       </c>
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.2">
@@ -6902,7 +7538,7 @@
         <v>229</v>
       </c>
       <c r="B181" s="4" t="s">
-        <v>676</v>
+        <v>746</v>
       </c>
       <c r="C181" s="9">
         <v>2003</v>
@@ -6914,7 +7550,7 @@
         <v>0</v>
       </c>
       <c r="F181" s="5" t="s">
-        <v>677</v>
+        <v>747</v>
       </c>
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.2">
@@ -6922,7 +7558,7 @@
         <v>230</v>
       </c>
       <c r="B182" s="4" t="s">
-        <v>678</v>
+        <v>748</v>
       </c>
       <c r="C182" s="9">
         <v>2005</v>
@@ -6934,7 +7570,7 @@
         <v>12</v>
       </c>
       <c r="F182" s="5" t="s">
-        <v>679</v>
+        <v>749</v>
       </c>
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.2">
@@ -6942,7 +7578,7 @@
         <v>231</v>
       </c>
       <c r="B183" s="4" t="s">
-        <v>680</v>
+        <v>750</v>
       </c>
       <c r="C183" s="9">
         <v>2004</v>
@@ -6954,7 +7590,7 @@
         <v>6</v>
       </c>
       <c r="F183" s="5" t="s">
-        <v>681</v>
+        <v>751</v>
       </c>
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.2">
@@ -6962,7 +7598,7 @@
         <v>232</v>
       </c>
       <c r="B184" s="4" t="s">
-        <v>827</v>
+        <v>897</v>
       </c>
       <c r="C184" s="9">
         <v>1999</v>
@@ -6974,7 +7610,7 @@
         <v>12</v>
       </c>
       <c r="F184" s="5" t="s">
-        <v>828</v>
+        <v>898</v>
       </c>
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.2">
@@ -6982,7 +7618,7 @@
         <v>233</v>
       </c>
       <c r="B185" s="4" t="s">
-        <v>699</v>
+        <v>769</v>
       </c>
       <c r="C185" s="9">
         <v>2011</v>
@@ -6994,7 +7630,7 @@
         <v>16</v>
       </c>
       <c r="F185" s="5" t="s">
-        <v>700</v>
+        <v>770</v>
       </c>
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.2">
@@ -7002,7 +7638,7 @@
         <v>234</v>
       </c>
       <c r="B186" s="4" t="s">
-        <v>758</v>
+        <v>828</v>
       </c>
       <c r="C186" s="9">
         <v>2005</v>
@@ -7014,15 +7650,15 @@
         <v>12</v>
       </c>
       <c r="F186" s="5" t="s">
-        <v>759</v>
+        <v>829</v>
       </c>
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A187" s="3" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="B187" s="4" t="s">
-        <v>736</v>
+        <v>806</v>
       </c>
       <c r="C187" s="9">
         <v>1998</v>
@@ -7034,15 +7670,15 @@
         <v>6</v>
       </c>
       <c r="F187" s="5" t="s">
-        <v>737</v>
+        <v>807</v>
       </c>
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A188" s="3" t="s">
-        <v>236</v>
+        <v>243</v>
       </c>
       <c r="B188" s="4" t="s">
-        <v>898</v>
+        <v>968</v>
       </c>
       <c r="C188" s="9">
         <v>2002</v>
@@ -7054,15 +7690,15 @@
         <v>6</v>
       </c>
       <c r="F188" s="5" t="s">
-        <v>899</v>
+        <v>969</v>
       </c>
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A189" s="3" t="s">
-        <v>237</v>
+        <v>244</v>
       </c>
       <c r="B189" s="4" t="s">
-        <v>896</v>
+        <v>966</v>
       </c>
       <c r="C189" s="9">
         <v>1986</v>
@@ -7074,15 +7710,15 @@
         <v>6</v>
       </c>
       <c r="F189" s="5" t="s">
-        <v>897</v>
+        <v>967</v>
       </c>
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A190" s="3" t="s">
-        <v>238</v>
+        <v>245</v>
       </c>
       <c r="B190" s="4" t="s">
-        <v>716</v>
+        <v>786</v>
       </c>
       <c r="C190" s="9">
         <v>2007</v>
@@ -7094,15 +7730,15 @@
         <v>16</v>
       </c>
       <c r="F190" s="5" t="s">
-        <v>717</v>
+        <v>787</v>
       </c>
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A191" s="3" t="s">
-        <v>239</v>
+        <v>246</v>
       </c>
       <c r="B191" s="4" t="s">
-        <v>750</v>
+        <v>820</v>
       </c>
       <c r="C191" s="9">
         <v>1995</v>
@@ -7114,15 +7750,15 @@
         <v>12</v>
       </c>
       <c r="F191" s="5" t="s">
-        <v>751</v>
+        <v>821</v>
       </c>
     </row>
     <row r="192" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A192" s="3" t="s">
-        <v>240</v>
+        <v>247</v>
       </c>
       <c r="B192" s="4" t="s">
-        <v>938</v>
+        <v>1008</v>
       </c>
       <c r="C192" s="9">
         <v>2002</v>
@@ -7134,15 +7770,15 @@
         <v>12</v>
       </c>
       <c r="F192" s="5" t="s">
-        <v>939</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="193" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A193" s="3" t="s">
-        <v>241</v>
+        <v>250</v>
       </c>
       <c r="B193" s="4" t="s">
-        <v>912</v>
+        <v>982</v>
       </c>
       <c r="C193" s="9">
         <v>2004</v>
@@ -7154,15 +7790,15 @@
         <v>12</v>
       </c>
       <c r="F193" s="5" t="s">
-        <v>913</v>
+        <v>983</v>
       </c>
     </row>
     <row r="194" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A194" s="3" t="s">
-        <v>242</v>
+        <v>251</v>
       </c>
       <c r="B194" s="4" t="s">
-        <v>764</v>
+        <v>834</v>
       </c>
       <c r="C194" s="9">
         <v>1980</v>
@@ -7174,15 +7810,15 @@
         <v>6</v>
       </c>
       <c r="F194" s="5" t="s">
-        <v>766</v>
+        <v>836</v>
       </c>
     </row>
     <row r="195" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A195" s="3" t="s">
-        <v>243</v>
+        <v>253</v>
       </c>
       <c r="B195" s="4" t="s">
-        <v>793</v>
+        <v>863</v>
       </c>
       <c r="C195" s="9">
         <v>2006</v>
@@ -7194,18 +7830,18 @@
         <v>16</v>
       </c>
       <c r="F195" s="5" t="s">
-        <v>794</v>
+        <v>864</v>
       </c>
       <c r="G195" t="s">
-        <v>707</v>
+        <v>777</v>
       </c>
     </row>
     <row r="196" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A196" s="3" t="s">
-        <v>244</v>
+        <v>254</v>
       </c>
       <c r="B196" s="4" t="s">
-        <v>799</v>
+        <v>869</v>
       </c>
       <c r="C196" s="9">
         <v>1985</v>
@@ -7217,15 +7853,15 @@
         <v>16</v>
       </c>
       <c r="F196" s="5" t="s">
-        <v>800</v>
+        <v>870</v>
       </c>
     </row>
     <row r="197" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A197" s="3" t="s">
-        <v>245</v>
+        <v>255</v>
       </c>
       <c r="B197" s="4" t="s">
-        <v>801</v>
+        <v>871</v>
       </c>
       <c r="C197" s="9">
         <v>1987</v>
@@ -7237,15 +7873,15 @@
         <v>18</v>
       </c>
       <c r="F197" s="5" t="s">
-        <v>802</v>
+        <v>872</v>
       </c>
     </row>
     <row r="198" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A198" s="3" t="s">
-        <v>246</v>
+        <v>256</v>
       </c>
       <c r="B198" s="4" t="s">
-        <v>803</v>
+        <v>873</v>
       </c>
       <c r="C198" s="9">
         <v>1989</v>
@@ -7257,15 +7893,15 @@
         <v>16</v>
       </c>
       <c r="F198" s="5" t="s">
-        <v>804</v>
+        <v>874</v>
       </c>
     </row>
     <row r="199" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A199" s="3" t="s">
-        <v>247</v>
+        <v>257</v>
       </c>
       <c r="B199" s="4" t="s">
-        <v>805</v>
+        <v>875</v>
       </c>
       <c r="C199" s="9">
         <v>1990</v>
@@ -7277,15 +7913,15 @@
         <v>16</v>
       </c>
       <c r="F199" s="5" t="s">
-        <v>806</v>
+        <v>876</v>
       </c>
     </row>
     <row r="200" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A200" s="3" t="s">
-        <v>248</v>
+        <v>258</v>
       </c>
       <c r="B200" s="4" t="s">
-        <v>807</v>
+        <v>877</v>
       </c>
       <c r="C200" s="9">
         <v>1992</v>
@@ -7297,15 +7933,15 @@
         <v>16</v>
       </c>
       <c r="F200" s="5" t="s">
-        <v>808</v>
+        <v>878</v>
       </c>
     </row>
     <row r="201" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A201" s="3" t="s">
-        <v>249</v>
+        <v>260</v>
       </c>
       <c r="B201" s="4" t="s">
-        <v>825</v>
+        <v>895</v>
       </c>
       <c r="C201" s="9">
         <v>2001</v>
@@ -7317,15 +7953,15 @@
         <v>6</v>
       </c>
       <c r="F201" s="5" t="s">
-        <v>826</v>
+        <v>896</v>
       </c>
     </row>
     <row r="202" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A202" s="3" t="s">
-        <v>250</v>
+        <v>261</v>
       </c>
       <c r="B202" s="4" t="s">
-        <v>785</v>
+        <v>855</v>
       </c>
       <c r="C202" s="9">
         <v>2009</v>
@@ -7337,15 +7973,15 @@
         <v>6</v>
       </c>
       <c r="F202" s="5" t="s">
-        <v>786</v>
+        <v>856</v>
       </c>
     </row>
     <row r="203" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A203" s="3" t="s">
-        <v>251</v>
+        <v>262</v>
       </c>
       <c r="B203" s="4" t="s">
-        <v>797</v>
+        <v>867</v>
       </c>
       <c r="C203" s="9">
         <v>1984</v>
@@ -7357,15 +7993,15 @@
         <v>12</v>
       </c>
       <c r="F203" s="5" t="s">
-        <v>798</v>
+        <v>868</v>
       </c>
     </row>
     <row r="204" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A204" s="3" t="s">
-        <v>252</v>
+        <v>264</v>
       </c>
       <c r="B204" s="4" t="s">
-        <v>890</v>
+        <v>960</v>
       </c>
       <c r="C204" s="9">
         <v>2021</v>
@@ -7377,15 +8013,15 @@
         <v>16</v>
       </c>
       <c r="F204" s="5" t="s">
-        <v>891</v>
+        <v>961</v>
       </c>
     </row>
     <row r="205" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A205" s="3" t="s">
-        <v>253</v>
+        <v>265</v>
       </c>
       <c r="B205" s="4" t="s">
-        <v>795</v>
+        <v>865</v>
       </c>
       <c r="C205" s="9">
         <v>2020</v>
@@ -7397,15 +8033,15 @@
         <v>16</v>
       </c>
       <c r="F205" s="5" t="s">
-        <v>796</v>
+        <v>866</v>
       </c>
     </row>
     <row r="206" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A206" s="3" t="s">
-        <v>254</v>
+        <v>269</v>
       </c>
       <c r="B206" s="4" t="s">
-        <v>705</v>
+        <v>775</v>
       </c>
       <c r="C206" s="9">
         <v>2001</v>
@@ -7417,15 +8053,15 @@
         <v>16</v>
       </c>
       <c r="F206" s="5" t="s">
-        <v>706</v>
+        <v>776</v>
       </c>
     </row>
     <row r="207" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A207" s="3" t="s">
-        <v>255</v>
+        <v>273</v>
       </c>
       <c r="B207" s="4" t="s">
-        <v>683</v>
+        <v>753</v>
       </c>
       <c r="C207" s="9">
         <v>1994</v>
@@ -7437,15 +8073,15 @@
         <v>0</v>
       </c>
       <c r="F207" s="5" t="s">
-        <v>684</v>
+        <v>754</v>
       </c>
     </row>
     <row r="208" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A208" s="3" t="s">
-        <v>256</v>
+        <v>276</v>
       </c>
       <c r="B208" s="4" t="s">
-        <v>886</v>
+        <v>956</v>
       </c>
       <c r="C208" s="9">
         <v>1986</v>
@@ -7457,15 +8093,15 @@
         <v>12</v>
       </c>
       <c r="F208" s="5" t="s">
-        <v>887</v>
+        <v>957</v>
       </c>
     </row>
     <row r="209" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A209" s="3" t="s">
-        <v>257</v>
+        <v>277</v>
       </c>
       <c r="B209" s="4" t="s">
-        <v>888</v>
+        <v>958</v>
       </c>
       <c r="C209" s="9">
         <v>1991</v>
@@ -7477,15 +8113,15 @@
         <v>12</v>
       </c>
       <c r="F209" s="5" t="s">
-        <v>889</v>
+        <v>959</v>
       </c>
     </row>
     <row r="210" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A210" s="3" t="s">
-        <v>258</v>
+        <v>279</v>
       </c>
       <c r="B210" s="4" t="s">
-        <v>760</v>
+        <v>830</v>
       </c>
       <c r="C210" s="9">
         <v>1988</v>
@@ -7497,15 +8133,15 @@
         <v>16</v>
       </c>
       <c r="F210" s="5" t="s">
-        <v>761</v>
+        <v>831</v>
       </c>
     </row>
     <row r="211" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A211" s="3" t="s">
-        <v>259</v>
+        <v>280</v>
       </c>
       <c r="B211" s="4" t="s">
-        <v>900</v>
+        <v>970</v>
       </c>
       <c r="C211" s="9">
         <v>1989</v>
@@ -7517,15 +8153,15 @@
         <v>6</v>
       </c>
       <c r="F211" s="5" t="s">
-        <v>901</v>
+        <v>971</v>
       </c>
     </row>
     <row r="212" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A212" s="3" t="s">
-        <v>260</v>
+        <v>285</v>
       </c>
       <c r="B212" s="4" t="s">
-        <v>847</v>
+        <v>917</v>
       </c>
       <c r="C212" s="9">
         <v>1998</v>
@@ -7537,15 +8173,15 @@
         <v>16</v>
       </c>
       <c r="F212" s="5" t="s">
-        <v>848</v>
+        <v>918</v>
       </c>
     </row>
     <row r="213" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A213" s="3" t="s">
-        <v>261</v>
+        <v>286</v>
       </c>
       <c r="B213" s="4" t="s">
-        <v>730</v>
+        <v>800</v>
       </c>
       <c r="C213" s="9">
         <v>2009</v>
@@ -7557,15 +8193,15 @@
         <v>12</v>
       </c>
       <c r="F213" s="5" t="s">
-        <v>731</v>
+        <v>801</v>
       </c>
     </row>
     <row r="214" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A214" s="3" t="s">
-        <v>262</v>
+        <v>287</v>
       </c>
       <c r="B214" s="4" t="s">
-        <v>928</v>
+        <v>998</v>
       </c>
       <c r="C214" s="9">
         <v>2012</v>
@@ -7577,15 +8213,15 @@
         <v>12</v>
       </c>
       <c r="F214" s="5" t="s">
-        <v>929</v>
+        <v>999</v>
       </c>
     </row>
     <row r="215" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A215" s="3" t="s">
-        <v>263</v>
+        <v>288</v>
       </c>
       <c r="B215" s="4" t="s">
-        <v>748</v>
+        <v>818</v>
       </c>
       <c r="C215" s="9">
         <v>2012</v>
@@ -7597,15 +8233,15 @@
         <v>18</v>
       </c>
       <c r="F215" s="5" t="s">
-        <v>749</v>
+        <v>819</v>
       </c>
     </row>
     <row r="216" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A216" s="3" t="s">
-        <v>264</v>
+        <v>289</v>
       </c>
       <c r="B216" s="4" t="s">
-        <v>714</v>
+        <v>784</v>
       </c>
       <c r="C216" s="9">
         <v>2010</v>
@@ -7617,15 +8253,15 @@
         <v>12</v>
       </c>
       <c r="F216" s="5" t="s">
-        <v>715</v>
+        <v>785</v>
       </c>
     </row>
     <row r="217" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A217" s="3" t="s">
-        <v>265</v>
+        <v>291</v>
       </c>
       <c r="B217" s="4" t="s">
-        <v>924</v>
+        <v>994</v>
       </c>
       <c r="C217" s="9">
         <v>2002</v>
@@ -7637,15 +8273,15 @@
         <v>12</v>
       </c>
       <c r="F217" s="5" t="s">
-        <v>925</v>
+        <v>995</v>
       </c>
     </row>
     <row r="218" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A218" s="3" t="s">
-        <v>266</v>
+        <v>292</v>
       </c>
       <c r="B218" s="4" t="s">
-        <v>857</v>
+        <v>927</v>
       </c>
       <c r="C218" s="9">
         <v>2011</v>
@@ -7657,15 +8293,15 @@
         <v>16</v>
       </c>
       <c r="F218" s="5" t="s">
-        <v>858</v>
+        <v>928</v>
       </c>
     </row>
     <row r="219" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A219" s="3" t="s">
-        <v>267</v>
+        <v>295</v>
       </c>
       <c r="B219" s="4" t="s">
-        <v>697</v>
+        <v>767</v>
       </c>
       <c r="C219" s="9">
         <v>1986</v>
@@ -7677,15 +8313,15 @@
         <v>16</v>
       </c>
       <c r="F219" s="5" t="s">
-        <v>698</v>
+        <v>768</v>
       </c>
     </row>
     <row r="220" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A220" s="3" t="s">
-        <v>268</v>
+        <v>296</v>
       </c>
       <c r="B220" s="4" t="s">
-        <v>811</v>
+        <v>881</v>
       </c>
       <c r="C220" s="9">
         <v>1999</v>
@@ -7697,15 +8333,15 @@
         <v>12</v>
       </c>
       <c r="F220" s="5" t="s">
-        <v>812</v>
+        <v>882</v>
       </c>
     </row>
     <row r="221" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A221" s="3" t="s">
-        <v>269</v>
+        <v>298</v>
       </c>
       <c r="B221" s="4" t="s">
-        <v>685</v>
+        <v>755</v>
       </c>
       <c r="C221" s="9">
         <v>2007</v>
@@ -7717,15 +8353,15 @@
         <v>12</v>
       </c>
       <c r="F221" s="5" t="s">
-        <v>686</v>
+        <v>756</v>
       </c>
     </row>
     <row r="222" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A222" s="3" t="s">
-        <v>270</v>
+        <v>299</v>
       </c>
       <c r="B222" s="4" t="s">
-        <v>744</v>
+        <v>814</v>
       </c>
       <c r="C222" s="9">
         <v>2002</v>
@@ -7737,15 +8373,15 @@
         <v>6</v>
       </c>
       <c r="F222" s="5" t="s">
-        <v>745</v>
+        <v>815</v>
       </c>
     </row>
     <row r="223" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A223" s="3" t="s">
-        <v>271</v>
+        <v>305</v>
       </c>
       <c r="B223" s="4" t="s">
-        <v>855</v>
+        <v>925</v>
       </c>
       <c r="C223" s="9">
         <v>2006</v>
@@ -7757,15 +8393,15 @@
         <v>18</v>
       </c>
       <c r="F223" s="5" t="s">
-        <v>856</v>
+        <v>926</v>
       </c>
     </row>
     <row r="224" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A224" s="3" t="s">
-        <v>272</v>
+        <v>306</v>
       </c>
       <c r="B224" s="4" t="s">
-        <v>920</v>
+        <v>990</v>
       </c>
       <c r="C224" s="9">
         <v>1997</v>
@@ -7777,15 +8413,15 @@
         <v>12</v>
       </c>
       <c r="F224" s="5" t="s">
-        <v>921</v>
+        <v>991</v>
       </c>
     </row>
     <row r="225" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A225" s="3" t="s">
-        <v>273</v>
+        <v>309</v>
       </c>
       <c r="B225" s="4" t="s">
-        <v>884</v>
+        <v>954</v>
       </c>
       <c r="C225" s="9">
         <v>1998</v>
@@ -7797,15 +8433,15 @@
         <v>12</v>
       </c>
       <c r="F225" s="5" t="s">
-        <v>885</v>
+        <v>955</v>
       </c>
     </row>
     <row r="226" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A226" s="3" t="s">
-        <v>274</v>
+        <v>310</v>
       </c>
       <c r="B226" s="4" t="s">
-        <v>813</v>
+        <v>883</v>
       </c>
       <c r="C226" s="9">
         <v>2001</v>
@@ -7817,15 +8453,15 @@
         <v>12</v>
       </c>
       <c r="F226" s="5" t="s">
-        <v>814</v>
+        <v>884</v>
       </c>
     </row>
     <row r="227" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A227" s="3" t="s">
-        <v>275</v>
+        <v>311</v>
       </c>
       <c r="B227" s="4" t="s">
-        <v>815</v>
+        <v>885</v>
       </c>
       <c r="C227" s="9">
         <v>2003</v>
@@ -7837,15 +8473,15 @@
         <v>12</v>
       </c>
       <c r="F227" s="5" t="s">
-        <v>816</v>
+        <v>886</v>
       </c>
     </row>
     <row r="228" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A228" s="3" t="s">
-        <v>276</v>
+        <v>312</v>
       </c>
       <c r="B228" s="4" t="s">
-        <v>821</v>
+        <v>891</v>
       </c>
       <c r="C228" s="9">
         <v>2012</v>
@@ -7857,15 +8493,15 @@
         <v>12</v>
       </c>
       <c r="F228" s="5" t="s">
-        <v>822</v>
+        <v>892</v>
       </c>
     </row>
     <row r="229" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A229" s="3" t="s">
-        <v>277</v>
+        <v>314</v>
       </c>
       <c r="B229" s="4" t="s">
-        <v>779</v>
+        <v>849</v>
       </c>
       <c r="C229" s="9">
         <v>2003</v>
@@ -7877,15 +8513,15 @@
         <v>12</v>
       </c>
       <c r="F229" s="5" t="s">
-        <v>780</v>
+        <v>850</v>
       </c>
     </row>
     <row r="230" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A230" s="3" t="s">
-        <v>278</v>
+        <v>315</v>
       </c>
       <c r="B230" s="4" t="s">
-        <v>922</v>
+        <v>992</v>
       </c>
       <c r="C230" s="9">
         <v>1999</v>
@@ -7897,15 +8533,15 @@
         <v>12</v>
       </c>
       <c r="F230" s="5" t="s">
-        <v>923</v>
+        <v>993</v>
       </c>
     </row>
     <row r="231" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A231" s="3" t="s">
-        <v>279</v>
+        <v>317</v>
       </c>
       <c r="B231" s="4" t="s">
-        <v>732</v>
+        <v>802</v>
       </c>
       <c r="C231" s="9">
         <v>1964</v>
@@ -7917,15 +8553,15 @@
         <v>6</v>
       </c>
       <c r="F231" s="5" t="s">
-        <v>733</v>
+        <v>803</v>
       </c>
     </row>
     <row r="232" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A232" s="3" t="s">
-        <v>280</v>
+        <v>318</v>
       </c>
       <c r="B232" s="4" t="s">
-        <v>718</v>
+        <v>788</v>
       </c>
       <c r="C232" s="9">
         <v>2008</v>
@@ -7937,15 +8573,15 @@
         <v>12</v>
       </c>
       <c r="F232" s="5" t="s">
-        <v>719</v>
+        <v>789</v>
       </c>
     </row>
     <row r="233" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A233" s="3" t="s">
-        <v>281</v>
+        <v>319</v>
       </c>
       <c r="B233" s="4" t="s">
-        <v>720</v>
+        <v>790</v>
       </c>
       <c r="C233" s="9">
         <v>2012</v>
@@ -7957,15 +8593,15 @@
         <v>16</v>
       </c>
       <c r="F233" s="5" t="s">
-        <v>721</v>
+        <v>791</v>
       </c>
     </row>
     <row r="234" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A234" s="3" t="s">
-        <v>282</v>
+        <v>320</v>
       </c>
       <c r="B234" s="4" t="s">
-        <v>722</v>
+        <v>792</v>
       </c>
       <c r="C234" s="9">
         <v>2014</v>
@@ -7977,15 +8613,15 @@
         <v>16</v>
       </c>
       <c r="F234" s="5" t="s">
-        <v>723</v>
+        <v>793</v>
       </c>
     </row>
     <row r="235" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A235" s="3" t="s">
-        <v>283</v>
+        <v>321</v>
       </c>
       <c r="B235" s="4" t="s">
-        <v>791</v>
+        <v>861</v>
       </c>
       <c r="C235" s="9">
         <v>2000</v>
@@ -7997,15 +8633,15 @@
         <v>12</v>
       </c>
       <c r="F235" s="5" t="s">
-        <v>792</v>
+        <v>862</v>
       </c>
     </row>
     <row r="236" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A236" s="3" t="s">
-        <v>284</v>
+        <v>322</v>
       </c>
       <c r="B236" s="4" t="s">
-        <v>819</v>
+        <v>889</v>
       </c>
       <c r="C236" s="9">
         <v>2009</v>
@@ -8017,15 +8653,15 @@
         <v>16</v>
       </c>
       <c r="F236" s="5" t="s">
-        <v>820</v>
+        <v>890</v>
       </c>
     </row>
     <row r="237" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A237" s="3" t="s">
-        <v>285</v>
+        <v>323</v>
       </c>
       <c r="B237" s="4" t="s">
-        <v>878</v>
+        <v>948</v>
       </c>
       <c r="C237" s="9">
         <v>1989</v>
@@ -8037,15 +8673,15 @@
         <v>0</v>
       </c>
       <c r="F237" s="5" t="s">
-        <v>879</v>
+        <v>949</v>
       </c>
     </row>
     <row r="238" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A238" s="3" t="s">
-        <v>286</v>
+        <v>324</v>
       </c>
       <c r="B238" s="4" t="s">
-        <v>817</v>
+        <v>887</v>
       </c>
       <c r="C238" s="9">
         <v>2005</v>
@@ -8057,15 +8693,15 @@
         <v>12</v>
       </c>
       <c r="F238" s="5" t="s">
-        <v>818</v>
+        <v>888</v>
       </c>
     </row>
     <row r="239" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A239" s="3" t="s">
-        <v>287</v>
+        <v>325</v>
       </c>
       <c r="B239" s="4" t="s">
-        <v>742</v>
+        <v>812</v>
       </c>
       <c r="C239" s="9">
         <v>2003</v>
@@ -8077,15 +8713,15 @@
         <v>12</v>
       </c>
       <c r="F239" s="5" t="s">
-        <v>743</v>
+        <v>813</v>
       </c>
     </row>
     <row r="240" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A240" s="3" t="s">
-        <v>288</v>
+        <v>326</v>
       </c>
       <c r="B240" s="4" t="s">
-        <v>930</v>
+        <v>1000</v>
       </c>
       <c r="C240" s="9">
         <v>2015</v>
@@ -8097,15 +8733,15 @@
         <v>12</v>
       </c>
       <c r="F240" s="5" t="s">
-        <v>931</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="241" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A241" s="3" t="s">
-        <v>289</v>
+        <v>327</v>
       </c>
       <c r="B241" s="4" t="s">
-        <v>845</v>
+        <v>915</v>
       </c>
       <c r="C241" s="9">
         <v>2003</v>
@@ -8117,15 +8753,15 @@
         <v>16</v>
       </c>
       <c r="F241" s="5" t="s">
-        <v>846</v>
+        <v>916</v>
       </c>
     </row>
     <row r="242" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A242" s="3" t="s">
-        <v>290</v>
+        <v>328</v>
       </c>
       <c r="B242" s="4" t="s">
-        <v>926</v>
+        <v>996</v>
       </c>
       <c r="C242" s="9">
         <v>2009</v>
@@ -8137,15 +8773,15 @@
         <v>12</v>
       </c>
       <c r="F242" s="5" t="s">
-        <v>927</v>
+        <v>997</v>
       </c>
     </row>
     <row r="243" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A243" s="3" t="s">
-        <v>291</v>
+        <v>329</v>
       </c>
       <c r="B243" s="4" t="s">
-        <v>837</v>
+        <v>907</v>
       </c>
       <c r="C243" s="9">
         <v>2020</v>
@@ -8157,15 +8793,15 @@
         <v>16</v>
       </c>
       <c r="F243" s="5" t="s">
-        <v>838</v>
+        <v>908</v>
       </c>
     </row>
     <row r="244" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A244" s="3" t="s">
-        <v>292</v>
+        <v>331</v>
       </c>
       <c r="B244" s="4" t="s">
-        <v>728</v>
+        <v>798</v>
       </c>
       <c r="C244" s="9">
         <v>1968</v>
@@ -8177,15 +8813,15 @@
         <v>12</v>
       </c>
       <c r="F244" s="5" t="s">
-        <v>729</v>
+        <v>799</v>
       </c>
     </row>
     <row r="245" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A245" s="3" t="s">
-        <v>293</v>
+        <v>332</v>
       </c>
       <c r="B245" s="4" t="s">
-        <v>771</v>
+        <v>841</v>
       </c>
       <c r="C245" s="9">
         <v>2010</v>
@@ -8197,15 +8833,15 @@
         <v>12</v>
       </c>
       <c r="F245" s="5" t="s">
-        <v>772</v>
+        <v>842</v>
       </c>
     </row>
     <row r="246" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A246" s="3" t="s">
-        <v>294</v>
+        <v>333</v>
       </c>
       <c r="B246" s="4" t="s">
-        <v>767</v>
+        <v>837</v>
       </c>
       <c r="C246" s="9">
         <v>2009</v>
@@ -8217,15 +8853,15 @@
         <v>12</v>
       </c>
       <c r="F246" s="5" t="s">
-        <v>768</v>
+        <v>838</v>
       </c>
     </row>
     <row r="247" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A247" s="3" t="s">
-        <v>295</v>
+        <v>336</v>
       </c>
       <c r="B247" s="4" t="s">
-        <v>708</v>
+        <v>778</v>
       </c>
       <c r="C247" s="9">
         <v>2012</v>
@@ -8237,15 +8873,15 @@
         <v>12</v>
       </c>
       <c r="F247" s="5" t="s">
-        <v>709</v>
+        <v>779</v>
       </c>
     </row>
     <row r="248" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A248" s="3" t="s">
-        <v>296</v>
+        <v>337</v>
       </c>
       <c r="B248" s="4" t="s">
-        <v>710</v>
+        <v>780</v>
       </c>
       <c r="C248" s="9">
         <v>2014</v>
@@ -8257,15 +8893,15 @@
         <v>12</v>
       </c>
       <c r="F248" s="5" t="s">
-        <v>711</v>
+        <v>781</v>
       </c>
     </row>
     <row r="249" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A249" s="3" t="s">
-        <v>297</v>
+        <v>338</v>
       </c>
       <c r="B249" s="4" t="s">
-        <v>703</v>
+        <v>773</v>
       </c>
       <c r="C249" s="9">
         <v>1952</v>
@@ -8277,15 +8913,15 @@
         <v>12</v>
       </c>
       <c r="F249" s="5" t="s">
-        <v>704</v>
+        <v>774</v>
       </c>
     </row>
     <row r="250" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A250" s="3" t="s">
-        <v>298</v>
+        <v>340</v>
       </c>
       <c r="B250" s="4" t="s">
-        <v>726</v>
+        <v>796</v>
       </c>
       <c r="C250" s="9">
         <v>1975</v>
@@ -8297,15 +8933,15 @@
         <v>12</v>
       </c>
       <c r="F250" s="5" t="s">
-        <v>727</v>
+        <v>797</v>
       </c>
     </row>
     <row r="251" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A251" s="3" t="s">
-        <v>299</v>
+        <v>343</v>
       </c>
       <c r="B251" s="4" t="s">
-        <v>695</v>
+        <v>765</v>
       </c>
       <c r="C251" s="9">
         <v>2012</v>
@@ -8317,15 +8953,15 @@
         <v>16</v>
       </c>
       <c r="F251" s="5" t="s">
-        <v>696</v>
+        <v>766</v>
       </c>
     </row>
     <row r="252" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A252" s="3" t="s">
-        <v>300</v>
+        <v>344</v>
       </c>
       <c r="B252" s="4" t="s">
-        <v>853</v>
+        <v>923</v>
       </c>
       <c r="C252" s="9">
         <v>1979</v>
@@ -8337,15 +8973,15 @@
         <v>18</v>
       </c>
       <c r="F252" s="5" t="s">
-        <v>854</v>
+        <v>924</v>
       </c>
     </row>
     <row r="253" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A253" s="3" t="s">
-        <v>301</v>
+        <v>345</v>
       </c>
       <c r="B253" s="4" t="s">
-        <v>701</v>
+        <v>771</v>
       </c>
       <c r="C253" s="9">
         <v>1995</v>
@@ -8357,15 +8993,15 @@
         <v>16</v>
       </c>
       <c r="F253" s="5" t="s">
-        <v>702</v>
+        <v>772</v>
       </c>
     </row>
     <row r="254" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A254" s="3" t="s">
-        <v>302</v>
+        <v>346</v>
       </c>
       <c r="B254" s="4" t="s">
-        <v>865</v>
+        <v>935</v>
       </c>
       <c r="C254" s="9">
         <v>2011</v>
@@ -8377,15 +9013,15 @@
         <v>12</v>
       </c>
       <c r="F254" s="5" t="s">
-        <v>864</v>
+        <v>934</v>
       </c>
     </row>
     <row r="255" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A255" s="3" t="s">
-        <v>303</v>
+        <v>347</v>
       </c>
       <c r="B255" s="4" t="s">
-        <v>859</v>
+        <v>929</v>
       </c>
       <c r="C255" s="9">
         <v>2004</v>
@@ -8397,15 +9033,15 @@
         <v>12</v>
       </c>
       <c r="F255" s="5" t="s">
-        <v>860</v>
+        <v>930</v>
       </c>
     </row>
     <row r="256" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A256" s="3" t="s">
-        <v>304</v>
+        <v>348</v>
       </c>
       <c r="B256" s="4" t="s">
-        <v>861</v>
+        <v>931</v>
       </c>
       <c r="C256" s="9">
         <v>2007</v>
@@ -8417,15 +9053,15 @@
         <v>12</v>
       </c>
       <c r="F256" s="5" t="s">
-        <v>862</v>
+        <v>932</v>
       </c>
     </row>
     <row r="257" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A257" s="3" t="s">
-        <v>305</v>
+        <v>349</v>
       </c>
       <c r="B257" s="4" t="s">
-        <v>863</v>
+        <v>933</v>
       </c>
       <c r="C257" s="9">
         <v>2011</v>
@@ -8437,15 +9073,15 @@
         <v>12</v>
       </c>
       <c r="F257" s="5" t="s">
-        <v>864</v>
+        <v>934</v>
       </c>
     </row>
     <row r="258" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A258" s="3" t="s">
-        <v>306</v>
+        <v>350</v>
       </c>
       <c r="B258" s="4" t="s">
-        <v>866</v>
+        <v>936</v>
       </c>
       <c r="C258" s="9">
         <v>2014</v>
@@ -8457,15 +9093,15 @@
         <v>12</v>
       </c>
       <c r="F258" s="5" t="s">
-        <v>867</v>
+        <v>937</v>
       </c>
     </row>
     <row r="259" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A259" s="3" t="s">
-        <v>307</v>
+        <v>351</v>
       </c>
       <c r="B259" s="4" t="s">
-        <v>833</v>
+        <v>903</v>
       </c>
       <c r="C259" s="9">
         <v>1997</v>
@@ -8477,15 +9113,15 @@
         <v>16</v>
       </c>
       <c r="F259" s="5" t="s">
-        <v>829</v>
+        <v>899</v>
       </c>
     </row>
     <row r="260" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A260" s="3" t="s">
-        <v>308</v>
+        <v>352</v>
       </c>
       <c r="B260" s="4" t="s">
-        <v>834</v>
+        <v>904</v>
       </c>
       <c r="C260" s="9">
         <v>2004</v>
@@ -8497,15 +9133,15 @@
         <v>12</v>
       </c>
       <c r="F260" s="5" t="s">
-        <v>830</v>
+        <v>900</v>
       </c>
     </row>
     <row r="261" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A261" s="3" t="s">
-        <v>309</v>
+        <v>353</v>
       </c>
       <c r="B261" s="4" t="s">
-        <v>835</v>
+        <v>905</v>
       </c>
       <c r="C261" s="9">
         <v>2008</v>
@@ -8517,15 +9153,15 @@
         <v>18</v>
       </c>
       <c r="F261" s="5" t="s">
-        <v>831</v>
+        <v>901</v>
       </c>
     </row>
     <row r="262" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A262" s="3" t="s">
-        <v>310</v>
+        <v>354</v>
       </c>
       <c r="B262" s="4" t="s">
-        <v>836</v>
+        <v>906</v>
       </c>
       <c r="C262" s="9">
         <v>2009</v>
@@ -8537,15 +9173,15 @@
         <v>16</v>
       </c>
       <c r="F262" s="5" t="s">
-        <v>832</v>
+        <v>902</v>
       </c>
     </row>
     <row r="263" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A263" s="3" t="s">
-        <v>311</v>
+        <v>355</v>
       </c>
       <c r="B263" s="4" t="s">
-        <v>712</v>
+        <v>782</v>
       </c>
       <c r="C263" s="9">
         <v>2013</v>
@@ -8557,15 +9193,15 @@
         <v>12</v>
       </c>
       <c r="F263" s="5" t="s">
-        <v>713</v>
+        <v>783</v>
       </c>
     </row>
     <row r="264" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A264" s="3" t="s">
-        <v>312</v>
+        <v>358</v>
       </c>
       <c r="B264" s="4" t="s">
-        <v>746</v>
+        <v>816</v>
       </c>
       <c r="C264" s="9">
         <v>2012</v>
@@ -8577,15 +9213,15 @@
         <v>16</v>
       </c>
       <c r="F264" s="5" t="s">
-        <v>747</v>
+        <v>817</v>
       </c>
     </row>
     <row r="265" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A265" s="3" t="s">
-        <v>313</v>
+        <v>359</v>
       </c>
       <c r="B265" s="4" t="s">
-        <v>740</v>
+        <v>810</v>
       </c>
       <c r="C265" s="9">
         <v>2015</v>
@@ -8597,15 +9233,15 @@
         <v>12</v>
       </c>
       <c r="F265" s="5" t="s">
-        <v>741</v>
+        <v>811</v>
       </c>
     </row>
     <row r="266" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A266" s="3" t="s">
-        <v>314</v>
+        <v>360</v>
       </c>
       <c r="B266" s="4" t="s">
-        <v>849</v>
+        <v>919</v>
       </c>
       <c r="C266" s="9">
         <v>2015</v>
@@ -8617,15 +9253,15 @@
         <v>6</v>
       </c>
       <c r="F266" s="5" t="s">
-        <v>850</v>
+        <v>920</v>
       </c>
     </row>
     <row r="267" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A267" s="3" t="s">
-        <v>315</v>
+        <v>362</v>
       </c>
       <c r="B267" s="4" t="s">
-        <v>756</v>
+        <v>826</v>
       </c>
       <c r="C267" s="9">
         <v>2015</v>
@@ -8637,15 +9273,15 @@
         <v>6</v>
       </c>
       <c r="F267" s="5" t="s">
-        <v>757</v>
+        <v>827</v>
       </c>
     </row>
     <row r="268" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A268" s="3" t="s">
-        <v>316</v>
+        <v>366</v>
       </c>
       <c r="B268" s="4" t="s">
-        <v>734</v>
+        <v>804</v>
       </c>
       <c r="C268" s="9">
         <v>2014</v>
@@ -8657,15 +9293,15 @@
         <v>12</v>
       </c>
       <c r="F268" s="5" t="s">
-        <v>735</v>
+        <v>805</v>
       </c>
     </row>
     <row r="269" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A269" s="3" t="s">
-        <v>317</v>
+        <v>367</v>
       </c>
       <c r="B269" s="4" t="s">
-        <v>823</v>
+        <v>893</v>
       </c>
       <c r="C269" s="9">
         <v>2015</v>
@@ -8677,15 +9313,15 @@
         <v>16</v>
       </c>
       <c r="F269" s="5" t="s">
-        <v>824</v>
+        <v>894</v>
       </c>
     </row>
     <row r="270" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A270" s="3" t="s">
-        <v>318</v>
+        <v>368</v>
       </c>
       <c r="B270" s="4" t="s">
-        <v>724</v>
+        <v>794</v>
       </c>
       <c r="C270" s="9">
         <v>2015</v>
@@ -8697,15 +9333,15 @@
         <v>16</v>
       </c>
       <c r="F270" s="5" t="s">
-        <v>725</v>
+        <v>795</v>
       </c>
     </row>
     <row r="271" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A271" s="3" t="s">
-        <v>319</v>
+        <v>369</v>
       </c>
       <c r="B271" s="4" t="s">
-        <v>882</v>
+        <v>952</v>
       </c>
       <c r="C271" s="9">
         <v>2015</v>
@@ -8717,15 +9353,15 @@
         <v>6</v>
       </c>
       <c r="F271" s="5" t="s">
-        <v>883</v>
+        <v>953</v>
       </c>
     </row>
     <row r="272" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A272" s="3" t="s">
-        <v>320</v>
+        <v>370</v>
       </c>
       <c r="B272" s="4" t="s">
-        <v>880</v>
+        <v>950</v>
       </c>
       <c r="C272" s="9">
         <v>1970</v>
@@ -8737,15 +9373,15 @@
         <v>0</v>
       </c>
       <c r="F272" s="5" t="s">
-        <v>881</v>
+        <v>951</v>
       </c>
     </row>
     <row r="273" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A273" s="3" t="s">
-        <v>321</v>
+        <v>371</v>
       </c>
       <c r="B273" s="4" t="s">
-        <v>687</v>
+        <v>757</v>
       </c>
       <c r="C273" s="9">
         <v>1994</v>
@@ -8757,15 +9393,15 @@
         <v>12</v>
       </c>
       <c r="F273" s="5" t="s">
-        <v>688</v>
+        <v>758</v>
       </c>
     </row>
     <row r="274" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A274" s="3" t="s">
-        <v>322</v>
+        <v>372</v>
       </c>
       <c r="B274" s="4" t="s">
-        <v>689</v>
+        <v>759</v>
       </c>
       <c r="C274" s="9">
         <v>1995</v>
@@ -8777,15 +9413,15 @@
         <v>12</v>
       </c>
       <c r="F274" s="5" t="s">
-        <v>690</v>
+        <v>760</v>
       </c>
     </row>
     <row r="275" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A275" s="3" t="s">
-        <v>323</v>
+        <v>373</v>
       </c>
       <c r="B275" s="4" t="s">
-        <v>691</v>
+        <v>761</v>
       </c>
       <c r="C275" s="9">
         <v>1998</v>
@@ -8797,15 +9433,15 @@
         <v>16</v>
       </c>
       <c r="F275" s="5" t="s">
-        <v>692</v>
+        <v>762</v>
       </c>
     </row>
     <row r="276" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A276" s="3" t="s">
-        <v>324</v>
+        <v>375</v>
       </c>
       <c r="B276" s="4" t="s">
-        <v>769</v>
+        <v>839</v>
       </c>
       <c r="C276" s="9">
         <v>2016</v>
@@ -8817,15 +9453,15 @@
         <v>18</v>
       </c>
       <c r="F276" s="5" t="s">
-        <v>770</v>
+        <v>840</v>
       </c>
     </row>
     <row r="277" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A277" s="3" t="s">
-        <v>325</v>
+        <v>377</v>
       </c>
       <c r="B277" s="4" t="s">
-        <v>773</v>
+        <v>843</v>
       </c>
       <c r="C277" s="9">
         <v>2016</v>
@@ -8837,15 +9473,15 @@
         <v>6</v>
       </c>
       <c r="F277" s="5" t="s">
-        <v>774</v>
+        <v>844</v>
       </c>
     </row>
     <row r="278" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A278" s="3" t="s">
-        <v>326</v>
+        <v>380</v>
       </c>
       <c r="B278" s="4" t="s">
-        <v>874</v>
+        <v>944</v>
       </c>
       <c r="C278" s="9">
         <v>2002</v>
@@ -8857,15 +9493,15 @@
         <v>12</v>
       </c>
       <c r="F278" s="5" t="s">
-        <v>875</v>
+        <v>945</v>
       </c>
     </row>
     <row r="279" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A279" s="3" t="s">
-        <v>327</v>
+        <v>381</v>
       </c>
       <c r="B279" s="4" t="s">
-        <v>892</v>
+        <v>962</v>
       </c>
       <c r="C279" s="9">
         <v>2016</v>
@@ -8877,15 +9513,15 @@
         <v>12</v>
       </c>
       <c r="F279" s="5" t="s">
-        <v>893</v>
+        <v>963</v>
       </c>
     </row>
     <row r="280" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A280" s="3" t="s">
-        <v>328</v>
+        <v>382</v>
       </c>
       <c r="B280" s="4" t="s">
-        <v>894</v>
+        <v>964</v>
       </c>
       <c r="C280" s="9">
         <v>2016</v>
@@ -8897,15 +9533,15 @@
         <v>16</v>
       </c>
       <c r="F280" s="5" t="s">
-        <v>895</v>
+        <v>965</v>
       </c>
     </row>
     <row r="281" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A281" s="3" t="s">
-        <v>329</v>
+        <v>383</v>
       </c>
       <c r="B281" s="4" t="s">
-        <v>876</v>
+        <v>946</v>
       </c>
       <c r="C281" s="9">
         <v>2012</v>
@@ -8917,15 +9553,15 @@
         <v>12</v>
       </c>
       <c r="F281" s="5" t="s">
-        <v>877</v>
+        <v>947</v>
       </c>
     </row>
     <row r="282" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A282" s="3" t="s">
-        <v>330</v>
+        <v>384</v>
       </c>
       <c r="B282" s="4" t="s">
-        <v>839</v>
+        <v>909</v>
       </c>
       <c r="C282" s="9">
         <v>1978</v>
@@ -8937,15 +9573,15 @@
         <v>12</v>
       </c>
       <c r="F282" s="5" t="s">
-        <v>840</v>
+        <v>910</v>
       </c>
     </row>
     <row r="283" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A283" s="3" t="s">
-        <v>331</v>
+        <v>385</v>
       </c>
       <c r="B283" s="4" t="s">
-        <v>908</v>
+        <v>978</v>
       </c>
       <c r="C283" s="9">
         <v>2015</v>
@@ -8957,15 +9593,15 @@
         <v>16</v>
       </c>
       <c r="F283" s="5" t="s">
-        <v>909</v>
+        <v>979</v>
       </c>
     </row>
     <row r="284" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A284" s="3" t="s">
-        <v>332</v>
+        <v>387</v>
       </c>
       <c r="B284" s="4" t="s">
-        <v>809</v>
+        <v>879</v>
       </c>
       <c r="C284" s="9">
         <v>2013</v>
@@ -8977,15 +9613,15 @@
         <v>6</v>
       </c>
       <c r="F284" s="5" t="s">
-        <v>810</v>
+        <v>880</v>
       </c>
     </row>
     <row r="285" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A285" s="3" t="s">
-        <v>333</v>
+        <v>388</v>
       </c>
       <c r="B285" s="4" t="s">
-        <v>789</v>
+        <v>859</v>
       </c>
       <c r="C285" s="9">
         <v>2016</v>
@@ -8997,15 +9633,15 @@
         <v>12</v>
       </c>
       <c r="F285" s="5" t="s">
-        <v>790</v>
+        <v>860</v>
       </c>
     </row>
     <row r="286" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A286" s="3" t="s">
-        <v>334</v>
+        <v>390</v>
       </c>
       <c r="B286" s="4" t="s">
-        <v>841</v>
+        <v>911</v>
       </c>
       <c r="C286" s="9">
         <v>1988</v>
@@ -9017,15 +9653,15 @@
         <v>12</v>
       </c>
       <c r="F286" s="5" t="s">
-        <v>842</v>
+        <v>912</v>
       </c>
     </row>
     <row r="287" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A287" s="3" t="s">
-        <v>335</v>
+        <v>391</v>
       </c>
       <c r="B287" s="4" t="s">
-        <v>914</v>
+        <v>984</v>
       </c>
       <c r="C287" s="9">
         <v>2017</v>
@@ -9037,15 +9673,15 @@
         <v>12</v>
       </c>
       <c r="F287" s="5" t="s">
-        <v>915</v>
+        <v>985</v>
       </c>
     </row>
     <row r="288" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A288" s="3" t="s">
-        <v>336</v>
+        <v>392</v>
       </c>
       <c r="B288" s="4" t="s">
-        <v>775</v>
+        <v>845</v>
       </c>
       <c r="C288" s="9">
         <v>2017</v>
@@ -9057,15 +9693,15 @@
         <v>16</v>
       </c>
       <c r="F288" s="5" t="s">
-        <v>776</v>
+        <v>846</v>
       </c>
     </row>
     <row r="289" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A289" s="3" t="s">
-        <v>337</v>
+        <v>396</v>
       </c>
       <c r="B289" s="4" t="s">
-        <v>902</v>
+        <v>972</v>
       </c>
       <c r="C289" s="9">
         <v>2017</v>
@@ -9077,15 +9713,15 @@
         <v>16</v>
       </c>
       <c r="F289" s="5" t="s">
-        <v>903</v>
+        <v>973</v>
       </c>
     </row>
     <row r="290" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A290" s="3" t="s">
-        <v>338</v>
+        <v>403</v>
       </c>
       <c r="B290" s="4" t="s">
-        <v>872</v>
+        <v>942</v>
       </c>
       <c r="C290" s="9">
         <v>1942</v>
@@ -9097,15 +9733,15 @@
         <v>6</v>
       </c>
       <c r="F290" s="5" t="s">
-        <v>873</v>
+        <v>943</v>
       </c>
     </row>
     <row r="291" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A291" s="3" t="s">
-        <v>339</v>
+        <v>404</v>
       </c>
       <c r="B291" s="4" t="s">
-        <v>764</v>
+        <v>834</v>
       </c>
       <c r="C291" s="9">
         <v>1944</v>
@@ -9117,15 +9753,15 @@
         <v>12</v>
       </c>
       <c r="F291" s="5" t="s">
-        <v>765</v>
+        <v>835</v>
       </c>
     </row>
     <row r="292" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A292" s="3" t="s">
-        <v>340</v>
+        <v>405</v>
       </c>
       <c r="B292" s="4" t="s">
-        <v>936</v>
+        <v>1006</v>
       </c>
       <c r="C292" s="9">
         <v>2018</v>
@@ -9137,15 +9773,15 @@
         <v>12</v>
       </c>
       <c r="F292" s="5" t="s">
-        <v>937</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="293" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A293" s="3" t="s">
-        <v>341</v>
+        <v>406</v>
       </c>
       <c r="B293" s="4" t="s">
-        <v>870</v>
+        <v>940</v>
       </c>
       <c r="C293" s="9">
         <v>2018</v>
@@ -9157,15 +9793,15 @@
         <v>6</v>
       </c>
       <c r="F293" s="5" t="s">
-        <v>871</v>
+        <v>941</v>
       </c>
     </row>
     <row r="294" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A294" s="3" t="s">
-        <v>342</v>
+        <v>407</v>
       </c>
       <c r="B294" s="4" t="s">
-        <v>910</v>
+        <v>980</v>
       </c>
       <c r="C294" s="9">
         <v>2015</v>
@@ -9177,15 +9813,15 @@
         <v>16</v>
       </c>
       <c r="F294" s="5" t="s">
-        <v>911</v>
+        <v>981</v>
       </c>
     </row>
     <row r="295" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A295" s="3" t="s">
-        <v>343</v>
+        <v>408</v>
       </c>
       <c r="B295" s="4" t="s">
-        <v>904</v>
+        <v>974</v>
       </c>
       <c r="C295" s="9">
         <v>2013</v>
@@ -9197,15 +9833,15 @@
         <v>12</v>
       </c>
       <c r="F295" s="5" t="s">
-        <v>905</v>
+        <v>975</v>
       </c>
     </row>
     <row r="296" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A296" s="3" t="s">
-        <v>344</v>
+        <v>409</v>
       </c>
       <c r="B296" s="4" t="s">
-        <v>906</v>
+        <v>976</v>
       </c>
       <c r="C296" s="9">
         <v>2013</v>
@@ -9217,15 +9853,15 @@
         <v>18</v>
       </c>
       <c r="F296" s="5" t="s">
-        <v>907</v>
+        <v>977</v>
       </c>
     </row>
     <row r="297" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A297" s="3" t="s">
-        <v>345</v>
+        <v>410</v>
       </c>
       <c r="B297" s="4" t="s">
-        <v>932</v>
+        <v>1002</v>
       </c>
       <c r="C297" s="9">
         <v>2018</v>
@@ -9237,15 +9873,15 @@
         <v>12</v>
       </c>
       <c r="F297" s="5" t="s">
-        <v>933</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="298" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A298" s="3" t="s">
-        <v>346</v>
+        <v>411</v>
       </c>
       <c r="B298" s="4" t="s">
-        <v>754</v>
+        <v>824</v>
       </c>
       <c r="C298" s="9">
         <v>2018</v>
@@ -9257,15 +9893,15 @@
         <v>12</v>
       </c>
       <c r="F298" s="5" t="s">
-        <v>755</v>
+        <v>825</v>
       </c>
     </row>
     <row r="299" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A299" s="3" t="s">
-        <v>347</v>
+        <v>412</v>
       </c>
       <c r="B299" s="4" t="s">
-        <v>843</v>
+        <v>913</v>
       </c>
       <c r="C299" s="9">
         <v>2016</v>
@@ -9277,15 +9913,15 @@
         <v>0</v>
       </c>
       <c r="F299" s="5" t="s">
-        <v>844</v>
+        <v>914</v>
       </c>
     </row>
     <row r="300" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A300" s="3" t="s">
-        <v>348</v>
+        <v>413</v>
       </c>
       <c r="B300" s="4" t="s">
-        <v>851</v>
+        <v>921</v>
       </c>
       <c r="C300" s="9">
         <v>2018</v>
@@ -9297,15 +9933,15 @@
         <v>12</v>
       </c>
       <c r="F300" s="5" t="s">
-        <v>852</v>
+        <v>922</v>
       </c>
     </row>
     <row r="301" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A301" s="3" t="s">
-        <v>349</v>
+        <v>415</v>
       </c>
       <c r="B301" s="4" t="s">
-        <v>787</v>
+        <v>857</v>
       </c>
       <c r="C301" s="9">
         <v>2011</v>
@@ -9317,15 +9953,15 @@
         <v>12</v>
       </c>
       <c r="F301" s="5" t="s">
-        <v>788</v>
+        <v>858</v>
       </c>
     </row>
     <row r="302" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A302" s="3" t="s">
-        <v>350</v>
+        <v>416</v>
       </c>
       <c r="B302" s="4" t="s">
-        <v>738</v>
+        <v>808</v>
       </c>
       <c r="C302" s="9">
         <v>2018</v>
@@ -9337,15 +9973,15 @@
         <v>12</v>
       </c>
       <c r="F302" s="5" t="s">
-        <v>739</v>
+        <v>809</v>
       </c>
     </row>
     <row r="303" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A303" s="3" t="s">
-        <v>351</v>
+        <v>417</v>
       </c>
       <c r="B303" s="4" t="s">
-        <v>781</v>
+        <v>851</v>
       </c>
       <c r="C303" s="9">
         <v>2019</v>
@@ -9357,15 +9993,15 @@
         <v>16</v>
       </c>
       <c r="F303" s="5" t="s">
-        <v>782</v>
+        <v>852</v>
       </c>
     </row>
     <row r="304" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A304" s="3" t="s">
-        <v>352</v>
+        <v>420</v>
       </c>
       <c r="B304" s="4" t="s">
-        <v>918</v>
+        <v>988</v>
       </c>
       <c r="C304" s="9">
         <v>2018</v>
@@ -9377,15 +10013,15 @@
         <v>16</v>
       </c>
       <c r="F304" s="5" t="s">
-        <v>919</v>
+        <v>989</v>
       </c>
     </row>
     <row r="305" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A305" s="3" t="s">
-        <v>353</v>
+        <v>423</v>
       </c>
       <c r="B305" s="4" t="s">
-        <v>868</v>
+        <v>938</v>
       </c>
       <c r="C305" s="9">
         <v>2018</v>
@@ -9397,15 +10033,15 @@
         <v>12</v>
       </c>
       <c r="F305" s="5" t="s">
-        <v>869</v>
+        <v>939</v>
       </c>
     </row>
     <row r="306" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A306" s="3" t="s">
-        <v>354</v>
+        <v>424</v>
       </c>
       <c r="B306" s="4" t="s">
-        <v>752</v>
+        <v>822</v>
       </c>
       <c r="C306" s="9">
         <v>1961</v>
@@ -9417,15 +10053,15 @@
         <v>12</v>
       </c>
       <c r="F306" s="5" t="s">
-        <v>753</v>
+        <v>823</v>
       </c>
     </row>
     <row r="307" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A307" s="3" t="s">
-        <v>355</v>
+        <v>425</v>
       </c>
       <c r="B307" s="4" t="s">
-        <v>777</v>
+        <v>847</v>
       </c>
       <c r="C307" s="9">
         <v>2019</v>
@@ -9437,15 +10073,15 @@
         <v>16</v>
       </c>
       <c r="F307" s="5" t="s">
-        <v>778</v>
+        <v>848</v>
       </c>
     </row>
     <row r="308" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A308" s="3" t="s">
-        <v>356</v>
+        <v>426</v>
       </c>
       <c r="B308" s="4" t="s">
-        <v>934</v>
+        <v>1004</v>
       </c>
       <c r="C308" s="9">
         <v>2019</v>
@@ -9457,15 +10093,15 @@
         <v>12</v>
       </c>
       <c r="F308" s="5" t="s">
-        <v>935</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="309" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A309" s="3" t="s">
-        <v>357</v>
+        <v>427</v>
       </c>
       <c r="B309" s="4" t="s">
-        <v>783</v>
+        <v>853</v>
       </c>
       <c r="C309" s="9">
         <v>2019</v>
@@ -9477,15 +10113,15 @@
         <v>12</v>
       </c>
       <c r="F309" s="5" t="s">
-        <v>784</v>
+        <v>854</v>
       </c>
     </row>
     <row r="310" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A310" s="3" t="s">
-        <v>358</v>
+        <v>428</v>
       </c>
       <c r="B310" s="4" t="s">
-        <v>762</v>
+        <v>832</v>
       </c>
       <c r="C310" s="9">
         <v>2019</v>
@@ -9497,15 +10133,15 @@
         <v>6</v>
       </c>
       <c r="F310" s="5" t="s">
-        <v>763</v>
+        <v>833</v>
       </c>
     </row>
     <row r="311" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A311" s="3" t="s">
-        <v>359</v>
+        <v>429</v>
       </c>
       <c r="B311" s="4" t="s">
-        <v>693</v>
+        <v>763</v>
       </c>
       <c r="C311" s="9">
         <v>2019</v>
@@ -9517,15 +10153,15 @@
         <v>16</v>
       </c>
       <c r="F311" s="5" t="s">
-        <v>694</v>
+        <v>764</v>
       </c>
     </row>
     <row r="312" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A312" s="3" t="s">
-        <v>360</v>
+        <v>430</v>
       </c>
       <c r="B312" s="4" t="s">
-        <v>916</v>
+        <v>986</v>
       </c>
       <c r="C312" s="9">
         <v>2020</v>
@@ -9537,7 +10173,1413 @@
         <v>12</v>
       </c>
       <c r="F312" s="5" t="s">
-        <v>917</v>
+        <v>987</v>
+      </c>
+    </row>
+    <row r="313" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A313" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="B313" s="4" t="s">
+        <v>1010</v>
+      </c>
+      <c r="C313" s="9">
+        <v>2006</v>
+      </c>
+      <c r="D313" s="9">
+        <v>142</v>
+      </c>
+      <c r="E313" s="9">
+        <v>16</v>
+      </c>
+      <c r="F313" s="5" t="s">
+        <v>1011</v>
+      </c>
+    </row>
+    <row r="314" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A314" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="B314" s="4" t="s">
+        <v>1012</v>
+      </c>
+      <c r="C314" s="9">
+        <v>1995</v>
+      </c>
+      <c r="D314" s="9">
+        <v>119</v>
+      </c>
+      <c r="E314" s="9">
+        <v>16</v>
+      </c>
+      <c r="F314" s="5" t="s">
+        <v>1013</v>
+      </c>
+    </row>
+    <row r="315" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A315" s="3" t="s">
+        <v>386</v>
+      </c>
+      <c r="B315" s="4" t="s">
+        <v>1014</v>
+      </c>
+      <c r="C315" s="9">
+        <v>2016</v>
+      </c>
+      <c r="D315" s="9">
+        <v>100</v>
+      </c>
+      <c r="E315" s="9">
+        <v>12</v>
+      </c>
+      <c r="F315" s="5" t="s">
+        <v>1015</v>
+      </c>
+    </row>
+    <row r="316" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A316" s="3" t="s">
+        <v>421</v>
+      </c>
+      <c r="B316" s="4" t="s">
+        <v>1016</v>
+      </c>
+      <c r="C316" s="9">
+        <v>2018</v>
+      </c>
+      <c r="D316" s="9">
+        <v>118</v>
+      </c>
+      <c r="E316" s="9">
+        <v>12</v>
+      </c>
+      <c r="F316" s="5" t="s">
+        <v>1017</v>
+      </c>
+    </row>
+    <row r="317" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A317" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="B317" s="4" t="s">
+        <v>1018</v>
+      </c>
+      <c r="C317" s="9">
+        <v>2011</v>
+      </c>
+      <c r="D317" s="9">
+        <v>97</v>
+      </c>
+      <c r="E317" s="9">
+        <v>12</v>
+      </c>
+      <c r="F317" s="5" t="s">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="318" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A318" s="3" t="s">
+        <v>422</v>
+      </c>
+      <c r="B318" s="4" t="s">
+        <v>1020</v>
+      </c>
+      <c r="C318" s="9">
+        <v>2011</v>
+      </c>
+      <c r="D318" s="9">
+        <v>162</v>
+      </c>
+      <c r="E318" s="9">
+        <v>16</v>
+      </c>
+      <c r="F318" s="5" t="s">
+        <v>1021</v>
+      </c>
+    </row>
+    <row r="319" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A319" s="3" t="s">
+        <v>339</v>
+      </c>
+      <c r="B319" s="4" t="s">
+        <v>1022</v>
+      </c>
+      <c r="C319" s="9">
+        <v>2001</v>
+      </c>
+      <c r="D319" s="9">
+        <v>123</v>
+      </c>
+      <c r="E319" s="9">
+        <v>12</v>
+      </c>
+      <c r="F319" s="5" t="s">
+        <v>1023</v>
+      </c>
+    </row>
+    <row r="320" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A320" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="B320" s="4" t="s">
+        <v>1024</v>
+      </c>
+      <c r="C320" s="9">
+        <v>1999</v>
+      </c>
+      <c r="D320" s="9">
+        <v>104</v>
+      </c>
+      <c r="E320" s="9">
+        <v>12</v>
+      </c>
+      <c r="F320" s="5" t="s">
+        <v>1025</v>
+      </c>
+    </row>
+    <row r="321" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A321" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="B321" s="4" t="s">
+        <v>1026</v>
+      </c>
+      <c r="C321" s="9">
+        <v>2003</v>
+      </c>
+      <c r="D321" s="9">
+        <v>85</v>
+      </c>
+      <c r="E321" s="9">
+        <v>0</v>
+      </c>
+      <c r="F321" s="5" t="s">
+        <v>1027</v>
+      </c>
+    </row>
+    <row r="322" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A322" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="B322" s="4" t="s">
+        <v>1028</v>
+      </c>
+      <c r="C322" s="9">
+        <v>2006</v>
+      </c>
+      <c r="D322" s="9">
+        <v>73</v>
+      </c>
+      <c r="E322" s="9">
+        <v>0</v>
+      </c>
+      <c r="F322" s="5" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="323" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A323" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="B323" s="4" t="s">
+        <v>1030</v>
+      </c>
+      <c r="C323" s="9">
+        <v>1992</v>
+      </c>
+      <c r="D323" s="9">
+        <v>128</v>
+      </c>
+      <c r="E323" s="9">
+        <v>16</v>
+      </c>
+      <c r="F323" s="5" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="324" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A324" s="3" t="s">
+        <v>364</v>
+      </c>
+      <c r="B324" s="4" t="s">
+        <v>1032</v>
+      </c>
+      <c r="C324" s="9">
+        <v>2013</v>
+      </c>
+      <c r="D324" s="9">
+        <v>105</v>
+      </c>
+      <c r="E324" s="9">
+        <v>6</v>
+      </c>
+      <c r="F324" s="5" t="s">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="325" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A325" s="3" t="s">
+        <v>389</v>
+      </c>
+      <c r="B325" s="4" t="s">
+        <v>1034</v>
+      </c>
+      <c r="C325" s="9">
+        <v>2017</v>
+      </c>
+      <c r="D325" s="9">
+        <v>105</v>
+      </c>
+      <c r="E325" s="9">
+        <v>6</v>
+      </c>
+      <c r="F325" s="5" t="s">
+        <v>1035</v>
+      </c>
+    </row>
+    <row r="326" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A326" s="3" t="s">
+        <v>376</v>
+      </c>
+      <c r="B326" s="4" t="s">
+        <v>1036</v>
+      </c>
+      <c r="C326" s="9">
+        <v>2016</v>
+      </c>
+      <c r="D326" s="9">
+        <v>86</v>
+      </c>
+      <c r="E326" s="9">
+        <v>16</v>
+      </c>
+      <c r="F326" s="5" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="327" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A327" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="B327" s="4" t="s">
+        <v>1038</v>
+      </c>
+      <c r="C327" s="9">
+        <v>1989</v>
+      </c>
+      <c r="D327" s="9">
+        <v>121</v>
+      </c>
+      <c r="E327" s="9">
+        <v>12</v>
+      </c>
+      <c r="F327" s="5" t="s">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="328" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A328" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="B328" s="4" t="s">
+        <v>1040</v>
+      </c>
+      <c r="C328" s="9">
+        <v>1992</v>
+      </c>
+      <c r="D328" s="9">
+        <v>126</v>
+      </c>
+      <c r="E328" s="9">
+        <v>12</v>
+      </c>
+      <c r="F328" s="5" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="329" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A329" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="B329" s="4" t="s">
+        <v>1042</v>
+      </c>
+      <c r="C329" s="9">
+        <v>1995</v>
+      </c>
+      <c r="D329" s="9">
+        <v>117</v>
+      </c>
+      <c r="E329" s="9">
+        <v>12</v>
+      </c>
+      <c r="F329" s="5" t="s">
+        <v>1043</v>
+      </c>
+    </row>
+    <row r="330" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A330" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="B330" s="4" t="s">
+        <v>1045</v>
+      </c>
+      <c r="C330" s="9">
+        <v>1997</v>
+      </c>
+      <c r="D330" s="9">
+        <v>125</v>
+      </c>
+      <c r="E330" s="9">
+        <v>12</v>
+      </c>
+      <c r="F330" s="5" t="s">
+        <v>1044</v>
+      </c>
+    </row>
+    <row r="331" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A331" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="B331" s="4" t="s">
+        <v>1046</v>
+      </c>
+      <c r="C331" s="9">
+        <v>2008</v>
+      </c>
+      <c r="D331" s="9">
+        <v>153</v>
+      </c>
+      <c r="E331" s="9">
+        <v>16</v>
+      </c>
+      <c r="F331" s="5" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="332" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A332" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="B332" s="4" t="s">
+        <v>1048</v>
+      </c>
+      <c r="C332" s="9">
+        <v>2012</v>
+      </c>
+      <c r="D332" s="9">
+        <v>164</v>
+      </c>
+      <c r="E332" s="9">
+        <v>12</v>
+      </c>
+      <c r="F332" s="5" t="s">
+        <v>1049</v>
+      </c>
+    </row>
+    <row r="333" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A333" s="3" t="s">
+        <v>363</v>
+      </c>
+      <c r="B333" s="4" t="s">
+        <v>1050</v>
+      </c>
+      <c r="C333" s="9">
+        <v>2015</v>
+      </c>
+      <c r="D333" s="9">
+        <v>80</v>
+      </c>
+      <c r="E333" s="9">
+        <v>16</v>
+      </c>
+      <c r="F333" s="5" t="s">
+        <v>1051</v>
+      </c>
+    </row>
+    <row r="334" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A334" s="3" t="s">
+        <v>374</v>
+      </c>
+      <c r="B334" s="4" t="s">
+        <v>1052</v>
+      </c>
+      <c r="C334" s="9">
+        <v>2016</v>
+      </c>
+      <c r="D334" s="9">
+        <v>183</v>
+      </c>
+      <c r="E334" s="9">
+        <v>12</v>
+      </c>
+      <c r="F334" s="5" t="s">
+        <v>1053</v>
+      </c>
+    </row>
+    <row r="335" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A335" s="3" t="s">
+        <v>401</v>
+      </c>
+      <c r="B335" s="4" t="s">
+        <v>1054</v>
+      </c>
+      <c r="C335" s="9">
+        <v>2017</v>
+      </c>
+      <c r="D335" s="9">
+        <v>122</v>
+      </c>
+      <c r="E335" s="9">
+        <v>0</v>
+      </c>
+      <c r="F335" s="5" t="s">
+        <v>1055</v>
+      </c>
+    </row>
+    <row r="336" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A336" s="3" t="s">
+        <v>316</v>
+      </c>
+      <c r="B336" s="4" t="s">
+        <v>1056</v>
+      </c>
+      <c r="C336" s="9">
+        <v>2014</v>
+      </c>
+      <c r="D336" s="9">
+        <v>108</v>
+      </c>
+      <c r="E336" s="9">
+        <v>6</v>
+      </c>
+      <c r="F336" s="5" t="s">
+        <v>1057</v>
+      </c>
+    </row>
+    <row r="337" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A337" s="3" t="s">
+        <v>393</v>
+      </c>
+      <c r="B337" s="4" t="s">
+        <v>1058</v>
+      </c>
+      <c r="C337" s="9">
+        <v>2017</v>
+      </c>
+      <c r="D337" s="9">
+        <v>121</v>
+      </c>
+      <c r="E337" s="9">
+        <v>12</v>
+      </c>
+      <c r="F337" s="5" t="s">
+        <v>1059</v>
+      </c>
+    </row>
+    <row r="338" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A338" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="B338" s="4" t="s">
+        <v>1060</v>
+      </c>
+      <c r="C338" s="9">
+        <v>2005</v>
+      </c>
+      <c r="D338" s="9">
+        <v>118</v>
+      </c>
+      <c r="E338" s="9">
+        <v>12</v>
+      </c>
+      <c r="F338" s="5" t="s">
+        <v>1061</v>
+      </c>
+    </row>
+    <row r="339" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A339" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="B339" s="4" t="s">
+        <v>1062</v>
+      </c>
+      <c r="C339" s="9">
+        <v>2008</v>
+      </c>
+      <c r="D339" s="9">
+        <v>99</v>
+      </c>
+      <c r="E339" s="9">
+        <v>0</v>
+      </c>
+      <c r="F339" s="5" t="s">
+        <v>1063</v>
+      </c>
+    </row>
+    <row r="340" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A340" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="B340" s="4" t="s">
+        <v>1064</v>
+      </c>
+      <c r="C340" s="9">
+        <v>1988</v>
+      </c>
+      <c r="D340" s="9">
+        <v>92</v>
+      </c>
+      <c r="E340" s="9">
+        <v>12</v>
+      </c>
+      <c r="F340" s="5" t="s">
+        <v>1065</v>
+      </c>
+    </row>
+    <row r="341" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A341" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="B341" s="4" t="s">
+        <v>1066</v>
+      </c>
+      <c r="C341" s="9">
+        <v>1998</v>
+      </c>
+      <c r="D341" s="9">
+        <v>95</v>
+      </c>
+      <c r="E341" s="9">
+        <v>16</v>
+      </c>
+      <c r="F341" s="5" t="s">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="342" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A342" s="3" t="s">
+        <v>341</v>
+      </c>
+      <c r="B342" s="4" t="s">
+        <v>1068</v>
+      </c>
+      <c r="C342" s="9">
+        <v>2013</v>
+      </c>
+      <c r="D342" s="9">
+        <v>104</v>
+      </c>
+      <c r="E342" s="9">
+        <v>12</v>
+      </c>
+      <c r="F342" s="5" t="s">
+        <v>1069</v>
+      </c>
+      <c r="G342" t="s">
+        <v>1070</v>
+      </c>
+    </row>
+    <row r="343" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A343" s="3" t="s">
+        <v>356</v>
+      </c>
+      <c r="B343" s="4" t="s">
+        <v>1071</v>
+      </c>
+      <c r="C343" s="9">
+        <v>2014</v>
+      </c>
+      <c r="D343" s="9">
+        <v>91</v>
+      </c>
+      <c r="E343" s="9">
+        <v>12</v>
+      </c>
+      <c r="F343" s="5" t="s">
+        <v>1072</v>
+      </c>
+    </row>
+    <row r="344" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A344" s="3" t="s">
+        <v>297</v>
+      </c>
+      <c r="B344" s="4" t="s">
+        <v>1073</v>
+      </c>
+      <c r="C344" s="9">
+        <v>1999</v>
+      </c>
+      <c r="D344" s="9">
+        <v>94</v>
+      </c>
+      <c r="E344" s="9">
+        <v>12</v>
+      </c>
+      <c r="F344" s="5" t="s">
+        <v>1074</v>
+      </c>
+    </row>
+    <row r="345" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A345" s="3" t="s">
+        <v>361</v>
+      </c>
+      <c r="B345" s="4" t="s">
+        <v>1075</v>
+      </c>
+      <c r="C345" s="9">
+        <v>2014</v>
+      </c>
+      <c r="D345" s="9">
+        <v>110</v>
+      </c>
+      <c r="E345" s="9">
+        <v>12</v>
+      </c>
+      <c r="F345" s="5" t="s">
+        <v>1076</v>
+      </c>
+    </row>
+    <row r="346" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A346" s="3" t="s">
+        <v>398</v>
+      </c>
+      <c r="B346" s="4" t="s">
+        <v>1078</v>
+      </c>
+      <c r="C346" s="9">
+        <v>1991</v>
+      </c>
+      <c r="D346" s="9">
+        <v>94</v>
+      </c>
+      <c r="E346" s="9">
+        <v>12</v>
+      </c>
+      <c r="F346" s="5" t="s">
+        <v>1077</v>
+      </c>
+    </row>
+    <row r="347" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A347" s="3" t="s">
+        <v>365</v>
+      </c>
+      <c r="B347" s="4" t="s">
+        <v>1080</v>
+      </c>
+      <c r="C347" s="9">
+        <v>2020</v>
+      </c>
+      <c r="D347" s="9">
+        <v>93</v>
+      </c>
+      <c r="E347" s="9">
+        <v>12</v>
+      </c>
+      <c r="F347" s="5" t="s">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="348" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A348" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="B348" s="4" t="s">
+        <v>1081</v>
+      </c>
+      <c r="C348" s="9">
+        <v>2000</v>
+      </c>
+      <c r="D348" s="9">
+        <v>111</v>
+      </c>
+      <c r="E348" s="9">
+        <v>6</v>
+      </c>
+      <c r="F348" s="5" t="s">
+        <v>1082</v>
+      </c>
+    </row>
+    <row r="349" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A349" s="3" t="s">
+        <v>419</v>
+      </c>
+      <c r="B349" s="4" t="s">
+        <v>1083</v>
+      </c>
+      <c r="C349" s="9">
+        <v>2020</v>
+      </c>
+      <c r="D349" s="9">
+        <v>109</v>
+      </c>
+      <c r="E349" s="9">
+        <v>16</v>
+      </c>
+      <c r="F349" s="5" t="s">
+        <v>1084</v>
+      </c>
+    </row>
+    <row r="350" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A350" s="3" t="s">
+        <v>414</v>
+      </c>
+      <c r="B350" s="4" t="s">
+        <v>1085</v>
+      </c>
+      <c r="C350" s="9">
+        <v>1992</v>
+      </c>
+      <c r="D350" s="9">
+        <v>139</v>
+      </c>
+      <c r="E350" s="9">
+        <v>16</v>
+      </c>
+      <c r="F350" s="5" t="s">
+        <v>1086</v>
+      </c>
+    </row>
+    <row r="351" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A351" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="B351" s="4" t="s">
+        <v>1087</v>
+      </c>
+      <c r="C351" s="9">
+        <v>2022</v>
+      </c>
+      <c r="D351" s="9">
+        <v>125</v>
+      </c>
+      <c r="E351" s="9">
+        <v>12</v>
+      </c>
+      <c r="F351" s="5" t="s">
+        <v>1088</v>
+      </c>
+    </row>
+    <row r="352" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A352" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="B352" s="4" t="s">
+        <v>1089</v>
+      </c>
+      <c r="C352" s="9">
+        <v>2001</v>
+      </c>
+      <c r="D352" s="9">
+        <v>152</v>
+      </c>
+      <c r="E352" s="9">
+        <v>16</v>
+      </c>
+      <c r="F352" s="5" t="s">
+        <v>1090</v>
+      </c>
+    </row>
+    <row r="353" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A353" s="3" t="s">
+        <v>400</v>
+      </c>
+      <c r="B353" s="4" t="s">
+        <v>1091</v>
+      </c>
+      <c r="C353" s="9">
+        <v>2018</v>
+      </c>
+      <c r="D353" s="9">
+        <v>135</v>
+      </c>
+      <c r="E353" s="9">
+        <v>12</v>
+      </c>
+      <c r="F353" s="5" t="s">
+        <v>1092</v>
+      </c>
+    </row>
+    <row r="354" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A354" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="B354" s="4" t="s">
+        <v>1093</v>
+      </c>
+      <c r="C354" s="9">
+        <v>2010</v>
+      </c>
+      <c r="D354" s="9">
+        <v>110</v>
+      </c>
+      <c r="E354" s="9">
+        <v>16</v>
+      </c>
+      <c r="F354" s="5" t="s">
+        <v>1094</v>
+      </c>
+    </row>
+    <row r="355" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A355" s="3" t="s">
+        <v>399</v>
+      </c>
+      <c r="B355" s="4" t="s">
+        <v>1095</v>
+      </c>
+      <c r="C355" s="9">
+        <v>2018</v>
+      </c>
+      <c r="D355" s="9">
+        <v>105</v>
+      </c>
+      <c r="E355" s="9">
+        <v>16</v>
+      </c>
+      <c r="F355" s="5" t="s">
+        <v>1096</v>
+      </c>
+    </row>
+    <row r="356" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A356" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="B356" s="4" t="s">
+        <v>1097</v>
+      </c>
+      <c r="C356" s="9">
+        <v>2021</v>
+      </c>
+      <c r="D356" s="9">
+        <v>134</v>
+      </c>
+      <c r="E356" s="9">
+        <v>12</v>
+      </c>
+      <c r="F356" s="5" t="s">
+        <v>1098</v>
+      </c>
+    </row>
+    <row r="357" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A357" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="B357" s="4" t="s">
+        <v>1099</v>
+      </c>
+      <c r="C357" s="9">
+        <v>1998</v>
+      </c>
+      <c r="D357" s="9">
+        <v>119</v>
+      </c>
+      <c r="E357" s="9">
+        <v>18</v>
+      </c>
+      <c r="F357" s="5" t="s">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="358" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A358" s="3" t="s">
+        <v>330</v>
+      </c>
+      <c r="B358" s="4" t="s">
+        <v>1101</v>
+      </c>
+      <c r="C358" s="9">
+        <v>1982</v>
+      </c>
+      <c r="D358" s="9">
+        <v>117</v>
+      </c>
+      <c r="E358" s="9">
+        <v>12</v>
+      </c>
+      <c r="F358" s="5" t="s">
+        <v>1102</v>
+      </c>
+    </row>
+    <row r="359" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A359" s="3" t="s">
+        <v>397</v>
+      </c>
+      <c r="B359" s="4" t="s">
+        <v>1103</v>
+      </c>
+      <c r="C359" s="9">
+        <v>2017</v>
+      </c>
+      <c r="D359" s="9">
+        <v>164</v>
+      </c>
+      <c r="E359" s="9">
+        <v>12</v>
+      </c>
+      <c r="F359" s="5" t="s">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="360" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A360" s="3" t="s">
+        <v>402</v>
+      </c>
+      <c r="B360" s="4" t="s">
+        <v>1105</v>
+      </c>
+      <c r="C360" s="9">
+        <v>1988</v>
+      </c>
+      <c r="D360" s="9">
+        <v>92</v>
+      </c>
+      <c r="E360" s="9">
+        <v>18</v>
+      </c>
+      <c r="F360" s="5" t="s">
+        <v>1106</v>
+      </c>
+    </row>
+    <row r="361" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A361" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="B361" s="4" t="s">
+        <v>1107</v>
+      </c>
+      <c r="C361" s="9">
+        <v>2023</v>
+      </c>
+      <c r="D361" s="9">
+        <v>128</v>
+      </c>
+      <c r="E361" s="9">
+        <v>12</v>
+      </c>
+      <c r="F361" s="5" t="s">
+        <v>1108</v>
+      </c>
+    </row>
+    <row r="362" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A362" s="3" t="s">
+        <v>418</v>
+      </c>
+      <c r="B362" s="4" t="s">
+        <v>1109</v>
+      </c>
+      <c r="C362" s="9">
+        <v>2018</v>
+      </c>
+      <c r="D362" s="9">
+        <v>133</v>
+      </c>
+      <c r="E362" s="9">
+        <v>6</v>
+      </c>
+      <c r="F362" s="5" t="s">
+        <v>1110</v>
+      </c>
+    </row>
+    <row r="363" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A363" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="B363" s="4" t="s">
+        <v>1111</v>
+      </c>
+      <c r="C363" s="9">
+        <v>2010</v>
+      </c>
+      <c r="D363" s="9">
+        <v>118</v>
+      </c>
+      <c r="E363" s="9">
+        <v>16</v>
+      </c>
+      <c r="F363" s="5" t="s">
+        <v>1112</v>
+      </c>
+    </row>
+    <row r="364" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A364" s="3" t="s">
+        <v>301</v>
+      </c>
+      <c r="B364" s="4" t="s">
+        <v>1113</v>
+      </c>
+      <c r="C364" s="9">
+        <v>2006</v>
+      </c>
+      <c r="D364" s="9">
+        <v>86</v>
+      </c>
+      <c r="E364" s="9">
+        <v>12</v>
+      </c>
+      <c r="F364" s="5" t="s">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="365" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A365" s="3" t="s">
+        <v>395</v>
+      </c>
+      <c r="B365" s="4" t="s">
+        <v>1115</v>
+      </c>
+      <c r="C365" s="9">
+        <v>2017</v>
+      </c>
+      <c r="D365" s="9">
+        <v>108</v>
+      </c>
+      <c r="E365" s="9">
+        <v>0</v>
+      </c>
+      <c r="F365" s="5" t="s">
+        <v>1116</v>
+      </c>
+    </row>
+    <row r="366" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A366" s="3" t="s">
+        <v>335</v>
+      </c>
+      <c r="B366" s="4" t="s">
+        <v>1117</v>
+      </c>
+      <c r="C366" s="9">
+        <v>2021</v>
+      </c>
+      <c r="D366" s="9">
+        <v>101</v>
+      </c>
+      <c r="E366" s="9">
+        <v>16</v>
+      </c>
+      <c r="F366" s="5" t="s">
+        <v>1118</v>
+      </c>
+    </row>
+    <row r="367" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A367" s="3" t="s">
+        <v>394</v>
+      </c>
+      <c r="B367" s="4" t="s">
+        <v>1119</v>
+      </c>
+      <c r="C367" s="9">
+        <v>2016</v>
+      </c>
+      <c r="D367" s="9">
+        <v>131</v>
+      </c>
+      <c r="E367" s="9">
+        <v>12</v>
+      </c>
+      <c r="F367" s="5" t="s">
+        <v>1120</v>
+      </c>
+    </row>
+    <row r="368" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A368" s="3" t="s">
+        <v>293</v>
+      </c>
+      <c r="B368" s="4" t="s">
+        <v>1121</v>
+      </c>
+      <c r="C368" s="9">
+        <v>2013</v>
+      </c>
+      <c r="D368" s="9">
+        <v>93</v>
+      </c>
+      <c r="E368" s="9">
+        <v>18</v>
+      </c>
+      <c r="F368" s="5" t="s">
+        <v>1122</v>
+      </c>
+    </row>
+    <row r="369" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A369" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="B369" s="4" t="s">
+        <v>1124</v>
+      </c>
+      <c r="C369" s="9">
+        <v>2000</v>
+      </c>
+      <c r="D369" s="9">
+        <v>90</v>
+      </c>
+      <c r="E369" s="9">
+        <v>6</v>
+      </c>
+      <c r="F369" s="5" t="s">
+        <v>1123</v>
+      </c>
+    </row>
+    <row r="370" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A370" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="B370" s="4" t="s">
+        <v>1125</v>
+      </c>
+      <c r="C370" s="9">
+        <v>1995</v>
+      </c>
+      <c r="D370" s="9">
+        <v>182</v>
+      </c>
+      <c r="E370" s="9">
+        <v>16</v>
+      </c>
+      <c r="F370" s="5" t="s">
+        <v>1126</v>
+      </c>
+    </row>
+    <row r="371" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A371" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="B371" s="4" t="s">
+        <v>1127</v>
+      </c>
+      <c r="C371" s="9">
+        <v>2001</v>
+      </c>
+      <c r="D371" s="9">
+        <v>97</v>
+      </c>
+      <c r="E371" s="9">
+        <v>12</v>
+      </c>
+      <c r="F371" s="5" t="s">
+        <v>1128</v>
+      </c>
+    </row>
+    <row r="372" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A372" s="3" t="s">
+        <v>379</v>
+      </c>
+      <c r="B372" s="4" t="s">
+        <v>1129</v>
+      </c>
+      <c r="C372" s="9">
+        <v>2016</v>
+      </c>
+      <c r="D372" s="9">
+        <v>123</v>
+      </c>
+      <c r="E372" s="9">
+        <v>0</v>
+      </c>
+      <c r="F372" s="5" t="s">
+        <v>1130</v>
+      </c>
+      <c r="G372" t="s">
+        <v>1131</v>
+      </c>
+    </row>
+    <row r="373" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A373" s="3" t="s">
+        <v>300</v>
+      </c>
+      <c r="B373" s="4" t="s">
+        <v>1132</v>
+      </c>
+      <c r="C373" s="9">
+        <v>2005</v>
+      </c>
+      <c r="D373" s="9">
+        <v>106</v>
+      </c>
+      <c r="E373" s="9">
+        <v>0</v>
+      </c>
+      <c r="F373" s="5" t="s">
+        <v>1133</v>
+      </c>
+    </row>
+    <row r="374" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A374" s="3" t="s">
+        <v>357</v>
+      </c>
+      <c r="B374" s="4" t="s">
+        <v>1134</v>
+      </c>
+      <c r="C374" s="9">
+        <v>2014</v>
+      </c>
+      <c r="D374" s="9">
+        <v>111</v>
+      </c>
+      <c r="E374" s="9">
+        <v>16</v>
+      </c>
+      <c r="F374" s="5" t="s">
+        <v>1135</v>
+      </c>
+    </row>
+    <row r="375" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A375" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="B375" s="4" t="s">
+        <v>1136</v>
+      </c>
+      <c r="C375" s="9">
+        <v>2009</v>
+      </c>
+      <c r="D375" s="9">
+        <v>110</v>
+      </c>
+      <c r="E375" s="9">
+        <v>12</v>
+      </c>
+      <c r="F375" s="5" t="s">
+        <v>1137</v>
+      </c>
+    </row>
+    <row r="376" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A376" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="B376" s="4" t="s">
+        <v>1138</v>
+      </c>
+      <c r="C376" s="9">
+        <v>2008</v>
+      </c>
+      <c r="D376" s="9">
+        <v>107</v>
+      </c>
+      <c r="E376" s="9">
+        <v>16</v>
+      </c>
+      <c r="F376" s="5" t="s">
+        <v>1139</v>
+      </c>
+    </row>
+    <row r="377" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A377" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="B377" s="4" t="s">
+        <v>1140</v>
+      </c>
+      <c r="C377" s="9">
+        <v>1999</v>
+      </c>
+      <c r="D377" s="9">
+        <v>101</v>
+      </c>
+      <c r="E377" s="9">
+        <v>0</v>
+      </c>
+      <c r="F377" s="5" t="s">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="378" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A378" s="3" t="s">
+        <v>304</v>
+      </c>
+      <c r="B378" s="4" t="s">
+        <v>1142</v>
+      </c>
+      <c r="C378" s="9">
+        <v>1979</v>
+      </c>
+      <c r="D378" s="9">
+        <v>98</v>
+      </c>
+      <c r="E378" s="9">
+        <v>6</v>
+      </c>
+      <c r="F378" s="5" t="s">
+        <v>1143</v>
+      </c>
+    </row>
+    <row r="379" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A379" s="3" t="s">
+        <v>342</v>
+      </c>
+      <c r="B379" s="4" t="s">
+        <v>1144</v>
+      </c>
+      <c r="C379" s="9">
+        <v>2010</v>
+      </c>
+      <c r="D379" s="9">
+        <v>119</v>
+      </c>
+      <c r="E379" s="9">
+        <v>6</v>
+      </c>
+      <c r="F379" s="5" t="s">
+        <v>1145</v>
+      </c>
+    </row>
+    <row r="380" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A380" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="B380" s="4" t="s">
+        <v>1146</v>
+      </c>
+      <c r="C380" s="9">
+        <v>2008</v>
+      </c>
+      <c r="D380" s="9">
+        <v>96</v>
+      </c>
+      <c r="E380" s="9">
+        <v>12</v>
+      </c>
+      <c r="F380" s="5" t="s">
+        <v>1147</v>
+      </c>
+    </row>
+    <row r="381" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A381" s="3" t="s">
+        <v>378</v>
+      </c>
+      <c r="B381" s="4" t="s">
+        <v>1148</v>
+      </c>
+      <c r="C381" s="9">
+        <v>1988</v>
+      </c>
+      <c r="D381" s="9">
+        <v>102</v>
+      </c>
+      <c r="E381" s="9">
+        <v>12</v>
+      </c>
+      <c r="F381" s="5" t="s">
+        <v>1149</v>
+      </c>
+    </row>
+    <row r="382" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A382" s="3" t="s">
+        <v>334</v>
+      </c>
+      <c r="B382" s="4" t="s">
+        <v>1150</v>
+      </c>
+      <c r="C382" s="9">
+        <v>1996</v>
+      </c>
+      <c r="D382" s="9">
+        <v>96</v>
+      </c>
+      <c r="E382" s="9">
+        <v>12</v>
+      </c>
+      <c r="F382" s="5" t="s">
+        <v>1151</v>
       </c>
     </row>
   </sheetData>

--- a/Web-Tools/MB Video-Base/MB Video-Base.xlsx
+++ b/Web-Tools/MB Video-Base/MB Video-Base.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mario/Documents/GitHub/homepage/Web-Tools/MB Video-Base/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B471C583-1D35-BE43-B6FD-C609C2ED57B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{662BC07C-A33A-6E4A-AC6D-54B5E62EC3C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="740" windowWidth="30240" windowHeight="18900" xr2:uid="{6AEA2D50-42AE-224B-8400-6BD6B3C7B91A}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1154" uniqueCount="1152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1298" uniqueCount="1295">
   <si>
     <t>Hulk</t>
   </si>
@@ -740,12 +740,27 @@
     <t>0218</t>
   </si>
   <si>
+    <t>0227</t>
+  </si>
+  <si>
+    <t>0229</t>
+  </si>
+  <si>
+    <t>0233</t>
+  </si>
+  <si>
     <t>0237</t>
   </si>
   <si>
     <t>0241</t>
   </si>
   <si>
+    <t>0246</t>
+  </si>
+  <si>
+    <t>0247</t>
+  </si>
+  <si>
     <t>0254</t>
   </si>
   <si>
@@ -818,21 +833,36 @@
     <t>0336</t>
   </si>
   <si>
+    <t>0338</t>
+  </si>
+  <si>
     <t>0354</t>
   </si>
   <si>
+    <t>0365</t>
+  </si>
+  <si>
     <t>0369</t>
   </si>
   <si>
     <t>0370</t>
   </si>
   <si>
+    <t>0371</t>
+  </si>
+  <si>
     <t>0377</t>
   </si>
   <si>
+    <t>0390</t>
+  </si>
+  <si>
     <t>0396</t>
   </si>
   <si>
+    <t>0400</t>
+  </si>
+  <si>
     <t>0402</t>
   </si>
   <si>
@@ -857,6 +887,9 @@
     <t>0470</t>
   </si>
   <si>
+    <t>0472</t>
+  </si>
+  <si>
     <t>0492</t>
   </si>
   <si>
@@ -878,6 +911,9 @@
     <t>0533</t>
   </si>
   <si>
+    <t>0536</t>
+  </si>
+  <si>
     <t>0540</t>
   </si>
   <si>
@@ -893,6 +929,9 @@
     <t>0594</t>
   </si>
   <si>
+    <t>0612</t>
+  </si>
+  <si>
     <t>0614</t>
   </si>
   <si>
@@ -902,6 +941,9 @@
     <t>0624</t>
   </si>
   <si>
+    <t>0627</t>
+  </si>
+  <si>
     <t>0639</t>
   </si>
   <si>
@@ -911,6 +953,9 @@
     <t>0666</t>
   </si>
   <si>
+    <t>0674</t>
+  </si>
+  <si>
     <t>0677</t>
   </si>
   <si>
@@ -938,6 +983,12 @@
     <t>0718</t>
   </si>
   <si>
+    <t>0719</t>
+  </si>
+  <si>
+    <t>0738</t>
+  </si>
+  <si>
     <t>0758</t>
   </si>
   <si>
@@ -953,6 +1004,9 @@
     <t>0769</t>
   </si>
   <si>
+    <t>0787</t>
+  </si>
+  <si>
     <t>0794</t>
   </si>
   <si>
@@ -998,6 +1052,18 @@
     <t>0919</t>
   </si>
   <si>
+    <t>0920</t>
+  </si>
+  <si>
+    <t>0921</t>
+  </si>
+  <si>
+    <t>0922</t>
+  </si>
+  <si>
+    <t>0926</t>
+  </si>
+  <si>
     <t>0932</t>
   </si>
   <si>
@@ -1010,6 +1076,9 @@
     <t>0944</t>
   </si>
   <si>
+    <t>0950</t>
+  </si>
+  <si>
     <t>0954</t>
   </si>
   <si>
@@ -1022,6 +1091,12 @@
     <t>0966</t>
   </si>
   <si>
+    <t>0967</t>
+  </si>
+  <si>
+    <t>0968</t>
+  </si>
+  <si>
     <t>0972</t>
   </si>
   <si>
@@ -1034,6 +1109,9 @@
     <t>0980</t>
   </si>
   <si>
+    <t>0982</t>
+  </si>
+  <si>
     <t>0983</t>
   </si>
   <si>
@@ -1058,12 +1136,18 @@
     <t>1018</t>
   </si>
   <si>
+    <t>1034</t>
+  </si>
+  <si>
     <t>1036</t>
   </si>
   <si>
     <t>1037</t>
   </si>
   <si>
+    <t>1042</t>
+  </si>
+  <si>
     <t>1047</t>
   </si>
   <si>
@@ -1073,9 +1157,18 @@
     <t>1055</t>
   </si>
   <si>
+    <t>1056</t>
+  </si>
+  <si>
     <t>1066</t>
   </si>
   <si>
+    <t>1073</t>
+  </si>
+  <si>
+    <t>1096</t>
+  </si>
+  <si>
     <t>1100</t>
   </si>
   <si>
@@ -1091,6 +1184,9 @@
     <t>1105</t>
   </si>
   <si>
+    <t>1114</t>
+  </si>
+  <si>
     <t>1123</t>
   </si>
   <si>
@@ -1118,15 +1214,27 @@
     <t>1181</t>
   </si>
   <si>
+    <t>1182</t>
+  </si>
+  <si>
     <t>1183</t>
   </si>
   <si>
     <t>1192</t>
   </si>
   <si>
+    <t>1193</t>
+  </si>
+  <si>
     <t>1199</t>
   </si>
   <si>
+    <t>1204</t>
+  </si>
+  <si>
+    <t>1205</t>
+  </si>
+  <si>
     <t>1212</t>
   </si>
   <si>
@@ -1145,6 +1253,9 @@
     <t>1229</t>
   </si>
   <si>
+    <t>1240</t>
+  </si>
+  <si>
     <t>1241</t>
   </si>
   <si>
@@ -1169,9 +1280,15 @@
     <t>1282</t>
   </si>
   <si>
+    <t>1295</t>
+  </si>
+  <si>
     <t>1300</t>
   </si>
   <si>
+    <t>1301</t>
+  </si>
+  <si>
     <t>1316</t>
   </si>
   <si>
@@ -1190,6 +1307,9 @@
     <t>1341</t>
   </si>
   <si>
+    <t>1342</t>
+  </si>
+  <si>
     <t>1350</t>
   </si>
   <si>
@@ -1205,6 +1325,12 @@
     <t>1364</t>
   </si>
   <si>
+    <t>1365</t>
+  </si>
+  <si>
+    <t>1366</t>
+  </si>
+  <si>
     <t>1387</t>
   </si>
   <si>
@@ -1232,6 +1358,9 @@
     <t>1445</t>
   </si>
   <si>
+    <t>1456</t>
+  </si>
+  <si>
     <t>1468</t>
   </si>
   <si>
@@ -1277,15 +1406,27 @@
     <t>1533</t>
   </si>
   <si>
+    <t>1542</t>
+  </si>
+  <si>
+    <t>1543</t>
+  </si>
+  <si>
     <t>1549</t>
   </si>
   <si>
+    <t>1550</t>
+  </si>
+  <si>
     <t>1558</t>
   </si>
   <si>
     <t>1560</t>
   </si>
   <si>
+    <t>1562</t>
+  </si>
+  <si>
     <t>1584</t>
   </si>
   <si>
@@ -1310,6 +1451,9 @@
     <t>1616</t>
   </si>
   <si>
+    <t>1624</t>
+  </si>
+  <si>
     <t>1626</t>
   </si>
   <si>
@@ -3492,6 +3636,291 @@
   </si>
   <si>
     <t xml:space="preserve">Steven Kovacs wurde von seiner Freundin Robin Harris aus seinem Apartment geworfen. Für die Elektrik in seiner neuen Wohnung engagiert er den Kabeltechniker Chip Douglas. Steven gibt vor, sich für die Arbeit des einsamen Chip zu interessieren. Dieser deutet das Interesse als ein Freundschaftsgesuch. Und tatsächlich entwickelt sich zwischen den beiden Männern eine private Bande. Aber Chip leistet sich einen Fehler, als er glaubt die richtige Lösung für Stevens Liebeskummer parat zu haben, der immer noch über die Trennung von seiner Ex-Freundin Robin trauert. Chips eigenmächtiger Plan führt schließlich dazu, dass sich Steven hintergangen fühlt und sich von Chip distanziert. Damit kann Chip aber überhaupt nicht gut umgehen und dreht völlig durch. </t>
+  </si>
+  <si>
+    <t>Cadavres</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Die Nacht von Halloween: Raymond hilft seiner Mutter, Selbstmord zu begehen. In seinem Schoss hat er die Waffe, die seine Mutter mit ihren Lippen umschließt. Dann drückt er den Abzug. In einer Art Schock beseitigt er die Leiche und entsorgt sie irgendwo in einem Straßengraben. Danach ruft Raymond seine Schwester Angele an, die er seit der gemeinsamen Kindheit nicht mehr gesehen hat. Beide beschließen, dass die den Körper ihrer Mutter wieder bergen müssen, doch draußen, nahe dem Sumpf, ist es eine falsche Leiche, die sie mit nach Hause nehmen. Schon bald klopfen die wahren Eigentümer der Leiche an und tauschen sie gegen eine andere aus. Doch auch die neue Leiche ist nicht der Körper von Raymonds und Angeles Mutter. Als wäre das noch nicht genug, bekommen es die beiden mit Gangstern, einem unehrlichen Kunst-Agenten, einem dummen Polizisten und einer Horde Schweine zu tun. Und Raymond liebt seine Schwester, mehr als man dies als Bruder tun sollte... </t>
+  </si>
+  <si>
+    <t>Cadillac Records</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cadillac Records ist die Chronik des Aufstiegs von Leonard Chess’ Plattenfirma Chess Records und ihrer Künstler, darunter Muddy Waters, Little Walter, Chuck Berry, Willie Dixon und die großartige Etta James. Dieser Film ist eine Geschichte über Sex, Gewalt, Rassismus und Rock ’n’ Roll im Chicago der 1950er und ‘60er Jahre und erzählt vom aufregenden und sehr turbulenten Leben einiger der ganz großen Musiklegenden Amerikas. </t>
+  </si>
+  <si>
+    <t>Captain America 0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wir schreiben das Jahr 1944. Steve Rogers kann es nicht fassen: Er hat den Eignungstest zur Aufnahme in die Army nicht bestanden. Aus Verzweiflung meldet sich Steve freiwillig für das Experiment “Operation Re-Birth”. Durch die Verabreichung eines Serums werden seine Kräfte verhundertfacht und “Captain America” ist geboren Die “tödlichen Raketen” zerstören. Doch womit er nicht gerechnet hat, ist sein nahezu unschlagbarer Widersacher “The Red Skull”. Und gegen diesen Gegner muss er sich auch behaupten, als er Jahre später die Entführung des amerikanischen Präsidenten verhindern soll... </t>
+  </si>
+  <si>
+    <t>Captain America 1 - The First Avenger</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1942 - die USA ziehen in den Kampf gegen Hitler-Deutschland. Steve Rogers wird auf Grund seines Gesundheitszustands als ungeeignet eingestuft. Mit Hilfe des Project: Rebirth soll er trotzdem in den Kampf gegen Nazis ziehen. Der kränkliche Steve wird in eine Art Super-Soldaten namens Captain America transformiert. Hilfe bekommt der neue Superheld dabei von seinem Freund Bucky Barnes. Gemeinsam kämpfen sie gegen Red Skull, Hitlers Geheimwaffe im Krieg gegen den Rest der Welt. </t>
+  </si>
+  <si>
+    <t>Captain America 2 - The Return Of The First Avenger</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nach den Geschehnissen mit den Avengers in New York zieht sich Steve Rogers nach Washington zurück. Dort hat er nach wie vor Probleme, sich an das moderne Leben zu gewöhnen. Doch er wird wieder in den Einsatz berufen, als ein S.H.I.E.L.D.-Agent Ziel eines Angriffs wird. Dies ist nur der Beginn eines größeren Plans, der die ganze Welt in Gefahr bringen könnte. Steve kehrt als Captain America zurück und versucht mit Hilfe von Agentin Romanoff, auch bekannt als Black Widow, die Verschwörung aufzuklären. Die Beiden erhalten zusätzliche Unterstützung vom Falken. Die Mission birgt einige Gefahren und die beiden werden oftmals Ziel von Attentaten. Doch die größte Gefahr ist der Gegner selbst: der Winter Soldier. </t>
+  </si>
+  <si>
+    <t>Captain America 3 - Civil War</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Als bei einem Einsatz der Avengers in Lagos zwar der Diebstahl eines biologischen Kampfstoffes verhindert wird, dabei aber mehrere Zivilisten sterben, beschließen die Vereinten Nationen ein neues Gesetz, das die Avengers unter ihre Aufsicht bringen soll. Während Tony Stark alias Iron Man für eine Kontrolle der Superhelden votiert, stimmt Steve Rogers alias Captain America für ihre Unabhängigkeit. Auch die Teammitglieder sind uneinig und verteilen sich auf die beiden Wortführer. Als ein Bombenattentat auf jene UN-Versammlung verübt wird und man als vermeintlichen Schuldigen Steves alten Freund Bucky Barnes, nun als Winter Soldier bekannt, ausmacht, verschärft sich die Lage. Nachdem Steve Anweisungen missachtet und versucht Bucky auf eigene Faust zu stellen, damit dieser bei seiner Verhaftung nicht getötet wird, kommt es zu immer offeneren Animositäten zwischen den Superhelden... </t>
+  </si>
+  <si>
+    <t>Captain Marvel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bei einem Einsatz wird die Kree-Soldatin Vers von den Skrull gefangengenommen. Als die Gestaltenwandler auf Anweisung ihres Kapitäns Talos versuchen, mit einer Maschine Informationen aus dem Gehirn ihrer Geisel herauszuziehen, kann Vers mit einer Fluchtkapsel entkommen, woraufhin sie anschließend in den USA der 1990er Jahre durch das Dach einer Videothek kracht. Während die S.H.I.E.L.D.-Agenten Nick Fury und Phil Coulson erst einmal alles daransetzen, die vermeintliche Außerirdische zu fangen, findet Vers schon bald heraus, dass sie offenbar schon einmal auf diesem Planeten war und unter dem Namen Carol Danvers als Kampfpilotin für das US-Militär gearbeitet hat... </t>
+  </si>
+  <si>
+    <t>Carmen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Der Choreograf Antonio bereitet eine Aufführung von Georges Bizets berühmter Oper "Carmen" vor. Voller Eifer, ja mit Besessenheit, sucht er nach der Idealbesetzung für seine Primaballerina. Als er die Hauptdarstellerin findet - die junge, temperamentvolle Carmen -, verliebt sich Antonio Hals über Kopf in sie. Ihre Liebe wird jedoch, wie in der berühmten Oper, durch Eifersucht und Hass zerstört. In Antonios Alltags- und Arbeitswelt vermischen sich Bühnengeschehen und Wirklichkeit immer mehr... </t>
+  </si>
+  <si>
+    <t>Carrie</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Die junge Carrie ist vom Leben stark gebeutelt: die Mutter ist eine religiöse Fanatikerin und in der Schule gilt das schüchterne Mädchen bei allen nur als Freak. Als während der Dusche nach dem Sportunterricht zum ersten Mal - relativ spät für ihr Alter - ihre Periode einsetzt und sie durch Unwissenheit in Panik gerät, spielen ihr die Klassenkameradinnen einen bösen Streich, für den sie hart bestraft werden. Dabei machen sich bei Carrie erstmals telekinetische Kräfte bemerkbar. Als der Schulball naht, planen die Mitschüler einen weiteren grausamen Streich aus Rache, doch sie ahnen nicht, welches Inferno sie damit entfachen werden... </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Die introvertierte Carrie White, Tochter einer religiösen Fanatikerin und bespötteltes Mauerblümchen an ihrer High School, entdeckt mit dem für sie schockierenden Eintritt in die Pubertät ihre telekinetischen Fähigkeiten. Schnell erkennt sie, dass ihr nun ein wirksames Mittel zur Rache an ihrer Umwelt zur Verfügung steht. Als sie Opfer eines besonders grausamen Streiches ihrer Mitschülerinnen wird, kommt es zur Katastrophe. </t>
+  </si>
+  <si>
+    <t>Cars 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ausgerechnet jetzt, da er als Newcomer die etablierten Stars am Rande der Niederlage hat und nur noch ein Entscheidungsrennen aussteht, verfährt sich der etwas egomanische, aber sympathische Rennwagen Lightning McQueen in der Wüste. Er landet in dem abgelegenen Hinterwaldnest Radiator Springs, wo die Uhren eher wie in den 50ern gehen und man den ungestümen Raser nach Kollateralschäden ein paar Lektionen erteilt. </t>
+  </si>
+  <si>
+    <t>Cars 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Das Rennauto Lightning McQueen ist von sich überzeugt: schnell und sicher ist er immer der Erste im Ziel. Das will er auch der Welt beweisen und begibt sich mit seinem Freund Hook, dem Abschleppwagen und seinem Boxenstopp-Chef, auf eine Tour, um am allerersten World Grand Prix anzutreten. Hier fahren die besten Rennfahrer der Welt um die Wette und Lightning McQueen will natürlich gewinnen. Während sich Lightning McQueen auf das wichtigste Rennen seiner Karriere vorbereitet, schlittert Hook in eine internationale Spionage-Affäre. Kann er Lightning McQueen unterstützen und gleichzeitig den Spionage-Ring auffliegen lassen? </t>
+  </si>
+  <si>
+    <t>Catch Me</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eine Gruppe von Freunden spielt seit rund 30 Jahren das Kinderspiel „Fangen“. Was einst ganz normal auf dem Spielplatz anfing, hat sich zu einer bizarren Jagd weiterentwickelt. Obwohl sie mittlerweile sehr weit voneinander entfernt wohnen, scheuen die Kumpels dabei keine Kosten und Mühen. Jede noch so verquere Idee ist erlaubt bei dem Spiel, das sie jedes Jahr jeweils im Mai veranstalten. Wer gerade der Fänger ist, reist auch mal quer durchs Land, damit er bei einem anderen einbrechen oder hinter einem Busch vorzuspringen kann, um ihn mit einer Berührung zum neuen Fänger zu machen. In diesem Jahr steht die Hochzeit des einzigen bislang unbesiegten Mitspielers Jerry an. Seine Kumpels Callahan, Chilli, Hoagie und Sable hoffen, ihn endlich in die Finger zu bekommen. Doch der Champion ist natürlich vorbereitet... </t>
+  </si>
+  <si>
+    <t>Catch Me If You Can</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Frank W. Abagnale war nicht nur als Arzt und Rechtsanwalt erfolgreich, sondern auch als Copilot einer großen Fluglinie. Das alles erreichte er vor seinem 21. Geburtstag. Er ist ein Meister der Täuschung, aber auch ein brillanter Fälscher. Durch geschickte Scheckbetrügereien ist er zu einem Vermögen von mehreren Millionen Dollar gekommen. FBI-Agent Carl Hanratty hat ihn schon länger im Visier und macht sich zur Aufgabe, Frank zu fassen und vor Gericht zu bringen. Frank ist ihm jedoch immer einen Schritt voraus und macht sich einen Spaß daraus, seinem Verfolger kleine Köder vorzuwerfen, damit die Jagd weiter geht... </t>
+  </si>
+  <si>
+    <t>Central Intelligence</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Einst war er in der Schule der Nerd, auf dem alle herumgehackt haben, doch nun feiert Bob beim Klassentreffen als skrupelloser CIA-Agent eine triumphale Rückkehr. Für einen vermeintlich streng geheimen Fall rekrutiert er dort einen ehemaligen Klassenkameraden der früher den Schulhof im Griff hatte und noch heute, wenn auch als Buchhalter, von seinen glorreichen Tagen träumt. Doch worauf er sich eingelassen hat, merkt der seriöse Schreibtischtäter erst, als sein unberechenbarer neuer Freund ihn längst in ein bleihaltiges Spionage-Abenteuer verwickelt hat. </t>
+  </si>
+  <si>
+    <t>Chappie</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jedes Kind, das auf die Welt kommt, ist voller Zuversicht. Und auf niemanden trifft das mehr zu als auf Chappie: Er ist talentiert, etwas ganz Besonderes und schlicht ein Wunderkind. Wie jedes Kind, gerät er unter den Einfluss seiner Umwelt - einiges davon ist gut, anderes schlecht. Er wird sich letztlich darauf verlassen, was sein Herz und seine Seele ihm sagen, um seinen Platz in der Welt zu finden und der Mann zu werden, der er sein will. Doch es gibt eine Sache, die Chappie von allen anderen unterscheidet: Er ist ein Roboter. Der erste Roboter, der die Fähigkeit hat, eigenständig zu denken und zu fühlen. Das ist eine gefährliche Idee - und bald auch eine große Herausforderung für Chappie. Denn einige mächtige und destruktive Kräfte möchten sicher stellen, dass er der Letzte seiner Art ist. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pedro De Pacas und Anthony „Man“ Stoner sind zwei Taugenichtse, die es zu nicht viel im Leben gebracht haben. Cheech ist ein Ausreißer, der auf der Flucht vor seinem Elternhaus ist und Chong will unbedingt Musiker werden und sucht deshalb nach einem Drummer für seine zukünftige Band. Die beiden begegnen sich zufällig auf einer Landstraße und werden schnell Freunde, denn es verbindet sie eine Leidenschaft - die Liebe zum Marihuana. Doch genau das wird ihnen zum Verhängnis, als sie wegen eines Joints von der Polizei hochgenommen werden. Doch davon lassen sich die beiden nicht unterkriegen. Es beginnt ein wahnsinniger Road-Trip, der die beiden nach Tijuana und mit einem LKW voller Gras Richtung Los Angeles führt, wo sie bei einem Band-Contest mit ihrer heißen Ladung etwas Schwung ins Publikum bringen wollen... </t>
+  </si>
+  <si>
+    <t>Cheech &amp; Chong 1 - Viel Rauch Um Nichts</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cheech und Chong werden zu einem Festival nach Amsterdam eingeladen. Am Flughafen angekommen werden sie mit Burt Reynolds und Dolly Parton verwechselt. Die beiden Kiffer nutzen das Missverständnis aus und lassen es sich gut gehen. </t>
+  </si>
+  <si>
+    <t>Cheech &amp; Chong 2 - Jetzt Raucht Überhaupt Nichts Mehr</t>
+  </si>
+  <si>
+    <t>Christine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Christine, die bei einem Kleinstadt-Nachrichtensender in Florida arbeitet und immer die klügste Person im Raum ist, will unbedingt die Nachrichten präsentieren. Als aufstrebende TV-Journalistin mit einem Auge für Nuancen und großem Interesse für soziale Gerechtigkeit liegt sie ständig mit ihrem Boss im Clinch, der nur auf Sensationsstorys aus ist, die die Quote nach oben treiben. Geplagt von Selbstzweifeln und einem turbulenten Privatleben, schöpft Christine neue Hoffnung, als ihr ein Mitarbeiter, der als Nachrichtensprecher arbeitet, seine Freundschaft anbietet - woraus sich jedoch nur eine weitere unerwiderte Liebe entwickelt. Als ihre Welt endgültig zusammenbricht, trifft Christine völlig desillusioniert eine drastische Entscheidung... </t>
+  </si>
+  <si>
+    <t>Chroniken Der Unterwelt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gerade noch war Clary ein typischer Teenager mit familiären Kommunikationsstörungen und einer starken Bindung zu ihrem besten Freund Simon. Doch als Dämonen ihre Mutter entführen, entdeckt Clary eine unbekannte, gefährliche Welt und die Lüge ihres bisherigen Lebens. Von ihrem neuen Beschützer, dem Schattenjäger Jace, erfährt Clary, dass ihre Mutter sie nicht grundlos täuschte, sie dazu bestimmt ist, Dämonen zu jagen und den Schlüssel in sich trägt, mit ihren großen Kräften die geschwächten Schattenjäger wieder zu stärken. </t>
+  </si>
+  <si>
+    <t>Cinderella 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Die schwersten und schmutzigsten Arbeiten muss die hübsche Cinderella im Haushalt ihrer Stiefmutter erledigen. Freudlos verläuft ihr karges Dasein, bis sie eines Tages von einer guten Fee zu einer Schönen der Nacht verzaubert wird. Angetan, mit einem bezaubernden Kleid und eleganten Stöckelschuhen, besucht Cinderella den Ball des Königs, wo der Prinz sich sofort in sie verliebt. Da die Magie jedoch um Mitternacht ihre Wirkung verliert, flieht Cinderella noch bevor ihre wahre Identität entdeckt werden kann. Dabei verliert sie allerdings einen Schuh. </t>
+  </si>
+  <si>
+    <t>Cinderella 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cinderellas Mäuse-Freunde schreiben und basteln für die frischgebackene Prinzessin ein Buch mit ihren lustigsten und spannendsten Erlebnissen, etwa über ihre ersten Tage am Hof: Eine zugeknöpfte Hofdame versucht Cinderella im Schnellverfahren das Benehmen bei Hof bei zu bringen. Doch Cinderella setzt sich schließlich durch und bereitet ein königliches Fest nach ihren eigenen Ideen vor. Der kleine Mäuserich lässt sich von der lieben Fee in einen Menschen verwandeln. Doch er muss erkennen, dass er eben eine Maus und kein Mann ist. </t>
+  </si>
+  <si>
+    <t>Cinderella 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nach der Hochzeit von Cinderella und ihrem Prinzen verleben die beiden ein wundervolles Jahr. Doch die böse Stiefmutter, die mit ihren zwei Töchtern in die Küche des Schlosses verbannt wurde, findet sich nicht mit diesem Schicksal ab. Mit dem gestohlenen Zauberstab der guten Fee versetzt sie nicht nur Cinderella in die Zeit zurück, sondern sorgt auch dafür, dass der gläserne Schuh ihrer Tochter passt und die Sinne des Prinzen getrübt werden. Doch Cinderellas gute Freunde, die Mäuse, sehen dem nicht tatenlos zu. </t>
+  </si>
+  <si>
+    <t>Citizen Kane</t>
+  </si>
+  <si>
+    <t xml:space="preserve">»Rosebud« - das ist das letzte Wort, das Charles Foster Kane im Sterbebett auf seinem Schloss Xanadu haucht. "Citizen Kane" schildert die Geschichte des Zeitungsmagnaten, der die öffentliche Meinung Amerikas über Jahrzehnte beherrschte. Sein geschäftliches Leben begann mit viel Enthusiasmus und dem Bekenntnis zur Wahrheit und Unbestechlichkeit. Dann kam der Erfolg, mit ihm Ehrgeiz und schließlich, als er diesen nicht befriedigt sah, die Loslösung von seinen Prinzipien hin zur Korruption durch Macht. Der Reporter Jerry Thompson versucht, mehr über diesen geheimnisvollen Mann zu erfahren... </t>
+  </si>
+  <si>
+    <t>City Of God</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brasilien in den 60ern: Das „Tender Trio“ raubt Motels und Tankwagen aus. Die Jüngeren beobachten und lernen schnell - zu schnell. Etwa zehn Jahre später: Li'l Zé hat sich ausgebreitet, ihm gehört jetzt die ganze Stadt. Rivalisierende Banden werden ohne Gnade niedergemetzelt und vertrieben. Nur sein bester Freund Bene kann ihn einigermaßen zur Vernunft bringen. Buscapé will weder zu Li'l Zé noch zu einer der anderen Banden gehören, die in der „City Of God“ herrschen. Er will sich nur seiner Fotografie widmen. Bis jetzt konnte er sich noch aus dem Wahnsinn heraushalten. Doch in den 80ern eskaliert die Situation zwischen den letzten beiden Gangs... </t>
+  </si>
+  <si>
+    <t>City Of McFarland</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Der High School Trainer Jim White kommt an eine Schule im hauptsächlich von Latinos bewohnten McFarland, Kalifornien. Wirtschaftlich hat die Gegend den jungen Menschen nicht viel zu bieten, die Berufschancen der Schüler sind daher schlecht. White fällt es schwer, einen gemeinsamen Nenner mit den Schülern zu finden, bis ihm deren außergewöhnliche läuferische Fähigkeiten auffallen. Entgegen allen sozialen Schwierigkeiten entschließt er sich, eine Leichtathletikmannschaft auf die Beine zu stellen. Whites Ziel ist hoch: Er will seine Schüler zur Meisterschaft führen. Schritt für Schritt kommen der Trainer und seine Jungs dem großen Erfolg näher - und mit jedem Meter fühlt sich White in der neuen Umgebung heimischer... </t>
+  </si>
+  <si>
+    <t>Cleopatra</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cleopatra herrscht über das ägyptische Königreich, doch ihre Macht ist bedroht. Sie hofft, ihre Position durch Verbindung in das römische Reich zu stärken. Tatsächlich verliebt sich der römische Imperator Julius Cäsar in sie und sie gebärt ihm einen Sohn. Doch ehe sie ihren Platz an seiner Seite einnehmen kann, wird Cäsar ermordet und die Königin muss zurück nach Ägypten fliehen. Dessen General und Gefolgsmann Marc Anthon folgt ihr und sie beginnen eine Affäre. Doch Cäsars Nachfolger Octavian will das ägyptische Reich dem römischen einverleiben und setzt den beiden nach... </t>
+  </si>
+  <si>
+    <t>Climax</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eine Tanzgruppe aus 21 jungen Tänzern quartiert sich in einem abgelegenen Übungszentrum ein, um sich auf eine anstehende Tournee vorzubereiten. Am Abend bevor es endlich losgeht, feiern die jungen Tänzer und Tänzerinnen eine rauschende Party, sie wollen sich besser kennenlernen und bei Sangria und elektronischer Musik zusammen feiern. Doch dann macht Selva eine unglaubliche Entdeckung: Ein Unbekannter hat sie unbemerkt unter Drogen gesetzt - als sich die Wirkung zu entfalten beginnt, mutiert die Nacht zum wahren Höllentrip: Panik macht sich unter den jungen Künstlern breit, unterschwellige Abneigung eskaliert in plötzlichen Gewaltausbrüchen und aus harmloser Zuneigung wird gefährliche Begierde. Bis zum Morgengrauen dauert der Trip an, als endlich die Polizei eintrifft und sich das ganze Ausmaß der Eskalation offenbart... </t>
+  </si>
+  <si>
+    <t>Coach Carter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Der Basketball-Trainer der Richmond-Highschool hat ein einfaches Motto: "Durchschnitt ist nicht genug Trotz einer Bombenserie von 13:0 Siegen schließt er sein Dreamteam mitten in der Saison von Training und Spielen aus. Der Grund: die miserablen schulischen Leistungen der Spieler. Denn mehr als um Basketball sorgt sich Carter um die Zukunft seiner Schüler. Während Eltern und Schulleitung toben, begreifen Carters Schützlinge allmählich, worum es im Leben geht. </t>
+  </si>
+  <si>
+    <t>Coco Chanel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Als das Waisenkind Gabrielle Chanel den ebenso charmanten wie bisweilen widerwärtigen Offizier Etienne Balsan kennenlernt, zieht die Näherin zu ihm auf seinen Landsitz in der Nähe von Paris und wird eine seiner vielen Frauen. Er finanziert ihr ein eigenes Hutgeschäft, mit dem sie erste modeschöpferische Erfolge feiert. Die ernste, introvertierte, aber dennoch schlagfertige Frau verbringt eine ganze Weile mit dem Lebemann und seinen Gespielinnen - auf der Pferderennbahn, im Blumenzimmer und auf luxuriösen Gartenpartys. Bei einer dieser Feiern verliebt sie sich Arthur Capel. Durch ihre Liaison mit dem wohlhabenden, englischen Geschäftsmann tun sich weitere Möglichkeiten für sie auf: Gabrielle beginnt mit ihrer Kleidung zu experimentierten, zieht sich Männersachen an, entfernt unnötigen Pomp von ihren Kleidern und legt so den Grundstein für ihren späteren Erfolg im Modebusiness... </t>
+  </si>
+  <si>
+    <t>Codename UNCLE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Anfang der 1960er Jahre: Auf dem Höhepunkt des Kalten Krieges kommt es zu einer brisanten Zusammenarbeit zwischen den zwei Supermächten USA und Sowjetunion: CIA-Agent Napoleon Solo und KGB-Spion Illya Kuryakin sind gezwungen, die Feindseligkeiten ruhen zu lassen, um gemeinsam gegen ein geheimnisvolles internationales Verbrechersyndikat mit Verbindung zu Nazis vorzugehen, das eine Atomwaffe besitzt und somit das Gleichgewicht der Supermächte bedroht. Bei der Mission sind die Agenten auf die Hilfe der Tochter eines verschwundenen deutschen Wissenschaftlers angewiesen: Gaby Teller. Nur sie ist in der Lage, Solo und Kuryakin in das Syndikat einzuschleusen. Zusammen mit Teller machen sich die zwei Spione an die Arbeit. Ein Wettlauf gegen die Zeit beginnt... </t>
+  </si>
+  <si>
+    <t>College Animals 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Booker wohnt im "Dorm" an der Billingsley Universität. Er ist in seine Türnachbarin Rachel verknallt, aber leider total schüchtern und außerdem noch Jungfrau. Sein dämlicher Bruder Styles findet, dass sich dieser Zustand dringend ändern muss. Das geht ja bekanntermaßen am einfachsten mithilfe professioneller Unterstützung aus dem horizontalen Gewerbe. Freilich weigert sich der moralisch integre Booker, auf das "Angebot" einzugehen. Als die vermeintliche Prostituierte dann eintrifft, weiß leider keiner, dass sie eigentlich eine französische Austauschstudentin ist, die nur zufällig denselben Namen trägt wie die bald eintreffende Liebesdienerin. Damit ist die erste Verwirrung komplett - doch sie bleibt nicht die letzte, die in "College Animals" für handfestes Chaos sorgt... </t>
+  </si>
+  <si>
+    <t>Coma</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ein junger, talentierter Architekt liegt nach einem schweren Unfall im Koma. Er findet sich in einer mysteriösen Parallelwelt wieder, in der die logischen Grenzen, das heißt die physikalischen Gesetze unserer Welt, außer Kraft gesetzt sind. Der instabile Ort, an dem sich der junge Mann befindet, setzt sich allein aus Erinnerungen zusammen. Der Protagonist muss nun den Umgang mit den zwischen Traum und Realität variierenden Regeln lernen und macht sich auf die Suche nach einem Ausgang, um in die reale Welt zurückkehren zu können. </t>
+  </si>
+  <si>
+    <t>Commando</t>
+  </si>
+  <si>
+    <t xml:space="preserve">John Matrix, ehemailger Elitesoldat, hat sich zurückgezogen und lebt mit seiner Tochter in den Bergen. Doch eines Tages taucht General Kirby, sein ehemaliger Vorgesetzter, bei ihm auf, um ihn zu warnen: Irgendjemand hat es auf Johns ehemalige Einheit abgesehen, viele seiner ehemaligen Kameraden wurden bereits getötet. Wenig später erscheinen wirklich einige Männer, die John samt Tochter entführen, weil ein abgesetzter Diktator eines südamerikanischen Landes wieder an die Macht will, und John soll den aktuellen Präsidenten umbringen. Seine Tochter benutzen die Terroristen hierbei als Druckmittel, denn sollte der Präsident nicht getötet werden, werden sie seine Tochter ermorden. </t>
+  </si>
+  <si>
+    <t>Congo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unter Führung der Wissenschaftlerin Karen Ross bricht ein Expeditionstrupp nach Zaire auf, um lupenreine Diamanten für die Satellitenkommunikation zu finden. In Begleitung Karens befinden sich neben Trägern der Führer Kelly, der zwielichtige Europäer Homolka sowie zwei Verhaltensforscher, die einem außergewöhnlichem Gorilla, welcher kommunizieren kann, die Freiheit schenken wollen. Als der Expeditionstrupp nach zahllosen Abenteuern ans Ziel kommt, sieht er sich einer Horde Killer-Affen gegenüber. </t>
+  </si>
+  <si>
+    <t>Constantine - City Of Demons</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Knapp zehn Jahre, nach dem ein tragischer Fehler begangen wurde, machen sich der Familienvater Chas und der okkulte Ermittler John Constantine auf, um endlich Chas' Tochter Trish aus einem mysteriösen Koma zu befreien. Zur Hilfe eilen ihnen dabei die übernatürliche Krankenschwester Nightmare, die einflussreiche Queen of Angels und der brutale aztekische Gott Mictlantecuhtli. Denn nur vereint haben sie die Chance, den Dämon Beroul zu überlisten und so Trishs Seele zu retten. Also begibt sich Constantine zusammen mit seinen neuen Weggefährten in die dunkle urbane Schattenseite von Los Angeles, muss dort die listigen Ausgeburten der Hölle überlisten und sich sogar noch seinem Erzfeind Nergal stellen - und das alles, während er noch gegen seine eigenen inneren Dämonen kämpft. </t>
+  </si>
+  <si>
+    <t>Contraband</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Für seine Familie hatte Chris Farraday mit seiner kriminellen Vergangenheit vor Jahren abgeschlossen. Früher war er ein gewiefter Schmuggler, einer der besten. Als sein Schwager Andy aber nun selber bei einer missglückten Schmuggelaktion auf der Flucht vor der Polizei das Schmuggelgut vernichtet, muss Chris für ihn einstehen, um den Gangsterboss Tim Briggs daran zu hindern, Andy direkt zu töten. Innerhalb einer Galgenfrist muss Chris einen Schmuggeldeal im großen Stil über die Bühne bringen, um das benötigte Geld heranzuschaffen. Zusammen mit seinem Freund Sebastian stellt Chris ein Team zusammen. Doch die Zeit wird knapp, und auch seine Frau Kate gerät ins Visier der Gangster. Ein Schritt, den sie bereuen werden... </t>
+  </si>
+  <si>
+    <t>Cooties</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Es ist Clints erster Tag als Vertretungslehrer an der Grundschule, an der er einst selbst Lernender war. Nachdem sein Traum von einer großen Karriere als erfolgreicher Horror-Autor erst einmal zerplatzt ist, ist er nach Jahren wieder in seine Heimatstadt Midwestern Mayberry of Fort Chicken zurückgekehrt und hat bei seiner Mutter Unterschlupf gefunden. Doch sein erster Schultag wird noch viel turbulenter als gedacht, denn neben den üblichen Problemen eines Lehrers sorgt ein unglückseliger Chicken Nugget in der Schulcafeteria dafür, dass die Grundschüler einer nach dem anderen zu blutrünstigen Monstern mutieren. Clint, seine alte Flamme Lucy, ihr Freund Wade und die anderen Erwachsenen müssen alles aufbieten, was geht, um der Bedrohung zu trotzen und nicht als nächster Gang auf dem Schulcafeteria-Menü zu enden. </t>
+  </si>
+  <si>
+    <t>Cop Out</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zwei alteingesessene Polizisten werden in ihrem Alltag mit vielen skurrilen Situationen konfrontiert und dabei stellen sie sich gegenseitig immer wieder durch ihre unterschiedlichen Herangehensweisen ein Bein. Auf der Suche nach einer sehr wertvollen Baseball-Karte bekommen sie es nicht nur mit allerlei Verbrechern zu tun, sondern müssen diesen sogar helfen um das zu bekommen, wonach sie suchen. </t>
+  </si>
+  <si>
+    <t>Cosmic Sin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Das Jahr 2524. Vor 400 Jahren haben die Menschen begonnen, das All zu erobern und die äußeren Planeten zu besiedeln. Als eine feindliche Alien-Armada jedoch einen abgelegenen Planeten angreift, holt man den ehemaligen Soldaten James Ford zurück in den Dienst, da man einen erfahrenen Haudegen benötigt, denn die Außerirdischen sind in der Lage, menschliche Körper zu infizieren und zu übernehmen. Der Konflikt droht zu einem interstellaren Krieg zu eskalieren, den die Menschheit nur verlieren kann. Ford und General Eron Ryle sowie ein Team aus Elite-Soldaten nehmen den gnadenlosen Wettlauf gegen die Zeit auf und sie versuchen alles, den vernichtenden Angriff zu stoppen, bevor es für immer zu spät ist... </t>
+  </si>
+  <si>
+    <t>Country Strong</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Country Strong dreht sich um den aufstrebenden Countrysänger und Songschreiber Beau Williams, der mit der alternden Kollegin Kelly Canter anbändelt. Deren Karriere ist auf dem absteigenden Ast, so dass das Liebespaar nun zusammen an seinem Durchbruch und ihrem Comeback arbeitet. Dass Kellys Manager auch gleichzeitig ihr Ehemann ist, macht die Sache natürlich nicht leichter. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Als ein mysteriöser Mann ohne Erinnerung in der Wüste von Arizona erwacht, findet er ein metallenes Band an seinem Handgelenk vor. Was es mit dem Objekt auf sich hat, weiß auch im nahen Kaff Absolution niemand. Wohl aber, wer er sein könnte: ein gesuchter Verbrecher, auf dessen Kopf ein hoher Preis ausgesetzt wurde. Als der grimmige Colonel Dolarhyde zur Tat schreiten will, bricht plötzlich die Hölle über Absolution herein - stählerne Flugobjekte stürzen aus dem Himmel und eröffnen das Feuer auf die panische Dorfbevölkerung. Um die technologisch weit überlegenen Invasoren zu schlagen, muss sich der Neuankömmling mit den misstrauischen Dörflern, seinem Häscher Dolarhyde und einem Apachen-Stamm verbünden - und das Geheimnis um seine verlorene Erinnerung lüften... </t>
+  </si>
+  <si>
+    <t>Cowboys &amp; Aliens</t>
+  </si>
+  <si>
+    <t>Crank 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Als Chev Chelios in seiner Wohnung aufwacht, erinnert er sich nicht mehr daran, was die letzte Stunde passiert ist. Glücklicherweise findet er im Wohnzimmer eine DVD, die ihm die ersten Minuten seines Schlafes dokumentiert: der Kriminelle Ricky Verona und sein Bruder schlugen ihn zusammen und injizierten ihm dann ein chinesisches Gift, das sich schnell in seinem Körper ausbreitet. Der Effekt: innerhalb kürzester Zeit soll er tot sein. Schnell realisiert er, dass er am Abend bereits tot sein wird und macht sich auf den Weg, um vor seinem baldigen Ende wenigstens noch Rache zu üben, da es kein Gegenmittel zu geben scheint. Nur Adrenalinstöße können die Wirkung des Gifts verlangsamen, weshalb seine Reise durch L.A. bald zu einem andauernden Amoklauf mutiert, dessen Weg nicht nur Verona und seine Männer kreuzen. Und dann wäre da noch Chevs Freundin Eve, die bald hineingezogen wird und die er um jeden Preis beschützen will... </t>
+  </si>
+  <si>
+    <t>Crazy Stupid Love</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Das Leben von Cal Weaver scheint perfekt: ein guter Job, ein schönes Haus und tolle Kinder. Aus allen Wolken fällt Cal daher, als er erfährt, dass seine Frau Emily die Scheidung will Jessica, die wiederum insgeheim in Cal verschossen ist. In all diesen Irrungen und Wirrungen muss Cal feststellen, dass zwar sein ganzes Leben einen neuen Weg eingeschlagen hat, sein Herz jedoch am liebsten eine Kehrtwende machen will... </t>
+  </si>
+  <si>
+    <t>Crimson Peak</t>
+  </si>
+  <si>
+    <t xml:space="preserve">England im 19. Jahrhundert: Die junge Autorin Edith Cushing ist noch nicht lange mit Sir Thomas Sharpe verheiratet, doch schon kommen ihr erste Zweifel, ob ihr so ungemein charmanter Ehemann wirklich der ist, der er zu sein scheint. Edith spürt immer noch die Nachwirkungen einer schrecklichen Familientragödie, und sie merkt, dass sie sich immer noch zu ihrem Jugendfreund Dr. Alan McMichael hingezogen fühlt. Durch ihr neues Leben in dem einsamen Landhaus im Norden Englands versucht sie, die Geister der Vergangenheit endlich hinter sich zu lassen. Doch das Haus auf Crimson Peak - und seine übernatürlichen Bewohner - vergessen nicht so einfach... denn zwischen Begehren und Finsternis, Geheimnissen und Wahnsinn liegt die Wahrheit unterhalb von Crimson Peak. </t>
+  </si>
+  <si>
+    <t>Cry-Baby</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Allison, Töchterchen aus gutem Hause und somit ein Mitglied der "Squares", verliert ihr Herz an den hübschen Wade "Cry Baby" Walker von den "Drapes". Den Teenie-Rocker und Herzensbrecher hat es genauso erwischt. Bei einem seiner Auftritte im Drapes-Treffpunkt "Turkey Point" steigt Allison sogar zu ihm auf die Bühne. Die Squares unter Führung von Allisons eifersüchtigem Freund Baldwin stürmen den Laden und zetteln eine Saalschlacht an, die für Cry Baby mit der Verhaftung endet. Mit Hilfe Allisons Großmutter und des Richters, der ihn verurteilte, bekommt Cry Baby die Chance Baldwin endgültig in seine Schranken zu verweisen und ist danach wieder mit Allison vereint. </t>
+  </si>
+  <si>
+    <t>Cube 2 - Hypercube</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Acht Fremde wachen plötzlich in einem würfelförmigen Raum auf, ohne zu wissen, wie sie dort hingekommen sind. Bald stellt sich heraus, dass sie in einer mysteriösen vierten Dimension gefangen sind, wo die bekannten Naturgesetze aufgehoben scheinen. </t>
+  </si>
+  <si>
+    <t>Cutaway</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Special-Agent Jon Cooper ist einer Bande von Drogenschmugglern auf der Spur. Nach einer fehlgeschlagenen Razzia auf dem Airport von Miami wird er suspendiert. Er ermittelt auf eigene Faust weiter und findet heraus, dass der Stoff bei Nacht mit Fallschirmen über Florida abgeworfen wird. Also schleust er sich in eine Gruppe von Fallschirmspringern ein, die 'Cutaways', die einzig und allein für ihren Sport leben. Ein kompromissloser, leidenschaftlicher Lebensstil, der Cooper mehr und mehr in den Bann zieht. Als er sich dann noch in die attraktive Star verliebt, gerät seine Mission allmählich ins Hintertreffen... </t>
   </si>
 </sst>
 </file>
@@ -3913,10 +4342,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D51DD517-BD67-9F45-A4CA-2F65B8CF2913}">
-  <dimension ref="A1:G382"/>
+  <dimension ref="A1:G430"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A341" workbookViewId="0">
-      <selection activeCell="A383" sqref="A383"/>
+    <sheetView tabSelected="1" topLeftCell="A414" workbookViewId="0">
+      <selection activeCell="A431" sqref="A431"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4392,7 +4821,7 @@
         <v>72</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>431</v>
+        <v>479</v>
       </c>
       <c r="C24" s="9">
         <v>2002</v>
@@ -4404,7 +4833,7 @@
         <v>16</v>
       </c>
       <c r="F24" s="6" t="s">
-        <v>432</v>
+        <v>480</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
@@ -4412,7 +4841,7 @@
         <v>73</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>433</v>
+        <v>481</v>
       </c>
       <c r="C25" s="9">
         <v>2004</v>
@@ -4424,7 +4853,7 @@
         <v>12</v>
       </c>
       <c r="F25" s="6" t="s">
-        <v>434</v>
+        <v>482</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
@@ -4432,7 +4861,7 @@
         <v>74</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>435</v>
+        <v>483</v>
       </c>
       <c r="C26" s="9">
         <v>2006</v>
@@ -4444,7 +4873,7 @@
         <v>12</v>
       </c>
       <c r="F26" s="6" t="s">
-        <v>436</v>
+        <v>484</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
@@ -4452,7 +4881,7 @@
         <v>75</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>437</v>
+        <v>485</v>
       </c>
       <c r="C27" s="9">
         <v>1993</v>
@@ -4464,7 +4893,7 @@
         <v>6</v>
       </c>
       <c r="F27" s="6" t="s">
-        <v>438</v>
+        <v>486</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
@@ -4472,7 +4901,7 @@
         <v>76</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>439</v>
+        <v>487</v>
       </c>
       <c r="C28" s="9">
         <v>1990</v>
@@ -4484,7 +4913,7 @@
         <v>16</v>
       </c>
       <c r="F28" s="6" t="s">
-        <v>440</v>
+        <v>488</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
@@ -4492,7 +4921,7 @@
         <v>77</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>441</v>
+        <v>489</v>
       </c>
       <c r="C29" s="9">
         <v>1999</v>
@@ -4504,7 +4933,7 @@
         <v>16</v>
       </c>
       <c r="F29" s="6" t="s">
-        <v>442</v>
+        <v>490</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
@@ -4512,7 +4941,7 @@
         <v>78</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>443</v>
+        <v>491</v>
       </c>
       <c r="C30" s="9">
         <v>1994</v>
@@ -4524,7 +4953,7 @@
         <v>12</v>
       </c>
       <c r="F30" s="6" t="s">
-        <v>444</v>
+        <v>492</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
@@ -4532,7 +4961,7 @@
         <v>79</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>445</v>
+        <v>493</v>
       </c>
       <c r="C31" s="9">
         <v>2003</v>
@@ -4544,7 +4973,7 @@
         <v>16</v>
       </c>
       <c r="F31" s="5" t="s">
-        <v>446</v>
+        <v>494</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
@@ -4552,7 +4981,7 @@
         <v>80</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>447</v>
+        <v>495</v>
       </c>
       <c r="C32" s="9">
         <v>1971</v>
@@ -4564,7 +4993,7 @@
         <v>18</v>
       </c>
       <c r="F32" s="5" t="s">
-        <v>448</v>
+        <v>496</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
@@ -4572,7 +5001,7 @@
         <v>81</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>449</v>
+        <v>497</v>
       </c>
       <c r="C33" s="9">
         <v>2003</v>
@@ -4584,7 +5013,7 @@
         <v>6</v>
       </c>
       <c r="F33" s="5" t="s">
-        <v>450</v>
+        <v>498</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.2">
@@ -4592,7 +5021,7 @@
         <v>82</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>451</v>
+        <v>499</v>
       </c>
       <c r="C34" s="9">
         <v>2001</v>
@@ -4604,10 +5033,10 @@
         <v>12</v>
       </c>
       <c r="F34" s="5" t="s">
-        <v>452</v>
+        <v>500</v>
       </c>
       <c r="G34" t="s">
-        <v>453</v>
+        <v>501</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.2">
@@ -4615,7 +5044,7 @@
         <v>83</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>454</v>
+        <v>502</v>
       </c>
       <c r="C35" s="9">
         <v>2003</v>
@@ -4627,7 +5056,7 @@
         <v>0</v>
       </c>
       <c r="F35" s="5" t="s">
-        <v>455</v>
+        <v>503</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
@@ -4635,7 +5064,7 @@
         <v>84</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>456</v>
+        <v>504</v>
       </c>
       <c r="C36" s="9">
         <v>2003</v>
@@ -4647,7 +5076,7 @@
         <v>12</v>
       </c>
       <c r="F36" s="5" t="s">
-        <v>457</v>
+        <v>505</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.2">
@@ -4655,7 +5084,7 @@
         <v>85</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>458</v>
+        <v>506</v>
       </c>
       <c r="C37" s="9">
         <v>2005</v>
@@ -4667,7 +5096,7 @@
         <v>12</v>
       </c>
       <c r="F37" s="5" t="s">
-        <v>459</v>
+        <v>507</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.2">
@@ -4675,7 +5104,7 @@
         <v>86</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>460</v>
+        <v>508</v>
       </c>
       <c r="C38" s="9">
         <v>2001</v>
@@ -4687,7 +5116,7 @@
         <v>0</v>
       </c>
       <c r="F38" s="5" t="s">
-        <v>461</v>
+        <v>509</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.2">
@@ -4695,7 +5124,7 @@
         <v>87</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>462</v>
+        <v>510</v>
       </c>
       <c r="C39" s="9">
         <v>2005</v>
@@ -4707,7 +5136,7 @@
         <v>12</v>
       </c>
       <c r="F39" s="5" t="s">
-        <v>463</v>
+        <v>511</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.2">
@@ -4715,7 +5144,7 @@
         <v>88</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>464</v>
+        <v>512</v>
       </c>
       <c r="C40" s="9">
         <v>2006</v>
@@ -4727,7 +5156,7 @@
         <v>6</v>
       </c>
       <c r="F40" s="5" t="s">
-        <v>465</v>
+        <v>513</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.2">
@@ -4735,7 +5164,7 @@
         <v>89</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>466</v>
+        <v>514</v>
       </c>
       <c r="C41" s="9">
         <v>2004</v>
@@ -4747,7 +5176,7 @@
         <v>6</v>
       </c>
       <c r="F41" s="5" t="s">
-        <v>467</v>
+        <v>515</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.2">
@@ -4755,7 +5184,7 @@
         <v>90</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>468</v>
+        <v>516</v>
       </c>
       <c r="C42" s="9">
         <v>1996</v>
@@ -4767,7 +5196,7 @@
         <v>16</v>
       </c>
       <c r="F42" s="5" t="s">
-        <v>469</v>
+        <v>517</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.2">
@@ -4775,7 +5204,7 @@
         <v>91</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>470</v>
+        <v>518</v>
       </c>
       <c r="C43" s="9">
         <v>1992</v>
@@ -4787,7 +5216,7 @@
         <v>18</v>
       </c>
       <c r="F43" s="5" t="s">
-        <v>471</v>
+        <v>519</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.2">
@@ -4795,7 +5224,7 @@
         <v>92</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>472</v>
+        <v>520</v>
       </c>
       <c r="C44" s="9">
         <v>2005</v>
@@ -4807,7 +5236,7 @@
         <v>0</v>
       </c>
       <c r="F44" s="5" t="s">
-        <v>473</v>
+        <v>521</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.2">
@@ -4815,7 +5244,7 @@
         <v>93</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>474</v>
+        <v>522</v>
       </c>
       <c r="C45" s="9">
         <v>2004</v>
@@ -4827,7 +5256,7 @@
         <v>16</v>
       </c>
       <c r="F45" s="5" t="s">
-        <v>475</v>
+        <v>523</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.2">
@@ -4835,7 +5264,7 @@
         <v>94</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>476</v>
+        <v>524</v>
       </c>
       <c r="C46" s="9">
         <v>2003</v>
@@ -4847,7 +5276,7 @@
         <v>16</v>
       </c>
       <c r="F46" s="5" t="s">
-        <v>477</v>
+        <v>525</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.2">
@@ -4855,7 +5284,7 @@
         <v>95</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>478</v>
+        <v>526</v>
       </c>
       <c r="C47" s="9">
         <v>2003</v>
@@ -4867,7 +5296,7 @@
         <v>6</v>
       </c>
       <c r="F47" s="5" t="s">
-        <v>479</v>
+        <v>527</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.2">
@@ -4875,7 +5304,7 @@
         <v>96</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>480</v>
+        <v>528</v>
       </c>
       <c r="C48" s="9">
         <v>1993</v>
@@ -4887,7 +5316,7 @@
         <v>12</v>
       </c>
       <c r="F48" s="5" t="s">
-        <v>481</v>
+        <v>529</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.2">
@@ -4895,7 +5324,7 @@
         <v>97</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>482</v>
+        <v>530</v>
       </c>
       <c r="C49" s="9">
         <v>2002</v>
@@ -4907,7 +5336,7 @@
         <v>0</v>
       </c>
       <c r="F49" s="5" t="s">
-        <v>483</v>
+        <v>531</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.2">
@@ -4915,7 +5344,7 @@
         <v>98</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>484</v>
+        <v>532</v>
       </c>
       <c r="C50" s="9">
         <v>1998</v>
@@ -4927,7 +5356,7 @@
         <v>16</v>
       </c>
       <c r="F50" s="5" t="s">
-        <v>485</v>
+        <v>533</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.2">
@@ -4935,7 +5364,7 @@
         <v>99</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>486</v>
+        <v>534</v>
       </c>
       <c r="C51" s="9">
         <v>1999</v>
@@ -4947,7 +5376,7 @@
         <v>12</v>
       </c>
       <c r="F51" s="5" t="s">
-        <v>487</v>
+        <v>535</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.2">
@@ -4955,7 +5384,7 @@
         <v>100</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>488</v>
+        <v>536</v>
       </c>
       <c r="C52" s="9">
         <v>2002</v>
@@ -4967,7 +5396,7 @@
         <v>12</v>
       </c>
       <c r="F52" s="5" t="s">
-        <v>489</v>
+        <v>537</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.2">
@@ -4975,7 +5404,7 @@
         <v>101</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>490</v>
+        <v>538</v>
       </c>
       <c r="C53" s="9">
         <v>1994</v>
@@ -4987,7 +5416,7 @@
         <v>12</v>
       </c>
       <c r="F53" s="5" t="s">
-        <v>491</v>
+        <v>539</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.2">
@@ -4995,7 +5424,7 @@
         <v>102</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>492</v>
+        <v>540</v>
       </c>
       <c r="C54" s="9">
         <v>2004</v>
@@ -5007,7 +5436,7 @@
         <v>0</v>
       </c>
       <c r="F54" s="5" t="s">
-        <v>493</v>
+        <v>541</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.2">
@@ -5015,7 +5444,7 @@
         <v>103</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>494</v>
+        <v>542</v>
       </c>
       <c r="C55" s="9">
         <v>2002</v>
@@ -5027,7 +5456,7 @@
         <v>18</v>
       </c>
       <c r="F55" s="5" t="s">
-        <v>495</v>
+        <v>543</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.2">
@@ -5035,7 +5464,7 @@
         <v>104</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>496</v>
+        <v>544</v>
       </c>
       <c r="C56" s="9">
         <v>2004</v>
@@ -5047,7 +5476,7 @@
         <v>12</v>
       </c>
       <c r="F56" s="5" t="s">
-        <v>497</v>
+        <v>545</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.2">
@@ -5055,7 +5484,7 @@
         <v>105</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>498</v>
+        <v>546</v>
       </c>
       <c r="C57" s="9">
         <v>1996</v>
@@ -5067,7 +5496,7 @@
         <v>12</v>
       </c>
       <c r="F57" s="5" t="s">
-        <v>499</v>
+        <v>547</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.2">
@@ -5075,7 +5504,7 @@
         <v>106</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>500</v>
+        <v>548</v>
       </c>
       <c r="C58" s="9">
         <v>2006</v>
@@ -5087,7 +5516,7 @@
         <v>12</v>
       </c>
       <c r="F58" s="5" t="s">
-        <v>501</v>
+        <v>549</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.2">
@@ -5095,7 +5524,7 @@
         <v>107</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>502</v>
+        <v>550</v>
       </c>
       <c r="C59" s="9">
         <v>1997</v>
@@ -5107,7 +5536,7 @@
         <v>16</v>
       </c>
       <c r="F59" s="5" t="s">
-        <v>503</v>
+        <v>551</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.2">
@@ -5115,7 +5544,7 @@
         <v>108</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>504</v>
+        <v>552</v>
       </c>
       <c r="C60" s="9">
         <v>2009</v>
@@ -5127,7 +5556,7 @@
         <v>16</v>
       </c>
       <c r="F60" s="5" t="s">
-        <v>505</v>
+        <v>553</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.2">
@@ -5135,7 +5564,7 @@
         <v>109</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>506</v>
+        <v>554</v>
       </c>
       <c r="C61" s="9">
         <v>2001</v>
@@ -5147,7 +5576,7 @@
         <v>16</v>
       </c>
       <c r="F61" s="5" t="s">
-        <v>507</v>
+        <v>555</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.2">
@@ -5155,7 +5584,7 @@
         <v>110</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>508</v>
+        <v>556</v>
       </c>
       <c r="C62" s="9">
         <v>2002</v>
@@ -5167,7 +5596,7 @@
         <v>12</v>
       </c>
       <c r="F62" s="5" t="s">
-        <v>509</v>
+        <v>557</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.2">
@@ -5175,7 +5604,7 @@
         <v>111</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>510</v>
+        <v>558</v>
       </c>
       <c r="C63" s="9">
         <v>2003</v>
@@ -5187,7 +5616,7 @@
         <v>12</v>
       </c>
       <c r="F63" s="5" t="s">
-        <v>511</v>
+        <v>559</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.2">
@@ -5195,7 +5624,7 @@
         <v>112</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>512</v>
+        <v>560</v>
       </c>
       <c r="C64" s="9">
         <v>2005</v>
@@ -5207,7 +5636,7 @@
         <v>12</v>
       </c>
       <c r="F64" s="5" t="s">
-        <v>513</v>
+        <v>561</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.2">
@@ -5215,7 +5644,7 @@
         <v>113</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>514</v>
+        <v>562</v>
       </c>
       <c r="C65" s="9">
         <v>2006</v>
@@ -5227,7 +5656,7 @@
         <v>16</v>
       </c>
       <c r="F65" s="5" t="s">
-        <v>515</v>
+        <v>563</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.2">
@@ -5235,7 +5664,7 @@
         <v>114</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>516</v>
+        <v>564</v>
       </c>
       <c r="C66" s="9">
         <v>1979</v>
@@ -5247,7 +5676,7 @@
         <v>12</v>
       </c>
       <c r="F66" s="5" t="s">
-        <v>517</v>
+        <v>565</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.2">
@@ -5255,7 +5684,7 @@
         <v>115</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>518</v>
+        <v>566</v>
       </c>
       <c r="C67" s="9">
         <v>2002</v>
@@ -5267,7 +5696,7 @@
         <v>16</v>
       </c>
       <c r="F67" s="5" t="s">
-        <v>519</v>
+        <v>567</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.2">
@@ -5275,7 +5704,7 @@
         <v>116</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>520</v>
+        <v>568</v>
       </c>
       <c r="C68" s="9">
         <v>1996</v>
@@ -5287,7 +5716,7 @@
         <v>16</v>
       </c>
       <c r="F68" s="5" t="s">
-        <v>521</v>
+        <v>569</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.2">
@@ -5295,7 +5724,7 @@
         <v>117</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>522</v>
+        <v>570</v>
       </c>
       <c r="C69" s="9">
         <v>2005</v>
@@ -5307,7 +5736,7 @@
         <v>18</v>
       </c>
       <c r="F69" s="5" t="s">
-        <v>523</v>
+        <v>571</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.2">
@@ -5315,7 +5744,7 @@
         <v>118</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>524</v>
+        <v>572</v>
       </c>
       <c r="C70" s="9">
         <v>2005</v>
@@ -5327,7 +5756,7 @@
         <v>6</v>
       </c>
       <c r="F70" s="5" t="s">
-        <v>525</v>
+        <v>573</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.2">
@@ -5335,7 +5764,7 @@
         <v>119</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>527</v>
+        <v>575</v>
       </c>
       <c r="C71" s="9">
         <v>1996</v>
@@ -5347,7 +5776,7 @@
         <v>6</v>
       </c>
       <c r="F71" s="5" t="s">
-        <v>526</v>
+        <v>574</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.2">
@@ -5355,7 +5784,7 @@
         <v>120</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>528</v>
+        <v>576</v>
       </c>
       <c r="C72" s="9">
         <v>2000</v>
@@ -5367,7 +5796,7 @@
         <v>16</v>
       </c>
       <c r="F72" s="5" t="s">
-        <v>529</v>
+        <v>577</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.2">
@@ -5375,7 +5804,7 @@
         <v>121</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>530</v>
+        <v>578</v>
       </c>
       <c r="C73" s="9">
         <v>2000</v>
@@ -5387,7 +5816,7 @@
         <v>12</v>
       </c>
       <c r="F73" s="5" t="s">
-        <v>531</v>
+        <v>579</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.2">
@@ -5395,7 +5824,7 @@
         <v>122</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>532</v>
+        <v>580</v>
       </c>
       <c r="C74" s="9">
         <v>2004</v>
@@ -5407,7 +5836,7 @@
         <v>18</v>
       </c>
       <c r="F74" s="5" t="s">
-        <v>533</v>
+        <v>581</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.2">
@@ -5415,7 +5844,7 @@
         <v>123</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>534</v>
+        <v>582</v>
       </c>
       <c r="C75" s="9">
         <v>2004</v>
@@ -5427,7 +5856,7 @@
         <v>6</v>
       </c>
       <c r="F75" s="5" t="s">
-        <v>535</v>
+        <v>583</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.2">
@@ -5435,7 +5864,7 @@
         <v>124</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>536</v>
+        <v>584</v>
       </c>
       <c r="C76" s="9">
         <v>1979</v>
@@ -5447,7 +5876,7 @@
         <v>16</v>
       </c>
       <c r="F76" s="5" t="s">
-        <v>537</v>
+        <v>585</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.2">
@@ -5455,7 +5884,7 @@
         <v>125</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>538</v>
+        <v>586</v>
       </c>
       <c r="C77" s="9">
         <v>2003</v>
@@ -5467,7 +5896,7 @@
         <v>16</v>
       </c>
       <c r="F77" s="5" t="s">
-        <v>539</v>
+        <v>587</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.2">
@@ -5475,7 +5904,7 @@
         <v>126</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>540</v>
+        <v>588</v>
       </c>
       <c r="C78" s="9">
         <v>1997</v>
@@ -5487,7 +5916,7 @@
         <v>16</v>
       </c>
       <c r="F78" s="5" t="s">
-        <v>541</v>
+        <v>589</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.2">
@@ -5495,7 +5924,7 @@
         <v>127</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>542</v>
+        <v>590</v>
       </c>
       <c r="C79" s="9">
         <v>2005</v>
@@ -5507,7 +5936,7 @@
         <v>12</v>
       </c>
       <c r="F79" s="5" t="s">
-        <v>543</v>
+        <v>591</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.2">
@@ -5515,7 +5944,7 @@
         <v>128</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>544</v>
+        <v>592</v>
       </c>
       <c r="C80" s="9">
         <v>2003</v>
@@ -5527,7 +5956,7 @@
         <v>18</v>
       </c>
       <c r="F80" s="5" t="s">
-        <v>545</v>
+        <v>593</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.2">
@@ -5535,7 +5964,7 @@
         <v>129</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>546</v>
+        <v>594</v>
       </c>
       <c r="C81" s="9">
         <v>2007</v>
@@ -5547,7 +5976,7 @@
         <v>16</v>
       </c>
       <c r="F81" s="5" t="s">
-        <v>547</v>
+        <v>595</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.2">
@@ -5555,7 +5984,7 @@
         <v>130</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>548</v>
+        <v>596</v>
       </c>
       <c r="C82" s="9">
         <v>2002</v>
@@ -5567,7 +5996,7 @@
         <v>18</v>
       </c>
       <c r="F82" s="5" t="s">
-        <v>549</v>
+        <v>597</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.2">
@@ -5575,7 +6004,7 @@
         <v>131</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>550</v>
+        <v>598</v>
       </c>
       <c r="C83" s="9">
         <v>2004</v>
@@ -5587,7 +6016,7 @@
         <v>16</v>
       </c>
       <c r="F83" s="5" t="s">
-        <v>551</v>
+        <v>599</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.2">
@@ -5595,7 +6024,7 @@
         <v>132</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>552</v>
+        <v>600</v>
       </c>
       <c r="C84" s="9">
         <v>2004</v>
@@ -5607,7 +6036,7 @@
         <v>12</v>
       </c>
       <c r="F84" s="5" t="s">
-        <v>553</v>
+        <v>601</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.2">
@@ -5615,7 +6044,7 @@
         <v>133</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>554</v>
+        <v>602</v>
       </c>
       <c r="C85" s="9">
         <v>2002</v>
@@ -5627,7 +6056,7 @@
         <v>12</v>
       </c>
       <c r="F85" s="5" t="s">
-        <v>555</v>
+        <v>603</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.2">
@@ -5635,7 +6064,7 @@
         <v>134</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>556</v>
+        <v>604</v>
       </c>
       <c r="C86" s="9">
         <v>2004</v>
@@ -5647,7 +6076,7 @@
         <v>16</v>
       </c>
       <c r="F86" s="5" t="s">
-        <v>557</v>
+        <v>605</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.2">
@@ -5655,7 +6084,7 @@
         <v>135</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>558</v>
+        <v>606</v>
       </c>
       <c r="C87" s="9">
         <v>2009</v>
@@ -5667,7 +6096,7 @@
         <v>16</v>
       </c>
       <c r="F87" s="5" t="s">
-        <v>559</v>
+        <v>607</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.2">
@@ -5675,7 +6104,7 @@
         <v>136</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>560</v>
+        <v>608</v>
       </c>
       <c r="C88" s="9">
         <v>2001</v>
@@ -5687,7 +6116,7 @@
         <v>12</v>
       </c>
       <c r="F88" s="5" t="s">
-        <v>561</v>
+        <v>609</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.2">
@@ -5695,7 +6124,7 @@
         <v>137</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>562</v>
+        <v>610</v>
       </c>
       <c r="C89" s="9">
         <v>2023</v>
@@ -5707,7 +6136,7 @@
         <v>16</v>
       </c>
       <c r="F89" s="5" t="s">
-        <v>563</v>
+        <v>611</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.2">
@@ -5715,7 +6144,7 @@
         <v>138</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>564</v>
+        <v>612</v>
       </c>
       <c r="C90" s="9">
         <v>1994</v>
@@ -5727,7 +6156,7 @@
         <v>16</v>
       </c>
       <c r="F90" s="5" t="s">
-        <v>565</v>
+        <v>613</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.2">
@@ -5735,7 +6164,7 @@
         <v>139</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>566</v>
+        <v>614</v>
       </c>
       <c r="C91" s="9">
         <v>2022</v>
@@ -5747,7 +6176,7 @@
         <v>12</v>
       </c>
       <c r="F91" s="5" t="s">
-        <v>567</v>
+        <v>615</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.2">
@@ -5755,7 +6184,7 @@
         <v>140</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>568</v>
+        <v>616</v>
       </c>
       <c r="C92" s="9">
         <v>1984</v>
@@ -5767,7 +6196,7 @@
         <v>16</v>
       </c>
       <c r="F92" s="5" t="s">
-        <v>569</v>
+        <v>617</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.2">
@@ -5775,7 +6204,7 @@
         <v>141</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>570</v>
+        <v>618</v>
       </c>
       <c r="C93" s="9">
         <v>1989</v>
@@ -5787,7 +6216,7 @@
         <v>12</v>
       </c>
       <c r="F93" s="5" t="s">
-        <v>571</v>
+        <v>619</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.2">
@@ -5795,7 +6224,7 @@
         <v>142</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>572</v>
+        <v>620</v>
       </c>
       <c r="C94" s="9">
         <v>2023</v>
@@ -5807,7 +6236,7 @@
         <v>6</v>
       </c>
       <c r="F94" s="5" t="s">
-        <v>573</v>
+        <v>621</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.2">
@@ -5815,7 +6244,7 @@
         <v>143</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>574</v>
+        <v>622</v>
       </c>
       <c r="C95" s="9">
         <v>1994</v>
@@ -5827,7 +6256,7 @@
         <v>16</v>
       </c>
       <c r="F95" s="5" t="s">
-        <v>575</v>
+        <v>623</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.2">
@@ -5835,7 +6264,7 @@
         <v>144</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>576</v>
+        <v>624</v>
       </c>
       <c r="C96" s="9">
         <v>2004</v>
@@ -5847,7 +6276,7 @@
         <v>12</v>
       </c>
       <c r="F96" s="5" t="s">
-        <v>577</v>
+        <v>625</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.2">
@@ -5855,7 +6284,7 @@
         <v>145</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>578</v>
+        <v>626</v>
       </c>
       <c r="C97" s="9">
         <v>2003</v>
@@ -5867,7 +6296,7 @@
         <v>6</v>
       </c>
       <c r="F97" s="5" t="s">
-        <v>579</v>
+        <v>627</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.2">
@@ -5875,7 +6304,7 @@
         <v>146</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>580</v>
+        <v>628</v>
       </c>
       <c r="C98" s="9">
         <v>2003</v>
@@ -5887,7 +6316,7 @@
         <v>12</v>
       </c>
       <c r="F98" s="5" t="s">
-        <v>581</v>
+        <v>629</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.2">
@@ -5895,7 +6324,7 @@
         <v>147</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>582</v>
+        <v>630</v>
       </c>
       <c r="C99" s="9">
         <v>1996</v>
@@ -5907,7 +6336,7 @@
         <v>18</v>
       </c>
       <c r="F99" s="5" t="s">
-        <v>583</v>
+        <v>631</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.2">
@@ -5915,7 +6344,7 @@
         <v>148</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>584</v>
+        <v>632</v>
       </c>
       <c r="C100" s="9">
         <v>1987</v>
@@ -5927,7 +6356,7 @@
         <v>6</v>
       </c>
       <c r="F100" s="5" t="s">
-        <v>585</v>
+        <v>633</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.2">
@@ -5935,7 +6364,7 @@
         <v>149</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>586</v>
+        <v>634</v>
       </c>
       <c r="C101" s="9">
         <v>2002</v>
@@ -5947,7 +6376,7 @@
         <v>16</v>
       </c>
       <c r="F101" s="5" t="s">
-        <v>587</v>
+        <v>635</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.2">
@@ -5955,7 +6384,7 @@
         <v>150</v>
       </c>
       <c r="B102" s="4" t="s">
-        <v>588</v>
+        <v>636</v>
       </c>
       <c r="C102" s="9">
         <v>2005</v>
@@ -5967,7 +6396,7 @@
         <v>6</v>
       </c>
       <c r="F102" s="5" t="s">
-        <v>589</v>
+        <v>637</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.2">
@@ -5975,7 +6404,7 @@
         <v>151</v>
       </c>
       <c r="B103" s="4" t="s">
-        <v>590</v>
+        <v>638</v>
       </c>
       <c r="C103" s="9">
         <v>2003</v>
@@ -5987,7 +6416,7 @@
         <v>12</v>
       </c>
       <c r="F103" s="5" t="s">
-        <v>591</v>
+        <v>639</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.2">
@@ -5995,7 +6424,7 @@
         <v>152</v>
       </c>
       <c r="B104" s="4" t="s">
-        <v>592</v>
+        <v>640</v>
       </c>
       <c r="C104" s="9">
         <v>2014</v>
@@ -6007,7 +6436,7 @@
         <v>16</v>
       </c>
       <c r="F104" s="5" t="s">
-        <v>593</v>
+        <v>641</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.2">
@@ -6015,7 +6444,7 @@
         <v>153</v>
       </c>
       <c r="B105" s="4" t="s">
-        <v>594</v>
+        <v>642</v>
       </c>
       <c r="C105" s="9">
         <v>2004</v>
@@ -6027,7 +6456,7 @@
         <v>16</v>
       </c>
       <c r="F105" s="5" t="s">
-        <v>595</v>
+        <v>643</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.2">
@@ -6035,7 +6464,7 @@
         <v>154</v>
       </c>
       <c r="B106" s="4" t="s">
-        <v>596</v>
+        <v>644</v>
       </c>
       <c r="C106" s="9">
         <v>2005</v>
@@ -6047,7 +6476,7 @@
         <v>0</v>
       </c>
       <c r="F106" s="5" t="s">
-        <v>597</v>
+        <v>645</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.2">
@@ -6055,7 +6484,7 @@
         <v>155</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>598</v>
+        <v>646</v>
       </c>
       <c r="C107" s="9">
         <v>2005</v>
@@ -6067,7 +6496,7 @@
         <v>16</v>
       </c>
       <c r="F107" s="5" t="s">
-        <v>599</v>
+        <v>647</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.2">
@@ -6075,7 +6504,7 @@
         <v>156</v>
       </c>
       <c r="B108" s="4" t="s">
-        <v>600</v>
+        <v>648</v>
       </c>
       <c r="C108" s="9">
         <v>2004</v>
@@ -6087,7 +6516,7 @@
         <v>0</v>
       </c>
       <c r="F108" s="5" t="s">
-        <v>601</v>
+        <v>649</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.2">
@@ -6095,7 +6524,7 @@
         <v>157</v>
       </c>
       <c r="B109" s="4" t="s">
-        <v>602</v>
+        <v>650</v>
       </c>
       <c r="C109" s="9">
         <v>2002</v>
@@ -6107,7 +6536,7 @@
         <v>12</v>
       </c>
       <c r="F109" s="5" t="s">
-        <v>603</v>
+        <v>651</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.2">
@@ -6115,7 +6544,7 @@
         <v>158</v>
       </c>
       <c r="B110" s="4" t="s">
-        <v>604</v>
+        <v>652</v>
       </c>
       <c r="C110" s="9">
         <v>2004</v>
@@ -6127,7 +6556,7 @@
         <v>12</v>
       </c>
       <c r="F110" s="5" t="s">
-        <v>605</v>
+        <v>653</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.2">
@@ -6135,7 +6564,7 @@
         <v>159</v>
       </c>
       <c r="B111" s="4" t="s">
-        <v>606</v>
+        <v>654</v>
       </c>
       <c r="C111" s="9">
         <v>2002</v>
@@ -6147,7 +6576,7 @@
         <v>16</v>
       </c>
       <c r="F111" s="5" t="s">
-        <v>607</v>
+        <v>655</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.2">
@@ -6155,7 +6584,7 @@
         <v>160</v>
       </c>
       <c r="B112" s="4" t="s">
-        <v>608</v>
+        <v>656</v>
       </c>
       <c r="C112" s="9">
         <v>2002</v>
@@ -6167,7 +6596,7 @@
         <v>12</v>
       </c>
       <c r="F112" s="5" t="s">
-        <v>609</v>
+        <v>657</v>
       </c>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.2">
@@ -6175,7 +6604,7 @@
         <v>161</v>
       </c>
       <c r="B113" s="4" t="s">
-        <v>610</v>
+        <v>658</v>
       </c>
       <c r="C113" s="9">
         <v>2003</v>
@@ -6187,7 +6616,7 @@
         <v>12</v>
       </c>
       <c r="F113" s="5" t="s">
-        <v>611</v>
+        <v>659</v>
       </c>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.2">
@@ -6195,7 +6624,7 @@
         <v>162</v>
       </c>
       <c r="B114" s="4" t="s">
-        <v>612</v>
+        <v>660</v>
       </c>
       <c r="C114" s="9">
         <v>2006</v>
@@ -6207,7 +6636,7 @@
         <v>12</v>
       </c>
       <c r="F114" s="5" t="s">
-        <v>613</v>
+        <v>661</v>
       </c>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.2">
@@ -6215,7 +6644,7 @@
         <v>163</v>
       </c>
       <c r="B115" s="4" t="s">
-        <v>614</v>
+        <v>662</v>
       </c>
       <c r="C115" s="9">
         <v>2001</v>
@@ -6227,7 +6656,7 @@
         <v>18</v>
       </c>
       <c r="F115" s="5" t="s">
-        <v>615</v>
+        <v>663</v>
       </c>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.2">
@@ -6235,7 +6664,7 @@
         <v>164</v>
       </c>
       <c r="B116" s="4" t="s">
-        <v>616</v>
+        <v>664</v>
       </c>
       <c r="C116" s="9">
         <v>2004</v>
@@ -6247,7 +6676,7 @@
         <v>12</v>
       </c>
       <c r="F116" s="5" t="s">
-        <v>617</v>
+        <v>665</v>
       </c>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.2">
@@ -6255,7 +6684,7 @@
         <v>165</v>
       </c>
       <c r="B117" s="4" t="s">
-        <v>618</v>
+        <v>666</v>
       </c>
       <c r="C117" s="9">
         <v>2004</v>
@@ -6267,7 +6696,7 @@
         <v>12</v>
       </c>
       <c r="F117" s="5" t="s">
-        <v>619</v>
+        <v>667</v>
       </c>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.2">
@@ -6275,7 +6704,7 @@
         <v>166</v>
       </c>
       <c r="B118" s="4" t="s">
-        <v>620</v>
+        <v>668</v>
       </c>
       <c r="C118" s="9">
         <v>1987</v>
@@ -6287,7 +6716,7 @@
         <v>12</v>
       </c>
       <c r="F118" s="5" t="s">
-        <v>621</v>
+        <v>669</v>
       </c>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.2">
@@ -6295,7 +6724,7 @@
         <v>167</v>
       </c>
       <c r="B119" s="4" t="s">
-        <v>622</v>
+        <v>670</v>
       </c>
       <c r="C119" s="9">
         <v>2004</v>
@@ -6307,7 +6736,7 @@
         <v>6</v>
       </c>
       <c r="F119" s="5" t="s">
-        <v>623</v>
+        <v>671</v>
       </c>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.2">
@@ -6315,7 +6744,7 @@
         <v>168</v>
       </c>
       <c r="B120" s="4" t="s">
-        <v>624</v>
+        <v>672</v>
       </c>
       <c r="C120" s="9">
         <v>2001</v>
@@ -6327,7 +6756,7 @@
         <v>12</v>
       </c>
       <c r="F120" s="5" t="s">
-        <v>625</v>
+        <v>673</v>
       </c>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.2">
@@ -6335,7 +6764,7 @@
         <v>169</v>
       </c>
       <c r="B121" s="4" t="s">
-        <v>626</v>
+        <v>674</v>
       </c>
       <c r="C121" s="9">
         <v>2004</v>
@@ -6347,7 +6776,7 @@
         <v>18</v>
       </c>
       <c r="F121" s="5" t="s">
-        <v>627</v>
+        <v>675</v>
       </c>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.2">
@@ -6355,7 +6784,7 @@
         <v>170</v>
       </c>
       <c r="B122" s="4" t="s">
-        <v>628</v>
+        <v>676</v>
       </c>
       <c r="C122" s="9">
         <v>2000</v>
@@ -6367,10 +6796,10 @@
         <v>12</v>
       </c>
       <c r="F122" s="5" t="s">
-        <v>629</v>
+        <v>677</v>
       </c>
       <c r="G122" t="s">
-        <v>630</v>
+        <v>678</v>
       </c>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.2">
@@ -6378,7 +6807,7 @@
         <v>171</v>
       </c>
       <c r="B123" s="4" t="s">
-        <v>631</v>
+        <v>679</v>
       </c>
       <c r="C123" s="9">
         <v>2003</v>
@@ -6390,7 +6819,7 @@
         <v>12</v>
       </c>
       <c r="F123" s="5" t="s">
-        <v>632</v>
+        <v>680</v>
       </c>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.2">
@@ -6398,7 +6827,7 @@
         <v>172</v>
       </c>
       <c r="B124" s="4" t="s">
-        <v>633</v>
+        <v>681</v>
       </c>
       <c r="C124" s="9">
         <v>1987</v>
@@ -6410,7 +6839,7 @@
         <v>16</v>
       </c>
       <c r="F124" s="5" t="s">
-        <v>634</v>
+        <v>682</v>
       </c>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.2">
@@ -6418,7 +6847,7 @@
         <v>173</v>
       </c>
       <c r="B125" s="4" t="s">
-        <v>635</v>
+        <v>683</v>
       </c>
       <c r="C125" s="9">
         <v>1999</v>
@@ -6430,7 +6859,7 @@
         <v>16</v>
       </c>
       <c r="F125" s="5" t="s">
-        <v>636</v>
+        <v>684</v>
       </c>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.2">
@@ -6438,7 +6867,7 @@
         <v>174</v>
       </c>
       <c r="B126" s="4" t="s">
-        <v>637</v>
+        <v>685</v>
       </c>
       <c r="C126" s="9">
         <v>2002</v>
@@ -6450,7 +6879,7 @@
         <v>18</v>
       </c>
       <c r="F126" s="5" t="s">
-        <v>638</v>
+        <v>686</v>
       </c>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.2">
@@ -6458,7 +6887,7 @@
         <v>175</v>
       </c>
       <c r="B127" s="4" t="s">
-        <v>639</v>
+        <v>687</v>
       </c>
       <c r="C127" s="9">
         <v>2004</v>
@@ -6470,7 +6899,7 @@
         <v>18</v>
       </c>
       <c r="F127" s="5" t="s">
-        <v>640</v>
+        <v>688</v>
       </c>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.2">
@@ -6478,7 +6907,7 @@
         <v>176</v>
       </c>
       <c r="B128" s="4" t="s">
-        <v>641</v>
+        <v>689</v>
       </c>
       <c r="C128" s="9">
         <v>2003</v>
@@ -6490,7 +6919,7 @@
         <v>0</v>
       </c>
       <c r="F128" s="5" t="s">
-        <v>642</v>
+        <v>690</v>
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.2">
@@ -6498,7 +6927,7 @@
         <v>177</v>
       </c>
       <c r="B129" s="4" t="s">
-        <v>643</v>
+        <v>691</v>
       </c>
       <c r="C129" s="9">
         <v>2004</v>
@@ -6510,7 +6939,7 @@
         <v>0</v>
       </c>
       <c r="F129" s="5" t="s">
-        <v>644</v>
+        <v>692</v>
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.2">
@@ -6518,7 +6947,7 @@
         <v>178</v>
       </c>
       <c r="B130" s="4" t="s">
-        <v>645</v>
+        <v>693</v>
       </c>
       <c r="C130" s="9">
         <v>2003</v>
@@ -6530,7 +6959,7 @@
         <v>16</v>
       </c>
       <c r="F130" s="5" t="s">
-        <v>646</v>
+        <v>694</v>
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.2">
@@ -6538,7 +6967,7 @@
         <v>179</v>
       </c>
       <c r="B131" s="4" t="s">
-        <v>647</v>
+        <v>695</v>
       </c>
       <c r="C131" s="9">
         <v>2003</v>
@@ -6550,7 +6979,7 @@
         <v>18</v>
       </c>
       <c r="F131" s="5" t="s">
-        <v>648</v>
+        <v>696</v>
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.2">
@@ -6558,7 +6987,7 @@
         <v>180</v>
       </c>
       <c r="B132" s="4" t="s">
-        <v>649</v>
+        <v>697</v>
       </c>
       <c r="C132" s="9">
         <v>2006</v>
@@ -6570,7 +6999,7 @@
         <v>16</v>
       </c>
       <c r="F132" s="5" t="s">
-        <v>650</v>
+        <v>698</v>
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.2">
@@ -6578,7 +7007,7 @@
         <v>181</v>
       </c>
       <c r="B133" s="4" t="s">
-        <v>651</v>
+        <v>699</v>
       </c>
       <c r="C133" s="9">
         <v>2005</v>
@@ -6590,7 +7019,7 @@
         <v>12</v>
       </c>
       <c r="F133" s="5" t="s">
-        <v>652</v>
+        <v>700</v>
       </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.2">
@@ -6598,7 +7027,7 @@
         <v>182</v>
       </c>
       <c r="B134" s="4" t="s">
-        <v>653</v>
+        <v>701</v>
       </c>
       <c r="C134" s="9">
         <v>2005</v>
@@ -6610,7 +7039,7 @@
         <v>18</v>
       </c>
       <c r="F134" s="5" t="s">
-        <v>654</v>
+        <v>702</v>
       </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.2">
@@ -6618,7 +7047,7 @@
         <v>183</v>
       </c>
       <c r="B135" s="4" t="s">
-        <v>655</v>
+        <v>703</v>
       </c>
       <c r="C135" s="9">
         <v>1995</v>
@@ -6630,7 +7059,7 @@
         <v>12</v>
       </c>
       <c r="F135" s="5" t="s">
-        <v>656</v>
+        <v>704</v>
       </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.2">
@@ -6638,7 +7067,7 @@
         <v>184</v>
       </c>
       <c r="B136" s="4" t="s">
-        <v>657</v>
+        <v>705</v>
       </c>
       <c r="C136" s="9">
         <v>2004</v>
@@ -6650,7 +7079,7 @@
         <v>6</v>
       </c>
       <c r="F136" s="5" t="s">
-        <v>658</v>
+        <v>706</v>
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.2">
@@ -6658,7 +7087,7 @@
         <v>185</v>
       </c>
       <c r="B137" s="4" t="s">
-        <v>659</v>
+        <v>707</v>
       </c>
       <c r="C137" s="9">
         <v>1995</v>
@@ -6670,7 +7099,7 @@
         <v>18</v>
       </c>
       <c r="F137" s="5" t="s">
-        <v>660</v>
+        <v>708</v>
       </c>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.2">
@@ -6678,7 +7107,7 @@
         <v>186</v>
       </c>
       <c r="B138" s="4" t="s">
-        <v>661</v>
+        <v>709</v>
       </c>
       <c r="C138" s="9">
         <v>2003</v>
@@ -6690,7 +7119,7 @@
         <v>18</v>
       </c>
       <c r="F138" s="5" t="s">
-        <v>662</v>
+        <v>710</v>
       </c>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.2">
@@ -6698,7 +7127,7 @@
         <v>187</v>
       </c>
       <c r="B139" s="4" t="s">
-        <v>663</v>
+        <v>711</v>
       </c>
       <c r="C139" s="9">
         <v>2003</v>
@@ -6710,7 +7139,7 @@
         <v>12</v>
       </c>
       <c r="F139" s="5" t="s">
-        <v>664</v>
+        <v>712</v>
       </c>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.2">
@@ -6718,7 +7147,7 @@
         <v>188</v>
       </c>
       <c r="B140" s="4" t="s">
-        <v>665</v>
+        <v>713</v>
       </c>
       <c r="C140" s="9">
         <v>1971</v>
@@ -6730,7 +7159,7 @@
         <v>16</v>
       </c>
       <c r="F140" s="5" t="s">
-        <v>666</v>
+        <v>714</v>
       </c>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.2">
@@ -6738,7 +7167,7 @@
         <v>189</v>
       </c>
       <c r="B141" s="4" t="s">
-        <v>667</v>
+        <v>715</v>
       </c>
       <c r="C141" s="9">
         <v>2004</v>
@@ -6750,7 +7179,7 @@
         <v>12</v>
       </c>
       <c r="F141" s="5" t="s">
-        <v>668</v>
+        <v>716</v>
       </c>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.2">
@@ -6758,7 +7187,7 @@
         <v>190</v>
       </c>
       <c r="B142" s="4" t="s">
-        <v>669</v>
+        <v>717</v>
       </c>
       <c r="C142" s="9">
         <v>2005</v>
@@ -6770,7 +7199,7 @@
         <v>12</v>
       </c>
       <c r="F142" s="5" t="s">
-        <v>670</v>
+        <v>718</v>
       </c>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.2">
@@ -6778,7 +7207,7 @@
         <v>191</v>
       </c>
       <c r="B143" s="4" t="s">
-        <v>671</v>
+        <v>719</v>
       </c>
       <c r="C143" s="9">
         <v>1987</v>
@@ -6790,7 +7219,7 @@
         <v>12</v>
       </c>
       <c r="F143" s="11" t="s">
-        <v>752</v>
+        <v>800</v>
       </c>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.2">
@@ -6798,7 +7227,7 @@
         <v>192</v>
       </c>
       <c r="B144" s="4" t="s">
-        <v>672</v>
+        <v>720</v>
       </c>
       <c r="C144" s="9">
         <v>2004</v>
@@ -6810,7 +7239,7 @@
         <v>18</v>
       </c>
       <c r="F144" s="5" t="s">
-        <v>673</v>
+        <v>721</v>
       </c>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.2">
@@ -6818,7 +7247,7 @@
         <v>193</v>
       </c>
       <c r="B145" s="4" t="s">
-        <v>674</v>
+        <v>722</v>
       </c>
       <c r="C145" s="9">
         <v>2023</v>
@@ -6830,7 +7259,7 @@
         <v>12</v>
       </c>
       <c r="F145" s="5" t="s">
-        <v>675</v>
+        <v>723</v>
       </c>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.2">
@@ -6838,7 +7267,7 @@
         <v>194</v>
       </c>
       <c r="B146" s="4" t="s">
-        <v>676</v>
+        <v>724</v>
       </c>
       <c r="C146" s="9">
         <v>2003</v>
@@ -6850,7 +7279,7 @@
         <v>16</v>
       </c>
       <c r="F146" s="5" t="s">
-        <v>677</v>
+        <v>725</v>
       </c>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.2">
@@ -6858,7 +7287,7 @@
         <v>195</v>
       </c>
       <c r="B147" s="4" t="s">
-        <v>678</v>
+        <v>726</v>
       </c>
       <c r="C147" s="9">
         <v>2000</v>
@@ -6870,7 +7299,7 @@
         <v>16</v>
       </c>
       <c r="F147" s="5" t="s">
-        <v>679</v>
+        <v>727</v>
       </c>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.2">
@@ -6878,7 +7307,7 @@
         <v>196</v>
       </c>
       <c r="B148" s="4" t="s">
-        <v>680</v>
+        <v>728</v>
       </c>
       <c r="C148" s="9">
         <v>2003</v>
@@ -6890,7 +7319,7 @@
         <v>16</v>
       </c>
       <c r="F148" s="5" t="s">
-        <v>681</v>
+        <v>729</v>
       </c>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.2">
@@ -6898,7 +7327,7 @@
         <v>197</v>
       </c>
       <c r="B149" s="4" t="s">
-        <v>682</v>
+        <v>730</v>
       </c>
       <c r="C149" s="9">
         <v>2006</v>
@@ -6910,7 +7339,7 @@
         <v>18</v>
       </c>
       <c r="F149" s="5" t="s">
-        <v>683</v>
+        <v>731</v>
       </c>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.2">
@@ -6918,7 +7347,7 @@
         <v>198</v>
       </c>
       <c r="B150" s="4" t="s">
-        <v>684</v>
+        <v>732</v>
       </c>
       <c r="C150" s="9">
         <v>2008</v>
@@ -6930,7 +7359,7 @@
         <v>12</v>
       </c>
       <c r="F150" s="5" t="s">
-        <v>685</v>
+        <v>733</v>
       </c>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.2">
@@ -6938,7 +7367,7 @@
         <v>199</v>
       </c>
       <c r="B151" s="4" t="s">
-        <v>686</v>
+        <v>734</v>
       </c>
       <c r="C151" s="9">
         <v>2004</v>
@@ -6950,7 +7379,7 @@
         <v>16</v>
       </c>
       <c r="F151" s="5" t="s">
-        <v>687</v>
+        <v>735</v>
       </c>
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.2">
@@ -6958,7 +7387,7 @@
         <v>200</v>
       </c>
       <c r="B152" s="4" t="s">
-        <v>688</v>
+        <v>736</v>
       </c>
       <c r="C152" s="9">
         <v>2004</v>
@@ -6970,7 +7399,7 @@
         <v>12</v>
       </c>
       <c r="F152" s="5" t="s">
-        <v>689</v>
+        <v>737</v>
       </c>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.2">
@@ -6978,7 +7407,7 @@
         <v>201</v>
       </c>
       <c r="B153" s="4" t="s">
-        <v>690</v>
+        <v>738</v>
       </c>
       <c r="C153" s="9">
         <v>1999</v>
@@ -6990,7 +7419,7 @@
         <v>18</v>
       </c>
       <c r="F153" s="5" t="s">
-        <v>691</v>
+        <v>739</v>
       </c>
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.2">
@@ -6998,7 +7427,7 @@
         <v>202</v>
       </c>
       <c r="B154" s="4" t="s">
-        <v>693</v>
+        <v>741</v>
       </c>
       <c r="C154" s="9">
         <v>1981</v>
@@ -7010,7 +7439,7 @@
         <v>16</v>
       </c>
       <c r="F154" s="5" t="s">
-        <v>692</v>
+        <v>740</v>
       </c>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.2">
@@ -7018,7 +7447,7 @@
         <v>203</v>
       </c>
       <c r="B155" s="4" t="s">
-        <v>694</v>
+        <v>742</v>
       </c>
       <c r="C155" s="9">
         <v>1993</v>
@@ -7030,7 +7459,7 @@
         <v>16</v>
       </c>
       <c r="F155" s="5" t="s">
-        <v>695</v>
+        <v>743</v>
       </c>
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.2">
@@ -7038,7 +7467,7 @@
         <v>204</v>
       </c>
       <c r="B156" s="4" t="s">
-        <v>696</v>
+        <v>744</v>
       </c>
       <c r="C156" s="9">
         <v>1973</v>
@@ -7050,7 +7479,7 @@
         <v>12</v>
       </c>
       <c r="F156" s="5" t="s">
-        <v>697</v>
+        <v>745</v>
       </c>
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.2">
@@ -7058,7 +7487,7 @@
         <v>205</v>
       </c>
       <c r="B157" s="4" t="s">
-        <v>698</v>
+        <v>746</v>
       </c>
       <c r="C157" s="9">
         <v>2000</v>
@@ -7070,7 +7499,7 @@
         <v>12</v>
       </c>
       <c r="F157" s="5" t="s">
-        <v>699</v>
+        <v>747</v>
       </c>
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.2">
@@ -7078,7 +7507,7 @@
         <v>206</v>
       </c>
       <c r="B158" s="4" t="s">
-        <v>700</v>
+        <v>748</v>
       </c>
       <c r="C158" s="9">
         <v>2005</v>
@@ -7090,7 +7519,7 @@
         <v>6</v>
       </c>
       <c r="F158" s="5" t="s">
-        <v>701</v>
+        <v>749</v>
       </c>
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.2">
@@ -7098,7 +7527,7 @@
         <v>207</v>
       </c>
       <c r="B159" s="4" t="s">
-        <v>702</v>
+        <v>750</v>
       </c>
       <c r="C159" s="9">
         <v>2003</v>
@@ -7110,7 +7539,7 @@
         <v>12</v>
       </c>
       <c r="F159" s="5" t="s">
-        <v>703</v>
+        <v>751</v>
       </c>
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.2">
@@ -7118,7 +7547,7 @@
         <v>208</v>
       </c>
       <c r="B160" s="4" t="s">
-        <v>704</v>
+        <v>752</v>
       </c>
       <c r="C160" s="9">
         <v>2001</v>
@@ -7130,7 +7559,7 @@
         <v>12</v>
       </c>
       <c r="F160" s="5" t="s">
-        <v>705</v>
+        <v>753</v>
       </c>
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.2">
@@ -7138,7 +7567,7 @@
         <v>209</v>
       </c>
       <c r="B161" s="4" t="s">
-        <v>706</v>
+        <v>754</v>
       </c>
       <c r="C161" s="9">
         <v>2005</v>
@@ -7150,7 +7579,7 @@
         <v>12</v>
       </c>
       <c r="F161" s="5" t="s">
-        <v>707</v>
+        <v>755</v>
       </c>
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.2">
@@ -7158,7 +7587,7 @@
         <v>210</v>
       </c>
       <c r="B162" s="4" t="s">
-        <v>708</v>
+        <v>756</v>
       </c>
       <c r="C162" s="9">
         <v>2001</v>
@@ -7170,7 +7599,7 @@
         <v>16</v>
       </c>
       <c r="F162" s="5" t="s">
-        <v>709</v>
+        <v>757</v>
       </c>
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.2">
@@ -7178,7 +7607,7 @@
         <v>211</v>
       </c>
       <c r="B163" s="4" t="s">
-        <v>710</v>
+        <v>758</v>
       </c>
       <c r="C163" s="9">
         <v>2003</v>
@@ -7190,7 +7619,7 @@
         <v>18</v>
       </c>
       <c r="F163" s="5" t="s">
-        <v>711</v>
+        <v>759</v>
       </c>
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.2">
@@ -7198,7 +7627,7 @@
         <v>212</v>
       </c>
       <c r="B164" s="4" t="s">
-        <v>712</v>
+        <v>760</v>
       </c>
       <c r="C164" s="9">
         <v>1985</v>
@@ -7210,7 +7639,7 @@
         <v>12</v>
       </c>
       <c r="F164" s="5" t="s">
-        <v>713</v>
+        <v>761</v>
       </c>
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.2">
@@ -7218,7 +7647,7 @@
         <v>213</v>
       </c>
       <c r="B165" s="4" t="s">
-        <v>714</v>
+        <v>762</v>
       </c>
       <c r="C165" s="9">
         <v>2002</v>
@@ -7230,7 +7659,7 @@
         <v>12</v>
       </c>
       <c r="F165" s="5" t="s">
-        <v>715</v>
+        <v>763</v>
       </c>
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.2">
@@ -7238,7 +7667,7 @@
         <v>214</v>
       </c>
       <c r="B166" s="4" t="s">
-        <v>716</v>
+        <v>764</v>
       </c>
       <c r="C166" s="9">
         <v>2003</v>
@@ -7250,7 +7679,7 @@
         <v>12</v>
       </c>
       <c r="F166" s="5" t="s">
-        <v>717</v>
+        <v>765</v>
       </c>
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.2">
@@ -7258,7 +7687,7 @@
         <v>215</v>
       </c>
       <c r="B167" s="4" t="s">
-        <v>718</v>
+        <v>766</v>
       </c>
       <c r="C167" s="9">
         <v>2001</v>
@@ -7270,7 +7699,7 @@
         <v>12</v>
       </c>
       <c r="F167" s="5" t="s">
-        <v>719</v>
+        <v>767</v>
       </c>
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.2">
@@ -7278,7 +7707,7 @@
         <v>216</v>
       </c>
       <c r="B168" s="4" t="s">
-        <v>720</v>
+        <v>768</v>
       </c>
       <c r="C168" s="9">
         <v>2004</v>
@@ -7290,7 +7719,7 @@
         <v>6</v>
       </c>
       <c r="F168" s="5" t="s">
-        <v>721</v>
+        <v>769</v>
       </c>
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.2">
@@ -7298,7 +7727,7 @@
         <v>217</v>
       </c>
       <c r="B169" s="4" t="s">
-        <v>722</v>
+        <v>770</v>
       </c>
       <c r="C169" s="9">
         <v>2000</v>
@@ -7310,7 +7739,7 @@
         <v>16</v>
       </c>
       <c r="F169" s="5" t="s">
-        <v>723</v>
+        <v>771</v>
       </c>
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.2">
@@ -7318,7 +7747,7 @@
         <v>218</v>
       </c>
       <c r="B170" s="4" t="s">
-        <v>724</v>
+        <v>772</v>
       </c>
       <c r="C170" s="9">
         <v>2000</v>
@@ -7330,7 +7759,7 @@
         <v>12</v>
       </c>
       <c r="F170" s="5" t="s">
-        <v>725</v>
+        <v>773</v>
       </c>
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.2">
@@ -7338,7 +7767,7 @@
         <v>219</v>
       </c>
       <c r="B171" s="4" t="s">
-        <v>726</v>
+        <v>774</v>
       </c>
       <c r="C171" s="9">
         <v>2006</v>
@@ -7350,7 +7779,7 @@
         <v>0</v>
       </c>
       <c r="F171" s="5" t="s">
-        <v>727</v>
+        <v>775</v>
       </c>
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.2">
@@ -7358,7 +7787,7 @@
         <v>220</v>
       </c>
       <c r="B172" s="4" t="s">
-        <v>728</v>
+        <v>776</v>
       </c>
       <c r="C172" s="9">
         <v>2001</v>
@@ -7370,7 +7799,7 @@
         <v>12</v>
       </c>
       <c r="F172" s="5" t="s">
-        <v>729</v>
+        <v>777</v>
       </c>
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.2">
@@ -7378,7 +7807,7 @@
         <v>221</v>
       </c>
       <c r="B173" s="4" t="s">
-        <v>730</v>
+        <v>778</v>
       </c>
       <c r="C173" s="9">
         <v>2005</v>
@@ -7390,7 +7819,7 @@
         <v>0</v>
       </c>
       <c r="F173" s="5" t="s">
-        <v>731</v>
+        <v>779</v>
       </c>
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.2">
@@ -7398,7 +7827,7 @@
         <v>222</v>
       </c>
       <c r="B174" s="4" t="s">
-        <v>732</v>
+        <v>780</v>
       </c>
       <c r="C174" s="9">
         <v>2005</v>
@@ -7410,7 +7839,7 @@
         <v>0</v>
       </c>
       <c r="F174" s="5" t="s">
-        <v>733</v>
+        <v>781</v>
       </c>
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.2">
@@ -7418,7 +7847,7 @@
         <v>223</v>
       </c>
       <c r="B175" s="4" t="s">
-        <v>734</v>
+        <v>782</v>
       </c>
       <c r="C175" s="9">
         <v>2001</v>
@@ -7430,7 +7859,7 @@
         <v>16</v>
       </c>
       <c r="F175" s="5" t="s">
-        <v>735</v>
+        <v>783</v>
       </c>
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.2">
@@ -7438,7 +7867,7 @@
         <v>224</v>
       </c>
       <c r="B176" s="4" t="s">
-        <v>736</v>
+        <v>784</v>
       </c>
       <c r="C176" s="9">
         <v>2004</v>
@@ -7450,7 +7879,7 @@
         <v>12</v>
       </c>
       <c r="F176" s="5" t="s">
-        <v>737</v>
+        <v>785</v>
       </c>
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.2">
@@ -7458,7 +7887,7 @@
         <v>225</v>
       </c>
       <c r="B177" s="4" t="s">
-        <v>738</v>
+        <v>786</v>
       </c>
       <c r="C177" s="9">
         <v>2001</v>
@@ -7470,7 +7899,7 @@
         <v>6</v>
       </c>
       <c r="F177" s="5" t="s">
-        <v>739</v>
+        <v>787</v>
       </c>
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.2">
@@ -7478,7 +7907,7 @@
         <v>226</v>
       </c>
       <c r="B178" s="4" t="s">
-        <v>740</v>
+        <v>788</v>
       </c>
       <c r="C178" s="9">
         <v>1999</v>
@@ -7490,7 +7919,7 @@
         <v>16</v>
       </c>
       <c r="F178" s="5" t="s">
-        <v>741</v>
+        <v>789</v>
       </c>
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.2">
@@ -7498,7 +7927,7 @@
         <v>227</v>
       </c>
       <c r="B179" s="4" t="s">
-        <v>742</v>
+        <v>790</v>
       </c>
       <c r="C179" s="9">
         <v>1999</v>
@@ -7510,7 +7939,7 @@
         <v>12</v>
       </c>
       <c r="F179" s="5" t="s">
-        <v>743</v>
+        <v>791</v>
       </c>
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.2">
@@ -7518,7 +7947,7 @@
         <v>228</v>
       </c>
       <c r="B180" s="4" t="s">
-        <v>744</v>
+        <v>792</v>
       </c>
       <c r="C180" s="9">
         <v>2002</v>
@@ -7530,7 +7959,7 @@
         <v>16</v>
       </c>
       <c r="F180" s="5" t="s">
-        <v>745</v>
+        <v>793</v>
       </c>
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.2">
@@ -7538,7 +7967,7 @@
         <v>229</v>
       </c>
       <c r="B181" s="4" t="s">
-        <v>746</v>
+        <v>794</v>
       </c>
       <c r="C181" s="9">
         <v>2003</v>
@@ -7550,7 +7979,7 @@
         <v>0</v>
       </c>
       <c r="F181" s="5" t="s">
-        <v>747</v>
+        <v>795</v>
       </c>
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.2">
@@ -7558,7 +7987,7 @@
         <v>230</v>
       </c>
       <c r="B182" s="4" t="s">
-        <v>748</v>
+        <v>796</v>
       </c>
       <c r="C182" s="9">
         <v>2005</v>
@@ -7570,7 +7999,7 @@
         <v>12</v>
       </c>
       <c r="F182" s="5" t="s">
-        <v>749</v>
+        <v>797</v>
       </c>
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.2">
@@ -7578,7 +8007,7 @@
         <v>231</v>
       </c>
       <c r="B183" s="4" t="s">
-        <v>750</v>
+        <v>798</v>
       </c>
       <c r="C183" s="9">
         <v>2004</v>
@@ -7590,7 +8019,7 @@
         <v>6</v>
       </c>
       <c r="F183" s="5" t="s">
-        <v>751</v>
+        <v>799</v>
       </c>
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.2">
@@ -7598,7 +8027,7 @@
         <v>232</v>
       </c>
       <c r="B184" s="4" t="s">
-        <v>897</v>
+        <v>945</v>
       </c>
       <c r="C184" s="9">
         <v>1999</v>
@@ -7610,7 +8039,7 @@
         <v>12</v>
       </c>
       <c r="F184" s="5" t="s">
-        <v>898</v>
+        <v>946</v>
       </c>
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.2">
@@ -7618,7 +8047,7 @@
         <v>233</v>
       </c>
       <c r="B185" s="4" t="s">
-        <v>769</v>
+        <v>817</v>
       </c>
       <c r="C185" s="9">
         <v>2011</v>
@@ -7630,7 +8059,7 @@
         <v>16</v>
       </c>
       <c r="F185" s="5" t="s">
-        <v>770</v>
+        <v>818</v>
       </c>
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.2">
@@ -7638,130 +8067,130 @@
         <v>234</v>
       </c>
       <c r="B186" s="4" t="s">
-        <v>828</v>
+        <v>1261</v>
       </c>
       <c r="C186" s="9">
-        <v>2005</v>
+        <v>2003</v>
       </c>
       <c r="D186" s="9">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="E186" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F186" s="5" t="s">
-        <v>829</v>
+        <v>1262</v>
       </c>
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A187" s="3" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B187" s="4" t="s">
-        <v>806</v>
+        <v>1283</v>
       </c>
       <c r="C187" s="9">
-        <v>1998</v>
+        <v>2006</v>
       </c>
       <c r="D187" s="9">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="E187" s="9">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="F187" s="5" t="s">
-        <v>807</v>
+        <v>1284</v>
       </c>
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A188" s="3" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="B188" s="4" t="s">
-        <v>968</v>
+        <v>1291</v>
       </c>
       <c r="C188" s="9">
         <v>2002</v>
       </c>
       <c r="D188" s="9">
-        <v>107</v>
+        <v>90</v>
       </c>
       <c r="E188" s="9">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="F188" s="5" t="s">
-        <v>969</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A189" s="3" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="B189" s="4" t="s">
-        <v>966</v>
+        <v>876</v>
       </c>
       <c r="C189" s="9">
-        <v>1986</v>
+        <v>2005</v>
       </c>
       <c r="D189" s="9">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="E189" s="9">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="F189" s="5" t="s">
-        <v>967</v>
+        <v>877</v>
       </c>
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A190" s="3" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="B190" s="4" t="s">
-        <v>786</v>
+        <v>1147</v>
       </c>
       <c r="C190" s="9">
-        <v>2007</v>
+        <v>1998</v>
       </c>
       <c r="D190" s="9">
-        <v>106</v>
+        <v>119</v>
       </c>
       <c r="E190" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F190" s="5" t="s">
-        <v>787</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A191" s="3" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="B191" s="4" t="s">
-        <v>820</v>
+        <v>1232</v>
       </c>
       <c r="C191" s="9">
-        <v>1995</v>
+        <v>1978</v>
       </c>
       <c r="D191" s="9">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="E191" s="9">
         <v>12</v>
       </c>
       <c r="F191" s="5" t="s">
-        <v>821</v>
+        <v>1231</v>
       </c>
     </row>
     <row r="192" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A192" s="3" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="B192" s="4" t="s">
-        <v>1008</v>
+        <v>1234</v>
       </c>
       <c r="C192" s="9">
-        <v>2002</v>
+        <v>1983</v>
       </c>
       <c r="D192" s="9">
         <v>94</v>
@@ -7770,2561 +8199,2561 @@
         <v>12</v>
       </c>
       <c r="F192" s="5" t="s">
-        <v>1009</v>
+        <v>1233</v>
       </c>
     </row>
     <row r="193" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A193" s="3" t="s">
-        <v>250</v>
+        <v>241</v>
       </c>
       <c r="B193" s="4" t="s">
-        <v>982</v>
+        <v>1078</v>
       </c>
       <c r="C193" s="9">
-        <v>2004</v>
+        <v>1992</v>
       </c>
       <c r="D193" s="9">
-        <v>91</v>
+        <v>128</v>
       </c>
       <c r="E193" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F193" s="5" t="s">
-        <v>983</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="194" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A194" s="3" t="s">
-        <v>251</v>
+        <v>242</v>
       </c>
       <c r="B194" s="4" t="s">
-        <v>834</v>
+        <v>854</v>
       </c>
       <c r="C194" s="9">
-        <v>1980</v>
+        <v>1998</v>
       </c>
       <c r="D194" s="9">
-        <v>130</v>
+        <v>82</v>
       </c>
       <c r="E194" s="9">
         <v>6</v>
       </c>
       <c r="F194" s="5" t="s">
-        <v>836</v>
+        <v>855</v>
       </c>
     </row>
     <row r="195" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A195" s="3" t="s">
-        <v>253</v>
+        <v>243</v>
       </c>
       <c r="B195" s="4" t="s">
-        <v>863</v>
+        <v>1088</v>
       </c>
       <c r="C195" s="9">
-        <v>2006</v>
+        <v>1992</v>
       </c>
       <c r="D195" s="9">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="E195" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F195" s="5" t="s">
-        <v>864</v>
+        <v>1089</v>
       </c>
       <c r="G195" t="s">
-        <v>777</v>
+        <v>825</v>
       </c>
     </row>
     <row r="196" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A196" s="3" t="s">
-        <v>254</v>
+        <v>244</v>
       </c>
       <c r="B196" s="4" t="s">
-        <v>869</v>
+        <v>1090</v>
       </c>
       <c r="C196" s="9">
-        <v>1985</v>
+        <v>1995</v>
       </c>
       <c r="D196" s="9">
-        <v>95</v>
+        <v>117</v>
       </c>
       <c r="E196" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F196" s="5" t="s">
-        <v>870</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="197" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A197" s="3" t="s">
-        <v>255</v>
+        <v>245</v>
       </c>
       <c r="B197" s="4" t="s">
-        <v>871</v>
+        <v>1093</v>
       </c>
       <c r="C197" s="9">
-        <v>1987</v>
+        <v>1997</v>
       </c>
       <c r="D197" s="9">
-        <v>90</v>
+        <v>125</v>
       </c>
       <c r="E197" s="9">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="F197" s="5" t="s">
-        <v>872</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="198" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A198" s="3" t="s">
-        <v>256</v>
+        <v>246</v>
       </c>
       <c r="B198" s="4" t="s">
-        <v>873</v>
+        <v>1108</v>
       </c>
       <c r="C198" s="9">
-        <v>1989</v>
+        <v>2005</v>
       </c>
       <c r="D198" s="9">
-        <v>89</v>
+        <v>118</v>
       </c>
       <c r="E198" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F198" s="5" t="s">
-        <v>874</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="199" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A199" s="3" t="s">
-        <v>257</v>
+        <v>247</v>
       </c>
       <c r="B199" s="4" t="s">
-        <v>875</v>
+        <v>1175</v>
       </c>
       <c r="C199" s="9">
-        <v>1990</v>
+        <v>2001</v>
       </c>
       <c r="D199" s="9">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="E199" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F199" s="5" t="s">
-        <v>876</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="200" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A200" s="3" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="B200" s="4" t="s">
-        <v>877</v>
+        <v>1016</v>
       </c>
       <c r="C200" s="9">
-        <v>1992</v>
+        <v>2002</v>
       </c>
       <c r="D200" s="9">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="E200" s="9">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="F200" s="5" t="s">
-        <v>878</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="201" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A201" s="3" t="s">
-        <v>260</v>
+        <v>249</v>
       </c>
       <c r="B201" s="4" t="s">
-        <v>895</v>
+        <v>1014</v>
       </c>
       <c r="C201" s="9">
-        <v>2001</v>
+        <v>1986</v>
       </c>
       <c r="D201" s="9">
-        <v>102</v>
+        <v>79</v>
       </c>
       <c r="E201" s="9">
         <v>6</v>
       </c>
       <c r="F201" s="5" t="s">
-        <v>896</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="202" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A202" s="3" t="s">
-        <v>261</v>
+        <v>250</v>
       </c>
       <c r="B202" s="4" t="s">
-        <v>855</v>
+        <v>834</v>
       </c>
       <c r="C202" s="9">
-        <v>2009</v>
+        <v>2007</v>
       </c>
       <c r="D202" s="9">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="E202" s="9">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="F202" s="5" t="s">
-        <v>856</v>
+        <v>835</v>
       </c>
     </row>
     <row r="203" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A203" s="3" t="s">
-        <v>262</v>
+        <v>251</v>
       </c>
       <c r="B203" s="4" t="s">
-        <v>867</v>
+        <v>868</v>
       </c>
       <c r="C203" s="9">
-        <v>1984</v>
+        <v>1995</v>
       </c>
       <c r="D203" s="9">
-        <v>160</v>
+        <v>94</v>
       </c>
       <c r="E203" s="9">
         <v>12</v>
       </c>
       <c r="F203" s="5" t="s">
-        <v>868</v>
+        <v>869</v>
       </c>
     </row>
     <row r="204" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A204" s="3" t="s">
-        <v>264</v>
+        <v>252</v>
       </c>
       <c r="B204" s="4" t="s">
-        <v>960</v>
+        <v>1056</v>
       </c>
       <c r="C204" s="9">
-        <v>2021</v>
+        <v>2002</v>
       </c>
       <c r="D204" s="9">
-        <v>148</v>
+        <v>94</v>
       </c>
       <c r="E204" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F204" s="5" t="s">
-        <v>961</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="205" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A205" s="3" t="s">
-        <v>265</v>
+        <v>253</v>
       </c>
       <c r="B205" s="4" t="s">
-        <v>865</v>
+        <v>1112</v>
       </c>
       <c r="C205" s="9">
-        <v>2020</v>
+        <v>1988</v>
       </c>
       <c r="D205" s="9">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="E205" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F205" s="5" t="s">
-        <v>866</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="206" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A206" s="3" t="s">
-        <v>269</v>
+        <v>254</v>
       </c>
       <c r="B206" s="4" t="s">
-        <v>775</v>
+        <v>1072</v>
       </c>
       <c r="C206" s="9">
-        <v>2001</v>
+        <v>1999</v>
       </c>
       <c r="D206" s="9">
-        <v>87</v>
+        <v>104</v>
       </c>
       <c r="E206" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F206" s="5" t="s">
-        <v>776</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="207" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A207" s="3" t="s">
-        <v>273</v>
+        <v>255</v>
       </c>
       <c r="B207" s="4" t="s">
-        <v>753</v>
+        <v>1030</v>
       </c>
       <c r="C207" s="9">
-        <v>1994</v>
+        <v>2004</v>
       </c>
       <c r="D207" s="9">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E207" s="9">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="F207" s="5" t="s">
-        <v>754</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="208" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A208" s="3" t="s">
-        <v>276</v>
+        <v>256</v>
       </c>
       <c r="B208" s="4" t="s">
-        <v>956</v>
+        <v>882</v>
       </c>
       <c r="C208" s="9">
-        <v>1986</v>
+        <v>1980</v>
       </c>
       <c r="D208" s="9">
-        <v>88</v>
+        <v>130</v>
       </c>
       <c r="E208" s="9">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="F208" s="5" t="s">
-        <v>957</v>
+        <v>884</v>
       </c>
     </row>
     <row r="209" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A209" s="3" t="s">
-        <v>277</v>
+        <v>257</v>
       </c>
       <c r="B209" s="4" t="s">
-        <v>958</v>
+        <v>1155</v>
       </c>
       <c r="C209" s="9">
-        <v>1991</v>
+        <v>2023</v>
       </c>
       <c r="D209" s="9">
-        <v>106</v>
+        <v>128</v>
       </c>
       <c r="E209" s="9">
         <v>12</v>
       </c>
       <c r="F209" s="5" t="s">
-        <v>959</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="210" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A210" s="3" t="s">
-        <v>279</v>
+        <v>258</v>
       </c>
       <c r="B210" s="4" t="s">
-        <v>830</v>
+        <v>911</v>
       </c>
       <c r="C210" s="9">
-        <v>1988</v>
+        <v>2006</v>
       </c>
       <c r="D210" s="9">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="E210" s="9">
         <v>16</v>
       </c>
       <c r="F210" s="5" t="s">
-        <v>831</v>
+        <v>912</v>
       </c>
     </row>
     <row r="211" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A211" s="3" t="s">
-        <v>280</v>
+        <v>259</v>
       </c>
       <c r="B211" s="4" t="s">
-        <v>970</v>
+        <v>917</v>
       </c>
       <c r="C211" s="9">
-        <v>1989</v>
+        <v>1985</v>
       </c>
       <c r="D211" s="9">
-        <v>77</v>
+        <v>95</v>
       </c>
       <c r="E211" s="9">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="F211" s="5" t="s">
-        <v>971</v>
+        <v>918</v>
       </c>
     </row>
     <row r="212" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A212" s="3" t="s">
-        <v>285</v>
+        <v>260</v>
       </c>
       <c r="B212" s="4" t="s">
-        <v>917</v>
+        <v>919</v>
       </c>
       <c r="C212" s="9">
-        <v>1998</v>
+        <v>1987</v>
       </c>
       <c r="D212" s="9">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="E212" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F212" s="5" t="s">
-        <v>918</v>
+        <v>920</v>
       </c>
     </row>
     <row r="213" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A213" s="3" t="s">
-        <v>286</v>
+        <v>261</v>
       </c>
       <c r="B213" s="4" t="s">
-        <v>800</v>
+        <v>921</v>
       </c>
       <c r="C213" s="9">
-        <v>2009</v>
+        <v>1989</v>
       </c>
       <c r="D213" s="9">
-        <v>158</v>
+        <v>89</v>
       </c>
       <c r="E213" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F213" s="5" t="s">
-        <v>801</v>
+        <v>922</v>
       </c>
     </row>
     <row r="214" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A214" s="3" t="s">
-        <v>287</v>
+        <v>262</v>
       </c>
       <c r="B214" s="4" t="s">
-        <v>998</v>
+        <v>923</v>
       </c>
       <c r="C214" s="9">
-        <v>2012</v>
+        <v>1990</v>
       </c>
       <c r="D214" s="9">
-        <v>144</v>
+        <v>100</v>
       </c>
       <c r="E214" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F214" s="5" t="s">
-        <v>999</v>
+        <v>924</v>
       </c>
     </row>
     <row r="215" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A215" s="3" t="s">
-        <v>288</v>
+        <v>263</v>
       </c>
       <c r="B215" s="4" t="s">
-        <v>818</v>
+        <v>925</v>
       </c>
       <c r="C215" s="9">
-        <v>2012</v>
+        <v>1992</v>
       </c>
       <c r="D215" s="9">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="E215" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F215" s="5" t="s">
-        <v>819</v>
+        <v>926</v>
       </c>
     </row>
     <row r="216" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A216" s="3" t="s">
-        <v>289</v>
+        <v>264</v>
       </c>
       <c r="B216" s="4" t="s">
-        <v>784</v>
+        <v>1188</v>
       </c>
       <c r="C216" s="9">
-        <v>2010</v>
+        <v>1999</v>
       </c>
       <c r="D216" s="9">
-        <v>153</v>
+        <v>101</v>
       </c>
       <c r="E216" s="9">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="F216" s="5" t="s">
-        <v>785</v>
+        <v>1189</v>
       </c>
     </row>
     <row r="217" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A217" s="3" t="s">
-        <v>291</v>
+        <v>265</v>
       </c>
       <c r="B217" s="4" t="s">
-        <v>994</v>
+        <v>1293</v>
       </c>
       <c r="C217" s="9">
-        <v>2002</v>
+        <v>1999</v>
       </c>
       <c r="D217" s="9">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="E217" s="9">
         <v>12</v>
       </c>
       <c r="F217" s="5" t="s">
-        <v>995</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="218" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A218" s="3" t="s">
-        <v>292</v>
+        <v>266</v>
       </c>
       <c r="B218" s="4" t="s">
-        <v>927</v>
+        <v>943</v>
       </c>
       <c r="C218" s="9">
-        <v>2011</v>
+        <v>2001</v>
       </c>
       <c r="D218" s="9">
-        <v>86</v>
+        <v>102</v>
       </c>
       <c r="E218" s="9">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="F218" s="5" t="s">
-        <v>928</v>
+        <v>944</v>
       </c>
     </row>
     <row r="219" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A219" s="3" t="s">
-        <v>295</v>
+        <v>267</v>
       </c>
       <c r="B219" s="4" t="s">
-        <v>767</v>
+        <v>1255</v>
       </c>
       <c r="C219" s="9">
-        <v>1986</v>
+        <v>2005</v>
       </c>
       <c r="D219" s="9">
-        <v>117</v>
+        <v>136</v>
       </c>
       <c r="E219" s="9">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="F219" s="5" t="s">
-        <v>768</v>
+        <v>1256</v>
       </c>
     </row>
     <row r="220" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A220" s="3" t="s">
-        <v>296</v>
+        <v>268</v>
       </c>
       <c r="B220" s="4" t="s">
-        <v>881</v>
+        <v>903</v>
       </c>
       <c r="C220" s="9">
-        <v>1999</v>
+        <v>2009</v>
       </c>
       <c r="D220" s="9">
-        <v>96</v>
+        <v>113</v>
       </c>
       <c r="E220" s="9">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="F220" s="5" t="s">
-        <v>882</v>
+        <v>904</v>
       </c>
     </row>
     <row r="221" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A221" s="3" t="s">
-        <v>298</v>
+        <v>269</v>
       </c>
       <c r="B221" s="4" t="s">
-        <v>755</v>
+        <v>915</v>
       </c>
       <c r="C221" s="9">
-        <v>2007</v>
+        <v>1984</v>
       </c>
       <c r="D221" s="9">
-        <v>101</v>
+        <v>160</v>
       </c>
       <c r="E221" s="9">
         <v>12</v>
       </c>
       <c r="F221" s="5" t="s">
-        <v>756</v>
+        <v>916</v>
       </c>
     </row>
     <row r="222" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A222" s="3" t="s">
-        <v>299</v>
+        <v>270</v>
       </c>
       <c r="B222" s="4" t="s">
-        <v>814</v>
+        <v>1202</v>
       </c>
       <c r="C222" s="9">
-        <v>2002</v>
+        <v>2008</v>
       </c>
       <c r="D222" s="9">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="E222" s="9">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="F222" s="5" t="s">
-        <v>815</v>
+        <v>1203</v>
       </c>
     </row>
     <row r="223" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A223" s="3" t="s">
-        <v>305</v>
+        <v>271</v>
       </c>
       <c r="B223" s="4" t="s">
-        <v>925</v>
+        <v>1114</v>
       </c>
       <c r="C223" s="9">
-        <v>2006</v>
+        <v>1998</v>
       </c>
       <c r="D223" s="9">
-        <v>138</v>
+        <v>95</v>
       </c>
       <c r="E223" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F223" s="5" t="s">
-        <v>926</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="224" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A224" s="3" t="s">
-        <v>306</v>
+        <v>272</v>
       </c>
       <c r="B224" s="4" t="s">
-        <v>990</v>
+        <v>1265</v>
       </c>
       <c r="C224" s="9">
-        <v>1997</v>
+        <v>1985</v>
       </c>
       <c r="D224" s="9">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="E224" s="9">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="F224" s="5" t="s">
-        <v>991</v>
+        <v>1266</v>
       </c>
     </row>
     <row r="225" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A225" s="3" t="s">
-        <v>309</v>
+        <v>273</v>
       </c>
       <c r="B225" s="4" t="s">
-        <v>954</v>
+        <v>1008</v>
       </c>
       <c r="C225" s="9">
-        <v>1998</v>
+        <v>2021</v>
       </c>
       <c r="D225" s="9">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="E225" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F225" s="5" t="s">
-        <v>955</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="226" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A226" s="3" t="s">
-        <v>310</v>
+        <v>274</v>
       </c>
       <c r="B226" s="4" t="s">
-        <v>883</v>
+        <v>1275</v>
       </c>
       <c r="C226" s="9">
-        <v>2001</v>
+        <v>2010</v>
       </c>
       <c r="D226" s="9">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="E226" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F226" s="5" t="s">
-        <v>884</v>
+        <v>1276</v>
       </c>
     </row>
     <row r="227" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A227" s="3" t="s">
-        <v>311</v>
+        <v>275</v>
       </c>
       <c r="B227" s="4" t="s">
-        <v>885</v>
+        <v>913</v>
       </c>
       <c r="C227" s="9">
-        <v>2003</v>
+        <v>2020</v>
       </c>
       <c r="D227" s="9">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="E227" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F227" s="5" t="s">
-        <v>886</v>
+        <v>914</v>
       </c>
     </row>
     <row r="228" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A228" s="3" t="s">
-        <v>312</v>
+        <v>276</v>
       </c>
       <c r="B228" s="4" t="s">
-        <v>891</v>
+        <v>1074</v>
       </c>
       <c r="C228" s="9">
-        <v>2012</v>
+        <v>2003</v>
       </c>
       <c r="D228" s="9">
-        <v>113</v>
+        <v>85</v>
       </c>
       <c r="E228" s="9">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="F228" s="5" t="s">
-        <v>892</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="229" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A229" s="3" t="s">
-        <v>314</v>
+        <v>277</v>
       </c>
       <c r="B229" s="4" t="s">
-        <v>849</v>
+        <v>1159</v>
       </c>
       <c r="C229" s="9">
-        <v>2003</v>
+        <v>2010</v>
       </c>
       <c r="D229" s="9">
-        <v>92</v>
+        <v>118</v>
       </c>
       <c r="E229" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F229" s="5" t="s">
-        <v>850</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="230" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A230" s="3" t="s">
-        <v>315</v>
+        <v>278</v>
       </c>
       <c r="B230" s="4" t="s">
-        <v>992</v>
+        <v>1194</v>
       </c>
       <c r="C230" s="9">
-        <v>1999</v>
+        <v>2008</v>
       </c>
       <c r="D230" s="9">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E230" s="9">
         <v>12</v>
       </c>
       <c r="F230" s="5" t="s">
-        <v>993</v>
+        <v>1195</v>
       </c>
     </row>
     <row r="231" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A231" s="3" t="s">
-        <v>317</v>
+        <v>279</v>
       </c>
       <c r="B231" s="4" t="s">
-        <v>802</v>
+        <v>823</v>
       </c>
       <c r="C231" s="9">
-        <v>1964</v>
+        <v>2001</v>
       </c>
       <c r="D231" s="9">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="E231" s="9">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="F231" s="5" t="s">
-        <v>803</v>
+        <v>824</v>
       </c>
     </row>
     <row r="232" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A232" s="3" t="s">
-        <v>318</v>
+        <v>280</v>
       </c>
       <c r="B232" s="4" t="s">
-        <v>788</v>
+        <v>1094</v>
       </c>
       <c r="C232" s="9">
         <v>2008</v>
       </c>
       <c r="D232" s="9">
-        <v>93</v>
+        <v>153</v>
       </c>
       <c r="E232" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F232" s="5" t="s">
-        <v>789</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="233" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A233" s="3" t="s">
-        <v>319</v>
+        <v>281</v>
       </c>
       <c r="B233" s="4" t="s">
-        <v>790</v>
+        <v>1186</v>
       </c>
       <c r="C233" s="9">
-        <v>2012</v>
+        <v>2008</v>
       </c>
       <c r="D233" s="9">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="E233" s="9">
         <v>16</v>
       </c>
       <c r="F233" s="5" t="s">
-        <v>791</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="234" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A234" s="3" t="s">
-        <v>320</v>
+        <v>282</v>
       </c>
       <c r="B234" s="4" t="s">
-        <v>792</v>
+        <v>1060</v>
       </c>
       <c r="C234" s="9">
-        <v>2014</v>
+        <v>1995</v>
       </c>
       <c r="D234" s="9">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="E234" s="9">
         <v>16</v>
       </c>
       <c r="F234" s="5" t="s">
-        <v>793</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="235" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A235" s="3" t="s">
-        <v>321</v>
+        <v>283</v>
       </c>
       <c r="B235" s="4" t="s">
-        <v>861</v>
+        <v>1282</v>
       </c>
       <c r="C235" s="9">
-        <v>2000</v>
+        <v>2011</v>
       </c>
       <c r="D235" s="9">
-        <v>162</v>
+        <v>118</v>
       </c>
       <c r="E235" s="9">
         <v>12</v>
       </c>
       <c r="F235" s="5" t="s">
-        <v>862</v>
+        <v>1281</v>
       </c>
     </row>
     <row r="236" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A236" s="3" t="s">
-        <v>322</v>
+        <v>284</v>
       </c>
       <c r="B236" s="4" t="s">
-        <v>889</v>
+        <v>801</v>
       </c>
       <c r="C236" s="9">
-        <v>2009</v>
+        <v>1994</v>
       </c>
       <c r="D236" s="9">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="E236" s="9">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="F236" s="5" t="s">
-        <v>890</v>
+        <v>802</v>
       </c>
     </row>
     <row r="237" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A237" s="3" t="s">
-        <v>323</v>
+        <v>285</v>
       </c>
       <c r="B237" s="4" t="s">
-        <v>948</v>
+        <v>1086</v>
       </c>
       <c r="C237" s="9">
         <v>1989</v>
       </c>
       <c r="D237" s="9">
-        <v>85</v>
+        <v>121</v>
       </c>
       <c r="E237" s="9">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="F237" s="5" t="s">
-        <v>949</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="238" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A238" s="3" t="s">
-        <v>324</v>
+        <v>286</v>
       </c>
       <c r="B238" s="4" t="s">
-        <v>887</v>
+        <v>1096</v>
       </c>
       <c r="C238" s="9">
-        <v>2005</v>
+        <v>2012</v>
       </c>
       <c r="D238" s="9">
-        <v>94</v>
+        <v>164</v>
       </c>
       <c r="E238" s="9">
         <v>12</v>
       </c>
       <c r="F238" s="5" t="s">
-        <v>888</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="239" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A239" s="3" t="s">
-        <v>325</v>
+        <v>287</v>
       </c>
       <c r="B239" s="4" t="s">
-        <v>812</v>
+        <v>1004</v>
       </c>
       <c r="C239" s="9">
-        <v>2003</v>
+        <v>1986</v>
       </c>
       <c r="D239" s="9">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="E239" s="9">
         <v>12</v>
       </c>
       <c r="F239" s="5" t="s">
-        <v>813</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="240" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A240" s="3" t="s">
-        <v>326</v>
+        <v>288</v>
       </c>
       <c r="B240" s="4" t="s">
-        <v>1000</v>
+        <v>1006</v>
       </c>
       <c r="C240" s="9">
-        <v>2015</v>
+        <v>1991</v>
       </c>
       <c r="D240" s="9">
-        <v>142</v>
+        <v>106</v>
       </c>
       <c r="E240" s="9">
         <v>12</v>
       </c>
       <c r="F240" s="5" t="s">
-        <v>1001</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="241" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A241" s="3" t="s">
-        <v>327</v>
+        <v>289</v>
       </c>
       <c r="B241" s="4" t="s">
-        <v>915</v>
+        <v>1058</v>
       </c>
       <c r="C241" s="9">
-        <v>2003</v>
+        <v>2006</v>
       </c>
       <c r="D241" s="9">
-        <v>102</v>
+        <v>142</v>
       </c>
       <c r="E241" s="9">
         <v>16</v>
       </c>
       <c r="F241" s="5" t="s">
-        <v>916</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="242" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A242" s="3" t="s">
-        <v>328</v>
+        <v>290</v>
       </c>
       <c r="B242" s="4" t="s">
-        <v>996</v>
+        <v>878</v>
       </c>
       <c r="C242" s="9">
-        <v>2009</v>
+        <v>1988</v>
       </c>
       <c r="D242" s="9">
-        <v>162</v>
+        <v>124</v>
       </c>
       <c r="E242" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F242" s="5" t="s">
-        <v>997</v>
+        <v>879</v>
       </c>
     </row>
     <row r="243" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A243" s="3" t="s">
-        <v>329</v>
+        <v>291</v>
       </c>
       <c r="B243" s="4" t="s">
-        <v>907</v>
+        <v>1267</v>
       </c>
       <c r="C243" s="9">
-        <v>2020</v>
+        <v>1995</v>
       </c>
       <c r="D243" s="9">
-        <v>87</v>
+        <v>104</v>
       </c>
       <c r="E243" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F243" s="5" t="s">
-        <v>908</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="244" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A244" s="3" t="s">
-        <v>331</v>
+        <v>292</v>
       </c>
       <c r="B244" s="4" t="s">
-        <v>798</v>
+        <v>1018</v>
       </c>
       <c r="C244" s="9">
-        <v>1968</v>
+        <v>1989</v>
       </c>
       <c r="D244" s="9">
-        <v>164</v>
+        <v>77</v>
       </c>
       <c r="E244" s="9">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="F244" s="5" t="s">
-        <v>799</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="245" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A245" s="3" t="s">
-        <v>332</v>
+        <v>293</v>
       </c>
       <c r="B245" s="4" t="s">
-        <v>841</v>
+        <v>1135</v>
       </c>
       <c r="C245" s="9">
-        <v>2010</v>
+        <v>2022</v>
       </c>
       <c r="D245" s="9">
-        <v>108</v>
+        <v>125</v>
       </c>
       <c r="E245" s="9">
         <v>12</v>
       </c>
       <c r="F245" s="5" t="s">
-        <v>842</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="246" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A246" s="3" t="s">
-        <v>333</v>
+        <v>294</v>
       </c>
       <c r="B246" s="4" t="s">
-        <v>837</v>
+        <v>1172</v>
       </c>
       <c r="C246" s="9">
-        <v>2009</v>
+        <v>2000</v>
       </c>
       <c r="D246" s="9">
-        <v>170</v>
+        <v>90</v>
       </c>
       <c r="E246" s="9">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="F246" s="5" t="s">
-        <v>838</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="247" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A247" s="3" t="s">
-        <v>336</v>
+        <v>295</v>
       </c>
       <c r="B247" s="4" t="s">
-        <v>778</v>
+        <v>1141</v>
       </c>
       <c r="C247" s="9">
-        <v>2012</v>
+        <v>2010</v>
       </c>
       <c r="D247" s="9">
         <v>110</v>
       </c>
       <c r="E247" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F247" s="5" t="s">
-        <v>779</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="248" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A248" s="3" t="s">
-        <v>337</v>
+        <v>296</v>
       </c>
       <c r="B248" s="4" t="s">
-        <v>780</v>
+        <v>1066</v>
       </c>
       <c r="C248" s="9">
-        <v>2014</v>
+        <v>2011</v>
       </c>
       <c r="D248" s="9">
-        <v>112</v>
+        <v>97</v>
       </c>
       <c r="E248" s="9">
         <v>12</v>
       </c>
       <c r="F248" s="5" t="s">
-        <v>781</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="249" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A249" s="3" t="s">
-        <v>338</v>
+        <v>297</v>
       </c>
       <c r="B249" s="4" t="s">
-        <v>773</v>
+        <v>1200</v>
       </c>
       <c r="C249" s="9">
-        <v>1952</v>
+        <v>2009</v>
       </c>
       <c r="D249" s="9">
-        <v>85</v>
+        <v>117</v>
       </c>
       <c r="E249" s="9">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="F249" s="5" t="s">
-        <v>774</v>
+        <v>1201</v>
       </c>
     </row>
     <row r="250" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A250" s="3" t="s">
-        <v>340</v>
+        <v>298</v>
       </c>
       <c r="B250" s="4" t="s">
-        <v>796</v>
+        <v>965</v>
       </c>
       <c r="C250" s="9">
-        <v>1975</v>
+        <v>1998</v>
       </c>
       <c r="D250" s="9">
-        <v>132</v>
+        <v>101</v>
       </c>
       <c r="E250" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F250" s="5" t="s">
-        <v>797</v>
+        <v>966</v>
       </c>
     </row>
     <row r="251" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A251" s="3" t="s">
-        <v>343</v>
+        <v>299</v>
       </c>
       <c r="B251" s="4" t="s">
-        <v>765</v>
+        <v>848</v>
       </c>
       <c r="C251" s="9">
-        <v>2012</v>
+        <v>2009</v>
       </c>
       <c r="D251" s="9">
-        <v>110</v>
+        <v>158</v>
       </c>
       <c r="E251" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F251" s="5" t="s">
-        <v>766</v>
+        <v>849</v>
       </c>
     </row>
     <row r="252" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A252" s="3" t="s">
-        <v>344</v>
+        <v>300</v>
       </c>
       <c r="B252" s="4" t="s">
-        <v>923</v>
+        <v>1046</v>
       </c>
       <c r="C252" s="9">
-        <v>1979</v>
+        <v>2012</v>
       </c>
       <c r="D252" s="9">
-        <v>153</v>
+        <v>144</v>
       </c>
       <c r="E252" s="9">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="F252" s="5" t="s">
-        <v>924</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="253" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A253" s="3" t="s">
-        <v>345</v>
+        <v>301</v>
       </c>
       <c r="B253" s="4" t="s">
-        <v>771</v>
+        <v>1271</v>
       </c>
       <c r="C253" s="9">
-        <v>1995</v>
+        <v>2012</v>
       </c>
       <c r="D253" s="9">
-        <v>131</v>
+        <v>111</v>
       </c>
       <c r="E253" s="9">
         <v>16</v>
       </c>
       <c r="F253" s="5" t="s">
-        <v>772</v>
+        <v>1272</v>
       </c>
     </row>
     <row r="254" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A254" s="3" t="s">
-        <v>346</v>
+        <v>302</v>
       </c>
       <c r="B254" s="4" t="s">
-        <v>935</v>
+        <v>866</v>
       </c>
       <c r="C254" s="9">
-        <v>2011</v>
+        <v>2012</v>
       </c>
       <c r="D254" s="9">
-        <v>163</v>
+        <v>96</v>
       </c>
       <c r="E254" s="9">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="F254" s="5" t="s">
-        <v>934</v>
+        <v>867</v>
       </c>
     </row>
     <row r="255" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A255" s="3" t="s">
-        <v>347</v>
+        <v>303</v>
       </c>
       <c r="B255" s="4" t="s">
-        <v>929</v>
+        <v>832</v>
       </c>
       <c r="C255" s="9">
-        <v>2004</v>
+        <v>2010</v>
       </c>
       <c r="D255" s="9">
-        <v>106</v>
+        <v>153</v>
       </c>
       <c r="E255" s="9">
         <v>12</v>
       </c>
       <c r="F255" s="5" t="s">
-        <v>930</v>
+        <v>833</v>
       </c>
     </row>
     <row r="256" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A256" s="3" t="s">
-        <v>348</v>
+        <v>304</v>
       </c>
       <c r="B256" s="4" t="s">
-        <v>931</v>
+        <v>1184</v>
       </c>
       <c r="C256" s="9">
-        <v>2007</v>
+        <v>2009</v>
       </c>
       <c r="D256" s="9">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="E256" s="9">
         <v>12</v>
       </c>
       <c r="F256" s="5" t="s">
-        <v>932</v>
+        <v>1185</v>
       </c>
     </row>
     <row r="257" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A257" s="3" t="s">
-        <v>349</v>
+        <v>305</v>
       </c>
       <c r="B257" s="4" t="s">
-        <v>933</v>
+        <v>1237</v>
       </c>
       <c r="C257" s="9">
-        <v>2011</v>
+        <v>2013</v>
       </c>
       <c r="D257" s="9">
-        <v>170</v>
+        <v>130</v>
       </c>
       <c r="E257" s="9">
         <v>12</v>
       </c>
       <c r="F257" s="5" t="s">
-        <v>934</v>
+        <v>1238</v>
       </c>
     </row>
     <row r="258" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A258" s="3" t="s">
-        <v>350</v>
+        <v>306</v>
       </c>
       <c r="B258" s="4" t="s">
-        <v>936</v>
+        <v>1042</v>
       </c>
       <c r="C258" s="9">
-        <v>2014</v>
+        <v>2002</v>
       </c>
       <c r="D258" s="9">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="E258" s="9">
         <v>12</v>
       </c>
       <c r="F258" s="5" t="s">
-        <v>937</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="259" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A259" s="3" t="s">
-        <v>351</v>
+        <v>307</v>
       </c>
       <c r="B259" s="4" t="s">
-        <v>903</v>
+        <v>975</v>
       </c>
       <c r="C259" s="9">
-        <v>1997</v>
+        <v>2011</v>
       </c>
       <c r="D259" s="9">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="E259" s="9">
         <v>16</v>
       </c>
       <c r="F259" s="5" t="s">
-        <v>899</v>
+        <v>976</v>
       </c>
     </row>
     <row r="260" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A260" s="3" t="s">
-        <v>352</v>
+        <v>308</v>
       </c>
       <c r="B260" s="4" t="s">
-        <v>904</v>
+        <v>1169</v>
       </c>
       <c r="C260" s="9">
-        <v>2004</v>
+        <v>2013</v>
       </c>
       <c r="D260" s="9">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="E260" s="9">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="F260" s="5" t="s">
-        <v>900</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="261" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A261" s="3" t="s">
-        <v>353</v>
+        <v>309</v>
       </c>
       <c r="B261" s="4" t="s">
-        <v>905</v>
+        <v>1129</v>
       </c>
       <c r="C261" s="9">
-        <v>2008</v>
+        <v>2000</v>
       </c>
       <c r="D261" s="9">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="E261" s="9">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="F261" s="5" t="s">
-        <v>901</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="262" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A262" s="3" t="s">
-        <v>354</v>
+        <v>310</v>
       </c>
       <c r="B262" s="4" t="s">
-        <v>906</v>
+        <v>815</v>
       </c>
       <c r="C262" s="9">
-        <v>2009</v>
+        <v>1986</v>
       </c>
       <c r="D262" s="9">
-        <v>89</v>
+        <v>117</v>
       </c>
       <c r="E262" s="9">
         <v>16</v>
       </c>
       <c r="F262" s="5" t="s">
-        <v>902</v>
+        <v>816</v>
       </c>
     </row>
     <row r="263" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A263" s="3" t="s">
-        <v>355</v>
+        <v>311</v>
       </c>
       <c r="B263" s="4" t="s">
-        <v>782</v>
+        <v>929</v>
       </c>
       <c r="C263" s="9">
-        <v>2013</v>
+        <v>1999</v>
       </c>
       <c r="D263" s="9">
-        <v>128</v>
+        <v>96</v>
       </c>
       <c r="E263" s="9">
         <v>12</v>
       </c>
       <c r="F263" s="5" t="s">
-        <v>783</v>
+        <v>930</v>
       </c>
     </row>
     <row r="264" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A264" s="3" t="s">
-        <v>358</v>
+        <v>312</v>
       </c>
       <c r="B264" s="4" t="s">
-        <v>816</v>
+        <v>1121</v>
       </c>
       <c r="C264" s="9">
-        <v>2012</v>
+        <v>1999</v>
       </c>
       <c r="D264" s="9">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="E264" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F264" s="5" t="s">
-        <v>817</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="265" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A265" s="3" t="s">
-        <v>359</v>
+        <v>313</v>
       </c>
       <c r="B265" s="4" t="s">
-        <v>810</v>
+        <v>803</v>
       </c>
       <c r="C265" s="9">
-        <v>2015</v>
+        <v>2007</v>
       </c>
       <c r="D265" s="9">
-        <v>130</v>
+        <v>101</v>
       </c>
       <c r="E265" s="9">
         <v>12</v>
       </c>
       <c r="F265" s="5" t="s">
-        <v>811</v>
+        <v>804</v>
       </c>
     </row>
     <row r="266" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A266" s="3" t="s">
-        <v>360</v>
+        <v>314</v>
       </c>
       <c r="B266" s="4" t="s">
-        <v>919</v>
+        <v>862</v>
       </c>
       <c r="C266" s="9">
-        <v>2015</v>
+        <v>2002</v>
       </c>
       <c r="D266" s="9">
-        <v>118</v>
+        <v>105</v>
       </c>
       <c r="E266" s="9">
         <v>6</v>
       </c>
       <c r="F266" s="5" t="s">
-        <v>920</v>
+        <v>863</v>
       </c>
     </row>
     <row r="267" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A267" s="3" t="s">
-        <v>362</v>
+        <v>315</v>
       </c>
       <c r="B267" s="4" t="s">
-        <v>826</v>
+        <v>1257</v>
       </c>
       <c r="C267" s="9">
-        <v>2015</v>
+        <v>2009</v>
       </c>
       <c r="D267" s="9">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E267" s="9">
         <v>6</v>
       </c>
       <c r="F267" s="5" t="s">
-        <v>827</v>
+        <v>1258</v>
       </c>
     </row>
     <row r="268" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A268" s="3" t="s">
-        <v>366</v>
+        <v>316</v>
       </c>
       <c r="B268" s="4" t="s">
-        <v>804</v>
+        <v>1225</v>
       </c>
       <c r="C268" s="9">
-        <v>2014</v>
+        <v>2002</v>
       </c>
       <c r="D268" s="9">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="E268" s="9">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="F268" s="5" t="s">
-        <v>805</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="269" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A269" s="3" t="s">
-        <v>367</v>
+        <v>317</v>
       </c>
       <c r="B269" s="4" t="s">
-        <v>893</v>
+        <v>1180</v>
       </c>
       <c r="C269" s="9">
-        <v>2015</v>
+        <v>2005</v>
       </c>
       <c r="D269" s="9">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="E269" s="9">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="F269" s="5" t="s">
-        <v>894</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="270" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A270" s="3" t="s">
-        <v>368</v>
+        <v>318</v>
       </c>
       <c r="B270" s="4" t="s">
-        <v>794</v>
+        <v>1161</v>
       </c>
       <c r="C270" s="9">
-        <v>2015</v>
+        <v>2006</v>
       </c>
       <c r="D270" s="9">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="E270" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F270" s="5" t="s">
-        <v>795</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="271" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A271" s="3" t="s">
-        <v>369</v>
+        <v>319</v>
       </c>
       <c r="B271" s="4" t="s">
-        <v>952</v>
+        <v>1137</v>
       </c>
       <c r="C271" s="9">
-        <v>2015</v>
+        <v>2001</v>
       </c>
       <c r="D271" s="9">
-        <v>100</v>
+        <v>152</v>
       </c>
       <c r="E271" s="9">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="F271" s="5" t="s">
-        <v>953</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="272" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A272" s="3" t="s">
-        <v>370</v>
+        <v>320</v>
       </c>
       <c r="B272" s="4" t="s">
-        <v>950</v>
+        <v>1076</v>
       </c>
       <c r="C272" s="9">
-        <v>1970</v>
+        <v>2006</v>
       </c>
       <c r="D272" s="9">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="E272" s="9">
         <v>0</v>
       </c>
       <c r="F272" s="5" t="s">
-        <v>951</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="273" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A273" s="3" t="s">
-        <v>371</v>
+        <v>321</v>
       </c>
       <c r="B273" s="4" t="s">
-        <v>757</v>
+        <v>1190</v>
       </c>
       <c r="C273" s="9">
-        <v>1994</v>
+        <v>1979</v>
       </c>
       <c r="D273" s="9">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="E273" s="9">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="F273" s="5" t="s">
-        <v>758</v>
+        <v>1191</v>
       </c>
     </row>
     <row r="274" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A274" s="3" t="s">
-        <v>372</v>
+        <v>322</v>
       </c>
       <c r="B274" s="4" t="s">
-        <v>759</v>
+        <v>1289</v>
       </c>
       <c r="C274" s="9">
-        <v>1995</v>
+        <v>1990</v>
       </c>
       <c r="D274" s="9">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="E274" s="9">
         <v>12</v>
       </c>
       <c r="F274" s="5" t="s">
-        <v>760</v>
+        <v>1290</v>
       </c>
     </row>
     <row r="275" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A275" s="3" t="s">
-        <v>373</v>
+        <v>323</v>
       </c>
       <c r="B275" s="4" t="s">
-        <v>761</v>
+        <v>973</v>
       </c>
       <c r="C275" s="9">
-        <v>1998</v>
+        <v>2006</v>
       </c>
       <c r="D275" s="9">
-        <v>94</v>
+        <v>138</v>
       </c>
       <c r="E275" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F275" s="5" t="s">
-        <v>762</v>
+        <v>974</v>
       </c>
     </row>
     <row r="276" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A276" s="3" t="s">
-        <v>375</v>
+        <v>324</v>
       </c>
       <c r="B276" s="4" t="s">
-        <v>839</v>
+        <v>1038</v>
       </c>
       <c r="C276" s="9">
-        <v>2016</v>
+        <v>1997</v>
       </c>
       <c r="D276" s="9">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="E276" s="9">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="F276" s="5" t="s">
-        <v>840</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="277" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A277" s="3" t="s">
-        <v>377</v>
+        <v>325</v>
       </c>
       <c r="B277" s="4" t="s">
-        <v>843</v>
+        <v>1145</v>
       </c>
       <c r="C277" s="9">
-        <v>2016</v>
+        <v>2021</v>
       </c>
       <c r="D277" s="9">
-        <v>114</v>
+        <v>134</v>
       </c>
       <c r="E277" s="9">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="F277" s="5" t="s">
-        <v>844</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="278" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A278" s="3" t="s">
-        <v>380</v>
+        <v>326</v>
       </c>
       <c r="B278" s="4" t="s">
-        <v>944</v>
+        <v>1110</v>
       </c>
       <c r="C278" s="9">
-        <v>2002</v>
+        <v>2008</v>
       </c>
       <c r="D278" s="9">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="E278" s="9">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="F278" s="5" t="s">
-        <v>945</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="279" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A279" s="3" t="s">
-        <v>381</v>
+        <v>327</v>
       </c>
       <c r="B279" s="4" t="s">
-        <v>962</v>
+        <v>1002</v>
       </c>
       <c r="C279" s="9">
-        <v>2016</v>
+        <v>1998</v>
       </c>
       <c r="D279" s="9">
-        <v>118</v>
+        <v>153</v>
       </c>
       <c r="E279" s="9">
         <v>12</v>
       </c>
       <c r="F279" s="5" t="s">
-        <v>963</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="280" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A280" s="3" t="s">
-        <v>382</v>
+        <v>328</v>
       </c>
       <c r="B280" s="4" t="s">
-        <v>964</v>
+        <v>931</v>
       </c>
       <c r="C280" s="9">
-        <v>2016</v>
+        <v>2001</v>
       </c>
       <c r="D280" s="9">
-        <v>140</v>
+        <v>110</v>
       </c>
       <c r="E280" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F280" s="5" t="s">
-        <v>965</v>
+        <v>932</v>
       </c>
     </row>
     <row r="281" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A281" s="3" t="s">
-        <v>383</v>
+        <v>329</v>
       </c>
       <c r="B281" s="4" t="s">
-        <v>946</v>
+        <v>933</v>
       </c>
       <c r="C281" s="9">
-        <v>2012</v>
+        <v>2003</v>
       </c>
       <c r="D281" s="9">
-        <v>130</v>
+        <v>103</v>
       </c>
       <c r="E281" s="9">
         <v>12</v>
       </c>
       <c r="F281" s="5" t="s">
-        <v>947</v>
+        <v>934</v>
       </c>
     </row>
     <row r="282" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A282" s="3" t="s">
-        <v>384</v>
+        <v>330</v>
       </c>
       <c r="B282" s="4" t="s">
-        <v>909</v>
+        <v>939</v>
       </c>
       <c r="C282" s="9">
-        <v>1978</v>
+        <v>2012</v>
       </c>
       <c r="D282" s="9">
-        <v>87</v>
+        <v>113</v>
       </c>
       <c r="E282" s="9">
         <v>12</v>
       </c>
       <c r="F282" s="5" t="s">
-        <v>910</v>
+        <v>940</v>
       </c>
     </row>
     <row r="283" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A283" s="3" t="s">
-        <v>385</v>
+        <v>331</v>
       </c>
       <c r="B283" s="4" t="s">
-        <v>978</v>
+        <v>1173</v>
       </c>
       <c r="C283" s="9">
-        <v>2015</v>
+        <v>1995</v>
       </c>
       <c r="D283" s="9">
-        <v>98</v>
+        <v>182</v>
       </c>
       <c r="E283" s="9">
         <v>16</v>
       </c>
       <c r="F283" s="5" t="s">
-        <v>979</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="284" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A284" s="3" t="s">
-        <v>387</v>
+        <v>332</v>
       </c>
       <c r="B284" s="4" t="s">
-        <v>879</v>
+        <v>897</v>
       </c>
       <c r="C284" s="9">
-        <v>2013</v>
+        <v>2003</v>
       </c>
       <c r="D284" s="9">
-        <v>138</v>
+        <v>92</v>
       </c>
       <c r="E284" s="9">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="F284" s="5" t="s">
-        <v>880</v>
+        <v>898</v>
       </c>
     </row>
     <row r="285" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A285" s="3" t="s">
-        <v>388</v>
+        <v>333</v>
       </c>
       <c r="B285" s="4" t="s">
-        <v>859</v>
+        <v>1040</v>
       </c>
       <c r="C285" s="9">
-        <v>2016</v>
+        <v>1999</v>
       </c>
       <c r="D285" s="9">
-        <v>124</v>
+        <v>95</v>
       </c>
       <c r="E285" s="9">
         <v>12</v>
       </c>
       <c r="F285" s="5" t="s">
-        <v>860</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="286" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A286" s="3" t="s">
-        <v>390</v>
+        <v>334</v>
       </c>
       <c r="B286" s="4" t="s">
-        <v>911</v>
+        <v>1104</v>
       </c>
       <c r="C286" s="9">
-        <v>1988</v>
+        <v>2014</v>
       </c>
       <c r="D286" s="9">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="E286" s="9">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="F286" s="5" t="s">
-        <v>912</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="287" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A287" s="3" t="s">
-        <v>391</v>
+        <v>335</v>
       </c>
       <c r="B287" s="4" t="s">
-        <v>984</v>
+        <v>850</v>
       </c>
       <c r="C287" s="9">
-        <v>2017</v>
+        <v>1964</v>
       </c>
       <c r="D287" s="9">
-        <v>137</v>
+        <v>92</v>
       </c>
       <c r="E287" s="9">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="F287" s="5" t="s">
-        <v>985</v>
+        <v>851</v>
       </c>
     </row>
     <row r="288" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A288" s="3" t="s">
-        <v>392</v>
+        <v>336</v>
       </c>
       <c r="B288" s="4" t="s">
-        <v>845</v>
+        <v>836</v>
       </c>
       <c r="C288" s="9">
-        <v>2017</v>
+        <v>2008</v>
       </c>
       <c r="D288" s="9">
-        <v>123</v>
+        <v>93</v>
       </c>
       <c r="E288" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F288" s="5" t="s">
-        <v>846</v>
+        <v>837</v>
       </c>
     </row>
     <row r="289" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A289" s="3" t="s">
-        <v>396</v>
+        <v>337</v>
       </c>
       <c r="B289" s="4" t="s">
-        <v>972</v>
+        <v>838</v>
       </c>
       <c r="C289" s="9">
-        <v>2017</v>
+        <v>2012</v>
       </c>
       <c r="D289" s="9">
-        <v>115</v>
+        <v>98</v>
       </c>
       <c r="E289" s="9">
         <v>16</v>
       </c>
       <c r="F289" s="5" t="s">
-        <v>973</v>
+        <v>839</v>
       </c>
     </row>
     <row r="290" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A290" s="3" t="s">
-        <v>403</v>
+        <v>338</v>
       </c>
       <c r="B290" s="4" t="s">
-        <v>942</v>
+        <v>1204</v>
       </c>
       <c r="C290" s="9">
-        <v>1942</v>
+        <v>1990</v>
       </c>
       <c r="D290" s="9">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="E290" s="9">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="F290" s="5" t="s">
-        <v>943</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="291" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A291" s="3" t="s">
-        <v>404</v>
+        <v>339</v>
       </c>
       <c r="B291" s="4" t="s">
-        <v>834</v>
+        <v>1206</v>
       </c>
       <c r="C291" s="9">
-        <v>1944</v>
+        <v>2011</v>
       </c>
       <c r="D291" s="9">
-        <v>87</v>
+        <v>124</v>
       </c>
       <c r="E291" s="9">
         <v>12</v>
       </c>
       <c r="F291" s="5" t="s">
-        <v>835</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="292" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A292" s="3" t="s">
-        <v>405</v>
+        <v>340</v>
       </c>
       <c r="B292" s="4" t="s">
-        <v>1006</v>
+        <v>1208</v>
       </c>
       <c r="C292" s="9">
-        <v>2018</v>
+        <v>2014</v>
       </c>
       <c r="D292" s="9">
-        <v>87</v>
+        <v>136</v>
       </c>
       <c r="E292" s="9">
         <v>12</v>
       </c>
       <c r="F292" s="5" t="s">
-        <v>1007</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="293" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A293" s="3" t="s">
-        <v>406</v>
+        <v>341</v>
       </c>
       <c r="B293" s="4" t="s">
-        <v>940</v>
+        <v>1277</v>
       </c>
       <c r="C293" s="9">
-        <v>2018</v>
+        <v>2021</v>
       </c>
       <c r="D293" s="9">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="E293" s="9">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="F293" s="5" t="s">
-        <v>941</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="294" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A294" s="3" t="s">
-        <v>407</v>
+        <v>342</v>
       </c>
       <c r="B294" s="4" t="s">
-        <v>980</v>
+        <v>840</v>
       </c>
       <c r="C294" s="9">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="D294" s="9">
-        <v>87</v>
+        <v>115</v>
       </c>
       <c r="E294" s="9">
         <v>16</v>
       </c>
       <c r="F294" s="5" t="s">
-        <v>981</v>
+        <v>841</v>
       </c>
     </row>
     <row r="295" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A295" s="3" t="s">
-        <v>408</v>
+        <v>343</v>
       </c>
       <c r="B295" s="4" t="s">
-        <v>974</v>
+        <v>909</v>
       </c>
       <c r="C295" s="9">
-        <v>2013</v>
+        <v>2000</v>
       </c>
       <c r="D295" s="9">
-        <v>119</v>
+        <v>162</v>
       </c>
       <c r="E295" s="9">
         <v>12</v>
       </c>
       <c r="F295" s="5" t="s">
-        <v>975</v>
+        <v>910</v>
       </c>
     </row>
     <row r="296" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A296" s="3" t="s">
-        <v>409</v>
+        <v>344</v>
       </c>
       <c r="B296" s="4" t="s">
-        <v>976</v>
+        <v>937</v>
       </c>
       <c r="C296" s="9">
-        <v>2013</v>
+        <v>2009</v>
       </c>
       <c r="D296" s="9">
-        <v>121</v>
+        <v>96</v>
       </c>
       <c r="E296" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F296" s="5" t="s">
-        <v>977</v>
+        <v>938</v>
       </c>
     </row>
     <row r="297" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A297" s="3" t="s">
-        <v>410</v>
+        <v>345</v>
       </c>
       <c r="B297" s="4" t="s">
-        <v>1002</v>
+        <v>996</v>
       </c>
       <c r="C297" s="9">
-        <v>2018</v>
+        <v>1989</v>
       </c>
       <c r="D297" s="9">
-        <v>160</v>
+        <v>85</v>
       </c>
       <c r="E297" s="9">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="F297" s="5" t="s">
-        <v>1003</v>
+        <v>997</v>
       </c>
     </row>
     <row r="298" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A298" s="3" t="s">
-        <v>411</v>
+        <v>346</v>
       </c>
       <c r="B298" s="4" t="s">
-        <v>824</v>
+        <v>1239</v>
       </c>
       <c r="C298" s="9">
-        <v>2018</v>
+        <v>1950</v>
       </c>
       <c r="D298" s="9">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="E298" s="9">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="F298" s="5" t="s">
-        <v>825</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="299" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A299" s="3" t="s">
-        <v>412</v>
+        <v>347</v>
       </c>
       <c r="B299" s="4" t="s">
-        <v>913</v>
+        <v>935</v>
       </c>
       <c r="C299" s="9">
-        <v>2016</v>
+        <v>2005</v>
       </c>
       <c r="D299" s="9">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="E299" s="9">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="F299" s="5" t="s">
-        <v>914</v>
+        <v>936</v>
       </c>
     </row>
     <row r="300" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A300" s="3" t="s">
-        <v>413</v>
+        <v>348</v>
       </c>
       <c r="B300" s="4" t="s">
-        <v>921</v>
+        <v>860</v>
       </c>
       <c r="C300" s="9">
-        <v>2018</v>
+        <v>2003</v>
       </c>
       <c r="D300" s="9">
-        <v>125</v>
+        <v>95</v>
       </c>
       <c r="E300" s="9">
         <v>12</v>
       </c>
       <c r="F300" s="5" t="s">
-        <v>922</v>
+        <v>861</v>
       </c>
     </row>
     <row r="301" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A301" s="3" t="s">
-        <v>415</v>
+        <v>349</v>
       </c>
       <c r="B301" s="4" t="s">
-        <v>857</v>
+        <v>1048</v>
       </c>
       <c r="C301" s="9">
-        <v>2011</v>
+        <v>2015</v>
       </c>
       <c r="D301" s="9">
-        <v>111</v>
+        <v>142</v>
       </c>
       <c r="E301" s="9">
         <v>12</v>
       </c>
       <c r="F301" s="5" t="s">
-        <v>858</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="302" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A302" s="3" t="s">
-        <v>416</v>
+        <v>350</v>
       </c>
       <c r="B302" s="4" t="s">
-        <v>808</v>
+        <v>963</v>
       </c>
       <c r="C302" s="9">
-        <v>2018</v>
+        <v>2003</v>
       </c>
       <c r="D302" s="9">
-        <v>134</v>
+        <v>102</v>
       </c>
       <c r="E302" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F302" s="5" t="s">
-        <v>809</v>
+        <v>964</v>
       </c>
     </row>
     <row r="303" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A303" s="3" t="s">
-        <v>417</v>
+        <v>351</v>
       </c>
       <c r="B303" s="4" t="s">
-        <v>851</v>
+        <v>1241</v>
       </c>
       <c r="C303" s="9">
-        <v>2019</v>
+        <v>2002</v>
       </c>
       <c r="D303" s="9">
-        <v>98</v>
+        <v>73</v>
       </c>
       <c r="E303" s="9">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="F303" s="5" t="s">
-        <v>852</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="304" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A304" s="3" t="s">
-        <v>420</v>
+        <v>352</v>
       </c>
       <c r="B304" s="4" t="s">
-        <v>988</v>
+        <v>1243</v>
       </c>
       <c r="C304" s="9">
-        <v>2018</v>
+        <v>2006</v>
       </c>
       <c r="D304" s="9">
-        <v>120</v>
+        <v>75</v>
       </c>
       <c r="E304" s="9">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="F304" s="5" t="s">
-        <v>989</v>
+        <v>1244</v>
       </c>
     </row>
     <row r="305" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A305" s="3" t="s">
-        <v>423</v>
+        <v>353</v>
       </c>
       <c r="B305" s="4" t="s">
-        <v>938</v>
+        <v>1044</v>
       </c>
       <c r="C305" s="9">
-        <v>2018</v>
+        <v>2009</v>
       </c>
       <c r="D305" s="9">
-        <v>142</v>
+        <v>162</v>
       </c>
       <c r="E305" s="9">
         <v>12</v>
       </c>
       <c r="F305" s="5" t="s">
-        <v>939</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="306" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A306" s="3" t="s">
-        <v>424</v>
+        <v>354</v>
       </c>
       <c r="B306" s="4" t="s">
-        <v>822</v>
+        <v>955</v>
       </c>
       <c r="C306" s="9">
-        <v>1961</v>
+        <v>2020</v>
       </c>
       <c r="D306" s="9">
-        <v>126</v>
+        <v>87</v>
       </c>
       <c r="E306" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F306" s="5" t="s">
-        <v>823</v>
+        <v>956</v>
       </c>
     </row>
     <row r="307" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A307" s="3" t="s">
-        <v>425</v>
+        <v>355</v>
       </c>
       <c r="B307" s="4" t="s">
-        <v>847</v>
+        <v>1149</v>
       </c>
       <c r="C307" s="9">
-        <v>2019</v>
+        <v>1982</v>
       </c>
       <c r="D307" s="9">
-        <v>88</v>
+        <v>117</v>
       </c>
       <c r="E307" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F307" s="5" t="s">
-        <v>848</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="308" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A308" s="3" t="s">
-        <v>426</v>
+        <v>356</v>
       </c>
       <c r="B308" s="4" t="s">
-        <v>1004</v>
+        <v>846</v>
       </c>
       <c r="C308" s="9">
-        <v>2019</v>
+        <v>1968</v>
       </c>
       <c r="D308" s="9">
-        <v>182</v>
+        <v>164</v>
       </c>
       <c r="E308" s="9">
         <v>12</v>
       </c>
       <c r="F308" s="5" t="s">
-        <v>1005</v>
+        <v>847</v>
       </c>
     </row>
     <row r="309" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A309" s="3" t="s">
-        <v>427</v>
+        <v>357</v>
       </c>
       <c r="B309" s="4" t="s">
-        <v>853</v>
+        <v>1279</v>
       </c>
       <c r="C309" s="9">
-        <v>2019</v>
+        <v>2010</v>
       </c>
       <c r="D309" s="9">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="E309" s="9">
         <v>12</v>
       </c>
       <c r="F309" s="5" t="s">
-        <v>854</v>
+        <v>1280</v>
       </c>
     </row>
     <row r="310" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A310" s="3" t="s">
-        <v>428</v>
+        <v>358</v>
       </c>
       <c r="B310" s="4" t="s">
-        <v>832</v>
+        <v>889</v>
       </c>
       <c r="C310" s="9">
-        <v>2019</v>
+        <v>2010</v>
       </c>
       <c r="D310" s="9">
-        <v>128</v>
+        <v>108</v>
       </c>
       <c r="E310" s="9">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="F310" s="5" t="s">
-        <v>833</v>
+        <v>890</v>
       </c>
     </row>
     <row r="311" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A311" s="3" t="s">
-        <v>429</v>
+        <v>359</v>
       </c>
       <c r="B311" s="4" t="s">
-        <v>763</v>
+        <v>885</v>
       </c>
       <c r="C311" s="9">
-        <v>2019</v>
+        <v>2009</v>
       </c>
       <c r="D311" s="9">
-        <v>128</v>
+        <v>170</v>
       </c>
       <c r="E311" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F311" s="5" t="s">
-        <v>764</v>
+        <v>886</v>
       </c>
     </row>
     <row r="312" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A312" s="3" t="s">
-        <v>430</v>
+        <v>360</v>
       </c>
       <c r="B312" s="4" t="s">
-        <v>986</v>
+        <v>1198</v>
       </c>
       <c r="C312" s="9">
-        <v>2020</v>
+        <v>1996</v>
       </c>
       <c r="D312" s="9">
-        <v>134</v>
+        <v>96</v>
       </c>
       <c r="E312" s="9">
         <v>12</v>
       </c>
       <c r="F312" s="5" t="s">
-        <v>987</v>
+        <v>1199</v>
       </c>
     </row>
     <row r="313" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A313" s="3" t="s">
-        <v>278</v>
+        <v>361</v>
       </c>
       <c r="B313" s="4" t="s">
-        <v>1010</v>
+        <v>1165</v>
       </c>
       <c r="C313" s="9">
-        <v>2006</v>
+        <v>2021</v>
       </c>
       <c r="D313" s="9">
-        <v>142</v>
+        <v>101</v>
       </c>
       <c r="E313" s="9">
         <v>16</v>
       </c>
       <c r="F313" s="5" t="s">
-        <v>1011</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="314" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A314" s="3" t="s">
-        <v>272</v>
+        <v>362</v>
       </c>
       <c r="B314" s="4" t="s">
-        <v>1012</v>
+        <v>826</v>
       </c>
       <c r="C314" s="9">
-        <v>1995</v>
+        <v>2012</v>
       </c>
       <c r="D314" s="9">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="E314" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F314" s="5" t="s">
-        <v>1013</v>
+        <v>827</v>
       </c>
     </row>
     <row r="315" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A315" s="3" t="s">
-        <v>386</v>
+        <v>363</v>
       </c>
       <c r="B315" s="4" t="s">
-        <v>1014</v>
+        <v>828</v>
       </c>
       <c r="C315" s="9">
-        <v>2016</v>
+        <v>2014</v>
       </c>
       <c r="D315" s="9">
-        <v>100</v>
+        <v>112</v>
       </c>
       <c r="E315" s="9">
         <v>12</v>
       </c>
       <c r="F315" s="5" t="s">
-        <v>1015</v>
+        <v>829</v>
       </c>
     </row>
     <row r="316" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A316" s="3" t="s">
-        <v>421</v>
+        <v>364</v>
       </c>
       <c r="B316" s="4" t="s">
-        <v>1016</v>
+        <v>821</v>
       </c>
       <c r="C316" s="9">
-        <v>2018</v>
+        <v>1952</v>
       </c>
       <c r="D316" s="9">
-        <v>118</v>
+        <v>85</v>
       </c>
       <c r="E316" s="9">
         <v>12</v>
       </c>
       <c r="F316" s="5" t="s">
-        <v>1017</v>
+        <v>822</v>
       </c>
     </row>
     <row r="317" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A317" s="3" t="s">
-        <v>284</v>
+        <v>365</v>
       </c>
       <c r="B317" s="4" t="s">
-        <v>1018</v>
+        <v>1070</v>
       </c>
       <c r="C317" s="9">
-        <v>2011</v>
+        <v>2001</v>
       </c>
       <c r="D317" s="9">
-        <v>97</v>
+        <v>123</v>
       </c>
       <c r="E317" s="9">
         <v>12</v>
       </c>
       <c r="F317" s="5" t="s">
-        <v>1019</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="318" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A318" s="3" t="s">
-        <v>422</v>
+        <v>366</v>
       </c>
       <c r="B318" s="4" t="s">
-        <v>1020</v>
+        <v>1249</v>
       </c>
       <c r="C318" s="9">
-        <v>2011</v>
+        <v>2015</v>
       </c>
       <c r="D318" s="9">
-        <v>162</v>
+        <v>129</v>
       </c>
       <c r="E318" s="9">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="F318" s="5" t="s">
-        <v>1021</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="319" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A319" s="3" t="s">
-        <v>339</v>
+        <v>367</v>
       </c>
       <c r="B319" s="4" t="s">
-        <v>1022</v>
+        <v>844</v>
       </c>
       <c r="C319" s="9">
-        <v>2001</v>
+        <v>1975</v>
       </c>
       <c r="D319" s="9">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="E319" s="9">
         <v>12</v>
       </c>
       <c r="F319" s="5" t="s">
-        <v>1023</v>
+        <v>845</v>
       </c>
     </row>
     <row r="320" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A320" s="3" t="s">
-        <v>249</v>
+        <v>368</v>
       </c>
       <c r="B320" s="4" t="s">
-        <v>1024</v>
+        <v>1116</v>
       </c>
       <c r="C320" s="9">
-        <v>1999</v>
+        <v>2013</v>
       </c>
       <c r="D320" s="9">
         <v>104</v>
@@ -10333,1263 +10762,2223 @@
         <v>12</v>
       </c>
       <c r="F320" s="5" t="s">
-        <v>1025</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="321" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A321" s="3" t="s">
-        <v>266</v>
+        <v>369</v>
       </c>
       <c r="B321" s="4" t="s">
-        <v>1026</v>
+        <v>1229</v>
       </c>
       <c r="C321" s="9">
-        <v>2003</v>
+        <v>2015</v>
       </c>
       <c r="D321" s="9">
-        <v>85</v>
+        <v>120</v>
       </c>
       <c r="E321" s="9">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="F321" s="5" t="s">
-        <v>1027</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="322" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A322" s="3" t="s">
-        <v>303</v>
+        <v>370</v>
       </c>
       <c r="B322" s="4" t="s">
-        <v>1028</v>
+        <v>1192</v>
       </c>
       <c r="C322" s="9">
-        <v>2006</v>
+        <v>2010</v>
       </c>
       <c r="D322" s="9">
-        <v>73</v>
+        <v>119</v>
       </c>
       <c r="E322" s="9">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F322" s="5" t="s">
-        <v>1029</v>
+        <v>1193</v>
       </c>
     </row>
     <row r="323" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A323" s="3" t="s">
-        <v>236</v>
+        <v>371</v>
       </c>
       <c r="B323" s="4" t="s">
-        <v>1030</v>
+        <v>813</v>
       </c>
       <c r="C323" s="9">
-        <v>1992</v>
+        <v>2012</v>
       </c>
       <c r="D323" s="9">
-        <v>128</v>
+        <v>110</v>
       </c>
       <c r="E323" s="9">
         <v>16</v>
       </c>
       <c r="F323" s="5" t="s">
-        <v>1031</v>
+        <v>814</v>
       </c>
     </row>
     <row r="324" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A324" s="3" t="s">
-        <v>364</v>
+        <v>372</v>
       </c>
       <c r="B324" s="4" t="s">
-        <v>1032</v>
+        <v>971</v>
       </c>
       <c r="C324" s="9">
-        <v>2013</v>
+        <v>1979</v>
       </c>
       <c r="D324" s="9">
-        <v>105</v>
+        <v>153</v>
       </c>
       <c r="E324" s="9">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="F324" s="5" t="s">
-        <v>1033</v>
+        <v>972</v>
       </c>
     </row>
     <row r="325" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A325" s="3" t="s">
-        <v>389</v>
+        <v>373</v>
       </c>
       <c r="B325" s="4" t="s">
-        <v>1034</v>
+        <v>1245</v>
       </c>
       <c r="C325" s="9">
-        <v>2017</v>
+        <v>1941</v>
       </c>
       <c r="D325" s="9">
-        <v>105</v>
+        <v>119</v>
       </c>
       <c r="E325" s="9">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="F325" s="5" t="s">
-        <v>1035</v>
+        <v>1246</v>
       </c>
     </row>
     <row r="326" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A326" s="3" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="B326" s="4" t="s">
-        <v>1036</v>
+        <v>819</v>
       </c>
       <c r="C326" s="9">
-        <v>2016</v>
+        <v>1995</v>
       </c>
       <c r="D326" s="9">
-        <v>86</v>
+        <v>131</v>
       </c>
       <c r="E326" s="9">
         <v>16</v>
       </c>
       <c r="F326" s="5" t="s">
-        <v>1037</v>
+        <v>820</v>
       </c>
     </row>
     <row r="327" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A327" s="3" t="s">
-        <v>274</v>
+        <v>375</v>
       </c>
       <c r="B327" s="4" t="s">
-        <v>1038</v>
+        <v>1247</v>
       </c>
       <c r="C327" s="9">
-        <v>1989</v>
+        <v>2002</v>
       </c>
       <c r="D327" s="9">
-        <v>121</v>
+        <v>135</v>
       </c>
       <c r="E327" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F327" s="5" t="s">
-        <v>1039</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="328" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A328" s="3" t="s">
-        <v>238</v>
+        <v>376</v>
       </c>
       <c r="B328" s="4" t="s">
-        <v>1040</v>
+        <v>1285</v>
       </c>
       <c r="C328" s="9">
-        <v>1992</v>
+        <v>2011</v>
       </c>
       <c r="D328" s="9">
-        <v>126</v>
+        <v>140</v>
       </c>
       <c r="E328" s="9">
         <v>12</v>
       </c>
       <c r="F328" s="5" t="s">
-        <v>1041</v>
+        <v>1286</v>
       </c>
     </row>
     <row r="329" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A329" s="3" t="s">
-        <v>239</v>
+        <v>377</v>
       </c>
       <c r="B329" s="4" t="s">
-        <v>1042</v>
+        <v>983</v>
       </c>
       <c r="C329" s="9">
-        <v>1995</v>
+        <v>2011</v>
       </c>
       <c r="D329" s="9">
-        <v>117</v>
+        <v>163</v>
       </c>
       <c r="E329" s="9">
         <v>12</v>
       </c>
       <c r="F329" s="5" t="s">
-        <v>1043</v>
+        <v>982</v>
       </c>
     </row>
     <row r="330" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A330" s="3" t="s">
-        <v>240</v>
+        <v>378</v>
       </c>
       <c r="B330" s="4" t="s">
-        <v>1045</v>
+        <v>977</v>
       </c>
       <c r="C330" s="9">
-        <v>1997</v>
+        <v>2004</v>
       </c>
       <c r="D330" s="9">
-        <v>125</v>
+        <v>106</v>
       </c>
       <c r="E330" s="9">
         <v>12</v>
       </c>
       <c r="F330" s="5" t="s">
-        <v>1044</v>
+        <v>978</v>
       </c>
     </row>
     <row r="331" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A331" s="3" t="s">
-        <v>270</v>
+        <v>379</v>
       </c>
       <c r="B331" s="4" t="s">
-        <v>1046</v>
+        <v>979</v>
       </c>
       <c r="C331" s="9">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="D331" s="9">
-        <v>153</v>
+        <v>105</v>
       </c>
       <c r="E331" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F331" s="5" t="s">
-        <v>1047</v>
+        <v>980</v>
       </c>
     </row>
     <row r="332" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A332" s="3" t="s">
-        <v>275</v>
+        <v>380</v>
       </c>
       <c r="B332" s="4" t="s">
-        <v>1048</v>
+        <v>981</v>
       </c>
       <c r="C332" s="9">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="D332" s="9">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="E332" s="9">
         <v>12</v>
       </c>
       <c r="F332" s="5" t="s">
-        <v>1049</v>
+        <v>982</v>
       </c>
     </row>
     <row r="333" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A333" s="3" t="s">
-        <v>363</v>
+        <v>381</v>
       </c>
       <c r="B333" s="4" t="s">
-        <v>1050</v>
+        <v>984</v>
       </c>
       <c r="C333" s="9">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="D333" s="9">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="E333" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F333" s="5" t="s">
-        <v>1051</v>
+        <v>985</v>
       </c>
     </row>
     <row r="334" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A334" s="3" t="s">
-        <v>374</v>
+        <v>382</v>
       </c>
       <c r="B334" s="4" t="s">
-        <v>1052</v>
+        <v>1214</v>
       </c>
       <c r="C334" s="9">
-        <v>2016</v>
+        <v>1984</v>
       </c>
       <c r="D334" s="9">
-        <v>183</v>
+        <v>152</v>
       </c>
       <c r="E334" s="9">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="F334" s="5" t="s">
-        <v>1053</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="335" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A335" s="3" t="s">
-        <v>401</v>
+        <v>383</v>
       </c>
       <c r="B335" s="4" t="s">
-        <v>1054</v>
+        <v>951</v>
       </c>
       <c r="C335" s="9">
-        <v>2017</v>
+        <v>1997</v>
       </c>
       <c r="D335" s="9">
-        <v>122</v>
+        <v>90</v>
       </c>
       <c r="E335" s="9">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="F335" s="5" t="s">
-        <v>1055</v>
+        <v>947</v>
       </c>
     </row>
     <row r="336" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A336" s="3" t="s">
-        <v>316</v>
+        <v>384</v>
       </c>
       <c r="B336" s="4" t="s">
-        <v>1056</v>
+        <v>952</v>
       </c>
       <c r="C336" s="9">
-        <v>2014</v>
+        <v>2004</v>
       </c>
       <c r="D336" s="9">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="E336" s="9">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="F336" s="5" t="s">
-        <v>1057</v>
+        <v>948</v>
       </c>
     </row>
     <row r="337" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A337" s="3" t="s">
-        <v>393</v>
+        <v>385</v>
       </c>
       <c r="B337" s="4" t="s">
-        <v>1058</v>
+        <v>953</v>
       </c>
       <c r="C337" s="9">
-        <v>2017</v>
+        <v>2008</v>
       </c>
       <c r="D337" s="9">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E337" s="9">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="F337" s="5" t="s">
-        <v>1059</v>
+        <v>949</v>
       </c>
     </row>
     <row r="338" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A338" s="3" t="s">
-        <v>241</v>
+        <v>386</v>
       </c>
       <c r="B338" s="4" t="s">
-        <v>1060</v>
+        <v>954</v>
       </c>
       <c r="C338" s="9">
-        <v>2005</v>
+        <v>2009</v>
       </c>
       <c r="D338" s="9">
-        <v>118</v>
+        <v>89</v>
       </c>
       <c r="E338" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F338" s="5" t="s">
-        <v>1061</v>
+        <v>950</v>
       </c>
     </row>
     <row r="339" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A339" s="3" t="s">
-        <v>308</v>
+        <v>387</v>
       </c>
       <c r="B339" s="4" t="s">
-        <v>1062</v>
+        <v>830</v>
       </c>
       <c r="C339" s="9">
-        <v>2008</v>
+        <v>2013</v>
       </c>
       <c r="D339" s="9">
-        <v>99</v>
+        <v>128</v>
       </c>
       <c r="E339" s="9">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="F339" s="5" t="s">
-        <v>1063</v>
+        <v>831</v>
       </c>
     </row>
     <row r="340" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A340" s="3" t="s">
-        <v>248</v>
+        <v>388</v>
       </c>
       <c r="B340" s="4" t="s">
-        <v>1064</v>
+        <v>1119</v>
       </c>
       <c r="C340" s="9">
-        <v>1988</v>
+        <v>2014</v>
       </c>
       <c r="D340" s="9">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E340" s="9">
         <v>12</v>
       </c>
       <c r="F340" s="5" t="s">
-        <v>1065</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="341" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A341" s="3" t="s">
-        <v>263</v>
+        <v>389</v>
       </c>
       <c r="B341" s="4" t="s">
-        <v>1066</v>
+        <v>1182</v>
       </c>
       <c r="C341" s="9">
-        <v>1998</v>
+        <v>2014</v>
       </c>
       <c r="D341" s="9">
-        <v>95</v>
+        <v>111</v>
       </c>
       <c r="E341" s="9">
         <v>16</v>
       </c>
       <c r="F341" s="5" t="s">
-        <v>1067</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="342" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A342" s="3" t="s">
-        <v>341</v>
+        <v>390</v>
       </c>
       <c r="B342" s="4" t="s">
-        <v>1068</v>
+        <v>864</v>
       </c>
       <c r="C342" s="9">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="D342" s="9">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E342" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F342" s="5" t="s">
-        <v>1069</v>
+        <v>865</v>
       </c>
       <c r="G342" t="s">
-        <v>1070</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="343" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A343" s="3" t="s">
-        <v>356</v>
+        <v>391</v>
       </c>
       <c r="B343" s="4" t="s">
-        <v>1071</v>
+        <v>858</v>
       </c>
       <c r="C343" s="9">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="D343" s="9">
-        <v>91</v>
+        <v>130</v>
       </c>
       <c r="E343" s="9">
         <v>12</v>
       </c>
       <c r="F343" s="5" t="s">
-        <v>1072</v>
+        <v>859</v>
       </c>
     </row>
     <row r="344" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A344" s="3" t="s">
-        <v>297</v>
+        <v>392</v>
       </c>
       <c r="B344" s="4" t="s">
-        <v>1073</v>
+        <v>1273</v>
       </c>
       <c r="C344" s="9">
-        <v>1999</v>
+        <v>2014</v>
       </c>
       <c r="D344" s="9">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E344" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F344" s="5" t="s">
-        <v>1074</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="345" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A345" s="3" t="s">
-        <v>361</v>
+        <v>393</v>
       </c>
       <c r="B345" s="4" t="s">
-        <v>1075</v>
+        <v>967</v>
       </c>
       <c r="C345" s="9">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="D345" s="9">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="E345" s="9">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="F345" s="5" t="s">
-        <v>1076</v>
+        <v>968</v>
       </c>
     </row>
     <row r="346" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A346" s="3" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="B346" s="4" t="s">
-        <v>1078</v>
+        <v>1123</v>
       </c>
       <c r="C346" s="9">
-        <v>1991</v>
+        <v>2014</v>
       </c>
       <c r="D346" s="9">
-        <v>94</v>
+        <v>110</v>
       </c>
       <c r="E346" s="9">
         <v>12</v>
       </c>
       <c r="F346" s="5" t="s">
-        <v>1077</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="347" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A347" s="3" t="s">
-        <v>365</v>
+        <v>395</v>
       </c>
       <c r="B347" s="4" t="s">
-        <v>1080</v>
+        <v>1259</v>
       </c>
       <c r="C347" s="9">
-        <v>2020</v>
+        <v>2015</v>
       </c>
       <c r="D347" s="9">
-        <v>93</v>
+        <v>116</v>
       </c>
       <c r="E347" s="9">
         <v>12</v>
       </c>
       <c r="F347" s="5" t="s">
-        <v>1079</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="348" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A348" s="3" t="s">
-        <v>294</v>
+        <v>396</v>
       </c>
       <c r="B348" s="4" t="s">
-        <v>1081</v>
+        <v>874</v>
       </c>
       <c r="C348" s="9">
-        <v>2000</v>
+        <v>2015</v>
       </c>
       <c r="D348" s="9">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E348" s="9">
         <v>6</v>
       </c>
       <c r="F348" s="5" t="s">
-        <v>1082</v>
+        <v>875</v>
       </c>
     </row>
     <row r="349" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A349" s="3" t="s">
-        <v>419</v>
+        <v>397</v>
       </c>
       <c r="B349" s="4" t="s">
-        <v>1083</v>
+        <v>1216</v>
       </c>
       <c r="C349" s="9">
-        <v>2020</v>
+        <v>1976</v>
       </c>
       <c r="D349" s="9">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="E349" s="9">
         <v>16</v>
       </c>
       <c r="F349" s="5" t="s">
-        <v>1084</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="350" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A350" s="3" t="s">
-        <v>414</v>
+        <v>398</v>
       </c>
       <c r="B350" s="4" t="s">
-        <v>1085</v>
+        <v>1216</v>
       </c>
       <c r="C350" s="9">
-        <v>1992</v>
+        <v>2013</v>
       </c>
       <c r="D350" s="9">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="E350" s="9">
         <v>16</v>
       </c>
       <c r="F350" s="5" t="s">
-        <v>1086</v>
+        <v>1218</v>
       </c>
     </row>
     <row r="351" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A351" s="3" t="s">
-        <v>281</v>
+        <v>399</v>
       </c>
       <c r="B351" s="4" t="s">
-        <v>1087</v>
+        <v>1098</v>
       </c>
       <c r="C351" s="9">
-        <v>2022</v>
+        <v>2015</v>
       </c>
       <c r="D351" s="9">
-        <v>125</v>
+        <v>80</v>
       </c>
       <c r="E351" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F351" s="5" t="s">
-        <v>1088</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="352" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A352" s="3" t="s">
-        <v>302</v>
+        <v>400</v>
       </c>
       <c r="B352" s="4" t="s">
-        <v>1089</v>
+        <v>1080</v>
       </c>
       <c r="C352" s="9">
-        <v>2001</v>
+        <v>2013</v>
       </c>
       <c r="D352" s="9">
-        <v>152</v>
+        <v>105</v>
       </c>
       <c r="E352" s="9">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="F352" s="5" t="s">
-        <v>1090</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="353" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A353" s="3" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="B353" s="4" t="s">
-        <v>1091</v>
+        <v>1128</v>
       </c>
       <c r="C353" s="9">
-        <v>2018</v>
+        <v>2020</v>
       </c>
       <c r="D353" s="9">
-        <v>135</v>
+        <v>93</v>
       </c>
       <c r="E353" s="9">
         <v>12</v>
       </c>
       <c r="F353" s="5" t="s">
-        <v>1092</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="354" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A354" s="3" t="s">
-        <v>283</v>
+        <v>402</v>
       </c>
       <c r="B354" s="4" t="s">
-        <v>1093</v>
+        <v>852</v>
       </c>
       <c r="C354" s="9">
-        <v>2010</v>
+        <v>2014</v>
       </c>
       <c r="D354" s="9">
-        <v>110</v>
+        <v>136</v>
       </c>
       <c r="E354" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F354" s="5" t="s">
-        <v>1094</v>
+        <v>853</v>
       </c>
     </row>
     <row r="355" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A355" s="3" t="s">
-        <v>399</v>
+        <v>403</v>
       </c>
       <c r="B355" s="4" t="s">
-        <v>1095</v>
+        <v>941</v>
       </c>
       <c r="C355" s="9">
-        <v>2018</v>
+        <v>2015</v>
       </c>
       <c r="D355" s="9">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="E355" s="9">
         <v>16</v>
       </c>
       <c r="F355" s="5" t="s">
-        <v>1096</v>
+        <v>942</v>
       </c>
     </row>
     <row r="356" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A356" s="3" t="s">
-        <v>307</v>
+        <v>404</v>
       </c>
       <c r="B356" s="4" t="s">
-        <v>1097</v>
+        <v>842</v>
       </c>
       <c r="C356" s="9">
-        <v>2021</v>
+        <v>2015</v>
       </c>
       <c r="D356" s="9">
-        <v>134</v>
+        <v>91</v>
       </c>
       <c r="E356" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F356" s="5" t="s">
-        <v>1098</v>
+        <v>843</v>
       </c>
     </row>
     <row r="357" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A357" s="3" t="s">
-        <v>235</v>
+        <v>405</v>
       </c>
       <c r="B357" s="4" t="s">
-        <v>1099</v>
+        <v>1287</v>
       </c>
       <c r="C357" s="9">
-        <v>1998</v>
+        <v>2015</v>
       </c>
       <c r="D357" s="9">
         <v>119</v>
       </c>
       <c r="E357" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F357" s="5" t="s">
-        <v>1100</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="358" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A358" s="3" t="s">
-        <v>330</v>
+        <v>406</v>
       </c>
       <c r="B358" s="4" t="s">
-        <v>1101</v>
+        <v>1000</v>
       </c>
       <c r="C358" s="9">
-        <v>1982</v>
+        <v>2015</v>
       </c>
       <c r="D358" s="9">
-        <v>117</v>
+        <v>100</v>
       </c>
       <c r="E358" s="9">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="F358" s="5" t="s">
-        <v>1102</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="359" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A359" s="3" t="s">
-        <v>397</v>
+        <v>407</v>
       </c>
       <c r="B359" s="4" t="s">
-        <v>1103</v>
+        <v>998</v>
       </c>
       <c r="C359" s="9">
-        <v>2017</v>
+        <v>1970</v>
       </c>
       <c r="D359" s="9">
-        <v>164</v>
+        <v>79</v>
       </c>
       <c r="E359" s="9">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="F359" s="5" t="s">
-        <v>1104</v>
+        <v>999</v>
       </c>
     </row>
     <row r="360" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A360" s="3" t="s">
-        <v>402</v>
+        <v>408</v>
       </c>
       <c r="B360" s="4" t="s">
-        <v>1105</v>
+        <v>805</v>
       </c>
       <c r="C360" s="9">
-        <v>1988</v>
+        <v>1994</v>
       </c>
       <c r="D360" s="9">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E360" s="9">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="F360" s="5" t="s">
-        <v>1106</v>
+        <v>806</v>
       </c>
     </row>
     <row r="361" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A361" s="3" t="s">
-        <v>252</v>
+        <v>409</v>
       </c>
       <c r="B361" s="4" t="s">
-        <v>1107</v>
+        <v>807</v>
       </c>
       <c r="C361" s="9">
-        <v>2023</v>
+        <v>1995</v>
       </c>
       <c r="D361" s="9">
-        <v>128</v>
+        <v>88</v>
       </c>
       <c r="E361" s="9">
         <v>12</v>
       </c>
       <c r="F361" s="5" t="s">
-        <v>1108</v>
+        <v>808</v>
       </c>
     </row>
     <row r="362" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A362" s="3" t="s">
-        <v>418</v>
+        <v>410</v>
       </c>
       <c r="B362" s="4" t="s">
-        <v>1109</v>
+        <v>809</v>
       </c>
       <c r="C362" s="9">
-        <v>2018</v>
+        <v>1998</v>
       </c>
       <c r="D362" s="9">
-        <v>133</v>
+        <v>94</v>
       </c>
       <c r="E362" s="9">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="F362" s="5" t="s">
-        <v>1110</v>
+        <v>810</v>
       </c>
     </row>
     <row r="363" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A363" s="3" t="s">
-        <v>267</v>
+        <v>411</v>
       </c>
       <c r="B363" s="4" t="s">
-        <v>1111</v>
+        <v>1100</v>
       </c>
       <c r="C363" s="9">
-        <v>2010</v>
+        <v>2016</v>
       </c>
       <c r="D363" s="9">
-        <v>118</v>
+        <v>183</v>
       </c>
       <c r="E363" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F363" s="5" t="s">
-        <v>1112</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="364" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A364" s="3" t="s">
-        <v>301</v>
+        <v>412</v>
       </c>
       <c r="B364" s="4" t="s">
-        <v>1113</v>
+        <v>887</v>
       </c>
       <c r="C364" s="9">
-        <v>2006</v>
+        <v>2016</v>
       </c>
       <c r="D364" s="9">
-        <v>86</v>
+        <v>98</v>
       </c>
       <c r="E364" s="9">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="F364" s="5" t="s">
-        <v>1114</v>
+        <v>888</v>
       </c>
     </row>
     <row r="365" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A365" s="3" t="s">
-        <v>395</v>
+        <v>413</v>
       </c>
       <c r="B365" s="4" t="s">
-        <v>1115</v>
+        <v>1084</v>
       </c>
       <c r="C365" s="9">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="D365" s="9">
-        <v>108</v>
+        <v>86</v>
       </c>
       <c r="E365" s="9">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="F365" s="5" t="s">
-        <v>1116</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="366" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A366" s="3" t="s">
-        <v>335</v>
+        <v>414</v>
       </c>
       <c r="B366" s="4" t="s">
-        <v>1117</v>
+        <v>1210</v>
       </c>
       <c r="C366" s="9">
-        <v>2021</v>
+        <v>2016</v>
       </c>
       <c r="D366" s="9">
-        <v>101</v>
+        <v>148</v>
       </c>
       <c r="E366" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F366" s="5" t="s">
-        <v>1118</v>
+        <v>1211</v>
       </c>
     </row>
     <row r="367" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A367" s="3" t="s">
-        <v>394</v>
+        <v>415</v>
       </c>
       <c r="B367" s="4" t="s">
-        <v>1119</v>
+        <v>891</v>
       </c>
       <c r="C367" s="9">
         <v>2016</v>
       </c>
       <c r="D367" s="9">
-        <v>131</v>
+        <v>114</v>
       </c>
       <c r="E367" s="9">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="F367" s="5" t="s">
-        <v>1120</v>
+        <v>892</v>
       </c>
     </row>
     <row r="368" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A368" s="3" t="s">
-        <v>293</v>
+        <v>416</v>
       </c>
       <c r="B368" s="4" t="s">
-        <v>1121</v>
+        <v>1227</v>
       </c>
       <c r="C368" s="9">
-        <v>2013</v>
+        <v>2016</v>
       </c>
       <c r="D368" s="9">
-        <v>93</v>
+        <v>116</v>
       </c>
       <c r="E368" s="9">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="F368" s="5" t="s">
-        <v>1122</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="369" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A369" s="3" t="s">
-        <v>282</v>
+        <v>417</v>
       </c>
       <c r="B369" s="4" t="s">
-        <v>1124</v>
+        <v>1196</v>
       </c>
       <c r="C369" s="9">
-        <v>2000</v>
+        <v>1988</v>
       </c>
       <c r="D369" s="9">
-        <v>90</v>
+        <v>102</v>
       </c>
       <c r="E369" s="9">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="F369" s="5" t="s">
-        <v>1123</v>
+        <v>1197</v>
       </c>
     </row>
     <row r="370" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A370" s="3" t="s">
-        <v>313</v>
+        <v>418</v>
       </c>
       <c r="B370" s="4" t="s">
-        <v>1125</v>
+        <v>1177</v>
       </c>
       <c r="C370" s="9">
-        <v>1995</v>
+        <v>2016</v>
       </c>
       <c r="D370" s="9">
-        <v>182</v>
+        <v>123</v>
       </c>
       <c r="E370" s="9">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="F370" s="5" t="s">
-        <v>1126</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="371" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A371" s="3" t="s">
-        <v>242</v>
+        <v>419</v>
       </c>
       <c r="B371" s="4" t="s">
-        <v>1127</v>
+        <v>992</v>
       </c>
       <c r="C371" s="9">
-        <v>2001</v>
+        <v>2002</v>
       </c>
       <c r="D371" s="9">
-        <v>97</v>
+        <v>110</v>
       </c>
       <c r="E371" s="9">
         <v>12</v>
       </c>
       <c r="F371" s="5" t="s">
-        <v>1128</v>
+        <v>993</v>
       </c>
     </row>
     <row r="372" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A372" s="3" t="s">
-        <v>379</v>
+        <v>420</v>
       </c>
       <c r="B372" s="4" t="s">
-        <v>1129</v>
+        <v>1010</v>
       </c>
       <c r="C372" s="9">
         <v>2016</v>
       </c>
       <c r="D372" s="9">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="E372" s="9">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="F372" s="5" t="s">
-        <v>1130</v>
+        <v>1011</v>
       </c>
       <c r="G372" t="s">
-        <v>1131</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="373" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A373" s="3" t="s">
-        <v>300</v>
+        <v>421</v>
       </c>
       <c r="B373" s="4" t="s">
-        <v>1132</v>
+        <v>1012</v>
       </c>
       <c r="C373" s="9">
-        <v>2005</v>
+        <v>2016</v>
       </c>
       <c r="D373" s="9">
-        <v>106</v>
+        <v>140</v>
       </c>
       <c r="E373" s="9">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="F373" s="5" t="s">
-        <v>1133</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="374" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A374" s="3" t="s">
-        <v>357</v>
+        <v>422</v>
       </c>
       <c r="B374" s="4" t="s">
-        <v>1134</v>
+        <v>994</v>
       </c>
       <c r="C374" s="9">
-        <v>2014</v>
+        <v>2012</v>
       </c>
       <c r="D374" s="9">
-        <v>111</v>
+        <v>130</v>
       </c>
       <c r="E374" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F374" s="5" t="s">
-        <v>1135</v>
+        <v>995</v>
       </c>
     </row>
     <row r="375" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A375" s="3" t="s">
-        <v>290</v>
+        <v>423</v>
       </c>
       <c r="B375" s="4" t="s">
-        <v>1136</v>
+        <v>1251</v>
       </c>
       <c r="C375" s="9">
-        <v>2009</v>
+        <v>1963</v>
       </c>
       <c r="D375" s="9">
-        <v>110</v>
+        <v>320</v>
       </c>
       <c r="E375" s="9">
         <v>12</v>
       </c>
       <c r="F375" s="5" t="s">
-        <v>1137</v>
+        <v>1252</v>
       </c>
     </row>
     <row r="376" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A376" s="3" t="s">
-        <v>271</v>
+        <v>424</v>
       </c>
       <c r="B376" s="4" t="s">
-        <v>1138</v>
+        <v>957</v>
       </c>
       <c r="C376" s="9">
-        <v>2008</v>
+        <v>1978</v>
       </c>
       <c r="D376" s="9">
-        <v>107</v>
+        <v>87</v>
       </c>
       <c r="E376" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F376" s="5" t="s">
-        <v>1139</v>
+        <v>958</v>
       </c>
     </row>
     <row r="377" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A377" s="3" t="s">
-        <v>259</v>
+        <v>425</v>
       </c>
       <c r="B377" s="4" t="s">
-        <v>1140</v>
+        <v>1026</v>
       </c>
       <c r="C377" s="9">
-        <v>1999</v>
+        <v>2015</v>
       </c>
       <c r="D377" s="9">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="E377" s="9">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="F377" s="5" t="s">
-        <v>1141</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="378" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A378" s="3" t="s">
-        <v>304</v>
+        <v>426</v>
       </c>
       <c r="B378" s="4" t="s">
-        <v>1142</v>
+        <v>1062</v>
       </c>
       <c r="C378" s="9">
-        <v>1979</v>
+        <v>2016</v>
       </c>
       <c r="D378" s="9">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E378" s="9">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="F378" s="5" t="s">
-        <v>1143</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="379" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A379" s="3" t="s">
-        <v>342</v>
+        <v>427</v>
       </c>
       <c r="B379" s="4" t="s">
-        <v>1144</v>
+        <v>927</v>
       </c>
       <c r="C379" s="9">
-        <v>2010</v>
+        <v>2013</v>
       </c>
       <c r="D379" s="9">
-        <v>119</v>
+        <v>138</v>
       </c>
       <c r="E379" s="9">
         <v>6</v>
       </c>
       <c r="F379" s="5" t="s">
-        <v>1145</v>
+        <v>928</v>
       </c>
     </row>
     <row r="380" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A380" s="3" t="s">
-        <v>268</v>
+        <v>428</v>
       </c>
       <c r="B380" s="4" t="s">
-        <v>1146</v>
+        <v>907</v>
       </c>
       <c r="C380" s="9">
-        <v>2008</v>
+        <v>2016</v>
       </c>
       <c r="D380" s="9">
-        <v>96</v>
+        <v>124</v>
       </c>
       <c r="E380" s="9">
         <v>12</v>
       </c>
       <c r="F380" s="5" t="s">
-        <v>1147</v>
+        <v>908</v>
       </c>
     </row>
     <row r="381" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A381" s="3" t="s">
-        <v>378</v>
+        <v>429</v>
       </c>
       <c r="B381" s="4" t="s">
-        <v>1148</v>
+        <v>1219</v>
       </c>
       <c r="C381" s="9">
-        <v>1988</v>
+        <v>2006</v>
       </c>
       <c r="D381" s="9">
-        <v>102</v>
+        <v>117</v>
       </c>
       <c r="E381" s="9">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="F381" s="5" t="s">
-        <v>1149</v>
+        <v>1220</v>
       </c>
     </row>
     <row r="382" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A382" s="3" t="s">
-        <v>334</v>
+        <v>430</v>
       </c>
       <c r="B382" s="4" t="s">
-        <v>1150</v>
+        <v>1221</v>
       </c>
       <c r="C382" s="9">
-        <v>1996</v>
+        <v>2011</v>
       </c>
       <c r="D382" s="9">
-        <v>96</v>
+        <v>120</v>
       </c>
       <c r="E382" s="9">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="F382" s="5" t="s">
+        <v>1222</v>
+      </c>
+    </row>
+    <row r="383" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A383" s="3" t="s">
+        <v>431</v>
+      </c>
+      <c r="B383" s="4" t="s">
+        <v>1082</v>
+      </c>
+      <c r="C383" s="9">
+        <v>2017</v>
+      </c>
+      <c r="D383" s="9">
+        <v>105</v>
+      </c>
+      <c r="E383" s="9">
+        <v>6</v>
+      </c>
+      <c r="F383" s="5" t="s">
+        <v>1083</v>
+      </c>
+    </row>
+    <row r="384" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A384" s="3" t="s">
+        <v>432</v>
+      </c>
+      <c r="B384" s="4" t="s">
+        <v>959</v>
+      </c>
+      <c r="C384" s="9">
+        <v>1988</v>
+      </c>
+      <c r="D384" s="9">
+        <v>98</v>
+      </c>
+      <c r="E384" s="9">
+        <v>12</v>
+      </c>
+      <c r="F384" s="5" t="s">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="385" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A385" s="3" t="s">
+        <v>433</v>
+      </c>
+      <c r="B385" s="4" t="s">
+        <v>1032</v>
+      </c>
+      <c r="C385" s="9">
+        <v>2017</v>
+      </c>
+      <c r="D385" s="9">
+        <v>137</v>
+      </c>
+      <c r="E385" s="9">
+        <v>12</v>
+      </c>
+      <c r="F385" s="5" t="s">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="386" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A386" s="3" t="s">
+        <v>434</v>
+      </c>
+      <c r="B386" s="4" t="s">
+        <v>893</v>
+      </c>
+      <c r="C386" s="9">
+        <v>2017</v>
+      </c>
+      <c r="D386" s="9">
+        <v>123</v>
+      </c>
+      <c r="E386" s="9">
+        <v>16</v>
+      </c>
+      <c r="F386" s="5" t="s">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="387" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A387" s="3" t="s">
+        <v>435</v>
+      </c>
+      <c r="B387" s="4" t="s">
+        <v>1106</v>
+      </c>
+      <c r="C387" s="9">
+        <v>2017</v>
+      </c>
+      <c r="D387" s="9">
+        <v>121</v>
+      </c>
+      <c r="E387" s="9">
+        <v>12</v>
+      </c>
+      <c r="F387" s="5" t="s">
+        <v>1107</v>
+      </c>
+    </row>
+    <row r="388" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A388" s="3" t="s">
+        <v>436</v>
+      </c>
+      <c r="B388" s="4" t="s">
+        <v>1167</v>
+      </c>
+      <c r="C388" s="9">
+        <v>2016</v>
+      </c>
+      <c r="D388" s="9">
+        <v>131</v>
+      </c>
+      <c r="E388" s="9">
+        <v>12</v>
+      </c>
+      <c r="F388" s="5" t="s">
+        <v>1168</v>
+      </c>
+    </row>
+    <row r="389" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A389" s="3" t="s">
+        <v>437</v>
+      </c>
+      <c r="B389" s="4" t="s">
+        <v>1163</v>
+      </c>
+      <c r="C389" s="9">
+        <v>2017</v>
+      </c>
+      <c r="D389" s="9">
+        <v>108</v>
+      </c>
+      <c r="E389" s="9">
+        <v>0</v>
+      </c>
+      <c r="F389" s="5" t="s">
+        <v>1164</v>
+      </c>
+    </row>
+    <row r="390" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A390" s="3" t="s">
+        <v>438</v>
+      </c>
+      <c r="B390" s="4" t="s">
+        <v>1020</v>
+      </c>
+      <c r="C390" s="9">
+        <v>2017</v>
+      </c>
+      <c r="D390" s="9">
+        <v>115</v>
+      </c>
+      <c r="E390" s="9">
+        <v>16</v>
+      </c>
+      <c r="F390" s="5" t="s">
+        <v>1021</v>
+      </c>
+    </row>
+    <row r="391" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A391" s="3" t="s">
+        <v>439</v>
+      </c>
+      <c r="B391" s="4" t="s">
         <v>1151</v>
       </c>
+      <c r="C391" s="9">
+        <v>2017</v>
+      </c>
+      <c r="D391" s="9">
+        <v>164</v>
+      </c>
+      <c r="E391" s="9">
+        <v>12</v>
+      </c>
+      <c r="F391" s="5" t="s">
+        <v>1152</v>
+      </c>
+    </row>
+    <row r="392" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A392" s="3" t="s">
+        <v>440</v>
+      </c>
+      <c r="B392" s="4" t="s">
+        <v>1263</v>
+      </c>
+      <c r="C392" s="9">
+        <v>2019</v>
+      </c>
+      <c r="D392" s="9">
+        <v>111</v>
+      </c>
+      <c r="E392" s="9">
+        <v>12</v>
+      </c>
+      <c r="F392" s="5" t="s">
+        <v>1264</v>
+      </c>
+    </row>
+    <row r="393" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A393" s="3" t="s">
+        <v>441</v>
+      </c>
+      <c r="B393" s="4" t="s">
+        <v>1126</v>
+      </c>
+      <c r="C393" s="9">
+        <v>1991</v>
+      </c>
+      <c r="D393" s="9">
+        <v>94</v>
+      </c>
+      <c r="E393" s="9">
+        <v>12</v>
+      </c>
+      <c r="F393" s="5" t="s">
+        <v>1125</v>
+      </c>
+    </row>
+    <row r="394" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A394" s="3" t="s">
+        <v>442</v>
+      </c>
+      <c r="B394" s="4" t="s">
+        <v>1143</v>
+      </c>
+      <c r="C394" s="9">
+        <v>2018</v>
+      </c>
+      <c r="D394" s="9">
+        <v>105</v>
+      </c>
+      <c r="E394" s="9">
+        <v>16</v>
+      </c>
+      <c r="F394" s="5" t="s">
+        <v>1144</v>
+      </c>
+    </row>
+    <row r="395" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A395" s="3" t="s">
+        <v>443</v>
+      </c>
+      <c r="B395" s="4" t="s">
+        <v>1139</v>
+      </c>
+      <c r="C395" s="9">
+        <v>2018</v>
+      </c>
+      <c r="D395" s="9">
+        <v>135</v>
+      </c>
+      <c r="E395" s="9">
+        <v>12</v>
+      </c>
+      <c r="F395" s="5" t="s">
+        <v>1140</v>
+      </c>
+    </row>
+    <row r="396" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A396" s="3" t="s">
+        <v>444</v>
+      </c>
+      <c r="B396" s="4" t="s">
+        <v>1102</v>
+      </c>
+      <c r="C396" s="9">
+        <v>2017</v>
+      </c>
+      <c r="D396" s="9">
+        <v>122</v>
+      </c>
+      <c r="E396" s="9">
+        <v>0</v>
+      </c>
+      <c r="F396" s="5" t="s">
+        <v>1103</v>
+      </c>
+    </row>
+    <row r="397" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A397" s="3" t="s">
+        <v>445</v>
+      </c>
+      <c r="B397" s="4" t="s">
+        <v>1153</v>
+      </c>
+      <c r="C397" s="9">
+        <v>1988</v>
+      </c>
+      <c r="D397" s="9">
+        <v>92</v>
+      </c>
+      <c r="E397" s="9">
+        <v>18</v>
+      </c>
+      <c r="F397" s="5" t="s">
+        <v>1154</v>
+      </c>
+    </row>
+    <row r="398" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A398" s="3" t="s">
+        <v>446</v>
+      </c>
+      <c r="B398" s="4" t="s">
+        <v>990</v>
+      </c>
+      <c r="C398" s="9">
+        <v>1942</v>
+      </c>
+      <c r="D398" s="9">
+        <v>91</v>
+      </c>
+      <c r="E398" s="9">
+        <v>6</v>
+      </c>
+      <c r="F398" s="5" t="s">
+        <v>991</v>
+      </c>
+    </row>
+    <row r="399" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A399" s="3" t="s">
+        <v>447</v>
+      </c>
+      <c r="B399" s="4" t="s">
+        <v>882</v>
+      </c>
+      <c r="C399" s="9">
+        <v>1944</v>
+      </c>
+      <c r="D399" s="9">
+        <v>87</v>
+      </c>
+      <c r="E399" s="9">
+        <v>12</v>
+      </c>
+      <c r="F399" s="5" t="s">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="400" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A400" s="3" t="s">
+        <v>448</v>
+      </c>
+      <c r="B400" s="4" t="s">
+        <v>1054</v>
+      </c>
+      <c r="C400" s="9">
+        <v>2018</v>
+      </c>
+      <c r="D400" s="9">
+        <v>87</v>
+      </c>
+      <c r="E400" s="9">
+        <v>12</v>
+      </c>
+      <c r="F400" s="5" t="s">
+        <v>1055</v>
+      </c>
+    </row>
+    <row r="401" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A401" s="3" t="s">
+        <v>449</v>
+      </c>
+      <c r="B401" s="4" t="s">
+        <v>988</v>
+      </c>
+      <c r="C401" s="9">
+        <v>2018</v>
+      </c>
+      <c r="D401" s="9">
+        <v>77</v>
+      </c>
+      <c r="E401" s="9">
+        <v>6</v>
+      </c>
+      <c r="F401" s="5" t="s">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="402" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A402" s="3" t="s">
+        <v>450</v>
+      </c>
+      <c r="B402" s="4" t="s">
+        <v>1028</v>
+      </c>
+      <c r="C402" s="9">
+        <v>2015</v>
+      </c>
+      <c r="D402" s="9">
+        <v>87</v>
+      </c>
+      <c r="E402" s="9">
+        <v>16</v>
+      </c>
+      <c r="F402" s="5" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="403" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A403" s="3" t="s">
+        <v>451</v>
+      </c>
+      <c r="B403" s="4" t="s">
+        <v>1022</v>
+      </c>
+      <c r="C403" s="9">
+        <v>2013</v>
+      </c>
+      <c r="D403" s="9">
+        <v>119</v>
+      </c>
+      <c r="E403" s="9">
+        <v>12</v>
+      </c>
+      <c r="F403" s="5" t="s">
+        <v>1023</v>
+      </c>
+    </row>
+    <row r="404" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A404" s="3" t="s">
+        <v>452</v>
+      </c>
+      <c r="B404" s="4" t="s">
+        <v>1024</v>
+      </c>
+      <c r="C404" s="9">
+        <v>2013</v>
+      </c>
+      <c r="D404" s="9">
+        <v>121</v>
+      </c>
+      <c r="E404" s="9">
+        <v>18</v>
+      </c>
+      <c r="F404" s="5" t="s">
+        <v>1025</v>
+      </c>
+    </row>
+    <row r="405" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A405" s="3" t="s">
+        <v>453</v>
+      </c>
+      <c r="B405" s="4" t="s">
+        <v>1050</v>
+      </c>
+      <c r="C405" s="9">
+        <v>2018</v>
+      </c>
+      <c r="D405" s="9">
+        <v>160</v>
+      </c>
+      <c r="E405" s="9">
+        <v>12</v>
+      </c>
+      <c r="F405" s="5" t="s">
+        <v>1051</v>
+      </c>
+    </row>
+    <row r="406" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A406" s="3" t="s">
+        <v>454</v>
+      </c>
+      <c r="B406" s="4" t="s">
+        <v>872</v>
+      </c>
+      <c r="C406" s="9">
+        <v>2018</v>
+      </c>
+      <c r="D406" s="9">
+        <v>85</v>
+      </c>
+      <c r="E406" s="9">
+        <v>12</v>
+      </c>
+      <c r="F406" s="5" t="s">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="407" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A407" s="3" t="s">
+        <v>455</v>
+      </c>
+      <c r="B407" s="4" t="s">
+        <v>961</v>
+      </c>
+      <c r="C407" s="9">
+        <v>2016</v>
+      </c>
+      <c r="D407" s="9">
+        <v>97</v>
+      </c>
+      <c r="E407" s="9">
+        <v>0</v>
+      </c>
+      <c r="F407" s="5" t="s">
+        <v>962</v>
+      </c>
+    </row>
+    <row r="408" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A408" s="3" t="s">
+        <v>456</v>
+      </c>
+      <c r="B408" s="4" t="s">
+        <v>1235</v>
+      </c>
+      <c r="C408" s="9">
+        <v>2018</v>
+      </c>
+      <c r="D408" s="9">
+        <v>119</v>
+      </c>
+      <c r="E408" s="9">
+        <v>16</v>
+      </c>
+      <c r="F408" s="5" t="s">
+        <v>1236</v>
+      </c>
+    </row>
+    <row r="409" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A409" s="3" t="s">
+        <v>457</v>
+      </c>
+      <c r="B409" s="4" t="s">
+        <v>1269</v>
+      </c>
+      <c r="C409" s="9">
+        <v>2018</v>
+      </c>
+      <c r="D409" s="9">
+        <v>120</v>
+      </c>
+      <c r="E409" s="9">
+        <v>18</v>
+      </c>
+      <c r="F409" s="5" t="s">
+        <v>1270</v>
+      </c>
+    </row>
+    <row r="410" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A410" s="3" t="s">
+        <v>458</v>
+      </c>
+      <c r="B410" s="4" t="s">
+        <v>969</v>
+      </c>
+      <c r="C410" s="9">
+        <v>2018</v>
+      </c>
+      <c r="D410" s="9">
+        <v>125</v>
+      </c>
+      <c r="E410" s="9">
+        <v>12</v>
+      </c>
+      <c r="F410" s="5" t="s">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="411" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A411" s="3" t="s">
+        <v>459</v>
+      </c>
+      <c r="B411" s="4" t="s">
+        <v>1223</v>
+      </c>
+      <c r="C411" s="9">
+        <v>2018</v>
+      </c>
+      <c r="D411" s="9">
+        <v>105</v>
+      </c>
+      <c r="E411" s="9">
+        <v>12</v>
+      </c>
+      <c r="F411" s="5" t="s">
+        <v>1224</v>
+      </c>
+    </row>
+    <row r="412" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A412" s="3" t="s">
+        <v>460</v>
+      </c>
+      <c r="B412" s="4" t="s">
+        <v>1133</v>
+      </c>
+      <c r="C412" s="9">
+        <v>1992</v>
+      </c>
+      <c r="D412" s="9">
+        <v>139</v>
+      </c>
+      <c r="E412" s="9">
+        <v>16</v>
+      </c>
+      <c r="F412" s="5" t="s">
+        <v>1134</v>
+      </c>
+    </row>
+    <row r="413" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A413" s="3" t="s">
+        <v>461</v>
+      </c>
+      <c r="B413" s="4" t="s">
+        <v>905</v>
+      </c>
+      <c r="C413" s="9">
+        <v>2011</v>
+      </c>
+      <c r="D413" s="9">
+        <v>111</v>
+      </c>
+      <c r="E413" s="9">
+        <v>12</v>
+      </c>
+      <c r="F413" s="5" t="s">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="414" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A414" s="3" t="s">
+        <v>462</v>
+      </c>
+      <c r="B414" s="4" t="s">
+        <v>1253</v>
+      </c>
+      <c r="C414" s="9">
+        <v>2018</v>
+      </c>
+      <c r="D414" s="9">
+        <v>97</v>
+      </c>
+      <c r="E414" s="9">
+        <v>16</v>
+      </c>
+      <c r="F414" s="5" t="s">
+        <v>1254</v>
+      </c>
+    </row>
+    <row r="415" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A415" s="3" t="s">
+        <v>463</v>
+      </c>
+      <c r="B415" s="4" t="s">
+        <v>856</v>
+      </c>
+      <c r="C415" s="9">
+        <v>2018</v>
+      </c>
+      <c r="D415" s="9">
+        <v>134</v>
+      </c>
+      <c r="E415" s="9">
+        <v>12</v>
+      </c>
+      <c r="F415" s="5" t="s">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="416" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A416" s="3" t="s">
+        <v>464</v>
+      </c>
+      <c r="B416" s="4" t="s">
+        <v>899</v>
+      </c>
+      <c r="C416" s="9">
+        <v>2019</v>
+      </c>
+      <c r="D416" s="9">
+        <v>98</v>
+      </c>
+      <c r="E416" s="9">
+        <v>16</v>
+      </c>
+      <c r="F416" s="5" t="s">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="417" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A417" s="3" t="s">
+        <v>465</v>
+      </c>
+      <c r="B417" s="4" t="s">
+        <v>1157</v>
+      </c>
+      <c r="C417" s="9">
+        <v>2018</v>
+      </c>
+      <c r="D417" s="9">
+        <v>133</v>
+      </c>
+      <c r="E417" s="9">
+        <v>6</v>
+      </c>
+      <c r="F417" s="5" t="s">
+        <v>1158</v>
+      </c>
+    </row>
+    <row r="418" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A418" s="3" t="s">
+        <v>466</v>
+      </c>
+      <c r="B418" s="4" t="s">
+        <v>1131</v>
+      </c>
+      <c r="C418" s="9">
+        <v>2020</v>
+      </c>
+      <c r="D418" s="9">
+        <v>109</v>
+      </c>
+      <c r="E418" s="9">
+        <v>16</v>
+      </c>
+      <c r="F418" s="5" t="s">
+        <v>1132</v>
+      </c>
+    </row>
+    <row r="419" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A419" s="3" t="s">
+        <v>467</v>
+      </c>
+      <c r="B419" s="4" t="s">
+        <v>1036</v>
+      </c>
+      <c r="C419" s="9">
+        <v>2018</v>
+      </c>
+      <c r="D419" s="9">
+        <v>120</v>
+      </c>
+      <c r="E419" s="9">
+        <v>16</v>
+      </c>
+      <c r="F419" s="5" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="420" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A420" s="3" t="s">
+        <v>468</v>
+      </c>
+      <c r="B420" s="4" t="s">
+        <v>1064</v>
+      </c>
+      <c r="C420" s="9">
+        <v>2018</v>
+      </c>
+      <c r="D420" s="9">
+        <v>118</v>
+      </c>
+      <c r="E420" s="9">
+        <v>12</v>
+      </c>
+      <c r="F420" s="5" t="s">
+        <v>1065</v>
+      </c>
+    </row>
+    <row r="421" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A421" s="3" t="s">
+        <v>469</v>
+      </c>
+      <c r="B421" s="4" t="s">
+        <v>1068</v>
+      </c>
+      <c r="C421" s="9">
+        <v>2011</v>
+      </c>
+      <c r="D421" s="9">
+        <v>162</v>
+      </c>
+      <c r="E421" s="9">
+        <v>16</v>
+      </c>
+      <c r="F421" s="5" t="s">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="422" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A422" s="3" t="s">
+        <v>470</v>
+      </c>
+      <c r="B422" s="4" t="s">
+        <v>986</v>
+      </c>
+      <c r="C422" s="9">
+        <v>2018</v>
+      </c>
+      <c r="D422" s="9">
+        <v>142</v>
+      </c>
+      <c r="E422" s="9">
+        <v>12</v>
+      </c>
+      <c r="F422" s="5" t="s">
+        <v>987</v>
+      </c>
+    </row>
+    <row r="423" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A423" s="3" t="s">
+        <v>471</v>
+      </c>
+      <c r="B423" s="4" t="s">
+        <v>1212</v>
+      </c>
+      <c r="C423" s="9">
+        <v>2019</v>
+      </c>
+      <c r="D423" s="9">
+        <v>125</v>
+      </c>
+      <c r="E423" s="9">
+        <v>12</v>
+      </c>
+      <c r="F423" s="5" t="s">
+        <v>1213</v>
+      </c>
+    </row>
+    <row r="424" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A424" s="3" t="s">
+        <v>472</v>
+      </c>
+      <c r="B424" s="4" t="s">
+        <v>870</v>
+      </c>
+      <c r="C424" s="9">
+        <v>1961</v>
+      </c>
+      <c r="D424" s="9">
+        <v>126</v>
+      </c>
+      <c r="E424" s="9">
+        <v>12</v>
+      </c>
+      <c r="F424" s="5" t="s">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="425" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A425" s="3" t="s">
+        <v>473</v>
+      </c>
+      <c r="B425" s="4" t="s">
+        <v>895</v>
+      </c>
+      <c r="C425" s="9">
+        <v>2019</v>
+      </c>
+      <c r="D425" s="9">
+        <v>88</v>
+      </c>
+      <c r="E425" s="9">
+        <v>16</v>
+      </c>
+      <c r="F425" s="5" t="s">
+        <v>896</v>
+      </c>
+    </row>
+    <row r="426" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A426" s="3" t="s">
+        <v>474</v>
+      </c>
+      <c r="B426" s="4" t="s">
+        <v>1052</v>
+      </c>
+      <c r="C426" s="9">
+        <v>2019</v>
+      </c>
+      <c r="D426" s="9">
+        <v>182</v>
+      </c>
+      <c r="E426" s="9">
+        <v>12</v>
+      </c>
+      <c r="F426" s="5" t="s">
+        <v>1053</v>
+      </c>
+    </row>
+    <row r="427" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A427" s="3" t="s">
+        <v>475</v>
+      </c>
+      <c r="B427" s="4" t="s">
+        <v>901</v>
+      </c>
+      <c r="C427" s="9">
+        <v>2019</v>
+      </c>
+      <c r="D427" s="9">
+        <v>122</v>
+      </c>
+      <c r="E427" s="9">
+        <v>12</v>
+      </c>
+      <c r="F427" s="5" t="s">
+        <v>902</v>
+      </c>
+    </row>
+    <row r="428" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A428" s="3" t="s">
+        <v>476</v>
+      </c>
+      <c r="B428" s="4" t="s">
+        <v>880</v>
+      </c>
+      <c r="C428" s="9">
+        <v>2019</v>
+      </c>
+      <c r="D428" s="9">
+        <v>128</v>
+      </c>
+      <c r="E428" s="9">
+        <v>6</v>
+      </c>
+      <c r="F428" s="5" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="429" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A429" s="3" t="s">
+        <v>477</v>
+      </c>
+      <c r="B429" s="4" t="s">
+        <v>811</v>
+      </c>
+      <c r="C429" s="9">
+        <v>2019</v>
+      </c>
+      <c r="D429" s="9">
+        <v>128</v>
+      </c>
+      <c r="E429" s="9">
+        <v>16</v>
+      </c>
+      <c r="F429" s="5" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="430" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A430" s="3" t="s">
+        <v>478</v>
+      </c>
+      <c r="B430" s="4" t="s">
+        <v>1034</v>
+      </c>
+      <c r="C430" s="9">
+        <v>2020</v>
+      </c>
+      <c r="D430" s="9">
+        <v>134</v>
+      </c>
+      <c r="E430" s="9">
+        <v>12</v>
+      </c>
+      <c r="F430" s="5" t="s">
+        <v>1035</v>
+      </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F313">
-    <sortCondition ref="A2:A313"/>
-    <sortCondition ref="B2:B313"/>
-    <sortCondition ref="C2:C313"/>
-    <sortCondition ref="D2:D313"/>
-    <sortCondition ref="E2:E313"/>
-    <sortCondition ref="F2:F313"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F431">
+    <sortCondition ref="A2:A431"/>
+    <sortCondition ref="B2:B431"/>
+    <sortCondition ref="C2:C431"/>
+    <sortCondition ref="D2:D431"/>
+    <sortCondition ref="E2:E431"/>
+    <sortCondition ref="F2:F431"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
